--- a/言語チートシート.xlsx
+++ b/言語チートシート.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9,7 +9,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A449F7A-348F-483D-BBAE-21486DE1FC89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4536BFA-CB4E-4E3A-A5F0-BCE49FD745D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="26700" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="514">
   <si>
     <t>変数強制定義</t>
   </si>
@@ -2069,6 +2069,54 @@
   </si>
   <si>
     <t>oMatchResult(1).SubMatches(1)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Application.Intersect(ActiveCell, ActiveSheet.UsedRange)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>範囲チェック</t>
+    <rPh sb="0" eb="2">
+      <t>ハンイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>True:アクティブセルがUsedRangeに含まれる False:含まれない</t>
+    <rPh sb="23" eb="24">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>範囲の共通部分取り出し</t>
+    <rPh sb="0" eb="2">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Set rTrgtRng = Application.Intersect(Selection, ActiveSheet.UsedRange)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -2723,13 +2771,13 @@
   <sheetPr codeName="Sheet1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F353"/>
+  <dimension ref="A1:F355"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C234" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomRight" activeCell="D271" sqref="D271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -8080,15 +8128,19 @@
         <v>127</v>
       </c>
     </row>
-    <row r="271" spans="1:6">
-      <c r="A271" s="20" t="s">
-        <v>409</v>
-      </c>
-      <c r="B271" s="8"/>
-      <c r="C271" s="8"/>
-      <c r="D271" s="8"/>
-      <c r="E271" s="21" t="s">
-        <v>127</v>
+    <row r="271" spans="1:6" outlineLevel="1">
+      <c r="A271" s="2"/>
+      <c r="B271" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="C271" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D271" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="E271" s="5" t="s">
+        <v>513</v>
       </c>
       <c r="F271" s="11" t="s">
         <v>127</v>
@@ -8097,35 +8149,29 @@
     <row r="272" spans="1:6" outlineLevel="1">
       <c r="A272" s="2"/>
       <c r="B272" s="2" t="s">
-        <v>264</v>
+        <v>509</v>
       </c>
       <c r="C272" s="22" t="s">
         <v>406</v>
       </c>
-      <c r="D272" s="4" t="str">
-        <f>"Application.DisplayAlerts = False"</f>
-        <v>Application.DisplayAlerts = False</v>
+      <c r="D272" s="4" t="s">
+        <v>508</v>
       </c>
       <c r="E272" s="5" t="s">
-        <v>127</v>
+        <v>510</v>
       </c>
       <c r="F272" s="11" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="273" spans="1:6" outlineLevel="1">
-      <c r="A273" s="2"/>
-      <c r="B273" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="C273" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D273" s="4" t="str">
-        <f>"Application.DisplayAlerts = True"</f>
-        <v>Application.DisplayAlerts = True</v>
-      </c>
-      <c r="E273" s="5" t="s">
+    <row r="273" spans="1:6">
+      <c r="A273" s="20" t="s">
+        <v>409</v>
+      </c>
+      <c r="B273" s="8"/>
+      <c r="C273" s="8"/>
+      <c r="D273" s="8"/>
+      <c r="E273" s="21" t="s">
         <v>127</v>
       </c>
       <c r="F273" s="11" t="s">
@@ -8135,14 +8181,14 @@
     <row r="274" spans="1:6" outlineLevel="1">
       <c r="A274" s="2"/>
       <c r="B274" s="2" t="s">
-        <v>172</v>
+        <v>264</v>
       </c>
       <c r="C274" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D274" s="4" t="str">
-        <f>".Rows(2).Select"</f>
-        <v>.Rows(2).Select</v>
+        <f>"Application.DisplayAlerts = False"</f>
+        <v>Application.DisplayAlerts = False</v>
       </c>
       <c r="E274" s="5" t="s">
         <v>127</v>
@@ -8154,14 +8200,14 @@
     <row r="275" spans="1:6" outlineLevel="1">
       <c r="A275" s="2"/>
       <c r="B275" s="2" t="s">
-        <v>173</v>
+        <v>263</v>
       </c>
       <c r="C275" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D275" s="4" t="str">
-        <f>".Columns(2).Select"</f>
-        <v>.Columns(2).Select</v>
+        <f>"Application.DisplayAlerts = True"</f>
+        <v>Application.DisplayAlerts = True</v>
       </c>
       <c r="E275" s="5" t="s">
         <v>127</v>
@@ -8173,14 +8219,14 @@
     <row r="276" spans="1:6" outlineLevel="1">
       <c r="A276" s="2"/>
       <c r="B276" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C276" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D276" s="4" t="str">
-        <f>".Cells(1,1).Select"</f>
-        <v>.Cells(1,1).Select</v>
+        <f>".Rows(2).Select"</f>
+        <v>.Rows(2).Select</v>
       </c>
       <c r="E276" s="5" t="s">
         <v>127</v>
@@ -8192,14 +8238,14 @@
     <row r="277" spans="1:6" outlineLevel="1">
       <c r="A277" s="2"/>
       <c r="B277" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C277" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D277" s="4" t="str">
-        <f>".Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).Select"</f>
-        <v>.Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).Select</v>
+        <f>".Columns(2).Select"</f>
+        <v>.Columns(2).Select</v>
       </c>
       <c r="E277" s="5" t="s">
         <v>127</v>
@@ -8211,14 +8257,14 @@
     <row r="278" spans="1:6" outlineLevel="1">
       <c r="A278" s="2"/>
       <c r="B278" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C278" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D278" s="4" t="str">
-        <f>".Cells.Find(""りんご"", LookAt:=xlWhole).Row"</f>
-        <v>.Cells.Find("りんご", LookAt:=xlWhole).Row</v>
+        <f>".Cells(1,1).Select"</f>
+        <v>.Cells(1,1).Select</v>
       </c>
       <c r="E278" s="5" t="s">
         <v>127</v>
@@ -8230,14 +8276,14 @@
     <row r="279" spans="1:6" outlineLevel="1">
       <c r="A279" s="2"/>
       <c r="B279" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C279" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D279" s="4" t="str">
-        <f>".Cells.Find(""りんご"", LookAt:=xlWhole).Column"</f>
-        <v>.Cells.Find("りんご", LookAt:=xlWhole).Column</v>
+        <f>".Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).Select"</f>
+        <v>.Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).Select</v>
       </c>
       <c r="E279" s="5" t="s">
         <v>127</v>
@@ -8249,17 +8295,17 @@
     <row r="280" spans="1:6" outlineLevel="1">
       <c r="A280" s="2"/>
       <c r="B280" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C280" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D280" s="4" t="str">
-        <f>".Cells(X, Y).Value"</f>
-        <v>.Cells(X, Y).Value</v>
+        <f>".Cells.Find(""りんご"", LookAt:=xlWhole).Row"</f>
+        <v>.Cells.Find("りんご", LookAt:=xlWhole).Row</v>
       </c>
       <c r="E280" s="5" t="s">
-        <v>308</v>
+        <v>127</v>
       </c>
       <c r="F280" s="11" t="s">
         <v>127</v>
@@ -8268,17 +8314,17 @@
     <row r="281" spans="1:6" outlineLevel="1">
       <c r="A281" s="2"/>
       <c r="B281" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C281" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D281" s="4" t="str">
-        <f>".Cells(1, 1).Top"</f>
-        <v>.Cells(1, 1).Top</v>
+        <f>".Cells.Find(""りんご"", LookAt:=xlWhole).Column"</f>
+        <v>.Cells.Find("りんご", LookAt:=xlWhole).Column</v>
       </c>
       <c r="E281" s="5" t="s">
-        <v>309</v>
+        <v>127</v>
       </c>
       <c r="F281" s="11" t="s">
         <v>127</v>
@@ -8287,17 +8333,17 @@
     <row r="282" spans="1:6" outlineLevel="1">
       <c r="A282" s="2"/>
       <c r="B282" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C282" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D282" s="4" t="str">
-        <f>".Cells(1, 1).Left"</f>
-        <v>.Cells(1, 1).Left</v>
+        <f>".Cells(X, Y).Value"</f>
+        <v>.Cells(X, Y).Value</v>
       </c>
       <c r="E282" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F282" s="11" t="s">
         <v>127</v>
@@ -8306,17 +8352,17 @@
     <row r="283" spans="1:6" outlineLevel="1">
       <c r="A283" s="2"/>
       <c r="B283" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C283" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D283" s="4" t="str">
-        <f>".Cells(1, 1).EntireRow.Delete Shift:=xlShiftUp"</f>
-        <v>.Cells(1, 1).EntireRow.Delete Shift:=xlShiftUp</v>
+        <f>".Cells(1, 1).Top"</f>
+        <v>.Cells(1, 1).Top</v>
       </c>
       <c r="E283" s="5" t="s">
-        <v>127</v>
+        <v>309</v>
       </c>
       <c r="F283" s="11" t="s">
         <v>127</v>
@@ -8325,93 +8371,93 @@
     <row r="284" spans="1:6" outlineLevel="1">
       <c r="A284" s="2"/>
       <c r="B284" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C284" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D284" s="4" t="str">
+        <f>".Cells(1, 1).Left"</f>
+        <v>.Cells(1, 1).Left</v>
+      </c>
+      <c r="E284" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="F284" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" outlineLevel="1">
+      <c r="A285" s="2"/>
+      <c r="B285" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C285" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D285" s="4" t="str">
+        <f>".Cells(1, 1).EntireRow.Delete Shift:=xlShiftUp"</f>
+        <v>.Cells(1, 1).EntireRow.Delete Shift:=xlShiftUp</v>
+      </c>
+      <c r="E285" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F285" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" outlineLevel="1">
+      <c r="A286" s="2"/>
+      <c r="B286" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C284" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D284" s="4" t="str">
+      <c r="C286" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D286" s="4" t="str">
         <f>"Application.CutCopyMode = False"&amp;CHAR(10)&amp;".Range(""2:4"").Insert"</f>
         <v>Application.CutCopyMode = False
 .Range("2:4").Insert</v>
       </c>
-      <c r="E284" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F284" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="285" spans="1:6" outlineLevel="1">
-      <c r="A285" s="2"/>
-      <c r="B285" s="2" t="s">
+      <c r="E286" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F286" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" outlineLevel="1">
+      <c r="A287" s="2"/>
+      <c r="B287" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C285" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D285" s="4" t="str">
+      <c r="C287" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D287" s="4" t="str">
         <f>".Cells(行, 列).Font.Strikethrough"</f>
         <v>.Cells(行, 列).Font.Strikethrough</v>
       </c>
-      <c r="E285" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F285" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="286" spans="1:6" outlineLevel="1">
-      <c r="A286" s="2"/>
-      <c r="B286" s="2" t="s">
+      <c r="E287" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F287" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" outlineLevel="1">
+      <c r="A288" s="2"/>
+      <c r="B288" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C286" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D286" s="4" t="str">
+      <c r="C288" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D288" s="4" t="str">
         <f>"wTrgtBook.Sheets(シート名).Activate"&amp;CHAR(10)&amp;"ActiveWindow.DisplayGridlines = False"</f>
         <v>wTrgtBook.Sheets(シート名).Activate
 ActiveWindow.DisplayGridlines = False</v>
       </c>
-      <c r="E286" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F286" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="287" spans="1:6" outlineLevel="1">
-      <c r="A287" s="2"/>
-      <c r="B287" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C287" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D287" s="4" t="str">
-        <f>".Range(""A1"").EntireRow.Hidden"</f>
-        <v>.Range("A1").EntireRow.Hidden</v>
-      </c>
-      <c r="E287" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F287" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="288" spans="1:6" outlineLevel="1">
-      <c r="A288" s="2"/>
-      <c r="B288" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C288" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D288" s="4" t="str">
-        <f>".Range(""A1"").EntireColumn.Hidden"</f>
-        <v>.Range("A1").EntireColumn.Hidden</v>
-      </c>
       <c r="E288" s="5" t="s">
         <v>127</v>
       </c>
@@ -8422,12 +8468,50 @@
     <row r="289" spans="1:6" outlineLevel="1">
       <c r="A289" s="2"/>
       <c r="B289" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C289" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D289" s="4" t="str">
+        <f>".Range(""A1"").EntireRow.Hidden"</f>
+        <v>.Range("A1").EntireRow.Hidden</v>
+      </c>
+      <c r="E289" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F289" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" outlineLevel="1">
+      <c r="A290" s="2"/>
+      <c r="B290" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C290" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D290" s="4" t="str">
+        <f>".Range(""A1"").EntireColumn.Hidden"</f>
+        <v>.Range("A1").EntireColumn.Hidden</v>
+      </c>
+      <c r="E290" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F290" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" outlineLevel="1">
+      <c r="A291" s="2"/>
+      <c r="B291" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="C289" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D289" s="4" t="str">
+      <c r="C291" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D291" s="4" t="str">
         <f>"If .Cells(1, 1).EntireRow.Hidden Or .Cells(1, 1).EntireColumn.Hidden Then
     '非表示セル
 Else
@@ -8441,44 +8525,6 @@
 End If
 </v>
       </c>
-      <c r="E289" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F289" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="290" spans="1:6" outlineLevel="1">
-      <c r="A290" s="2"/>
-      <c r="B290" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C290" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D290" s="4" t="str">
-        <f>"文字列変数 = .Range(""A1"").Font.Name"</f>
-        <v>文字列変数 = .Range("A1").Font.Name</v>
-      </c>
-      <c r="E290" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F290" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="291" spans="1:6" outlineLevel="1">
-      <c r="A291" s="2"/>
-      <c r="B291" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C291" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D291" s="4" t="str">
-        <f>".Range(""A1"").Font.Size = 14"</f>
-        <v>.Range("A1").Font.Size = 14</v>
-      </c>
       <c r="E291" s="5" t="s">
         <v>127</v>
       </c>
@@ -8489,14 +8535,14 @@
     <row r="292" spans="1:6" outlineLevel="1">
       <c r="A292" s="2"/>
       <c r="B292" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C292" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D292" s="4" t="str">
-        <f>".Range(""A1"").Font.Color = RGB(0, 255, 0)"</f>
-        <v>.Range("A1").Font.Color = RGB(0, 255, 0)</v>
+        <f>"文字列変数 = .Range(""A1"").Font.Name"</f>
+        <v>文字列変数 = .Range("A1").Font.Name</v>
       </c>
       <c r="E292" s="5" t="s">
         <v>127</v>
@@ -8508,14 +8554,14 @@
     <row r="293" spans="1:6" outlineLevel="1">
       <c r="A293" s="2"/>
       <c r="B293" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C293" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D293" s="4" t="str">
-        <f>".Range(""A1"").Font.Bold = True"</f>
-        <v>.Range("A1").Font.Bold = True</v>
+        <f>".Range(""A1"").Font.Size = 14"</f>
+        <v>.Range("A1").Font.Size = 14</v>
       </c>
       <c r="E293" s="5" t="s">
         <v>127</v>
@@ -8527,14 +8573,14 @@
     <row r="294" spans="1:6" outlineLevel="1">
       <c r="A294" s="2"/>
       <c r="B294" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C294" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D294" s="4" t="str">
-        <f>".Range(""A1"").Font.Underline = True"</f>
-        <v>.Range("A1").Font.Underline = True</v>
+        <f>".Range(""A1"").Font.Color = RGB(0, 255, 0)"</f>
+        <v>.Range("A1").Font.Color = RGB(0, 255, 0)</v>
       </c>
       <c r="E294" s="5" t="s">
         <v>127</v>
@@ -8546,14 +8592,14 @@
     <row r="295" spans="1:6" outlineLevel="1">
       <c r="A295" s="2"/>
       <c r="B295" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C295" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D295" s="4" t="str">
-        <f>".Range(""A1"").Interior.Color = RGB(255, 255, 0)"</f>
-        <v>.Range("A1").Interior.Color = RGB(255, 255, 0)</v>
+        <f>".Range(""A1"").Font.Bold = True"</f>
+        <v>.Range("A1").Font.Bold = True</v>
       </c>
       <c r="E295" s="5" t="s">
         <v>127</v>
@@ -8565,14 +8611,14 @@
     <row r="296" spans="1:6" outlineLevel="1">
       <c r="A296" s="2"/>
       <c r="B296" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C296" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D296" s="4" t="str">
-        <f>".Range(""A1:C3"").Borders.LineStyle = xlContinuous"</f>
-        <v>.Range("A1:C3").Borders.LineStyle = xlContinuous</v>
+        <f>".Range(""A1"").Font.Underline = True"</f>
+        <v>.Range("A1").Font.Underline = True</v>
       </c>
       <c r="E296" s="5" t="s">
         <v>127</v>
@@ -8584,14 +8630,14 @@
     <row r="297" spans="1:6" outlineLevel="1">
       <c r="A297" s="2"/>
       <c r="B297" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C297" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D297" s="4" t="str">
-        <f>".Range(""A1:C3"").MergeCells = True"</f>
-        <v>.Range("A1:C3").MergeCells = True</v>
+        <f>".Range(""A1"").Interior.Color = RGB(255, 255, 0)"</f>
+        <v>.Range("A1").Interior.Color = RGB(255, 255, 0)</v>
       </c>
       <c r="E297" s="5" t="s">
         <v>127</v>
@@ -8603,17 +8649,17 @@
     <row r="298" spans="1:6" outlineLevel="1">
       <c r="A298" s="2"/>
       <c r="B298" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C298" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D298" s="4" t="str">
-        <f>".Range(""A1:C3"").HorizontalAlignment = xlGeneral"</f>
-        <v>.Range("A1:C3").HorizontalAlignment = xlGeneral</v>
+        <f>".Range(""A1:C3"").Borders.LineStyle = xlContinuous"</f>
+        <v>.Range("A1:C3").Borders.LineStyle = xlContinuous</v>
       </c>
       <c r="E298" s="5" t="s">
-        <v>265</v>
+        <v>127</v>
       </c>
       <c r="F298" s="11" t="s">
         <v>127</v>
@@ -8622,17 +8668,17 @@
     <row r="299" spans="1:6" outlineLevel="1">
       <c r="A299" s="2"/>
       <c r="B299" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C299" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D299" s="4" t="str">
-        <f>".Range(""A1:C3"").VerticalAlignment = xlCenter"</f>
-        <v>.Range("A1:C3").VerticalAlignment = xlCenter</v>
+        <f>".Range(""A1:C3"").MergeCells = True"</f>
+        <v>.Range("A1:C3").MergeCells = True</v>
       </c>
       <c r="E299" s="5" t="s">
-        <v>196</v>
+        <v>127</v>
       </c>
       <c r="F299" s="11" t="s">
         <v>127</v>
@@ -8641,17 +8687,17 @@
     <row r="300" spans="1:6" outlineLevel="1">
       <c r="A300" s="2"/>
       <c r="B300" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C300" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D300" s="4" t="str">
-        <f>".Cells(.Rows.Count, 列).End(xlUp).Row"</f>
-        <v>.Cells(.Rows.Count, 列).End(xlUp).Row</v>
+        <f>".Range(""A1:C3"").HorizontalAlignment = xlGeneral"</f>
+        <v>.Range("A1:C3").HorizontalAlignment = xlGeneral</v>
       </c>
       <c r="E300" s="5" t="s">
-        <v>127</v>
+        <v>265</v>
       </c>
       <c r="F300" s="11" t="s">
         <v>127</v>
@@ -8660,17 +8706,17 @@
     <row r="301" spans="1:6" outlineLevel="1">
       <c r="A301" s="2"/>
       <c r="B301" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C301" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D301" s="4" t="str">
-        <f>".Cells(行, .Columns.Count).End(xlToLeft).Column"</f>
-        <v>.Cells(行, .Columns.Count).End(xlToLeft).Column</v>
+        <f>".Range(""A1:C3"").VerticalAlignment = xlCenter"</f>
+        <v>.Range("A1:C3").VerticalAlignment = xlCenter</v>
       </c>
       <c r="E301" s="5" t="s">
-        <v>127</v>
+        <v>196</v>
       </c>
       <c r="F301" s="11" t="s">
         <v>127</v>
@@ -8679,14 +8725,14 @@
     <row r="302" spans="1:6" outlineLevel="1">
       <c r="A302" s="2"/>
       <c r="B302" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C302" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D302" s="4" t="str">
-        <f>".Sheets(シート名).UsedRange.Rows.Count + 1"</f>
-        <v>.Sheets(シート名).UsedRange.Rows.Count + 1</v>
+        <f>".Cells(.Rows.Count, 列).End(xlUp).Row"</f>
+        <v>.Cells(.Rows.Count, 列).End(xlUp).Row</v>
       </c>
       <c r="E302" s="5" t="s">
         <v>127</v>
@@ -8698,14 +8744,14 @@
     <row r="303" spans="1:6" outlineLevel="1">
       <c r="A303" s="2"/>
       <c r="B303" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C303" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D303" s="4" t="str">
-        <f>".Sheets(シート名).UsedRange.Columns.Count + 1"</f>
-        <v>.Sheets(シート名).UsedRange.Columns.Count + 1</v>
+        <f>".Cells(行, .Columns.Count).End(xlToLeft).Column"</f>
+        <v>.Cells(行, .Columns.Count).End(xlToLeft).Column</v>
       </c>
       <c r="E303" s="5" t="s">
         <v>127</v>
@@ -8717,14 +8763,14 @@
     <row r="304" spans="1:6" outlineLevel="1">
       <c r="A304" s="2"/>
       <c r="B304" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C304" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D304" s="4" t="str">
-        <f>"Selection(1).Row"</f>
-        <v>Selection(1).Row</v>
+        <f>".Sheets(シート名).UsedRange.Rows.Count + 1"</f>
+        <v>.Sheets(シート名).UsedRange.Rows.Count + 1</v>
       </c>
       <c r="E304" s="5" t="s">
         <v>127</v>
@@ -8736,14 +8782,14 @@
     <row r="305" spans="1:6" outlineLevel="1">
       <c r="A305" s="2"/>
       <c r="B305" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C305" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D305" s="4" t="str">
-        <f>"Selection(Selection.Count).Row"</f>
-        <v>Selection(Selection.Count).Row</v>
+        <f>".Sheets(シート名).UsedRange.Columns.Count + 1"</f>
+        <v>.Sheets(シート名).UsedRange.Columns.Count + 1</v>
       </c>
       <c r="E305" s="5" t="s">
         <v>127</v>
@@ -8755,14 +8801,14 @@
     <row r="306" spans="1:6" outlineLevel="1">
       <c r="A306" s="2"/>
       <c r="B306" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C306" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D306" s="4" t="str">
-        <f>"Selection(1).Column"</f>
-        <v>Selection(1).Column</v>
+        <f>"Selection(1).Row"</f>
+        <v>Selection(1).Row</v>
       </c>
       <c r="E306" s="5" t="s">
         <v>127</v>
@@ -8774,14 +8820,14 @@
     <row r="307" spans="1:6" outlineLevel="1">
       <c r="A307" s="2"/>
       <c r="B307" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C307" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D307" s="4" t="str">
-        <f>"Selection(Selection.Count).Column"</f>
-        <v>Selection(Selection.Count).Column</v>
+        <f>"Selection(Selection.Count).Row"</f>
+        <v>Selection(Selection.Count).Row</v>
       </c>
       <c r="E307" s="5" t="s">
         <v>127</v>
@@ -8793,16 +8839,17 @@
     <row r="308" spans="1:6" outlineLevel="1">
       <c r="A308" s="2"/>
       <c r="B308" s="2" t="s">
-        <v>332</v>
+        <v>203</v>
       </c>
       <c r="C308" s="22" t="s">
         <v>406</v>
       </c>
-      <c r="D308" s="4" t="s">
-        <v>330</v>
+      <c r="D308" s="4" t="str">
+        <f>"Selection(1).Column"</f>
+        <v>Selection(1).Column</v>
       </c>
       <c r="E308" s="5" t="s">
-        <v>338</v>
+        <v>127</v>
       </c>
       <c r="F308" s="11" t="s">
         <v>127</v>
@@ -8811,16 +8858,17 @@
     <row r="309" spans="1:6" outlineLevel="1">
       <c r="A309" s="2"/>
       <c r="B309" s="2" t="s">
-        <v>333</v>
+        <v>204</v>
       </c>
       <c r="C309" s="22" t="s">
         <v>406</v>
       </c>
-      <c r="D309" s="4" t="s">
-        <v>331</v>
+      <c r="D309" s="4" t="str">
+        <f>"Selection(Selection.Count).Column"</f>
+        <v>Selection(Selection.Count).Column</v>
       </c>
       <c r="E309" s="5" t="s">
-        <v>336</v>
+        <v>127</v>
       </c>
       <c r="F309" s="11" t="s">
         <v>127</v>
@@ -8829,16 +8877,16 @@
     <row r="310" spans="1:6" outlineLevel="1">
       <c r="A310" s="2"/>
       <c r="B310" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C310" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D310" s="4" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="E310" s="5" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F310" s="11" t="s">
         <v>127</v>
@@ -8847,17 +8895,16 @@
     <row r="311" spans="1:6" outlineLevel="1">
       <c r="A311" s="2"/>
       <c r="B311" s="2" t="s">
-        <v>205</v>
+        <v>333</v>
       </c>
       <c r="C311" s="22" t="s">
         <v>406</v>
       </c>
-      <c r="D311" s="4" t="str">
-        <f>".Range(.Cells(1, 1), .Cells(6, 3))"</f>
-        <v>.Range(.Cells(1, 1), .Cells(6, 3))</v>
+      <c r="D311" s="4" t="s">
+        <v>331</v>
       </c>
       <c r="E311" s="5" t="s">
-        <v>127</v>
+        <v>336</v>
       </c>
       <c r="F311" s="11" t="s">
         <v>127</v>
@@ -8866,17 +8913,16 @@
     <row r="312" spans="1:6" outlineLevel="1">
       <c r="A312" s="2"/>
       <c r="B312" s="2" t="s">
-        <v>206</v>
+        <v>334</v>
       </c>
       <c r="C312" s="22" t="s">
         <v>406</v>
       </c>
-      <c r="D312" s="4" t="str">
-        <f>".Range(""A1:B9"").Copy Destination:=ThisWorkBook.Sheets(シート名２).Range(""B1"")"</f>
-        <v>.Range("A1:B9").Copy Destination:=ThisWorkBook.Sheets(シート名２).Range("B1")</v>
+      <c r="D312" s="4" t="s">
+        <v>335</v>
       </c>
       <c r="E312" s="5" t="s">
-        <v>127</v>
+        <v>337</v>
       </c>
       <c r="F312" s="11" t="s">
         <v>127</v>
@@ -8885,14 +8931,14 @@
     <row r="313" spans="1:6" outlineLevel="1">
       <c r="A313" s="2"/>
       <c r="B313" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C313" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D313" s="4" t="str">
-        <f>".Range(.Cells(1, 1), .Cells(.Rows.Count, 2)).Sort Key1:=.Cells(1, 2) ,order1:=xlAscending"</f>
-        <v>.Range(.Cells(1, 1), .Cells(.Rows.Count, 2)).Sort Key1:=.Cells(1, 2) ,order1:=xlAscending</v>
+        <f>".Range(.Cells(1, 1), .Cells(6, 3))"</f>
+        <v>.Range(.Cells(1, 1), .Cells(6, 3))</v>
       </c>
       <c r="E313" s="5" t="s">
         <v>127</v>
@@ -8904,14 +8950,14 @@
     <row r="314" spans="1:6" outlineLevel="1">
       <c r="A314" s="2"/>
       <c r="B314" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C314" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D314" s="4" t="str">
-        <f>".Range(""A1:A2"").ClearContents"</f>
-        <v>.Range("A1:A2").ClearContents</v>
+        <f>".Range(""A1:B9"").Copy Destination:=ThisWorkBook.Sheets(シート名２).Range(""B1"")"</f>
+        <v>.Range("A1:B9").Copy Destination:=ThisWorkBook.Sheets(シート名２).Range("B1")</v>
       </c>
       <c r="E314" s="5" t="s">
         <v>127</v>
@@ -8923,14 +8969,14 @@
     <row r="315" spans="1:6" outlineLevel="1">
       <c r="A315" s="2"/>
       <c r="B315" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C315" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D315" s="4" t="str">
-        <f>".Range(""A1:A2"").ClearFormats"</f>
-        <v>.Range("A1:A2").ClearFormats</v>
+        <f>".Range(.Cells(1, 1), .Cells(.Rows.Count, 2)).Sort Key1:=.Cells(1, 2) ,order1:=xlAscending"</f>
+        <v>.Range(.Cells(1, 1), .Cells(.Rows.Count, 2)).Sort Key1:=.Cells(1, 2) ,order1:=xlAscending</v>
       </c>
       <c r="E315" s="5" t="s">
         <v>127</v>
@@ -8942,17 +8988,17 @@
     <row r="316" spans="1:6" outlineLevel="1">
       <c r="A316" s="2"/>
       <c r="B316" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C316" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D316" s="4" t="str">
-        <f>".Range(""A1:A2"").PasteSpecial (xlPasteFormats)"</f>
-        <v>.Range("A1:A2").PasteSpecial (xlPasteFormats)</v>
+        <f>".Range(""A1:A2"").ClearContents"</f>
+        <v>.Range("A1:A2").ClearContents</v>
       </c>
       <c r="E316" s="5" t="s">
-        <v>196</v>
+        <v>127</v>
       </c>
       <c r="F316" s="11" t="s">
         <v>127</v>
@@ -8961,14 +9007,14 @@
     <row r="317" spans="1:6" outlineLevel="1">
       <c r="A317" s="2"/>
       <c r="B317" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C317" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D317" s="4" t="str">
-        <f>".Range(""A1:CV100"").SpecialCells(xlCellTypeBlanks).Select"</f>
-        <v>.Range("A1:CV100").SpecialCells(xlCellTypeBlanks).Select</v>
+        <f>".Range(""A1:A2"").ClearFormats"</f>
+        <v>.Range("A1:A2").ClearFormats</v>
       </c>
       <c r="E317" s="5" t="s">
         <v>127</v>
@@ -8980,17 +9026,17 @@
     <row r="318" spans="1:6" outlineLevel="1">
       <c r="A318" s="2"/>
       <c r="B318" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C318" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D318" s="4" t="str">
-        <f>".Range(""A1"").ColumnWidth = 5"</f>
-        <v>.Range("A1").ColumnWidth = 5</v>
+        <f>".Range(""A1:A2"").PasteSpecial (xlPasteFormats)"</f>
+        <v>.Range("A1:A2").PasteSpecial (xlPasteFormats)</v>
       </c>
       <c r="E318" s="5" t="s">
-        <v>311</v>
+        <v>196</v>
       </c>
       <c r="F318" s="11" t="s">
         <v>127</v>
@@ -8999,17 +9045,17 @@
     <row r="319" spans="1:6" outlineLevel="1">
       <c r="A319" s="2"/>
       <c r="B319" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C319" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D319" s="4" t="str">
-        <f>".Range(.Cells(4, 2), .Cells(9, 2)).Columns.AutoFit"</f>
-        <v>.Range(.Cells(4, 2), .Cells(9, 2)).Columns.AutoFit</v>
+        <f>".Range(""A1:CV100"").SpecialCells(xlCellTypeBlanks).Select"</f>
+        <v>.Range("A1:CV100").SpecialCells(xlCellTypeBlanks).Select</v>
       </c>
       <c r="E319" s="5" t="s">
-        <v>312</v>
+        <v>127</v>
       </c>
       <c r="F319" s="11" t="s">
         <v>127</v>
@@ -9018,17 +9064,17 @@
     <row r="320" spans="1:6" outlineLevel="1">
       <c r="A320" s="2"/>
       <c r="B320" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C320" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D320" s="4" t="str">
-        <f>".Sheets(シート名).UsedRange.Columns.AutoFit"</f>
-        <v>.Sheets(シート名).UsedRange.Columns.AutoFit</v>
+        <f>".Range(""A1"").ColumnWidth = 5"</f>
+        <v>.Range("A1").ColumnWidth = 5</v>
       </c>
       <c r="E320" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F320" s="11" t="s">
         <v>127</v>
@@ -9037,17 +9083,17 @@
     <row r="321" spans="1:6" outlineLevel="1">
       <c r="A321" s="2"/>
       <c r="B321" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C321" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D321" s="4" t="str">
-        <f>"Application.CutCopyMode = False"</f>
-        <v>Application.CutCopyMode = False</v>
+        <f>".Range(.Cells(4, 2), .Cells(9, 2)).Columns.AutoFit"</f>
+        <v>.Range(.Cells(4, 2), .Cells(9, 2)).Columns.AutoFit</v>
       </c>
       <c r="E321" s="5" t="s">
-        <v>127</v>
+        <v>312</v>
       </c>
       <c r="F321" s="11" t="s">
         <v>127</v>
@@ -9056,17 +9102,17 @@
     <row r="322" spans="1:6" outlineLevel="1">
       <c r="A322" s="2"/>
       <c r="B322" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C322" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D322" s="4" t="str">
-        <f>".Range( .Rows( lStrtRow ), .Rows( lLastRow ) ).Group"</f>
-        <v>.Range( .Rows( lStrtRow ), .Rows( lLastRow ) ).Group</v>
+        <f>".Sheets(シート名).UsedRange.Columns.AutoFit"</f>
+        <v>.Sheets(シート名).UsedRange.Columns.AutoFit</v>
       </c>
       <c r="E322" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F322" s="11" t="s">
         <v>127</v>
@@ -9075,17 +9121,17 @@
     <row r="323" spans="1:6" outlineLevel="1">
       <c r="A323" s="2"/>
       <c r="B323" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C323" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D323" s="4" t="str">
-        <f>".Range( .Columns( lStrtRow ), .Columns( lLastRow ) ).Group"</f>
-        <v>.Range( .Columns( lStrtRow ), .Columns( lLastRow ) ).Group</v>
+        <f>"Application.CutCopyMode = False"</f>
+        <v>Application.CutCopyMode = False</v>
       </c>
       <c r="E323" s="5" t="s">
-        <v>313</v>
+        <v>127</v>
       </c>
       <c r="F323" s="11" t="s">
         <v>127</v>
@@ -9094,17 +9140,17 @@
     <row r="324" spans="1:6" outlineLevel="1">
       <c r="A324" s="2"/>
       <c r="B324" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C324" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D324" s="4" t="str">
-        <f>".Sheets(シート名).Outline.SummaryRow = ( xlBelow \| xlAbove )"</f>
-        <v>.Sheets(シート名).Outline.SummaryRow = ( xlBelow \| xlAbove )</v>
+        <f>".Range( .Rows( lStrtRow ), .Rows( lLastRow ) ).Group"</f>
+        <v>.Range( .Rows( lStrtRow ), .Rows( lLastRow ) ).Group</v>
       </c>
       <c r="E324" s="5" t="s">
-        <v>127</v>
+        <v>313</v>
       </c>
       <c r="F324" s="11" t="s">
         <v>127</v>
@@ -9113,17 +9159,17 @@
     <row r="325" spans="1:6" outlineLevel="1">
       <c r="A325" s="2"/>
       <c r="B325" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C325" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D325" s="4" t="str">
-        <f>".Sheets(シート名).Outline.SummaryColumn = ( xlRight \| xlLeft )"</f>
-        <v>.Sheets(シート名).Outline.SummaryColumn = ( xlRight \| xlLeft )</v>
+        <f>".Range( .Columns( lStrtRow ), .Columns( lLastRow ) ).Group"</f>
+        <v>.Range( .Columns( lStrtRow ), .Columns( lLastRow ) ).Group</v>
       </c>
       <c r="E325" s="5" t="s">
-        <v>127</v>
+        <v>313</v>
       </c>
       <c r="F325" s="11" t="s">
         <v>127</v>
@@ -9132,14 +9178,14 @@
     <row r="326" spans="1:6" outlineLevel="1">
       <c r="A326" s="2"/>
       <c r="B326" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C326" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D326" s="4" t="str">
-        <f>".Sheets(シート名).Outline.AutomaticStyles = ( True \| False )"</f>
-        <v>.Sheets(シート名).Outline.AutomaticStyles = ( True \| False )</v>
+        <f>".Sheets(シート名).Outline.SummaryRow = ( xlBelow \| xlAbove )"</f>
+        <v>.Sheets(シート名).Outline.SummaryRow = ( xlBelow \| xlAbove )</v>
       </c>
       <c r="E326" s="5" t="s">
         <v>127</v>
@@ -9151,14 +9197,14 @@
     <row r="327" spans="1:6" outlineLevel="1">
       <c r="A327" s="2"/>
       <c r="B327" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C327" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D327" s="4" t="str">
-        <f>".Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).AutoFilter"</f>
-        <v>.Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).AutoFilter</v>
+        <f>".Sheets(シート名).Outline.SummaryColumn = ( xlRight \| xlLeft )"</f>
+        <v>.Sheets(シート名).Outline.SummaryColumn = ( xlRight \| xlLeft )</v>
       </c>
       <c r="E327" s="5" t="s">
         <v>127</v>
@@ -9170,94 +9216,94 @@
     <row r="328" spans="1:6" outlineLevel="1">
       <c r="A328" s="2"/>
       <c r="B328" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C328" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D328" s="4" t="str">
+        <f>".Sheets(シート名).Outline.AutomaticStyles = ( True \| False )"</f>
+        <v>.Sheets(シート名).Outline.AutomaticStyles = ( True \| False )</v>
+      </c>
+      <c r="E328" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F328" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" outlineLevel="1">
+      <c r="A329" s="2"/>
+      <c r="B329" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C329" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D329" s="4" t="str">
+        <f>".Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).AutoFilter"</f>
+        <v>.Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).AutoFilter</v>
+      </c>
+      <c r="E329" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F329" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" outlineLevel="1">
+      <c r="A330" s="2"/>
+      <c r="B330" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C328" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D328" s="4" t="str">
+      <c r="C330" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D330" s="4" t="str">
         <f>".Rows(行).Select"&amp;CHAR(10)&amp;"ActiveWindow.FreezePanes = True"</f>
         <v>.Rows(行).Select
 ActiveWindow.FreezePanes = True</v>
       </c>
-      <c r="E328" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F328" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="329" spans="1:6" outlineLevel="1">
-      <c r="A329" s="2"/>
-      <c r="B329" s="2" t="s">
+      <c r="E330" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F330" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" outlineLevel="1">
+      <c r="A331" s="2"/>
+      <c r="B331" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C329" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D329" s="4" t="str">
+      <c r="C331" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D331" s="4" t="str">
         <f>".Columns(列).Select"&amp;CHAR(10)&amp;"ActiveWindow.FreezePanes = True"</f>
         <v>.Columns(列).Select
 ActiveWindow.FreezePanes = True</v>
       </c>
-      <c r="E329" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F329" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="330" spans="1:6" outlineLevel="1">
-      <c r="A330" s="2"/>
-      <c r="B330" s="2" t="s">
+      <c r="E331" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F331" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" outlineLevel="1">
+      <c r="A332" s="2"/>
+      <c r="B332" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C330" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D330" s="4" t="str">
+      <c r="C332" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D332" s="4" t="str">
         <f>".Cells(行,列).Select"&amp;CHAR(10)&amp;"ActiveWindow.FreezePanes = True"</f>
         <v>.Cells(行,列).Select
 ActiveWindow.FreezePanes = True</v>
       </c>
-      <c r="E330" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F330" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="331" spans="1:6" outlineLevel="1">
-      <c r="A331" s="2"/>
-      <c r="B331" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="C331" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D331" s="4" t="str">
-        <f>"ActiveWindow.FreezePanes = False"</f>
-        <v>ActiveWindow.FreezePanes = False</v>
-      </c>
-      <c r="E331" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F331" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="332" spans="1:6" outlineLevel="1">
-      <c r="A332" s="2"/>
-      <c r="B332" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="C332" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D332" s="4" t="str">
-        <f>"Application.WorksheetFunction.VLookup(.Range(""C1""), .Range(""A1:B7""), 2, False)"</f>
-        <v>Application.WorksheetFunction.VLookup(.Range("C1"), .Range("A1:B7"), 2, False)</v>
-      </c>
       <c r="E332" s="5" t="s">
         <v>127</v>
       </c>
@@ -9268,17 +9314,17 @@
     <row r="333" spans="1:6" outlineLevel="1">
       <c r="A333" s="2"/>
       <c r="B333" s="2" t="s">
-        <v>126</v>
+        <v>223</v>
       </c>
       <c r="C333" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D333" s="4" t="str">
-        <f>"CreateObject(""WScript.Network"").UserName"</f>
-        <v>CreateObject("WScript.Network").UserName</v>
+        <f>"ActiveWindow.FreezePanes = False"</f>
+        <v>ActiveWindow.FreezePanes = False</v>
       </c>
       <c r="E333" s="5" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F333" s="11" t="s">
         <v>127</v>
@@ -9287,31 +9333,36 @@
     <row r="334" spans="1:6" outlineLevel="1">
       <c r="A334" s="2"/>
       <c r="B334" s="2" t="s">
-        <v>346</v>
+        <v>253</v>
       </c>
       <c r="C334" s="22" t="s">
         <v>406</v>
       </c>
-      <c r="D334" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="E334" s="6" t="str">
-        <f>HYPERLINK("https://msdn.microsoft.com/ja-jp/library/office/ff197461.aspx","sShtcutKey＝Shift:+,Ctrl:^,Alt:%,...")</f>
-        <v>sShtcutKey＝Shift:+,Ctrl:^,Alt:%,...</v>
+      <c r="D334" s="4" t="str">
+        <f>"Application.WorksheetFunction.VLookup(.Range(""C1""), .Range(""A1:B7""), 2, False)"</f>
+        <v>Application.WorksheetFunction.VLookup(.Range("C1"), .Range("A1:B7"), 2, False)</v>
+      </c>
+      <c r="E334" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="F334" s="11" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="335" spans="1:6">
-      <c r="A335" s="20" t="s">
-        <v>477</v>
-      </c>
-      <c r="B335" s="8"/>
-      <c r="C335" s="8"/>
-      <c r="D335" s="8"/>
-      <c r="E335" s="8" t="s">
-        <v>127</v>
+    <row r="335" spans="1:6" outlineLevel="1">
+      <c r="A335" s="2"/>
+      <c r="B335" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C335" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D335" s="4" t="str">
+        <f>"CreateObject(""WScript.Network"").UserName"</f>
+        <v>CreateObject("WScript.Network").UserName</v>
+      </c>
+      <c r="E335" s="5" t="s">
+        <v>133</v>
       </c>
       <c r="F335" s="11" t="s">
         <v>127</v>
@@ -9320,12 +9371,45 @@
     <row r="336" spans="1:6" outlineLevel="1">
       <c r="A336" s="2"/>
       <c r="B336" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C336" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D336" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="E336" s="6" t="str">
+        <f>HYPERLINK("https://msdn.microsoft.com/ja-jp/library/office/ff197461.aspx","sShtcutKey＝Shift:+,Ctrl:^,Alt:%,...")</f>
+        <v>sShtcutKey＝Shift:+,Ctrl:^,Alt:%,...</v>
+      </c>
+      <c r="F336" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6">
+      <c r="A337" s="20" t="s">
+        <v>477</v>
+      </c>
+      <c r="B337" s="8"/>
+      <c r="C337" s="8"/>
+      <c r="D337" s="8"/>
+      <c r="E337" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F337" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" outlineLevel="1">
+      <c r="A338" s="2"/>
+      <c r="B338" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="C336" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D336" s="2" t="str">
+      <c r="C338" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D338" s="2" t="str">
         <f>"Dim bIsSheetExist As Boolean
 bIsSheetExist = False
 For Each wSheet In ThisWorkbook.Worksheets
@@ -9345,19 +9429,19 @@
     End If
 Next wSheet</v>
       </c>
-      <c r="E336" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="337" spans="1:5" outlineLevel="1">
-      <c r="A337" s="2"/>
-      <c r="B337" s="2" t="s">
+      <c r="E338" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" outlineLevel="1">
+      <c r="A339" s="2"/>
+      <c r="B339" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="C337" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D337" s="2" t="str">
+      <c r="C339" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D339" s="2" t="str">
         <f>"Dim rFindResult As Range
 Dim sFindKeyword As String
 Dim shTrgtSht As Worksheet
@@ -9371,19 +9455,19 @@
 sFindKeyword = "test"
 Set rFindResult = shTrgtSht.Cells.Find(sFindKeyword, LookAt:=xlWhole)</v>
       </c>
-      <c r="E337" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="338" spans="1:5" outlineLevel="1">
-      <c r="A338" s="2"/>
-      <c r="B338" s="2" t="s">
+      <c r="E339" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" outlineLevel="1">
+      <c r="A340" s="2"/>
+      <c r="B340" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="C338" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D338" s="2" t="str">
+      <c r="C340" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D340" s="2" t="str">
         <f>"If rFindResult Is Nothing Then
     MsgBox _
         ""セルが見つからなかったため、処理を中断します。"" &amp; vbNewLine &amp; _
@@ -9401,29 +9485,11 @@
     End
 End If</v>
       </c>
-      <c r="E338" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="339" spans="1:5" outlineLevel="1">
-      <c r="A339" s="2"/>
-      <c r="B339" s="2"/>
-      <c r="C339" s="10"/>
-      <c r="D339" s="10"/>
-      <c r="E339" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="340" spans="1:5" outlineLevel="1">
-      <c r="A340" s="2"/>
-      <c r="B340" s="2"/>
-      <c r="C340" s="10"/>
-      <c r="D340" s="10"/>
       <c r="E340" s="5" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="341" spans="1:5" outlineLevel="1">
+    <row r="341" spans="1:6" outlineLevel="1">
       <c r="A341" s="2"/>
       <c r="B341" s="2"/>
       <c r="C341" s="10"/>
@@ -9432,7 +9498,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="342" spans="1:5" outlineLevel="1">
+    <row r="342" spans="1:6" outlineLevel="1">
       <c r="A342" s="2"/>
       <c r="B342" s="2"/>
       <c r="C342" s="10"/>
@@ -9441,7 +9507,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="343" spans="1:5" outlineLevel="1">
+    <row r="343" spans="1:6" outlineLevel="1">
       <c r="A343" s="2"/>
       <c r="B343" s="2"/>
       <c r="C343" s="10"/>
@@ -9450,7 +9516,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="344" spans="1:5" outlineLevel="1">
+    <row r="344" spans="1:6" outlineLevel="1">
       <c r="A344" s="2"/>
       <c r="B344" s="2"/>
       <c r="C344" s="10"/>
@@ -9459,7 +9525,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="345" spans="1:5" outlineLevel="1">
+    <row r="345" spans="1:6" outlineLevel="1">
       <c r="A345" s="2"/>
       <c r="B345" s="2"/>
       <c r="C345" s="10"/>
@@ -9468,7 +9534,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="346" spans="1:5" outlineLevel="1">
+    <row r="346" spans="1:6" outlineLevel="1">
       <c r="A346" s="2"/>
       <c r="B346" s="2"/>
       <c r="C346" s="10"/>
@@ -9477,7 +9543,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="347" spans="1:5" outlineLevel="1">
+    <row r="347" spans="1:6" outlineLevel="1">
       <c r="A347" s="2"/>
       <c r="B347" s="2"/>
       <c r="C347" s="10"/>
@@ -9486,7 +9552,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="348" spans="1:5" outlineLevel="1">
+    <row r="348" spans="1:6" outlineLevel="1">
       <c r="A348" s="2"/>
       <c r="B348" s="2"/>
       <c r="C348" s="10"/>
@@ -9495,7 +9561,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="349" spans="1:5" outlineLevel="1">
+    <row r="349" spans="1:6" outlineLevel="1">
       <c r="A349" s="2"/>
       <c r="B349" s="2"/>
       <c r="C349" s="10"/>
@@ -9504,7 +9570,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="350" spans="1:5" outlineLevel="1">
+    <row r="350" spans="1:6" outlineLevel="1">
       <c r="A350" s="2"/>
       <c r="B350" s="2"/>
       <c r="C350" s="10"/>
@@ -9513,7 +9579,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="351" spans="1:5" outlineLevel="1">
+    <row r="351" spans="1:6" outlineLevel="1">
       <c r="A351" s="2"/>
       <c r="B351" s="2"/>
       <c r="C351" s="10"/>
@@ -9522,20 +9588,38 @@
         <v>127</v>
       </c>
     </row>
-    <row r="353" spans="1:5">
-      <c r="A353" s="7" t="s">
+    <row r="352" spans="1:6" outlineLevel="1">
+      <c r="A352" s="2"/>
+      <c r="B352" s="2"/>
+      <c r="C352" s="10"/>
+      <c r="D352" s="10"/>
+      <c r="E352" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" outlineLevel="1">
+      <c r="A353" s="2"/>
+      <c r="B353" s="2"/>
+      <c r="C353" s="10"/>
+      <c r="D353" s="10"/>
+      <c r="E353" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5">
+      <c r="A355" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="B353" s="1" t="s">
+      <c r="B355" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="C353" s="1" t="s">
+      <c r="C355" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="D353" s="1" t="s">
+      <c r="D355" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="E353" s="1" t="s">
+      <c r="E355" s="1" t="s">
         <v>430</v>
       </c>
     </row>

--- a/言語チートシート.xlsx
+++ b/言語チートシート.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9,14 +9,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4536BFA-CB4E-4E3A-A5F0-BCE49FD745D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F718CCE-3F37-43D0-ADA9-01CFC589DA78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="26700" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="26700" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vbs,vba" sheetId="43" r:id="rId1"/>
+    <sheet name="bat" sheetId="44" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">bat!$A$2:$D$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'vbs,vba'!$A$2:$E$2</definedName>
     <definedName name="testname01">#REF!</definedName>
     <definedName name="testname03">!$A$1:$B$2</definedName>
@@ -65,8 +67,33 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Tatsuya Endo</author>
+  </authors>
+  <commentList>
+    <comment ref="B41" authorId="0" shapeId="0" xr:uid="{8E28BBD1-FE56-452F-A26B-FDE983D26793}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>N:数字（0:実行中のバッチファイル、1以降:バッチファイルの引数）</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="679">
   <si>
     <t>変数強制定義</t>
   </si>
@@ -2117,6 +2144,617 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>set LOGDIR=C:\Users\Dropbox</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>help dir</t>
+  </si>
+  <si>
+    <t>if %TAG\_TYPE% == a ( ～処理～ ) else if %TAG\_TYPE% == c ( ～処理～ ) else ( ～処理～ )</t>
+  </si>
+  <si>
+    <t>if not %TAG\_TYPE% == a</t>
+  </si>
+  <si>
+    <t>::コメント</t>
+  </si>
+  <si>
+    <t>echo Hello world!</t>
+  </si>
+  <si>
+    <t>echo.</t>
+  </si>
+  <si>
+    <t>\&gt;NUL 2&gt;&amp;1</t>
+  </si>
+  <si>
+    <t>del /a /q "c:\test\a.txt"</t>
+  </si>
+  <si>
+    <t>move "c:\test\a.txt" "c:\test\dst"</t>
+  </si>
+  <si>
+    <t>copy "c:\test\a.txt" "c:\test\dst"</t>
+  </si>
+  <si>
+    <t>rename "c:\test\a.txt" "b.txt"</t>
+  </si>
+  <si>
+    <t>mkdir "c:\test\a"</t>
+  </si>
+  <si>
+    <t>rmdir /s /q "c:\test"</t>
+  </si>
+  <si>
+    <t>move "c:\test\src" "c:\test\dst"</t>
+  </si>
+  <si>
+    <t>echo d | xcopy /e /h /r /y "c:\test\src" "c:\test\dst\src"</t>
+  </si>
+  <si>
+    <t>robocopy "c:\test\src" "c:\test\dst" /MIR /XD "System Volume Information"</t>
+  </si>
+  <si>
+    <t>tree /f</t>
+  </si>
+  <si>
+    <t>tree</t>
+  </si>
+  <si>
+    <t>dir /b /s /a</t>
+  </si>
+  <si>
+    <t>dir /b /s /a:d</t>
+  </si>
+  <si>
+    <t>dir /b /s /a:a-d</t>
+  </si>
+  <si>
+    <t>attrib +S C:\test.txt</t>
+  </si>
+  <si>
+    <t>attrib -S C:\test.txt</t>
+  </si>
+  <si>
+    <t>attrib +H C:\test.txt</t>
+  </si>
+  <si>
+    <t>attrib -H C:\test.txt</t>
+  </si>
+  <si>
+    <t>shutdown /s /t 120</t>
+  </si>
+  <si>
+    <t>shutdown /r /t 120</t>
+  </si>
+  <si>
+    <t>shutdown /a</t>
+  </si>
+  <si>
+    <t>mklink /d "c:\src\test" "d:\program files\dst\test"</t>
+  </si>
+  <si>
+    <t>mklink "c:\src\test.txt" "d:\program files\dst\test.txt"</t>
+  </si>
+  <si>
+    <t>setlocal ENABLEDELAYEDEXPANSION ～ endlocal</t>
+  </si>
+  <si>
+    <t>exit /B 0</t>
+  </si>
+  <si>
+    <t>setx MYPATH\_CODES "C:\codes"</t>
+  </si>
+  <si>
+    <t>reg delete HKCU\Environment /v MYPATH\_CODES</t>
+  </si>
+  <si>
+    <t>if {％MYPATH\_CODES％} == {0} ( ～環境変数が未存在～ )</t>
+  </si>
+  <si>
+    <t>shutdown -s -t 60</t>
+  </si>
+  <si>
+    <t>shutdown -r -t 60</t>
+  </si>
+  <si>
+    <t>変数定義</t>
+  </si>
+  <si>
+    <t>ブロック脱出</t>
+  </si>
+  <si>
+    <t>ヘルプ</t>
+  </si>
+  <si>
+    <t>if</t>
+  </si>
+  <si>
+    <t>if（否定）</t>
+  </si>
+  <si>
+    <t>出力</t>
+  </si>
+  <si>
+    <t>出力（改行のみ）</t>
+  </si>
+  <si>
+    <t>出力抑制</t>
+  </si>
+  <si>
+    <t>ファイル 移動</t>
+  </si>
+  <si>
+    <t>ファイル コピー</t>
+  </si>
+  <si>
+    <t>フォルダ 名称変更</t>
+  </si>
+  <si>
+    <t>フォルダ 移動</t>
+  </si>
+  <si>
+    <t>フォルダ同期</t>
+  </si>
+  <si>
+    <t>ファイル＆フォルダ ツリー取得(ファイル＆フォルダ)</t>
+  </si>
+  <si>
+    <t>ファイル＆フォルダ ツリー取得(フォルダのみ)</t>
+  </si>
+  <si>
+    <t>パス一覧取得(ファイル＆フォルダ)</t>
+  </si>
+  <si>
+    <t>パス一覧取得(フォルダのみ)</t>
+  </si>
+  <si>
+    <t>パス一覧取得(ファイルのみ)</t>
+  </si>
+  <si>
+    <t>システム属性設定</t>
+  </si>
+  <si>
+    <t>システム属性解除</t>
+  </si>
+  <si>
+    <t>隠し属性設定</t>
+  </si>
+  <si>
+    <t>隠し属性解除</t>
+  </si>
+  <si>
+    <t>２分後にシャットダウン</t>
+  </si>
+  <si>
+    <t>２分後に再起動</t>
+  </si>
+  <si>
+    <t>シャットダウンをキャンセル</t>
+  </si>
+  <si>
+    <t>シンボリックリンク作成（フォルダ）</t>
+  </si>
+  <si>
+    <t>シンボリックリンク作成（ファイル）</t>
+  </si>
+  <si>
+    <t>遅延展開変数設定</t>
+  </si>
+  <si>
+    <t>環境変数 設定</t>
+  </si>
+  <si>
+    <t>環境変数 解除</t>
+  </si>
+  <si>
+    <t>環境変数 存在確認</t>
+  </si>
+  <si>
+    <t>Windows 60秒後にシャットダウン</t>
+  </si>
+  <si>
+    <t>Windows 60秒後に再起動</t>
+  </si>
+  <si>
+    <t>パス一覧取得(.c、.hファイルのみ)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>dir \*.c \*.h /b /s /a:a-d</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・隠しファイル/システムファイルを含む 
+・「\*.cc」のような「\*.c」を文字列として含まれる拡張子は省かれる。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・隠しファイル/システムファイルを含む</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&lt;&lt;オプション&gt;&gt;
+  /a：読み取り専用、システムファイル、隠しファイル、アーカイブも含めて削除
+  /q：削除前に確認メッセージを表示しない
+  /s：指定されたファイルをすべてのサブディレクトリから削除する
+&lt;&lt;応用例&gt;&gt;
+  "C:\test\b" フォルダ配下（サブディレクトリ含む）にある .dat ファイル全削除
+    del /s /a /q "C:\test\b\\*.dat"</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>変更後のファイル名を指定する！パス指定不可！</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&lt;&lt;オプション&gt;&gt;
+  /s：ファイルやサブディレクトリも含めて削除する
+  /q：/sで削除する際に確認メッセージを表示しない</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>→"c:\test\dst\src" が作成される。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&lt;&lt;特記事項&gt;&gt;
+  - フォルダかファイルかを聞かれるため,「echo d」が必要。
+  - 「xcopy /e /h /r /y "c:\test\src" "c:\test\dst"」では、"c:\test\dst\src" より下のファイル/フォルダはコピーされるが、"src" フォルダ自体はコピーされない。
+&lt;&lt;オプション&gt;&gt;
+  - /e：ファイルが存在しなくてもディレクトリごとコピーする
+  - /h：隠しファイルやシステムファイルも全てコピーする
+  - /r：読み取り専用属性のファイルも上書きコピーできるようにする
+  - /y：同名のファイルが存在する場合、上書きの確認を行わない
+  - /-y：同名のファイルが存在する場合、上書きの確認を行う</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&lt;&lt;特記事項&gt;&gt;
+  - "c:\test\src\a.txt" が "c:\test\dst\a.txt" としてコピーされるイメージ
+&lt;&lt;オプション&gt;&gt;
+  - /MIR：ディレクトリ ツリーをミラー化する。
+  - /XD dir [ディレクトリ]... ：指定された名前/パスに一致するディレクトリを除外する。
+  - /XF file [ファイル]... ：指定された名前/パス/ワイルドカードに一致するファイルを除外する。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・隠しファイルやシステムファイルは表示不可</t>
+    <rPh sb="19" eb="21">
+      <t>フカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>基本構文</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウブン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>%N</t>
+  </si>
+  <si>
+    <t>文字列そのまま</t>
+  </si>
+  <si>
+    <t>C:\Users\draem\_000\Desktop\test\test 1-1.bat</t>
+  </si>
+  <si>
+    <t>%~N</t>
+  </si>
+  <si>
+    <t>すべての引用句</t>
+  </si>
+  <si>
+    <t>%~fN</t>
+  </si>
+  <si>
+    <t>完全修飾パス名</t>
+  </si>
+  <si>
+    <t>%~dN</t>
+  </si>
+  <si>
+    <t>ドライブ文字</t>
+  </si>
+  <si>
+    <t>%~pN</t>
+  </si>
+  <si>
+    <t>パス</t>
+  </si>
+  <si>
+    <t>\Users\draem\_000\Desktop\test\</t>
+  </si>
+  <si>
+    <t>%~dpN</t>
+  </si>
+  <si>
+    <t>ディレクトリパス</t>
+  </si>
+  <si>
+    <t>C:\Users\draem\_000\Desktop\test\</t>
+  </si>
+  <si>
+    <t>%~nN</t>
+  </si>
+  <si>
+    <t>ファイル名</t>
+  </si>
+  <si>
+    <t>test 1-1</t>
+  </si>
+  <si>
+    <t>%~xN</t>
+  </si>
+  <si>
+    <t>ファイル拡張子</t>
+  </si>
+  <si>
+    <t>.bat</t>
+  </si>
+  <si>
+    <t>%~nxN</t>
+  </si>
+  <si>
+    <t>ファイル名.拡張子</t>
+  </si>
+  <si>
+    <t>test 1-1.bat</t>
+  </si>
+  <si>
+    <t>%~sN</t>
+  </si>
+  <si>
+    <t>短いパス</t>
+  </si>
+  <si>
+    <t>C:\Users\DRAEM\_~1\Desktop\test\TEST1-~1.BAT</t>
+  </si>
+  <si>
+    <t>%~aN</t>
+  </si>
+  <si>
+    <t>ファイル属性</t>
+  </si>
+  <si>
+    <t>--a--------</t>
+  </si>
+  <si>
+    <t>%~tN</t>
+  </si>
+  <si>
+    <t>ファイル日付/時刻</t>
+  </si>
+  <si>
+    <t>2016/10/27 16:11</t>
+  </si>
+  <si>
+    <t>%~zN</t>
+  </si>
+  <si>
+    <t>ファイルサイズ</t>
+  </si>
+  <si>
+    <t>1397</t>
+  </si>
+  <si>
+    <t>%VAR%</t>
+  </si>
+  <si>
+    <t>%VAR:~m%</t>
+  </si>
+  <si>
+    <t>m文字目から、最後まで</t>
+  </si>
+  <si>
+    <t>%VAR:~m,n%</t>
+  </si>
+  <si>
+    <t>m文字目から、n文字分</t>
+  </si>
+  <si>
+    <t>%VAR:~m,-n%</t>
+  </si>
+  <si>
+    <t>m文字目から、最後のn文字分を除いたもの</t>
+  </si>
+  <si>
+    <t>%VAR:~-m%</t>
+  </si>
+  <si>
+    <t>後ろからm文字目から、最後まで</t>
+  </si>
+  <si>
+    <t>%VAR:~-m,n%</t>
+  </si>
+  <si>
+    <t>後ろからm文字目から、n文字分</t>
+  </si>
+  <si>
+    <t>%VAR:~-m,-n%</t>
+  </si>
+  <si>
+    <t>後ろからm文字目から、最後のn文字分を除いたもの</t>
+  </si>
+  <si>
+    <t>%VAR:c1=c2%</t>
+  </si>
+  <si>
+    <t>文字列切り取り</t>
+    <rPh sb="0" eb="3">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>変数VARの値全体</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>それぞれ複数の文字を指定することも可能</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>文字c1を文字c2に置換</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ファイル情報取得</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>フォルダ名</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>FOR %%アルファベット１文字 IN (ループ処理の対象) DO コマンド</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>for(フォルダ内対象)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>for(フォルダ内のフォルダのみ)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>FOR /D (ファイルパス) %%アルファベット１文字 IN (ループ処理の対象) DO コマンド</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ex. FOR %%I IN (\*.bat) DO TYPE %%I</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ex. FOR /D C:\ %%I IN (\*.txt) DO TYPE %%I</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>for(フォルダ配下の中身全部)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>FOR /R (ファイルパス) %%アルファベット１文字 IN (ループ処理の対象) DO コマンド</t>
+  </si>
+  <si>
+    <t>ex. FOR /R C:\ %%I IN (\*.txt) DO TYPE %%I</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>for(変数に値を代入してコマンドを実行)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>FOR /L %%アルファベット１文字 IN (開始値、増分、終了値) DO コマンド</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ex. FOR /L %%I IN (1,2,10) DO ECHO %%I</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>for(その他)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>FOR /F "トークンオプション" %%アルファベット１文字 IN (ループ処理の対象) DO コマンド</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&lt;&lt;トークンオプション&gt;&gt;
+  tokens= ：何番目のトークンを指定するか？
+  delims= ：トークンの区切り文字を指定
+  eol= ：この文字から始まる行を無視
+  skip= ：先頭から指定された行数、スキップする。
+  usebackq ：コマンドの出力を対象にする</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>for</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>FOR (オプション) %%アルファベット１文字 IN (ループ処理の対象) DO コマンド</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&lt;&lt;オプション&gt;&gt;
+  (オプション無し)：フォルダ内を対象にとる
+  /D：フォルダ名を対象にとる
+  /R：フォルダ名及びそのサブフォルダ内（そのフォルダの中のファイル名やフォルダ名）を対象にとる
+  /L：値を指定して代入する
+  /F：テキストファイル内の文章に対してトークンを取り出して代入する</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>注意：SET 文の間にスペースは入れない！</t>
+    <rPh sb="0" eb="2">
+      <t>チュウイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>注意：if 文の中にコメントは入れない！</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>カレントディレクトリ取得</t>
+    <rPh sb="10" eb="12">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>%CD%</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>%~dp0</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>c:\AAA（カレントディレクトリ＝.batを指す.lnkの作業フォルダ(なければ.lnkの格納フォルダ)）</t>
+    <rPh sb="23" eb="24">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>c:\AAA\（カレントディレクトリ＝.batの格納フォルダ）</t>
+    <rPh sb="24" eb="26">
+      <t>カクノウ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -2225,7 +2863,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -2329,6 +2967,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2342,7 +3002,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
@@ -2426,6 +3086,21 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2773,11 +3448,11 @@
   </sheetPr>
   <dimension ref="A1:F355"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C234" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C239" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D271" sqref="D271"/>
+      <selection pane="bottomRight" activeCell="D280" sqref="D280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -9637,4 +10312,1024 @@
   <pageSetup paperSize="9" scale="47" orientation="portrait" r:id="rId6"/>
   <legacyDrawing r:id="rId7"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{997FEDBF-B0E8-4AC4-BF8D-311B93943C49}">
+  <sheetPr codeName="Sheet2">
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:E88"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L1" sqref="L1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C40" sqref="C40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="3.83203125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="51.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="79.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="116.33203125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.33203125" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="13"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="27">
+      <c r="A2" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="20" t="s">
+        <v>597</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" outlineLevel="1">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" outlineLevel="1">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" outlineLevel="1">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" outlineLevel="1">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" outlineLevel="1">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" outlineLevel="1">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="94.5" outlineLevel="1">
+      <c r="A10" s="2"/>
+      <c r="B10" s="32" t="s">
+        <v>669</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" outlineLevel="1">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" outlineLevel="1">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" outlineLevel="1">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" outlineLevel="1">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>664</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="81" outlineLevel="1">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>667</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" outlineLevel="1">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" outlineLevel="1">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" outlineLevel="1">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" outlineLevel="1">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" outlineLevel="1">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" outlineLevel="1">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" outlineLevel="1">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" outlineLevel="1">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" outlineLevel="1">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" outlineLevel="1">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" outlineLevel="1">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" outlineLevel="1">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" outlineLevel="1">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" outlineLevel="1">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" outlineLevel="1">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>675</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" outlineLevel="1">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>676</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="20" t="s">
+        <v>648</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" outlineLevel="1">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>634</v>
+      </c>
+      <c r="D33" s="5"/>
+    </row>
+    <row r="34" spans="1:5" outlineLevel="1">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>635</v>
+      </c>
+      <c r="D34" s="5"/>
+    </row>
+    <row r="35" spans="1:5" outlineLevel="1">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="D35" s="5"/>
+    </row>
+    <row r="36" spans="1:5" outlineLevel="1">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="D36" s="5"/>
+    </row>
+    <row r="37" spans="1:5" outlineLevel="1">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="D37" s="5"/>
+    </row>
+    <row r="38" spans="1:5" outlineLevel="1">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="D38" s="5"/>
+    </row>
+    <row r="39" spans="1:5" outlineLevel="1">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="D39" s="5"/>
+    </row>
+    <row r="40" spans="1:5" outlineLevel="1">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="20" t="s">
+        <v>652</v>
+      </c>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" outlineLevel="1">
+      <c r="A42" s="2"/>
+      <c r="B42" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" outlineLevel="1">
+      <c r="A43" s="2"/>
+      <c r="B43" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" outlineLevel="1">
+      <c r="A44" s="2"/>
+      <c r="B44" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" outlineLevel="1">
+      <c r="A45" s="2"/>
+      <c r="B45" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" outlineLevel="1">
+      <c r="A46" s="2"/>
+      <c r="B46" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" outlineLevel="1">
+      <c r="A47" s="2"/>
+      <c r="B47" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" outlineLevel="1">
+      <c r="A48" s="2"/>
+      <c r="B48" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" outlineLevel="1">
+      <c r="A49" s="2"/>
+      <c r="B49" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" outlineLevel="1">
+      <c r="A50" s="2"/>
+      <c r="B50" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="27" outlineLevel="1">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="C51" s="31" t="str">
+        <f>"set CUR_DIR_PATH=%~dp0
+for %%1 in (""%CUR_DIR_PATH:~0,-1%"") do set DIR_NAME=%%~nx1\"</f>
+        <v>set CUR_DIR_PATH=%~dp0
+for %%1 in ("%CUR_DIR_PATH:~0,-1%") do set DIR_NAME=%%~nx1\</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" outlineLevel="1">
+      <c r="A52" s="2"/>
+      <c r="B52" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" outlineLevel="1">
+      <c r="A53" s="2"/>
+      <c r="B53" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" outlineLevel="1">
+      <c r="A54" s="2"/>
+      <c r="B54" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" outlineLevel="1">
+      <c r="A55" s="2"/>
+      <c r="B55" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="20" t="s">
+        <v>355</v>
+      </c>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="94.5" outlineLevel="1">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="D57" s="30" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" outlineLevel="1">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" outlineLevel="1">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" outlineLevel="1">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="D60" s="30" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" outlineLevel="1">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="40.5" outlineLevel="1">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="D62" s="30" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" outlineLevel="1">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="D63" s="30" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="135" outlineLevel="1">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="D64" s="30" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="94.5" outlineLevel="1">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="D65" s="30" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" outlineLevel="1">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" outlineLevel="1">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" outlineLevel="1">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="D68" s="30" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" outlineLevel="1">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="D69" s="30" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" outlineLevel="1">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="D70" s="30" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="27" outlineLevel="1">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="D71" s="30" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" outlineLevel="1">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" outlineLevel="1">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" outlineLevel="1">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" outlineLevel="1">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" outlineLevel="1">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" outlineLevel="1">
+      <c r="A77" s="2"/>
+      <c r="B77" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" outlineLevel="1">
+      <c r="A78" s="2"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="5"/>
+    </row>
+    <row r="79" spans="1:4" outlineLevel="1">
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="5"/>
+    </row>
+    <row r="80" spans="1:4" outlineLevel="1">
+      <c r="A80" s="2"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="5"/>
+    </row>
+    <row r="81" spans="1:4" outlineLevel="1">
+      <c r="A81" s="2"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="5"/>
+    </row>
+    <row r="82" spans="1:4" outlineLevel="1">
+      <c r="A82" s="2"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="5"/>
+    </row>
+    <row r="83" spans="1:4" outlineLevel="1">
+      <c r="A83" s="2"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="5"/>
+    </row>
+    <row r="84" spans="1:4" outlineLevel="1">
+      <c r="A84" s="2"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="5"/>
+    </row>
+    <row r="85" spans="1:4" outlineLevel="1">
+      <c r="A85" s="2"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="5"/>
+    </row>
+    <row r="86" spans="1:4" outlineLevel="1">
+      <c r="A86" s="2"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="5"/>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:D2" xr:uid="{8778A135-8AEC-4627-8764-24E51DD70D16}"/>
+  <phoneticPr fontId="3"/>
+  <hyperlinks>
+    <hyperlink ref="B10" r:id="rId1" xr:uid="{B737F66A-D676-4BA7-BF99-1511286B2A23}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="47" orientation="portrait" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
 </file>
--- a/言語チートシート.xlsx
+++ b/言語チートシート.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9,9 +9,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F718CCE-3F37-43D0-ADA9-01CFC589DA78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5091C373-4BE6-4759-8E52-EE78987B126F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="26700" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="26700" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vbs,vba" sheetId="43" r:id="rId1"/>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1479" uniqueCount="683">
   <si>
     <t>変数強制定義</t>
   </si>
@@ -2755,6 +2755,28 @@
     <rPh sb="24" eb="26">
       <t>カクノウ</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Application.StatusBar = "メッセージ"</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ステータスバー非表示</t>
+    <rPh sb="7" eb="10">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ステータスバー表示</t>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Application.StatusBar = False</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -3446,13 +3468,13 @@
   <sheetPr codeName="Sheet1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F355"/>
+  <dimension ref="A1:F357"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C239" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C304" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D280" sqref="D280"/>
+      <selection pane="bottomRight" activeCell="D337" sqref="D337"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -10062,16 +10084,18 @@
         <v>127</v>
       </c>
     </row>
-    <row r="337" spans="1:6">
-      <c r="A337" s="20" t="s">
-        <v>477</v>
-      </c>
-      <c r="B337" s="8"/>
-      <c r="C337" s="8"/>
-      <c r="D337" s="8"/>
-      <c r="E337" s="8" t="s">
-        <v>127</v>
-      </c>
+    <row r="337" spans="1:6" outlineLevel="1">
+      <c r="A337" s="2"/>
+      <c r="B337" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="C337" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D337" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="E337" s="5"/>
       <c r="F337" s="11" t="s">
         <v>127</v>
       </c>
@@ -10079,12 +10103,42 @@
     <row r="338" spans="1:6" outlineLevel="1">
       <c r="A338" s="2"/>
       <c r="B338" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="C338" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D338" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="E338" s="5"/>
+      <c r="F338" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6">
+      <c r="A339" s="20" t="s">
+        <v>477</v>
+      </c>
+      <c r="B339" s="8"/>
+      <c r="C339" s="8"/>
+      <c r="D339" s="8"/>
+      <c r="E339" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F339" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" outlineLevel="1">
+      <c r="A340" s="2"/>
+      <c r="B340" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="C338" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D338" s="2" t="str">
+      <c r="C340" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D340" s="2" t="str">
         <f>"Dim bIsSheetExist As Boolean
 bIsSheetExist = False
 For Each wSheet In ThisWorkbook.Worksheets
@@ -10104,19 +10158,19 @@
     End If
 Next wSheet</v>
       </c>
-      <c r="E338" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="339" spans="1:6" outlineLevel="1">
-      <c r="A339" s="2"/>
-      <c r="B339" s="2" t="s">
+      <c r="E340" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" outlineLevel="1">
+      <c r="A341" s="2"/>
+      <c r="B341" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="C339" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D339" s="2" t="str">
+      <c r="C341" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D341" s="2" t="str">
         <f>"Dim rFindResult As Range
 Dim sFindKeyword As String
 Dim shTrgtSht As Worksheet
@@ -10130,19 +10184,19 @@
 sFindKeyword = "test"
 Set rFindResult = shTrgtSht.Cells.Find(sFindKeyword, LookAt:=xlWhole)</v>
       </c>
-      <c r="E339" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="340" spans="1:6" outlineLevel="1">
-      <c r="A340" s="2"/>
-      <c r="B340" s="2" t="s">
+      <c r="E341" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" outlineLevel="1">
+      <c r="A342" s="2"/>
+      <c r="B342" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="C340" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D340" s="2" t="str">
+      <c r="C342" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D342" s="2" t="str">
         <f>"If rFindResult Is Nothing Then
     MsgBox _
         ""セルが見つからなかったため、処理を中断します。"" &amp; vbNewLine &amp; _
@@ -10160,24 +10214,6 @@
     End
 End If</v>
       </c>
-      <c r="E340" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="341" spans="1:6" outlineLevel="1">
-      <c r="A341" s="2"/>
-      <c r="B341" s="2"/>
-      <c r="C341" s="10"/>
-      <c r="D341" s="10"/>
-      <c r="E341" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="342" spans="1:6" outlineLevel="1">
-      <c r="A342" s="2"/>
-      <c r="B342" s="2"/>
-      <c r="C342" s="10"/>
-      <c r="D342" s="10"/>
       <c r="E342" s="5" t="s">
         <v>127</v>
       </c>
@@ -10281,20 +10317,38 @@
         <v>127</v>
       </c>
     </row>
-    <row r="355" spans="1:5">
-      <c r="A355" s="7" t="s">
+    <row r="354" spans="1:5" outlineLevel="1">
+      <c r="A354" s="2"/>
+      <c r="B354" s="2"/>
+      <c r="C354" s="10"/>
+      <c r="D354" s="10"/>
+      <c r="E354" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" outlineLevel="1">
+      <c r="A355" s="2"/>
+      <c r="B355" s="2"/>
+      <c r="C355" s="10"/>
+      <c r="D355" s="10"/>
+      <c r="E355" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5">
+      <c r="A357" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="B355" s="1" t="s">
+      <c r="B357" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="C355" s="1" t="s">
+      <c r="C357" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="D355" s="1" t="s">
+      <c r="D357" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="E355" s="1" t="s">
+      <c r="E357" s="1" t="s">
         <v>430</v>
       </c>
     </row>
@@ -10321,7 +10375,7 @@
   </sheetPr>
   <dimension ref="A1:E88"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/言語チートシート.xlsx
+++ b/言語チートシート.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9,7 +9,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6CCD6C4-1F97-4212-A4B2-053082F72654}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A2C9811-0871-430C-9F85-8907186AEE72}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="26700" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,22 @@
         </r>
       </text>
     </comment>
-    <comment ref="B101" authorId="0" shapeId="0" xr:uid="{2F2293EE-203B-4A8D-8D36-7A148CEE3BB1}">
+    <comment ref="C93" authorId="0" shapeId="0" xr:uid="{30E5E05C-5866-450B-9A92-8708F3312203}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>'0:日付+時刻 1:日付(漢字区切り) 2:日付(スラッシュ区切り) 3:時刻(時:分:秒) 4:時刻(時:分)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B105" authorId="0" shapeId="0" xr:uid="{2F2293EE-203B-4A8D-8D36-7A148CEE3BB1}">
       <text>
         <r>
           <rPr>
@@ -63,7 +78,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C102" authorId="0" shapeId="0" xr:uid="{A28ED36A-D87E-4F2B-9BC4-F256870A96AA}">
+    <comment ref="C106" authorId="0" shapeId="0" xr:uid="{A28ED36A-D87E-4F2B-9BC4-F256870A96AA}">
       <text>
         <r>
           <rPr>
@@ -78,7 +93,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B107" authorId="0" shapeId="0" xr:uid="{A70339C8-21D4-47A8-B6EE-452435752767}">
+    <comment ref="B111" authorId="0" shapeId="0" xr:uid="{A70339C8-21D4-47A8-B6EE-452435752767}">
       <text>
         <r>
           <rPr>
@@ -123,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="708">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="723">
   <si>
     <t>変数強制定義</t>
   </si>
@@ -2958,6 +2973,132 @@
   </si>
   <si>
     <t>ＸＬＳ オープン/クローズ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>2013年01月02日</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>FormatDateTime(Now, 1)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>文字列表示形式(数値)</t>
+    <rPh sb="0" eb="3">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>スウチ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>文字列表示形式(日付)</t>
+    <rPh sb="0" eb="3">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>文字列表示形式(通貨)</t>
+    <rPh sb="0" eb="3">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ツウカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>文字列表示形式(割合)</t>
+    <rPh sb="0" eb="3">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ワリアイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Format("2013/1/2 3:4:56", "yyyy年mm月dd日")</t>
+    <rPh sb="31" eb="32">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>FormatNumber(1000, 0, 0, 0, -1)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1,000</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Format(1000,"0,000")</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Format(0.1,"0.0%")</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>10.0%</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>FormatPercent(0.1, 1, -1)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Format(★)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>FormatCurrency(★)</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -3205,7 +3346,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
@@ -3303,6 +3444,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -3649,13 +3796,13 @@
   <sheetPr codeName="Sheet1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F368"/>
+  <dimension ref="A1:F372"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C97" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C61" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D108" sqref="D108"/>
+      <selection pane="bottomRight" activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -5580,15 +5727,19 @@
         <v>123</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
-      <c r="A93" s="20" t="s">
-        <v>350</v>
-      </c>
-      <c r="B93" s="8"/>
-      <c r="C93" s="8"/>
-      <c r="D93" s="8"/>
-      <c r="E93" s="21" t="s">
-        <v>123</v>
+    <row r="93" spans="1:6" outlineLevel="1">
+      <c r="A93" s="2"/>
+      <c r="B93" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>709</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>708</v>
       </c>
       <c r="F93" s="11" t="s">
         <v>123</v>
@@ -5597,17 +5748,16 @@
     <row r="94" spans="1:6" outlineLevel="1">
       <c r="A94" s="2"/>
       <c r="B94" s="2" t="s">
-        <v>30</v>
+        <v>710</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>408</v>
-      </c>
-      <c r="D94" s="4" t="str">
-        <f>"On Error Resume Next"</f>
-        <v>On Error Resume Next</v>
+        <v>715</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>717</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>123</v>
+        <v>716</v>
       </c>
       <c r="F94" s="11" t="s">
         <v>123</v>
@@ -5616,18 +5766,16 @@
     <row r="95" spans="1:6" outlineLevel="1">
       <c r="A95" s="2"/>
       <c r="B95" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C95" s="4" t="str">
-        <f>"On Error Goto 0"</f>
-        <v>On Error Goto 0</v>
-      </c>
-      <c r="D95" s="4" t="str">
-        <f>"On Error Goto 0"</f>
-        <v>On Error Goto 0</v>
+        <v>713</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>720</v>
+      </c>
+      <c r="D95" s="34" t="s">
+        <v>718</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>123</v>
+        <v>719</v>
       </c>
       <c r="F95" s="11" t="s">
         <v>123</v>
@@ -5636,37 +5784,27 @@
     <row r="96" spans="1:6" outlineLevel="1">
       <c r="A96" s="2"/>
       <c r="B96" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C96" s="4" t="str">
-        <f>"Err.Number"</f>
-        <v>Err.Number</v>
-      </c>
-      <c r="D96" s="4" t="str">
-        <f>"Err.Number"</f>
-        <v>Err.Number</v>
-      </c>
-      <c r="E96" s="5" t="s">
-        <v>123</v>
-      </c>
+        <v>712</v>
+      </c>
+      <c r="C96" s="12" t="s">
+        <v>722</v>
+      </c>
+      <c r="D96" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E96" s="5"/>
       <c r="F96" s="11" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="97" spans="1:6" outlineLevel="1">
-      <c r="A97" s="2"/>
-      <c r="B97" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C97" s="4" t="str">
-        <f>"Err.Description"</f>
-        <v>Err.Description</v>
-      </c>
-      <c r="D97" s="4" t="str">
-        <f>"Err.Description"</f>
-        <v>Err.Description</v>
-      </c>
-      <c r="E97" s="5" t="s">
+    <row r="97" spans="1:6">
+      <c r="A97" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="B97" s="8"/>
+      <c r="C97" s="8"/>
+      <c r="D97" s="8"/>
+      <c r="E97" s="21" t="s">
         <v>123</v>
       </c>
       <c r="F97" s="11" t="s">
@@ -5676,17 +5814,17 @@
     <row r="98" spans="1:6" outlineLevel="1">
       <c r="A98" s="2"/>
       <c r="B98" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C98" s="22" t="s">
-        <v>402</v>
+        <v>30</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>408</v>
       </c>
       <c r="D98" s="4" t="str">
-        <f>"On Error GoTo ErrorLabel"</f>
-        <v>On Error GoTo ErrorLabel</v>
+        <f>"On Error Resume Next"</f>
+        <v>On Error Resume Next</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>280</v>
+        <v>123</v>
       </c>
       <c r="F98" s="11" t="s">
         <v>123</v>
@@ -5695,14 +5833,15 @@
     <row r="99" spans="1:6" outlineLevel="1">
       <c r="A99" s="2"/>
       <c r="B99" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C99" s="22" t="s">
-        <v>402</v>
+        <v>31</v>
+      </c>
+      <c r="C99" s="4" t="str">
+        <f>"On Error Goto 0"</f>
+        <v>On Error Goto 0</v>
       </c>
       <c r="D99" s="4" t="str">
-        <f>"ErrorLabel:"</f>
-        <v>ErrorLabel:</v>
+        <f>"On Error Goto 0"</f>
+        <v>On Error Goto 0</v>
       </c>
       <c r="E99" s="5" t="s">
         <v>123</v>
@@ -5711,14 +5850,20 @@
         <v>123</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
-      <c r="A100" s="20" t="s">
-        <v>351</v>
-      </c>
-      <c r="B100" s="8"/>
-      <c r="C100" s="8"/>
-      <c r="D100" s="8"/>
-      <c r="E100" s="21" t="s">
+    <row r="100" spans="1:6" outlineLevel="1">
+      <c r="A100" s="2"/>
+      <c r="B100" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C100" s="4" t="str">
+        <f>"Err.Number"</f>
+        <v>Err.Number</v>
+      </c>
+      <c r="D100" s="4" t="str">
+        <f>"Err.Number"</f>
+        <v>Err.Number</v>
+      </c>
+      <c r="E100" s="5" t="s">
         <v>123</v>
       </c>
       <c r="F100" s="11" t="s">
@@ -5728,14 +5873,15 @@
     <row r="101" spans="1:6" outlineLevel="1">
       <c r="A101" s="2"/>
       <c r="B101" s="2" t="s">
-        <v>690</v>
+        <v>33</v>
       </c>
       <c r="C101" s="4" t="str">
-        <f>"Dim objTxtFile"</f>
-        <v>Dim objTxtFile</v>
-      </c>
-      <c r="D101" s="22" t="s">
-        <v>402</v>
+        <f>"Err.Description"</f>
+        <v>Err.Description</v>
+      </c>
+      <c r="D101" s="4" t="str">
+        <f>"Err.Description"</f>
+        <v>Err.Description</v>
       </c>
       <c r="E101" s="5" t="s">
         <v>123</v>
@@ -5747,17 +5893,17 @@
     <row r="102" spans="1:6" outlineLevel="1">
       <c r="A102" s="2"/>
       <c r="B102" s="2" t="s">
-        <v>691</v>
-      </c>
-      <c r="C102" s="4" t="str">
-        <f>"Set objTxtFile = objFSO.OpenTextFile(""c:\codes\test\a.txt"", 1, True)"</f>
-        <v>Set objTxtFile = objFSO.OpenTextFile("c:\codes\test\a.txt", 1, True)</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>407</v>
+        <v>146</v>
+      </c>
+      <c r="C102" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="D102" s="4" t="str">
+        <f>"On Error GoTo ErrorLabel"</f>
+        <v>On Error GoTo ErrorLabel</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>123</v>
+        <v>280</v>
       </c>
       <c r="F102" s="11" t="s">
         <v>123</v>
@@ -5766,208 +5912,279 @@
     <row r="103" spans="1:6" outlineLevel="1">
       <c r="A103" s="2"/>
       <c r="B103" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C103" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="D103" s="4" t="str">
+        <f>"ErrorLabel:"</f>
+        <v>ErrorLabel:</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F103" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="B104" s="8"/>
+      <c r="C104" s="8"/>
+      <c r="D104" s="8"/>
+      <c r="E104" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="F104" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" outlineLevel="1">
+      <c r="A105" s="2"/>
+      <c r="B105" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="C105" s="4" t="str">
+        <f>"Dim objTxtFile"</f>
+        <v>Dim objTxtFile</v>
+      </c>
+      <c r="D105" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F105" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" outlineLevel="1">
+      <c r="A106" s="2"/>
+      <c r="B106" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="C106" s="4" t="str">
+        <f>"Set objTxtFile = objFSO.OpenTextFile(""c:\codes\test\a.txt"", 1, True)"</f>
+        <v>Set objTxtFile = objFSO.OpenTextFile("c:\codes\test\a.txt", 1, True)</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F106" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" outlineLevel="1">
+      <c r="A107" s="2"/>
+      <c r="B107" s="2" t="s">
         <v>692</v>
       </c>
-      <c r="C103" s="4" t="str">
+      <c r="C107" s="4" t="str">
         <f>"objTxtFile.Close"</f>
         <v>objTxtFile.Close</v>
       </c>
-      <c r="D103" s="4" t="s">
+      <c r="D107" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="E103" s="5"/>
-      <c r="F103" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" outlineLevel="1">
-      <c r="A104" s="2"/>
-      <c r="B104" s="2" t="s">
+      <c r="E107" s="5"/>
+      <c r="F107" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" outlineLevel="1">
+      <c r="A108" s="2"/>
+      <c r="B108" s="2" t="s">
         <v>693</v>
       </c>
-      <c r="C104" s="4" t="str">
+      <c r="C108" s="4" t="str">
         <f>"Do Until objTxtFile.AtEndOfStream"&amp;CHAR(10)&amp;"strLine = objTxtFile.ReadLine"&amp;CHAR(10)&amp;"Loop"</f>
         <v>Do Until objTxtFile.AtEndOfStream
 strLine = objTxtFile.ReadLine
 Loop</v>
       </c>
-      <c r="D104" s="4" t="str">
+      <c r="D108" s="4" t="str">
         <f>"Do Until EOF(1)"&amp;CHAR(10)&amp;"    Line Input #1, 文字列変数"&amp;CHAR(10)&amp;"Loop"</f>
         <v>Do Until EOF(1)
     Line Input #1, 文字列変数
 Loop</v>
       </c>
-      <c r="E104" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F104" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" outlineLevel="1">
-      <c r="A105" s="2"/>
-      <c r="B105" s="2" t="s">
+      <c r="E108" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F108" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" outlineLevel="1">
+      <c r="A109" s="2"/>
+      <c r="B109" s="2" t="s">
         <v>694</v>
       </c>
-      <c r="C105" s="4" t="str">
+      <c r="C109" s="4" t="str">
         <f>"sTextAll = objTxtFile.ReadAll"</f>
         <v>sTextAll = objTxtFile.ReadAll</v>
       </c>
-      <c r="D105" s="4" t="str">
+      <c r="D109" s="4" t="str">
         <f>"sTestFile = objFSO.GetFile(ファイルパス).OpenAsTextStream.ReadAll"</f>
         <v>sTestFile = objFSO.GetFile(ファイルパス).OpenAsTextStream.ReadAll</v>
       </c>
-      <c r="E105" s="5" t="s">
+      <c r="E109" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="F105" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" outlineLevel="1">
-      <c r="A106" s="2"/>
-      <c r="B106" s="2" t="s">
+      <c r="F109" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" outlineLevel="1">
+      <c r="A110" s="2"/>
+      <c r="B110" s="2" t="s">
         <v>695</v>
       </c>
-      <c r="C106" s="4" t="str">
+      <c r="C110" s="4" t="str">
         <f>"objTxtFile.WriteLine strLine"</f>
         <v>objTxtFile.WriteLine strLine</v>
       </c>
-      <c r="D106" s="4" t="str">
+      <c r="D110" s="4" t="str">
         <f>"Print #1, 文字列変数"</f>
         <v>Print #1, 文字列変数</v>
       </c>
-      <c r="E106" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F106" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" outlineLevel="1">
-      <c r="A107" s="2"/>
-      <c r="B107" s="2" t="s">
+      <c r="E110" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F110" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" outlineLevel="1">
+      <c r="A111" s="2"/>
+      <c r="B111" s="2" t="s">
         <v>696</v>
       </c>
-      <c r="C107" s="10" t="str">
+      <c r="C111" s="10" t="str">
         <f>"Dim adoStrm
 Set adoStrm = CreateObject(""ADODB.Stream"")"</f>
         <v>Dim adoStrm
 Set adoStrm = CreateObject("ADODB.Stream")</v>
       </c>
-      <c r="D107" s="4" t="str">
+      <c r="D111" s="4" t="str">
         <f>"Dim adoStrm As Object
 Set adoStrm = CreateObject(""ADODB.Stream"")"</f>
         <v>Dim adoStrm As Object
 Set adoStrm = CreateObject("ADODB.Stream")</v>
       </c>
-      <c r="E107" s="5" t="s">
+      <c r="E111" s="5" t="s">
         <v>678</v>
       </c>
-      <c r="F107" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" outlineLevel="1">
-      <c r="A108" s="2"/>
-      <c r="B108" s="2" t="s">
+      <c r="F111" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" outlineLevel="1">
+      <c r="A112" s="2"/>
+      <c r="B112" s="2" t="s">
         <v>697</v>
       </c>
-      <c r="C108" s="10" t="s">
+      <c r="C112" s="10" t="s">
         <v>682</v>
       </c>
-      <c r="D108" s="10" t="s">
+      <c r="D112" s="10" t="s">
         <v>682</v>
       </c>
-      <c r="E108" s="5" t="s">
+      <c r="E112" s="5" t="s">
         <v>683</v>
       </c>
-      <c r="F108" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" outlineLevel="1">
-      <c r="A109" s="2"/>
-      <c r="B109" s="2" t="s">
+      <c r="F112" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" outlineLevel="1">
+      <c r="A113" s="2"/>
+      <c r="B113" s="2" t="s">
         <v>698</v>
       </c>
-      <c r="C109" s="10" t="s">
+      <c r="C113" s="10" t="s">
         <v>684</v>
       </c>
-      <c r="D109" s="10" t="s">
+      <c r="D113" s="10" t="s">
         <v>684</v>
       </c>
-      <c r="E109" s="5" t="s">
+      <c r="E113" s="5" t="s">
         <v>685</v>
       </c>
-      <c r="F109" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" outlineLevel="1">
-      <c r="A110" s="2"/>
-      <c r="B110" s="2" t="s">
+      <c r="F113" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" outlineLevel="1">
+      <c r="A114" s="2"/>
+      <c r="B114" s="2" t="s">
         <v>699</v>
       </c>
-      <c r="C110" s="10" t="s">
+      <c r="C114" s="10" t="s">
         <v>686</v>
       </c>
-      <c r="D110" s="10" t="s">
+      <c r="D114" s="10" t="s">
         <v>686</v>
       </c>
-      <c r="E110" s="5" t="s">
+      <c r="E114" s="5" t="s">
         <v>687</v>
       </c>
-      <c r="F110" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" outlineLevel="1">
-      <c r="A111" s="2"/>
-      <c r="B111" s="2" t="s">
+      <c r="F114" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" outlineLevel="1">
+      <c r="A115" s="2"/>
+      <c r="B115" s="2" t="s">
         <v>700</v>
       </c>
-      <c r="C111" s="10" t="str">
+      <c r="C115" s="10" t="str">
         <f>"adoStrm.Open
 adoStrm.LoadFromFile sTrgtFilePath"</f>
         <v>adoStrm.Open
 adoStrm.LoadFromFile sTrgtFilePath</v>
       </c>
-      <c r="D111" s="10" t="str">
+      <c r="D115" s="10" t="str">
         <f>"adoStrm.Open
 adoStrm.LoadFromFile sTrgtFilePath"</f>
         <v>adoStrm.Open
 adoStrm.LoadFromFile sTrgtFilePath</v>
       </c>
-      <c r="E111" s="5"/>
-      <c r="F111" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" outlineLevel="1">
-      <c r="A112" s="2"/>
-      <c r="B112" s="2" t="s">
+      <c r="E115" s="5"/>
+      <c r="F115" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" outlineLevel="1">
+      <c r="A116" s="2"/>
+      <c r="B116" s="2" t="s">
         <v>701</v>
       </c>
-      <c r="C112" s="10" t="s">
+      <c r="C116" s="10" t="s">
         <v>688</v>
       </c>
-      <c r="D112" s="10" t="s">
+      <c r="D116" s="10" t="s">
         <v>688</v>
       </c>
-      <c r="E112" s="5" t="s">
+      <c r="E116" s="5" t="s">
         <v>678</v>
       </c>
-      <c r="F112" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" outlineLevel="1">
-      <c r="A113" s="2"/>
-      <c r="B113" s="2" t="s">
+      <c r="F116" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" outlineLevel="1">
+      <c r="A117" s="2"/>
+      <c r="B117" s="2" t="s">
         <v>702</v>
       </c>
-      <c r="C113" s="10" t="str">
+      <c r="C117" s="10" t="str">
         <f>"Do Until adoStrm.EOS
     MsgBox adoStrm.ReadText(-2)
 Loop"</f>
@@ -5975,7 +6192,7 @@
     MsgBox adoStrm.ReadText(-2)
 Loop</v>
       </c>
-      <c r="D113" s="4" t="str">
+      <c r="D117" s="4" t="str">
         <f>"Do Until adoStrm.EOS
     Debug.Print adoStrm.ReadText(-2)
 Loop"</f>
@@ -5983,19 +6200,19 @@
     Debug.Print adoStrm.ReadText(-2)
 Loop</v>
       </c>
-      <c r="E113" s="5" t="s">
+      <c r="E117" s="5" t="s">
         <v>679</v>
       </c>
-      <c r="F113" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" outlineLevel="1">
-      <c r="A114" s="2"/>
-      <c r="B114" s="2" t="s">
+      <c r="F117" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" outlineLevel="1">
+      <c r="A118" s="2"/>
+      <c r="B118" s="2" t="s">
         <v>703</v>
       </c>
-      <c r="C114" s="10" t="str">
+      <c r="C118" s="10" t="str">
         <f>"Dim vFile
 Dim vLine
 vFile = Split(adoStrm.ReadText(-1), vbLf)
@@ -6009,7 +6226,7 @@
     MsgBox vLine
 Next</v>
       </c>
-      <c r="D114" s="4" t="str">
+      <c r="D118" s="4" t="str">
         <f>"Dim vFile As Variant
 Dim vLine As Variant
 vFile = Split(adoStrm.ReadText(-1), vbLf)
@@ -6023,167 +6240,167 @@
     Debug.Print vLine
 Next</v>
       </c>
-      <c r="E114" s="5" t="s">
+      <c r="E118" s="5" t="s">
         <v>679</v>
       </c>
-      <c r="F114" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" outlineLevel="1">
-      <c r="A115" s="2"/>
-      <c r="B115" s="2" t="s">
+      <c r="F118" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" outlineLevel="1">
+      <c r="A119" s="2"/>
+      <c r="B119" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="C115" s="31" t="s">
+      <c r="C119" s="31" t="s">
         <v>680</v>
       </c>
-      <c r="D115" s="31" t="s">
+      <c r="D119" s="31" t="s">
         <v>680</v>
       </c>
-      <c r="E115" s="5" t="s">
+      <c r="E119" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="F115" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" outlineLevel="1">
-      <c r="A116" s="2"/>
-      <c r="B116" s="2" t="s">
+      <c r="F119" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" outlineLevel="1">
+      <c r="A120" s="2"/>
+      <c r="B120" s="2" t="s">
         <v>705</v>
       </c>
-      <c r="C116" s="31" t="s">
+      <c r="C120" s="31" t="s">
         <v>681</v>
       </c>
-      <c r="D116" s="31" t="s">
+      <c r="D120" s="31" t="s">
         <v>681</v>
       </c>
-      <c r="E116" s="5" t="s">
+      <c r="E120" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="F116" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" outlineLevel="1">
-      <c r="A117" s="2"/>
-      <c r="B117" s="2" t="s">
+      <c r="F120" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" outlineLevel="1">
+      <c r="A121" s="2"/>
+      <c r="B121" s="2" t="s">
         <v>706</v>
       </c>
-      <c r="C117" s="4" t="s">
+      <c r="C121" s="4" t="s">
         <v>676</v>
       </c>
-      <c r="D117" s="4" t="s">
+      <c r="D121" s="4" t="s">
         <v>676</v>
       </c>
-      <c r="E117" s="5" t="s">
+      <c r="E121" s="5" t="s">
         <v>678</v>
       </c>
-      <c r="F117" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" outlineLevel="1">
-      <c r="A118" s="2"/>
-      <c r="B118" s="2" t="s">
+      <c r="F121" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" outlineLevel="1">
+      <c r="A122" s="2"/>
+      <c r="B122" s="2" t="s">
         <v>707</v>
       </c>
-      <c r="C118" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="D118" s="4" t="str">
+      <c r="C122" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="D122" s="4" t="str">
         <f>"Set wTargetBook = Workbooks.Open(sTargetBookName)"&amp;CHAR(10)&amp;"wTargetBook.Close SaveChanges:=True"</f>
         <v>Set wTargetBook = Workbooks.Open(sTargetBookName)
 wTargetBook.Close SaveChanges:=True</v>
       </c>
-      <c r="E118" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F118" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119" s="20" t="s">
+      <c r="E122" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F122" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="20" t="s">
         <v>352</v>
       </c>
-      <c r="B119" s="8"/>
-      <c r="C119" s="8"/>
-      <c r="D119" s="8"/>
-      <c r="E119" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="F119" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" outlineLevel="1">
-      <c r="A120" s="2"/>
-      <c r="B120" s="2" t="s">
+      <c r="B123" s="8"/>
+      <c r="C123" s="8"/>
+      <c r="D123" s="8"/>
+      <c r="E123" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="F123" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" outlineLevel="1">
+      <c r="A124" s="2"/>
+      <c r="B124" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C120" s="4" t="str">
+      <c r="C124" s="4" t="str">
         <f>"Now()"</f>
         <v>Now()</v>
       </c>
-      <c r="D120" s="4" t="str">
+      <c r="D124" s="4" t="str">
         <f>"Now"</f>
         <v>Now</v>
       </c>
-      <c r="E120" s="5" t="s">
+      <c r="E124" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="F120" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" outlineLevel="1">
-      <c r="A121" s="2"/>
-      <c r="B121" s="2" t="s">
+      <c r="F124" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" outlineLevel="1">
+      <c r="A125" s="2"/>
+      <c r="B125" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C121" s="4" t="str">
+      <c r="C125" s="4" t="str">
         <f>"Date()"</f>
         <v>Date()</v>
       </c>
-      <c r="D121" s="4" t="str">
+      <c r="D125" s="4" t="str">
         <f>"Date"</f>
         <v>Date</v>
       </c>
-      <c r="E121" s="5" t="s">
+      <c r="E125" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="F121" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" outlineLevel="1">
-      <c r="A122" s="2"/>
-      <c r="B122" s="2" t="s">
+      <c r="F125" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" outlineLevel="1">
+      <c r="A126" s="2"/>
+      <c r="B126" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C122" s="4" t="str">
+      <c r="C126" s="4" t="str">
         <f>"Timer()"</f>
         <v>Timer()</v>
       </c>
-      <c r="D122" s="4" t="str">
+      <c r="D126" s="4" t="str">
         <f>"Timer"</f>
         <v>Timer</v>
       </c>
-      <c r="E122" s="5" t="s">
+      <c r="E126" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="F122" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" outlineLevel="1">
-      <c r="A123" s="2"/>
-      <c r="B123" s="2" t="s">
+      <c r="F126" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" outlineLevel="1">
+      <c r="A127" s="2"/>
+      <c r="B127" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C123" s="4" t="str">
+      <c r="C127" s="4" t="str">
         <f>"If DateDiff(""s"", sCmpBaseTime, sModDate ) &gt; 0 Then"&amp;CHAR(10)&amp;CHAR(9)&amp;"'sModDate が新しい"&amp;CHAR(10)&amp;"ElseIf DateDiff(""s"", sCmpBaseTime, sModDate ) &lt; 0 Then"&amp;CHAR(10)&amp;CHAR(9)&amp;"'sModDate が古い"&amp;CHAR(10)&amp;"Else"&amp;CHAR(10)&amp;CHAR(9)&amp;"'sModDate = sCmpBaseTime"&amp;CHAR(10)&amp;"End If"</f>
         <v>If DateDiff("s", sCmpBaseTime, sModDate ) &gt; 0 Then
 	'sModDate が新しい
@@ -6193,7 +6410,7 @@
 	'sModDate = sCmpBaseTime
 End If</v>
       </c>
-      <c r="D123" s="4" t="str">
+      <c r="D127" s="4" t="str">
         <f>"If DateDiff(""s"", sCmpBaseTime, sModDate ) &gt; 0 Then"&amp;CHAR(10)&amp;CHAR(9)&amp;"sModDate が新しい"&amp;CHAR(10)&amp;"ElseIf DateDiff(""s"", sCmpBaseTime, sModDate ) &lt; 0 Then"&amp;CHAR(10)&amp;CHAR(9)&amp;"sModDate が古い"&amp;CHAR(10)&amp;"Else"&amp;CHAR(10)&amp;CHAR(9)&amp;"sModDate = sCmpBaseTime"&amp;CHAR(10)&amp;"End If"</f>
         <v>If DateDiff("s", sCmpBaseTime, sModDate ) &gt; 0 Then
 	sModDate が新しい
@@ -6203,132 +6420,132 @@
 	sModDate = sCmpBaseTime
 End If</v>
       </c>
-      <c r="E123" s="5" t="s">
+      <c r="E127" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="F123" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" outlineLevel="1">
-      <c r="A124" s="2"/>
-      <c r="B124" s="2" t="s">
+      <c r="F127" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" outlineLevel="1">
+      <c r="A128" s="2"/>
+      <c r="B128" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C124" s="4" t="str">
+      <c r="C128" s="4" t="str">
         <f>"WScript.sleep(3000)"</f>
         <v>WScript.sleep(3000)</v>
       </c>
-      <c r="D124" s="4" t="str">
+      <c r="D128" s="4" t="str">
         <f>"Public Declare Sub Sleep Lib ""kernel32"" (ByVal dwMilliseconds As Long)"&amp;CHAR(10)&amp;"Sleep 1000"</f>
         <v>Public Declare Sub Sleep Lib "kernel32" (ByVal dwMilliseconds As Long)
 Sleep 1000</v>
       </c>
-      <c r="E124" s="5" t="s">
+      <c r="E128" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="F124" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
-      <c r="A125" s="20" t="s">
+      <c r="F128" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" s="20" t="s">
         <v>363</v>
       </c>
-      <c r="B125" s="8"/>
-      <c r="C125" s="8"/>
-      <c r="D125" s="8"/>
-      <c r="E125" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="F125" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" outlineLevel="1">
-      <c r="A126" s="2"/>
-      <c r="B126" s="2" t="s">
+      <c r="B129" s="8"/>
+      <c r="C129" s="8"/>
+      <c r="D129" s="8"/>
+      <c r="E129" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="F129" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" outlineLevel="1">
+      <c r="A130" s="2"/>
+      <c r="B130" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="C126" s="4" t="str">
+      <c r="C130" s="4" t="str">
         <f>"Dim cTrgtPaths
 Set cTrgtPaths = CreateObject(""System.Collections.ArrayList"")"</f>
         <v>Dim cTrgtPaths
 Set cTrgtPaths = CreateObject("System.Collections.ArrayList")</v>
       </c>
-      <c r="D126" s="4" t="str">
+      <c r="D130" s="4" t="str">
         <f>"Dim cTrgtPaths As Variant
 Set cTrgtPaths = CreateObject(""System.Collections.ArrayList"")"</f>
         <v>Dim cTrgtPaths As Variant
 Set cTrgtPaths = CreateObject("System.Collections.ArrayList")</v>
       </c>
-      <c r="E126" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F126" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" outlineLevel="1">
-      <c r="A127" s="2"/>
-      <c r="B127" s="2" t="s">
+      <c r="E130" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F130" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" outlineLevel="1">
+      <c r="A131" s="2"/>
+      <c r="B131" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="C127" s="4" t="s">
+      <c r="C131" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="D127" s="4" t="s">
+      <c r="D131" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="E127" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F127" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" outlineLevel="1">
-      <c r="A128" s="2"/>
-      <c r="B128" s="2" t="s">
+      <c r="E131" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F131" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" outlineLevel="1">
+      <c r="A132" s="2"/>
+      <c r="B132" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="C128" s="4" t="s">
+      <c r="C132" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="D128" s="4" t="s">
+      <c r="D132" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="E128" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F128" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" outlineLevel="1">
-      <c r="A129" s="2"/>
-      <c r="B129" s="2" t="s">
+      <c r="E132" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F132" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" outlineLevel="1">
+      <c r="A133" s="2"/>
+      <c r="B133" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="C129" s="4" t="s">
+      <c r="C133" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="D129" s="4" t="s">
+      <c r="D133" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="E129" s="5" t="s">
+      <c r="E133" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="F129" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" outlineLevel="1">
-      <c r="A130" s="2"/>
-      <c r="B130" s="2" t="s">
+      <c r="F133" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" outlineLevel="1">
+      <c r="A134" s="2"/>
+      <c r="B134" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="C130" s="4" t="str">
+      <c r="C134" s="4" t="str">
         <f>"Dim vTrgtPath
 For Each vTrgtPath In cTrgtPaths
     MsgBox vTrgtPath
@@ -6338,7 +6555,7 @@
     MsgBox vTrgtPath
 Next</v>
       </c>
-      <c r="D130" s="4" t="str">
+      <c r="D134" s="4" t="str">
         <f>"Dim vTrgtPath As Variant
 For Each vTrgtPath In cTrgtPaths
     MsgBox vTrgtPath
@@ -6348,78 +6565,6 @@
     MsgBox vTrgtPath
 Next</v>
       </c>
-      <c r="E130" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F130" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" outlineLevel="1">
-      <c r="A131" s="2"/>
-      <c r="B131" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="C131" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="D131" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="E131" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="F131" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" outlineLevel="1">
-      <c r="A132" s="2"/>
-      <c r="B132" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="C132" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="D132" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="E132" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="F132" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" outlineLevel="1">
-      <c r="A133" s="2"/>
-      <c r="B133" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="C133" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="D133" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="E133" s="5" t="s">
-        <v>445</v>
-      </c>
-      <c r="F133" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" outlineLevel="1">
-      <c r="A134" s="2"/>
-      <c r="B134" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="C134" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="D134" s="4" t="s">
-        <v>443</v>
-      </c>
       <c r="E134" s="5" t="s">
         <v>123</v>
       </c>
@@ -6430,125 +6575,197 @@
     <row r="135" spans="1:6" outlineLevel="1">
       <c r="A135" s="2"/>
       <c r="B135" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="E135" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="F135" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" outlineLevel="1">
+      <c r="A136" s="2"/>
+      <c r="B136" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="E136" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="F136" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" outlineLevel="1">
+      <c r="A137" s="2"/>
+      <c r="B137" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C137" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="E137" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="F137" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" outlineLevel="1">
+      <c r="A138" s="2"/>
+      <c r="B138" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="E138" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F138" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" outlineLevel="1">
+      <c r="A139" s="2"/>
+      <c r="B139" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C135" s="4" t="str">
+      <c r="C139" s="4" t="str">
         <f>"Dim avTrgtPaths
 avTrgtPaths = cTrgtPaths.ToArray()"</f>
         <v>Dim avTrgtPaths
 avTrgtPaths = cTrgtPaths.ToArray()</v>
       </c>
-      <c r="D135" s="4" t="str">
+      <c r="D139" s="4" t="str">
         <f>"Dim avTrgtPaths As Variant
 avTrgtPaths = cTrgtPaths.ToArray()"</f>
         <v>Dim avTrgtPaths As Variant
 avTrgtPaths = cTrgtPaths.ToArray()</v>
       </c>
-      <c r="E135" s="5" t="s">
+      <c r="E139" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="F135" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" outlineLevel="1">
-      <c r="A136" s="2"/>
-      <c r="B136" s="2" t="s">
+      <c r="F139" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" outlineLevel="1">
+      <c r="A140" s="2"/>
+      <c r="B140" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="C136" s="4" t="s">
+      <c r="C140" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="D136" s="4" t="s">
+      <c r="D140" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="E136" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F136" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
-      <c r="A137" s="20" t="s">
+      <c r="E140" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F140" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" s="20" t="s">
         <v>362</v>
       </c>
-      <c r="B137" s="8"/>
-      <c r="C137" s="8"/>
-      <c r="D137" s="8"/>
-      <c r="E137" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="F137" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" outlineLevel="1">
-      <c r="A138" s="2"/>
-      <c r="B138" s="2" t="s">
+      <c r="B141" s="8"/>
+      <c r="C141" s="8"/>
+      <c r="D141" s="8"/>
+      <c r="E141" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="F141" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" outlineLevel="1">
+      <c r="A142" s="2"/>
+      <c r="B142" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="C138" s="4" t="str">
+      <c r="C142" s="4" t="str">
         <f>"Dim oPriceOfFruit
 Set oPriceOfFruit = CreateObject(""Scripting.Dictionary"")"</f>
         <v>Dim oPriceOfFruit
 Set oPriceOfFruit = CreateObject("Scripting.Dictionary")</v>
       </c>
-      <c r="D138" s="4" t="str">
+      <c r="D142" s="4" t="str">
         <f>"Dim oPriceOfFruit As Object
 Set oPriceOfFruit = CreateObject(""Scripting.Dictionary"")"</f>
         <v>Dim oPriceOfFruit As Object
 Set oPriceOfFruit = CreateObject("Scripting.Dictionary")</v>
       </c>
-      <c r="E138" s="5" t="s">
+      <c r="E142" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="F138" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" outlineLevel="1">
-      <c r="A139" s="2"/>
-      <c r="B139" s="2" t="s">
+      <c r="F142" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" outlineLevel="1">
+      <c r="A143" s="2"/>
+      <c r="B143" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C139" s="4" t="s">
+      <c r="C143" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="D139" s="4" t="s">
+      <c r="D143" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="E139" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F139" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" outlineLevel="1">
-      <c r="A140" s="2"/>
-      <c r="B140" s="2" t="s">
+      <c r="E143" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F143" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" outlineLevel="1">
+      <c r="A144" s="2"/>
+      <c r="B144" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C140" s="4" t="s">
+      <c r="C144" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="D140" s="4" t="s">
+      <c r="D144" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="E140" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F140" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" outlineLevel="1">
-      <c r="A141" s="2"/>
-      <c r="B141" s="2" t="s">
+      <c r="E144" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F144" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" outlineLevel="1">
+      <c r="A145" s="2"/>
+      <c r="B145" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C141" s="4" t="str">
+      <c r="C145" s="4" t="str">
         <f>"For Each vKey In oPriceOfFruit
     MsgBox vKey
 Next"</f>
@@ -6556,7 +6773,7 @@
     MsgBox vKey
 Next</v>
       </c>
-      <c r="D141" s="4" t="str">
+      <c r="D145" s="4" t="str">
         <f>"For Each vKey In oPriceOfFruit
     Debug.print vKey
 Next"</f>
@@ -6564,80 +6781,8 @@
     Debug.print vKey
 Next</v>
       </c>
-      <c r="E141" s="5" t="s">
+      <c r="E145" s="5" t="s">
         <v>275</v>
-      </c>
-      <c r="F141" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" outlineLevel="1">
-      <c r="A142" s="2"/>
-      <c r="B142" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C142" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="D142" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="E142" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F142" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" outlineLevel="1">
-      <c r="A143" s="2"/>
-      <c r="B143" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C143" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="D143" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="E143" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="F143" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" outlineLevel="1">
-      <c r="A144" s="2"/>
-      <c r="B144" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C144" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="D144" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="E144" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="F144" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" outlineLevel="1">
-      <c r="A145" s="2"/>
-      <c r="B145" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C145" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="D145" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="E145" s="5" t="s">
-        <v>123</v>
       </c>
       <c r="F145" s="11" t="s">
         <v>123</v>
@@ -6646,13 +6791,13 @@
     <row r="146" spans="1:6" outlineLevel="1">
       <c r="A146" s="2"/>
       <c r="B146" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="E146" s="5" t="s">
         <v>123</v>
@@ -6664,16 +6809,16 @@
     <row r="147" spans="1:6" outlineLevel="1">
       <c r="A147" s="2"/>
       <c r="B147" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>123</v>
+        <v>276</v>
       </c>
       <c r="F147" s="11" t="s">
         <v>123</v>
@@ -6682,16 +6827,16 @@
     <row r="148" spans="1:6" outlineLevel="1">
       <c r="A148" s="2"/>
       <c r="B148" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F148" s="11" t="s">
         <v>123</v>
@@ -6700,13 +6845,13 @@
     <row r="149" spans="1:6" outlineLevel="1">
       <c r="A149" s="2"/>
       <c r="B149" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="E149" s="5" t="s">
         <v>123</v>
@@ -6718,16 +6863,16 @@
     <row r="150" spans="1:6" outlineLevel="1">
       <c r="A150" s="2"/>
       <c r="B150" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>278</v>
+        <v>123</v>
       </c>
       <c r="F150" s="11" t="s">
         <v>123</v>
@@ -6736,16 +6881,16 @@
     <row r="151" spans="1:6" outlineLevel="1">
       <c r="A151" s="2"/>
       <c r="B151" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>278</v>
+        <v>123</v>
       </c>
       <c r="F151" s="11" t="s">
         <v>123</v>
@@ -6754,29 +6899,33 @@
     <row r="152" spans="1:6" outlineLevel="1">
       <c r="A152" s="2"/>
       <c r="B152" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F152" s="11" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
-      <c r="A153" s="20" t="s">
-        <v>354</v>
-      </c>
-      <c r="B153" s="8"/>
-      <c r="C153" s="8"/>
-      <c r="D153" s="8"/>
-      <c r="E153" s="21" t="s">
+    <row r="153" spans="1:6" outlineLevel="1">
+      <c r="A153" s="2"/>
+      <c r="B153" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="D153" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="E153" s="5" t="s">
         <v>123</v>
       </c>
       <c r="F153" s="11" t="s">
@@ -6786,92 +6935,87 @@
     <row r="154" spans="1:6" outlineLevel="1">
       <c r="A154" s="2"/>
       <c r="B154" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="D154" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="E154" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="F154" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" outlineLevel="1">
+      <c r="A155" s="2"/>
+      <c r="B155" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="D155" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="E155" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="F155" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" outlineLevel="1">
+      <c r="A156" s="2"/>
+      <c r="B156" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="E156" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="F156" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="B157" s="8"/>
+      <c r="C157" s="8"/>
+      <c r="D157" s="8"/>
+      <c r="E157" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="F157" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" outlineLevel="1">
+      <c r="A158" s="2"/>
+      <c r="B158" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="C154" s="4" t="str">
+      <c r="C158" s="4" t="str">
         <f>"Dim objWshShell"&amp;CHAR(10)&amp;"Set objWshShell = WScript.CreateObject(""WScript.Shell"")"</f>
         <v>Dim objWshShell
 Set objWshShell = WScript.CreateObject("WScript.Shell")</v>
       </c>
-      <c r="D154" s="4" t="str">
+      <c r="D158" s="4" t="str">
         <f>"Dim objWshShell
 Set objWshShell = CreateObject(""WScript.Shell"")"</f>
         <v>Dim objWshShell
 Set objWshShell = CreateObject("WScript.Shell")</v>
       </c>
-      <c r="E154" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F154" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" outlineLevel="1">
-      <c r="A155" s="2"/>
-      <c r="B155" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C155" s="4" t="str">
-        <f>"objWshShell.Exec(""C:\test.bat"")"</f>
-        <v>objWshShell.Exec("C:\test.bat")</v>
-      </c>
-      <c r="D155" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="E155" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="F155" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" outlineLevel="1">
-      <c r="A156" s="2"/>
-      <c r="B156" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C156" s="4" t="str">
-        <f>"objWshShell.Run ""C:\test.bat"", 0, True"</f>
-        <v>objWshShell.Run "C:\test.bat", 0, True</v>
-      </c>
-      <c r="D156" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="E156" s="9" t="s">
-        <v>414</v>
-      </c>
-      <c r="F156" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" outlineLevel="1">
-      <c r="A157" s="2"/>
-      <c r="B157" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C157" s="4" t="str">
-        <f>"objWshShell.Run ""cmd /c echo.&gt; """"C:\test.txt"""""", 0, True"</f>
-        <v>objWshShell.Run "cmd /c echo.&gt; ""C:\test.txt""", 0, True</v>
-      </c>
-      <c r="D157" s="4" t="s">
-        <v>460</v>
-      </c>
-      <c r="F157" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" outlineLevel="1">
-      <c r="A158" s="2"/>
-      <c r="B158" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C158" s="4" t="str">
-        <f>"objWshShell.RegRead(""HKCU\WshTest\Test1"")"</f>
-        <v>objWshShell.RegRead("HKCU\WshTest\Test1")</v>
-      </c>
-      <c r="D158" s="4" t="s">
-        <v>461</v>
-      </c>
       <c r="E158" s="5" t="s">
         <v>123</v>
       </c>
@@ -6882,17 +7026,17 @@
     <row r="159" spans="1:6" outlineLevel="1">
       <c r="A159" s="2"/>
       <c r="B159" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C159" s="4" t="str">
-        <f>"objWshShell.RegWrite(""HKCU\WshTest\Test1"", ""test"", ""REG\_SZ"")"</f>
-        <v>objWshShell.RegWrite("HKCU\WshTest\Test1", "test", "REG\_SZ")</v>
+        <f>"objWshShell.Exec(""C:\test.bat"")"</f>
+        <v>objWshShell.Exec("C:\test.bat")</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="E159" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F159" s="11" t="s">
         <v>123</v>
@@ -6901,17 +7045,17 @@
     <row r="160" spans="1:6" outlineLevel="1">
       <c r="A160" s="2"/>
       <c r="B160" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C160" s="4" t="str">
-        <f>"objWshShell.Environment(""User"").Item(""MYPATH\_CODES"")"</f>
-        <v>objWshShell.Environment("User").Item("MYPATH\_CODES")</v>
+        <f>"objWshShell.Run ""C:\test.bat"", 0, True"</f>
+        <v>objWshShell.Run "C:\test.bat", 0, True</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>463</v>
-      </c>
-      <c r="E160" s="5" t="s">
-        <v>415</v>
+        <v>459</v>
+      </c>
+      <c r="E160" s="9" t="s">
+        <v>414</v>
       </c>
       <c r="F160" s="11" t="s">
         <v>123</v>
@@ -6920,16 +7064,15 @@
     <row r="161" spans="1:6" outlineLevel="1">
       <c r="A161" s="2"/>
       <c r="B161" s="2" t="s">
-        <v>383</v>
+        <v>36</v>
       </c>
       <c r="C161" s="4" t="str">
-        <f>"objWshShell.Environment(""User"").Remove(""MYPATH\_CODES"")"</f>
-        <v>objWshShell.Environment("User").Remove("MYPATH\_CODES")</v>
-      </c>
-      <c r="D161" s="12" t="s">
-        <v>423</v>
-      </c>
-      <c r="E161" s="5"/>
+        <f>"objWshShell.Run ""cmd /c echo.&gt; """"C:\test.txt"""""", 0, True"</f>
+        <v>objWshShell.Run "cmd /c echo.&gt; ""C:\test.txt""", 0, True</v>
+      </c>
+      <c r="D161" s="4" t="s">
+        <v>460</v>
+      </c>
       <c r="F161" s="11" t="s">
         <v>123</v>
       </c>
@@ -6937,17 +7080,17 @@
     <row r="162" spans="1:6" outlineLevel="1">
       <c r="A162" s="2"/>
       <c r="B162" s="2" t="s">
-        <v>398</v>
+        <v>37</v>
       </c>
       <c r="C162" s="4" t="str">
-        <f>"objWshShell.SpecialFolders(""Desktop"")"</f>
-        <v>objWshShell.SpecialFolders("Desktop")</v>
+        <f>"objWshShell.RegRead(""HKCU\WshTest\Test1"")"</f>
+        <v>objWshShell.RegRead("HKCU\WshTest\Test1")</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="E162" s="5" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="F162" s="11" t="s">
         <v>123</v>
@@ -6956,16 +7099,90 @@
     <row r="163" spans="1:6" outlineLevel="1">
       <c r="A163" s="2"/>
       <c r="B163" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C163" s="4" t="str">
+        <f>"objWshShell.RegWrite(""HKCU\WshTest\Test1"", ""test"", ""REG\_SZ"")"</f>
+        <v>objWshShell.RegWrite("HKCU\WshTest\Test1", "test", "REG\_SZ")</v>
+      </c>
+      <c r="D163" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="E163" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="F163" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" outlineLevel="1">
+      <c r="A164" s="2"/>
+      <c r="B164" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C164" s="4" t="str">
+        <f>"objWshShell.Environment(""User"").Item(""MYPATH\_CODES"")"</f>
+        <v>objWshShell.Environment("User").Item("MYPATH\_CODES")</v>
+      </c>
+      <c r="D164" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="E164" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="F164" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" outlineLevel="1">
+      <c r="A165" s="2"/>
+      <c r="B165" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C165" s="4" t="str">
+        <f>"objWshShell.Environment(""User"").Remove(""MYPATH\_CODES"")"</f>
+        <v>objWshShell.Environment("User").Remove("MYPATH\_CODES")</v>
+      </c>
+      <c r="D165" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="E165" s="5"/>
+      <c r="F165" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" outlineLevel="1">
+      <c r="A166" s="2"/>
+      <c r="B166" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C166" s="4" t="str">
+        <f>"objWshShell.SpecialFolders(""Desktop"")"</f>
+        <v>objWshShell.SpecialFolders("Desktop")</v>
+      </c>
+      <c r="D166" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="E166" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F166" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" outlineLevel="1">
+      <c r="A167" s="2"/>
+      <c r="B167" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C163" s="4" t="str">
+      <c r="C167" s="4" t="str">
         <f>"With objWshShell.CreateShortcut( ""c:\test\src.txt.lnk"" )"&amp;CHAR(10)&amp;".TargetPath = ""c:\test\dst.txt"""&amp;CHAR(10)&amp;".Save"&amp;CHAR(10)&amp;"End With"</f>
         <v>With objWshShell.CreateShortcut( "c:\test\src.txt.lnk" )
 .TargetPath = "c:\test\dst.txt"
 .Save
 End With</v>
       </c>
-      <c r="D163" s="4" t="str">
+      <c r="D167" s="4" t="str">
         <f>"With objWshShell.CreateShortcut( ""c:\test\src.txt.lnk"" )
     .TargetPath = ""c:\test\dst.txt""
     .Save
@@ -6975,45 +7192,45 @@
     .Save
 End With</v>
       </c>
-      <c r="E163" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F163" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" outlineLevel="1">
-      <c r="A164" s="2"/>
-      <c r="B164" s="2" t="s">
+      <c r="E167" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F167" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" outlineLevel="1">
+      <c r="A168" s="2"/>
+      <c r="B168" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C164" s="4" t="str">
+      <c r="C168" s="4" t="str">
         <f>"objWshShell.CreateShortcut( ""c:\test\src.txt.lnk"" ).TargetPath"</f>
         <v>objWshShell.CreateShortcut( "c:\test\src.txt.lnk" ).TargetPath</v>
       </c>
-      <c r="D164" s="4" t="s">
+      <c r="D168" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="E164" s="5" t="s">
+      <c r="E168" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="F164" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" outlineLevel="1">
-      <c r="A165" s="2"/>
-      <c r="B165" s="2" t="s">
+      <c r="F168" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" outlineLevel="1">
+      <c r="A169" s="2"/>
+      <c r="B169" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C165" s="4" t="str">
+      <c r="C169" s="4" t="str">
         <f>"With objWshShell.CreateShortcut( ""c:\test\src.txt.lnk"" )"&amp;CHAR(10)&amp;".TargetPath = ""c:\test\dst2.txt"""&amp;CHAR(10)&amp;".Save"&amp;CHAR(10)&amp;"End With"</f>
         <v>With objWshShell.CreateShortcut( "c:\test\src.txt.lnk" )
 .TargetPath = "c:\test\dst2.txt"
 .Save
 End With</v>
       </c>
-      <c r="D165" s="4" t="str">
+      <c r="D169" s="4" t="str">
         <f>"With objWshShell.CreateShortcut( ""c:\test\src.txt.lnk"" )
     .TargetPath = ""c:\test\dst2.txt""
     .Save
@@ -7023,114 +7240,49 @@
     .Save
 End With</v>
       </c>
-      <c r="E165" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F165" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" outlineLevel="1">
-      <c r="A166" s="2"/>
-      <c r="B166" s="2" t="s">
+      <c r="E169" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F169" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" outlineLevel="1">
+      <c r="A170" s="2"/>
+      <c r="B170" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C166" s="4" t="str">
+      <c r="C170" s="4" t="str">
         <f>"With objWshShell.CreateShortcut( ""c:\test\src.txt.lnk"" )"&amp;CHAR(10)&amp;".Description = ""テストコメント"""&amp;CHAR(10)&amp;".Save"&amp;CHAR(10)&amp;"End With"</f>
         <v>With objWshShell.CreateShortcut( "c:\test\src.txt.lnk" )
 .Description = "テストコメント"
 .Save
 End With</v>
       </c>
-      <c r="D166" s="12" t="s">
+      <c r="D170" s="12" t="s">
         <v>423</v>
       </c>
-      <c r="E166" s="5"/>
-      <c r="F166" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" outlineLevel="1">
-      <c r="A167" s="2"/>
-      <c r="B167" s="2" t="s">
+      <c r="E170" s="5"/>
+      <c r="F170" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" outlineLevel="1">
+      <c r="A171" s="2"/>
+      <c r="B171" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C167" s="4" t="str">
+      <c r="C171" s="4" t="str">
         <f>"With objWshShell.CreateShortcut( ""c:\test\src.txt.lnk"" )"&amp;CHAR(10)&amp;".Arguments = "" /b"""&amp;CHAR(10)&amp;".Save"&amp;CHAR(10)&amp;"End With"</f>
         <v>With objWshShell.CreateShortcut( "c:\test\src.txt.lnk" )
 .Arguments = " /b"
 .Save
 End With</v>
       </c>
-      <c r="D167" s="12" t="s">
+      <c r="D171" s="12" t="s">
         <v>423</v>
       </c>
-      <c r="E167" s="5"/>
-      <c r="F167" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" outlineLevel="1">
-      <c r="A168" s="2"/>
-      <c r="B168" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C168" s="4" t="str">
-        <f>"objWshShell.Popup ""メッセージ"", lSecond, ""タイトル"", vbInformation"</f>
-        <v>objWshShell.Popup "メッセージ", lSecond, "タイトル", vbInformation</v>
-      </c>
-      <c r="D168" s="12" t="s">
-        <v>423</v>
-      </c>
-      <c r="E168" s="5"/>
-      <c r="F168" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" outlineLevel="1">
-      <c r="A169" s="2"/>
-      <c r="B169" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C169" s="4" t="str">
-        <f>C256</f>
-        <v>objWshShell.Exec( "clip" ).StdIn.Write( "テキスト" )</v>
-      </c>
-      <c r="D169" s="23" t="s">
-        <v>402</v>
-      </c>
-      <c r="E169" s="5"/>
-      <c r="F169" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" outlineLevel="1">
-      <c r="A170" s="2"/>
-      <c r="B170" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C170" s="4" t="str">
-        <f>C257</f>
-        <v>CreateObject("htmlfile").ParentWindow.Clipboarddata.GetData("text")</v>
-      </c>
-      <c r="D170" s="23" t="s">
-        <v>402</v>
-      </c>
-      <c r="E170" s="5"/>
-      <c r="F170" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6">
-      <c r="A171" s="20" t="s">
-        <v>374</v>
-      </c>
-      <c r="B171" s="8"/>
-      <c r="C171" s="8"/>
-      <c r="D171" s="8"/>
-      <c r="E171" s="21" t="s">
-        <v>123</v>
-      </c>
+      <c r="E171" s="5"/>
       <c r="F171" s="11" t="s">
         <v>123</v>
       </c>
@@ -7138,115 +7290,100 @@
     <row r="172" spans="1:6" outlineLevel="1">
       <c r="A172" s="2"/>
       <c r="B172" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C172" s="4" t="str">
+        <f>"objWshShell.Popup ""メッセージ"", lSecond, ""タイトル"", vbInformation"</f>
+        <v>objWshShell.Popup "メッセージ", lSecond, "タイトル", vbInformation</v>
+      </c>
+      <c r="D172" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="E172" s="5"/>
+      <c r="F172" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" outlineLevel="1">
+      <c r="A173" s="2"/>
+      <c r="B173" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C173" s="4" t="str">
+        <f>C260</f>
+        <v>objWshShell.Exec( "clip" ).StdIn.Write( "テキスト" )</v>
+      </c>
+      <c r="D173" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="E173" s="5"/>
+      <c r="F173" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" outlineLevel="1">
+      <c r="A174" s="2"/>
+      <c r="B174" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C174" s="4" t="str">
+        <f>C261</f>
+        <v>CreateObject("htmlfile").ParentWindow.Clipboarddata.GetData("text")</v>
+      </c>
+      <c r="D174" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="E174" s="5"/>
+      <c r="F174" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175" s="20" t="s">
+        <v>374</v>
+      </c>
+      <c r="B175" s="8"/>
+      <c r="C175" s="8"/>
+      <c r="D175" s="8"/>
+      <c r="E175" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="F175" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" outlineLevel="1">
+      <c r="A176" s="2"/>
+      <c r="B176" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="C172" s="4" t="str">
+      <c r="C176" s="4" t="str">
         <f>"Dim objFSO"&amp;CHAR(10)&amp;"Set objFSO = CreateObject(""Scripting.FileSystemObject"")"</f>
         <v>Dim objFSO
 Set objFSO = CreateObject("Scripting.FileSystemObject")</v>
       </c>
-      <c r="D172" s="4" t="str">
+      <c r="D176" s="4" t="str">
         <f>"Dim objFSO As Object"&amp;CHAR(10)&amp;"Set objFSO = CreateObject(""Scripting.FileSystemObject"")"</f>
         <v>Dim objFSO As Object
 Set objFSO = CreateObject("Scripting.FileSystemObject")</v>
       </c>
-      <c r="E172" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F172" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" outlineLevel="1">
-      <c r="B173" s="2" t="s">
+      <c r="E176" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F176" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" outlineLevel="1">
+      <c r="B177" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="C173" s="23" t="s">
-        <v>402</v>
-      </c>
-      <c r="D173" s="4" t="str">
+      <c r="C177" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="D177" s="4" t="str">
         <f>"objFSO.CopyFile ThisWorkbook.FullName, ""c:\temp\test.xlsm"""</f>
         <v>objFSO.CopyFile ThisWorkbook.FullName, "c:\temp\test.xlsm"</v>
-      </c>
-      <c r="E173" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F173" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" outlineLevel="1">
-      <c r="A174" s="2"/>
-      <c r="B174" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C174" s="4" t="str">
-        <f>"objFSO.CopyFile ""C:\codes\a.txt"", ""C:\codes\test\"""</f>
-        <v>objFSO.CopyFile "C:\codes\a.txt", "C:\codes\test\"</v>
-      </c>
-      <c r="D174" s="4" t="str">
-        <f>"objFSO.CopyFile ""C:\codes\a.txt"", ""C:\codes\test\"""</f>
-        <v>objFSO.CopyFile "C:\codes\a.txt", "C:\codes\test\"</v>
-      </c>
-      <c r="E174" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="F174" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" outlineLevel="1">
-      <c r="A175" s="2"/>
-      <c r="B175" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C175" s="4" t="str">
-        <f>"objFSO.CopyFile ""C:\codes\a.txt"", ""C:\codes\test\a.txt"""</f>
-        <v>objFSO.CopyFile "C:\codes\a.txt", "C:\codes\test\a.txt"</v>
-      </c>
-      <c r="D175" s="4" t="str">
-        <f>"objFSO.CopyFile ""C:\codes\a.txt"", ""C:\codes\test\a.txt"""</f>
-        <v>objFSO.CopyFile "C:\codes\a.txt", "C:\codes\test\a.txt"</v>
-      </c>
-      <c r="E175" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="F175" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" outlineLevel="1">
-      <c r="A176" s="2"/>
-      <c r="B176" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C176" s="4" t="str">
-        <f>"objFSO.DeleteFile ""c:\test"", True"</f>
-        <v>objFSO.DeleteFile "c:\test", True</v>
-      </c>
-      <c r="D176" s="4" t="str">
-        <f>"objFSO.DeleteFile ""c:\test"", True"</f>
-        <v>objFSO.DeleteFile "c:\test", True</v>
-      </c>
-      <c r="E176" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F176" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" outlineLevel="1">
-      <c r="A177" s="2"/>
-      <c r="B177" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C177" s="4" t="str">
-        <f>"objFSO.MoveFile ""C:\codes\src.txt"", ""C:\codes\dst.txt"""</f>
-        <v>objFSO.MoveFile "C:\codes\src.txt", "C:\codes\dst.txt"</v>
-      </c>
-      <c r="D177" s="4" t="str">
-        <f>"objFSO.MoveFile ""C:\codes\src.txt"", ""C:\codes\dst.txt"""</f>
-        <v>objFSO.MoveFile "C:\codes\src.txt", "C:\codes\dst.txt"</v>
       </c>
       <c r="E177" s="5" t="s">
         <v>123</v>
@@ -7258,18 +7395,18 @@
     <row r="178" spans="1:6" outlineLevel="1">
       <c r="A178" s="2"/>
       <c r="B178" s="2" t="s">
-        <v>149</v>
+        <v>46</v>
       </c>
       <c r="C178" s="4" t="str">
-        <f>"objFSO.FileExists(""c:\codes\a.txt"") 'True"</f>
-        <v>objFSO.FileExists("c:\codes\a.txt") 'True</v>
+        <f>"objFSO.CopyFile ""C:\codes\a.txt"", ""C:\codes\test\"""</f>
+        <v>objFSO.CopyFile "C:\codes\a.txt", "C:\codes\test\"</v>
       </c>
       <c r="D178" s="4" t="str">
-        <f>"objFSO.FileExists(""c:\codes\a.txt"")"</f>
-        <v>objFSO.FileExists("c:\codes\a.txt")</v>
+        <f>"objFSO.CopyFile ""C:\codes\a.txt"", ""C:\codes\test\"""</f>
+        <v>objFSO.CopyFile "C:\codes\a.txt", "C:\codes\test\"</v>
       </c>
       <c r="E178" s="5" t="s">
-        <v>131</v>
+        <v>284</v>
       </c>
       <c r="F178" s="11" t="s">
         <v>123</v>
@@ -7278,12 +7415,92 @@
     <row r="179" spans="1:6" outlineLevel="1">
       <c r="A179" s="2"/>
       <c r="B179" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C179" s="4" t="str">
+        <f>"objFSO.CopyFile ""C:\codes\a.txt"", ""C:\codes\test\a.txt"""</f>
+        <v>objFSO.CopyFile "C:\codes\a.txt", "C:\codes\test\a.txt"</v>
+      </c>
+      <c r="D179" s="4" t="str">
+        <f>"objFSO.CopyFile ""C:\codes\a.txt"", ""C:\codes\test\a.txt"""</f>
+        <v>objFSO.CopyFile "C:\codes\a.txt", "C:\codes\test\a.txt"</v>
+      </c>
+      <c r="E179" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="F179" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" outlineLevel="1">
+      <c r="A180" s="2"/>
+      <c r="B180" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C180" s="4" t="str">
+        <f>"objFSO.DeleteFile ""c:\test"", True"</f>
+        <v>objFSO.DeleteFile "c:\test", True</v>
+      </c>
+      <c r="D180" s="4" t="str">
+        <f>"objFSO.DeleteFile ""c:\test"", True"</f>
+        <v>objFSO.DeleteFile "c:\test", True</v>
+      </c>
+      <c r="E180" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F180" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" outlineLevel="1">
+      <c r="A181" s="2"/>
+      <c r="B181" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C181" s="4" t="str">
+        <f>"objFSO.MoveFile ""C:\codes\src.txt"", ""C:\codes\dst.txt"""</f>
+        <v>objFSO.MoveFile "C:\codes\src.txt", "C:\codes\dst.txt"</v>
+      </c>
+      <c r="D181" s="4" t="str">
+        <f>"objFSO.MoveFile ""C:\codes\src.txt"", ""C:\codes\dst.txt"""</f>
+        <v>objFSO.MoveFile "C:\codes\src.txt", "C:\codes\dst.txt"</v>
+      </c>
+      <c r="E181" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F181" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" outlineLevel="1">
+      <c r="A182" s="2"/>
+      <c r="B182" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C182" s="4" t="str">
+        <f>"objFSO.FileExists(""c:\codes\a.txt"") 'True"</f>
+        <v>objFSO.FileExists("c:\codes\a.txt") 'True</v>
+      </c>
+      <c r="D182" s="4" t="str">
+        <f>"objFSO.FileExists(""c:\codes\a.txt"")"</f>
+        <v>objFSO.FileExists("c:\codes\a.txt")</v>
+      </c>
+      <c r="E182" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F182" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" outlineLevel="1">
+      <c r="A183" s="2"/>
+      <c r="B183" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C179" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="D179" s="4" t="str">
+      <c r="C183" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="D183" s="4" t="str">
         <f>"If Dir(""C:\Book1.xlsx"") &lt;&gt; """" Then"&amp;CHAR(10)&amp;CHAR(9)&amp;"存在"&amp;CHAR(10)&amp;"Else"&amp;CHAR(10)&amp;CHAR(9)&amp;"非存在"&amp;CHAR(10)&amp;"End If"</f>
         <v>If Dir("C:\Book1.xlsx") &lt;&gt; "" Then
 	存在
@@ -7291,88 +7508,8 @@
 	非存在
 End If</v>
       </c>
-      <c r="E179" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F179" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" outlineLevel="1">
-      <c r="A180" s="2"/>
-      <c r="B180" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C180" s="4" t="str">
-        <f>"objFSO.GetFile( ""C:\codes\a.txt"" ).Attributes"</f>
-        <v>objFSO.GetFile( "C:\codes\a.txt" ).Attributes</v>
-      </c>
-      <c r="D180" s="4" t="str">
-        <f>"objFSO.GetFile( ""C:\codes\a.txt"" ).Attributes"</f>
-        <v>objFSO.GetFile( "C:\codes\a.txt" ).Attributes</v>
-      </c>
-      <c r="E180" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="F180" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" outlineLevel="1">
-      <c r="A181" s="2"/>
-      <c r="B181" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C181" s="4" t="str">
-        <f>"objFSO.GetFile( ""C:\codes\a.txt"" ).Attributes = 2"</f>
-        <v>objFSO.GetFile( "C:\codes\a.txt" ).Attributes = 2</v>
-      </c>
-      <c r="D181" s="4" t="str">
-        <f>"objFSO.GetFile( ""C:\codes\a.txt"" ).Attributes = 2"</f>
-        <v>objFSO.GetFile( "C:\codes\a.txt" ).Attributes = 2</v>
-      </c>
-      <c r="E181" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F181" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" outlineLevel="1">
-      <c r="A182" s="2"/>
-      <c r="B182" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C182" s="4" t="str">
-        <f>"objFSO.GetAbsolutePathName( ""C:\codes\a.txt"" )"</f>
-        <v>objFSO.GetAbsolutePathName( "C:\codes\a.txt" )</v>
-      </c>
-      <c r="D182" s="4" t="str">
-        <f>"objFSO.GetAbsolutePathName( ""C:\codes\a.txt"" )"</f>
-        <v>objFSO.GetAbsolutePathName( "C:\codes\a.txt" )</v>
-      </c>
-      <c r="E182" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="F182" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" outlineLevel="1">
-      <c r="A183" s="2"/>
-      <c r="B183" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C183" s="4" t="str">
-        <f>"objFSO.GetDriveName( ""C:\codes\a.txt"" )"</f>
-        <v>objFSO.GetDriveName( "C:\codes\a.txt" )</v>
-      </c>
-      <c r="D183" s="4" t="str">
-        <f>"objFSO.GetDriveName( ""C:\codes\a.txt"" )"</f>
-        <v>objFSO.GetDriveName( "C:\codes\a.txt" )</v>
-      </c>
       <c r="E183" s="5" t="s">
-        <v>267</v>
+        <v>123</v>
       </c>
       <c r="F183" s="11" t="s">
         <v>123</v>
@@ -7381,18 +7518,18 @@
     <row r="184" spans="1:6" outlineLevel="1">
       <c r="A184" s="2"/>
       <c r="B184" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C184" s="4" t="str">
-        <f>"objFSO.GetFileName( ""C:\codes\a.txt"" )"</f>
-        <v>objFSO.GetFileName( "C:\codes\a.txt" )</v>
+        <f>"objFSO.GetFile( ""C:\codes\a.txt"" ).Attributes"</f>
+        <v>objFSO.GetFile( "C:\codes\a.txt" ).Attributes</v>
       </c>
       <c r="D184" s="4" t="str">
-        <f>"objFSO.GetFileName( ""C:\codes\a.txt"" )"</f>
-        <v>objFSO.GetFileName( "C:\codes\a.txt" )</v>
-      </c>
-      <c r="E184" s="5" t="s">
-        <v>268</v>
+        <f>"objFSO.GetFile( ""C:\codes\a.txt"" ).Attributes"</f>
+        <v>objFSO.GetFile( "C:\codes\a.txt" ).Attributes</v>
+      </c>
+      <c r="E184" s="9" t="s">
+        <v>138</v>
       </c>
       <c r="F184" s="11" t="s">
         <v>123</v>
@@ -7401,18 +7538,18 @@
     <row r="185" spans="1:6" outlineLevel="1">
       <c r="A185" s="2"/>
       <c r="B185" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C185" s="4" t="str">
-        <f>"objFSO.GetParentFolderName( ""C:\codes\a.txt"" )"</f>
-        <v>objFSO.GetParentFolderName( "C:\codes\a.txt" )</v>
+        <f>"objFSO.GetFile( ""C:\codes\a.txt"" ).Attributes = 2"</f>
+        <v>objFSO.GetFile( "C:\codes\a.txt" ).Attributes = 2</v>
       </c>
       <c r="D185" s="4" t="str">
-        <f>"objFSO.GetParentFolderName( ""C:\codes\a.txt"" )"</f>
-        <v>objFSO.GetParentFolderName( "C:\codes\a.txt" )</v>
+        <f>"objFSO.GetFile( ""C:\codes\a.txt"" ).Attributes = 2"</f>
+        <v>objFSO.GetFile( "C:\codes\a.txt" ).Attributes = 2</v>
       </c>
       <c r="E185" s="5" t="s">
-        <v>271</v>
+        <v>123</v>
       </c>
       <c r="F185" s="11" t="s">
         <v>123</v>
@@ -7421,18 +7558,18 @@
     <row r="186" spans="1:6" outlineLevel="1">
       <c r="A186" s="2"/>
       <c r="B186" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C186" s="4" t="str">
-        <f>"objFSO.GetBaseName( ""C:\codes\a.txt"" )"</f>
-        <v>objFSO.GetBaseName( "C:\codes\a.txt" )</v>
+        <f>"objFSO.GetAbsolutePathName( ""C:\codes\a.txt"" )"</f>
+        <v>objFSO.GetAbsolutePathName( "C:\codes\a.txt" )</v>
       </c>
       <c r="D186" s="4" t="str">
-        <f>"objFSO.GetBaseName( ""C:\codes\a.txt"" )"</f>
-        <v>objFSO.GetBaseName( "C:\codes\a.txt" )</v>
+        <f>"objFSO.GetAbsolutePathName( ""C:\codes\a.txt"" )"</f>
+        <v>objFSO.GetAbsolutePathName( "C:\codes\a.txt" )</v>
       </c>
       <c r="E186" s="5" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F186" s="11" t="s">
         <v>123</v>
@@ -7441,18 +7578,18 @@
     <row r="187" spans="1:6" outlineLevel="1">
       <c r="A187" s="2"/>
       <c r="B187" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C187" s="4" t="str">
-        <f>"objFSO.GetExtensionName( ""C:\codes\a.txt"" )"</f>
-        <v>objFSO.GetExtensionName( "C:\codes\a.txt" )</v>
+        <f>"objFSO.GetDriveName( ""C:\codes\a.txt"" )"</f>
+        <v>objFSO.GetDriveName( "C:\codes\a.txt" )</v>
       </c>
       <c r="D187" s="4" t="str">
-        <f>"objFSO.GetExtensionName( ""C:\codes\a.txt"" )"</f>
-        <v>objFSO.GetExtensionName( "C:\codes\a.txt" )</v>
+        <f>"objFSO.GetDriveName( ""C:\codes\a.txt"" )"</f>
+        <v>objFSO.GetDriveName( "C:\codes\a.txt" )</v>
       </c>
       <c r="E187" s="5" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F187" s="11" t="s">
         <v>123</v>
@@ -7461,18 +7598,18 @@
     <row r="188" spans="1:6" outlineLevel="1">
       <c r="A188" s="2"/>
       <c r="B188" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C188" s="4" t="str">
-        <f>"objFSO.CopyFolder ""C:\codes\src"", ""C:\codes\dst"", True"</f>
-        <v>objFSO.CopyFolder "C:\codes\src", "C:\codes\dst", True</v>
+        <f>"objFSO.GetFileName( ""C:\codes\a.txt"" )"</f>
+        <v>objFSO.GetFileName( "C:\codes\a.txt" )</v>
       </c>
       <c r="D188" s="4" t="str">
-        <f>"objFSO.CopyFolder ""C:\codes\src"", ""C:\codes\dst"", True"</f>
-        <v>objFSO.CopyFolder "C:\codes\src", "C:\codes\dst", True</v>
+        <f>"objFSO.GetFileName( ""C:\codes\a.txt"" )"</f>
+        <v>objFSO.GetFileName( "C:\codes\a.txt" )</v>
       </c>
       <c r="E188" s="5" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="F188" s="11" t="s">
         <v>123</v>
@@ -7481,18 +7618,18 @@
     <row r="189" spans="1:6" outlineLevel="1">
       <c r="A189" s="2"/>
       <c r="B189" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C189" s="4" t="str">
-        <f>"objFSO.DeleteFolder ""C:\codes\test"", True"</f>
-        <v>objFSO.DeleteFolder "C:\codes\test", True</v>
+        <f>"objFSO.GetParentFolderName( ""C:\codes\a.txt"" )"</f>
+        <v>objFSO.GetParentFolderName( "C:\codes\a.txt" )</v>
       </c>
       <c r="D189" s="4" t="str">
-        <f>"objFSO.DeleteFolder ""C:\codes\test"", True"</f>
-        <v>objFSO.DeleteFolder "C:\codes\test", True</v>
+        <f>"objFSO.GetParentFolderName( ""C:\codes\a.txt"" )"</f>
+        <v>objFSO.GetParentFolderName( "C:\codes\a.txt" )</v>
       </c>
       <c r="E189" s="5" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="F189" s="11" t="s">
         <v>123</v>
@@ -7501,18 +7638,18 @@
     <row r="190" spans="1:6" outlineLevel="1">
       <c r="A190" s="2"/>
       <c r="B190" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C190" s="4" t="str">
-        <f>"objFSO.CreateFolder( ""C:\codes\test"" )"</f>
-        <v>objFSO.CreateFolder( "C:\codes\test" )</v>
+        <f>"objFSO.GetBaseName( ""C:\codes\a.txt"" )"</f>
+        <v>objFSO.GetBaseName( "C:\codes\a.txt" )</v>
       </c>
       <c r="D190" s="4" t="str">
-        <f>"objFSO.CreateFolder( ""C:\codes\test"" )"</f>
-        <v>objFSO.CreateFolder( "C:\codes\test" )</v>
+        <f>"objFSO.GetBaseName( ""C:\codes\a.txt"" )"</f>
+        <v>objFSO.GetBaseName( "C:\codes\a.txt" )</v>
       </c>
       <c r="E190" s="5" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="F190" s="11" t="s">
         <v>123</v>
@@ -7521,18 +7658,18 @@
     <row r="191" spans="1:6" outlineLevel="1">
       <c r="A191" s="2"/>
       <c r="B191" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C191" s="4" t="str">
-        <f>"objFSO.MoveFolder ""C:\codes\src"", ""C:\codes\dst"""</f>
-        <v>objFSO.MoveFolder "C:\codes\src", "C:\codes\dst"</v>
+        <f>"objFSO.GetExtensionName( ""C:\codes\a.txt"" )"</f>
+        <v>objFSO.GetExtensionName( "C:\codes\a.txt" )</v>
       </c>
       <c r="D191" s="4" t="str">
-        <f>"objFSO.MoveFolder ""C:\codes\src"", ""C:\codes\dst"""</f>
-        <v>objFSO.MoveFolder "C:\codes\src", "C:\codes\dst"</v>
+        <f>"objFSO.GetExtensionName( ""C:\codes\a.txt"" )"</f>
+        <v>objFSO.GetExtensionName( "C:\codes\a.txt" )</v>
       </c>
       <c r="E191" s="5" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="F191" s="11" t="s">
         <v>123</v>
@@ -7541,17 +7678,18 @@
     <row r="192" spans="1:6" outlineLevel="1">
       <c r="A192" s="2"/>
       <c r="B192" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C192" s="4" t="s">
-        <v>396</v>
+        <v>58</v>
+      </c>
+      <c r="C192" s="4" t="str">
+        <f>"objFSO.CopyFolder ""C:\codes\src"", ""C:\codes\dst"", True"</f>
+        <v>objFSO.CopyFolder "C:\codes\src", "C:\codes\dst", True</v>
       </c>
       <c r="D192" s="4" t="str">
-        <f>"objFSO.GetFolder( ""C:\codes"" ).Attributes"</f>
-        <v>objFSO.GetFolder( "C:\codes" ).Attributes</v>
+        <f>"objFSO.CopyFolder ""C:\codes\src"", ""C:\codes\dst"", True"</f>
+        <v>objFSO.CopyFolder "C:\codes\src", "C:\codes\dst", True</v>
       </c>
       <c r="E192" s="5" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="F192" s="11" t="s">
         <v>123</v>
@@ -7560,18 +7698,18 @@
     <row r="193" spans="1:6" outlineLevel="1">
       <c r="A193" s="2"/>
       <c r="B193" s="2" t="s">
-        <v>394</v>
+        <v>59</v>
       </c>
       <c r="C193" s="4" t="str">
-        <f>"objFSO.FolderExists( ""C:\codes"" )"</f>
-        <v>objFSO.FolderExists( "C:\codes" )</v>
+        <f>"objFSO.DeleteFolder ""C:\codes\test"", True"</f>
+        <v>objFSO.DeleteFolder "C:\codes\test", True</v>
       </c>
       <c r="D193" s="4" t="str">
-        <f>"objFSO.FolderExists( ""C:\codes"" )"</f>
-        <v>objFSO.FolderExists( "C:\codes" )</v>
-      </c>
-      <c r="E193" s="5" t="b">
-        <v>1</v>
+        <f>"objFSO.DeleteFolder ""C:\codes\test"", True"</f>
+        <v>objFSO.DeleteFolder "C:\codes\test", True</v>
+      </c>
+      <c r="E193" s="5" t="s">
+        <v>287</v>
       </c>
       <c r="F193" s="11" t="s">
         <v>123</v>
@@ -7580,49 +7718,57 @@
     <row r="194" spans="1:6" outlineLevel="1">
       <c r="A194" s="2"/>
       <c r="B194" s="2" t="s">
-        <v>395</v>
+        <v>60</v>
       </c>
       <c r="C194" s="4" t="str">
-        <f>"objFSO.GetParentFolderName( ""C:\codes\src"" )"</f>
-        <v>objFSO.GetParentFolderName( "C:\codes\src" )</v>
+        <f>"objFSO.CreateFolder( ""C:\codes\test"" )"</f>
+        <v>objFSO.CreateFolder( "C:\codes\test" )</v>
       </c>
       <c r="D194" s="4" t="str">
-        <f>"objFSO.GetParentFolderName( ""C:\codes\src"" )"</f>
-        <v>objFSO.GetParentFolderName( "C:\codes\src" )</v>
+        <f>"objFSO.CreateFolder( ""C:\codes\test"" )"</f>
+        <v>objFSO.CreateFolder( "C:\codes\test" )</v>
       </c>
       <c r="E194" s="5" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="F194" s="11" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="195" spans="1:6" outlineLevel="1">
+      <c r="A195" s="2"/>
       <c r="B195" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="C195" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="D195" s="4" t="s">
-        <v>346</v>
+        <v>61</v>
+      </c>
+      <c r="C195" s="4" t="str">
+        <f>"objFSO.MoveFolder ""C:\codes\src"", ""C:\codes\dst"""</f>
+        <v>objFSO.MoveFolder "C:\codes\src", "C:\codes\dst"</v>
+      </c>
+      <c r="D195" s="4" t="str">
+        <f>"objFSO.MoveFolder ""C:\codes\src"", ""C:\codes\dst"""</f>
+        <v>objFSO.MoveFolder "C:\codes\src", "C:\codes\dst"</v>
       </c>
       <c r="E195" s="5" t="s">
-        <v>347</v>
+        <v>289</v>
       </c>
       <c r="F195" s="11" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="196" spans="1:6">
-      <c r="A196" s="20" t="s">
-        <v>490</v>
-      </c>
-      <c r="B196" s="8"/>
-      <c r="C196" s="8"/>
-      <c r="D196" s="8"/>
-      <c r="E196" s="21" t="s">
-        <v>123</v>
+    <row r="196" spans="1:6" outlineLevel="1">
+      <c r="A196" s="2"/>
+      <c r="B196" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C196" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="D196" s="4" t="str">
+        <f>"objFSO.GetFolder( ""C:\codes"" ).Attributes"</f>
+        <v>objFSO.GetFolder( "C:\codes" ).Attributes</v>
+      </c>
+      <c r="E196" s="5" t="s">
+        <v>290</v>
       </c>
       <c r="F196" s="11" t="s">
         <v>123</v>
@@ -7631,57 +7777,128 @@
     <row r="197" spans="1:6" outlineLevel="1">
       <c r="A197" s="2"/>
       <c r="B197" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C197" s="4" t="str">
+        <f>"objFSO.FolderExists( ""C:\codes"" )"</f>
+        <v>objFSO.FolderExists( "C:\codes" )</v>
+      </c>
+      <c r="D197" s="4" t="str">
+        <f>"objFSO.FolderExists( ""C:\codes"" )"</f>
+        <v>objFSO.FolderExists( "C:\codes" )</v>
+      </c>
+      <c r="E197" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F197" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" outlineLevel="1">
+      <c r="A198" s="2"/>
+      <c r="B198" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C198" s="4" t="str">
+        <f>"objFSO.GetParentFolderName( ""C:\codes\src"" )"</f>
+        <v>objFSO.GetParentFolderName( "C:\codes\src" )</v>
+      </c>
+      <c r="D198" s="4" t="str">
+        <f>"objFSO.GetParentFolderName( ""C:\codes\src"" )"</f>
+        <v>objFSO.GetParentFolderName( "C:\codes\src" )</v>
+      </c>
+      <c r="E198" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="F198" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" outlineLevel="1">
+      <c r="B199" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C199" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="D199" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="E199" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="F199" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200" s="20" t="s">
+        <v>490</v>
+      </c>
+      <c r="B200" s="8"/>
+      <c r="C200" s="8"/>
+      <c r="D200" s="8"/>
+      <c r="E200" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="F200" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" outlineLevel="1">
+      <c r="A201" s="2"/>
+      <c r="B201" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="C197" s="26" t="str">
+      <c r="C201" s="26" t="str">
         <f>"Dim oRegExp
 Set oRegExp = CreateObject(""VBScript.RegExp"")"</f>
         <v>Dim oRegExp
 Set oRegExp = CreateObject("VBScript.RegExp")</v>
       </c>
-      <c r="D197" s="10" t="str">
+      <c r="D201" s="10" t="str">
         <f>"Dim oRegExp As Object
 Set oRegExp = CreateObject(""VBScript.RegExp"")"</f>
         <v>Dim oRegExp As Object
 Set oRegExp = CreateObject("VBScript.RegExp")</v>
       </c>
-      <c r="E197" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F197" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" outlineLevel="1">
-      <c r="A198" s="2"/>
-      <c r="B198" s="2" t="s">
+      <c r="E201" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F201" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" outlineLevel="1">
+      <c r="A202" s="2"/>
+      <c r="B202" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="C198" s="26" t="str">
+      <c r="C202" s="26" t="str">
         <f>"Dim sTargetStr
 sTargetStr = ""TestFunc(int bbb) TestFunc01(char aaa) TestFunc02(int bbb)"""</f>
         <v>Dim sTargetStr
 sTargetStr = "TestFunc(int bbb) TestFunc01(char aaa) TestFunc02(int bbb)"</v>
       </c>
-      <c r="D198" s="10" t="str">
+      <c r="D202" s="10" t="str">
         <f>"Dim sTargetStr As String
 sTargetStr = ""TestFunc(int bbb) TestFunc01(char aaa) TestFunc02(int bbb)"""</f>
         <v>Dim sTargetStr As String
 sTargetStr = "TestFunc(int bbb) TestFunc01(char aaa) TestFunc02(int bbb)"</v>
       </c>
-      <c r="E198" s="5" t="s">
+      <c r="E202" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="F198" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" outlineLevel="1">
-      <c r="A199" s="2"/>
-      <c r="B199" s="2" t="s">
+      <c r="F202" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" outlineLevel="1">
+      <c r="A203" s="2"/>
+      <c r="B203" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="C199" s="26" t="str">
+      <c r="C203" s="26" t="str">
         <f>"Dim sSearchPattern
 sSearchPattern = ""(\w+)\((\w+) (\w+)\)""
 oRegExp.Pattern = sSearchPattern"</f>
@@ -7689,7 +7906,7 @@
 sSearchPattern = "(\w+)\((\w+) (\w+)\)"
 oRegExp.Pattern = sSearchPattern</v>
       </c>
-      <c r="D199" s="10" t="str">
+      <c r="D203" s="10" t="str">
         <f>"Dim sSearchPattern As String
 sSearchPattern = ""(\w+)\((\w+) (\w+)\)""
 oRegExp.Pattern = sSearchPattern"</f>
@@ -7697,140 +7914,68 @@
 sSearchPattern = "(\w+)\((\w+) (\w+)\)"
 oRegExp.Pattern = sSearchPattern</v>
       </c>
-      <c r="E199" s="5" t="s">
+      <c r="E203" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="F199" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" outlineLevel="1">
-      <c r="A200" s="2"/>
-      <c r="B200" s="2" t="s">
+      <c r="F203" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" outlineLevel="1">
+      <c r="A204" s="2"/>
+      <c r="B204" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="C200" s="27" t="s">
+      <c r="C204" s="27" t="s">
         <v>495</v>
       </c>
-      <c r="D200" s="10" t="s">
+      <c r="D204" s="10" t="s">
         <v>471</v>
       </c>
-      <c r="E200" s="5" t="s">
+      <c r="E204" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="F200" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" outlineLevel="1">
-      <c r="A201" s="2"/>
-      <c r="B201" s="2" t="s">
+      <c r="F204" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" outlineLevel="1">
+      <c r="A205" s="2"/>
+      <c r="B205" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="C201" s="26" t="s">
+      <c r="C205" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="D201" s="10" t="s">
+      <c r="D205" s="10" t="s">
         <v>472</v>
       </c>
-      <c r="E201" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F201" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" outlineLevel="1">
-      <c r="A202" s="2"/>
-      <c r="B202" s="2" t="s">
+      <c r="E205" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F205" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" outlineLevel="1">
+      <c r="A206" s="2"/>
+      <c r="B206" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="C202" s="26" t="str">
+      <c r="C206" s="26" t="str">
         <f>"Dim oMatchResult
 Set oMatchResult = oRegExp.Execute(sTargetStr)"</f>
         <v>Dim oMatchResult
 Set oMatchResult = oRegExp.Execute(sTargetStr)</v>
       </c>
-      <c r="D202" s="10" t="str">
+      <c r="D206" s="10" t="str">
         <f>"Dim oMatchResult As Object
 Set oMatchResult = oRegExp.Execute(sTargetStr)"</f>
         <v>Dim oMatchResult As Object
 Set oMatchResult = oRegExp.Execute(sTargetStr)</v>
       </c>
-      <c r="E202" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F202" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" outlineLevel="1">
-      <c r="A203" s="2"/>
-      <c r="B203" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="C203" s="26" t="s">
-        <v>497</v>
-      </c>
-      <c r="D203" s="10" t="s">
-        <v>473</v>
-      </c>
-      <c r="E203" s="5" t="s">
-        <v>482</v>
-      </c>
-      <c r="F203" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" outlineLevel="1">
-      <c r="A204" s="2"/>
-      <c r="B204" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="C204" s="26" t="s">
-        <v>498</v>
-      </c>
-      <c r="D204" s="10" t="s">
-        <v>483</v>
-      </c>
-      <c r="E204" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="F204" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" outlineLevel="1">
-      <c r="A205" s="2"/>
-      <c r="B205" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="C205" s="26" t="s">
-        <v>499</v>
-      </c>
-      <c r="D205" s="10" t="s">
-        <v>484</v>
-      </c>
-      <c r="E205" s="5" t="s">
-        <v>487</v>
-      </c>
-      <c r="F205" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" outlineLevel="1">
-      <c r="A206" s="2"/>
-      <c r="B206" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="C206" s="26" t="s">
-        <v>500</v>
-      </c>
-      <c r="D206" s="10" t="s">
-        <v>485</v>
-      </c>
       <c r="E206" s="5" t="s">
-        <v>488</v>
+        <v>123</v>
       </c>
       <c r="F206" s="11" t="s">
         <v>123</v>
@@ -7839,127 +7984,131 @@
     <row r="207" spans="1:6" outlineLevel="1">
       <c r="A207" s="2"/>
       <c r="B207" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="C207" s="26" t="s">
+        <v>497</v>
+      </c>
+      <c r="D207" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="E207" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="F207" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" outlineLevel="1">
+      <c r="A208" s="2"/>
+      <c r="B208" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="C208" s="26" t="s">
+        <v>498</v>
+      </c>
+      <c r="D208" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="E208" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="F208" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" outlineLevel="1">
+      <c r="A209" s="2"/>
+      <c r="B209" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="C209" s="26" t="s">
+        <v>499</v>
+      </c>
+      <c r="D209" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="E209" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="F209" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" outlineLevel="1">
+      <c r="A210" s="2"/>
+      <c r="B210" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="C210" s="26" t="s">
+        <v>500</v>
+      </c>
+      <c r="D210" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="E210" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="F210" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" outlineLevel="1">
+      <c r="A211" s="2"/>
+      <c r="B211" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="C207" s="26" t="str">
+      <c r="C211" s="26" t="str">
         <f>"Dim sReplacePattern
 sReplacePattern = ""型名:$2"""</f>
         <v>Dim sReplacePattern
 sReplacePattern = "型名:$2"</v>
       </c>
-      <c r="D207" s="10" t="str">
+      <c r="D211" s="10" t="str">
         <f>"Dim sReplacePattern As String
 sReplacePattern = ""型名:$2"""</f>
         <v>Dim sReplacePattern As String
 sReplacePattern = "型名:$2"</v>
       </c>
-      <c r="E207" s="5"/>
-      <c r="F207" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" outlineLevel="1">
-      <c r="A208" s="2"/>
-      <c r="B208" s="2" t="s">
+      <c r="E211" s="5"/>
+      <c r="F211" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" outlineLevel="1">
+      <c r="A212" s="2"/>
+      <c r="B212" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="C208" s="26" t="str">
+      <c r="C212" s="26" t="str">
         <f>"Dim sReplaceResult
 oRegExp.Replace(sTargetStr, sReplacePattern)"</f>
         <v>Dim sReplaceResult
 oRegExp.Replace(sTargetStr, sReplacePattern)</v>
       </c>
-      <c r="D208" s="10" t="str">
+      <c r="D212" s="10" t="str">
         <f>"Dim sReplaceResult As String
 sReplaceResult = oRegExp.Replace(sTargetStr, sReplacePattern)"</f>
         <v>Dim sReplaceResult As String
 sReplaceResult = oRegExp.Replace(sTargetStr, sReplacePattern)</v>
       </c>
-      <c r="E208" s="5" t="s">
+      <c r="E212" s="5" t="s">
         <v>492</v>
       </c>
-      <c r="F208" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6">
-      <c r="A209" s="20" t="s">
+      <c r="F212" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
+      <c r="A213" s="20" t="s">
         <v>403</v>
       </c>
-      <c r="B209" s="8"/>
-      <c r="C209" s="8"/>
-      <c r="D209" s="8"/>
-      <c r="E209" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="F209" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" outlineLevel="1">
-      <c r="A210" s="2"/>
-      <c r="B210" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C210" s="4" t="str">
-        <f>"WScript.ScriptFullName"</f>
-        <v>WScript.ScriptFullName</v>
-      </c>
-      <c r="D210" s="25" t="s">
-        <v>426</v>
-      </c>
-      <c r="E210" s="5"/>
-      <c r="F210" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" outlineLevel="1">
-      <c r="A211" s="2"/>
-      <c r="B211" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C211" s="4" t="str">
-        <f>"WScript.ScriptName"</f>
-        <v>WScript.ScriptName</v>
-      </c>
-      <c r="D211" s="25" t="s">
-        <v>424</v>
-      </c>
-      <c r="E211" s="5"/>
-      <c r="F211" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" outlineLevel="1">
-      <c r="A212" s="2"/>
-      <c r="B212" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C212" s="4" t="str">
-        <f>"Mid( WScript.ScriptName, 1, InStrRev( WScript.ScriptName, ""."" ) - 1 )"</f>
-        <v>Mid( WScript.ScriptName, 1, InStrRev( WScript.ScriptName, "." ) - 1 )</v>
-      </c>
-      <c r="D212" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="E212" s="5"/>
-      <c r="F212" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" outlineLevel="1">
-      <c r="A213" s="2"/>
-      <c r="B213" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C213" s="4" t="str">
-        <f>"objFSO.GetBaseName( WScript.ScriptName )"</f>
-        <v>objFSO.GetBaseName( WScript.ScriptName )</v>
-      </c>
-      <c r="D213" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="E213" s="5"/>
+      <c r="B213" s="8"/>
+      <c r="C213" s="8"/>
+      <c r="D213" s="8"/>
+      <c r="E213" s="21" t="s">
+        <v>123</v>
+      </c>
       <c r="F213" s="11" t="s">
         <v>123</v>
       </c>
@@ -7967,14 +8116,14 @@
     <row r="214" spans="1:6" outlineLevel="1">
       <c r="A214" s="2"/>
       <c r="B214" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C214" s="4" t="str">
-        <f>"Replace( WScript.ScriptFullName, ""\"" &amp; WScript.ScriptName, """" )"</f>
-        <v>Replace( WScript.ScriptFullName, "\" &amp; WScript.ScriptName, "" )</v>
-      </c>
-      <c r="D214" s="10" t="s">
-        <v>425</v>
+        <f>"WScript.ScriptFullName"</f>
+        <v>WScript.ScriptFullName</v>
+      </c>
+      <c r="D214" s="25" t="s">
+        <v>426</v>
       </c>
       <c r="E214" s="5"/>
       <c r="F214" s="11" t="s">
@@ -7984,30 +8133,33 @@
     <row r="215" spans="1:6" outlineLevel="1">
       <c r="A215" s="2"/>
       <c r="B215" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C215" s="4" t="str">
-        <f>"objFSO.GetParentFolderName( WScript.ScriptFullName )"</f>
-        <v>objFSO.GetParentFolderName( WScript.ScriptFullName )</v>
-      </c>
-      <c r="D215" s="22" t="s">
-        <v>402</v>
+        <f>"WScript.ScriptName"</f>
+        <v>WScript.ScriptName</v>
+      </c>
+      <c r="D215" s="25" t="s">
+        <v>424</v>
       </c>
       <c r="E215" s="5"/>
       <c r="F215" s="11" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="216" spans="1:6">
-      <c r="A216" s="20" t="s">
-        <v>404</v>
-      </c>
-      <c r="B216" s="8"/>
-      <c r="C216" s="8"/>
-      <c r="D216" s="8"/>
-      <c r="E216" s="21" t="s">
-        <v>123</v>
-      </c>
+    <row r="216" spans="1:6" outlineLevel="1">
+      <c r="A216" s="2"/>
+      <c r="B216" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C216" s="4" t="str">
+        <f>"Mid( WScript.ScriptName, 1, InStrRev( WScript.ScriptName, ""."" ) - 1 )"</f>
+        <v>Mid( WScript.ScriptName, 1, InStrRev( WScript.ScriptName, "." ) - 1 )</v>
+      </c>
+      <c r="D216" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="E216" s="5"/>
       <c r="F216" s="11" t="s">
         <v>123</v>
       </c>
@@ -8015,92 +8167,81 @@
     <row r="217" spans="1:6" outlineLevel="1">
       <c r="A217" s="2"/>
       <c r="B217" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C217" s="4" t="str">
+        <f>"objFSO.GetBaseName( WScript.ScriptName )"</f>
+        <v>objFSO.GetBaseName( WScript.ScriptName )</v>
+      </c>
+      <c r="D217" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="E217" s="5"/>
+      <c r="F217" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" outlineLevel="1">
+      <c r="A218" s="2"/>
+      <c r="B218" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C218" s="4" t="str">
+        <f>"Replace( WScript.ScriptFullName, ""\"" &amp; WScript.ScriptName, """" )"</f>
+        <v>Replace( WScript.ScriptFullName, "\" &amp; WScript.ScriptName, "" )</v>
+      </c>
+      <c r="D218" s="10" t="s">
+        <v>425</v>
+      </c>
+      <c r="E218" s="5"/>
+      <c r="F218" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" outlineLevel="1">
+      <c r="A219" s="2"/>
+      <c r="B219" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C219" s="4" t="str">
+        <f>"objFSO.GetParentFolderName( WScript.ScriptFullName )"</f>
+        <v>objFSO.GetParentFolderName( WScript.ScriptFullName )</v>
+      </c>
+      <c r="D219" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="E219" s="5"/>
+      <c r="F219" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
+      <c r="A220" s="20" t="s">
+        <v>404</v>
+      </c>
+      <c r="B220" s="8"/>
+      <c r="C220" s="8"/>
+      <c r="D220" s="8"/>
+      <c r="E220" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="F220" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" outlineLevel="1">
+      <c r="A221" s="2"/>
+      <c r="B221" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="C217" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="D217" s="4" t="str">
+      <c r="C221" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="D221" s="4" t="str">
         <f>"Dim oChartObj As ChartObject"&amp;CHAR(10)&amp;"Set oChartObj = ThisWorkbook.Sheets(シート名).ChartObjects(1)"</f>
         <v>Dim oChartObj As ChartObject
 Set oChartObj = ThisWorkbook.Sheets(シート名).ChartObjects(1)</v>
       </c>
-      <c r="E217" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F217" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" outlineLevel="1">
-      <c r="A218" s="2"/>
-      <c r="B218" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C218" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="D218" s="4" t="str">
-        <f>"Set oChartObj = .Sheets(シート名).ChartObjects.Add( XPOS, YPOS, WIDTH, HEIGHT )"</f>
-        <v>Set oChartObj = .Sheets(シート名).ChartObjects.Add( XPOS, YPOS, WIDTH, HEIGHT )</v>
-      </c>
-      <c r="E218" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="F218" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" outlineLevel="1">
-      <c r="A219" s="2"/>
-      <c r="B219" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C219" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="D219" s="4" t="str">
-        <f>"oChartObj.Delete"</f>
-        <v>oChartObj.Delete</v>
-      </c>
-      <c r="E219" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F219" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" outlineLevel="1">
-      <c r="A220" s="2"/>
-      <c r="B220" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C220" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="D220" s="4" t="str">
-        <f>"oChartObj.Chart.ChartArea.Copy"</f>
-        <v>oChartObj.Chart.ChartArea.Copy</v>
-      </c>
-      <c r="E220" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F220" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" outlineLevel="1">
-      <c r="A221" s="2"/>
-      <c r="B221" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="C221" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="D221" s="4" t="str">
-        <f>"oChartObj.Top = 10"</f>
-        <v>oChartObj.Top = 10</v>
-      </c>
       <c r="E221" s="5" t="s">
         <v>123</v>
       </c>
@@ -8111,17 +8252,17 @@
     <row r="222" spans="1:6" outlineLevel="1">
       <c r="A222" s="2"/>
       <c r="B222" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C222" s="22" t="s">
         <v>402</v>
       </c>
       <c r="D222" s="4" t="str">
-        <f>"oChartObj.Left = 20"</f>
-        <v>oChartObj.Left = 20</v>
+        <f>"Set oChartObj = .Sheets(シート名).ChartObjects.Add( XPOS, YPOS, WIDTH, HEIGHT )"</f>
+        <v>Set oChartObj = .Sheets(シート名).ChartObjects.Add( XPOS, YPOS, WIDTH, HEIGHT )</v>
       </c>
       <c r="E222" s="5" t="s">
-        <v>123</v>
+        <v>310</v>
       </c>
       <c r="F222" s="11" t="s">
         <v>123</v>
@@ -8130,14 +8271,14 @@
     <row r="223" spans="1:6" outlineLevel="1">
       <c r="A223" s="2"/>
       <c r="B223" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C223" s="22" t="s">
         <v>402</v>
       </c>
       <c r="D223" s="4" t="str">
-        <f>"oChartObj.Width = 200"</f>
-        <v>oChartObj.Width = 200</v>
+        <f>"oChartObj.Delete"</f>
+        <v>oChartObj.Delete</v>
       </c>
       <c r="E223" s="5" t="s">
         <v>123</v>
@@ -8149,14 +8290,14 @@
     <row r="224" spans="1:6" outlineLevel="1">
       <c r="A224" s="2"/>
       <c r="B224" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C224" s="22" t="s">
         <v>402</v>
       </c>
       <c r="D224" s="4" t="str">
-        <f>"oChartObj.Height = 300"</f>
-        <v>oChartObj.Height = 300</v>
+        <f>"oChartObj.Chart.ChartArea.Copy"</f>
+        <v>oChartObj.Chart.ChartArea.Copy</v>
       </c>
       <c r="E224" s="5" t="s">
         <v>123</v>
@@ -8168,17 +8309,17 @@
     <row r="225" spans="1:6" outlineLevel="1">
       <c r="A225" s="2"/>
       <c r="B225" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C225" s="22" t="s">
         <v>402</v>
       </c>
       <c r="D225" s="4" t="str">
-        <f>"oChartObj.Chart.ChartType = xlXYScatterLines"</f>
-        <v>oChartObj.Chart.ChartType = xlXYScatterLines</v>
+        <f>"oChartObj.Top = 10"</f>
+        <v>oChartObj.Top = 10</v>
       </c>
       <c r="E225" s="5" t="s">
-        <v>311</v>
+        <v>123</v>
       </c>
       <c r="F225" s="11" t="s">
         <v>123</v>
@@ -8187,17 +8328,17 @@
     <row r="226" spans="1:6" outlineLevel="1">
       <c r="A226" s="2"/>
       <c r="B226" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C226" s="22" t="s">
         <v>402</v>
       </c>
       <c r="D226" s="4" t="str">
-        <f>"oChartObj.Chart.SetSourceData Source:=Union(rXAxsRng, rDataRng)"</f>
-        <v>oChartObj.Chart.SetSourceData Source:=Union(rXAxsRng, rDataRng)</v>
+        <f>"oChartObj.Left = 20"</f>
+        <v>oChartObj.Left = 20</v>
       </c>
       <c r="E226" s="5" t="s">
-        <v>312</v>
+        <v>123</v>
       </c>
       <c r="F226" s="11" t="s">
         <v>123</v>
@@ -8206,14 +8347,14 @@
     <row r="227" spans="1:6" outlineLevel="1">
       <c r="A227" s="2"/>
       <c r="B227" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C227" s="22" t="s">
         <v>402</v>
       </c>
       <c r="D227" s="4" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).HasTitle = True"</f>
-        <v>oChartObj.Chart.Axes(xlCategory).HasTitle = True</v>
+        <f>"oChartObj.Width = 200"</f>
+        <v>oChartObj.Width = 200</v>
       </c>
       <c r="E227" s="5" t="s">
         <v>123</v>
@@ -8225,14 +8366,14 @@
     <row r="228" spans="1:6" outlineLevel="1">
       <c r="A228" s="2"/>
       <c r="B228" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C228" s="22" t="s">
         <v>402</v>
       </c>
       <c r="D228" s="4" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).AxisTitle.Text = ""Test Axis X"""</f>
-        <v>oChartObj.Chart.Axes(xlCategory).AxisTitle.Text = "Test Axis X"</v>
+        <f>"oChartObj.Height = 300"</f>
+        <v>oChartObj.Height = 300</v>
       </c>
       <c r="E228" s="5" t="s">
         <v>123</v>
@@ -8244,17 +8385,17 @@
     <row r="229" spans="1:6" outlineLevel="1">
       <c r="A229" s="2"/>
       <c r="B229" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C229" s="22" t="s">
         <v>402</v>
       </c>
       <c r="D229" s="4" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).HasMajorGridlines = True"</f>
-        <v>oChartObj.Chart.Axes(xlCategory).HasMajorGridlines = True</v>
+        <f>"oChartObj.Chart.ChartType = xlXYScatterLines"</f>
+        <v>oChartObj.Chart.ChartType = xlXYScatterLines</v>
       </c>
       <c r="E229" s="5" t="s">
-        <v>123</v>
+        <v>311</v>
       </c>
       <c r="F229" s="11" t="s">
         <v>123</v>
@@ -8263,17 +8404,17 @@
     <row r="230" spans="1:6" outlineLevel="1">
       <c r="A230" s="2"/>
       <c r="B230" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C230" s="22" t="s">
         <v>402</v>
       </c>
       <c r="D230" s="4" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.Color = RGB(217, 217, 217)"</f>
-        <v>oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.Color = RGB(217, 217, 217)</v>
+        <f>"oChartObj.Chart.SetSourceData Source:=Union(rXAxsRng, rDataRng)"</f>
+        <v>oChartObj.Chart.SetSourceData Source:=Union(rXAxsRng, rDataRng)</v>
       </c>
       <c r="E230" s="5" t="s">
-        <v>123</v>
+        <v>312</v>
       </c>
       <c r="F230" s="11" t="s">
         <v>123</v>
@@ -8282,14 +8423,14 @@
     <row r="231" spans="1:6" outlineLevel="1">
       <c r="A231" s="2"/>
       <c r="B231" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C231" s="22" t="s">
         <v>402</v>
       </c>
       <c r="D231" s="4" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.Weight = 2"</f>
-        <v>oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.Weight = 2</v>
+        <f>"oChartObj.Chart.Axes(xlCategory).HasTitle = True"</f>
+        <v>oChartObj.Chart.Axes(xlCategory).HasTitle = True</v>
       </c>
       <c r="E231" s="5" t="s">
         <v>123</v>
@@ -8301,14 +8442,14 @@
     <row r="232" spans="1:6" outlineLevel="1">
       <c r="A232" s="2"/>
       <c r="B232" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C232" s="22" t="s">
         <v>402</v>
       </c>
       <c r="D232" s="4" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.LineStyle = (xlContinuous\|xlDot\|xlDouble\|xlLineStyleNone\|...)"</f>
-        <v>oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.LineStyle = (xlContinuous\|xlDot\|xlDouble\|xlLineStyleNone\|...)</v>
+        <f>"oChartObj.Chart.Axes(xlCategory).AxisTitle.Text = ""Test Axis X"""</f>
+        <v>oChartObj.Chart.Axes(xlCategory).AxisTitle.Text = "Test Axis X"</v>
       </c>
       <c r="E232" s="5" t="s">
         <v>123</v>
@@ -8320,13 +8461,14 @@
     <row r="233" spans="1:6" outlineLevel="1">
       <c r="A233" s="2"/>
       <c r="B233" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C233" s="24" t="s">
-        <v>402</v>
-      </c>
-      <c r="D233" s="5" t="s">
-        <v>262</v>
+        <v>231</v>
+      </c>
+      <c r="C233" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="D233" s="4" t="str">
+        <f>"oChartObj.Chart.Axes(xlCategory).HasMajorGridlines = True"</f>
+        <v>oChartObj.Chart.Axes(xlCategory).HasMajorGridlines = True</v>
       </c>
       <c r="E233" s="5" t="s">
         <v>123</v>
@@ -8338,14 +8480,14 @@
     <row r="234" spans="1:6" outlineLevel="1">
       <c r="A234" s="2"/>
       <c r="B234" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C234" s="22" t="s">
         <v>402</v>
       </c>
       <c r="D234" s="4" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).MinimumScaleIsAuto = False"</f>
-        <v>oChartObj.Chart.Axes(xlCategory).MinimumScaleIsAuto = False</v>
+        <f>"oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.Color = RGB(217, 217, 217)"</f>
+        <v>oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.Color = RGB(217, 217, 217)</v>
       </c>
       <c r="E234" s="5" t="s">
         <v>123</v>
@@ -8357,14 +8499,14 @@
     <row r="235" spans="1:6" outlineLevel="1">
       <c r="A235" s="2"/>
       <c r="B235" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C235" s="22" t="s">
         <v>402</v>
       </c>
       <c r="D235" s="4" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).MaximumScaleIsAuto = False"</f>
-        <v>oChartObj.Chart.Axes(xlCategory).MaximumScaleIsAuto = False</v>
+        <f>"oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.Weight = 2"</f>
+        <v>oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.Weight = 2</v>
       </c>
       <c r="E235" s="5" t="s">
         <v>123</v>
@@ -8376,14 +8518,14 @@
     <row r="236" spans="1:6" outlineLevel="1">
       <c r="A236" s="2"/>
       <c r="B236" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C236" s="22" t="s">
         <v>402</v>
       </c>
       <c r="D236" s="4" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).MinimumScale = 0"</f>
-        <v>oChartObj.Chart.Axes(xlCategory).MinimumScale = 0</v>
+        <f>"oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.LineStyle = (xlContinuous\|xlDot\|xlDouble\|xlLineStyleNone\|...)"</f>
+        <v>oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.LineStyle = (xlContinuous\|xlDot\|xlDouble\|xlLineStyleNone\|...)</v>
       </c>
       <c r="E236" s="5" t="s">
         <v>123</v>
@@ -8395,14 +8537,13 @@
     <row r="237" spans="1:6" outlineLevel="1">
       <c r="A237" s="2"/>
       <c r="B237" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="C237" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="D237" s="4" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).MaximumScale = 100"</f>
-        <v>oChartObj.Chart.Axes(xlCategory).MaximumScale = 100</v>
+        <v>235</v>
+      </c>
+      <c r="C237" s="24" t="s">
+        <v>402</v>
+      </c>
+      <c r="D237" s="5" t="s">
+        <v>262</v>
       </c>
       <c r="E237" s="5" t="s">
         <v>123</v>
@@ -8414,14 +8555,14 @@
     <row r="238" spans="1:6" outlineLevel="1">
       <c r="A238" s="2"/>
       <c r="B238" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C238" s="22" t="s">
         <v>402</v>
       </c>
       <c r="D238" s="4" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).Crosses = (xlMinimum\|xlMaximum\|xlAutomatic)"</f>
-        <v>oChartObj.Chart.Axes(xlCategory).Crosses = (xlMinimum\|xlMaximum\|xlAutomatic)</v>
+        <f>"oChartObj.Chart.Axes(xlCategory).MinimumScaleIsAuto = False"</f>
+        <v>oChartObj.Chart.Axes(xlCategory).MinimumScaleIsAuto = False</v>
       </c>
       <c r="E238" s="5" t="s">
         <v>123</v>
@@ -8433,13 +8574,14 @@
     <row r="239" spans="1:6" outlineLevel="1">
       <c r="A239" s="2"/>
       <c r="B239" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C239" s="22" t="s">
         <v>402</v>
       </c>
-      <c r="D239" s="4" t="s">
-        <v>263</v>
+      <c r="D239" s="4" t="str">
+        <f>"oChartObj.Chart.Axes(xlCategory).MaximumScaleIsAuto = False"</f>
+        <v>oChartObj.Chart.Axes(xlCategory).MaximumScaleIsAuto = False</v>
       </c>
       <c r="E239" s="5" t="s">
         <v>123</v>
@@ -8451,14 +8593,14 @@
     <row r="240" spans="1:6" outlineLevel="1">
       <c r="A240" s="2"/>
       <c r="B240" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C240" s="22" t="s">
         <v>402</v>
       </c>
       <c r="D240" s="4" t="str">
-        <f>"oChartObj.Chart.HasTitle = True"</f>
-        <v>oChartObj.Chart.HasTitle = True</v>
+        <f>"oChartObj.Chart.Axes(xlCategory).MinimumScale = 0"</f>
+        <v>oChartObj.Chart.Axes(xlCategory).MinimumScale = 0</v>
       </c>
       <c r="E240" s="5" t="s">
         <v>123</v>
@@ -8470,14 +8612,14 @@
     <row r="241" spans="1:6" outlineLevel="1">
       <c r="A241" s="2"/>
       <c r="B241" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C241" s="22" t="s">
         <v>402</v>
       </c>
       <c r="D241" s="4" t="str">
-        <f>"oChartObj.Chart.ChartTitle.Text = ""Test Title"""</f>
-        <v>oChartObj.Chart.ChartTitle.Text = "Test Title"</v>
+        <f>"oChartObj.Chart.Axes(xlCategory).MaximumScale = 100"</f>
+        <v>oChartObj.Chart.Axes(xlCategory).MaximumScale = 100</v>
       </c>
       <c r="E241" s="5" t="s">
         <v>123</v>
@@ -8489,17 +8631,17 @@
     <row r="242" spans="1:6" outlineLevel="1">
       <c r="A242" s="2"/>
       <c r="B242" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C242" s="22" t="s">
         <v>402</v>
       </c>
       <c r="D242" s="4" t="str">
-        <f>"oChartObj.Chart.ChartTitle.IncludeInLayout = False"</f>
-        <v>oChartObj.Chart.ChartTitle.IncludeInLayout = False</v>
+        <f>"oChartObj.Chart.Axes(xlCategory).Crosses = (xlMinimum\|xlMaximum\|xlAutomatic)"</f>
+        <v>oChartObj.Chart.Axes(xlCategory).Crosses = (xlMinimum\|xlMaximum\|xlAutomatic)</v>
       </c>
       <c r="E242" s="5" t="s">
-        <v>313</v>
+        <v>123</v>
       </c>
       <c r="F242" s="11" t="s">
         <v>123</v>
@@ -8508,14 +8650,13 @@
     <row r="243" spans="1:6" outlineLevel="1">
       <c r="A243" s="2"/>
       <c r="B243" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C243" s="22" t="s">
         <v>402</v>
       </c>
-      <c r="D243" s="4" t="str">
-        <f>"oChartObj.Chart.HasLegend = True"</f>
-        <v>oChartObj.Chart.HasLegend = True</v>
+      <c r="D243" s="4" t="s">
+        <v>263</v>
       </c>
       <c r="E243" s="5" t="s">
         <v>123</v>
@@ -8527,17 +8668,17 @@
     <row r="244" spans="1:6" outlineLevel="1">
       <c r="A244" s="2"/>
       <c r="B244" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C244" s="22" t="s">
         <v>402</v>
       </c>
       <c r="D244" s="4" t="str">
-        <f>"oChartObj.Chart.Legend.Position = xlLegendPositionTop"</f>
-        <v>oChartObj.Chart.Legend.Position = xlLegendPositionTop</v>
+        <f>"oChartObj.Chart.HasTitle = True"</f>
+        <v>oChartObj.Chart.HasTitle = True</v>
       </c>
       <c r="E244" s="5" t="s">
-        <v>265</v>
+        <v>123</v>
       </c>
       <c r="F244" s="11" t="s">
         <v>123</v>
@@ -8546,17 +8687,17 @@
     <row r="245" spans="1:6" outlineLevel="1">
       <c r="A245" s="2"/>
       <c r="B245" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C245" s="22" t="s">
         <v>402</v>
       </c>
       <c r="D245" s="4" t="str">
-        <f>"oChartObj.Chart.Legend.IncludeInLayout = False"</f>
-        <v>oChartObj.Chart.Legend.IncludeInLayout = False</v>
+        <f>"oChartObj.Chart.ChartTitle.Text = ""Test Title"""</f>
+        <v>oChartObj.Chart.ChartTitle.Text = "Test Title"</v>
       </c>
       <c r="E245" s="5" t="s">
-        <v>313</v>
+        <v>123</v>
       </c>
       <c r="F245" s="11" t="s">
         <v>123</v>
@@ -8565,30 +8706,35 @@
     <row r="246" spans="1:6" outlineLevel="1">
       <c r="A246" s="2"/>
       <c r="B246" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C246" s="22" t="s">
         <v>402</v>
       </c>
-      <c r="D246" s="10" t="str">
-        <f>".Sheets(シート名).PasteSpecial Format:=""図 (JPEG)"", Link:=False, DisplayAsIcon:=False"</f>
-        <v>.Sheets(シート名).PasteSpecial Format:="図 (JPEG)", Link:=False, DisplayAsIcon:=False</v>
+      <c r="D246" s="4" t="str">
+        <f>"oChartObj.Chart.ChartTitle.IncludeInLayout = False"</f>
+        <v>oChartObj.Chart.ChartTitle.IncludeInLayout = False</v>
       </c>
       <c r="E246" s="5" t="s">
-        <v>123</v>
+        <v>313</v>
       </c>
       <c r="F246" s="11" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="247" spans="1:6" outlineLevel="1">
-      <c r="A247" s="8" t="s">
-        <v>356</v>
-      </c>
-      <c r="B247" s="8"/>
-      <c r="C247" s="8"/>
-      <c r="D247" s="8"/>
-      <c r="E247" s="21" t="s">
+      <c r="A247" s="2"/>
+      <c r="B247" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C247" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="D247" s="4" t="str">
+        <f>"oChartObj.Chart.HasLegend = True"</f>
+        <v>oChartObj.Chart.HasLegend = True</v>
+      </c>
+      <c r="E247" s="5" t="s">
         <v>123</v>
       </c>
       <c r="F247" s="11" t="s">
@@ -8598,351 +8744,422 @@
     <row r="248" spans="1:6" outlineLevel="1">
       <c r="A248" s="2"/>
       <c r="B248" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C248" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="D248" s="4" t="str">
+        <f>"oChartObj.Chart.Legend.Position = xlLegendPositionTop"</f>
+        <v>oChartObj.Chart.Legend.Position = xlLegendPositionTop</v>
+      </c>
+      <c r="E248" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="F248" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" outlineLevel="1">
+      <c r="A249" s="2"/>
+      <c r="B249" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C249" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="D249" s="4" t="str">
+        <f>"oChartObj.Chart.Legend.IncludeInLayout = False"</f>
+        <v>oChartObj.Chart.Legend.IncludeInLayout = False</v>
+      </c>
+      <c r="E249" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="F249" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" outlineLevel="1">
+      <c r="A250" s="2"/>
+      <c r="B250" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C250" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="D250" s="10" t="str">
+        <f>".Sheets(シート名).PasteSpecial Format:=""図 (JPEG)"", Link:=False, DisplayAsIcon:=False"</f>
+        <v>.Sheets(シート名).PasteSpecial Format:="図 (JPEG)", Link:=False, DisplayAsIcon:=False</v>
+      </c>
+      <c r="E250" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F250" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" outlineLevel="1">
+      <c r="A251" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="B251" s="8"/>
+      <c r="C251" s="8"/>
+      <c r="D251" s="8"/>
+      <c r="E251" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="F251" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" outlineLevel="1">
+      <c r="A252" s="2"/>
+      <c r="B252" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C248" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="D248" s="4" t="str">
+      <c r="C252" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="D252" s="4" t="str">
         <f>"Dim goPrgrsBar As New ProgressBar"&amp;CHAR(10)&amp;"goPrgrsBar.Show vbModeless"</f>
         <v>Dim goPrgrsBar As New ProgressBar
 goPrgrsBar.Show vbModeless</v>
       </c>
-      <c r="E248" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F248" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6" outlineLevel="1">
-      <c r="A249" s="2"/>
-      <c r="B249" s="2" t="s">
+      <c r="E252" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F252" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" outlineLevel="1">
+      <c r="A253" s="2"/>
+      <c r="B253" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="C249" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="D249" s="4" t="str">
+      <c r="C253" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="D253" s="4" t="str">
         <f>"goPrgrsBar.Hide"&amp;CHAR(10)&amp;"Unload goPrgrsBar"&amp;CHAR(10)&amp;"Set goPrgrsBar = Nothing"</f>
         <v>goPrgrsBar.Hide
 Unload goPrgrsBar
 Set goPrgrsBar = Nothing</v>
       </c>
-      <c r="E249" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F249" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6" outlineLevel="1">
-      <c r="A250" s="8" t="s">
+      <c r="E253" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F253" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" outlineLevel="1">
+      <c r="A254" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="B250" s="8"/>
-      <c r="C250" s="8"/>
-      <c r="D250" s="8"/>
-      <c r="E250" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="F250" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6" outlineLevel="1">
-      <c r="A251" s="2"/>
-      <c r="B251" s="2" t="s">
+      <c r="B254" s="8"/>
+      <c r="C254" s="8"/>
+      <c r="D254" s="8"/>
+      <c r="E254" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="F254" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" outlineLevel="1">
+      <c r="A255" s="2"/>
+      <c r="B255" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C251" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="D251" s="4" t="str">
+      <c r="C255" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="D255" s="4" t="str">
         <f>"lChk = ThisWorkbook.Sheets(シート名).CheckBoxes(1).Value"</f>
         <v>lChk = ThisWorkbook.Sheets(シート名).CheckBoxes(1).Value</v>
       </c>
-      <c r="E251" s="5" t="s">
+      <c r="E255" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="F251" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6" outlineLevel="1">
-      <c r="A252" s="2"/>
-      <c r="B252" s="2" t="s">
+      <c r="F255" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" outlineLevel="1">
+      <c r="A256" s="2"/>
+      <c r="B256" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C252" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="D252" s="4" t="str">
+      <c r="C256" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="D256" s="4" t="str">
         <f>"Private Sub xxx\_KeyUp(ByVal KeyCode As MSForms.ReturnInteger, ByVal Shift As Integer)"&amp;CHAR(10)&amp;"End Sub"</f>
         <v>Private Sub xxx\_KeyUp(ByVal KeyCode As MSForms.ReturnInteger, ByVal Shift As Integer)
 End Sub</v>
       </c>
-      <c r="E252" s="5" t="s">
+      <c r="E256" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="F252" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6" outlineLevel="1">
-      <c r="A253" s="8" t="s">
+      <c r="F256" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" outlineLevel="1">
+      <c r="A257" s="8" t="s">
         <v>399</v>
       </c>
-      <c r="B253" s="8"/>
-      <c r="C253" s="8"/>
-      <c r="D253" s="8"/>
-      <c r="E253" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="F253" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6" outlineLevel="1">
-      <c r="A254" s="2"/>
-      <c r="B254" s="2" t="s">
+      <c r="B257" s="8"/>
+      <c r="C257" s="8"/>
+      <c r="D257" s="8"/>
+      <c r="E257" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="F257" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" outlineLevel="1">
+      <c r="A258" s="2"/>
+      <c r="B258" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="C254" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="D254" s="4" t="s">
+      <c r="C258" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="D258" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="E254" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F254" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6" outlineLevel="1">
-      <c r="A255" s="8" t="s">
+      <c r="E258" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F258" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" outlineLevel="1">
+      <c r="A259" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="B255" s="8"/>
-      <c r="C255" s="8"/>
-      <c r="D255" s="8"/>
-      <c r="E255" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="F255" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6" outlineLevel="1">
-      <c r="A256" s="2"/>
-      <c r="B256" s="2" t="s">
+      <c r="B259" s="8"/>
+      <c r="C259" s="8"/>
+      <c r="D259" s="8"/>
+      <c r="E259" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="F259" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" outlineLevel="1">
+      <c r="A260" s="2"/>
+      <c r="B260" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C256" s="4" t="str">
+      <c r="C260" s="4" t="str">
         <f>"objWshShell.Exec( ""clip"" ).StdIn.Write( ""テキスト"" )"</f>
         <v>objWshShell.Exec( "clip" ).StdIn.Write( "テキスト" )</v>
       </c>
-      <c r="D256" s="4" t="str">
+      <c r="D260" s="4" t="str">
         <f>"With CreateObject(""new:{1C3B4210-F441-11CE-B9EA-00AA006B1A69}"")"&amp;CHAR(10)&amp;CHAR(9)&amp;".GetFromClipboard"&amp;CHAR(10)&amp;CHAR(9)&amp;"sText = .GetText"&amp;CHAR(10)&amp;"End With"</f>
         <v>With CreateObject("new:{1C3B4210-F441-11CE-B9EA-00AA006B1A69}")
 	.GetFromClipboard
 	sText = .GetText
 End With</v>
       </c>
-      <c r="E256" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F256" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6" outlineLevel="1">
-      <c r="A257" s="2"/>
-      <c r="B257" s="2" t="s">
+      <c r="E260" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F260" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" outlineLevel="1">
+      <c r="A261" s="2"/>
+      <c r="B261" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="C257" s="4" t="str">
+      <c r="C261" s="4" t="str">
         <f>"CreateObject(""htmlfile"").ParentWindow.Clipboarddata.GetData(""text"")"</f>
         <v>CreateObject("htmlfile").ParentWindow.Clipboarddata.GetData("text")</v>
       </c>
-      <c r="D257" s="4" t="str">
+      <c r="D261" s="4" t="str">
         <f>"With CreateObject(""new:{1C3B4210-F441-11CE-B9EA-00AA006B1A69}"")"&amp;CHAR(10)&amp;CHAR(9)&amp;".SetText sText"&amp;CHAR(10)&amp;CHAR(9)&amp;".PutInClipboard"&amp;CHAR(10)&amp;"End With"</f>
         <v>With CreateObject("new:{1C3B4210-F441-11CE-B9EA-00AA006B1A69}")
 	.SetText sText
 	.PutInClipboard
 End With</v>
       </c>
-      <c r="E257" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F257" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6" outlineLevel="1">
-      <c r="A258" s="8" t="s">
+      <c r="E261" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F261" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" outlineLevel="1">
+      <c r="A262" s="8" t="s">
         <v>358</v>
       </c>
-      <c r="B258" s="8"/>
-      <c r="C258" s="8"/>
-      <c r="D258" s="8"/>
-      <c r="E258" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="F258" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6" outlineLevel="1">
-      <c r="A259" s="2"/>
-      <c r="B259" s="2" t="s">
+      <c r="B262" s="8"/>
+      <c r="C262" s="8"/>
+      <c r="D262" s="8"/>
+      <c r="E262" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="F262" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" outlineLevel="1">
+      <c r="A263" s="2"/>
+      <c r="B263" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="C259" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="D259" s="4" t="str">
+      <c r="C263" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="D263" s="4" t="str">
         <f>"Dim wWord As Object" &amp; CHAR(10) &amp; "Set wWord = CreateObject(""Word.Application"")" &amp; CHAR(10) &amp; "wWord.Visible = False"</f>
         <v>Dim wWord As Object
 Set wWord = CreateObject("Word.Application")
 wWord.Visible = False</v>
       </c>
-      <c r="E259" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F259" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6" outlineLevel="1">
-      <c r="A260" s="2"/>
-      <c r="B260" s="2" t="s">
+      <c r="E263" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F263" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" outlineLevel="1">
+      <c r="A264" s="2"/>
+      <c r="B264" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="C260" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="D260" s="4" t="str">
+      <c r="C264" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="D264" s="4" t="str">
         <f>"dDoc.Close" &amp; CHAR(10) &amp; "Set dDoc = Nothing"</f>
         <v>dDoc.Close
 Set dDoc = Nothing</v>
       </c>
-      <c r="E260" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F260" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6" outlineLevel="1">
-      <c r="A261" s="2"/>
-      <c r="B261" s="2" t="s">
+      <c r="E264" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F264" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" outlineLevel="1">
+      <c r="A265" s="2"/>
+      <c r="B265" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="C261" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="D261" s="4" t="str">
+      <c r="C265" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="D265" s="4" t="str">
         <f>"wWord.Visible = False" &amp; CHAR(10) &amp; "wWord.Quit" &amp; CHAR(10) &amp; "Set wWord = Nothing"</f>
         <v>wWord.Visible = False
 wWord.Quit
 Set wWord = Nothing</v>
       </c>
-      <c r="E261" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F261" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6" outlineLevel="1">
-      <c r="A262" s="2"/>
-      <c r="B262" s="2" t="s">
+      <c r="E265" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F265" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" outlineLevel="1">
+      <c r="A266" s="2"/>
+      <c r="B266" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="C262" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="D262" s="4" t="str">
+      <c r="C266" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="D266" s="4" t="str">
         <f>"Dim dDoc As Object" &amp; CHAR(10) &amp; "Set dDoc = wWord.Documents.Open(""sFilePath"")"</f>
         <v>Dim dDoc As Object
 Set dDoc = wWord.Documents.Open("sFilePath")</v>
       </c>
-      <c r="E262" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F262" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6" outlineLevel="1">
-      <c r="A263" s="2"/>
-      <c r="B263" s="2" t="s">
+      <c r="E266" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F266" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" outlineLevel="1">
+      <c r="A267" s="2"/>
+      <c r="B267" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="C263" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="D263" s="4" t="str">
+      <c r="C267" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="D267" s="4" t="str">
         <f>"Dim sParagraph As Object" &amp; CHAR(10) &amp; "For Each sParagraph In dDoc.Paragraphs" &amp; CHAR(10) &amp; CHAR(9) &amp; "'～処理～" &amp; CHAR(10) &amp; "Next sParagraph"</f>
         <v>Dim sParagraph As Object
 For Each sParagraph In dDoc.Paragraphs
 	'～処理～
 Next sParagraph</v>
       </c>
-      <c r="E263" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F263" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6" outlineLevel="1">
-      <c r="A264" s="8" t="s">
+      <c r="E267" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F267" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" outlineLevel="1">
+      <c r="A268" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="B264" s="8"/>
-      <c r="C264" s="8"/>
-      <c r="D264" s="8"/>
-      <c r="E264" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="F264" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6" outlineLevel="1">
-      <c r="A265" s="2"/>
-      <c r="B265" s="2" t="s">
+      <c r="B268" s="8"/>
+      <c r="C268" s="8"/>
+      <c r="D268" s="8"/>
+      <c r="E268" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="F268" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" outlineLevel="1">
+      <c r="A269" s="2"/>
+      <c r="B269" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C265" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="D265" s="4" t="str">
+      <c r="C269" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="D269" s="4" t="str">
         <f>"Dim wTrgtBook As Workbook"&amp;CHAR(10)&amp;"Application.SheetsInNewWorkbook = 1"&amp;CHAR(10)&amp;"Set wTrgtBook = Workbooks.Add"</f>
         <v>Dim wTrgtBook As Workbook
 Application.SheetsInNewWorkbook = 1
 Set wTrgtBook = Workbooks.Add</v>
       </c>
-      <c r="E265" s="5" t="s">
+      <c r="E269" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="F265" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6" outlineLevel="1">
-      <c r="A266" s="2"/>
-      <c r="B266" s="2" t="s">
+      <c r="F269" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" outlineLevel="1">
+      <c r="A270" s="2"/>
+      <c r="B270" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C266" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="D266" s="4" t="str">
+      <c r="C270" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="D270" s="4" t="str">
         <f>"If wCsvBook.Name &lt;&gt; Dir(""C:\Book1.xlsx"") Then"&amp;CHAR(10)&amp;CHAR(9)&amp;"処理"&amp;CHAR(10)&amp;"Else"&amp;CHAR(10)&amp;CHAR(9)&amp;"エラー"&amp;CHAR(10)&amp;"End If"</f>
         <v>If wCsvBook.Name &lt;&gt; Dir("C:\Book1.xlsx") Then
 	処理
@@ -8950,219 +9167,143 @@
 	エラー
 End If</v>
       </c>
-      <c r="E266" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F266" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6" outlineLevel="1">
-      <c r="A267" s="2"/>
-      <c r="B267" s="2" t="s">
+      <c r="E270" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F270" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" outlineLevel="1">
+      <c r="A271" s="2"/>
+      <c r="B271" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C267" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="D267" s="4" t="str">
+      <c r="C271" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="D271" s="4" t="str">
         <f>"Dim bAddBook As Workbook"&amp;CHAR(10)&amp;"Set bAddBook = Workbooks.Add"</f>
         <v>Dim bAddBook As Workbook
 Set bAddBook = Workbooks.Add</v>
       </c>
-      <c r="E267" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F267" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6" outlineLevel="1">
-      <c r="A268" s="2"/>
-      <c r="B268" s="2" t="s">
+      <c r="E271" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F271" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" outlineLevel="1">
+      <c r="A272" s="2"/>
+      <c r="B272" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C268" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="D268" s="4" t="str">
+      <c r="C272" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="D272" s="4" t="str">
         <f>"ThisWorkbook.Sheets(シート名).Copy: Set wTrgtBook = ActiveWorkbook"</f>
         <v>ThisWorkbook.Sheets(シート名).Copy: Set wTrgtBook = ActiveWorkbook</v>
       </c>
-      <c r="E268" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F268" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6" outlineLevel="1">
-      <c r="A269" s="2"/>
-      <c r="B269" s="2" t="s">
+      <c r="E272" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F272" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" outlineLevel="1">
+      <c r="A273" s="2"/>
+      <c r="B273" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C269" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="D269" s="4" t="str">
+      <c r="C273" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="D273" s="4" t="str">
         <f>"wTrgtBook.SaveAs Filename:=sFilePath"</f>
         <v>wTrgtBook.SaveAs Filename:=sFilePath</v>
       </c>
-      <c r="E269" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F269" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="270" spans="1:6" outlineLevel="1">
-      <c r="A270" s="2"/>
-      <c r="B270" s="2" t="s">
+      <c r="E273" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F273" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" outlineLevel="1">
+      <c r="A274" s="2"/>
+      <c r="B274" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C270" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="D270" s="4" t="str">
+      <c r="C274" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="D274" s="4" t="str">
         <f>".Sheets.Count"</f>
         <v>.Sheets.Count</v>
       </c>
-      <c r="E270" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F270" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="271" spans="1:6" outlineLevel="1">
-      <c r="A271" s="2"/>
-      <c r="B271" s="2" t="s">
+      <c r="E274" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F274" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" outlineLevel="1">
+      <c r="A275" s="2"/>
+      <c r="B275" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C271" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="D271" s="4" t="str">
+      <c r="C275" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="D275" s="4" t="str">
         <f>"Dim shAddSht As Worksheet"&amp;CHAR(10)&amp;"Set shAddSht = ThisWorkbook.Sheets.Add"</f>
         <v>Dim shAddSht As Worksheet
 Set shAddSht = ThisWorkbook.Sheets.Add</v>
       </c>
-      <c r="E271" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F271" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6" outlineLevel="1">
-      <c r="A272" s="2"/>
-      <c r="B272" s="2" t="s">
+      <c r="E275" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F275" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" outlineLevel="1">
+      <c r="A276" s="2"/>
+      <c r="B276" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C272" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="D272" s="4" t="str">
+      <c r="C276" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="D276" s="4" t="str">
         <f>"ThisWorkbook.Sheets(シート名).Move After:=ThisWorkbook.Sheets( ThisWorkbook.Sheets.Count )"</f>
         <v>ThisWorkbook.Sheets(シート名).Move After:=ThisWorkbook.Sheets( ThisWorkbook.Sheets.Count )</v>
       </c>
-      <c r="E272" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F272" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="273" spans="1:6" outlineLevel="1">
-      <c r="A273" s="2"/>
-      <c r="B273" s="2" t="s">
+      <c r="E276" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F276" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" outlineLevel="1">
+      <c r="A277" s="2"/>
+      <c r="B277" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C273" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="D273" s="4" t="str">
+      <c r="C277" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="D277" s="4" t="str">
         <f>"Application.DisplayAlerts = False"&amp;CHAR(10)&amp;".Sheets(シート名).Delete"&amp;CHAR(10)&amp;"Application.DisplayAlerts = True"</f>
         <v>Application.DisplayAlerts = False
 .Sheets(シート名).Delete
 Application.DisplayAlerts = True</v>
       </c>
-      <c r="E273" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F273" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="274" spans="1:6" outlineLevel="1">
-      <c r="A274" s="2"/>
-      <c r="B274" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C274" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="D274" s="4" t="str">
-        <f>".Sheets(シート名).Visible = (True\|False)"</f>
-        <v>.Sheets(シート名).Visible = (True\|False)</v>
-      </c>
-      <c r="E274" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F274" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="275" spans="1:6" outlineLevel="1">
-      <c r="A275" s="2"/>
-      <c r="B275" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C275" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="D275" s="4" t="str">
-        <f>".Sheets(シート名).Move Before:=Sheets(1)"</f>
-        <v>.Sheets(シート名).Move Before:=Sheets(1)</v>
-      </c>
-      <c r="E275" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F275" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="276" spans="1:6" outlineLevel="1">
-      <c r="A276" s="2"/>
-      <c r="B276" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C276" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="D276" s="4" t="str">
-        <f>"Application.ScreenUpdating = True"</f>
-        <v>Application.ScreenUpdating = True</v>
-      </c>
-      <c r="E276" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F276" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="277" spans="1:6" outlineLevel="1">
-      <c r="A277" s="2"/>
-      <c r="B277" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C277" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="D277" s="4" t="str">
-        <f>"Application.ScreenUpdating = False"</f>
-        <v>Application.ScreenUpdating = False</v>
-      </c>
       <c r="E277" s="5" t="s">
         <v>123</v>
       </c>
@@ -9173,14 +9314,14 @@
     <row r="278" spans="1:6" outlineLevel="1">
       <c r="A278" s="2"/>
       <c r="B278" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C278" s="22" t="s">
         <v>402</v>
       </c>
       <c r="D278" s="4" t="str">
-        <f>"Application.Calculation = xlCalculationAutomatic"</f>
-        <v>Application.Calculation = xlCalculationAutomatic</v>
+        <f>".Sheets(シート名).Visible = (True\|False)"</f>
+        <v>.Sheets(シート名).Visible = (True\|False)</v>
       </c>
       <c r="E278" s="5" t="s">
         <v>123</v>
@@ -9192,14 +9333,14 @@
     <row r="279" spans="1:6" outlineLevel="1">
       <c r="A279" s="2"/>
       <c r="B279" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C279" s="22" t="s">
         <v>402</v>
       </c>
       <c r="D279" s="4" t="str">
-        <f>"Application.Calculation = xlCalculationManual"</f>
-        <v>Application.Calculation = xlCalculationManual</v>
+        <f>".Sheets(シート名).Move Before:=Sheets(1)"</f>
+        <v>.Sheets(シート名).Move Before:=Sheets(1)</v>
       </c>
       <c r="E279" s="5" t="s">
         <v>123</v>
@@ -9211,14 +9352,14 @@
     <row r="280" spans="1:6" outlineLevel="1">
       <c r="A280" s="2"/>
       <c r="B280" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C280" s="22" t="s">
         <v>402</v>
       </c>
       <c r="D280" s="4" t="str">
-        <f>"Application.Calculate"</f>
-        <v>Application.Calculate</v>
+        <f>"Application.ScreenUpdating = True"</f>
+        <v>Application.ScreenUpdating = True</v>
       </c>
       <c r="E280" s="5" t="s">
         <v>123</v>
@@ -9230,14 +9371,14 @@
     <row r="281" spans="1:6" outlineLevel="1">
       <c r="A281" s="2"/>
       <c r="B281" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C281" s="22" t="s">
         <v>402</v>
       </c>
       <c r="D281" s="4" t="str">
-        <f>"Application.CalculateFull"</f>
-        <v>Application.CalculateFull</v>
+        <f>"Application.ScreenUpdating = False"</f>
+        <v>Application.ScreenUpdating = False</v>
       </c>
       <c r="E281" s="5" t="s">
         <v>123</v>
@@ -9249,16 +9390,17 @@
     <row r="282" spans="1:6" outlineLevel="1">
       <c r="A282" s="2"/>
       <c r="B282" s="2" t="s">
-        <v>504</v>
+        <v>164</v>
       </c>
       <c r="C282" s="22" t="s">
         <v>402</v>
       </c>
-      <c r="D282" s="4" t="s">
-        <v>505</v>
+      <c r="D282" s="4" t="str">
+        <f>"Application.Calculation = xlCalculationAutomatic"</f>
+        <v>Application.Calculation = xlCalculationAutomatic</v>
       </c>
       <c r="E282" s="5" t="s">
-        <v>506</v>
+        <v>123</v>
       </c>
       <c r="F282" s="11" t="s">
         <v>123</v>
@@ -9267,29 +9409,35 @@
     <row r="283" spans="1:6" outlineLevel="1">
       <c r="A283" s="2"/>
       <c r="B283" s="2" t="s">
-        <v>502</v>
+        <v>165</v>
       </c>
       <c r="C283" s="22" t="s">
         <v>402</v>
       </c>
-      <c r="D283" s="4" t="s">
-        <v>501</v>
+      <c r="D283" s="4" t="str">
+        <f>"Application.Calculation = xlCalculationManual"</f>
+        <v>Application.Calculation = xlCalculationManual</v>
       </c>
       <c r="E283" s="5" t="s">
-        <v>503</v>
+        <v>123</v>
       </c>
       <c r="F283" s="11" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="284" spans="1:6">
-      <c r="A284" s="20" t="s">
-        <v>405</v>
-      </c>
-      <c r="B284" s="8"/>
-      <c r="C284" s="8"/>
-      <c r="D284" s="8"/>
-      <c r="E284" s="21" t="s">
+    <row r="284" spans="1:6" outlineLevel="1">
+      <c r="A284" s="2"/>
+      <c r="B284" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C284" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="D284" s="4" t="str">
+        <f>"Application.Calculate"</f>
+        <v>Application.Calculate</v>
+      </c>
+      <c r="E284" s="5" t="s">
         <v>123</v>
       </c>
       <c r="F284" s="11" t="s">
@@ -9299,14 +9447,14 @@
     <row r="285" spans="1:6" outlineLevel="1">
       <c r="A285" s="2"/>
       <c r="B285" s="2" t="s">
-        <v>260</v>
+        <v>167</v>
       </c>
       <c r="C285" s="22" t="s">
         <v>402</v>
       </c>
       <c r="D285" s="4" t="str">
-        <f>"Application.DisplayAlerts = False"</f>
-        <v>Application.DisplayAlerts = False</v>
+        <f>"Application.CalculateFull"</f>
+        <v>Application.CalculateFull</v>
       </c>
       <c r="E285" s="5" t="s">
         <v>123</v>
@@ -9318,17 +9466,16 @@
     <row r="286" spans="1:6" outlineLevel="1">
       <c r="A286" s="2"/>
       <c r="B286" s="2" t="s">
-        <v>259</v>
+        <v>504</v>
       </c>
       <c r="C286" s="22" t="s">
         <v>402</v>
       </c>
-      <c r="D286" s="4" t="str">
-        <f>"Application.DisplayAlerts = True"</f>
-        <v>Application.DisplayAlerts = True</v>
+      <c r="D286" s="4" t="s">
+        <v>505</v>
       </c>
       <c r="E286" s="5" t="s">
-        <v>123</v>
+        <v>506</v>
       </c>
       <c r="F286" s="11" t="s">
         <v>123</v>
@@ -9337,35 +9484,29 @@
     <row r="287" spans="1:6" outlineLevel="1">
       <c r="A287" s="2"/>
       <c r="B287" s="2" t="s">
-        <v>168</v>
+        <v>502</v>
       </c>
       <c r="C287" s="22" t="s">
         <v>402</v>
       </c>
-      <c r="D287" s="4" t="str">
-        <f>".Rows(2).Select"</f>
-        <v>.Rows(2).Select</v>
+      <c r="D287" s="4" t="s">
+        <v>501</v>
       </c>
       <c r="E287" s="5" t="s">
-        <v>123</v>
+        <v>503</v>
       </c>
       <c r="F287" s="11" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="288" spans="1:6" outlineLevel="1">
-      <c r="A288" s="2"/>
-      <c r="B288" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C288" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="D288" s="4" t="str">
-        <f>".Columns(2).Select"</f>
-        <v>.Columns(2).Select</v>
-      </c>
-      <c r="E288" s="5" t="s">
+    <row r="288" spans="1:6">
+      <c r="A288" s="20" t="s">
+        <v>405</v>
+      </c>
+      <c r="B288" s="8"/>
+      <c r="C288" s="8"/>
+      <c r="D288" s="8"/>
+      <c r="E288" s="21" t="s">
         <v>123</v>
       </c>
       <c r="F288" s="11" t="s">
@@ -9375,14 +9516,14 @@
     <row r="289" spans="1:6" outlineLevel="1">
       <c r="A289" s="2"/>
       <c r="B289" s="2" t="s">
-        <v>170</v>
+        <v>260</v>
       </c>
       <c r="C289" s="22" t="s">
         <v>402</v>
       </c>
       <c r="D289" s="4" t="str">
-        <f>".Cells(1,1).Select"</f>
-        <v>.Cells(1,1).Select</v>
+        <f>"Application.DisplayAlerts = False"</f>
+        <v>Application.DisplayAlerts = False</v>
       </c>
       <c r="E289" s="5" t="s">
         <v>123</v>
@@ -9394,14 +9535,14 @@
     <row r="290" spans="1:6" outlineLevel="1">
       <c r="A290" s="2"/>
       <c r="B290" s="2" t="s">
-        <v>171</v>
+        <v>259</v>
       </c>
       <c r="C290" s="22" t="s">
         <v>402</v>
       </c>
       <c r="D290" s="4" t="str">
-        <f>".Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).Select"</f>
-        <v>.Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).Select</v>
+        <f>"Application.DisplayAlerts = True"</f>
+        <v>Application.DisplayAlerts = True</v>
       </c>
       <c r="E290" s="5" t="s">
         <v>123</v>
@@ -9413,14 +9554,14 @@
     <row r="291" spans="1:6" outlineLevel="1">
       <c r="A291" s="2"/>
       <c r="B291" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C291" s="22" t="s">
         <v>402</v>
       </c>
       <c r="D291" s="4" t="str">
-        <f>".Cells.Find(""りんご"", LookAt:=xlWhole).Row"</f>
-        <v>.Cells.Find("りんご", LookAt:=xlWhole).Row</v>
+        <f>".Rows(2).Select"</f>
+        <v>.Rows(2).Select</v>
       </c>
       <c r="E291" s="5" t="s">
         <v>123</v>
@@ -9432,14 +9573,14 @@
     <row r="292" spans="1:6" outlineLevel="1">
       <c r="A292" s="2"/>
       <c r="B292" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C292" s="22" t="s">
         <v>402</v>
       </c>
       <c r="D292" s="4" t="str">
-        <f>".Cells.Find(""りんご"", LookAt:=xlWhole).Column"</f>
-        <v>.Cells.Find("りんご", LookAt:=xlWhole).Column</v>
+        <f>".Columns(2).Select"</f>
+        <v>.Columns(2).Select</v>
       </c>
       <c r="E292" s="5" t="s">
         <v>123</v>
@@ -9451,17 +9592,17 @@
     <row r="293" spans="1:6" outlineLevel="1">
       <c r="A293" s="2"/>
       <c r="B293" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C293" s="22" t="s">
         <v>402</v>
       </c>
       <c r="D293" s="4" t="str">
-        <f>".Cells(X, Y).Value"</f>
-        <v>.Cells(X, Y).Value</v>
+        <f>".Cells(1,1).Select"</f>
+        <v>.Cells(1,1).Select</v>
       </c>
       <c r="E293" s="5" t="s">
-        <v>304</v>
+        <v>123</v>
       </c>
       <c r="F293" s="11" t="s">
         <v>123</v>
@@ -9470,17 +9611,17 @@
     <row r="294" spans="1:6" outlineLevel="1">
       <c r="A294" s="2"/>
       <c r="B294" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C294" s="22" t="s">
         <v>402</v>
       </c>
       <c r="D294" s="4" t="str">
-        <f>".Cells(1, 1).Top"</f>
-        <v>.Cells(1, 1).Top</v>
+        <f>".Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).Select"</f>
+        <v>.Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).Select</v>
       </c>
       <c r="E294" s="5" t="s">
-        <v>305</v>
+        <v>123</v>
       </c>
       <c r="F294" s="11" t="s">
         <v>123</v>
@@ -9489,17 +9630,17 @@
     <row r="295" spans="1:6" outlineLevel="1">
       <c r="A295" s="2"/>
       <c r="B295" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C295" s="22" t="s">
         <v>402</v>
       </c>
       <c r="D295" s="4" t="str">
-        <f>".Cells(1, 1).Left"</f>
-        <v>.Cells(1, 1).Left</v>
+        <f>".Cells.Find(""りんご"", LookAt:=xlWhole).Row"</f>
+        <v>.Cells.Find("りんご", LookAt:=xlWhole).Row</v>
       </c>
       <c r="E295" s="5" t="s">
-        <v>306</v>
+        <v>123</v>
       </c>
       <c r="F295" s="11" t="s">
         <v>123</v>
@@ -9508,14 +9649,14 @@
     <row r="296" spans="1:6" outlineLevel="1">
       <c r="A296" s="2"/>
       <c r="B296" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C296" s="22" t="s">
         <v>402</v>
       </c>
       <c r="D296" s="4" t="str">
-        <f>".Cells(1, 1).EntireRow.Delete Shift:=xlShiftUp"</f>
-        <v>.Cells(1, 1).EntireRow.Delete Shift:=xlShiftUp</v>
+        <f>".Cells.Find(""りんご"", LookAt:=xlWhole).Column"</f>
+        <v>.Cells.Find("りんご", LookAt:=xlWhole).Column</v>
       </c>
       <c r="E296" s="5" t="s">
         <v>123</v>
@@ -9527,109 +9668,185 @@
     <row r="297" spans="1:6" outlineLevel="1">
       <c r="A297" s="2"/>
       <c r="B297" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C297" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="D297" s="4" t="str">
+        <f>".Cells(X, Y).Value"</f>
+        <v>.Cells(X, Y).Value</v>
+      </c>
+      <c r="E297" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="F297" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" outlineLevel="1">
+      <c r="A298" s="2"/>
+      <c r="B298" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C298" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="D298" s="4" t="str">
+        <f>".Cells(1, 1).Top"</f>
+        <v>.Cells(1, 1).Top</v>
+      </c>
+      <c r="E298" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="F298" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" outlineLevel="1">
+      <c r="A299" s="2"/>
+      <c r="B299" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C299" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="D299" s="4" t="str">
+        <f>".Cells(1, 1).Left"</f>
+        <v>.Cells(1, 1).Left</v>
+      </c>
+      <c r="E299" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="F299" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" outlineLevel="1">
+      <c r="A300" s="2"/>
+      <c r="B300" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C300" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="D300" s="4" t="str">
+        <f>".Cells(1, 1).EntireRow.Delete Shift:=xlShiftUp"</f>
+        <v>.Cells(1, 1).EntireRow.Delete Shift:=xlShiftUp</v>
+      </c>
+      <c r="E300" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F300" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" outlineLevel="1">
+      <c r="A301" s="2"/>
+      <c r="B301" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C297" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="D297" s="4" t="str">
+      <c r="C301" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="D301" s="4" t="str">
         <f>"Application.CutCopyMode = False"&amp;CHAR(10)&amp;".Range(""2:4"").Insert"</f>
         <v>Application.CutCopyMode = False
 .Range("2:4").Insert</v>
       </c>
-      <c r="E297" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F297" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="298" spans="1:6" outlineLevel="1">
-      <c r="A298" s="2"/>
-      <c r="B298" s="2" t="s">
+      <c r="E301" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F301" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" outlineLevel="1">
+      <c r="A302" s="2"/>
+      <c r="B302" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C298" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="D298" s="4" t="str">
+      <c r="C302" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="D302" s="4" t="str">
         <f>".Cells(行, 列).Font.Strikethrough"</f>
         <v>.Cells(行, 列).Font.Strikethrough</v>
       </c>
-      <c r="E298" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F298" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="299" spans="1:6" outlineLevel="1">
-      <c r="A299" s="2"/>
-      <c r="B299" s="2" t="s">
+      <c r="E302" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F302" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" outlineLevel="1">
+      <c r="A303" s="2"/>
+      <c r="B303" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C299" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="D299" s="4" t="str">
+      <c r="C303" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="D303" s="4" t="str">
         <f>"wTrgtBook.Sheets(シート名).Activate"&amp;CHAR(10)&amp;"ActiveWindow.DisplayGridlines = False"</f>
         <v>wTrgtBook.Sheets(シート名).Activate
 ActiveWindow.DisplayGridlines = False</v>
       </c>
-      <c r="E299" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F299" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="300" spans="1:6" outlineLevel="1">
-      <c r="A300" s="2"/>
-      <c r="B300" s="2" t="s">
+      <c r="E303" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F303" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" outlineLevel="1">
+      <c r="A304" s="2"/>
+      <c r="B304" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C300" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="D300" s="4" t="str">
+      <c r="C304" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="D304" s="4" t="str">
         <f>".Range(""A1"").EntireRow.Hidden"</f>
         <v>.Range("A1").EntireRow.Hidden</v>
       </c>
-      <c r="E300" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F300" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="301" spans="1:6" outlineLevel="1">
-      <c r="A301" s="2"/>
-      <c r="B301" s="2" t="s">
+      <c r="E304" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F304" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" outlineLevel="1">
+      <c r="A305" s="2"/>
+      <c r="B305" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C301" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="D301" s="4" t="str">
+      <c r="C305" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="D305" s="4" t="str">
         <f>".Range(""A1"").EntireColumn.Hidden"</f>
         <v>.Range("A1").EntireColumn.Hidden</v>
       </c>
-      <c r="E301" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F301" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="302" spans="1:6" outlineLevel="1">
-      <c r="A302" s="2"/>
-      <c r="B302" s="2" t="s">
+      <c r="E305" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F305" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" outlineLevel="1">
+      <c r="A306" s="2"/>
+      <c r="B306" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="C302" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="D302" s="4" t="str">
+      <c r="C306" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="D306" s="4" t="str">
         <f>"If .Cells(1, 1).EntireRow.Hidden Or .Cells(1, 1).EntireColumn.Hidden Then
     '非表示セル
 Else
@@ -9643,82 +9860,6 @@
 End If
 </v>
       </c>
-      <c r="E302" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F302" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="303" spans="1:6" outlineLevel="1">
-      <c r="A303" s="2"/>
-      <c r="B303" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C303" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="D303" s="4" t="str">
-        <f>"文字列変数 = .Range(""A1"").Font.Name"</f>
-        <v>文字列変数 = .Range("A1").Font.Name</v>
-      </c>
-      <c r="E303" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F303" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="304" spans="1:6" outlineLevel="1">
-      <c r="A304" s="2"/>
-      <c r="B304" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C304" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="D304" s="4" t="str">
-        <f>".Range(""A1"").Font.Size = 14"</f>
-        <v>.Range("A1").Font.Size = 14</v>
-      </c>
-      <c r="E304" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F304" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="305" spans="1:6" outlineLevel="1">
-      <c r="A305" s="2"/>
-      <c r="B305" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C305" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="D305" s="4" t="str">
-        <f>".Range(""A1"").Font.Color = RGB(0, 255, 0)"</f>
-        <v>.Range("A1").Font.Color = RGB(0, 255, 0)</v>
-      </c>
-      <c r="E305" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F305" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="306" spans="1:6" outlineLevel="1">
-      <c r="A306" s="2"/>
-      <c r="B306" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C306" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="D306" s="4" t="str">
-        <f>".Range(""A1"").Font.Bold = True"</f>
-        <v>.Range("A1").Font.Bold = True</v>
-      </c>
       <c r="E306" s="5" t="s">
         <v>123</v>
       </c>
@@ -9729,14 +9870,14 @@
     <row r="307" spans="1:6" outlineLevel="1">
       <c r="A307" s="2"/>
       <c r="B307" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C307" s="22" t="s">
         <v>402</v>
       </c>
       <c r="D307" s="4" t="str">
-        <f>".Range(""A1"").Font.Underline = True"</f>
-        <v>.Range("A1").Font.Underline = True</v>
+        <f>"文字列変数 = .Range(""A1"").Font.Name"</f>
+        <v>文字列変数 = .Range("A1").Font.Name</v>
       </c>
       <c r="E307" s="5" t="s">
         <v>123</v>
@@ -9748,14 +9889,14 @@
     <row r="308" spans="1:6" outlineLevel="1">
       <c r="A308" s="2"/>
       <c r="B308" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C308" s="22" t="s">
         <v>402</v>
       </c>
       <c r="D308" s="4" t="str">
-        <f>".Range(""A1"").Interior.Color = RGB(255, 255, 0)"</f>
-        <v>.Range("A1").Interior.Color = RGB(255, 255, 0)</v>
+        <f>".Range(""A1"").Font.Size = 14"</f>
+        <v>.Range("A1").Font.Size = 14</v>
       </c>
       <c r="E308" s="5" t="s">
         <v>123</v>
@@ -9767,14 +9908,14 @@
     <row r="309" spans="1:6" outlineLevel="1">
       <c r="A309" s="2"/>
       <c r="B309" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C309" s="22" t="s">
         <v>402</v>
       </c>
       <c r="D309" s="4" t="str">
-        <f>".Range(""A1:C3"").Borders.LineStyle = xlContinuous"</f>
-        <v>.Range("A1:C3").Borders.LineStyle = xlContinuous</v>
+        <f>".Range(""A1"").Font.Color = RGB(0, 255, 0)"</f>
+        <v>.Range("A1").Font.Color = RGB(0, 255, 0)</v>
       </c>
       <c r="E309" s="5" t="s">
         <v>123</v>
@@ -9786,14 +9927,14 @@
     <row r="310" spans="1:6" outlineLevel="1">
       <c r="A310" s="2"/>
       <c r="B310" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C310" s="22" t="s">
         <v>402</v>
       </c>
       <c r="D310" s="4" t="str">
-        <f>".Range(""A1:C3"").MergeCells = True"</f>
-        <v>.Range("A1:C3").MergeCells = True</v>
+        <f>".Range(""A1"").Font.Bold = True"</f>
+        <v>.Range("A1").Font.Bold = True</v>
       </c>
       <c r="E310" s="5" t="s">
         <v>123</v>
@@ -9805,17 +9946,17 @@
     <row r="311" spans="1:6" outlineLevel="1">
       <c r="A311" s="2"/>
       <c r="B311" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C311" s="22" t="s">
         <v>402</v>
       </c>
       <c r="D311" s="4" t="str">
-        <f>".Range(""A1:C3"").HorizontalAlignment = xlGeneral"</f>
-        <v>.Range("A1:C3").HorizontalAlignment = xlGeneral</v>
+        <f>".Range(""A1"").Font.Underline = True"</f>
+        <v>.Range("A1").Font.Underline = True</v>
       </c>
       <c r="E311" s="5" t="s">
-        <v>261</v>
+        <v>123</v>
       </c>
       <c r="F311" s="11" t="s">
         <v>123</v>
@@ -9824,17 +9965,17 @@
     <row r="312" spans="1:6" outlineLevel="1">
       <c r="A312" s="2"/>
       <c r="B312" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C312" s="22" t="s">
         <v>402</v>
       </c>
       <c r="D312" s="4" t="str">
-        <f>".Range(""A1:C3"").VerticalAlignment = xlCenter"</f>
-        <v>.Range("A1:C3").VerticalAlignment = xlCenter</v>
+        <f>".Range(""A1"").Interior.Color = RGB(255, 255, 0)"</f>
+        <v>.Range("A1").Interior.Color = RGB(255, 255, 0)</v>
       </c>
       <c r="E312" s="5" t="s">
-        <v>192</v>
+        <v>123</v>
       </c>
       <c r="F312" s="11" t="s">
         <v>123</v>
@@ -9843,14 +9984,14 @@
     <row r="313" spans="1:6" outlineLevel="1">
       <c r="A313" s="2"/>
       <c r="B313" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C313" s="22" t="s">
         <v>402</v>
       </c>
       <c r="D313" s="4" t="str">
-        <f>".Cells(.Rows.Count, 列).End(xlUp).Row"</f>
-        <v>.Cells(.Rows.Count, 列).End(xlUp).Row</v>
+        <f>".Range(""A1:C3"").Borders.LineStyle = xlContinuous"</f>
+        <v>.Range("A1:C3").Borders.LineStyle = xlContinuous</v>
       </c>
       <c r="E313" s="5" t="s">
         <v>123</v>
@@ -9862,14 +10003,14 @@
     <row r="314" spans="1:6" outlineLevel="1">
       <c r="A314" s="2"/>
       <c r="B314" s="2" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C314" s="22" t="s">
         <v>402</v>
       </c>
       <c r="D314" s="4" t="str">
-        <f>".Cells(行, .Columns.Count).End(xlToLeft).Column"</f>
-        <v>.Cells(行, .Columns.Count).End(xlToLeft).Column</v>
+        <f>".Range(""A1:C3"").MergeCells = True"</f>
+        <v>.Range("A1:C3").MergeCells = True</v>
       </c>
       <c r="E314" s="5" t="s">
         <v>123</v>
@@ -9881,17 +10022,17 @@
     <row r="315" spans="1:6" outlineLevel="1">
       <c r="A315" s="2"/>
       <c r="B315" s="2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C315" s="22" t="s">
         <v>402</v>
       </c>
       <c r="D315" s="4" t="str">
-        <f>".Sheets(シート名).UsedRange.Rows.Count + 1"</f>
-        <v>.Sheets(シート名).UsedRange.Rows.Count + 1</v>
+        <f>".Range(""A1:C3"").HorizontalAlignment = xlGeneral"</f>
+        <v>.Range("A1:C3").HorizontalAlignment = xlGeneral</v>
       </c>
       <c r="E315" s="5" t="s">
-        <v>123</v>
+        <v>261</v>
       </c>
       <c r="F315" s="11" t="s">
         <v>123</v>
@@ -9900,17 +10041,17 @@
     <row r="316" spans="1:6" outlineLevel="1">
       <c r="A316" s="2"/>
       <c r="B316" s="2" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C316" s="22" t="s">
         <v>402</v>
       </c>
       <c r="D316" s="4" t="str">
-        <f>".Sheets(シート名).UsedRange.Columns.Count + 1"</f>
-        <v>.Sheets(シート名).UsedRange.Columns.Count + 1</v>
+        <f>".Range(""A1:C3"").VerticalAlignment = xlCenter"</f>
+        <v>.Range("A1:C3").VerticalAlignment = xlCenter</v>
       </c>
       <c r="E316" s="5" t="s">
-        <v>123</v>
+        <v>192</v>
       </c>
       <c r="F316" s="11" t="s">
         <v>123</v>
@@ -9919,14 +10060,14 @@
     <row r="317" spans="1:6" outlineLevel="1">
       <c r="A317" s="2"/>
       <c r="B317" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C317" s="22" t="s">
         <v>402</v>
       </c>
       <c r="D317" s="4" t="str">
-        <f>"Selection(1).Row"</f>
-        <v>Selection(1).Row</v>
+        <f>".Cells(.Rows.Count, 列).End(xlUp).Row"</f>
+        <v>.Cells(.Rows.Count, 列).End(xlUp).Row</v>
       </c>
       <c r="E317" s="5" t="s">
         <v>123</v>
@@ -9938,14 +10079,14 @@
     <row r="318" spans="1:6" outlineLevel="1">
       <c r="A318" s="2"/>
       <c r="B318" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C318" s="22" t="s">
         <v>402</v>
       </c>
       <c r="D318" s="4" t="str">
-        <f>"Selection(Selection.Count).Row"</f>
-        <v>Selection(Selection.Count).Row</v>
+        <f>".Cells(行, .Columns.Count).End(xlToLeft).Column"</f>
+        <v>.Cells(行, .Columns.Count).End(xlToLeft).Column</v>
       </c>
       <c r="E318" s="5" t="s">
         <v>123</v>
@@ -9957,14 +10098,14 @@
     <row r="319" spans="1:6" outlineLevel="1">
       <c r="A319" s="2"/>
       <c r="B319" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C319" s="22" t="s">
         <v>402</v>
       </c>
       <c r="D319" s="4" t="str">
-        <f>"Selection(1).Column"</f>
-        <v>Selection(1).Column</v>
+        <f>".Sheets(シート名).UsedRange.Rows.Count + 1"</f>
+        <v>.Sheets(シート名).UsedRange.Rows.Count + 1</v>
       </c>
       <c r="E319" s="5" t="s">
         <v>123</v>
@@ -9976,14 +10117,14 @@
     <row r="320" spans="1:6" outlineLevel="1">
       <c r="A320" s="2"/>
       <c r="B320" s="2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C320" s="22" t="s">
         <v>402</v>
       </c>
       <c r="D320" s="4" t="str">
-        <f>"Selection(Selection.Count).Column"</f>
-        <v>Selection(Selection.Count).Column</v>
+        <f>".Sheets(シート名).UsedRange.Columns.Count + 1"</f>
+        <v>.Sheets(シート名).UsedRange.Columns.Count + 1</v>
       </c>
       <c r="E320" s="5" t="s">
         <v>123</v>
@@ -9995,16 +10136,17 @@
     <row r="321" spans="1:6" outlineLevel="1">
       <c r="A321" s="2"/>
       <c r="B321" s="2" t="s">
-        <v>328</v>
+        <v>197</v>
       </c>
       <c r="C321" s="22" t="s">
         <v>402</v>
       </c>
-      <c r="D321" s="4" t="s">
-        <v>326</v>
+      <c r="D321" s="4" t="str">
+        <f>"Selection(1).Row"</f>
+        <v>Selection(1).Row</v>
       </c>
       <c r="E321" s="5" t="s">
-        <v>334</v>
+        <v>123</v>
       </c>
       <c r="F321" s="11" t="s">
         <v>123</v>
@@ -10013,16 +10155,17 @@
     <row r="322" spans="1:6" outlineLevel="1">
       <c r="A322" s="2"/>
       <c r="B322" s="2" t="s">
-        <v>329</v>
+        <v>198</v>
       </c>
       <c r="C322" s="22" t="s">
         <v>402</v>
       </c>
-      <c r="D322" s="4" t="s">
-        <v>327</v>
+      <c r="D322" s="4" t="str">
+        <f>"Selection(Selection.Count).Row"</f>
+        <v>Selection(Selection.Count).Row</v>
       </c>
       <c r="E322" s="5" t="s">
-        <v>332</v>
+        <v>123</v>
       </c>
       <c r="F322" s="11" t="s">
         <v>123</v>
@@ -10031,16 +10174,17 @@
     <row r="323" spans="1:6" outlineLevel="1">
       <c r="A323" s="2"/>
       <c r="B323" s="2" t="s">
-        <v>330</v>
+        <v>199</v>
       </c>
       <c r="C323" s="22" t="s">
         <v>402</v>
       </c>
-      <c r="D323" s="4" t="s">
-        <v>331</v>
+      <c r="D323" s="4" t="str">
+        <f>"Selection(1).Column"</f>
+        <v>Selection(1).Column</v>
       </c>
       <c r="E323" s="5" t="s">
-        <v>333</v>
+        <v>123</v>
       </c>
       <c r="F323" s="11" t="s">
         <v>123</v>
@@ -10049,14 +10193,14 @@
     <row r="324" spans="1:6" outlineLevel="1">
       <c r="A324" s="2"/>
       <c r="B324" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C324" s="22" t="s">
         <v>402</v>
       </c>
       <c r="D324" s="4" t="str">
-        <f>".Range(.Cells(1, 1), .Cells(6, 3))"</f>
-        <v>.Range(.Cells(1, 1), .Cells(6, 3))</v>
+        <f>"Selection(Selection.Count).Column"</f>
+        <v>Selection(Selection.Count).Column</v>
       </c>
       <c r="E324" s="5" t="s">
         <v>123</v>
@@ -10068,17 +10212,16 @@
     <row r="325" spans="1:6" outlineLevel="1">
       <c r="A325" s="2"/>
       <c r="B325" s="2" t="s">
-        <v>202</v>
+        <v>328</v>
       </c>
       <c r="C325" s="22" t="s">
         <v>402</v>
       </c>
-      <c r="D325" s="4" t="str">
-        <f>".Range(""A1:B9"").Copy Destination:=ThisWorkBook.Sheets(シート名２).Range(""B1"")"</f>
-        <v>.Range("A1:B9").Copy Destination:=ThisWorkBook.Sheets(シート名２).Range("B1")</v>
+      <c r="D325" s="4" t="s">
+        <v>326</v>
       </c>
       <c r="E325" s="5" t="s">
-        <v>123</v>
+        <v>334</v>
       </c>
       <c r="F325" s="11" t="s">
         <v>123</v>
@@ -10087,17 +10230,16 @@
     <row r="326" spans="1:6" outlineLevel="1">
       <c r="A326" s="2"/>
       <c r="B326" s="2" t="s">
-        <v>203</v>
+        <v>329</v>
       </c>
       <c r="C326" s="22" t="s">
         <v>402</v>
       </c>
-      <c r="D326" s="4" t="str">
-        <f>".Range(.Cells(1, 1), .Cells(.Rows.Count, 2)).Sort Key1:=.Cells(1, 2) ,order1:=xlAscending"</f>
-        <v>.Range(.Cells(1, 1), .Cells(.Rows.Count, 2)).Sort Key1:=.Cells(1, 2) ,order1:=xlAscending</v>
+      <c r="D326" s="4" t="s">
+        <v>327</v>
       </c>
       <c r="E326" s="5" t="s">
-        <v>123</v>
+        <v>332</v>
       </c>
       <c r="F326" s="11" t="s">
         <v>123</v>
@@ -10106,17 +10248,16 @@
     <row r="327" spans="1:6" outlineLevel="1">
       <c r="A327" s="2"/>
       <c r="B327" s="2" t="s">
-        <v>204</v>
+        <v>330</v>
       </c>
       <c r="C327" s="22" t="s">
         <v>402</v>
       </c>
-      <c r="D327" s="4" t="str">
-        <f>".Range(""A1:A2"").ClearContents"</f>
-        <v>.Range("A1:A2").ClearContents</v>
+      <c r="D327" s="4" t="s">
+        <v>331</v>
       </c>
       <c r="E327" s="5" t="s">
-        <v>123</v>
+        <v>333</v>
       </c>
       <c r="F327" s="11" t="s">
         <v>123</v>
@@ -10125,14 +10266,14 @@
     <row r="328" spans="1:6" outlineLevel="1">
       <c r="A328" s="2"/>
       <c r="B328" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C328" s="22" t="s">
         <v>402</v>
       </c>
       <c r="D328" s="4" t="str">
-        <f>".Range(""A1:A2"").ClearFormats"</f>
-        <v>.Range("A1:A2").ClearFormats</v>
+        <f>".Range(.Cells(1, 1), .Cells(6, 3))"</f>
+        <v>.Range(.Cells(1, 1), .Cells(6, 3))</v>
       </c>
       <c r="E328" s="5" t="s">
         <v>123</v>
@@ -10144,17 +10285,17 @@
     <row r="329" spans="1:6" outlineLevel="1">
       <c r="A329" s="2"/>
       <c r="B329" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C329" s="22" t="s">
         <v>402</v>
       </c>
       <c r="D329" s="4" t="str">
-        <f>".Range(""A1:A2"").PasteSpecial (xlPasteFormats)"</f>
-        <v>.Range("A1:A2").PasteSpecial (xlPasteFormats)</v>
+        <f>".Range(""A1:B9"").Copy Destination:=ThisWorkBook.Sheets(シート名２).Range(""B1"")"</f>
+        <v>.Range("A1:B9").Copy Destination:=ThisWorkBook.Sheets(シート名２).Range("B1")</v>
       </c>
       <c r="E329" s="5" t="s">
-        <v>192</v>
+        <v>123</v>
       </c>
       <c r="F329" s="11" t="s">
         <v>123</v>
@@ -10163,14 +10304,14 @@
     <row r="330" spans="1:6" outlineLevel="1">
       <c r="A330" s="2"/>
       <c r="B330" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C330" s="22" t="s">
         <v>402</v>
       </c>
       <c r="D330" s="4" t="str">
-        <f>".Range(""A1:CV100"").SpecialCells(xlCellTypeBlanks).Select"</f>
-        <v>.Range("A1:CV100").SpecialCells(xlCellTypeBlanks).Select</v>
+        <f>".Range(.Cells(1, 1), .Cells(.Rows.Count, 2)).Sort Key1:=.Cells(1, 2) ,order1:=xlAscending"</f>
+        <v>.Range(.Cells(1, 1), .Cells(.Rows.Count, 2)).Sort Key1:=.Cells(1, 2) ,order1:=xlAscending</v>
       </c>
       <c r="E330" s="5" t="s">
         <v>123</v>
@@ -10182,17 +10323,17 @@
     <row r="331" spans="1:6" outlineLevel="1">
       <c r="A331" s="2"/>
       <c r="B331" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C331" s="22" t="s">
         <v>402</v>
       </c>
       <c r="D331" s="4" t="str">
-        <f>".Range(""A1"").ColumnWidth = 5"</f>
-        <v>.Range("A1").ColumnWidth = 5</v>
+        <f>".Range(""A1:A2"").ClearContents"</f>
+        <v>.Range("A1:A2").ClearContents</v>
       </c>
       <c r="E331" s="5" t="s">
-        <v>307</v>
+        <v>123</v>
       </c>
       <c r="F331" s="11" t="s">
         <v>123</v>
@@ -10201,17 +10342,17 @@
     <row r="332" spans="1:6" outlineLevel="1">
       <c r="A332" s="2"/>
       <c r="B332" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C332" s="22" t="s">
         <v>402</v>
       </c>
       <c r="D332" s="4" t="str">
-        <f>".Range(.Cells(4, 2), .Cells(9, 2)).Columns.AutoFit"</f>
-        <v>.Range(.Cells(4, 2), .Cells(9, 2)).Columns.AutoFit</v>
+        <f>".Range(""A1:A2"").ClearFormats"</f>
+        <v>.Range("A1:A2").ClearFormats</v>
       </c>
       <c r="E332" s="5" t="s">
-        <v>308</v>
+        <v>123</v>
       </c>
       <c r="F332" s="11" t="s">
         <v>123</v>
@@ -10220,17 +10361,17 @@
     <row r="333" spans="1:6" outlineLevel="1">
       <c r="A333" s="2"/>
       <c r="B333" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C333" s="22" t="s">
         <v>402</v>
       </c>
       <c r="D333" s="4" t="str">
-        <f>".Sheets(シート名).UsedRange.Columns.AutoFit"</f>
-        <v>.Sheets(シート名).UsedRange.Columns.AutoFit</v>
+        <f>".Range(""A1:A2"").PasteSpecial (xlPasteFormats)"</f>
+        <v>.Range("A1:A2").PasteSpecial (xlPasteFormats)</v>
       </c>
       <c r="E333" s="5" t="s">
-        <v>308</v>
+        <v>192</v>
       </c>
       <c r="F333" s="11" t="s">
         <v>123</v>
@@ -10239,14 +10380,14 @@
     <row r="334" spans="1:6" outlineLevel="1">
       <c r="A334" s="2"/>
       <c r="B334" s="2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C334" s="22" t="s">
         <v>402</v>
       </c>
       <c r="D334" s="4" t="str">
-        <f>"Application.CutCopyMode = False"</f>
-        <v>Application.CutCopyMode = False</v>
+        <f>".Range(""A1:CV100"").SpecialCells(xlCellTypeBlanks).Select"</f>
+        <v>.Range("A1:CV100").SpecialCells(xlCellTypeBlanks).Select</v>
       </c>
       <c r="E334" s="5" t="s">
         <v>123</v>
@@ -10258,17 +10399,17 @@
     <row r="335" spans="1:6" outlineLevel="1">
       <c r="A335" s="2"/>
       <c r="B335" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C335" s="22" t="s">
         <v>402</v>
       </c>
       <c r="D335" s="4" t="str">
-        <f>".Range( .Rows( lStrtRow ), .Rows( lLastRow ) ).Group"</f>
-        <v>.Range( .Rows( lStrtRow ), .Rows( lLastRow ) ).Group</v>
+        <f>".Range(""A1"").ColumnWidth = 5"</f>
+        <v>.Range("A1").ColumnWidth = 5</v>
       </c>
       <c r="E335" s="5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F335" s="11" t="s">
         <v>123</v>
@@ -10277,17 +10418,17 @@
     <row r="336" spans="1:6" outlineLevel="1">
       <c r="A336" s="2"/>
       <c r="B336" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C336" s="22" t="s">
         <v>402</v>
       </c>
       <c r="D336" s="4" t="str">
-        <f>".Range( .Columns( lStrtRow ), .Columns( lLastRow ) ).Group"</f>
-        <v>.Range( .Columns( lStrtRow ), .Columns( lLastRow ) ).Group</v>
+        <f>".Range(.Cells(4, 2), .Cells(9, 2)).Columns.AutoFit"</f>
+        <v>.Range(.Cells(4, 2), .Cells(9, 2)).Columns.AutoFit</v>
       </c>
       <c r="E336" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F336" s="11" t="s">
         <v>123</v>
@@ -10296,17 +10437,17 @@
     <row r="337" spans="1:6" outlineLevel="1">
       <c r="A337" s="2"/>
       <c r="B337" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C337" s="22" t="s">
         <v>402</v>
       </c>
       <c r="D337" s="4" t="str">
-        <f>".Sheets(シート名).Outline.SummaryRow = ( xlBelow \| xlAbove )"</f>
-        <v>.Sheets(シート名).Outline.SummaryRow = ( xlBelow \| xlAbove )</v>
+        <f>".Sheets(シート名).UsedRange.Columns.AutoFit"</f>
+        <v>.Sheets(シート名).UsedRange.Columns.AutoFit</v>
       </c>
       <c r="E337" s="5" t="s">
-        <v>123</v>
+        <v>308</v>
       </c>
       <c r="F337" s="11" t="s">
         <v>123</v>
@@ -10315,14 +10456,14 @@
     <row r="338" spans="1:6" outlineLevel="1">
       <c r="A338" s="2"/>
       <c r="B338" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C338" s="22" t="s">
         <v>402</v>
       </c>
       <c r="D338" s="4" t="str">
-        <f>".Sheets(シート名).Outline.SummaryColumn = ( xlRight \| xlLeft )"</f>
-        <v>.Sheets(シート名).Outline.SummaryColumn = ( xlRight \| xlLeft )</v>
+        <f>"Application.CutCopyMode = False"</f>
+        <v>Application.CutCopyMode = False</v>
       </c>
       <c r="E338" s="5" t="s">
         <v>123</v>
@@ -10334,17 +10475,17 @@
     <row r="339" spans="1:6" outlineLevel="1">
       <c r="A339" s="2"/>
       <c r="B339" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C339" s="22" t="s">
         <v>402</v>
       </c>
       <c r="D339" s="4" t="str">
-        <f>".Sheets(シート名).Outline.AutomaticStyles = ( True \| False )"</f>
-        <v>.Sheets(シート名).Outline.AutomaticStyles = ( True \| False )</v>
+        <f>".Range( .Rows( lStrtRow ), .Rows( lLastRow ) ).Group"</f>
+        <v>.Range( .Rows( lStrtRow ), .Rows( lLastRow ) ).Group</v>
       </c>
       <c r="E339" s="5" t="s">
-        <v>123</v>
+        <v>309</v>
       </c>
       <c r="F339" s="11" t="s">
         <v>123</v>
@@ -10353,17 +10494,17 @@
     <row r="340" spans="1:6" outlineLevel="1">
       <c r="A340" s="2"/>
       <c r="B340" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C340" s="22" t="s">
         <v>402</v>
       </c>
       <c r="D340" s="4" t="str">
-        <f>".Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).AutoFilter"</f>
-        <v>.Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).AutoFilter</v>
+        <f>".Range( .Columns( lStrtRow ), .Columns( lLastRow ) ).Group"</f>
+        <v>.Range( .Columns( lStrtRow ), .Columns( lLastRow ) ).Group</v>
       </c>
       <c r="E340" s="5" t="s">
-        <v>123</v>
+        <v>309</v>
       </c>
       <c r="F340" s="11" t="s">
         <v>123</v>
@@ -10372,134 +10513,134 @@
     <row r="341" spans="1:6" outlineLevel="1">
       <c r="A341" s="2"/>
       <c r="B341" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C341" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="D341" s="4" t="str">
+        <f>".Sheets(シート名).Outline.SummaryRow = ( xlBelow \| xlAbove )"</f>
+        <v>.Sheets(シート名).Outline.SummaryRow = ( xlBelow \| xlAbove )</v>
+      </c>
+      <c r="E341" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F341" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" outlineLevel="1">
+      <c r="A342" s="2"/>
+      <c r="B342" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C342" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="D342" s="4" t="str">
+        <f>".Sheets(シート名).Outline.SummaryColumn = ( xlRight \| xlLeft )"</f>
+        <v>.Sheets(シート名).Outline.SummaryColumn = ( xlRight \| xlLeft )</v>
+      </c>
+      <c r="E342" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F342" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" outlineLevel="1">
+      <c r="A343" s="2"/>
+      <c r="B343" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C343" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="D343" s="4" t="str">
+        <f>".Sheets(シート名).Outline.AutomaticStyles = ( True \| False )"</f>
+        <v>.Sheets(シート名).Outline.AutomaticStyles = ( True \| False )</v>
+      </c>
+      <c r="E343" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F343" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" outlineLevel="1">
+      <c r="A344" s="2"/>
+      <c r="B344" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C344" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="D344" s="4" t="str">
+        <f>".Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).AutoFilter"</f>
+        <v>.Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).AutoFilter</v>
+      </c>
+      <c r="E344" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F344" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" outlineLevel="1">
+      <c r="A345" s="2"/>
+      <c r="B345" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C341" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="D341" s="4" t="str">
+      <c r="C345" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="D345" s="4" t="str">
         <f>".Rows(行).Select"&amp;CHAR(10)&amp;"ActiveWindow.FreezePanes = True"</f>
         <v>.Rows(行).Select
 ActiveWindow.FreezePanes = True</v>
       </c>
-      <c r="E341" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F341" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="342" spans="1:6" outlineLevel="1">
-      <c r="A342" s="2"/>
-      <c r="B342" s="2" t="s">
+      <c r="E345" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F345" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" outlineLevel="1">
+      <c r="A346" s="2"/>
+      <c r="B346" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C342" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="D342" s="4" t="str">
+      <c r="C346" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="D346" s="4" t="str">
         <f>".Columns(列).Select"&amp;CHAR(10)&amp;"ActiveWindow.FreezePanes = True"</f>
         <v>.Columns(列).Select
 ActiveWindow.FreezePanes = True</v>
       </c>
-      <c r="E342" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F342" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="343" spans="1:6" outlineLevel="1">
-      <c r="A343" s="2"/>
-      <c r="B343" s="2" t="s">
+      <c r="E346" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F346" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" outlineLevel="1">
+      <c r="A347" s="2"/>
+      <c r="B347" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C343" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="D343" s="4" t="str">
+      <c r="C347" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="D347" s="4" t="str">
         <f>".Cells(行,列).Select"&amp;CHAR(10)&amp;"ActiveWindow.FreezePanes = True"</f>
         <v>.Cells(行,列).Select
 ActiveWindow.FreezePanes = True</v>
       </c>
-      <c r="E343" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F343" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="344" spans="1:6" outlineLevel="1">
-      <c r="A344" s="2"/>
-      <c r="B344" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C344" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="D344" s="4" t="str">
-        <f>"ActiveWindow.FreezePanes = False"</f>
-        <v>ActiveWindow.FreezePanes = False</v>
-      </c>
-      <c r="E344" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F344" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="345" spans="1:6" outlineLevel="1">
-      <c r="A345" s="2"/>
-      <c r="B345" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="C345" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="D345" s="4" t="str">
-        <f>"Application.WorksheetFunction.VLookup(.Range(""C1""), .Range(""A1:B7""), 2, False)"</f>
-        <v>Application.WorksheetFunction.VLookup(.Range("C1"), .Range("A1:B7"), 2, False)</v>
-      </c>
-      <c r="E345" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F345" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="346" spans="1:6" outlineLevel="1">
-      <c r="A346" s="2"/>
-      <c r="B346" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C346" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="D346" s="4" t="str">
-        <f>"CreateObject(""WScript.Network"").UserName"</f>
-        <v>CreateObject("WScript.Network").UserName</v>
-      </c>
-      <c r="E346" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F346" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="347" spans="1:6" outlineLevel="1">
-      <c r="A347" s="2"/>
-      <c r="B347" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="C347" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="D347" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="E347" s="6" t="str">
-        <f>HYPERLINK("https://msdn.microsoft.com/ja-jp/library/office/ff197461.aspx","sShtcutKey＝Shift:+,Ctrl:^,Alt:%,...")</f>
-        <v>sShtcutKey＝Shift:+,Ctrl:^,Alt:%,...</v>
+      <c r="E347" s="5" t="s">
+        <v>123</v>
       </c>
       <c r="F347" s="11" t="s">
         <v>123</v>
@@ -10508,15 +10649,18 @@
     <row r="348" spans="1:6" outlineLevel="1">
       <c r="A348" s="2"/>
       <c r="B348" s="2" t="s">
-        <v>674</v>
+        <v>219</v>
       </c>
       <c r="C348" s="22" t="s">
         <v>402</v>
       </c>
-      <c r="D348" s="4" t="s">
-        <v>672</v>
-      </c>
-      <c r="E348" s="5"/>
+      <c r="D348" s="4" t="str">
+        <f>"ActiveWindow.FreezePanes = False"</f>
+        <v>ActiveWindow.FreezePanes = False</v>
+      </c>
+      <c r="E348" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="F348" s="11" t="s">
         <v>123</v>
       </c>
@@ -10524,28 +10668,36 @@
     <row r="349" spans="1:6" outlineLevel="1">
       <c r="A349" s="2"/>
       <c r="B349" s="2" t="s">
-        <v>673</v>
+        <v>249</v>
       </c>
       <c r="C349" s="22" t="s">
         <v>402</v>
       </c>
-      <c r="D349" s="4" t="s">
-        <v>675</v>
-      </c>
-      <c r="E349" s="5"/>
+      <c r="D349" s="4" t="str">
+        <f>"Application.WorksheetFunction.VLookup(.Range(""C1""), .Range(""A1:B7""), 2, False)"</f>
+        <v>Application.WorksheetFunction.VLookup(.Range("C1"), .Range("A1:B7"), 2, False)</v>
+      </c>
+      <c r="E349" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="F349" s="11" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="350" spans="1:6">
-      <c r="A350" s="20" t="s">
-        <v>470</v>
-      </c>
-      <c r="B350" s="8"/>
-      <c r="C350" s="8"/>
-      <c r="D350" s="8"/>
-      <c r="E350" s="8" t="s">
-        <v>123</v>
+    <row r="350" spans="1:6" outlineLevel="1">
+      <c r="A350" s="2"/>
+      <c r="B350" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C350" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="D350" s="4" t="str">
+        <f>"CreateObject(""WScript.Network"").UserName"</f>
+        <v>CreateObject("WScript.Network").UserName</v>
+      </c>
+      <c r="E350" s="5" t="s">
+        <v>129</v>
       </c>
       <c r="F350" s="11" t="s">
         <v>123</v>
@@ -10554,12 +10706,77 @@
     <row r="351" spans="1:6" outlineLevel="1">
       <c r="A351" s="2"/>
       <c r="B351" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C351" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="D351" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="E351" s="6" t="str">
+        <f>HYPERLINK("https://msdn.microsoft.com/ja-jp/library/office/ff197461.aspx","sShtcutKey＝Shift:+,Ctrl:^,Alt:%,...")</f>
+        <v>sShtcutKey＝Shift:+,Ctrl:^,Alt:%,...</v>
+      </c>
+      <c r="F351" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" outlineLevel="1">
+      <c r="A352" s="2"/>
+      <c r="B352" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="C352" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="D352" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="E352" s="5"/>
+      <c r="F352" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" outlineLevel="1">
+      <c r="A353" s="2"/>
+      <c r="B353" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="C353" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="D353" s="4" t="s">
+        <v>675</v>
+      </c>
+      <c r="E353" s="5"/>
+      <c r="F353" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6">
+      <c r="A354" s="20" t="s">
+        <v>470</v>
+      </c>
+      <c r="B354" s="8"/>
+      <c r="C354" s="8"/>
+      <c r="D354" s="8"/>
+      <c r="E354" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F354" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" outlineLevel="1">
+      <c r="A355" s="2"/>
+      <c r="B355" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="C351" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="D351" s="2" t="str">
+      <c r="C355" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="D355" s="2" t="str">
         <f>"Dim bIsSheetExist As Boolean
 bIsSheetExist = False
 For Each wSheet In ThisWorkbook.Worksheets
@@ -10579,19 +10796,19 @@
     End If
 Next wSheet</v>
       </c>
-      <c r="E351" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="352" spans="1:6" outlineLevel="1">
-      <c r="A352" s="2"/>
-      <c r="B352" s="2" t="s">
+      <c r="E355" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" outlineLevel="1">
+      <c r="A356" s="2"/>
+      <c r="B356" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="C352" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="D352" s="2" t="str">
+      <c r="C356" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="D356" s="2" t="str">
         <f>"Dim rFindResult As Range
 Dim sFindKeyword As String
 Dim shTrgtSht As Worksheet
@@ -10605,19 +10822,19 @@
 sFindKeyword = "test"
 Set rFindResult = shTrgtSht.Cells.Find(sFindKeyword, LookAt:=xlWhole)</v>
       </c>
-      <c r="E352" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="353" spans="1:5" outlineLevel="1">
-      <c r="A353" s="2"/>
-      <c r="B353" s="2" t="s">
+      <c r="E356" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" outlineLevel="1">
+      <c r="A357" s="2"/>
+      <c r="B357" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="C353" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="D353" s="2" t="str">
+      <c r="C357" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="D357" s="2" t="str">
         <f>"If rFindResult Is Nothing Then
     MsgBox _
         ""セルが見つからなかったため、処理を中断します。"" &amp; vbNewLine &amp; _
@@ -10635,47 +10852,11 @@
     End
 End If</v>
       </c>
-      <c r="E353" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="354" spans="1:5" outlineLevel="1">
-      <c r="A354" s="2"/>
-      <c r="B354" s="2"/>
-      <c r="C354" s="10"/>
-      <c r="D354" s="10"/>
-      <c r="E354" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="355" spans="1:5" outlineLevel="1">
-      <c r="A355" s="2"/>
-      <c r="B355" s="2"/>
-      <c r="C355" s="10"/>
-      <c r="D355" s="10"/>
-      <c r="E355" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="356" spans="1:5" outlineLevel="1">
-      <c r="A356" s="2"/>
-      <c r="B356" s="2"/>
-      <c r="C356" s="10"/>
-      <c r="D356" s="10"/>
-      <c r="E356" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="357" spans="1:5" outlineLevel="1">
-      <c r="A357" s="2"/>
-      <c r="B357" s="2"/>
-      <c r="C357" s="10"/>
-      <c r="D357" s="10"/>
       <c r="E357" s="5" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="358" spans="1:5" outlineLevel="1">
+    <row r="358" spans="1:6" outlineLevel="1">
       <c r="A358" s="2"/>
       <c r="B358" s="2"/>
       <c r="C358" s="10"/>
@@ -10684,7 +10865,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="359" spans="1:5" outlineLevel="1">
+    <row r="359" spans="1:6" outlineLevel="1">
       <c r="A359" s="2"/>
       <c r="B359" s="2"/>
       <c r="C359" s="10"/>
@@ -10693,7 +10874,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="360" spans="1:5" outlineLevel="1">
+    <row r="360" spans="1:6" outlineLevel="1">
       <c r="A360" s="2"/>
       <c r="B360" s="2"/>
       <c r="C360" s="10"/>
@@ -10702,7 +10883,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="361" spans="1:5" outlineLevel="1">
+    <row r="361" spans="1:6" outlineLevel="1">
       <c r="A361" s="2"/>
       <c r="B361" s="2"/>
       <c r="C361" s="10"/>
@@ -10711,7 +10892,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="362" spans="1:5" outlineLevel="1">
+    <row r="362" spans="1:6" outlineLevel="1">
       <c r="A362" s="2"/>
       <c r="B362" s="2"/>
       <c r="C362" s="10"/>
@@ -10720,7 +10901,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="363" spans="1:5" outlineLevel="1">
+    <row r="363" spans="1:6" outlineLevel="1">
       <c r="A363" s="2"/>
       <c r="B363" s="2"/>
       <c r="C363" s="10"/>
@@ -10729,7 +10910,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="364" spans="1:5" outlineLevel="1">
+    <row r="364" spans="1:6" outlineLevel="1">
       <c r="A364" s="2"/>
       <c r="B364" s="2"/>
       <c r="C364" s="10"/>
@@ -10738,7 +10919,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="365" spans="1:5" outlineLevel="1">
+    <row r="365" spans="1:6" outlineLevel="1">
       <c r="A365" s="2"/>
       <c r="B365" s="2"/>
       <c r="C365" s="10"/>
@@ -10747,7 +10928,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="366" spans="1:5" outlineLevel="1">
+    <row r="366" spans="1:6" outlineLevel="1">
       <c r="A366" s="2"/>
       <c r="B366" s="2"/>
       <c r="C366" s="10"/>
@@ -10756,20 +10937,56 @@
         <v>123</v>
       </c>
     </row>
-    <row r="368" spans="1:5">
-      <c r="A368" s="7" t="s">
+    <row r="367" spans="1:6" outlineLevel="1">
+      <c r="A367" s="2"/>
+      <c r="B367" s="2"/>
+      <c r="C367" s="10"/>
+      <c r="D367" s="10"/>
+      <c r="E367" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" outlineLevel="1">
+      <c r="A368" s="2"/>
+      <c r="B368" s="2"/>
+      <c r="C368" s="10"/>
+      <c r="D368" s="10"/>
+      <c r="E368" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" outlineLevel="1">
+      <c r="A369" s="2"/>
+      <c r="B369" s="2"/>
+      <c r="C369" s="10"/>
+      <c r="D369" s="10"/>
+      <c r="E369" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" outlineLevel="1">
+      <c r="A370" s="2"/>
+      <c r="B370" s="2"/>
+      <c r="C370" s="10"/>
+      <c r="D370" s="10"/>
+      <c r="E370" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5">
+      <c r="A372" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="B368" s="1" t="s">
+      <c r="B372" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="C368" s="1" t="s">
+      <c r="C372" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="D368" s="1" t="s">
+      <c r="D372" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="E368" s="1" t="s">
+      <c r="E372" s="1" t="s">
         <v>423</v>
       </c>
     </row>
@@ -10779,8 +10996,8 @@
   <hyperlinks>
     <hyperlink ref="E30" r:id="rId1" display="32 (※)値の意味は [【ファイル・フォルダ情報取得】](https://github.com/draemonash2/codes/blob/master/vbs/lib/FileSystem.vbs) 参照" xr:uid="{51FF9B99-DDF0-482F-A859-99967CEF1640}"/>
     <hyperlink ref="E66" r:id="rId2" xr:uid="{1379D4F3-77ED-4F19-AE19-501879C3D708}"/>
-    <hyperlink ref="E156" r:id="rId3" xr:uid="{E05C5702-9A7D-43B3-950C-6EA66C521D18}"/>
-    <hyperlink ref="E180" r:id="rId4" display="32 (※)値の意味は [【ファイル・フォルダ情報取得】](https://github.com/draemonash2/codes/blob/master/vbs/lib/FileSystem.vbs) 参照" xr:uid="{647131FE-1804-4878-A961-C3C030D11B35}"/>
+    <hyperlink ref="E160" r:id="rId3" xr:uid="{E05C5702-9A7D-43B3-950C-6EA66C521D18}"/>
+    <hyperlink ref="E184" r:id="rId4" display="32 (※)値の意味は [【ファイル・フォルダ情報取得】](https://github.com/draemonash2/codes/blob/master/vbs/lib/FileSystem.vbs) 参照" xr:uid="{647131FE-1804-4878-A961-C3C030D11B35}"/>
     <hyperlink ref="E40" r:id="rId5" xr:uid="{82623296-AC5C-495D-B069-8D9557A73B3A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/言語チートシート.xlsx
+++ b/言語チートシート.xlsx
@@ -9,9 +9,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A2C9811-0871-430C-9F85-8907186AEE72}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F674D7-96E9-4B49-A9CF-8DD6DE4853BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="26700" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26460" windowHeight="16200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vbs,vba" sheetId="43" r:id="rId1"/>
@@ -138,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="723">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1552" uniqueCount="725">
   <si>
     <t>変数強制定義</t>
   </si>
@@ -2665,23 +2665,11 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>ex. FOR %%I IN (\*.bat) DO TYPE %%I</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ex. FOR /D C:\ %%I IN (\*.txt) DO TYPE %%I</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>for(フォルダ配下の中身全部)</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>FOR /R (ファイルパス) %%アルファベット１文字 IN (ループ処理の対象) DO コマンド</t>
-  </si>
-  <si>
-    <t>ex. FOR /R C:\ %%I IN (\*.txt) DO TYPE %%I</t>
-    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>for(変数に値を代入してコマンドを実行)</t>
@@ -3099,6 +3087,32 @@
   </si>
   <si>
     <t>FormatCurrency(★)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>先頭行取得</t>
+    <rPh sb="0" eb="2">
+      <t>セントウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>先頭列取得</t>
+    <rPh sb="0" eb="2">
+      <t>セントウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ex. FOR %%I IN (*.bat) DO TYPE %%I</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ex. FOR /D C:\ %%I IN (*.txt) DO TYPE %%I</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ex. FOR /R C:\ %%I IN (*.txt) DO TYPE %%I</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -3796,13 +3810,13 @@
   <sheetPr codeName="Sheet1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F372"/>
+  <dimension ref="A1:F374"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C61" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C294" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C96" sqref="C96"/>
+      <selection pane="bottomRight" activeCell="D317" sqref="D317"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -5730,16 +5744,16 @@
     <row r="93" spans="1:6" outlineLevel="1">
       <c r="A93" s="2"/>
       <c r="B93" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>706</v>
+      </c>
+      <c r="D93" s="4" t="s">
         <v>711</v>
       </c>
-      <c r="C93" s="10" t="s">
-        <v>709</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>714</v>
-      </c>
       <c r="E93" s="5" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="F93" s="11" t="s">
         <v>123</v>
@@ -5748,16 +5762,16 @@
     <row r="94" spans="1:6" outlineLevel="1">
       <c r="A94" s="2"/>
       <c r="B94" s="2" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="F94" s="11" t="s">
         <v>123</v>
@@ -5766,16 +5780,16 @@
     <row r="95" spans="1:6" outlineLevel="1">
       <c r="A95" s="2"/>
       <c r="B95" s="2" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="D95" s="34" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="F95" s="11" t="s">
         <v>123</v>
@@ -5784,13 +5798,13 @@
     <row r="96" spans="1:6" outlineLevel="1">
       <c r="A96" s="2"/>
       <c r="B96" s="2" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="D96" s="33" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="E96" s="5"/>
       <c r="F96" s="11" t="s">
@@ -5945,7 +5959,7 @@
     <row r="105" spans="1:6" outlineLevel="1">
       <c r="A105" s="2"/>
       <c r="B105" s="2" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="C105" s="4" t="str">
         <f>"Dim objTxtFile"</f>
@@ -5964,7 +5978,7 @@
     <row r="106" spans="1:6" outlineLevel="1">
       <c r="A106" s="2"/>
       <c r="B106" s="2" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C106" s="4" t="str">
         <f>"Set objTxtFile = objFSO.OpenTextFile(""c:\codes\test\a.txt"", 1, True)"</f>
@@ -5983,7 +5997,7 @@
     <row r="107" spans="1:6" outlineLevel="1">
       <c r="A107" s="2"/>
       <c r="B107" s="2" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="C107" s="4" t="str">
         <f>"objTxtFile.Close"</f>
@@ -6000,7 +6014,7 @@
     <row r="108" spans="1:6" outlineLevel="1">
       <c r="A108" s="2"/>
       <c r="B108" s="2" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="C108" s="4" t="str">
         <f>"Do Until objTxtFile.AtEndOfStream"&amp;CHAR(10)&amp;"strLine = objTxtFile.ReadLine"&amp;CHAR(10)&amp;"Loop"</f>
@@ -6024,7 +6038,7 @@
     <row r="109" spans="1:6" outlineLevel="1">
       <c r="A109" s="2"/>
       <c r="B109" s="2" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="C109" s="4" t="str">
         <f>"sTextAll = objTxtFile.ReadAll"</f>
@@ -6044,7 +6058,7 @@
     <row r="110" spans="1:6" outlineLevel="1">
       <c r="A110" s="2"/>
       <c r="B110" s="2" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="C110" s="4" t="str">
         <f>"objTxtFile.WriteLine strLine"</f>
@@ -6064,7 +6078,7 @@
     <row r="111" spans="1:6" outlineLevel="1">
       <c r="A111" s="2"/>
       <c r="B111" s="2" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="C111" s="10" t="str">
         <f>"Dim adoStrm
@@ -6079,7 +6093,7 @@
 Set adoStrm = CreateObject("ADODB.Stream")</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="F111" s="11" t="s">
         <v>123</v>
@@ -6088,16 +6102,16 @@
     <row r="112" spans="1:6" outlineLevel="1">
       <c r="A112" s="2"/>
       <c r="B112" s="2" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F112" s="11" t="s">
         <v>123</v>
@@ -6106,16 +6120,16 @@
     <row r="113" spans="1:6" outlineLevel="1">
       <c r="A113" s="2"/>
       <c r="B113" s="2" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="F113" s="11" t="s">
         <v>123</v>
@@ -6124,16 +6138,16 @@
     <row r="114" spans="1:6" outlineLevel="1">
       <c r="A114" s="2"/>
       <c r="B114" s="2" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="F114" s="11" t="s">
         <v>123</v>
@@ -6142,7 +6156,7 @@
     <row r="115" spans="1:6" outlineLevel="1">
       <c r="A115" s="2"/>
       <c r="B115" s="2" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="C115" s="10" t="str">
         <f>"adoStrm.Open
@@ -6164,16 +6178,16 @@
     <row r="116" spans="1:6" outlineLevel="1">
       <c r="A116" s="2"/>
       <c r="B116" s="2" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="F116" s="11" t="s">
         <v>123</v>
@@ -6182,7 +6196,7 @@
     <row r="117" spans="1:6" outlineLevel="1">
       <c r="A117" s="2"/>
       <c r="B117" s="2" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="C117" s="10" t="str">
         <f>"Do Until adoStrm.EOS
@@ -6201,7 +6215,7 @@
 Loop</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="F117" s="11" t="s">
         <v>123</v>
@@ -6210,7 +6224,7 @@
     <row r="118" spans="1:6" outlineLevel="1">
       <c r="A118" s="2"/>
       <c r="B118" s="2" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="C118" s="10" t="str">
         <f>"Dim vFile
@@ -6241,7 +6255,7 @@
 Next</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="F118" s="11" t="s">
         <v>123</v>
@@ -6250,16 +6264,16 @@
     <row r="119" spans="1:6" outlineLevel="1">
       <c r="A119" s="2"/>
       <c r="B119" s="2" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="C119" s="31" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="D119" s="31" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="F119" s="11" t="s">
         <v>123</v>
@@ -6268,16 +6282,16 @@
     <row r="120" spans="1:6" outlineLevel="1">
       <c r="A120" s="2"/>
       <c r="B120" s="2" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="C120" s="31" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="D120" s="31" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="F120" s="11" t="s">
         <v>123</v>
@@ -6286,16 +6300,16 @@
     <row r="121" spans="1:6" outlineLevel="1">
       <c r="A121" s="2"/>
       <c r="B121" s="2" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="F121" s="11" t="s">
         <v>123</v>
@@ -6304,7 +6318,7 @@
     <row r="122" spans="1:6" outlineLevel="1">
       <c r="A122" s="2"/>
       <c r="B122" s="2" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="C122" s="22" t="s">
         <v>402</v>
@@ -10060,14 +10074,14 @@
     <row r="317" spans="1:6" outlineLevel="1">
       <c r="A317" s="2"/>
       <c r="B317" s="2" t="s">
-        <v>193</v>
+        <v>720</v>
       </c>
       <c r="C317" s="22" t="s">
         <v>402</v>
       </c>
       <c r="D317" s="4" t="str">
-        <f>".Cells(.Rows.Count, 列).End(xlUp).Row"</f>
-        <v>.Cells(.Rows.Count, 列).End(xlUp).Row</v>
+        <f>".Cells(1, 列).End(xlDown).Row"</f>
+        <v>.Cells(1, 列).End(xlDown).Row</v>
       </c>
       <c r="E317" s="5" t="s">
         <v>123</v>
@@ -10079,14 +10093,14 @@
     <row r="318" spans="1:6" outlineLevel="1">
       <c r="A318" s="2"/>
       <c r="B318" s="2" t="s">
-        <v>194</v>
+        <v>721</v>
       </c>
       <c r="C318" s="22" t="s">
         <v>402</v>
       </c>
       <c r="D318" s="4" t="str">
-        <f>".Cells(行, .Columns.Count).End(xlToLeft).Column"</f>
-        <v>.Cells(行, .Columns.Count).End(xlToLeft).Column</v>
+        <f>".Cells(行, 1).End(xlToRight).Column"</f>
+        <v>.Cells(行, 1).End(xlToRight).Column</v>
       </c>
       <c r="E318" s="5" t="s">
         <v>123</v>
@@ -10098,14 +10112,14 @@
     <row r="319" spans="1:6" outlineLevel="1">
       <c r="A319" s="2"/>
       <c r="B319" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C319" s="22" t="s">
         <v>402</v>
       </c>
       <c r="D319" s="4" t="str">
-        <f>".Sheets(シート名).UsedRange.Rows.Count + 1"</f>
-        <v>.Sheets(シート名).UsedRange.Rows.Count + 1</v>
+        <f>".Cells(.Rows.Count, 列).End(xlUp).Row"</f>
+        <v>.Cells(.Rows.Count, 列).End(xlUp).Row</v>
       </c>
       <c r="E319" s="5" t="s">
         <v>123</v>
@@ -10117,14 +10131,14 @@
     <row r="320" spans="1:6" outlineLevel="1">
       <c r="A320" s="2"/>
       <c r="B320" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C320" s="22" t="s">
         <v>402</v>
       </c>
       <c r="D320" s="4" t="str">
-        <f>".Sheets(シート名).UsedRange.Columns.Count + 1"</f>
-        <v>.Sheets(シート名).UsedRange.Columns.Count + 1</v>
+        <f>".Cells(行, .Columns.Count).End(xlToLeft).Column"</f>
+        <v>.Cells(行, .Columns.Count).End(xlToLeft).Column</v>
       </c>
       <c r="E320" s="5" t="s">
         <v>123</v>
@@ -10136,14 +10150,14 @@
     <row r="321" spans="1:6" outlineLevel="1">
       <c r="A321" s="2"/>
       <c r="B321" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C321" s="22" t="s">
         <v>402</v>
       </c>
       <c r="D321" s="4" t="str">
-        <f>"Selection(1).Row"</f>
-        <v>Selection(1).Row</v>
+        <f>".Sheets(シート名).UsedRange.Rows.Count + 1"</f>
+        <v>.Sheets(シート名).UsedRange.Rows.Count + 1</v>
       </c>
       <c r="E321" s="5" t="s">
         <v>123</v>
@@ -10155,14 +10169,14 @@
     <row r="322" spans="1:6" outlineLevel="1">
       <c r="A322" s="2"/>
       <c r="B322" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C322" s="22" t="s">
         <v>402</v>
       </c>
       <c r="D322" s="4" t="str">
-        <f>"Selection(Selection.Count).Row"</f>
-        <v>Selection(Selection.Count).Row</v>
+        <f>".Sheets(シート名).UsedRange.Columns.Count + 1"</f>
+        <v>.Sheets(シート名).UsedRange.Columns.Count + 1</v>
       </c>
       <c r="E322" s="5" t="s">
         <v>123</v>
@@ -10174,14 +10188,14 @@
     <row r="323" spans="1:6" outlineLevel="1">
       <c r="A323" s="2"/>
       <c r="B323" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C323" s="22" t="s">
         <v>402</v>
       </c>
       <c r="D323" s="4" t="str">
-        <f>"Selection(1).Column"</f>
-        <v>Selection(1).Column</v>
+        <f>"Selection(1).Row"</f>
+        <v>Selection(1).Row</v>
       </c>
       <c r="E323" s="5" t="s">
         <v>123</v>
@@ -10193,14 +10207,14 @@
     <row r="324" spans="1:6" outlineLevel="1">
       <c r="A324" s="2"/>
       <c r="B324" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C324" s="22" t="s">
         <v>402</v>
       </c>
       <c r="D324" s="4" t="str">
-        <f>"Selection(Selection.Count).Column"</f>
-        <v>Selection(Selection.Count).Column</v>
+        <f>"Selection(Selection.Count).Row"</f>
+        <v>Selection(Selection.Count).Row</v>
       </c>
       <c r="E324" s="5" t="s">
         <v>123</v>
@@ -10212,16 +10226,17 @@
     <row r="325" spans="1:6" outlineLevel="1">
       <c r="A325" s="2"/>
       <c r="B325" s="2" t="s">
-        <v>328</v>
+        <v>199</v>
       </c>
       <c r="C325" s="22" t="s">
         <v>402</v>
       </c>
-      <c r="D325" s="4" t="s">
-        <v>326</v>
+      <c r="D325" s="4" t="str">
+        <f>"Selection(1).Column"</f>
+        <v>Selection(1).Column</v>
       </c>
       <c r="E325" s="5" t="s">
-        <v>334</v>
+        <v>123</v>
       </c>
       <c r="F325" s="11" t="s">
         <v>123</v>
@@ -10230,16 +10245,17 @@
     <row r="326" spans="1:6" outlineLevel="1">
       <c r="A326" s="2"/>
       <c r="B326" s="2" t="s">
-        <v>329</v>
+        <v>200</v>
       </c>
       <c r="C326" s="22" t="s">
         <v>402</v>
       </c>
-      <c r="D326" s="4" t="s">
-        <v>327</v>
+      <c r="D326" s="4" t="str">
+        <f>"Selection(Selection.Count).Column"</f>
+        <v>Selection(Selection.Count).Column</v>
       </c>
       <c r="E326" s="5" t="s">
-        <v>332</v>
+        <v>123</v>
       </c>
       <c r="F326" s="11" t="s">
         <v>123</v>
@@ -10248,16 +10264,16 @@
     <row r="327" spans="1:6" outlineLevel="1">
       <c r="A327" s="2"/>
       <c r="B327" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C327" s="22" t="s">
         <v>402</v>
       </c>
       <c r="D327" s="4" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="E327" s="5" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F327" s="11" t="s">
         <v>123</v>
@@ -10266,17 +10282,16 @@
     <row r="328" spans="1:6" outlineLevel="1">
       <c r="A328" s="2"/>
       <c r="B328" s="2" t="s">
-        <v>201</v>
+        <v>329</v>
       </c>
       <c r="C328" s="22" t="s">
         <v>402</v>
       </c>
-      <c r="D328" s="4" t="str">
-        <f>".Range(.Cells(1, 1), .Cells(6, 3))"</f>
-        <v>.Range(.Cells(1, 1), .Cells(6, 3))</v>
+      <c r="D328" s="4" t="s">
+        <v>327</v>
       </c>
       <c r="E328" s="5" t="s">
-        <v>123</v>
+        <v>332</v>
       </c>
       <c r="F328" s="11" t="s">
         <v>123</v>
@@ -10285,17 +10300,16 @@
     <row r="329" spans="1:6" outlineLevel="1">
       <c r="A329" s="2"/>
       <c r="B329" s="2" t="s">
-        <v>202</v>
+        <v>330</v>
       </c>
       <c r="C329" s="22" t="s">
         <v>402</v>
       </c>
-      <c r="D329" s="4" t="str">
-        <f>".Range(""A1:B9"").Copy Destination:=ThisWorkBook.Sheets(シート名２).Range(""B1"")"</f>
-        <v>.Range("A1:B9").Copy Destination:=ThisWorkBook.Sheets(シート名２).Range("B1")</v>
+      <c r="D329" s="4" t="s">
+        <v>331</v>
       </c>
       <c r="E329" s="5" t="s">
-        <v>123</v>
+        <v>333</v>
       </c>
       <c r="F329" s="11" t="s">
         <v>123</v>
@@ -10304,14 +10318,14 @@
     <row r="330" spans="1:6" outlineLevel="1">
       <c r="A330" s="2"/>
       <c r="B330" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C330" s="22" t="s">
         <v>402</v>
       </c>
       <c r="D330" s="4" t="str">
-        <f>".Range(.Cells(1, 1), .Cells(.Rows.Count, 2)).Sort Key1:=.Cells(1, 2) ,order1:=xlAscending"</f>
-        <v>.Range(.Cells(1, 1), .Cells(.Rows.Count, 2)).Sort Key1:=.Cells(1, 2) ,order1:=xlAscending</v>
+        <f>".Range(.Cells(1, 1), .Cells(6, 3))"</f>
+        <v>.Range(.Cells(1, 1), .Cells(6, 3))</v>
       </c>
       <c r="E330" s="5" t="s">
         <v>123</v>
@@ -10323,14 +10337,14 @@
     <row r="331" spans="1:6" outlineLevel="1">
       <c r="A331" s="2"/>
       <c r="B331" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C331" s="22" t="s">
         <v>402</v>
       </c>
       <c r="D331" s="4" t="str">
-        <f>".Range(""A1:A2"").ClearContents"</f>
-        <v>.Range("A1:A2").ClearContents</v>
+        <f>".Range(""A1:B9"").Copy Destination:=ThisWorkBook.Sheets(シート名２).Range(""B1"")"</f>
+        <v>.Range("A1:B9").Copy Destination:=ThisWorkBook.Sheets(シート名２).Range("B1")</v>
       </c>
       <c r="E331" s="5" t="s">
         <v>123</v>
@@ -10342,14 +10356,14 @@
     <row r="332" spans="1:6" outlineLevel="1">
       <c r="A332" s="2"/>
       <c r="B332" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C332" s="22" t="s">
         <v>402</v>
       </c>
       <c r="D332" s="4" t="str">
-        <f>".Range(""A1:A2"").ClearFormats"</f>
-        <v>.Range("A1:A2").ClearFormats</v>
+        <f>".Range(.Cells(1, 1), .Cells(.Rows.Count, 2)).Sort Key1:=.Cells(1, 2) ,order1:=xlAscending"</f>
+        <v>.Range(.Cells(1, 1), .Cells(.Rows.Count, 2)).Sort Key1:=.Cells(1, 2) ,order1:=xlAscending</v>
       </c>
       <c r="E332" s="5" t="s">
         <v>123</v>
@@ -10361,17 +10375,17 @@
     <row r="333" spans="1:6" outlineLevel="1">
       <c r="A333" s="2"/>
       <c r="B333" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C333" s="22" t="s">
         <v>402</v>
       </c>
       <c r="D333" s="4" t="str">
-        <f>".Range(""A1:A2"").PasteSpecial (xlPasteFormats)"</f>
-        <v>.Range("A1:A2").PasteSpecial (xlPasteFormats)</v>
+        <f>".Range(""A1:A2"").ClearContents"</f>
+        <v>.Range("A1:A2").ClearContents</v>
       </c>
       <c r="E333" s="5" t="s">
-        <v>192</v>
+        <v>123</v>
       </c>
       <c r="F333" s="11" t="s">
         <v>123</v>
@@ -10380,14 +10394,14 @@
     <row r="334" spans="1:6" outlineLevel="1">
       <c r="A334" s="2"/>
       <c r="B334" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C334" s="22" t="s">
         <v>402</v>
       </c>
       <c r="D334" s="4" t="str">
-        <f>".Range(""A1:CV100"").SpecialCells(xlCellTypeBlanks).Select"</f>
-        <v>.Range("A1:CV100").SpecialCells(xlCellTypeBlanks).Select</v>
+        <f>".Range(""A1:A2"").ClearFormats"</f>
+        <v>.Range("A1:A2").ClearFormats</v>
       </c>
       <c r="E334" s="5" t="s">
         <v>123</v>
@@ -10399,17 +10413,17 @@
     <row r="335" spans="1:6" outlineLevel="1">
       <c r="A335" s="2"/>
       <c r="B335" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C335" s="22" t="s">
         <v>402</v>
       </c>
       <c r="D335" s="4" t="str">
-        <f>".Range(""A1"").ColumnWidth = 5"</f>
-        <v>.Range("A1").ColumnWidth = 5</v>
+        <f>".Range(""A1:A2"").PasteSpecial (xlPasteFormats)"</f>
+        <v>.Range("A1:A2").PasteSpecial (xlPasteFormats)</v>
       </c>
       <c r="E335" s="5" t="s">
-        <v>307</v>
+        <v>192</v>
       </c>
       <c r="F335" s="11" t="s">
         <v>123</v>
@@ -10418,17 +10432,17 @@
     <row r="336" spans="1:6" outlineLevel="1">
       <c r="A336" s="2"/>
       <c r="B336" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C336" s="22" t="s">
         <v>402</v>
       </c>
       <c r="D336" s="4" t="str">
-        <f>".Range(.Cells(4, 2), .Cells(9, 2)).Columns.AutoFit"</f>
-        <v>.Range(.Cells(4, 2), .Cells(9, 2)).Columns.AutoFit</v>
+        <f>".Range(""A1:CV100"").SpecialCells(xlCellTypeBlanks).Select"</f>
+        <v>.Range("A1:CV100").SpecialCells(xlCellTypeBlanks).Select</v>
       </c>
       <c r="E336" s="5" t="s">
-        <v>308</v>
+        <v>123</v>
       </c>
       <c r="F336" s="11" t="s">
         <v>123</v>
@@ -10437,17 +10451,17 @@
     <row r="337" spans="1:6" outlineLevel="1">
       <c r="A337" s="2"/>
       <c r="B337" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C337" s="22" t="s">
         <v>402</v>
       </c>
       <c r="D337" s="4" t="str">
-        <f>".Sheets(シート名).UsedRange.Columns.AutoFit"</f>
-        <v>.Sheets(シート名).UsedRange.Columns.AutoFit</v>
+        <f>".Range(""A1"").ColumnWidth = 5"</f>
+        <v>.Range("A1").ColumnWidth = 5</v>
       </c>
       <c r="E337" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F337" s="11" t="s">
         <v>123</v>
@@ -10456,17 +10470,17 @@
     <row r="338" spans="1:6" outlineLevel="1">
       <c r="A338" s="2"/>
       <c r="B338" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C338" s="22" t="s">
         <v>402</v>
       </c>
       <c r="D338" s="4" t="str">
-        <f>"Application.CutCopyMode = False"</f>
-        <v>Application.CutCopyMode = False</v>
+        <f>".Range(.Cells(4, 2), .Cells(9, 2)).Columns.AutoFit"</f>
+        <v>.Range(.Cells(4, 2), .Cells(9, 2)).Columns.AutoFit</v>
       </c>
       <c r="E338" s="5" t="s">
-        <v>123</v>
+        <v>308</v>
       </c>
       <c r="F338" s="11" t="s">
         <v>123</v>
@@ -10475,17 +10489,17 @@
     <row r="339" spans="1:6" outlineLevel="1">
       <c r="A339" s="2"/>
       <c r="B339" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C339" s="22" t="s">
         <v>402</v>
       </c>
       <c r="D339" s="4" t="str">
-        <f>".Range( .Rows( lStrtRow ), .Rows( lLastRow ) ).Group"</f>
-        <v>.Range( .Rows( lStrtRow ), .Rows( lLastRow ) ).Group</v>
+        <f>".Sheets(シート名).UsedRange.Columns.AutoFit"</f>
+        <v>.Sheets(シート名).UsedRange.Columns.AutoFit</v>
       </c>
       <c r="E339" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F339" s="11" t="s">
         <v>123</v>
@@ -10494,17 +10508,17 @@
     <row r="340" spans="1:6" outlineLevel="1">
       <c r="A340" s="2"/>
       <c r="B340" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C340" s="22" t="s">
         <v>402</v>
       </c>
       <c r="D340" s="4" t="str">
-        <f>".Range( .Columns( lStrtRow ), .Columns( lLastRow ) ).Group"</f>
-        <v>.Range( .Columns( lStrtRow ), .Columns( lLastRow ) ).Group</v>
+        <f>"Application.CutCopyMode = False"</f>
+        <v>Application.CutCopyMode = False</v>
       </c>
       <c r="E340" s="5" t="s">
-        <v>309</v>
+        <v>123</v>
       </c>
       <c r="F340" s="11" t="s">
         <v>123</v>
@@ -10513,17 +10527,17 @@
     <row r="341" spans="1:6" outlineLevel="1">
       <c r="A341" s="2"/>
       <c r="B341" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C341" s="22" t="s">
         <v>402</v>
       </c>
       <c r="D341" s="4" t="str">
-        <f>".Sheets(シート名).Outline.SummaryRow = ( xlBelow \| xlAbove )"</f>
-        <v>.Sheets(シート名).Outline.SummaryRow = ( xlBelow \| xlAbove )</v>
+        <f>".Range( .Rows( lStrtRow ), .Rows( lLastRow ) ).Group"</f>
+        <v>.Range( .Rows( lStrtRow ), .Rows( lLastRow ) ).Group</v>
       </c>
       <c r="E341" s="5" t="s">
-        <v>123</v>
+        <v>309</v>
       </c>
       <c r="F341" s="11" t="s">
         <v>123</v>
@@ -10532,17 +10546,17 @@
     <row r="342" spans="1:6" outlineLevel="1">
       <c r="A342" s="2"/>
       <c r="B342" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C342" s="22" t="s">
         <v>402</v>
       </c>
       <c r="D342" s="4" t="str">
-        <f>".Sheets(シート名).Outline.SummaryColumn = ( xlRight \| xlLeft )"</f>
-        <v>.Sheets(シート名).Outline.SummaryColumn = ( xlRight \| xlLeft )</v>
+        <f>".Range( .Columns( lStrtRow ), .Columns( lLastRow ) ).Group"</f>
+        <v>.Range( .Columns( lStrtRow ), .Columns( lLastRow ) ).Group</v>
       </c>
       <c r="E342" s="5" t="s">
-        <v>123</v>
+        <v>309</v>
       </c>
       <c r="F342" s="11" t="s">
         <v>123</v>
@@ -10551,14 +10565,14 @@
     <row r="343" spans="1:6" outlineLevel="1">
       <c r="A343" s="2"/>
       <c r="B343" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C343" s="22" t="s">
         <v>402</v>
       </c>
       <c r="D343" s="4" t="str">
-        <f>".Sheets(シート名).Outline.AutomaticStyles = ( True \| False )"</f>
-        <v>.Sheets(シート名).Outline.AutomaticStyles = ( True \| False )</v>
+        <f>".Sheets(シート名).Outline.SummaryRow = ( xlBelow \| xlAbove )"</f>
+        <v>.Sheets(シート名).Outline.SummaryRow = ( xlBelow \| xlAbove )</v>
       </c>
       <c r="E343" s="5" t="s">
         <v>123</v>
@@ -10570,14 +10584,14 @@
     <row r="344" spans="1:6" outlineLevel="1">
       <c r="A344" s="2"/>
       <c r="B344" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C344" s="22" t="s">
         <v>402</v>
       </c>
       <c r="D344" s="4" t="str">
-        <f>".Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).AutoFilter"</f>
-        <v>.Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).AutoFilter</v>
+        <f>".Sheets(シート名).Outline.SummaryColumn = ( xlRight \| xlLeft )"</f>
+        <v>.Sheets(シート名).Outline.SummaryColumn = ( xlRight \| xlLeft )</v>
       </c>
       <c r="E344" s="5" t="s">
         <v>123</v>
@@ -10589,94 +10603,94 @@
     <row r="345" spans="1:6" outlineLevel="1">
       <c r="A345" s="2"/>
       <c r="B345" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C345" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="D345" s="4" t="str">
+        <f>".Sheets(シート名).Outline.AutomaticStyles = ( True \| False )"</f>
+        <v>.Sheets(シート名).Outline.AutomaticStyles = ( True \| False )</v>
+      </c>
+      <c r="E345" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F345" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" outlineLevel="1">
+      <c r="A346" s="2"/>
+      <c r="B346" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C346" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="D346" s="4" t="str">
+        <f>".Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).AutoFilter"</f>
+        <v>.Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).AutoFilter</v>
+      </c>
+      <c r="E346" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F346" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" outlineLevel="1">
+      <c r="A347" s="2"/>
+      <c r="B347" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C345" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="D345" s="4" t="str">
+      <c r="C347" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="D347" s="4" t="str">
         <f>".Rows(行).Select"&amp;CHAR(10)&amp;"ActiveWindow.FreezePanes = True"</f>
         <v>.Rows(行).Select
 ActiveWindow.FreezePanes = True</v>
       </c>
-      <c r="E345" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F345" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="346" spans="1:6" outlineLevel="1">
-      <c r="A346" s="2"/>
-      <c r="B346" s="2" t="s">
+      <c r="E347" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F347" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" outlineLevel="1">
+      <c r="A348" s="2"/>
+      <c r="B348" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C346" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="D346" s="4" t="str">
+      <c r="C348" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="D348" s="4" t="str">
         <f>".Columns(列).Select"&amp;CHAR(10)&amp;"ActiveWindow.FreezePanes = True"</f>
         <v>.Columns(列).Select
 ActiveWindow.FreezePanes = True</v>
       </c>
-      <c r="E346" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F346" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="347" spans="1:6" outlineLevel="1">
-      <c r="A347" s="2"/>
-      <c r="B347" s="2" t="s">
+      <c r="E348" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F348" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" outlineLevel="1">
+      <c r="A349" s="2"/>
+      <c r="B349" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C347" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="D347" s="4" t="str">
+      <c r="C349" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="D349" s="4" t="str">
         <f>".Cells(行,列).Select"&amp;CHAR(10)&amp;"ActiveWindow.FreezePanes = True"</f>
         <v>.Cells(行,列).Select
 ActiveWindow.FreezePanes = True</v>
       </c>
-      <c r="E347" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F347" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="348" spans="1:6" outlineLevel="1">
-      <c r="A348" s="2"/>
-      <c r="B348" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C348" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="D348" s="4" t="str">
-        <f>"ActiveWindow.FreezePanes = False"</f>
-        <v>ActiveWindow.FreezePanes = False</v>
-      </c>
-      <c r="E348" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F348" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="349" spans="1:6" outlineLevel="1">
-      <c r="A349" s="2"/>
-      <c r="B349" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="C349" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="D349" s="4" t="str">
-        <f>"Application.WorksheetFunction.VLookup(.Range(""C1""), .Range(""A1:B7""), 2, False)"</f>
-        <v>Application.WorksheetFunction.VLookup(.Range("C1"), .Range("A1:B7"), 2, False)</v>
-      </c>
       <c r="E349" s="5" t="s">
         <v>123</v>
       </c>
@@ -10687,17 +10701,17 @@
     <row r="350" spans="1:6" outlineLevel="1">
       <c r="A350" s="2"/>
       <c r="B350" s="2" t="s">
-        <v>122</v>
+        <v>219</v>
       </c>
       <c r="C350" s="22" t="s">
         <v>402</v>
       </c>
       <c r="D350" s="4" t="str">
-        <f>"CreateObject(""WScript.Network"").UserName"</f>
-        <v>CreateObject("WScript.Network").UserName</v>
+        <f>"ActiveWindow.FreezePanes = False"</f>
+        <v>ActiveWindow.FreezePanes = False</v>
       </c>
       <c r="E350" s="5" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F350" s="11" t="s">
         <v>123</v>
@@ -10706,17 +10720,17 @@
     <row r="351" spans="1:6" outlineLevel="1">
       <c r="A351" s="2"/>
       <c r="B351" s="2" t="s">
-        <v>342</v>
+        <v>249</v>
       </c>
       <c r="C351" s="22" t="s">
         <v>402</v>
       </c>
-      <c r="D351" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="E351" s="6" t="str">
-        <f>HYPERLINK("https://msdn.microsoft.com/ja-jp/library/office/ff197461.aspx","sShtcutKey＝Shift:+,Ctrl:^,Alt:%,...")</f>
-        <v>sShtcutKey＝Shift:+,Ctrl:^,Alt:%,...</v>
+      <c r="D351" s="4" t="str">
+        <f>"Application.WorksheetFunction.VLookup(.Range(""C1""), .Range(""A1:B7""), 2, False)"</f>
+        <v>Application.WorksheetFunction.VLookup(.Range("C1"), .Range("A1:B7"), 2, False)</v>
+      </c>
+      <c r="E351" s="5" t="s">
+        <v>123</v>
       </c>
       <c r="F351" s="11" t="s">
         <v>123</v>
@@ -10725,15 +10739,18 @@
     <row r="352" spans="1:6" outlineLevel="1">
       <c r="A352" s="2"/>
       <c r="B352" s="2" t="s">
-        <v>674</v>
+        <v>122</v>
       </c>
       <c r="C352" s="22" t="s">
         <v>402</v>
       </c>
-      <c r="D352" s="4" t="s">
-        <v>672</v>
-      </c>
-      <c r="E352" s="5"/>
+      <c r="D352" s="4" t="str">
+        <f>"CreateObject(""WScript.Network"").UserName"</f>
+        <v>CreateObject("WScript.Network").UserName</v>
+      </c>
+      <c r="E352" s="5" t="s">
+        <v>129</v>
+      </c>
       <c r="F352" s="11" t="s">
         <v>123</v>
       </c>
@@ -10741,29 +10758,34 @@
     <row r="353" spans="1:6" outlineLevel="1">
       <c r="A353" s="2"/>
       <c r="B353" s="2" t="s">
-        <v>673</v>
+        <v>342</v>
       </c>
       <c r="C353" s="22" t="s">
         <v>402</v>
       </c>
       <c r="D353" s="4" t="s">
-        <v>675</v>
-      </c>
-      <c r="E353" s="5"/>
+        <v>341</v>
+      </c>
+      <c r="E353" s="6" t="str">
+        <f>HYPERLINK("https://msdn.microsoft.com/ja-jp/library/office/ff197461.aspx","sShtcutKey＝Shift:+,Ctrl:^,Alt:%,...")</f>
+        <v>sShtcutKey＝Shift:+,Ctrl:^,Alt:%,...</v>
+      </c>
       <c r="F353" s="11" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="354" spans="1:6">
-      <c r="A354" s="20" t="s">
-        <v>470</v>
-      </c>
-      <c r="B354" s="8"/>
-      <c r="C354" s="8"/>
-      <c r="D354" s="8"/>
-      <c r="E354" s="8" t="s">
-        <v>123</v>
-      </c>
+    <row r="354" spans="1:6" outlineLevel="1">
+      <c r="A354" s="2"/>
+      <c r="B354" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="C354" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="D354" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="E354" s="5"/>
       <c r="F354" s="11" t="s">
         <v>123</v>
       </c>
@@ -10771,12 +10793,42 @@
     <row r="355" spans="1:6" outlineLevel="1">
       <c r="A355" s="2"/>
       <c r="B355" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="C355" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="D355" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="E355" s="5"/>
+      <c r="F355" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6">
+      <c r="A356" s="20" t="s">
+        <v>470</v>
+      </c>
+      <c r="B356" s="8"/>
+      <c r="C356" s="8"/>
+      <c r="D356" s="8"/>
+      <c r="E356" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F356" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" outlineLevel="1">
+      <c r="A357" s="2"/>
+      <c r="B357" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="C355" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="D355" s="2" t="str">
+      <c r="C357" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="D357" s="2" t="str">
         <f>"Dim bIsSheetExist As Boolean
 bIsSheetExist = False
 For Each wSheet In ThisWorkbook.Worksheets
@@ -10796,19 +10848,19 @@
     End If
 Next wSheet</v>
       </c>
-      <c r="E355" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="356" spans="1:6" outlineLevel="1">
-      <c r="A356" s="2"/>
-      <c r="B356" s="2" t="s">
+      <c r="E357" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" outlineLevel="1">
+      <c r="A358" s="2"/>
+      <c r="B358" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="C356" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="D356" s="2" t="str">
+      <c r="C358" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="D358" s="2" t="str">
         <f>"Dim rFindResult As Range
 Dim sFindKeyword As String
 Dim shTrgtSht As Worksheet
@@ -10822,19 +10874,19 @@
 sFindKeyword = "test"
 Set rFindResult = shTrgtSht.Cells.Find(sFindKeyword, LookAt:=xlWhole)</v>
       </c>
-      <c r="E356" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="357" spans="1:6" outlineLevel="1">
-      <c r="A357" s="2"/>
-      <c r="B357" s="2" t="s">
+      <c r="E358" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" outlineLevel="1">
+      <c r="A359" s="2"/>
+      <c r="B359" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="C357" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="D357" s="2" t="str">
+      <c r="C359" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="D359" s="2" t="str">
         <f>"If rFindResult Is Nothing Then
     MsgBox _
         ""セルが見つからなかったため、処理を中断します。"" &amp; vbNewLine &amp; _
@@ -10852,24 +10904,6 @@
     End
 End If</v>
       </c>
-      <c r="E357" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="358" spans="1:6" outlineLevel="1">
-      <c r="A358" s="2"/>
-      <c r="B358" s="2"/>
-      <c r="C358" s="10"/>
-      <c r="D358" s="10"/>
-      <c r="E358" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="359" spans="1:6" outlineLevel="1">
-      <c r="A359" s="2"/>
-      <c r="B359" s="2"/>
-      <c r="C359" s="10"/>
-      <c r="D359" s="10"/>
       <c r="E359" s="5" t="s">
         <v>123</v>
       </c>
@@ -10973,20 +11007,38 @@
         <v>123</v>
       </c>
     </row>
-    <row r="372" spans="1:5">
-      <c r="A372" s="7" t="s">
+    <row r="371" spans="1:5" outlineLevel="1">
+      <c r="A371" s="2"/>
+      <c r="B371" s="2"/>
+      <c r="C371" s="10"/>
+      <c r="D371" s="10"/>
+      <c r="E371" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" outlineLevel="1">
+      <c r="A372" s="2"/>
+      <c r="B372" s="2"/>
+      <c r="C372" s="10"/>
+      <c r="D372" s="10"/>
+      <c r="E372" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5">
+      <c r="A374" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="B372" s="1" t="s">
+      <c r="B374" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="C372" s="1" t="s">
+      <c r="C374" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="D372" s="1" t="s">
+      <c r="D374" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="E372" s="1" t="s">
+      <c r="E374" s="1" t="s">
         <v>423</v>
       </c>
     </row>
@@ -11013,11 +11065,11 @@
   </sheetPr>
   <dimension ref="A1:E88"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C40" sqref="C40"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -11075,7 +11127,7 @@
         <v>507</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
     </row>
     <row r="5" spans="1:5" outlineLevel="1">
@@ -11123,7 +11175,7 @@
         <v>510</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
     </row>
     <row r="9" spans="1:5" outlineLevel="1">
@@ -11141,13 +11193,13 @@
     <row r="10" spans="1:5" ht="94.5" outlineLevel="1">
       <c r="A10" s="2"/>
       <c r="B10" s="32" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
     </row>
     <row r="11" spans="1:5" outlineLevel="1">
@@ -11159,7 +11211,7 @@
         <v>647</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>651</v>
+        <v>722</v>
       </c>
     </row>
     <row r="12" spans="1:5" outlineLevel="1">
@@ -11171,43 +11223,43 @@
         <v>650</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>652</v>
+        <v>723</v>
       </c>
     </row>
     <row r="13" spans="1:5" outlineLevel="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>655</v>
+        <v>724</v>
       </c>
     </row>
     <row r="14" spans="1:5" outlineLevel="1">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="81" outlineLevel="1">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="16" spans="1:5" outlineLevel="1">
@@ -11381,25 +11433,25 @@
     <row r="30" spans="1:5" outlineLevel="1">
       <c r="A30" s="2"/>
       <c r="B30" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>665</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>667</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>668</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="31" spans="1:5" outlineLevel="1">
       <c r="A31" s="2"/>
       <c r="B31" s="2" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
     </row>
     <row r="32" spans="1:5">

--- a/言語チートシート.xlsx
+++ b/言語チートシート.xlsx
@@ -9,9 +9,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F674D7-96E9-4B49-A9CF-8DD6DE4853BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D390450-F9F5-44C0-8466-D7677B6B56AF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26460" windowHeight="16200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="26700" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vbs,vba" sheetId="43" r:id="rId1"/>
@@ -138,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1552" uniqueCount="725">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="727">
   <si>
     <t>変数強制定義</t>
   </si>
@@ -3113,6 +3113,20 @@
   </si>
   <si>
     <t>ex. FOR /R C:\ %%I IN (*.txt) DO TYPE %%I</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>オブジェクト位置取得</t>
+    <rPh sb="6" eb="8">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -3810,13 +3824,13 @@
   <sheetPr codeName="Sheet1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F374"/>
+  <dimension ref="A1:F375"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C294" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C316" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D317" sqref="D317"/>
+      <selection pane="bottomRight" activeCell="D356" sqref="D356"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -10806,29 +10820,60 @@
         <v>123</v>
       </c>
     </row>
-    <row r="356" spans="1:6">
-      <c r="A356" s="20" t="s">
+    <row r="356" spans="1:6" outlineLevel="1">
+      <c r="A356" s="2"/>
+      <c r="B356" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="C356" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="D356" s="10" t="str">
+        <f>"Dim objBtn As Object
+Set objBtn = ActiveSheet.Shapes(Application.Caller)
+Dim lClm As Long
+Dim lRow As Long
+lClm = objBtn.TopLeftCell.Column
+lRow = objBtn.TopLeftCell.Row
+"</f>
+        <v xml:space="preserve">Dim objBtn As Object
+Set objBtn = ActiveSheet.Shapes(Application.Caller)
+Dim lClm As Long
+Dim lRow As Long
+lClm = objBtn.TopLeftCell.Column
+lRow = objBtn.TopLeftCell.Row
+</v>
+      </c>
+      <c r="E356" s="5" t="s">
+        <v>726</v>
+      </c>
+      <c r="F356" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6">
+      <c r="A357" s="20" t="s">
         <v>470</v>
       </c>
-      <c r="B356" s="8"/>
-      <c r="C356" s="8"/>
-      <c r="D356" s="8"/>
-      <c r="E356" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F356" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="357" spans="1:6" outlineLevel="1">
-      <c r="A357" s="2"/>
-      <c r="B357" s="2" t="s">
+      <c r="B357" s="8"/>
+      <c r="C357" s="8"/>
+      <c r="D357" s="8"/>
+      <c r="E357" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F357" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" outlineLevel="1">
+      <c r="A358" s="2"/>
+      <c r="B358" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="C357" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="D357" s="2" t="str">
+      <c r="C358" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="D358" s="2" t="str">
         <f>"Dim bIsSheetExist As Boolean
 bIsSheetExist = False
 For Each wSheet In ThisWorkbook.Worksheets
@@ -10848,19 +10893,19 @@
     End If
 Next wSheet</v>
       </c>
-      <c r="E357" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="358" spans="1:6" outlineLevel="1">
-      <c r="A358" s="2"/>
-      <c r="B358" s="2" t="s">
+      <c r="E358" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" outlineLevel="1">
+      <c r="A359" s="2"/>
+      <c r="B359" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="C358" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="D358" s="2" t="str">
+      <c r="C359" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="D359" s="2" t="str">
         <f>"Dim rFindResult As Range
 Dim sFindKeyword As String
 Dim shTrgtSht As Worksheet
@@ -10874,19 +10919,19 @@
 sFindKeyword = "test"
 Set rFindResult = shTrgtSht.Cells.Find(sFindKeyword, LookAt:=xlWhole)</v>
       </c>
-      <c r="E358" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="359" spans="1:6" outlineLevel="1">
-      <c r="A359" s="2"/>
-      <c r="B359" s="2" t="s">
+      <c r="E359" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" outlineLevel="1">
+      <c r="A360" s="2"/>
+      <c r="B360" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="C359" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="D359" s="2" t="str">
+      <c r="C360" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="D360" s="2" t="str">
         <f>"If rFindResult Is Nothing Then
     MsgBox _
         ""セルが見つからなかったため、処理を中断します。"" &amp; vbNewLine &amp; _
@@ -10904,15 +10949,6 @@
     End
 End If</v>
       </c>
-      <c r="E359" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="360" spans="1:6" outlineLevel="1">
-      <c r="A360" s="2"/>
-      <c r="B360" s="2"/>
-      <c r="C360" s="10"/>
-      <c r="D360" s="10"/>
       <c r="E360" s="5" t="s">
         <v>123</v>
       </c>
@@ -11025,20 +11061,29 @@
         <v>123</v>
       </c>
     </row>
-    <row r="374" spans="1:5">
-      <c r="A374" s="7" t="s">
+    <row r="373" spans="1:5" outlineLevel="1">
+      <c r="A373" s="2"/>
+      <c r="B373" s="2"/>
+      <c r="C373" s="10"/>
+      <c r="D373" s="10"/>
+      <c r="E373" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5">
+      <c r="A375" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="B374" s="1" t="s">
+      <c r="B375" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="C374" s="1" t="s">
+      <c r="C375" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="D374" s="1" t="s">
+      <c r="D375" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="E374" s="1" t="s">
+      <c r="E375" s="1" t="s">
         <v>423</v>
       </c>
     </row>
@@ -11065,11 +11110,11 @@
   </sheetPr>
   <dimension ref="A1:E88"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.5" outlineLevelRow="1"/>

--- a/言語チートシート.xlsx
+++ b/言語チートシート.xlsx
@@ -9,9 +9,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D390450-F9F5-44C0-8466-D7677B6B56AF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{230C1E4D-4D5F-45CE-9988-27817BB98891}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="26700" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="26700" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vbs,vba" sheetId="43" r:id="rId1"/>
@@ -138,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="727">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1559" uniqueCount="730">
   <si>
     <t>変数強制定義</t>
   </si>
@@ -2255,9 +2255,6 @@
     <t>shutdown /a</t>
   </si>
   <si>
-    <t>mklink /d "c:\src\test" "d:\program files\dst\test"</t>
-  </si>
-  <si>
     <t>mklink "c:\src\test.txt" "d:\program files\dst\test.txt"</t>
   </si>
   <si>
@@ -2355,9 +2352,6 @@
   </si>
   <si>
     <t>シャットダウンをキャンセル</t>
-  </si>
-  <si>
-    <t>シンボリックリンク作成（フォルダ）</t>
   </si>
   <si>
     <t>シンボリックリンク作成（ファイル）</t>
@@ -3127,6 +3121,32 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>mklink /d "c:\src\test" "d:\program files\dst\test"</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>powershell "$s=(New-Object -COM WScript.Shell).CreateShortcut('c:\src\test.lnk');$s.TargetPath='d:\program files\dst\test';$s.Save()"</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>シンボリックリンク作成（フォルダ）</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ショートカットファイル作成（フォルダ/ファイル）</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>dosコマンドでは作成できないため、PowerShellを使用する</t>
+    <rPh sb="9" eb="11">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>シヨウ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -3826,7 +3846,7 @@
   </sheetPr>
   <dimension ref="A1:F375"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C316" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -5758,16 +5778,16 @@
     <row r="93" spans="1:6" outlineLevel="1">
       <c r="A93" s="2"/>
       <c r="B93" s="2" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="F93" s="11" t="s">
         <v>123</v>
@@ -5776,16 +5796,16 @@
     <row r="94" spans="1:6" outlineLevel="1">
       <c r="A94" s="2"/>
       <c r="B94" s="2" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C94" s="10" t="s">
+        <v>710</v>
+      </c>
+      <c r="D94" s="4" t="s">
         <v>712</v>
       </c>
-      <c r="D94" s="4" t="s">
-        <v>714</v>
-      </c>
       <c r="E94" s="5" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="F94" s="11" t="s">
         <v>123</v>
@@ -5794,16 +5814,16 @@
     <row r="95" spans="1:6" outlineLevel="1">
       <c r="A95" s="2"/>
       <c r="B95" s="2" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D95" s="34" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="F95" s="11" t="s">
         <v>123</v>
@@ -5812,13 +5832,13 @@
     <row r="96" spans="1:6" outlineLevel="1">
       <c r="A96" s="2"/>
       <c r="B96" s="2" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="D96" s="33" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E96" s="5"/>
       <c r="F96" s="11" t="s">
@@ -5973,7 +5993,7 @@
     <row r="105" spans="1:6" outlineLevel="1">
       <c r="A105" s="2"/>
       <c r="B105" s="2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C105" s="4" t="str">
         <f>"Dim objTxtFile"</f>
@@ -5992,7 +6012,7 @@
     <row r="106" spans="1:6" outlineLevel="1">
       <c r="A106" s="2"/>
       <c r="B106" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C106" s="4" t="str">
         <f>"Set objTxtFile = objFSO.OpenTextFile(""c:\codes\test\a.txt"", 1, True)"</f>
@@ -6011,7 +6031,7 @@
     <row r="107" spans="1:6" outlineLevel="1">
       <c r="A107" s="2"/>
       <c r="B107" s="2" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C107" s="4" t="str">
         <f>"objTxtFile.Close"</f>
@@ -6028,7 +6048,7 @@
     <row r="108" spans="1:6" outlineLevel="1">
       <c r="A108" s="2"/>
       <c r="B108" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C108" s="4" t="str">
         <f>"Do Until objTxtFile.AtEndOfStream"&amp;CHAR(10)&amp;"strLine = objTxtFile.ReadLine"&amp;CHAR(10)&amp;"Loop"</f>
@@ -6052,7 +6072,7 @@
     <row r="109" spans="1:6" outlineLevel="1">
       <c r="A109" s="2"/>
       <c r="B109" s="2" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="C109" s="4" t="str">
         <f>"sTextAll = objTxtFile.ReadAll"</f>
@@ -6072,7 +6092,7 @@
     <row r="110" spans="1:6" outlineLevel="1">
       <c r="A110" s="2"/>
       <c r="B110" s="2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C110" s="4" t="str">
         <f>"objTxtFile.WriteLine strLine"</f>
@@ -6092,7 +6112,7 @@
     <row r="111" spans="1:6" outlineLevel="1">
       <c r="A111" s="2"/>
       <c r="B111" s="2" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C111" s="10" t="str">
         <f>"Dim adoStrm
@@ -6107,7 +6127,7 @@
 Set adoStrm = CreateObject("ADODB.Stream")</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F111" s="11" t="s">
         <v>123</v>
@@ -6116,16 +6136,16 @@
     <row r="112" spans="1:6" outlineLevel="1">
       <c r="A112" s="2"/>
       <c r="B112" s="2" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="F112" s="11" t="s">
         <v>123</v>
@@ -6134,16 +6154,16 @@
     <row r="113" spans="1:6" outlineLevel="1">
       <c r="A113" s="2"/>
       <c r="B113" s="2" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="F113" s="11" t="s">
         <v>123</v>
@@ -6152,16 +6172,16 @@
     <row r="114" spans="1:6" outlineLevel="1">
       <c r="A114" s="2"/>
       <c r="B114" s="2" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="F114" s="11" t="s">
         <v>123</v>
@@ -6170,7 +6190,7 @@
     <row r="115" spans="1:6" outlineLevel="1">
       <c r="A115" s="2"/>
       <c r="B115" s="2" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C115" s="10" t="str">
         <f>"adoStrm.Open
@@ -6192,16 +6212,16 @@
     <row r="116" spans="1:6" outlineLevel="1">
       <c r="A116" s="2"/>
       <c r="B116" s="2" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F116" s="11" t="s">
         <v>123</v>
@@ -6210,7 +6230,7 @@
     <row r="117" spans="1:6" outlineLevel="1">
       <c r="A117" s="2"/>
       <c r="B117" s="2" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C117" s="10" t="str">
         <f>"Do Until adoStrm.EOS
@@ -6229,7 +6249,7 @@
 Loop</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="F117" s="11" t="s">
         <v>123</v>
@@ -6238,7 +6258,7 @@
     <row r="118" spans="1:6" outlineLevel="1">
       <c r="A118" s="2"/>
       <c r="B118" s="2" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C118" s="10" t="str">
         <f>"Dim vFile
@@ -6269,7 +6289,7 @@
 Next</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="F118" s="11" t="s">
         <v>123</v>
@@ -6278,16 +6298,16 @@
     <row r="119" spans="1:6" outlineLevel="1">
       <c r="A119" s="2"/>
       <c r="B119" s="2" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C119" s="31" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D119" s="31" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="F119" s="11" t="s">
         <v>123</v>
@@ -6296,16 +6316,16 @@
     <row r="120" spans="1:6" outlineLevel="1">
       <c r="A120" s="2"/>
       <c r="B120" s="2" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C120" s="31" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="D120" s="31" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="F120" s="11" t="s">
         <v>123</v>
@@ -6314,16 +6334,16 @@
     <row r="121" spans="1:6" outlineLevel="1">
       <c r="A121" s="2"/>
       <c r="B121" s="2" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C121" s="4" t="s">
+        <v>671</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>671</v>
+      </c>
+      <c r="E121" s="5" t="s">
         <v>673</v>
-      </c>
-      <c r="D121" s="4" t="s">
-        <v>673</v>
-      </c>
-      <c r="E121" s="5" t="s">
-        <v>675</v>
       </c>
       <c r="F121" s="11" t="s">
         <v>123</v>
@@ -6332,7 +6352,7 @@
     <row r="122" spans="1:6" outlineLevel="1">
       <c r="A122" s="2"/>
       <c r="B122" s="2" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C122" s="22" t="s">
         <v>402</v>
@@ -10088,7 +10108,7 @@
     <row r="317" spans="1:6" outlineLevel="1">
       <c r="A317" s="2"/>
       <c r="B317" s="2" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C317" s="22" t="s">
         <v>402</v>
@@ -10107,7 +10127,7 @@
     <row r="318" spans="1:6" outlineLevel="1">
       <c r="A318" s="2"/>
       <c r="B318" s="2" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C318" s="22" t="s">
         <v>402</v>
@@ -10791,13 +10811,13 @@
     <row r="354" spans="1:6" outlineLevel="1">
       <c r="A354" s="2"/>
       <c r="B354" s="2" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C354" s="22" t="s">
         <v>402</v>
       </c>
       <c r="D354" s="4" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="E354" s="5"/>
       <c r="F354" s="11" t="s">
@@ -10807,13 +10827,13 @@
     <row r="355" spans="1:6" outlineLevel="1">
       <c r="A355" s="2"/>
       <c r="B355" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="C355" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="D355" s="4" t="s">
         <v>670</v>
-      </c>
-      <c r="C355" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="D355" s="4" t="s">
-        <v>672</v>
       </c>
       <c r="E355" s="5"/>
       <c r="F355" s="11" t="s">
@@ -10823,7 +10843,7 @@
     <row r="356" spans="1:6" outlineLevel="1">
       <c r="A356" s="2"/>
       <c r="B356" s="2" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C356" s="22" t="s">
         <v>402</v>
@@ -10845,7 +10865,7 @@
 </v>
       </c>
       <c r="E356" s="5" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="F356" s="11" t="s">
         <v>123</v>
@@ -11110,11 +11130,11 @@
   </sheetPr>
   <dimension ref="A1:E88"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomRight" activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -11152,7 +11172,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="20" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -11166,13 +11186,13 @@
     <row r="4" spans="1:5" outlineLevel="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>507</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="5" spans="1:5" outlineLevel="1">
@@ -11190,7 +11210,7 @@
     <row r="6" spans="1:5" outlineLevel="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>508</v>
@@ -11202,7 +11222,7 @@
     <row r="7" spans="1:5" outlineLevel="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>509</v>
@@ -11214,19 +11234,19 @@
     <row r="8" spans="1:5" outlineLevel="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>510</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="9" spans="1:5" outlineLevel="1">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>511</v>
@@ -11238,73 +11258,73 @@
     <row r="10" spans="1:5" ht="94.5" outlineLevel="1">
       <c r="A10" s="2"/>
       <c r="B10" s="32" t="s">
+        <v>657</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>658</v>
+      </c>
+      <c r="D10" s="30" t="s">
         <v>659</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>660</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="11" spans="1:5" outlineLevel="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="12" spans="1:5" outlineLevel="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="13" spans="1:5" outlineLevel="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="14" spans="1:5" outlineLevel="1">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>653</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>654</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="81" outlineLevel="1">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="D15" s="30" t="s">
         <v>656</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>657</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="16" spans="1:5" outlineLevel="1">
@@ -11322,7 +11342,7 @@
     <row r="17" spans="1:5" outlineLevel="1">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>513</v>
@@ -11334,7 +11354,7 @@
     <row r="18" spans="1:5" outlineLevel="1">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>514</v>
@@ -11346,7 +11366,7 @@
     <row r="19" spans="1:5" outlineLevel="1">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>515</v>
@@ -11358,7 +11378,7 @@
     <row r="20" spans="1:5" outlineLevel="1">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>534</v>
@@ -11370,7 +11390,7 @@
     <row r="21" spans="1:5" outlineLevel="1">
       <c r="A21" s="2"/>
       <c r="B21" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>535</v>
@@ -11382,7 +11402,7 @@
     <row r="22" spans="1:5" outlineLevel="1">
       <c r="A22" s="2"/>
       <c r="B22" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>536</v>
@@ -11394,10 +11414,10 @@
     <row r="23" spans="1:5" outlineLevel="1">
       <c r="A23" s="2"/>
       <c r="B23" s="2" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>123</v>
@@ -11409,7 +11429,7 @@
         <v>13</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>123</v>
@@ -11418,10 +11438,10 @@
     <row r="25" spans="1:5" outlineLevel="1">
       <c r="A25" s="2"/>
       <c r="B25" s="2" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>123</v>
@@ -11430,10 +11450,10 @@
     <row r="26" spans="1:5" outlineLevel="1">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>123</v>
@@ -11442,10 +11462,10 @@
     <row r="27" spans="1:5" outlineLevel="1">
       <c r="A27" s="2"/>
       <c r="B27" s="2" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>123</v>
@@ -11454,10 +11474,10 @@
     <row r="28" spans="1:5" outlineLevel="1">
       <c r="A28" s="2"/>
       <c r="B28" s="2" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>123</v>
@@ -11466,10 +11486,10 @@
     <row r="29" spans="1:5" outlineLevel="1">
       <c r="A29" s="2"/>
       <c r="B29" s="2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>123</v>
@@ -11478,30 +11498,30 @@
     <row r="30" spans="1:5" outlineLevel="1">
       <c r="A30" s="2"/>
       <c r="B30" s="2" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C30" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>665</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="31" spans="1:5" outlineLevel="1">
       <c r="A31" s="2"/>
       <c r="B31" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>664</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="D31" s="5" t="s">
         <v>666</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="20" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -11515,88 +11535,88 @@
     <row r="33" spans="1:5" outlineLevel="1">
       <c r="A33" s="2"/>
       <c r="B33" s="2" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D33" s="5"/>
     </row>
     <row r="34" spans="1:5" outlineLevel="1">
       <c r="A34" s="2"/>
       <c r="B34" s="2" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D34" s="5"/>
     </row>
     <row r="35" spans="1:5" outlineLevel="1">
       <c r="A35" s="2"/>
       <c r="B35" s="2" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D35" s="5"/>
     </row>
     <row r="36" spans="1:5" outlineLevel="1">
       <c r="A36" s="2"/>
       <c r="B36" s="2" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D36" s="5"/>
     </row>
     <row r="37" spans="1:5" outlineLevel="1">
       <c r="A37" s="2"/>
       <c r="B37" s="2" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D37" s="5"/>
     </row>
     <row r="38" spans="1:5" outlineLevel="1">
       <c r="A38" s="2"/>
       <c r="B38" s="2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D38" s="5"/>
     </row>
     <row r="39" spans="1:5" outlineLevel="1">
       <c r="A39" s="2"/>
       <c r="B39" s="2" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D39" s="5"/>
     </row>
     <row r="40" spans="1:5" outlineLevel="1">
       <c r="A40" s="2"/>
       <c r="B40" s="2" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="20" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -11610,46 +11630,46 @@
     <row r="42" spans="1:5" outlineLevel="1">
       <c r="A42" s="2"/>
       <c r="B42" s="3" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C42" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="D42" s="5" t="s">
         <v>591</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="43" spans="1:5" outlineLevel="1">
       <c r="A43" s="2"/>
       <c r="B43" s="3" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="44" spans="1:5" outlineLevel="1">
       <c r="A44" s="2"/>
       <c r="B44" s="3" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="45" spans="1:5" outlineLevel="1">
       <c r="A45" s="2"/>
       <c r="B45" s="3" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>267</v>
@@ -11658,67 +11678,67 @@
     <row r="46" spans="1:5" outlineLevel="1">
       <c r="A46" s="2"/>
       <c r="B46" s="3" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C46" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="D46" s="5" t="s">
         <v>600</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="47" spans="1:5" outlineLevel="1">
       <c r="A47" s="2"/>
       <c r="B47" s="3" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C47" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="D47" s="5" t="s">
         <v>603</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="48" spans="1:5" outlineLevel="1">
       <c r="A48" s="2"/>
       <c r="B48" s="3" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C48" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="D48" s="5" t="s">
         <v>606</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="49" spans="1:5" outlineLevel="1">
       <c r="A49" s="2"/>
       <c r="B49" s="3" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C49" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="D49" s="5" t="s">
         <v>609</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="50" spans="1:5" outlineLevel="1">
       <c r="A50" s="2"/>
       <c r="B50" s="3" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C50" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="D50" s="5" t="s">
         <v>612</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="27" outlineLevel="1">
       <c r="A51" s="2"/>
       <c r="B51" s="2" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C51" s="31" t="str">
         <f>"set CUR_DIR_PATH=%~dp0
@@ -11733,49 +11753,49 @@
     <row r="52" spans="1:5" outlineLevel="1">
       <c r="A52" s="2"/>
       <c r="B52" s="3" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C52" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="D52" s="5" t="s">
         <v>615</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="53" spans="1:5" outlineLevel="1">
       <c r="A53" s="2"/>
       <c r="B53" s="3" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C53" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="D53" s="5" t="s">
         <v>618</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="54" spans="1:5" outlineLevel="1">
       <c r="A54" s="2"/>
       <c r="B54" s="3" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C54" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="D54" s="5" t="s">
         <v>621</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="55" spans="1:5" outlineLevel="1">
       <c r="A55" s="2"/>
       <c r="B55" s="3" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C55" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="D55" s="5" t="s">
         <v>624</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -11800,13 +11820,13 @@
         <v>516</v>
       </c>
       <c r="D57" s="30" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="58" spans="1:5" outlineLevel="1">
       <c r="A58" s="2"/>
       <c r="B58" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>517</v>
@@ -11818,7 +11838,7 @@
     <row r="59" spans="1:5" outlineLevel="1">
       <c r="A59" s="2"/>
       <c r="B59" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>518</v>
@@ -11830,13 +11850,13 @@
     <row r="60" spans="1:5" outlineLevel="1">
       <c r="A60" s="2"/>
       <c r="B60" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>519</v>
       </c>
       <c r="D60" s="30" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="61" spans="1:5" outlineLevel="1">
@@ -11860,19 +11880,19 @@
         <v>521</v>
       </c>
       <c r="D62" s="30" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="63" spans="1:5" outlineLevel="1">
       <c r="A63" s="2"/>
       <c r="B63" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>522</v>
       </c>
       <c r="D63" s="30" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="135" outlineLevel="1">
@@ -11884,100 +11904,100 @@
         <v>523</v>
       </c>
       <c r="D64" s="30" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="94.5" outlineLevel="1">
       <c r="A65" s="2"/>
       <c r="B65" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>524</v>
       </c>
       <c r="D65" s="30" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="66" spans="1:4" outlineLevel="1">
       <c r="A66" s="2"/>
       <c r="B66" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>525</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="67" spans="1:4" outlineLevel="1">
       <c r="A67" s="2"/>
       <c r="B67" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>526</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="68" spans="1:4" outlineLevel="1">
       <c r="A68" s="2"/>
       <c r="B68" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>527</v>
       </c>
       <c r="D68" s="30" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="69" spans="1:4" outlineLevel="1">
       <c r="A69" s="2"/>
       <c r="B69" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>528</v>
       </c>
       <c r="D69" s="30" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="70" spans="1:4" outlineLevel="1">
       <c r="A70" s="2"/>
       <c r="B70" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>529</v>
       </c>
       <c r="D70" s="30" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="27" outlineLevel="1">
       <c r="A71" s="2"/>
       <c r="B71" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="D71" s="30" t="s">
         <v>579</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>580</v>
-      </c>
-      <c r="D71" s="30" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="72" spans="1:4" outlineLevel="1">
       <c r="A72" s="2"/>
       <c r="B72" s="2" t="s">
-        <v>571</v>
+        <v>727</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>537</v>
+        <v>725</v>
       </c>
       <c r="D72" s="5" t="s">
         <v>123</v>
@@ -11986,10 +12006,10 @@
     <row r="73" spans="1:4" outlineLevel="1">
       <c r="A73" s="2"/>
       <c r="B73" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D73" s="5" t="s">
         <v>123</v>
@@ -11998,22 +12018,22 @@
     <row r="74" spans="1:4" outlineLevel="1">
       <c r="A74" s="2"/>
       <c r="B74" s="2" t="s">
-        <v>564</v>
+        <v>728</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>530</v>
+        <v>726</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>123</v>
+        <v>729</v>
       </c>
     </row>
     <row r="75" spans="1:4" outlineLevel="1">
       <c r="A75" s="2"/>
       <c r="B75" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D75" s="5" t="s">
         <v>123</v>
@@ -12022,10 +12042,10 @@
     <row r="76" spans="1:4" outlineLevel="1">
       <c r="A76" s="2"/>
       <c r="B76" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D76" s="5" t="s">
         <v>123</v>
@@ -12034,10 +12054,10 @@
     <row r="77" spans="1:4" outlineLevel="1">
       <c r="A77" s="2"/>
       <c r="B77" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D77" s="5" t="s">
         <v>123</v>
@@ -12045,9 +12065,15 @@
     </row>
     <row r="78" spans="1:4" outlineLevel="1">
       <c r="A78" s="2"/>
-      <c r="B78" s="2"/>
-      <c r="C78" s="4"/>
-      <c r="D78" s="5"/>
+      <c r="B78" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="79" spans="1:4" outlineLevel="1">
       <c r="A79" s="2"/>

--- a/言語チートシート.xlsx
+++ b/言語チートシート.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9,9 +9,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{230C1E4D-4D5F-45CE-9988-27817BB98891}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65434E5C-741D-4885-AA37-E26E0262E998}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="26700" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2220" yWindow="-120" windowWidth="26700" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vbs,vba" sheetId="43" r:id="rId1"/>
@@ -48,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C93" authorId="0" shapeId="0" xr:uid="{30E5E05C-5866-450B-9A92-8708F3312203}">
+    <comment ref="C94" authorId="0" shapeId="0" xr:uid="{30E5E05C-5866-450B-9A92-8708F3312203}">
       <text>
         <r>
           <rPr>
@@ -63,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B105" authorId="0" shapeId="0" xr:uid="{2F2293EE-203B-4A8D-8D36-7A148CEE3BB1}">
+    <comment ref="B106" authorId="0" shapeId="0" xr:uid="{2F2293EE-203B-4A8D-8D36-7A148CEE3BB1}">
       <text>
         <r>
           <rPr>
@@ -78,7 +78,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C106" authorId="0" shapeId="0" xr:uid="{A28ED36A-D87E-4F2B-9BC4-F256870A96AA}">
+    <comment ref="C107" authorId="0" shapeId="0" xr:uid="{A28ED36A-D87E-4F2B-9BC4-F256870A96AA}">
       <text>
         <r>
           <rPr>
@@ -93,7 +93,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B111" authorId="0" shapeId="0" xr:uid="{A70339C8-21D4-47A8-B6EE-452435752767}">
+    <comment ref="B112" authorId="0" shapeId="0" xr:uid="{A70339C8-21D4-47A8-B6EE-452435752767}">
       <text>
         <r>
           <rPr>
@@ -138,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1559" uniqueCount="730">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1565" uniqueCount="733">
   <si>
     <t>変数強制定義</t>
   </si>
@@ -595,9 +595,6 @@
     <t>構造体定義</t>
   </si>
   <si>
-    <t>関数エラー値返却</t>
-  </si>
-  <si>
     <t>マクロ定義</t>
   </si>
   <si>
@@ -1684,10 +1681,6 @@
   </si>
   <si>
     <t>CLng("&amp;H" &amp; "FA")</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>#VALUEを返却（エラー値の詳細はこちら）</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -3148,6 +3141,41 @@
       <t>シヨウ</t>
     </rPh>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>スクリプト引数の数 取得</t>
+  </si>
+  <si>
+    <t>スクリプト引数 取得</t>
+    <rPh sb="5" eb="7">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>0:第一引数,1:第二引数,…</t>
+    <rPh sb="2" eb="4">
+      <t>ダイイチ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ダイニ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒキスウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>WScript.Arguments(0)</t>
+  </si>
+  <si>
+    <t>WScript.Arguments.Count</t>
   </si>
 </sst>
 </file>
@@ -3844,13 +3872,13 @@
   <sheetPr codeName="Sheet1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F375"/>
+  <dimension ref="A1:F376"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C316" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D356" sqref="D356"/>
+      <selection pane="bottomRight" activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -3877,14 +3905,14 @@
     </row>
     <row r="2" spans="1:6" ht="27">
       <c r="A2" s="14" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="16" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E2" s="19" t="s">
         <v>127</v>
@@ -3895,7 +3923,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="20" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -3933,10 +3961,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="11" t="s">
@@ -3949,10 +3977,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="11" t="s">
@@ -3965,10 +3993,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="11" t="s">
@@ -3981,10 +4009,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="11" t="s">
@@ -4001,10 +4029,10 @@
         <v>Dim 配列変数名(最終要素番号)</v>
       </c>
       <c r="D9" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>418</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>419</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>123</v>
@@ -4013,16 +4041,16 @@
     <row r="10" spans="1:6" outlineLevel="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="C10" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>344</v>
-      </c>
       <c r="E10" s="5" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>123</v>
@@ -4034,7 +4062,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D11" s="4" t="str">
         <f>"Const NUM As Integer = 1"</f>
@@ -4053,7 +4081,7 @@
         <v>141</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D12" s="4" t="str">
         <f>"Type T_XXX
@@ -4066,7 +4094,7 @@
 End Type</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>123</v>
@@ -4075,10 +4103,10 @@
     <row r="13" spans="1:6" outlineLevel="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D13" s="4" t="str">
         <f>"Enum E_XXX
@@ -4091,7 +4119,7 @@
 End Enum</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>123</v>
@@ -4100,7 +4128,7 @@
     <row r="14" spans="1:6" outlineLevel="1">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C14" s="10" t="str">
         <f>"Public Sub SubA ( _
@@ -4212,7 +4240,7 @@
     <row r="18" spans="1:6" outlineLevel="1">
       <c r="A18" s="2"/>
       <c r="B18" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C18" s="4" t="str">
         <f>"If iVal = 1 Or iVal = 2 Then"&amp;CHAR(10)&amp;"ElseIf iVal = 3 Then"&amp;CHAR(10)&amp;"Else"&amp;CHAR(10)&amp;"End If"</f>
@@ -4238,7 +4266,7 @@
     <row r="19" spans="1:6" outlineLevel="1">
       <c r="A19" s="2"/>
       <c r="B19" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C19" s="4" t="str">
         <f>"If objTest Is Nothing Then"&amp;CHAR(10)&amp;"Else"&amp;CHAR(10)&amp;"End If"</f>
@@ -4262,7 +4290,7 @@
     <row r="20" spans="1:6" outlineLevel="1">
       <c r="A20" s="2"/>
       <c r="B20" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C20" s="4" t="str">
         <f>"Select Case iVal"&amp;CHAR(10)&amp;"Case 1"&amp;CHAR(10)&amp;"Case Else"&amp;CHAR(10)&amp;"End Select"</f>
@@ -4288,7 +4316,7 @@
     <row r="21" spans="1:6" outlineLevel="1">
       <c r="A21" s="2"/>
       <c r="B21" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C21" s="4" t="str">
         <f>"For iVal1 = 1 To 3 [Step 1]"&amp;CHAR(10)&amp;"Next"</f>
@@ -4310,7 +4338,7 @@
     <row r="22" spans="1:6" outlineLevel="1">
       <c r="A22" s="2"/>
       <c r="B22" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C22" s="4" t="str">
         <f>"For Each Value in Values"&amp;CHAR(10)&amp;"Next"</f>
@@ -4333,7 +4361,7 @@
     <row r="23" spans="1:6" outlineLevel="1">
       <c r="A23" s="2"/>
       <c r="B23" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C23" s="4" t="str">
         <f>"Do"&amp;CHAR(10)&amp;CHAR(9)&amp;" 条件式＝真 "&amp;CHAR(10)&amp;"Loop While 条件式"</f>
@@ -4357,7 +4385,7 @@
     <row r="24" spans="1:6" outlineLevel="1">
       <c r="A24" s="2"/>
       <c r="B24" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C24" s="4" t="str">
         <f>"Do While 条件式"&amp;CHAR(10)&amp;CHAR(9)&amp;"条件式＝真"&amp;CHAR(10)&amp;"Loop"</f>
@@ -4381,7 +4409,7 @@
     <row r="25" spans="1:6" outlineLevel="1">
       <c r="A25" s="2"/>
       <c r="B25" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C25" s="4" t="str">
         <f>"Do Until 条件式"&amp;CHAR(10)&amp;CHAR(9)&amp;"条件式＝偽"&amp;CHAR(10)&amp;"Loop"</f>
@@ -4447,7 +4475,7 @@
     <row r="28" spans="1:6" outlineLevel="1">
       <c r="A28" s="2"/>
       <c r="B28" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C28" s="4" t="str">
         <f>"sStr = InputBox( ""message"", ""title"", ""default value"" )"</f>
@@ -4467,7 +4495,7 @@
     <row r="29" spans="1:6" outlineLevel="1">
       <c r="A29" s="2"/>
       <c r="B29" s="3" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C29" s="4" t="str">
         <f>"sStr = InputBox(""数値を入力してください。"")
@@ -4515,17 +4543,17 @@
     <row r="30" spans="1:6" outlineLevel="1">
       <c r="A30" s="2"/>
       <c r="B30" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C30" s="4" t="str">
         <f>"MsgBox ""Hello world"", vbOKOnly, ""title"""</f>
         <v>MsgBox "Hello world", vbOKOnly, "title"</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F30" s="11" t="s">
         <v>123</v>
@@ -4534,7 +4562,7 @@
     <row r="31" spans="1:6" outlineLevel="1">
       <c r="A31" s="2"/>
       <c r="B31" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C31" s="4" t="str">
         <f>"WScript.Echo ""Hello world"""</f>
@@ -4554,14 +4582,14 @@
     <row r="32" spans="1:6" outlineLevel="1">
       <c r="A32" s="2"/>
       <c r="B32" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C32" s="4" t="str">
         <f>"Wscript.StdOut.WriteLine ""Hello world"""</f>
         <v>Wscript.StdOut.WriteLine "Hello world"</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>124</v>
@@ -4573,7 +4601,7 @@
     <row r="33" spans="1:6" outlineLevel="1">
       <c r="A33" s="2"/>
       <c r="B33" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C33" s="4" t="str">
         <f>"Dim vAnswer" &amp; CHAR(10) &amp; "vAnswer = MsgBox(""処理を継続しますか？"", vbOkCancel, ""title"")" &amp; CHAR(10) &amp; "If vAnswer = vbCancel Then" &amp; CHAR(10) &amp; "    MsgBox ""キャンセルが押されたため、処理を中断します。"", vbExclamation, ""title""" &amp; CHAR(10) &amp; "    WScript.Quit" &amp; CHAR(10) &amp; "End If"</f>
@@ -4603,17 +4631,17 @@
     <row r="34" spans="1:6" outlineLevel="1">
       <c r="A34" s="2"/>
       <c r="B34" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D34" s="4" t="str">
         <f>"Debug.Assert 条件式"</f>
         <v>Debug.Assert 条件式</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F34" s="11" t="s">
         <v>123</v>
@@ -4683,10 +4711,10 @@
     <row r="38" spans="1:6" outlineLevel="1">
       <c r="A38" s="2"/>
       <c r="B38" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D38" s="4" t="str">
         <f>"Stop"</f>
@@ -4722,52 +4750,47 @@
     <row r="40" spans="1:6" outlineLevel="1">
       <c r="A40" s="2"/>
       <c r="B40" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C40" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="D40" s="4" t="str">
-        <f>"Dim vRetVal As Variant
-vRetVal = CVErr(xlErrRef)"</f>
-        <v>Dim vRetVal As Variant
-vRetVal = CVErr(xlErrRef)</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>422</v>
+        <v>729</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>731</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>730</v>
       </c>
       <c r="F40" s="11" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="20" t="s">
-        <v>360</v>
-      </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="21" t="s">
+    <row r="41" spans="1:6" outlineLevel="1">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>732</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="E41" s="5" t="s">
         <v>123</v>
       </c>
       <c r="F41" s="11" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="42" spans="1:6" outlineLevel="1">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C42" s="4" t="str">
-        <f>"Replace(文字列変数, ""  "", """")"</f>
-        <v>Replace(文字列変数, "  ", "")</v>
-      </c>
-      <c r="D42" s="4" t="str">
-        <f>"Replace(文字列変数, ""  "", """")"</f>
-        <v>Replace(文字列変数, "  ", "")</v>
-      </c>
-      <c r="E42" s="5" t="s">
+    <row r="42" spans="1:6">
+      <c r="A42" s="20" t="s">
+        <v>359</v>
+      </c>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="21" t="s">
         <v>123</v>
       </c>
       <c r="F42" s="11" t="s">
@@ -4777,18 +4800,18 @@
     <row r="43" spans="1:6" outlineLevel="1">
       <c r="A43" s="2"/>
       <c r="B43" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C43" s="4" t="str">
-        <f>"InStr(""abcabc"", ""bc"")"</f>
-        <v>InStr("abcabc", "bc")</v>
+        <f>"Replace(文字列変数, ""  "", """")"</f>
+        <v>Replace(文字列変数, "  ", "")</v>
       </c>
       <c r="D43" s="4" t="str">
-        <f>"InStr(""abcabc"", ""bc"")"</f>
-        <v>InStr("abcabc", "bc")</v>
+        <f>"Replace(文字列変数, ""  "", """")"</f>
+        <v>Replace(文字列変数, "  ", "")</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>416</v>
+        <v>123</v>
       </c>
       <c r="F43" s="11" t="s">
         <v>123</v>
@@ -4797,18 +4820,18 @@
     <row r="44" spans="1:6" outlineLevel="1">
       <c r="A44" s="2"/>
       <c r="B44" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C44" s="4" t="str">
-        <f>"InStrRev(""abcabc"", ""bc"")"</f>
-        <v>InStrRev("abcabc", "bc")</v>
+        <f>"InStr(""abcabc"", ""bc"")"</f>
+        <v>InStr("abcabc", "bc")</v>
       </c>
       <c r="D44" s="4" t="str">
-        <f>"InStrRev(""abcabc"", ""bc"")"</f>
-        <v>InStrRev("abcabc", "bc")</v>
+        <f>"InStr(""abcabc"", ""bc"")"</f>
+        <v>InStr("abcabc", "bc")</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F44" s="11" t="s">
         <v>123</v>
@@ -4817,18 +4840,18 @@
     <row r="45" spans="1:6" outlineLevel="1">
       <c r="A45" s="2"/>
       <c r="B45" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C45" s="4" t="str">
-        <f>"Len(""リンゴ"""</f>
-        <v>Len("リンゴ"</v>
+        <f>"InStrRev(""abcabc"", ""bc"")"</f>
+        <v>InStrRev("abcabc", "bc")</v>
       </c>
       <c r="D45" s="4" t="str">
-        <f>"Len(""リンゴ"")"</f>
-        <v>Len("リンゴ")</v>
-      </c>
-      <c r="E45" s="5">
-        <v>3</v>
+        <f>"InStrRev(""abcabc"", ""bc"")"</f>
+        <v>InStrRev("abcabc", "bc")</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>416</v>
       </c>
       <c r="F45" s="11" t="s">
         <v>123</v>
@@ -4837,17 +4860,18 @@
     <row r="46" spans="1:6" outlineLevel="1">
       <c r="A46" s="2"/>
       <c r="B46" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>339</v>
+        <v>66</v>
+      </c>
+      <c r="C46" s="4" t="str">
+        <f>"Len(""リンゴ"")"</f>
+        <v>Len("リンゴ")</v>
       </c>
       <c r="D46" s="4" t="str">
-        <f>"LenB(""リンゴ"")"</f>
-        <v>LenB("リンゴ")</v>
+        <f>"Len(""リンゴ"")"</f>
+        <v>Len("リンゴ")</v>
       </c>
       <c r="E46" s="5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F46" s="11" t="s">
         <v>123</v>
@@ -4856,18 +4880,17 @@
     <row r="47" spans="1:6" outlineLevel="1">
       <c r="A47" s="2"/>
       <c r="B47" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C47" s="4" t="str">
-        <f>"""abcdef"" &amp; ""gh"""</f>
-        <v>"abcdef" &amp; "gh"</v>
+        <v>67</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>338</v>
       </c>
       <c r="D47" s="4" t="str">
-        <f>"abcdef &amp; ""gh"""</f>
-        <v>abcdef &amp; "gh"</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>123</v>
+        <f>"LenB(""リンゴ"")"</f>
+        <v>LenB("リンゴ")</v>
+      </c>
+      <c r="E47" s="5">
+        <v>6</v>
       </c>
       <c r="F47" s="11" t="s">
         <v>123</v>
@@ -4876,18 +4899,18 @@
     <row r="48" spans="1:6" outlineLevel="1">
       <c r="A48" s="2"/>
       <c r="B48" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C48" s="4" t="str">
-        <f>"Left(""abcd"", 3)"</f>
-        <v>Left("abcd", 3)</v>
+        <f>"""abcdef"" &amp; ""gh"""</f>
+        <v>"abcdef" &amp; "gh"</v>
       </c>
       <c r="D48" s="4" t="str">
-        <f>"Left$(""abcd"", 3)"</f>
-        <v>Left$("abcd", 3)</v>
+        <f>"abcdef &amp; ""gh"""</f>
+        <v>abcdef &amp; "gh"</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>292</v>
+        <v>123</v>
       </c>
       <c r="F48" s="11" t="s">
         <v>123</v>
@@ -4896,18 +4919,18 @@
     <row r="49" spans="1:6" outlineLevel="1">
       <c r="A49" s="2"/>
       <c r="B49" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C49" s="4" t="str">
-        <f>"Mid(""abcdefgh"", 3, 2)"</f>
-        <v>Mid("abcdefgh", 3, 2)</v>
+        <f>"Left(""abcd"", 3)"</f>
+        <v>Left("abcd", 3)</v>
       </c>
       <c r="D49" s="4" t="str">
-        <f>"Mid$(""abcdefgh"", 3, 2)"</f>
-        <v>Mid$("abcdefgh", 3, 2)</v>
+        <f>"Left$(""abcd"", 3)"</f>
+        <v>Left$("abcd", 3)</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F49" s="11" t="s">
         <v>123</v>
@@ -4916,18 +4939,18 @@
     <row r="50" spans="1:6" outlineLevel="1">
       <c r="A50" s="2"/>
       <c r="B50" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C50" s="4" t="str">
-        <f>"Right(""abcd"", 2)"</f>
-        <v>Right("abcd", 2)</v>
+        <f>"Mid(""abcdefgh"", 3, 2)"</f>
+        <v>Mid("abcdefgh", 3, 2)</v>
       </c>
       <c r="D50" s="4" t="str">
-        <f>"Right$(""abcd"", 2)"</f>
-        <v>Right$("abcd", 2)</v>
+        <f>"Mid$(""abcdefgh"", 3, 2)"</f>
+        <v>Mid$("abcdefgh", 3, 2)</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F50" s="11" t="s">
         <v>123</v>
@@ -4936,16 +4959,18 @@
     <row r="51" spans="1:6" outlineLevel="1">
       <c r="A51" s="2"/>
       <c r="B51" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>321</v>
+        <v>71</v>
+      </c>
+      <c r="C51" s="4" t="str">
+        <f>"Right(""abcd"", 2)"</f>
+        <v>Right("abcd", 2)</v>
+      </c>
+      <c r="D51" s="4" t="str">
+        <f>"Right$(""abcd"", 2)"</f>
+        <v>Right$("abcd", 2)</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>324</v>
+        <v>293</v>
       </c>
       <c r="F51" s="11" t="s">
         <v>123</v>
@@ -4954,16 +4979,16 @@
     <row r="52" spans="1:6" outlineLevel="1">
       <c r="A52" s="2"/>
       <c r="B52" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D52" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="E52" s="5" t="s">
         <v>323</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>325</v>
       </c>
       <c r="F52" s="11" t="s">
         <v>123</v>
@@ -4972,16 +4997,16 @@
     <row r="53" spans="1:6" outlineLevel="1">
       <c r="A53" s="2"/>
       <c r="B53" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>409</v>
+        <v>324</v>
       </c>
       <c r="F53" s="11" t="s">
         <v>123</v>
@@ -4990,18 +5015,16 @@
     <row r="54" spans="1:6" outlineLevel="1">
       <c r="A54" s="2"/>
       <c r="B54" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C54" s="4" t="str">
-        <f>"Asc(文字)"</f>
-        <v>Asc(文字)</v>
-      </c>
-      <c r="D54" s="4" t="str">
-        <f>"Asc(文字)"</f>
-        <v>Asc(文字)</v>
+        <v>336</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>319</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>123</v>
+        <v>408</v>
       </c>
       <c r="F54" s="11" t="s">
         <v>123</v>
@@ -5010,18 +5033,18 @@
     <row r="55" spans="1:6" outlineLevel="1">
       <c r="A55" s="2"/>
       <c r="B55" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C55" s="4" t="str">
-        <f>"IsNumeric( sStr )"</f>
-        <v>IsNumeric( sStr )</v>
+        <f>"Asc(文字)"</f>
+        <v>Asc(文字)</v>
       </c>
       <c r="D55" s="4" t="str">
-        <f>"IsNumeric( sStr )"</f>
-        <v>IsNumeric( sStr )</v>
+        <f>"Asc(文字)"</f>
+        <v>Asc(文字)</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>410</v>
+        <v>123</v>
       </c>
       <c r="F55" s="11" t="s">
         <v>123</v>
@@ -5030,18 +5053,18 @@
     <row r="56" spans="1:6" outlineLevel="1">
       <c r="A56" s="2"/>
       <c r="B56" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C56" s="4" t="str">
-        <f>"Chr(ASCIIコード)"</f>
-        <v>Chr(ASCIIコード)</v>
+        <f>"IsNumeric( sStr )"</f>
+        <v>IsNumeric( sStr )</v>
       </c>
       <c r="D56" s="4" t="str">
-        <f>"Chr(ASCIIコード)"</f>
-        <v>Chr(ASCIIコード)</v>
+        <f>"IsNumeric( sStr )"</f>
+        <v>IsNumeric( sStr )</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F56" s="11" t="s">
         <v>123</v>
@@ -5050,18 +5073,18 @@
     <row r="57" spans="1:6" outlineLevel="1">
       <c r="A57" s="2"/>
       <c r="B57" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C57" s="4" t="str">
-        <f>"""a"" &amp; String(4, ""b"")"</f>
-        <v>"a" &amp; String(4, "b")</v>
+        <f>"Chr(ASCIIコード)"</f>
+        <v>Chr(ASCIIコード)</v>
       </c>
       <c r="D57" s="4" t="str">
-        <f>"""a"" &amp; String(4, ""b"")"</f>
-        <v>"a" &amp; String(4, "b")</v>
+        <f>"Chr(ASCIIコード)"</f>
+        <v>Chr(ASCIIコード)</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>295</v>
+        <v>410</v>
       </c>
       <c r="F57" s="11" t="s">
         <v>123</v>
@@ -5070,18 +5093,18 @@
     <row r="58" spans="1:6" outlineLevel="1">
       <c r="A58" s="2"/>
       <c r="B58" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C58" s="4" t="str">
-        <f>"UCase(""aaa"")"</f>
-        <v>UCase("aaa")</v>
+        <f>"""a"" &amp; String(4, ""b"")"</f>
+        <v>"a" &amp; String(4, "b")</v>
       </c>
       <c r="D58" s="4" t="str">
-        <f>"UCase(""aaa"")"</f>
-        <v>UCase("aaa")</v>
+        <f>"""a"" &amp; String(4, ""b"")"</f>
+        <v>"a" &amp; String(4, "b")</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>123</v>
+        <v>294</v>
       </c>
       <c r="F58" s="11" t="s">
         <v>123</v>
@@ -5090,15 +5113,15 @@
     <row r="59" spans="1:6" outlineLevel="1">
       <c r="A59" s="2"/>
       <c r="B59" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C59" s="4" t="str">
-        <f>"LCase(""AAA"")"</f>
-        <v>LCase("AAA")</v>
+        <f>"UCase(""aaa"")"</f>
+        <v>UCase("aaa")</v>
       </c>
       <c r="D59" s="4" t="str">
-        <f>"LCase(""AAA"")"</f>
-        <v>LCase("AAA")</v>
+        <f>"UCase(""aaa"")"</f>
+        <v>UCase("aaa")</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>123</v>
@@ -5110,18 +5133,18 @@
     <row r="60" spans="1:6" outlineLevel="1">
       <c r="A60" s="2"/>
       <c r="B60" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C60" s="4" t="str">
-        <f>"ReDim Preserve 配列名(5)"</f>
-        <v>ReDim Preserve 配列名(5)</v>
+        <f>"LCase(""AAA"")"</f>
+        <v>LCase("AAA")</v>
       </c>
       <c r="D60" s="4" t="str">
-        <f>"ReDim Preserve 配列名(5)"</f>
-        <v>ReDim Preserve 配列名(5)</v>
+        <f>"LCase(""AAA"")"</f>
+        <v>LCase("AAA")</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>256</v>
+        <v>123</v>
       </c>
       <c r="F60" s="11" t="s">
         <v>123</v>
@@ -5130,18 +5153,18 @@
     <row r="61" spans="1:6" outlineLevel="1">
       <c r="A61" s="2"/>
       <c r="B61" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C61" s="4" t="str">
-        <f>"UBound(配列名)"</f>
-        <v>UBound(配列名)</v>
+        <f>"ReDim Preserve 配列名(5)"</f>
+        <v>ReDim Preserve 配列名(5)</v>
       </c>
       <c r="D61" s="4" t="str">
-        <f>"UBound(配列名)"</f>
-        <v>UBound(配列名)</v>
+        <f>"ReDim Preserve 配列名(5)"</f>
+        <v>ReDim Preserve 配列名(5)</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>296</v>
+        <v>255</v>
       </c>
       <c r="F61" s="11" t="s">
         <v>123</v>
@@ -5150,9 +5173,29 @@
     <row r="62" spans="1:6" outlineLevel="1">
       <c r="A62" s="2"/>
       <c r="B62" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C62" s="4" t="str">
+        <f>"UBound(配列名)"</f>
+        <v>UBound(配列名)</v>
+      </c>
+      <c r="D62" s="4" t="str">
+        <f>"UBound(配列名)"</f>
+        <v>UBound(配列名)</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="F62" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" outlineLevel="1">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C62" s="4" t="str">
+      <c r="C63" s="4" t="str">
         <f>"Dim asArray()"&amp;CHAR(10)&amp;"ReDim asArray(-1)"&amp;CHAR(10)&amp;"If Ubound(asArray) = -1 Then"&amp;CHAR(10)&amp;CHAR(9)&amp;"'未定義配列"&amp;CHAR(10)&amp;"Else"&amp;CHAR(10)&amp;CHAR(9)&amp;"'定義済み配列"&amp;CHAR(10)&amp;"End If"</f>
         <v>Dim asArray()
 ReDim asArray(-1)
@@ -5162,7 +5205,7 @@
 	'定義済み配列
 End If</v>
       </c>
-      <c r="D62" s="4" t="str">
+      <c r="D63" s="4" t="str">
         <f>"If Sgn(asStr) = 0 Then"&amp;CHAR(10)&amp;CHAR(9)&amp;"未初期化配列"&amp;CHAR(10)&amp;"Else"&amp;CHAR(10)&amp;CHAR(9)&amp;"要素数１配列"&amp;CHAR(10)&amp;"End If"</f>
         <v>If Sgn(asStr) = 0 Then
 	未初期化配列
@@ -5170,26 +5213,6 @@
 	要素数１配列
 End If</v>
       </c>
-      <c r="E62" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F62" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" outlineLevel="1">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C63" s="4" t="str">
-        <f>"Join(配列, "","")"</f>
-        <v>Join(配列, ",")</v>
-      </c>
-      <c r="D63" s="4" t="str">
-        <f>"Join(配列, "","")"</f>
-        <v>Join(配列, ",")</v>
-      </c>
       <c r="E63" s="5" t="s">
         <v>123</v>
       </c>
@@ -5200,18 +5223,18 @@
     <row r="64" spans="1:6" outlineLevel="1">
       <c r="A64" s="2"/>
       <c r="B64" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C64" s="4" t="str">
-        <f>"objWords = Split( sFilePath , ""\"" )"</f>
-        <v>objWords = Split( sFilePath , "\" )</v>
+        <f>"Join(配列, "","")"</f>
+        <v>Join(配列, ",")</v>
       </c>
       <c r="D64" s="4" t="str">
-        <f>"文字列配列 = Split(""aaa,bbb,ccc"", "","")"</f>
-        <v>文字列配列 = Split("aaa,bbb,ccc", ",")</v>
+        <f>"Join(配列, "","")"</f>
+        <v>Join(配列, ",")</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F64" s="11" t="s">
         <v>123</v>
@@ -5220,18 +5243,18 @@
     <row r="65" spans="1:6" outlineLevel="1">
       <c r="A65" s="2"/>
       <c r="B65" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C65" s="4" t="str">
-        <f>"TypeName(""Test"")"</f>
-        <v>TypeName("Test")</v>
+        <f>"objWords = Split( sFilePath , ""\"" )"</f>
+        <v>objWords = Split( sFilePath , "\" )</v>
       </c>
       <c r="D65" s="4" t="str">
-        <f>"TypeName(""Test"")"</f>
-        <v>TypeName("Test")</v>
+        <f>"文字列配列 = Split(""aaa,bbb,ccc"", "","")"</f>
+        <v>文字列配列 = Split("aaa,bbb,ccc", ",")</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>297</v>
+        <v>128</v>
       </c>
       <c r="F65" s="11" t="s">
         <v>123</v>
@@ -5240,18 +5263,18 @@
     <row r="66" spans="1:6" outlineLevel="1">
       <c r="A66" s="2"/>
       <c r="B66" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C66" s="4" t="str">
-        <f>"VarType(""Test"")"</f>
-        <v>VarType("Test")</v>
+        <f>"TypeName(""Test"")"</f>
+        <v>TypeName("Test")</v>
       </c>
       <c r="D66" s="4" t="str">
-        <f>"VarType(""Test"")"</f>
-        <v>VarType("Test")</v>
-      </c>
-      <c r="E66" s="9" t="s">
-        <v>412</v>
+        <f>"TypeName(""Test"")"</f>
+        <v>TypeName("Test")</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>296</v>
       </c>
       <c r="F66" s="11" t="s">
         <v>123</v>
@@ -5260,18 +5283,18 @@
     <row r="67" spans="1:6" outlineLevel="1">
       <c r="A67" s="2"/>
       <c r="B67" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C67" s="4" t="str">
-        <f>"Hex(734)"</f>
-        <v>Hex(734)</v>
+        <f>"VarType(""Test"")"</f>
+        <v>VarType("Test")</v>
       </c>
       <c r="D67" s="4" t="str">
-        <f>"文字列変数 = Hex(734)"</f>
-        <v>文字列変数 = Hex(734)</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>123</v>
+        <f>"VarType(""Test"")"</f>
+        <v>VarType("Test")</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>411</v>
       </c>
       <c r="F67" s="11" t="s">
         <v>123</v>
@@ -5280,14 +5303,15 @@
     <row r="68" spans="1:6" outlineLevel="1">
       <c r="A68" s="2"/>
       <c r="B68" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C68" s="4" t="str">
-        <f>"CLng(""&amp;H"" &amp; ""FA"")"</f>
-        <v>CLng("&amp;H" &amp; "FA")</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>421</v>
+        <f>"Hex(734)"</f>
+        <v>Hex(734)</v>
+      </c>
+      <c r="D68" s="4" t="str">
+        <f>"文字列変数 = Hex(734)"</f>
+        <v>文字列変数 = Hex(734)</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>123</v>
@@ -5299,15 +5323,14 @@
     <row r="69" spans="1:6" outlineLevel="1">
       <c r="A69" s="2"/>
       <c r="B69" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C69" s="4" t="str">
-        <f>"&amp;HFFF0"</f>
-        <v>&amp;HFFF0</v>
-      </c>
-      <c r="D69" s="4" t="str">
-        <f>"&amp;HFFF0"</f>
-        <v>&amp;HFFF0</v>
+        <f>"CLng(""&amp;H"" &amp; ""FA"")"</f>
+        <v>CLng("&amp;H" &amp; "FA")</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>420</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>123</v>
@@ -5319,15 +5342,15 @@
     <row r="70" spans="1:6" outlineLevel="1">
       <c r="A70" s="2"/>
       <c r="B70" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C70" s="4" t="str">
-        <f>"&amp;HFFF0&amp;"</f>
-        <v>&amp;HFFF0&amp;</v>
+        <f>"&amp;HFFF0"</f>
+        <v>&amp;HFFF0</v>
       </c>
       <c r="D70" s="4" t="str">
-        <f>"&amp;HFFF0&amp;"</f>
-        <v>&amp;HFFF0&amp;</v>
+        <f>"&amp;HFFF0"</f>
+        <v>&amp;HFFF0</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>123</v>
@@ -5339,18 +5362,18 @@
     <row r="71" spans="1:6" outlineLevel="1">
       <c r="A71" s="2"/>
       <c r="B71" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C71" s="4" t="str">
-        <f>"CStr(234.5)"</f>
-        <v>CStr(234.5)</v>
+        <f>"&amp;HFFF0&amp;"</f>
+        <v>&amp;HFFF0&amp;</v>
       </c>
       <c r="D71" s="4" t="str">
-        <f>"Val(文字列式)"</f>
-        <v>Val(文字列式)</v>
+        <f>"&amp;HFFF0&amp;"</f>
+        <v>&amp;HFFF0&amp;</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="F71" s="11" t="s">
         <v>123</v>
@@ -5359,18 +5382,18 @@
     <row r="72" spans="1:6" outlineLevel="1">
       <c r="A72" s="2"/>
       <c r="B72" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C72" s="4" t="str">
-        <f>"CDbl(""234.5"")"</f>
-        <v>CDbl("234.5")</v>
+        <f>"CStr(234.5)"</f>
+        <v>CStr(234.5)</v>
       </c>
       <c r="D72" s="4" t="str">
-        <f>"Str(数値)"</f>
-        <v>Str(数値)</v>
-      </c>
-      <c r="E72" s="5">
-        <v>234.5</v>
+        <f>"Val(文字列式)"</f>
+        <v>Val(文字列式)</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="F72" s="11" t="s">
         <v>123</v>
@@ -5379,18 +5402,18 @@
     <row r="73" spans="1:6" outlineLevel="1">
       <c r="A73" s="2"/>
       <c r="B73" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C73" s="4" t="str">
-        <f>"CLng(""234.5"")"</f>
-        <v>CLng("234.5")</v>
+        <f>"CDbl(""234.5"")"</f>
+        <v>CDbl("234.5")</v>
       </c>
       <c r="D73" s="4" t="str">
         <f>"Str(数値)"</f>
         <v>Str(数値)</v>
       </c>
       <c r="E73" s="5">
-        <v>234</v>
+        <v>234.5</v>
       </c>
       <c r="F73" s="11" t="s">
         <v>123</v>
@@ -5399,17 +5422,18 @@
     <row r="74" spans="1:6" outlineLevel="1">
       <c r="A74" s="2"/>
       <c r="B74" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C74" s="4" t="str">
-        <f>"vbNewLine"</f>
-        <v>vbNewLine</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>137</v>
+        <f>"CLng(""234.5"")"</f>
+        <v>CLng("234.5")</v>
+      </c>
+      <c r="D74" s="4" t="str">
+        <f>"Str(数値)"</f>
+        <v>Str(数値)</v>
+      </c>
+      <c r="E74" s="5">
+        <v>234</v>
       </c>
       <c r="F74" s="11" t="s">
         <v>123</v>
@@ -5418,18 +5442,17 @@
     <row r="75" spans="1:6" outlineLevel="1">
       <c r="A75" s="2"/>
       <c r="B75" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C75" s="4" t="str">
-        <f>"Fix( 99.224 )"</f>
-        <v>Fix( 99.224 )</v>
-      </c>
-      <c r="D75" s="4" t="str">
-        <f>"Fix( 99.224 )"</f>
-        <v>Fix( 99.224 )</v>
-      </c>
-      <c r="E75" s="5">
-        <v>99</v>
+        <f>"vbNewLine"</f>
+        <v>vbNewLine</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>137</v>
       </c>
       <c r="F75" s="11" t="s">
         <v>123</v>
@@ -5438,15 +5461,15 @@
     <row r="76" spans="1:6" outlineLevel="1">
       <c r="A76" s="2"/>
       <c r="B76" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C76" s="4" t="str">
-        <f>"Int( 99.224 )"</f>
-        <v>Int( 99.224 )</v>
+        <f>"Fix( 99.224 )"</f>
+        <v>Fix( 99.224 )</v>
       </c>
       <c r="D76" s="4" t="str">
-        <f>"Int( 99.224 )"</f>
-        <v>Int( 99.224 )</v>
+        <f>"Fix( 99.224 )"</f>
+        <v>Fix( 99.224 )</v>
       </c>
       <c r="E76" s="5">
         <v>99</v>
@@ -5458,18 +5481,18 @@
     <row r="77" spans="1:6" outlineLevel="1">
       <c r="A77" s="2"/>
       <c r="B77" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C77" s="4" t="str">
-        <f>"Fix( -99.224 )"</f>
-        <v>Fix( -99.224 )</v>
+        <f>"Int( 99.224 )"</f>
+        <v>Int( 99.224 )</v>
       </c>
       <c r="D77" s="4" t="str">
-        <f>"Fix( -99.224 )"</f>
-        <v>Fix( -99.224 )</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>132</v>
+        <f>"Int( 99.224 )"</f>
+        <v>Int( 99.224 )</v>
+      </c>
+      <c r="E77" s="5">
+        <v>99</v>
       </c>
       <c r="F77" s="11" t="s">
         <v>123</v>
@@ -5478,18 +5501,18 @@
     <row r="78" spans="1:6" outlineLevel="1">
       <c r="A78" s="2"/>
       <c r="B78" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C78" s="4" t="str">
-        <f>"Int( -99.224 )"</f>
-        <v>Int( -99.224 )</v>
+        <f>"Fix( -99.224 )"</f>
+        <v>Fix( -99.224 )</v>
       </c>
       <c r="D78" s="4" t="str">
-        <f>"Int( -99.224 )"</f>
-        <v>Int( -99.224 )</v>
+        <f>"Fix( -99.224 )"</f>
+        <v>Fix( -99.224 )</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F78" s="11" t="s">
         <v>123</v>
@@ -5498,18 +5521,18 @@
     <row r="79" spans="1:6" outlineLevel="1">
       <c r="A79" s="2"/>
       <c r="B79" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C79" s="4" t="str">
-        <f>"Round( 99.555, 0 )"</f>
-        <v>Round( 99.555, 0 )</v>
+        <f>"Int( -99.224 )"</f>
+        <v>Int( -99.224 )</v>
       </c>
       <c r="D79" s="4" t="str">
-        <f>"Round( 99.555, 0 )"</f>
-        <v>Round( 99.555, 0 )</v>
-      </c>
-      <c r="E79" s="5">
-        <v>100</v>
+        <f>"Int( -99.224 )"</f>
+        <v>Int( -99.224 )</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>133</v>
       </c>
       <c r="F79" s="11" t="s">
         <v>123</v>
@@ -5518,18 +5541,18 @@
     <row r="80" spans="1:6" outlineLevel="1">
       <c r="A80" s="2"/>
       <c r="B80" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C80" s="4" t="str">
-        <f>"Round( 99.555, 1 )"</f>
-        <v>Round( 99.555, 1 )</v>
+        <f>"Round( 99.555, 0 )"</f>
+        <v>Round( 99.555, 0 )</v>
       </c>
       <c r="D80" s="4" t="str">
-        <f>"Round( 99.555, 1 )"</f>
-        <v>Round( 99.555, 1 )</v>
+        <f>"Round( 99.555, 0 )"</f>
+        <v>Round( 99.555, 0 )</v>
       </c>
       <c r="E80" s="5">
-        <v>99.6</v>
+        <v>100</v>
       </c>
       <c r="F80" s="11" t="s">
         <v>123</v>
@@ -5538,18 +5561,18 @@
     <row r="81" spans="1:6" outlineLevel="1">
       <c r="A81" s="2"/>
       <c r="B81" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C81" s="4" t="str">
-        <f>"Round( 99.555, 2 )"</f>
-        <v>Round( 99.555, 2 )</v>
+        <f>"Round( 99.555, 1 )"</f>
+        <v>Round( 99.555, 1 )</v>
       </c>
       <c r="D81" s="4" t="str">
-        <f>"Round( 99.555, 2 )"</f>
-        <v>Round( 99.555, 2 )</v>
+        <f>"Round( 99.555, 1 )"</f>
+        <v>Round( 99.555, 1 )</v>
       </c>
       <c r="E81" s="5">
-        <v>99.56</v>
+        <v>99.6</v>
       </c>
       <c r="F81" s="11" t="s">
         <v>123</v>
@@ -5558,18 +5581,18 @@
     <row r="82" spans="1:6" outlineLevel="1">
       <c r="A82" s="2"/>
       <c r="B82" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C82" s="4" t="str">
-        <f>"Round( -99.555, 0 )"</f>
-        <v>Round( -99.555, 0 )</v>
+        <f>"Round( 99.555, 2 )"</f>
+        <v>Round( 99.555, 2 )</v>
       </c>
       <c r="D82" s="4" t="str">
-        <f>"Round( -99.555, 0 )"</f>
-        <v>Round( -99.555, 0 )</v>
+        <f>"Round( 99.555, 2 )"</f>
+        <v>Round( 99.555, 2 )</v>
       </c>
       <c r="E82" s="5">
-        <v>-100</v>
+        <v>99.56</v>
       </c>
       <c r="F82" s="11" t="s">
         <v>123</v>
@@ -5578,18 +5601,18 @@
     <row r="83" spans="1:6" outlineLevel="1">
       <c r="A83" s="2"/>
       <c r="B83" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C83" s="4" t="str">
-        <f>"Round( -99.555, 1 )"</f>
-        <v>Round( -99.555, 1 )</v>
+        <f>"Round( -99.555, 0 )"</f>
+        <v>Round( -99.555, 0 )</v>
       </c>
       <c r="D83" s="4" t="str">
-        <f>"Round( -99.555, 1 )"</f>
-        <v>Round( -99.555, 1 )</v>
+        <f>"Round( -99.555, 0 )"</f>
+        <v>Round( -99.555, 0 )</v>
       </c>
       <c r="E83" s="5">
-        <v>-99.6</v>
+        <v>-100</v>
       </c>
       <c r="F83" s="11" t="s">
         <v>123</v>
@@ -5598,18 +5621,18 @@
     <row r="84" spans="1:6" outlineLevel="1">
       <c r="A84" s="2"/>
       <c r="B84" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C84" s="4" t="str">
-        <f>"Round( -99.555, 2 )"</f>
-        <v>Round( -99.555, 2 )</v>
+        <f>"Round( -99.555, 1 )"</f>
+        <v>Round( -99.555, 1 )</v>
       </c>
       <c r="D84" s="4" t="str">
-        <f>"Round( -99.555, 2 )"</f>
-        <v>Round( -99.555, 2 )</v>
+        <f>"Round( -99.555, 1 )"</f>
+        <v>Round( -99.555, 1 )</v>
       </c>
       <c r="E84" s="5">
-        <v>-99.56</v>
+        <v>-99.6</v>
       </c>
       <c r="F84" s="11" t="s">
         <v>123</v>
@@ -5618,18 +5641,18 @@
     <row r="85" spans="1:6" outlineLevel="1">
       <c r="A85" s="2"/>
       <c r="B85" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C85" s="4" t="str">
-        <f>"Round( 99.224 + 0.5, 0 )"</f>
-        <v>Round( 99.224 + 0.5, 0 )</v>
+        <f>"Round( -99.555, 2 )"</f>
+        <v>Round( -99.555, 2 )</v>
       </c>
       <c r="D85" s="4" t="str">
-        <f>"Round( 99.224 + 0.5, 0 )"</f>
-        <v>Round( 99.224 + 0.5, 0 )</v>
+        <f>"Round( -99.555, 2 )"</f>
+        <v>Round( -99.555, 2 )</v>
       </c>
       <c r="E85" s="5">
-        <v>100</v>
+        <v>-99.56</v>
       </c>
       <c r="F85" s="11" t="s">
         <v>123</v>
@@ -5638,18 +5661,18 @@
     <row r="86" spans="1:6" outlineLevel="1">
       <c r="A86" s="2"/>
       <c r="B86" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C86" s="4" t="str">
-        <f>"Round( 99.224 + 0.05, 1 )"</f>
-        <v>Round( 99.224 + 0.05, 1 )</v>
+        <f>"Round( 99.224 + 0.5, 0 )"</f>
+        <v>Round( 99.224 + 0.5, 0 )</v>
       </c>
       <c r="D86" s="4" t="str">
-        <f>"Round( 99.224 + 0.05, 1 )"</f>
-        <v>Round( 99.224 + 0.05, 1 )</v>
+        <f>"Round( 99.224 + 0.5, 0 )"</f>
+        <v>Round( 99.224 + 0.5, 0 )</v>
       </c>
       <c r="E86" s="5">
-        <v>99.3</v>
+        <v>100</v>
       </c>
       <c r="F86" s="11" t="s">
         <v>123</v>
@@ -5658,18 +5681,18 @@
     <row r="87" spans="1:6" outlineLevel="1">
       <c r="A87" s="2"/>
       <c r="B87" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C87" s="4" t="str">
-        <f>"Round( -99.224 - 0.5, 0 )"</f>
-        <v>Round( -99.224 - 0.5, 0 )</v>
+        <f>"Round( 99.224 + 0.05, 1 )"</f>
+        <v>Round( 99.224 + 0.05, 1 )</v>
       </c>
       <c r="D87" s="4" t="str">
-        <f>"Round( -99.224 - 0.5, 0 )"</f>
-        <v>Round( -99.224 - 0.5, 0 )</v>
+        <f>"Round( 99.224 + 0.05, 1 )"</f>
+        <v>Round( 99.224 + 0.05, 1 )</v>
       </c>
       <c r="E87" s="5">
-        <v>-100</v>
+        <v>99.3</v>
       </c>
       <c r="F87" s="11" t="s">
         <v>123</v>
@@ -5678,18 +5701,18 @@
     <row r="88" spans="1:6" outlineLevel="1">
       <c r="A88" s="2"/>
       <c r="B88" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C88" s="4" t="str">
-        <f>"Round( -99.224 - 0.05, 1 )"</f>
-        <v>Round( -99.224 - 0.05, 1 )</v>
+        <f>"Round( -99.224 - 0.5, 0 )"</f>
+        <v>Round( -99.224 - 0.5, 0 )</v>
       </c>
       <c r="D88" s="4" t="str">
-        <f>"Round( -99.224 - 0.05, 1 )"</f>
-        <v>Round( -99.224 - 0.05, 1 )</v>
+        <f>"Round( -99.224 - 0.5, 0 )"</f>
+        <v>Round( -99.224 - 0.5, 0 )</v>
       </c>
       <c r="E88" s="5">
-        <v>-99.3</v>
+        <v>-100</v>
       </c>
       <c r="F88" s="11" t="s">
         <v>123</v>
@@ -5698,18 +5721,18 @@
     <row r="89" spans="1:6" outlineLevel="1">
       <c r="A89" s="2"/>
       <c r="B89" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C89" s="4" t="str">
-        <f>"Round( 99.224 - 0.5, 0 )"</f>
-        <v>Round( 99.224 - 0.5, 0 )</v>
+        <f>"Round( -99.224 - 0.05, 1 )"</f>
+        <v>Round( -99.224 - 0.05, 1 )</v>
       </c>
       <c r="D89" s="4" t="str">
-        <f>"Round( 99.224 - 0.5, 0 )"</f>
-        <v>Round( 99.224 - 0.5, 0 )</v>
-      </c>
-      <c r="E89" s="5" t="s">
-        <v>134</v>
+        <f>"Round( -99.224 - 0.05, 1 )"</f>
+        <v>Round( -99.224 - 0.05, 1 )</v>
+      </c>
+      <c r="E89" s="5">
+        <v>-99.3</v>
       </c>
       <c r="F89" s="11" t="s">
         <v>123</v>
@@ -5718,18 +5741,18 @@
     <row r="90" spans="1:6" outlineLevel="1">
       <c r="A90" s="2"/>
       <c r="B90" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C90" s="4" t="str">
-        <f>"Round( 99.224 - 0.05, 1 )"</f>
-        <v>Round( 99.224 - 0.05, 1 )</v>
+        <f>"Round( 99.224 - 0.5, 0 )"</f>
+        <v>Round( 99.224 - 0.5, 0 )</v>
       </c>
       <c r="D90" s="4" t="str">
-        <f>"Round( 99.224 - 0.05, 1 )"</f>
-        <v>Round( 99.224 - 0.05, 1 )</v>
-      </c>
-      <c r="E90" s="5">
-        <v>99.2</v>
+        <f>"Round( 99.224 - 0.5, 0 )"</f>
+        <v>Round( 99.224 - 0.5, 0 )</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>134</v>
       </c>
       <c r="F90" s="11" t="s">
         <v>123</v>
@@ -5738,18 +5761,18 @@
     <row r="91" spans="1:6" outlineLevel="1">
       <c r="A91" s="2"/>
       <c r="B91" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C91" s="4" t="str">
-        <f>"Round( -99.224 + 0.5, 0 )"</f>
-        <v>Round( -99.224 + 0.5, 0 )</v>
+        <f>"Round( 99.224 - 0.05, 1 )"</f>
+        <v>Round( 99.224 - 0.05, 1 )</v>
       </c>
       <c r="D91" s="4" t="str">
-        <f>"Round( -99.224 + 0.5, 0 )"</f>
-        <v>Round( -99.224 + 0.5, 0 )</v>
-      </c>
-      <c r="E91" s="5" t="s">
-        <v>135</v>
+        <f>"Round( 99.224 - 0.05, 1 )"</f>
+        <v>Round( 99.224 - 0.05, 1 )</v>
+      </c>
+      <c r="E91" s="5">
+        <v>99.2</v>
       </c>
       <c r="F91" s="11" t="s">
         <v>123</v>
@@ -5758,18 +5781,18 @@
     <row r="92" spans="1:6" outlineLevel="1">
       <c r="A92" s="2"/>
       <c r="B92" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C92" s="4" t="str">
-        <f>"Round( -99.224 + 0.05, 1 )"</f>
-        <v>Round( -99.224 + 0.05, 1 )</v>
+        <f>"Round( -99.224 + 0.5, 0 )"</f>
+        <v>Round( -99.224 + 0.5, 0 )</v>
       </c>
       <c r="D92" s="4" t="str">
-        <f>"Round( -99.224 + 0.05, 1 )"</f>
-        <v>Round( -99.224 + 0.05, 1 )</v>
-      </c>
-      <c r="E92" s="5">
-        <v>-99.2</v>
+        <f>"Round( -99.224 + 0.5, 0 )"</f>
+        <v>Round( -99.224 + 0.5, 0 )</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="F92" s="11" t="s">
         <v>123</v>
@@ -5778,16 +5801,18 @@
     <row r="93" spans="1:6" outlineLevel="1">
       <c r="A93" s="2"/>
       <c r="B93" s="2" t="s">
-        <v>706</v>
-      </c>
-      <c r="C93" s="10" t="s">
-        <v>704</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>709</v>
-      </c>
-      <c r="E93" s="5" t="s">
-        <v>703</v>
+        <v>110</v>
+      </c>
+      <c r="C93" s="4" t="str">
+        <f>"Round( -99.224 + 0.05, 1 )"</f>
+        <v>Round( -99.224 + 0.05, 1 )</v>
+      </c>
+      <c r="D93" s="4" t="str">
+        <f>"Round( -99.224 + 0.05, 1 )"</f>
+        <v>Round( -99.224 + 0.05, 1 )</v>
+      </c>
+      <c r="E93" s="5">
+        <v>-99.2</v>
       </c>
       <c r="F93" s="11" t="s">
         <v>123</v>
@@ -5796,16 +5821,16 @@
     <row r="94" spans="1:6" outlineLevel="1">
       <c r="A94" s="2"/>
       <c r="B94" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="F94" s="11" t="s">
         <v>123</v>
@@ -5814,16 +5839,16 @@
     <row r="95" spans="1:6" outlineLevel="1">
       <c r="A95" s="2"/>
       <c r="B95" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="C95" s="10" t="s">
         <v>708</v>
       </c>
-      <c r="C95" s="10" t="s">
-        <v>715</v>
-      </c>
-      <c r="D95" s="34" t="s">
-        <v>713</v>
+      <c r="D95" s="4" t="s">
+        <v>710</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="F95" s="11" t="s">
         <v>123</v>
@@ -5832,46 +5857,45 @@
     <row r="96" spans="1:6" outlineLevel="1">
       <c r="A96" s="2"/>
       <c r="B96" s="2" t="s">
-        <v>707</v>
-      </c>
-      <c r="C96" s="12" t="s">
-        <v>717</v>
-      </c>
-      <c r="D96" s="33" t="s">
-        <v>716</v>
-      </c>
-      <c r="E96" s="5"/>
+        <v>706</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="D96" s="34" t="s">
+        <v>711</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="F96" s="11" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
-      <c r="A97" s="20" t="s">
-        <v>350</v>
-      </c>
-      <c r="B97" s="8"/>
-      <c r="C97" s="8"/>
-      <c r="D97" s="8"/>
-      <c r="E97" s="21" t="s">
-        <v>123</v>
-      </c>
+    <row r="97" spans="1:6" outlineLevel="1">
+      <c r="A97" s="2"/>
+      <c r="B97" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="C97" s="12" t="s">
+        <v>715</v>
+      </c>
+      <c r="D97" s="33" t="s">
+        <v>714</v>
+      </c>
+      <c r="E97" s="5"/>
       <c r="F97" s="11" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="98" spans="1:6" outlineLevel="1">
-      <c r="A98" s="2"/>
-      <c r="B98" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C98" s="10" t="s">
-        <v>408</v>
-      </c>
-      <c r="D98" s="4" t="str">
-        <f>"On Error Resume Next"</f>
-        <v>On Error Resume Next</v>
-      </c>
-      <c r="E98" s="5" t="s">
+    <row r="98" spans="1:6">
+      <c r="A98" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="B98" s="8"/>
+      <c r="C98" s="8"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="21" t="s">
         <v>123</v>
       </c>
       <c r="F98" s="11" t="s">
@@ -5881,15 +5905,14 @@
     <row r="99" spans="1:6" outlineLevel="1">
       <c r="A99" s="2"/>
       <c r="B99" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C99" s="4" t="str">
-        <f>"On Error Goto 0"</f>
-        <v>On Error Goto 0</v>
+        <v>30</v>
+      </c>
+      <c r="C99" s="10" t="s">
+        <v>407</v>
       </c>
       <c r="D99" s="4" t="str">
-        <f>"On Error Goto 0"</f>
-        <v>On Error Goto 0</v>
+        <f>"On Error Resume Next"</f>
+        <v>On Error Resume Next</v>
       </c>
       <c r="E99" s="5" t="s">
         <v>123</v>
@@ -5901,15 +5924,15 @@
     <row r="100" spans="1:6" outlineLevel="1">
       <c r="A100" s="2"/>
       <c r="B100" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C100" s="4" t="str">
-        <f>"Err.Number"</f>
-        <v>Err.Number</v>
+        <f>"On Error Goto 0"</f>
+        <v>On Error Goto 0</v>
       </c>
       <c r="D100" s="4" t="str">
-        <f>"Err.Number"</f>
-        <v>Err.Number</v>
+        <f>"On Error Goto 0"</f>
+        <v>On Error Goto 0</v>
       </c>
       <c r="E100" s="5" t="s">
         <v>123</v>
@@ -5921,15 +5944,15 @@
     <row r="101" spans="1:6" outlineLevel="1">
       <c r="A101" s="2"/>
       <c r="B101" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C101" s="4" t="str">
-        <f>"Err.Description"</f>
-        <v>Err.Description</v>
+        <f>"Err.Number"</f>
+        <v>Err.Number</v>
       </c>
       <c r="D101" s="4" t="str">
-        <f>"Err.Description"</f>
-        <v>Err.Description</v>
+        <f>"Err.Number"</f>
+        <v>Err.Number</v>
       </c>
       <c r="E101" s="5" t="s">
         <v>123</v>
@@ -5941,17 +5964,18 @@
     <row r="102" spans="1:6" outlineLevel="1">
       <c r="A102" s="2"/>
       <c r="B102" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C102" s="22" t="s">
-        <v>402</v>
+        <v>33</v>
+      </c>
+      <c r="C102" s="4" t="str">
+        <f>"Err.Description"</f>
+        <v>Err.Description</v>
       </c>
       <c r="D102" s="4" t="str">
-        <f>"On Error GoTo ErrorLabel"</f>
-        <v>On Error GoTo ErrorLabel</v>
+        <f>"Err.Description"</f>
+        <v>Err.Description</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>280</v>
+        <v>123</v>
       </c>
       <c r="F102" s="11" t="s">
         <v>123</v>
@@ -5960,49 +5984,49 @@
     <row r="103" spans="1:6" outlineLevel="1">
       <c r="A103" s="2"/>
       <c r="B103" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C103" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D103" s="4" t="str">
+        <f>"On Error GoTo ErrorLabel"</f>
+        <v>On Error GoTo ErrorLabel</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="F103" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" outlineLevel="1">
+      <c r="A104" s="2"/>
+      <c r="B104" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C104" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="D104" s="4" t="str">
         <f>"ErrorLabel:"</f>
         <v>ErrorLabel:</v>
       </c>
-      <c r="E103" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F103" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104" s="20" t="s">
-        <v>351</v>
-      </c>
-      <c r="B104" s="8"/>
-      <c r="C104" s="8"/>
-      <c r="D104" s="8"/>
-      <c r="E104" s="21" t="s">
+      <c r="E104" s="5" t="s">
         <v>123</v>
       </c>
       <c r="F104" s="11" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="105" spans="1:6" outlineLevel="1">
-      <c r="A105" s="2"/>
-      <c r="B105" s="2" t="s">
-        <v>685</v>
-      </c>
-      <c r="C105" s="4" t="str">
-        <f>"Dim objTxtFile"</f>
-        <v>Dim objTxtFile</v>
-      </c>
-      <c r="D105" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="E105" s="5" t="s">
+    <row r="105" spans="1:6">
+      <c r="A105" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="B105" s="8"/>
+      <c r="C105" s="8"/>
+      <c r="D105" s="8"/>
+      <c r="E105" s="21" t="s">
         <v>123</v>
       </c>
       <c r="F105" s="11" t="s">
@@ -6012,14 +6036,14 @@
     <row r="106" spans="1:6" outlineLevel="1">
       <c r="A106" s="2"/>
       <c r="B106" s="2" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="C106" s="4" t="str">
-        <f>"Set objTxtFile = objFSO.OpenTextFile(""c:\codes\test\a.txt"", 1, True)"</f>
-        <v>Set objTxtFile = objFSO.OpenTextFile("c:\codes\test\a.txt", 1, True)</v>
-      </c>
-      <c r="D106" s="4" t="s">
-        <v>407</v>
+        <f>"Dim objTxtFile"</f>
+        <v>Dim objTxtFile</v>
+      </c>
+      <c r="D106" s="22" t="s">
+        <v>401</v>
       </c>
       <c r="E106" s="5" t="s">
         <v>123</v>
@@ -6031,16 +6055,18 @@
     <row r="107" spans="1:6" outlineLevel="1">
       <c r="A107" s="2"/>
       <c r="B107" s="2" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="C107" s="4" t="str">
-        <f>"objTxtFile.Close"</f>
-        <v>objTxtFile.Close</v>
+        <f>"Set objTxtFile = objFSO.OpenTextFile(""c:\codes\test\a.txt"", 1, True)"</f>
+        <v>Set objTxtFile = objFSO.OpenTextFile("c:\codes\test\a.txt", 1, True)</v>
       </c>
       <c r="D107" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="E107" s="5"/>
+      <c r="E107" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="F107" s="11" t="s">
         <v>123</v>
       </c>
@@ -6048,42 +6074,39 @@
     <row r="108" spans="1:6" outlineLevel="1">
       <c r="A108" s="2"/>
       <c r="B108" s="2" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C108" s="4" t="str">
+        <f>"objTxtFile.Close"</f>
+        <v>objTxtFile.Close</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="E108" s="5"/>
+      <c r="F108" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" outlineLevel="1">
+      <c r="A109" s="2"/>
+      <c r="B109" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="C109" s="4" t="str">
         <f>"Do Until objTxtFile.AtEndOfStream"&amp;CHAR(10)&amp;"strLine = objTxtFile.ReadLine"&amp;CHAR(10)&amp;"Loop"</f>
         <v>Do Until objTxtFile.AtEndOfStream
 strLine = objTxtFile.ReadLine
 Loop</v>
       </c>
-      <c r="D108" s="4" t="str">
+      <c r="D109" s="4" t="str">
         <f>"Do Until EOF(1)"&amp;CHAR(10)&amp;"    Line Input #1, 文字列変数"&amp;CHAR(10)&amp;"Loop"</f>
         <v>Do Until EOF(1)
     Line Input #1, 文字列変数
 Loop</v>
       </c>
-      <c r="E108" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F108" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" outlineLevel="1">
-      <c r="A109" s="2"/>
-      <c r="B109" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="C109" s="4" t="str">
-        <f>"sTextAll = objTxtFile.ReadAll"</f>
-        <v>sTextAll = objTxtFile.ReadAll</v>
-      </c>
-      <c r="D109" s="4" t="str">
-        <f>"sTestFile = objFSO.GetFile(ファイルパス).OpenAsTextStream.ReadAll"</f>
-        <v>sTestFile = objFSO.GetFile(ファイルパス).OpenAsTextStream.ReadAll</v>
-      </c>
       <c r="E109" s="5" t="s">
-        <v>291</v>
+        <v>123</v>
       </c>
       <c r="F109" s="11" t="s">
         <v>123</v>
@@ -6092,18 +6115,18 @@
     <row r="110" spans="1:6" outlineLevel="1">
       <c r="A110" s="2"/>
       <c r="B110" s="2" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="C110" s="4" t="str">
-        <f>"objTxtFile.WriteLine strLine"</f>
-        <v>objTxtFile.WriteLine strLine</v>
+        <f>"sTextAll = objTxtFile.ReadAll"</f>
+        <v>sTextAll = objTxtFile.ReadAll</v>
       </c>
       <c r="D110" s="4" t="str">
-        <f>"Print #1, 文字列変数"</f>
-        <v>Print #1, 文字列変数</v>
+        <f>"sTestFile = objFSO.GetFile(ファイルパス).OpenAsTextStream.ReadAll"</f>
+        <v>sTestFile = objFSO.GetFile(ファイルパス).OpenAsTextStream.ReadAll</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>123</v>
+        <v>290</v>
       </c>
       <c r="F110" s="11" t="s">
         <v>123</v>
@@ -6112,40 +6135,42 @@
     <row r="111" spans="1:6" outlineLevel="1">
       <c r="A111" s="2"/>
       <c r="B111" s="2" t="s">
-        <v>691</v>
-      </c>
-      <c r="C111" s="10" t="str">
+        <v>688</v>
+      </c>
+      <c r="C111" s="4" t="str">
+        <f>"objTxtFile.WriteLine strLine"</f>
+        <v>objTxtFile.WriteLine strLine</v>
+      </c>
+      <c r="D111" s="4" t="str">
+        <f>"Print #1, 文字列変数"</f>
+        <v>Print #1, 文字列変数</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F111" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" outlineLevel="1">
+      <c r="A112" s="2"/>
+      <c r="B112" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="C112" s="10" t="str">
         <f>"Dim adoStrm
 Set adoStrm = CreateObject(""ADODB.Stream"")"</f>
         <v>Dim adoStrm
 Set adoStrm = CreateObject("ADODB.Stream")</v>
       </c>
-      <c r="D111" s="4" t="str">
+      <c r="D112" s="4" t="str">
         <f>"Dim adoStrm As Object
 Set adoStrm = CreateObject(""ADODB.Stream"")"</f>
         <v>Dim adoStrm As Object
 Set adoStrm = CreateObject("ADODB.Stream")</v>
       </c>
-      <c r="E111" s="5" t="s">
-        <v>673</v>
-      </c>
-      <c r="F111" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" outlineLevel="1">
-      <c r="A112" s="2"/>
-      <c r="B112" s="2" t="s">
-        <v>692</v>
-      </c>
-      <c r="C112" s="10" t="s">
-        <v>677</v>
-      </c>
-      <c r="D112" s="10" t="s">
-        <v>677</v>
-      </c>
       <c r="E112" s="5" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="F112" s="11" t="s">
         <v>123</v>
@@ -6154,16 +6179,16 @@
     <row r="113" spans="1:6" outlineLevel="1">
       <c r="A113" s="2"/>
       <c r="B113" s="2" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F113" s="11" t="s">
         <v>123</v>
@@ -6172,16 +6197,16 @@
     <row r="114" spans="1:6" outlineLevel="1">
       <c r="A114" s="2"/>
       <c r="B114" s="2" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="F114" s="11" t="s">
         <v>123</v>
@@ -6190,39 +6215,39 @@
     <row r="115" spans="1:6" outlineLevel="1">
       <c r="A115" s="2"/>
       <c r="B115" s="2" t="s">
-        <v>695</v>
-      </c>
-      <c r="C115" s="10" t="str">
+        <v>692</v>
+      </c>
+      <c r="C115" s="10" t="s">
+        <v>679</v>
+      </c>
+      <c r="D115" s="10" t="s">
+        <v>679</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>680</v>
+      </c>
+      <c r="F115" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" outlineLevel="1">
+      <c r="A116" s="2"/>
+      <c r="B116" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="C116" s="10" t="str">
         <f>"adoStrm.Open
 adoStrm.LoadFromFile sTrgtFilePath"</f>
         <v>adoStrm.Open
 adoStrm.LoadFromFile sTrgtFilePath</v>
       </c>
-      <c r="D115" s="10" t="str">
+      <c r="D116" s="10" t="str">
         <f>"adoStrm.Open
 adoStrm.LoadFromFile sTrgtFilePath"</f>
         <v>adoStrm.Open
 adoStrm.LoadFromFile sTrgtFilePath</v>
       </c>
-      <c r="E115" s="5"/>
-      <c r="F115" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" outlineLevel="1">
-      <c r="A116" s="2"/>
-      <c r="B116" s="2" t="s">
-        <v>696</v>
-      </c>
-      <c r="C116" s="10" t="s">
-        <v>683</v>
-      </c>
-      <c r="D116" s="10" t="s">
-        <v>683</v>
-      </c>
-      <c r="E116" s="5" t="s">
-        <v>673</v>
-      </c>
+      <c r="E116" s="5"/>
       <c r="F116" s="11" t="s">
         <v>123</v>
       </c>
@@ -6230,9 +6255,27 @@
     <row r="117" spans="1:6" outlineLevel="1">
       <c r="A117" s="2"/>
       <c r="B117" s="2" t="s">
-        <v>697</v>
-      </c>
-      <c r="C117" s="10" t="str">
+        <v>694</v>
+      </c>
+      <c r="C117" s="10" t="s">
+        <v>681</v>
+      </c>
+      <c r="D117" s="10" t="s">
+        <v>681</v>
+      </c>
+      <c r="E117" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="F117" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" outlineLevel="1">
+      <c r="A118" s="2"/>
+      <c r="B118" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="C118" s="10" t="str">
         <f>"Do Until adoStrm.EOS
     MsgBox adoStrm.ReadText(-2)
 Loop"</f>
@@ -6240,7 +6283,7 @@
     MsgBox adoStrm.ReadText(-2)
 Loop</v>
       </c>
-      <c r="D117" s="4" t="str">
+      <c r="D118" s="4" t="str">
         <f>"Do Until adoStrm.EOS
     Debug.Print adoStrm.ReadText(-2)
 Loop"</f>
@@ -6248,19 +6291,19 @@
     Debug.Print adoStrm.ReadText(-2)
 Loop</v>
       </c>
-      <c r="E117" s="5" t="s">
-        <v>674</v>
-      </c>
-      <c r="F117" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" outlineLevel="1">
-      <c r="A118" s="2"/>
-      <c r="B118" s="2" t="s">
-        <v>698</v>
-      </c>
-      <c r="C118" s="10" t="str">
+      <c r="E118" s="5" t="s">
+        <v>672</v>
+      </c>
+      <c r="F118" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" outlineLevel="1">
+      <c r="A119" s="2"/>
+      <c r="B119" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="C119" s="10" t="str">
         <f>"Dim vFile
 Dim vLine
 vFile = Split(adoStrm.ReadText(-1), vbLf)
@@ -6274,7 +6317,7 @@
     MsgBox vLine
 Next</v>
       </c>
-      <c r="D118" s="4" t="str">
+      <c r="D119" s="4" t="str">
         <f>"Dim vFile As Variant
 Dim vLine As Variant
 vFile = Split(adoStrm.ReadText(-1), vbLf)
@@ -6288,24 +6331,6 @@
     Debug.Print vLine
 Next</v>
       </c>
-      <c r="E118" s="5" t="s">
-        <v>674</v>
-      </c>
-      <c r="F118" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" outlineLevel="1">
-      <c r="A119" s="2"/>
-      <c r="B119" s="2" t="s">
-        <v>699</v>
-      </c>
-      <c r="C119" s="31" t="s">
-        <v>675</v>
-      </c>
-      <c r="D119" s="31" t="s">
-        <v>675</v>
-      </c>
       <c r="E119" s="5" t="s">
         <v>672</v>
       </c>
@@ -6316,16 +6341,16 @@
     <row r="120" spans="1:6" outlineLevel="1">
       <c r="A120" s="2"/>
       <c r="B120" s="2" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="C120" s="31" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="D120" s="31" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>684</v>
+        <v>670</v>
       </c>
       <c r="F120" s="11" t="s">
         <v>123</v>
@@ -6334,16 +6359,16 @@
     <row r="121" spans="1:6" outlineLevel="1">
       <c r="A121" s="2"/>
       <c r="B121" s="2" t="s">
-        <v>701</v>
-      </c>
-      <c r="C121" s="4" t="s">
-        <v>671</v>
-      </c>
-      <c r="D121" s="4" t="s">
-        <v>671</v>
+        <v>698</v>
+      </c>
+      <c r="C121" s="31" t="s">
+        <v>674</v>
+      </c>
+      <c r="D121" s="31" t="s">
+        <v>674</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>673</v>
+        <v>682</v>
       </c>
       <c r="F121" s="11" t="s">
         <v>123</v>
@@ -6352,52 +6377,50 @@
     <row r="122" spans="1:6" outlineLevel="1">
       <c r="A122" s="2"/>
       <c r="B122" s="2" t="s">
-        <v>702</v>
-      </c>
-      <c r="C122" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="D122" s="4" t="str">
+        <v>699</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="F122" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" outlineLevel="1">
+      <c r="A123" s="2"/>
+      <c r="B123" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="C123" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="D123" s="4" t="str">
         <f>"Set wTargetBook = Workbooks.Open(sTargetBookName)"&amp;CHAR(10)&amp;"wTargetBook.Close SaveChanges:=True"</f>
         <v>Set wTargetBook = Workbooks.Open(sTargetBookName)
 wTargetBook.Close SaveChanges:=True</v>
       </c>
-      <c r="E122" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F122" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
-      <c r="A123" s="20" t="s">
-        <v>352</v>
-      </c>
-      <c r="B123" s="8"/>
-      <c r="C123" s="8"/>
-      <c r="D123" s="8"/>
-      <c r="E123" s="21" t="s">
+      <c r="E123" s="5" t="s">
         <v>123</v>
       </c>
       <c r="F123" s="11" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="124" spans="1:6" outlineLevel="1">
-      <c r="A124" s="2"/>
-      <c r="B124" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C124" s="4" t="str">
-        <f>"Now()"</f>
-        <v>Now()</v>
-      </c>
-      <c r="D124" s="4" t="str">
-        <f>"Now"</f>
-        <v>Now</v>
-      </c>
-      <c r="E124" s="5" t="s">
-        <v>298</v>
+    <row r="124" spans="1:6">
+      <c r="A124" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="B124" s="8"/>
+      <c r="C124" s="8"/>
+      <c r="D124" s="8"/>
+      <c r="E124" s="21" t="s">
+        <v>123</v>
       </c>
       <c r="F124" s="11" t="s">
         <v>123</v>
@@ -6406,18 +6429,18 @@
     <row r="125" spans="1:6" outlineLevel="1">
       <c r="A125" s="2"/>
       <c r="B125" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C125" s="4" t="str">
-        <f>"Date()"</f>
-        <v>Date()</v>
+        <f>"Now()"</f>
+        <v>Now()</v>
       </c>
       <c r="D125" s="4" t="str">
-        <f>"Date"</f>
-        <v>Date</v>
+        <f>"Now"</f>
+        <v>Now</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F125" s="11" t="s">
         <v>123</v>
@@ -6426,18 +6449,18 @@
     <row r="126" spans="1:6" outlineLevel="1">
       <c r="A126" s="2"/>
       <c r="B126" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C126" s="4" t="str">
-        <f>"Timer()"</f>
-        <v>Timer()</v>
+        <f>"Date()"</f>
+        <v>Date()</v>
       </c>
       <c r="D126" s="4" t="str">
-        <f>"Timer"</f>
-        <v>Timer</v>
+        <f>"Date"</f>
+        <v>Date</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F126" s="11" t="s">
         <v>123</v>
@@ -6446,9 +6469,29 @@
     <row r="127" spans="1:6" outlineLevel="1">
       <c r="A127" s="2"/>
       <c r="B127" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C127" s="4" t="str">
+        <f>"Timer()"</f>
+        <v>Timer()</v>
+      </c>
+      <c r="D127" s="4" t="str">
+        <f>"Timer"</f>
+        <v>Timer</v>
+      </c>
+      <c r="E127" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="F127" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" outlineLevel="1">
+      <c r="A128" s="2"/>
+      <c r="B128" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C127" s="4" t="str">
+      <c r="C128" s="4" t="str">
         <f>"If DateDiff(""s"", sCmpBaseTime, sModDate ) &gt; 0 Then"&amp;CHAR(10)&amp;CHAR(9)&amp;"'sModDate が新しい"&amp;CHAR(10)&amp;"ElseIf DateDiff(""s"", sCmpBaseTime, sModDate ) &lt; 0 Then"&amp;CHAR(10)&amp;CHAR(9)&amp;"'sModDate が古い"&amp;CHAR(10)&amp;"Else"&amp;CHAR(10)&amp;CHAR(9)&amp;"'sModDate = sCmpBaseTime"&amp;CHAR(10)&amp;"End If"</f>
         <v>If DateDiff("s", sCmpBaseTime, sModDate ) &gt; 0 Then
 	'sModDate が新しい
@@ -6458,7 +6501,7 @@
 	'sModDate = sCmpBaseTime
 End If</v>
       </c>
-      <c r="D127" s="4" t="str">
+      <c r="D128" s="4" t="str">
         <f>"If DateDiff(""s"", sCmpBaseTime, sModDate ) &gt; 0 Then"&amp;CHAR(10)&amp;CHAR(9)&amp;"sModDate が新しい"&amp;CHAR(10)&amp;"ElseIf DateDiff(""s"", sCmpBaseTime, sModDate ) &lt; 0 Then"&amp;CHAR(10)&amp;CHAR(9)&amp;"sModDate が古い"&amp;CHAR(10)&amp;"Else"&amp;CHAR(10)&amp;CHAR(9)&amp;"sModDate = sCmpBaseTime"&amp;CHAR(10)&amp;"End If"</f>
         <v>If DateDiff("s", sCmpBaseTime, sModDate ) &gt; 0 Then
 	sModDate が新しい
@@ -6468,83 +6511,65 @@
 	sModDate = sCmpBaseTime
 End If</v>
       </c>
-      <c r="E127" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="F127" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" outlineLevel="1">
-      <c r="A128" s="2"/>
-      <c r="B128" s="2" t="s">
+      <c r="E128" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="F128" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" outlineLevel="1">
+      <c r="A129" s="2"/>
+      <c r="B129" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C128" s="4" t="str">
+      <c r="C129" s="4" t="str">
         <f>"WScript.sleep(3000)"</f>
         <v>WScript.sleep(3000)</v>
       </c>
-      <c r="D128" s="4" t="str">
+      <c r="D129" s="4" t="str">
         <f>"Public Declare Sub Sleep Lib ""kernel32"" (ByVal dwMilliseconds As Long)"&amp;CHAR(10)&amp;"Sleep 1000"</f>
         <v>Public Declare Sub Sleep Lib "kernel32" (ByVal dwMilliseconds As Long)
 Sleep 1000</v>
       </c>
-      <c r="E128" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="F128" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="A129" s="20" t="s">
-        <v>363</v>
-      </c>
-      <c r="B129" s="8"/>
-      <c r="C129" s="8"/>
-      <c r="D129" s="8"/>
-      <c r="E129" s="21" t="s">
-        <v>123</v>
+      <c r="E129" s="5" t="s">
+        <v>301</v>
       </c>
       <c r="F129" s="11" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="130" spans="1:6" outlineLevel="1">
-      <c r="A130" s="2"/>
-      <c r="B130" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="C130" s="4" t="str">
+    <row r="130" spans="1:6">
+      <c r="A130" s="20" t="s">
+        <v>362</v>
+      </c>
+      <c r="B130" s="8"/>
+      <c r="C130" s="8"/>
+      <c r="D130" s="8"/>
+      <c r="E130" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="F130" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" outlineLevel="1">
+      <c r="A131" s="2"/>
+      <c r="B131" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C131" s="4" t="str">
         <f>"Dim cTrgtPaths
 Set cTrgtPaths = CreateObject(""System.Collections.ArrayList"")"</f>
         <v>Dim cTrgtPaths
 Set cTrgtPaths = CreateObject("System.Collections.ArrayList")</v>
       </c>
-      <c r="D130" s="4" t="str">
+      <c r="D131" s="4" t="str">
         <f>"Dim cTrgtPaths As Variant
 Set cTrgtPaths = CreateObject(""System.Collections.ArrayList"")"</f>
         <v>Dim cTrgtPaths As Variant
 Set cTrgtPaths = CreateObject("System.Collections.ArrayList")</v>
       </c>
-      <c r="E130" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F130" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" outlineLevel="1">
-      <c r="A131" s="2"/>
-      <c r="B131" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="C131" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="D131" s="4" t="s">
-        <v>437</v>
-      </c>
       <c r="E131" s="5" t="s">
         <v>123</v>
       </c>
@@ -6555,13 +6580,13 @@
     <row r="132" spans="1:6" outlineLevel="1">
       <c r="A132" s="2"/>
       <c r="B132" s="2" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E132" s="5" t="s">
         <v>123</v>
@@ -6573,16 +6598,16 @@
     <row r="133" spans="1:6" outlineLevel="1">
       <c r="A133" s="2"/>
       <c r="B133" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F133" s="11" t="s">
         <v>123</v>
@@ -6591,9 +6616,27 @@
     <row r="134" spans="1:6" outlineLevel="1">
       <c r="A134" s="2"/>
       <c r="B134" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="C134" s="4" t="str">
+        <v>372</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F134" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" outlineLevel="1">
+      <c r="A135" s="2"/>
+      <c r="B135" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C135" s="4" t="str">
         <f>"Dim vTrgtPath
 For Each vTrgtPath In cTrgtPaths
     MsgBox vTrgtPath
@@ -6603,7 +6646,7 @@
     MsgBox vTrgtPath
 Next</v>
       </c>
-      <c r="D134" s="4" t="str">
+      <c r="D135" s="4" t="str">
         <f>"Dim vTrgtPath As Variant
 For Each vTrgtPath In cTrgtPaths
     MsgBox vTrgtPath
@@ -6613,26 +6656,8 @@
     MsgBox vTrgtPath
 Next</v>
       </c>
-      <c r="E134" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F134" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" outlineLevel="1">
-      <c r="A135" s="2"/>
-      <c r="B135" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="C135" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="D135" s="4" t="s">
-        <v>440</v>
-      </c>
       <c r="E135" s="5" t="s">
-        <v>272</v>
+        <v>123</v>
       </c>
       <c r="F135" s="11" t="s">
         <v>123</v>
@@ -6641,16 +6666,16 @@
     <row r="136" spans="1:6" outlineLevel="1">
       <c r="A136" s="2"/>
       <c r="B136" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F136" s="11" t="s">
         <v>123</v>
@@ -6659,16 +6684,16 @@
     <row r="137" spans="1:6" outlineLevel="1">
       <c r="A137" s="2"/>
       <c r="B137" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="C137" s="22" t="s">
-        <v>402</v>
+        <v>365</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>439</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>445</v>
+        <v>272</v>
       </c>
       <c r="F137" s="11" t="s">
         <v>123</v>
@@ -6677,16 +6702,16 @@
     <row r="138" spans="1:6" outlineLevel="1">
       <c r="A138" s="2"/>
       <c r="B138" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="C138" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="C138" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="E138" s="5" t="s">
         <v>443</v>
-      </c>
-      <c r="D138" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="E138" s="5" t="s">
-        <v>123</v>
       </c>
       <c r="F138" s="11" t="s">
         <v>123</v>
@@ -6695,96 +6720,96 @@
     <row r="139" spans="1:6" outlineLevel="1">
       <c r="A139" s="2"/>
       <c r="B139" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="C139" s="4" t="str">
+        <v>367</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="E139" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F139" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" outlineLevel="1">
+      <c r="A140" s="2"/>
+      <c r="B140" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C140" s="4" t="str">
         <f>"Dim avTrgtPaths
 avTrgtPaths = cTrgtPaths.ToArray()"</f>
         <v>Dim avTrgtPaths
 avTrgtPaths = cTrgtPaths.ToArray()</v>
       </c>
-      <c r="D139" s="4" t="str">
+      <c r="D140" s="4" t="str">
         <f>"Dim avTrgtPaths As Variant
 avTrgtPaths = cTrgtPaths.ToArray()"</f>
         <v>Dim avTrgtPaths As Variant
 avTrgtPaths = cTrgtPaths.ToArray()</v>
       </c>
-      <c r="E139" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="F139" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" outlineLevel="1">
-      <c r="A140" s="2"/>
-      <c r="B140" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="C140" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="D140" s="4" t="s">
-        <v>444</v>
-      </c>
       <c r="E140" s="5" t="s">
-        <v>123</v>
+        <v>273</v>
       </c>
       <c r="F140" s="11" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
-      <c r="A141" s="20" t="s">
-        <v>362</v>
-      </c>
-      <c r="B141" s="8"/>
-      <c r="C141" s="8"/>
-      <c r="D141" s="8"/>
-      <c r="E141" s="21" t="s">
+    <row r="141" spans="1:6" outlineLevel="1">
+      <c r="A141" s="2"/>
+      <c r="B141" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="E141" s="5" t="s">
         <v>123</v>
       </c>
       <c r="F141" s="11" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="142" spans="1:6" outlineLevel="1">
-      <c r="A142" s="2"/>
-      <c r="B142" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="C142" s="4" t="str">
+    <row r="142" spans="1:6">
+      <c r="A142" s="20" t="s">
+        <v>361</v>
+      </c>
+      <c r="B142" s="8"/>
+      <c r="C142" s="8"/>
+      <c r="D142" s="8"/>
+      <c r="E142" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="F142" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" outlineLevel="1">
+      <c r="A143" s="2"/>
+      <c r="B143" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C143" s="4" t="str">
         <f>"Dim oPriceOfFruit
 Set oPriceOfFruit = CreateObject(""Scripting.Dictionary"")"</f>
         <v>Dim oPriceOfFruit
 Set oPriceOfFruit = CreateObject("Scripting.Dictionary")</v>
       </c>
-      <c r="D142" s="4" t="str">
+      <c r="D143" s="4" t="str">
         <f>"Dim oPriceOfFruit As Object
 Set oPriceOfFruit = CreateObject(""Scripting.Dictionary"")"</f>
         <v>Dim oPriceOfFruit As Object
 Set oPriceOfFruit = CreateObject("Scripting.Dictionary")</v>
       </c>
-      <c r="E142" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="F142" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" outlineLevel="1">
-      <c r="A143" s="2"/>
-      <c r="B143" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C143" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="D143" s="4" t="s">
-        <v>349</v>
-      </c>
       <c r="E143" s="5" t="s">
-        <v>123</v>
+        <v>257</v>
       </c>
       <c r="F143" s="11" t="s">
         <v>123</v>
@@ -6793,13 +6818,13 @@
     <row r="144" spans="1:6" outlineLevel="1">
       <c r="A144" s="2"/>
       <c r="B144" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>446</v>
+        <v>348</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>446</v>
+        <v>348</v>
       </c>
       <c r="E144" s="5" t="s">
         <v>123</v>
@@ -6811,9 +6836,27 @@
     <row r="145" spans="1:6" outlineLevel="1">
       <c r="A145" s="2"/>
       <c r="B145" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="E145" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F145" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" outlineLevel="1">
+      <c r="A146" s="2"/>
+      <c r="B146" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C145" s="4" t="str">
+      <c r="C146" s="4" t="str">
         <f>"For Each vKey In oPriceOfFruit
     MsgBox vKey
 Next"</f>
@@ -6821,7 +6864,7 @@
     MsgBox vKey
 Next</v>
       </c>
-      <c r="D145" s="4" t="str">
+      <c r="D146" s="4" t="str">
         <f>"For Each vKey In oPriceOfFruit
     Debug.print vKey
 Next"</f>
@@ -6829,26 +6872,8 @@
     Debug.print vKey
 Next</v>
       </c>
-      <c r="E145" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="F145" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" outlineLevel="1">
-      <c r="A146" s="2"/>
-      <c r="B146" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C146" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="D146" s="4" t="s">
-        <v>447</v>
-      </c>
       <c r="E146" s="5" t="s">
-        <v>123</v>
+        <v>274</v>
       </c>
       <c r="F146" s="11" t="s">
         <v>123</v>
@@ -6857,16 +6882,16 @@
     <row r="147" spans="1:6" outlineLevel="1">
       <c r="A147" s="2"/>
       <c r="B147" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>276</v>
+        <v>123</v>
       </c>
       <c r="F147" s="11" t="s">
         <v>123</v>
@@ -6875,16 +6900,16 @@
     <row r="148" spans="1:6" outlineLevel="1">
       <c r="A148" s="2"/>
       <c r="B148" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F148" s="11" t="s">
         <v>123</v>
@@ -6893,16 +6918,16 @@
     <row r="149" spans="1:6" outlineLevel="1">
       <c r="A149" s="2"/>
       <c r="B149" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>123</v>
+        <v>275</v>
       </c>
       <c r="F149" s="11" t="s">
         <v>123</v>
@@ -6911,13 +6936,13 @@
     <row r="150" spans="1:6" outlineLevel="1">
       <c r="A150" s="2"/>
       <c r="B150" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E150" s="5" t="s">
         <v>123</v>
@@ -6929,13 +6954,13 @@
     <row r="151" spans="1:6" outlineLevel="1">
       <c r="A151" s="2"/>
       <c r="B151" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="E151" s="5" t="s">
         <v>123</v>
@@ -6947,16 +6972,16 @@
     <row r="152" spans="1:6" outlineLevel="1">
       <c r="A152" s="2"/>
       <c r="B152" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>277</v>
+        <v>123</v>
       </c>
       <c r="F152" s="11" t="s">
         <v>123</v>
@@ -6965,16 +6990,16 @@
     <row r="153" spans="1:6" outlineLevel="1">
       <c r="A153" s="2"/>
       <c r="B153" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="E153" s="5" t="s">
-        <v>123</v>
+        <v>276</v>
       </c>
       <c r="F153" s="11" t="s">
         <v>123</v>
@@ -6983,16 +7008,16 @@
     <row r="154" spans="1:6" outlineLevel="1">
       <c r="A154" s="2"/>
       <c r="B154" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="E154" s="5" t="s">
-        <v>278</v>
+        <v>123</v>
       </c>
       <c r="F154" s="11" t="s">
         <v>123</v>
@@ -7001,16 +7026,16 @@
     <row r="155" spans="1:6" outlineLevel="1">
       <c r="A155" s="2"/>
       <c r="B155" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F155" s="11" t="s">
         <v>123</v>
@@ -7019,72 +7044,71 @@
     <row r="156" spans="1:6" outlineLevel="1">
       <c r="A156" s="2"/>
       <c r="B156" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="E156" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="F156" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" outlineLevel="1">
+      <c r="A157" s="2"/>
+      <c r="B157" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C156" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="D156" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="E156" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="F156" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6">
-      <c r="A157" s="20" t="s">
+      <c r="C157" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="D157" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="E157" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="F157" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="B158" s="8"/>
+      <c r="C158" s="8"/>
+      <c r="D158" s="8"/>
+      <c r="E158" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="F158" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" outlineLevel="1">
+      <c r="A159" s="2"/>
+      <c r="B159" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="B157" s="8"/>
-      <c r="C157" s="8"/>
-      <c r="D157" s="8"/>
-      <c r="E157" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="F157" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" outlineLevel="1">
-      <c r="A158" s="2"/>
-      <c r="B158" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="C158" s="4" t="str">
+      <c r="C159" s="4" t="str">
         <f>"Dim objWshShell"&amp;CHAR(10)&amp;"Set objWshShell = WScript.CreateObject(""WScript.Shell"")"</f>
         <v>Dim objWshShell
 Set objWshShell = WScript.CreateObject("WScript.Shell")</v>
       </c>
-      <c r="D158" s="4" t="str">
+      <c r="D159" s="4" t="str">
         <f>"Dim objWshShell
 Set objWshShell = CreateObject(""WScript.Shell"")"</f>
         <v>Dim objWshShell
 Set objWshShell = CreateObject("WScript.Shell")</v>
       </c>
-      <c r="E158" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F158" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" outlineLevel="1">
-      <c r="A159" s="2"/>
-      <c r="B159" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C159" s="4" t="str">
-        <f>"objWshShell.Exec(""C:\test.bat"")"</f>
-        <v>objWshShell.Exec("C:\test.bat")</v>
-      </c>
-      <c r="D159" s="4" t="s">
-        <v>458</v>
-      </c>
       <c r="E159" s="5" t="s">
-        <v>281</v>
+        <v>123</v>
       </c>
       <c r="F159" s="11" t="s">
         <v>123</v>
@@ -7093,17 +7117,17 @@
     <row r="160" spans="1:6" outlineLevel="1">
       <c r="A160" s="2"/>
       <c r="B160" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C160" s="4" t="str">
-        <f>"objWshShell.Run ""C:\test.bat"", 0, True"</f>
-        <v>objWshShell.Run "C:\test.bat", 0, True</v>
+        <f>"objWshShell.Exec(""C:\test.bat"")"</f>
+        <v>objWshShell.Exec("C:\test.bat")</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="E160" s="9" t="s">
-        <v>414</v>
+        <v>456</v>
+      </c>
+      <c r="E160" s="5" t="s">
+        <v>280</v>
       </c>
       <c r="F160" s="11" t="s">
         <v>123</v>
@@ -7112,14 +7136,17 @@
     <row r="161" spans="1:6" outlineLevel="1">
       <c r="A161" s="2"/>
       <c r="B161" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C161" s="4" t="str">
-        <f>"objWshShell.Run ""cmd /c echo.&gt; """"C:\test.txt"""""", 0, True"</f>
-        <v>objWshShell.Run "cmd /c echo.&gt; ""C:\test.txt""", 0, True</v>
+        <f>"objWshShell.Run ""C:\test.bat"", 0, True"</f>
+        <v>objWshShell.Run "C:\test.bat", 0, True</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>460</v>
+        <v>457</v>
+      </c>
+      <c r="E161" s="9" t="s">
+        <v>413</v>
       </c>
       <c r="F161" s="11" t="s">
         <v>123</v>
@@ -7128,17 +7155,14 @@
     <row r="162" spans="1:6" outlineLevel="1">
       <c r="A162" s="2"/>
       <c r="B162" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C162" s="4" t="str">
-        <f>"objWshShell.RegRead(""HKCU\WshTest\Test1"")"</f>
-        <v>objWshShell.RegRead("HKCU\WshTest\Test1")</v>
+        <f>"objWshShell.Run ""cmd /c echo.&gt; """"C:\test.txt"""""", 0, True"</f>
+        <v>objWshShell.Run "cmd /c echo.&gt; ""C:\test.txt""", 0, True</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>461</v>
-      </c>
-      <c r="E162" s="5" t="s">
-        <v>123</v>
+        <v>458</v>
       </c>
       <c r="F162" s="11" t="s">
         <v>123</v>
@@ -7147,17 +7171,17 @@
     <row r="163" spans="1:6" outlineLevel="1">
       <c r="A163" s="2"/>
       <c r="B163" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C163" s="4" t="str">
-        <f>"objWshShell.RegWrite(""HKCU\WshTest\Test1"", ""test"", ""REG\_SZ"")"</f>
-        <v>objWshShell.RegWrite("HKCU\WshTest\Test1", "test", "REG\_SZ")</v>
+        <f>"objWshShell.RegRead(""HKCU\WshTest\Test1"")"</f>
+        <v>objWshShell.RegRead("HKCU\WshTest\Test1")</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="E163" s="5" t="s">
-        <v>282</v>
+        <v>123</v>
       </c>
       <c r="F163" s="11" t="s">
         <v>123</v>
@@ -7166,17 +7190,17 @@
     <row r="164" spans="1:6" outlineLevel="1">
       <c r="A164" s="2"/>
       <c r="B164" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C164" s="4" t="str">
-        <f>"objWshShell.Environment(""User"").Item(""MYPATH\_CODES"")"</f>
-        <v>objWshShell.Environment("User").Item("MYPATH\_CODES")</v>
+        <f>"objWshShell.RegWrite(""HKCU\WshTest\Test1"", ""test"", ""REG\_SZ"")"</f>
+        <v>objWshShell.RegWrite("HKCU\WshTest\Test1", "test", "REG\_SZ")</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>415</v>
+        <v>281</v>
       </c>
       <c r="F164" s="11" t="s">
         <v>123</v>
@@ -7185,16 +7209,18 @@
     <row r="165" spans="1:6" outlineLevel="1">
       <c r="A165" s="2"/>
       <c r="B165" s="2" t="s">
-        <v>383</v>
+        <v>39</v>
       </c>
       <c r="C165" s="4" t="str">
-        <f>"objWshShell.Environment(""User"").Remove(""MYPATH\_CODES"")"</f>
-        <v>objWshShell.Environment("User").Remove("MYPATH\_CODES")</v>
-      </c>
-      <c r="D165" s="12" t="s">
-        <v>423</v>
-      </c>
-      <c r="E165" s="5"/>
+        <f>"objWshShell.Environment(""User"").Item(""MYPATH\_CODES"")"</f>
+        <v>objWshShell.Environment("User").Item("MYPATH\_CODES")</v>
+      </c>
+      <c r="D165" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="E165" s="5" t="s">
+        <v>414</v>
+      </c>
       <c r="F165" s="11" t="s">
         <v>123</v>
       </c>
@@ -7202,18 +7228,16 @@
     <row r="166" spans="1:6" outlineLevel="1">
       <c r="A166" s="2"/>
       <c r="B166" s="2" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="C166" s="4" t="str">
-        <f>"objWshShell.SpecialFolders(""Desktop"")"</f>
-        <v>objWshShell.SpecialFolders("Desktop")</v>
-      </c>
-      <c r="D166" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="E166" s="5" t="s">
-        <v>148</v>
-      </c>
+        <f>"objWshShell.Environment(""User"").Remove(""MYPATH\_CODES"")"</f>
+        <v>objWshShell.Environment("User").Remove("MYPATH\_CODES")</v>
+      </c>
+      <c r="D166" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="E166" s="5"/>
       <c r="F166" s="11" t="s">
         <v>123</v>
       </c>
@@ -7221,16 +7245,35 @@
     <row r="167" spans="1:6" outlineLevel="1">
       <c r="A167" s="2"/>
       <c r="B167" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="C167" s="4" t="str">
+        <f>"objWshShell.SpecialFolders(""Desktop"")"</f>
+        <v>objWshShell.SpecialFolders("Desktop")</v>
+      </c>
+      <c r="D167" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="E167" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="F167" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" outlineLevel="1">
+      <c r="A168" s="2"/>
+      <c r="B168" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C167" s="4" t="str">
+      <c r="C168" s="4" t="str">
         <f>"With objWshShell.CreateShortcut( ""c:\test\src.txt.lnk"" )"&amp;CHAR(10)&amp;".TargetPath = ""c:\test\dst.txt"""&amp;CHAR(10)&amp;".Save"&amp;CHAR(10)&amp;"End With"</f>
         <v>With objWshShell.CreateShortcut( "c:\test\src.txt.lnk" )
 .TargetPath = "c:\test\dst.txt"
 .Save
 End With</v>
       </c>
-      <c r="D167" s="4" t="str">
+      <c r="D168" s="4" t="str">
         <f>"With objWshShell.CreateShortcut( ""c:\test\src.txt.lnk"" )
     .TargetPath = ""c:\test\dst.txt""
     .Save
@@ -7240,27 +7283,8 @@
     .Save
 End With</v>
       </c>
-      <c r="E167" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F167" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" outlineLevel="1">
-      <c r="A168" s="2"/>
-      <c r="B168" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C168" s="4" t="str">
-        <f>"objWshShell.CreateShortcut( ""c:\test\src.txt.lnk"" ).TargetPath"</f>
-        <v>objWshShell.CreateShortcut( "c:\test\src.txt.lnk" ).TargetPath</v>
-      </c>
-      <c r="D168" s="4" t="s">
-        <v>465</v>
-      </c>
       <c r="E168" s="5" t="s">
-        <v>283</v>
+        <v>123</v>
       </c>
       <c r="F168" s="11" t="s">
         <v>123</v>
@@ -7269,16 +7293,35 @@
     <row r="169" spans="1:6" outlineLevel="1">
       <c r="A169" s="2"/>
       <c r="B169" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C169" s="4" t="str">
+        <f>"objWshShell.CreateShortcut( ""c:\test\src.txt.lnk"" ).TargetPath"</f>
+        <v>objWshShell.CreateShortcut( "c:\test\src.txt.lnk" ).TargetPath</v>
+      </c>
+      <c r="D169" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="E169" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="F169" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" outlineLevel="1">
+      <c r="A170" s="2"/>
+      <c r="B170" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C169" s="4" t="str">
+      <c r="C170" s="4" t="str">
         <f>"With objWshShell.CreateShortcut( ""c:\test\src.txt.lnk"" )"&amp;CHAR(10)&amp;".TargetPath = ""c:\test\dst2.txt"""&amp;CHAR(10)&amp;".Save"&amp;CHAR(10)&amp;"End With"</f>
         <v>With objWshShell.CreateShortcut( "c:\test\src.txt.lnk" )
 .TargetPath = "c:\test\dst2.txt"
 .Save
 End With</v>
       </c>
-      <c r="D169" s="4" t="str">
+      <c r="D170" s="4" t="str">
         <f>"With objWshShell.CreateShortcut( ""c:\test\src.txt.lnk"" )
     .TargetPath = ""c:\test\dst2.txt""
     .Save
@@ -7288,64 +7331,47 @@
     .Save
 End With</v>
       </c>
-      <c r="E169" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F169" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" outlineLevel="1">
-      <c r="A170" s="2"/>
-      <c r="B170" s="2" t="s">
+      <c r="E170" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F170" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" outlineLevel="1">
+      <c r="A171" s="2"/>
+      <c r="B171" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C170" s="4" t="str">
+      <c r="C171" s="4" t="str">
         <f>"With objWshShell.CreateShortcut( ""c:\test\src.txt.lnk"" )"&amp;CHAR(10)&amp;".Description = ""テストコメント"""&amp;CHAR(10)&amp;".Save"&amp;CHAR(10)&amp;"End With"</f>
         <v>With objWshShell.CreateShortcut( "c:\test\src.txt.lnk" )
 .Description = "テストコメント"
 .Save
 End With</v>
       </c>
-      <c r="D170" s="12" t="s">
-        <v>423</v>
-      </c>
-      <c r="E170" s="5"/>
-      <c r="F170" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" outlineLevel="1">
-      <c r="A171" s="2"/>
-      <c r="B171" s="2" t="s">
+      <c r="D171" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="E171" s="5"/>
+      <c r="F171" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" outlineLevel="1">
+      <c r="A172" s="2"/>
+      <c r="B172" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C171" s="4" t="str">
+      <c r="C172" s="4" t="str">
         <f>"With objWshShell.CreateShortcut( ""c:\test\src.txt.lnk"" )"&amp;CHAR(10)&amp;".Arguments = "" /b"""&amp;CHAR(10)&amp;".Save"&amp;CHAR(10)&amp;"End With"</f>
         <v>With objWshShell.CreateShortcut( "c:\test\src.txt.lnk" )
 .Arguments = " /b"
 .Save
 End With</v>
       </c>
-      <c r="D171" s="12" t="s">
-        <v>423</v>
-      </c>
-      <c r="E171" s="5"/>
-      <c r="F171" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" outlineLevel="1">
-      <c r="A172" s="2"/>
-      <c r="B172" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C172" s="4" t="str">
-        <f>"objWshShell.Popup ""メッセージ"", lSecond, ""タイトル"", vbInformation"</f>
-        <v>objWshShell.Popup "メッセージ", lSecond, "タイトル", vbInformation</v>
-      </c>
       <c r="D172" s="12" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E172" s="5"/>
       <c r="F172" s="11" t="s">
@@ -7355,14 +7381,14 @@
     <row r="173" spans="1:6" outlineLevel="1">
       <c r="A173" s="2"/>
       <c r="B173" s="2" t="s">
-        <v>139</v>
+        <v>45</v>
       </c>
       <c r="C173" s="4" t="str">
-        <f>C260</f>
-        <v>objWshShell.Exec( "clip" ).StdIn.Write( "テキスト" )</v>
-      </c>
-      <c r="D173" s="23" t="s">
-        <v>402</v>
+        <f>"objWshShell.Popup ""メッセージ"", lSecond, ""タイトル"", vbInformation"</f>
+        <v>objWshShell.Popup "メッセージ", lSecond, "タイトル", vbInformation</v>
+      </c>
+      <c r="D173" s="12" t="s">
+        <v>421</v>
       </c>
       <c r="E173" s="5"/>
       <c r="F173" s="11" t="s">
@@ -7372,89 +7398,86 @@
     <row r="174" spans="1:6" outlineLevel="1">
       <c r="A174" s="2"/>
       <c r="B174" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C174" s="4" t="str">
         <f>C261</f>
-        <v>CreateObject("htmlfile").ParentWindow.Clipboarddata.GetData("text")</v>
+        <v>objWshShell.Exec( "clip" ).StdIn.Write( "テキスト" )</v>
       </c>
       <c r="D174" s="23" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E174" s="5"/>
       <c r="F174" s="11" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="175" spans="1:6">
-      <c r="A175" s="20" t="s">
-        <v>374</v>
-      </c>
-      <c r="B175" s="8"/>
-      <c r="C175" s="8"/>
-      <c r="D175" s="8"/>
-      <c r="E175" s="21" t="s">
-        <v>123</v>
-      </c>
+    <row r="175" spans="1:6" outlineLevel="1">
+      <c r="A175" s="2"/>
+      <c r="B175" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C175" s="4" t="str">
+        <f>C262</f>
+        <v>CreateObject("htmlfile").ParentWindow.Clipboarddata.GetData("text")</v>
+      </c>
+      <c r="D175" s="23" t="s">
+        <v>401</v>
+      </c>
+      <c r="E175" s="5"/>
       <c r="F175" s="11" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="176" spans="1:6" outlineLevel="1">
-      <c r="A176" s="2"/>
-      <c r="B176" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="C176" s="4" t="str">
+    <row r="176" spans="1:6">
+      <c r="A176" s="20" t="s">
+        <v>373</v>
+      </c>
+      <c r="B176" s="8"/>
+      <c r="C176" s="8"/>
+      <c r="D176" s="8"/>
+      <c r="E176" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="F176" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" outlineLevel="1">
+      <c r="A177" s="2"/>
+      <c r="B177" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C177" s="4" t="str">
         <f>"Dim objFSO"&amp;CHAR(10)&amp;"Set objFSO = CreateObject(""Scripting.FileSystemObject"")"</f>
         <v>Dim objFSO
 Set objFSO = CreateObject("Scripting.FileSystemObject")</v>
       </c>
-      <c r="D176" s="4" t="str">
+      <c r="D177" s="4" t="str">
         <f>"Dim objFSO As Object"&amp;CHAR(10)&amp;"Set objFSO = CreateObject(""Scripting.FileSystemObject"")"</f>
         <v>Dim objFSO As Object
 Set objFSO = CreateObject("Scripting.FileSystemObject")</v>
       </c>
-      <c r="E176" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F176" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" outlineLevel="1">
-      <c r="B177" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="C177" s="23" t="s">
-        <v>402</v>
-      </c>
-      <c r="D177" s="4" t="str">
+      <c r="E177" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F177" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" outlineLevel="1">
+      <c r="B178" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="C178" s="23" t="s">
+        <v>401</v>
+      </c>
+      <c r="D178" s="4" t="str">
         <f>"objFSO.CopyFile ThisWorkbook.FullName, ""c:\temp\test.xlsm"""</f>
         <v>objFSO.CopyFile ThisWorkbook.FullName, "c:\temp\test.xlsm"</v>
       </c>
-      <c r="E177" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F177" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" outlineLevel="1">
-      <c r="A178" s="2"/>
-      <c r="B178" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C178" s="4" t="str">
-        <f>"objFSO.CopyFile ""C:\codes\a.txt"", ""C:\codes\test\"""</f>
-        <v>objFSO.CopyFile "C:\codes\a.txt", "C:\codes\test\"</v>
-      </c>
-      <c r="D178" s="4" t="str">
-        <f>"objFSO.CopyFile ""C:\codes\a.txt"", ""C:\codes\test\"""</f>
-        <v>objFSO.CopyFile "C:\codes\a.txt", "C:\codes\test\"</v>
-      </c>
       <c r="E178" s="5" t="s">
-        <v>284</v>
+        <v>123</v>
       </c>
       <c r="F178" s="11" t="s">
         <v>123</v>
@@ -7463,18 +7486,18 @@
     <row r="179" spans="1:6" outlineLevel="1">
       <c r="A179" s="2"/>
       <c r="B179" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C179" s="4" t="str">
-        <f>"objFSO.CopyFile ""C:\codes\a.txt"", ""C:\codes\test\a.txt"""</f>
-        <v>objFSO.CopyFile "C:\codes\a.txt", "C:\codes\test\a.txt"</v>
+        <f>"objFSO.CopyFile ""C:\codes\a.txt"", ""C:\codes\test\"""</f>
+        <v>objFSO.CopyFile "C:\codes\a.txt", "C:\codes\test\"</v>
       </c>
       <c r="D179" s="4" t="str">
-        <f>"objFSO.CopyFile ""C:\codes\a.txt"", ""C:\codes\test\a.txt"""</f>
-        <v>objFSO.CopyFile "C:\codes\a.txt", "C:\codes\test\a.txt"</v>
+        <f>"objFSO.CopyFile ""C:\codes\a.txt"", ""C:\codes\test\"""</f>
+        <v>objFSO.CopyFile "C:\codes\a.txt", "C:\codes\test\"</v>
       </c>
       <c r="E179" s="5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F179" s="11" t="s">
         <v>123</v>
@@ -7483,18 +7506,18 @@
     <row r="180" spans="1:6" outlineLevel="1">
       <c r="A180" s="2"/>
       <c r="B180" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C180" s="4" t="str">
-        <f>"objFSO.DeleteFile ""c:\test"", True"</f>
-        <v>objFSO.DeleteFile "c:\test", True</v>
+        <f>"objFSO.CopyFile ""C:\codes\a.txt"", ""C:\codes\test\a.txt"""</f>
+        <v>objFSO.CopyFile "C:\codes\a.txt", "C:\codes\test\a.txt"</v>
       </c>
       <c r="D180" s="4" t="str">
-        <f>"objFSO.DeleteFile ""c:\test"", True"</f>
-        <v>objFSO.DeleteFile "c:\test", True</v>
+        <f>"objFSO.CopyFile ""C:\codes\a.txt"", ""C:\codes\test\a.txt"""</f>
+        <v>objFSO.CopyFile "C:\codes\a.txt", "C:\codes\test\a.txt"</v>
       </c>
       <c r="E180" s="5" t="s">
-        <v>123</v>
+        <v>284</v>
       </c>
       <c r="F180" s="11" t="s">
         <v>123</v>
@@ -7503,15 +7526,15 @@
     <row r="181" spans="1:6" outlineLevel="1">
       <c r="A181" s="2"/>
       <c r="B181" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C181" s="4" t="str">
-        <f>"objFSO.MoveFile ""C:\codes\src.txt"", ""C:\codes\dst.txt"""</f>
-        <v>objFSO.MoveFile "C:\codes\src.txt", "C:\codes\dst.txt"</v>
+        <f>"objFSO.DeleteFile ""c:\test"", True"</f>
+        <v>objFSO.DeleteFile "c:\test", True</v>
       </c>
       <c r="D181" s="4" t="str">
-        <f>"objFSO.MoveFile ""C:\codes\src.txt"", ""C:\codes\dst.txt"""</f>
-        <v>objFSO.MoveFile "C:\codes\src.txt", "C:\codes\dst.txt"</v>
+        <f>"objFSO.DeleteFile ""c:\test"", True"</f>
+        <v>objFSO.DeleteFile "c:\test", True</v>
       </c>
       <c r="E181" s="5" t="s">
         <v>123</v>
@@ -7523,18 +7546,18 @@
     <row r="182" spans="1:6" outlineLevel="1">
       <c r="A182" s="2"/>
       <c r="B182" s="2" t="s">
-        <v>149</v>
+        <v>49</v>
       </c>
       <c r="C182" s="4" t="str">
-        <f>"objFSO.FileExists(""c:\codes\a.txt"") 'True"</f>
-        <v>objFSO.FileExists("c:\codes\a.txt") 'True</v>
+        <f>"objFSO.MoveFile ""C:\codes\src.txt"", ""C:\codes\dst.txt"""</f>
+        <v>objFSO.MoveFile "C:\codes\src.txt", "C:\codes\dst.txt"</v>
       </c>
       <c r="D182" s="4" t="str">
-        <f>"objFSO.FileExists(""c:\codes\a.txt"")"</f>
-        <v>objFSO.FileExists("c:\codes\a.txt")</v>
+        <f>"objFSO.MoveFile ""C:\codes\src.txt"", ""C:\codes\dst.txt"""</f>
+        <v>objFSO.MoveFile "C:\codes\src.txt", "C:\codes\dst.txt"</v>
       </c>
       <c r="E182" s="5" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="F182" s="11" t="s">
         <v>123</v>
@@ -7543,12 +7566,32 @@
     <row r="183" spans="1:6" outlineLevel="1">
       <c r="A183" s="2"/>
       <c r="B183" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C183" s="22" t="s">
-        <v>402</v>
+        <v>148</v>
+      </c>
+      <c r="C183" s="4" t="str">
+        <f>"objFSO.FileExists(""c:\codes\a.txt"") 'True"</f>
+        <v>objFSO.FileExists("c:\codes\a.txt") 'True</v>
       </c>
       <c r="D183" s="4" t="str">
+        <f>"objFSO.FileExists(""c:\codes\a.txt"")"</f>
+        <v>objFSO.FileExists("c:\codes\a.txt")</v>
+      </c>
+      <c r="E183" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F183" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" outlineLevel="1">
+      <c r="A184" s="2"/>
+      <c r="B184" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C184" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="D184" s="4" t="str">
         <f>"If Dir(""C:\Book1.xlsx"") &lt;&gt; """" Then"&amp;CHAR(10)&amp;CHAR(9)&amp;"存在"&amp;CHAR(10)&amp;"Else"&amp;CHAR(10)&amp;CHAR(9)&amp;"非存在"&amp;CHAR(10)&amp;"End If"</f>
         <v>If Dir("C:\Book1.xlsx") &lt;&gt; "" Then
 	存在
@@ -7556,28 +7599,8 @@
 	非存在
 End If</v>
       </c>
-      <c r="E183" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F183" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" outlineLevel="1">
-      <c r="A184" s="2"/>
-      <c r="B184" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C184" s="4" t="str">
-        <f>"objFSO.GetFile( ""C:\codes\a.txt"" ).Attributes"</f>
-        <v>objFSO.GetFile( "C:\codes\a.txt" ).Attributes</v>
-      </c>
-      <c r="D184" s="4" t="str">
-        <f>"objFSO.GetFile( ""C:\codes\a.txt"" ).Attributes"</f>
-        <v>objFSO.GetFile( "C:\codes\a.txt" ).Attributes</v>
-      </c>
-      <c r="E184" s="9" t="s">
-        <v>138</v>
+      <c r="E184" s="5" t="s">
+        <v>123</v>
       </c>
       <c r="F184" s="11" t="s">
         <v>123</v>
@@ -7586,18 +7609,18 @@
     <row r="185" spans="1:6" outlineLevel="1">
       <c r="A185" s="2"/>
       <c r="B185" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C185" s="4" t="str">
-        <f>"objFSO.GetFile( ""C:\codes\a.txt"" ).Attributes = 2"</f>
-        <v>objFSO.GetFile( "C:\codes\a.txt" ).Attributes = 2</v>
+        <f>"objFSO.GetFile( ""C:\codes\a.txt"" ).Attributes"</f>
+        <v>objFSO.GetFile( "C:\codes\a.txt" ).Attributes</v>
       </c>
       <c r="D185" s="4" t="str">
-        <f>"objFSO.GetFile( ""C:\codes\a.txt"" ).Attributes = 2"</f>
-        <v>objFSO.GetFile( "C:\codes\a.txt" ).Attributes = 2</v>
-      </c>
-      <c r="E185" s="5" t="s">
-        <v>123</v>
+        <f>"objFSO.GetFile( ""C:\codes\a.txt"" ).Attributes"</f>
+        <v>objFSO.GetFile( "C:\codes\a.txt" ).Attributes</v>
+      </c>
+      <c r="E185" s="9" t="s">
+        <v>138</v>
       </c>
       <c r="F185" s="11" t="s">
         <v>123</v>
@@ -7606,18 +7629,18 @@
     <row r="186" spans="1:6" outlineLevel="1">
       <c r="A186" s="2"/>
       <c r="B186" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C186" s="4" t="str">
-        <f>"objFSO.GetAbsolutePathName( ""C:\codes\a.txt"" )"</f>
-        <v>objFSO.GetAbsolutePathName( "C:\codes\a.txt" )</v>
+        <f>"objFSO.GetFile( ""C:\codes\a.txt"" ).Attributes = 2"</f>
+        <v>objFSO.GetFile( "C:\codes\a.txt" ).Attributes = 2</v>
       </c>
       <c r="D186" s="4" t="str">
-        <f>"objFSO.GetAbsolutePathName( ""C:\codes\a.txt"" )"</f>
-        <v>objFSO.GetAbsolutePathName( "C:\codes\a.txt" )</v>
+        <f>"objFSO.GetFile( ""C:\codes\a.txt"" ).Attributes = 2"</f>
+        <v>objFSO.GetFile( "C:\codes\a.txt" ).Attributes = 2</v>
       </c>
       <c r="E186" s="5" t="s">
-        <v>266</v>
+        <v>123</v>
       </c>
       <c r="F186" s="11" t="s">
         <v>123</v>
@@ -7626,18 +7649,18 @@
     <row r="187" spans="1:6" outlineLevel="1">
       <c r="A187" s="2"/>
       <c r="B187" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C187" s="4" t="str">
-        <f>"objFSO.GetDriveName( ""C:\codes\a.txt"" )"</f>
-        <v>objFSO.GetDriveName( "C:\codes\a.txt" )</v>
+        <f>"objFSO.GetAbsolutePathName( ""C:\codes\a.txt"" )"</f>
+        <v>objFSO.GetAbsolutePathName( "C:\codes\a.txt" )</v>
       </c>
       <c r="D187" s="4" t="str">
-        <f>"objFSO.GetDriveName( ""C:\codes\a.txt"" )"</f>
-        <v>objFSO.GetDriveName( "C:\codes\a.txt" )</v>
+        <f>"objFSO.GetAbsolutePathName( ""C:\codes\a.txt"" )"</f>
+        <v>objFSO.GetAbsolutePathName( "C:\codes\a.txt" )</v>
       </c>
       <c r="E187" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F187" s="11" t="s">
         <v>123</v>
@@ -7646,18 +7669,18 @@
     <row r="188" spans="1:6" outlineLevel="1">
       <c r="A188" s="2"/>
       <c r="B188" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C188" s="4" t="str">
-        <f>"objFSO.GetFileName( ""C:\codes\a.txt"" )"</f>
-        <v>objFSO.GetFileName( "C:\codes\a.txt" )</v>
+        <f>"objFSO.GetDriveName( ""C:\codes\a.txt"" )"</f>
+        <v>objFSO.GetDriveName( "C:\codes\a.txt" )</v>
       </c>
       <c r="D188" s="4" t="str">
-        <f>"objFSO.GetFileName( ""C:\codes\a.txt"" )"</f>
-        <v>objFSO.GetFileName( "C:\codes\a.txt" )</v>
+        <f>"objFSO.GetDriveName( ""C:\codes\a.txt"" )"</f>
+        <v>objFSO.GetDriveName( "C:\codes\a.txt" )</v>
       </c>
       <c r="E188" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F188" s="11" t="s">
         <v>123</v>
@@ -7666,18 +7689,18 @@
     <row r="189" spans="1:6" outlineLevel="1">
       <c r="A189" s="2"/>
       <c r="B189" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C189" s="4" t="str">
-        <f>"objFSO.GetParentFolderName( ""C:\codes\a.txt"" )"</f>
-        <v>objFSO.GetParentFolderName( "C:\codes\a.txt" )</v>
+        <f>"objFSO.GetFileName( ""C:\codes\a.txt"" )"</f>
+        <v>objFSO.GetFileName( "C:\codes\a.txt" )</v>
       </c>
       <c r="D189" s="4" t="str">
-        <f>"objFSO.GetParentFolderName( ""C:\codes\a.txt"" )"</f>
-        <v>objFSO.GetParentFolderName( "C:\codes\a.txt" )</v>
+        <f>"objFSO.GetFileName( ""C:\codes\a.txt"" )"</f>
+        <v>objFSO.GetFileName( "C:\codes\a.txt" )</v>
       </c>
       <c r="E189" s="5" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F189" s="11" t="s">
         <v>123</v>
@@ -7686,18 +7709,18 @@
     <row r="190" spans="1:6" outlineLevel="1">
       <c r="A190" s="2"/>
       <c r="B190" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C190" s="4" t="str">
-        <f>"objFSO.GetBaseName( ""C:\codes\a.txt"" )"</f>
-        <v>objFSO.GetBaseName( "C:\codes\a.txt" )</v>
+        <f>"objFSO.GetParentFolderName( ""C:\codes\a.txt"" )"</f>
+        <v>objFSO.GetParentFolderName( "C:\codes\a.txt" )</v>
       </c>
       <c r="D190" s="4" t="str">
-        <f>"objFSO.GetBaseName( ""C:\codes\a.txt"" )"</f>
-        <v>objFSO.GetBaseName( "C:\codes\a.txt" )</v>
+        <f>"objFSO.GetParentFolderName( ""C:\codes\a.txt"" )"</f>
+        <v>objFSO.GetParentFolderName( "C:\codes\a.txt" )</v>
       </c>
       <c r="E190" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F190" s="11" t="s">
         <v>123</v>
@@ -7706,18 +7729,18 @@
     <row r="191" spans="1:6" outlineLevel="1">
       <c r="A191" s="2"/>
       <c r="B191" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C191" s="4" t="str">
-        <f>"objFSO.GetExtensionName( ""C:\codes\a.txt"" )"</f>
-        <v>objFSO.GetExtensionName( "C:\codes\a.txt" )</v>
+        <f>"objFSO.GetBaseName( ""C:\codes\a.txt"" )"</f>
+        <v>objFSO.GetBaseName( "C:\codes\a.txt" )</v>
       </c>
       <c r="D191" s="4" t="str">
-        <f>"objFSO.GetExtensionName( ""C:\codes\a.txt"" )"</f>
-        <v>objFSO.GetExtensionName( "C:\codes\a.txt" )</v>
+        <f>"objFSO.GetBaseName( ""C:\codes\a.txt"" )"</f>
+        <v>objFSO.GetBaseName( "C:\codes\a.txt" )</v>
       </c>
       <c r="E191" s="5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F191" s="11" t="s">
         <v>123</v>
@@ -7726,18 +7749,18 @@
     <row r="192" spans="1:6" outlineLevel="1">
       <c r="A192" s="2"/>
       <c r="B192" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C192" s="4" t="str">
-        <f>"objFSO.CopyFolder ""C:\codes\src"", ""C:\codes\dst"", True"</f>
-        <v>objFSO.CopyFolder "C:\codes\src", "C:\codes\dst", True</v>
+        <f>"objFSO.GetExtensionName( ""C:\codes\a.txt"" )"</f>
+        <v>objFSO.GetExtensionName( "C:\codes\a.txt" )</v>
       </c>
       <c r="D192" s="4" t="str">
-        <f>"objFSO.CopyFolder ""C:\codes\src"", ""C:\codes\dst"", True"</f>
-        <v>objFSO.CopyFolder "C:\codes\src", "C:\codes\dst", True</v>
+        <f>"objFSO.GetExtensionName( ""C:\codes\a.txt"" )"</f>
+        <v>objFSO.GetExtensionName( "C:\codes\a.txt" )</v>
       </c>
       <c r="E192" s="5" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="F192" s="11" t="s">
         <v>123</v>
@@ -7746,18 +7769,18 @@
     <row r="193" spans="1:6" outlineLevel="1">
       <c r="A193" s="2"/>
       <c r="B193" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C193" s="4" t="str">
-        <f>"objFSO.DeleteFolder ""C:\codes\test"", True"</f>
-        <v>objFSO.DeleteFolder "C:\codes\test", True</v>
+        <f>"objFSO.CopyFolder ""C:\codes\src"", ""C:\codes\dst"", True"</f>
+        <v>objFSO.CopyFolder "C:\codes\src", "C:\codes\dst", True</v>
       </c>
       <c r="D193" s="4" t="str">
-        <f>"objFSO.DeleteFolder ""C:\codes\test"", True"</f>
-        <v>objFSO.DeleteFolder "C:\codes\test", True</v>
+        <f>"objFSO.CopyFolder ""C:\codes\src"", ""C:\codes\dst"", True"</f>
+        <v>objFSO.CopyFolder "C:\codes\src", "C:\codes\dst", True</v>
       </c>
       <c r="E193" s="5" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F193" s="11" t="s">
         <v>123</v>
@@ -7766,18 +7789,18 @@
     <row r="194" spans="1:6" outlineLevel="1">
       <c r="A194" s="2"/>
       <c r="B194" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C194" s="4" t="str">
-        <f>"objFSO.CreateFolder( ""C:\codes\test"" )"</f>
-        <v>objFSO.CreateFolder( "C:\codes\test" )</v>
+        <f>"objFSO.DeleteFolder ""C:\codes\test"", True"</f>
+        <v>objFSO.DeleteFolder "C:\codes\test", True</v>
       </c>
       <c r="D194" s="4" t="str">
-        <f>"objFSO.CreateFolder( ""C:\codes\test"" )"</f>
-        <v>objFSO.CreateFolder( "C:\codes\test" )</v>
+        <f>"objFSO.DeleteFolder ""C:\codes\test"", True"</f>
+        <v>objFSO.DeleteFolder "C:\codes\test", True</v>
       </c>
       <c r="E194" s="5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F194" s="11" t="s">
         <v>123</v>
@@ -7786,18 +7809,18 @@
     <row r="195" spans="1:6" outlineLevel="1">
       <c r="A195" s="2"/>
       <c r="B195" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C195" s="4" t="str">
-        <f>"objFSO.MoveFolder ""C:\codes\src"", ""C:\codes\dst"""</f>
-        <v>objFSO.MoveFolder "C:\codes\src", "C:\codes\dst"</v>
+        <f>"objFSO.CreateFolder( ""C:\codes\test"" )"</f>
+        <v>objFSO.CreateFolder( "C:\codes\test" )</v>
       </c>
       <c r="D195" s="4" t="str">
-        <f>"objFSO.MoveFolder ""C:\codes\src"", ""C:\codes\dst"""</f>
-        <v>objFSO.MoveFolder "C:\codes\src", "C:\codes\dst"</v>
+        <f>"objFSO.CreateFolder( ""C:\codes\test"" )"</f>
+        <v>objFSO.CreateFolder( "C:\codes\test" )</v>
       </c>
       <c r="E195" s="5" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F195" s="11" t="s">
         <v>123</v>
@@ -7806,17 +7829,18 @@
     <row r="196" spans="1:6" outlineLevel="1">
       <c r="A196" s="2"/>
       <c r="B196" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C196" s="4" t="s">
-        <v>396</v>
+        <v>61</v>
+      </c>
+      <c r="C196" s="4" t="str">
+        <f>"objFSO.MoveFolder ""C:\codes\src"", ""C:\codes\dst"""</f>
+        <v>objFSO.MoveFolder "C:\codes\src", "C:\codes\dst"</v>
       </c>
       <c r="D196" s="4" t="str">
-        <f>"objFSO.GetFolder( ""C:\codes"" ).Attributes"</f>
-        <v>objFSO.GetFolder( "C:\codes" ).Attributes</v>
+        <f>"objFSO.MoveFolder ""C:\codes\src"", ""C:\codes\dst"""</f>
+        <v>objFSO.MoveFolder "C:\codes\src", "C:\codes\dst"</v>
       </c>
       <c r="E196" s="5" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F196" s="11" t="s">
         <v>123</v>
@@ -7825,18 +7849,17 @@
     <row r="197" spans="1:6" outlineLevel="1">
       <c r="A197" s="2"/>
       <c r="B197" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="C197" s="4" t="str">
-        <f>"objFSO.FolderExists( ""C:\codes"" )"</f>
-        <v>objFSO.FolderExists( "C:\codes" )</v>
+        <v>62</v>
+      </c>
+      <c r="C197" s="4" t="s">
+        <v>395</v>
       </c>
       <c r="D197" s="4" t="str">
-        <f>"objFSO.FolderExists( ""C:\codes"" )"</f>
-        <v>objFSO.FolderExists( "C:\codes" )</v>
-      </c>
-      <c r="E197" s="5" t="b">
-        <v>1</v>
+        <f>"objFSO.GetFolder( ""C:\codes"" ).Attributes"</f>
+        <v>objFSO.GetFolder( "C:\codes" ).Attributes</v>
+      </c>
+      <c r="E197" s="5" t="s">
+        <v>289</v>
       </c>
       <c r="F197" s="11" t="s">
         <v>123</v>
@@ -7845,108 +7868,128 @@
     <row r="198" spans="1:6" outlineLevel="1">
       <c r="A198" s="2"/>
       <c r="B198" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C198" s="4" t="str">
+        <f>"objFSO.FolderExists( ""C:\codes"" )"</f>
+        <v>objFSO.FolderExists( "C:\codes" )</v>
+      </c>
+      <c r="D198" s="4" t="str">
+        <f>"objFSO.FolderExists( ""C:\codes"" )"</f>
+        <v>objFSO.FolderExists( "C:\codes" )</v>
+      </c>
+      <c r="E198" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F198" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" outlineLevel="1">
+      <c r="A199" s="2"/>
+      <c r="B199" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C199" s="4" t="str">
         <f>"objFSO.GetParentFolderName( ""C:\codes\src"" )"</f>
         <v>objFSO.GetParentFolderName( "C:\codes\src" )</v>
       </c>
-      <c r="D198" s="4" t="str">
+      <c r="D199" s="4" t="str">
         <f>"objFSO.GetParentFolderName( ""C:\codes\src"" )"</f>
         <v>objFSO.GetParentFolderName( "C:\codes\src" )</v>
       </c>
-      <c r="E198" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="F198" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" outlineLevel="1">
-      <c r="B199" s="2" t="s">
+      <c r="E199" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="F199" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" outlineLevel="1">
+      <c r="B200" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C200" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="C199" s="4" t="s">
+      <c r="D200" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="E200" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="D199" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="E199" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="F199" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6">
-      <c r="A200" s="20" t="s">
-        <v>490</v>
-      </c>
-      <c r="B200" s="8"/>
-      <c r="C200" s="8"/>
-      <c r="D200" s="8"/>
-      <c r="E200" s="21" t="s">
-        <v>123</v>
-      </c>
       <c r="F200" s="11" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="201" spans="1:6" outlineLevel="1">
-      <c r="A201" s="2"/>
-      <c r="B201" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="C201" s="26" t="str">
+    <row r="201" spans="1:6">
+      <c r="A201" s="20" t="s">
+        <v>488</v>
+      </c>
+      <c r="B201" s="8"/>
+      <c r="C201" s="8"/>
+      <c r="D201" s="8"/>
+      <c r="E201" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="F201" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" outlineLevel="1">
+      <c r="A202" s="2"/>
+      <c r="B202" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C202" s="26" t="str">
         <f>"Dim oRegExp
 Set oRegExp = CreateObject(""VBScript.RegExp"")"</f>
         <v>Dim oRegExp
 Set oRegExp = CreateObject("VBScript.RegExp")</v>
       </c>
-      <c r="D201" s="10" t="str">
+      <c r="D202" s="10" t="str">
         <f>"Dim oRegExp As Object
 Set oRegExp = CreateObject(""VBScript.RegExp"")"</f>
         <v>Dim oRegExp As Object
 Set oRegExp = CreateObject("VBScript.RegExp")</v>
       </c>
-      <c r="E201" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F201" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" outlineLevel="1">
-      <c r="A202" s="2"/>
-      <c r="B202" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="C202" s="26" t="str">
+      <c r="E202" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F202" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" outlineLevel="1">
+      <c r="A203" s="2"/>
+      <c r="B203" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="C203" s="26" t="str">
         <f>"Dim sTargetStr
 sTargetStr = ""TestFunc(int bbb) TestFunc01(char aaa) TestFunc02(int bbb)"""</f>
         <v>Dim sTargetStr
 sTargetStr = "TestFunc(int bbb) TestFunc01(char aaa) TestFunc02(int bbb)"</v>
       </c>
-      <c r="D202" s="10" t="str">
+      <c r="D203" s="10" t="str">
         <f>"Dim sTargetStr As String
 sTargetStr = ""TestFunc(int bbb) TestFunc01(char aaa) TestFunc02(int bbb)"""</f>
         <v>Dim sTargetStr As String
 sTargetStr = "TestFunc(int bbb) TestFunc01(char aaa) TestFunc02(int bbb)"</v>
       </c>
-      <c r="E202" s="5" t="s">
-        <v>494</v>
-      </c>
-      <c r="F202" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" outlineLevel="1">
-      <c r="A203" s="2"/>
-      <c r="B203" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="C203" s="26" t="str">
+      <c r="E203" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="F203" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" outlineLevel="1">
+      <c r="A204" s="2"/>
+      <c r="B204" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="C204" s="26" t="str">
         <f>"Dim sSearchPattern
 sSearchPattern = ""(\w+)\((\w+) (\w+)\)""
 oRegExp.Pattern = sSearchPattern"</f>
@@ -7954,7 +7997,7 @@
 sSearchPattern = "(\w+)\((\w+) (\w+)\)"
 oRegExp.Pattern = sSearchPattern</v>
       </c>
-      <c r="D203" s="10" t="str">
+      <c r="D204" s="10" t="str">
         <f>"Dim sSearchPattern As String
 sSearchPattern = ""(\w+)\((\w+) (\w+)\)""
 oRegExp.Pattern = sSearchPattern"</f>
@@ -7962,26 +8005,8 @@
 sSearchPattern = "(\w+)\((\w+) (\w+)\)"
 oRegExp.Pattern = sSearchPattern</v>
       </c>
-      <c r="E203" s="5" t="s">
-        <v>494</v>
-      </c>
-      <c r="F203" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" outlineLevel="1">
-      <c r="A204" s="2"/>
-      <c r="B204" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="C204" s="27" t="s">
-        <v>495</v>
-      </c>
-      <c r="D204" s="10" t="s">
-        <v>471</v>
-      </c>
       <c r="E204" s="5" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="F204" s="11" t="s">
         <v>123</v>
@@ -7990,16 +8015,16 @@
     <row r="205" spans="1:6" outlineLevel="1">
       <c r="A205" s="2"/>
       <c r="B205" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="C205" s="26" t="s">
-        <v>496</v>
+        <v>477</v>
+      </c>
+      <c r="C205" s="27" t="s">
+        <v>493</v>
       </c>
       <c r="D205" s="10" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="E205" s="5" t="s">
-        <v>123</v>
+        <v>487</v>
       </c>
       <c r="F205" s="11" t="s">
         <v>123</v>
@@ -8008,40 +8033,40 @@
     <row r="206" spans="1:6" outlineLevel="1">
       <c r="A206" s="2"/>
       <c r="B206" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="C206" s="26" t="str">
+        <v>478</v>
+      </c>
+      <c r="C206" s="26" t="s">
+        <v>494</v>
+      </c>
+      <c r="D206" s="10" t="s">
+        <v>470</v>
+      </c>
+      <c r="E206" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F206" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" outlineLevel="1">
+      <c r="A207" s="2"/>
+      <c r="B207" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="C207" s="26" t="str">
         <f>"Dim oMatchResult
 Set oMatchResult = oRegExp.Execute(sTargetStr)"</f>
         <v>Dim oMatchResult
 Set oMatchResult = oRegExp.Execute(sTargetStr)</v>
       </c>
-      <c r="D206" s="10" t="str">
+      <c r="D207" s="10" t="str">
         <f>"Dim oMatchResult As Object
 Set oMatchResult = oRegExp.Execute(sTargetStr)"</f>
         <v>Dim oMatchResult As Object
 Set oMatchResult = oRegExp.Execute(sTargetStr)</v>
       </c>
-      <c r="E206" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F206" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" outlineLevel="1">
-      <c r="A207" s="2"/>
-      <c r="B207" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="C207" s="26" t="s">
-        <v>497</v>
-      </c>
-      <c r="D207" s="10" t="s">
-        <v>473</v>
-      </c>
       <c r="E207" s="5" t="s">
-        <v>482</v>
+        <v>123</v>
       </c>
       <c r="F207" s="11" t="s">
         <v>123</v>
@@ -8050,16 +8075,16 @@
     <row r="208" spans="1:6" outlineLevel="1">
       <c r="A208" s="2"/>
       <c r="B208" s="2" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C208" s="26" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="D208" s="10" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="E208" s="5" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="F208" s="11" t="s">
         <v>123</v>
@@ -8068,16 +8093,16 @@
     <row r="209" spans="1:6" outlineLevel="1">
       <c r="A209" s="2"/>
       <c r="B209" s="2" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C209" s="26" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D209" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="E209" s="5" t="s">
         <v>484</v>
-      </c>
-      <c r="E209" s="5" t="s">
-        <v>487</v>
       </c>
       <c r="F209" s="11" t="s">
         <v>123</v>
@@ -8086,16 +8111,16 @@
     <row r="210" spans="1:6" outlineLevel="1">
       <c r="A210" s="2"/>
       <c r="B210" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C210" s="26" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="D210" s="10" t="s">
+        <v>482</v>
+      </c>
+      <c r="E210" s="5" t="s">
         <v>485</v>
-      </c>
-      <c r="E210" s="5" t="s">
-        <v>488</v>
       </c>
       <c r="F210" s="11" t="s">
         <v>123</v>
@@ -8104,76 +8129,77 @@
     <row r="211" spans="1:6" outlineLevel="1">
       <c r="A211" s="2"/>
       <c r="B211" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="C211" s="26" t="str">
+        <v>474</v>
+      </c>
+      <c r="C211" s="26" t="s">
+        <v>498</v>
+      </c>
+      <c r="D211" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="E211" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="F211" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" outlineLevel="1">
+      <c r="A212" s="2"/>
+      <c r="B212" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="C212" s="26" t="str">
         <f>"Dim sReplacePattern
 sReplacePattern = ""型名:$2"""</f>
         <v>Dim sReplacePattern
 sReplacePattern = "型名:$2"</v>
       </c>
-      <c r="D211" s="10" t="str">
+      <c r="D212" s="10" t="str">
         <f>"Dim sReplacePattern As String
 sReplacePattern = ""型名:$2"""</f>
         <v>Dim sReplacePattern As String
 sReplacePattern = "型名:$2"</v>
       </c>
-      <c r="E211" s="5"/>
-      <c r="F211" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" outlineLevel="1">
-      <c r="A212" s="2"/>
-      <c r="B212" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="C212" s="26" t="str">
+      <c r="E212" s="5"/>
+      <c r="F212" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" outlineLevel="1">
+      <c r="A213" s="2"/>
+      <c r="B213" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="C213" s="26" t="str">
         <f>"Dim sReplaceResult
 oRegExp.Replace(sTargetStr, sReplacePattern)"</f>
         <v>Dim sReplaceResult
 oRegExp.Replace(sTargetStr, sReplacePattern)</v>
       </c>
-      <c r="D212" s="10" t="str">
+      <c r="D213" s="10" t="str">
         <f>"Dim sReplaceResult As String
 sReplaceResult = oRegExp.Replace(sTargetStr, sReplacePattern)"</f>
         <v>Dim sReplaceResult As String
 sReplaceResult = oRegExp.Replace(sTargetStr, sReplacePattern)</v>
       </c>
-      <c r="E212" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="F212" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6">
-      <c r="A213" s="20" t="s">
-        <v>403</v>
-      </c>
-      <c r="B213" s="8"/>
-      <c r="C213" s="8"/>
-      <c r="D213" s="8"/>
-      <c r="E213" s="21" t="s">
-        <v>123</v>
+      <c r="E213" s="5" t="s">
+        <v>490</v>
       </c>
       <c r="F213" s="11" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="214" spans="1:6" outlineLevel="1">
-      <c r="A214" s="2"/>
-      <c r="B214" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C214" s="4" t="str">
-        <f>"WScript.ScriptFullName"</f>
-        <v>WScript.ScriptFullName</v>
-      </c>
-      <c r="D214" s="25" t="s">
-        <v>426</v>
-      </c>
-      <c r="E214" s="5"/>
+    <row r="214" spans="1:6">
+      <c r="A214" s="20" t="s">
+        <v>402</v>
+      </c>
+      <c r="B214" s="8"/>
+      <c r="C214" s="8"/>
+      <c r="D214" s="8"/>
+      <c r="E214" s="21" t="s">
+        <v>123</v>
+      </c>
       <c r="F214" s="11" t="s">
         <v>123</v>
       </c>
@@ -8181,11 +8207,11 @@
     <row r="215" spans="1:6" outlineLevel="1">
       <c r="A215" s="2"/>
       <c r="B215" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C215" s="4" t="str">
-        <f>"WScript.ScriptName"</f>
-        <v>WScript.ScriptName</v>
+        <f>"WScript.ScriptFullName"</f>
+        <v>WScript.ScriptFullName</v>
       </c>
       <c r="D215" s="25" t="s">
         <v>424</v>
@@ -8198,14 +8224,14 @@
     <row r="216" spans="1:6" outlineLevel="1">
       <c r="A216" s="2"/>
       <c r="B216" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C216" s="4" t="str">
-        <f>"Mid( WScript.ScriptName, 1, InStrRev( WScript.ScriptName, ""."" ) - 1 )"</f>
-        <v>Mid( WScript.ScriptName, 1, InStrRev( WScript.ScriptName, "." ) - 1 )</v>
-      </c>
-      <c r="D216" s="22" t="s">
-        <v>402</v>
+        <f>"WScript.ScriptName"</f>
+        <v>WScript.ScriptName</v>
+      </c>
+      <c r="D216" s="25" t="s">
+        <v>422</v>
       </c>
       <c r="E216" s="5"/>
       <c r="F216" s="11" t="s">
@@ -8215,14 +8241,14 @@
     <row r="217" spans="1:6" outlineLevel="1">
       <c r="A217" s="2"/>
       <c r="B217" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C217" s="4" t="str">
-        <f>"objFSO.GetBaseName( WScript.ScriptName )"</f>
-        <v>objFSO.GetBaseName( WScript.ScriptName )</v>
+        <f>"Mid( WScript.ScriptName, 1, InStrRev( WScript.ScriptName, ""."" ) - 1 )"</f>
+        <v>Mid( WScript.ScriptName, 1, InStrRev( WScript.ScriptName, "." ) - 1 )</v>
       </c>
       <c r="D217" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E217" s="5"/>
       <c r="F217" s="11" t="s">
@@ -8232,14 +8258,14 @@
     <row r="218" spans="1:6" outlineLevel="1">
       <c r="A218" s="2"/>
       <c r="B218" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C218" s="4" t="str">
-        <f>"Replace( WScript.ScriptFullName, ""\"" &amp; WScript.ScriptName, """" )"</f>
-        <v>Replace( WScript.ScriptFullName, "\" &amp; WScript.ScriptName, "" )</v>
-      </c>
-      <c r="D218" s="10" t="s">
-        <v>425</v>
+        <f>"objFSO.GetBaseName( WScript.ScriptName )"</f>
+        <v>objFSO.GetBaseName( WScript.ScriptName )</v>
+      </c>
+      <c r="D218" s="22" t="s">
+        <v>401</v>
       </c>
       <c r="E218" s="5"/>
       <c r="F218" s="11" t="s">
@@ -8249,68 +8275,66 @@
     <row r="219" spans="1:6" outlineLevel="1">
       <c r="A219" s="2"/>
       <c r="B219" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C219" s="4" t="str">
+        <f>"Replace( WScript.ScriptFullName, ""\"" &amp; WScript.ScriptName, """" )"</f>
+        <v>Replace( WScript.ScriptFullName, "\" &amp; WScript.ScriptName, "" )</v>
+      </c>
+      <c r="D219" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="E219" s="5"/>
+      <c r="F219" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" outlineLevel="1">
+      <c r="A220" s="2"/>
+      <c r="B220" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C219" s="4" t="str">
+      <c r="C220" s="4" t="str">
         <f>"objFSO.GetParentFolderName( WScript.ScriptFullName )"</f>
         <v>objFSO.GetParentFolderName( WScript.ScriptFullName )</v>
       </c>
-      <c r="D219" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="E219" s="5"/>
-      <c r="F219" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6">
-      <c r="A220" s="20" t="s">
-        <v>404</v>
-      </c>
-      <c r="B220" s="8"/>
-      <c r="C220" s="8"/>
-      <c r="D220" s="8"/>
-      <c r="E220" s="21" t="s">
-        <v>123</v>
-      </c>
+      <c r="D220" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="E220" s="5"/>
       <c r="F220" s="11" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="221" spans="1:6" outlineLevel="1">
-      <c r="A221" s="2"/>
-      <c r="B221" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="C221" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="D221" s="4" t="str">
+    <row r="221" spans="1:6">
+      <c r="A221" s="20" t="s">
+        <v>403</v>
+      </c>
+      <c r="B221" s="8"/>
+      <c r="C221" s="8"/>
+      <c r="D221" s="8"/>
+      <c r="E221" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="F221" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" outlineLevel="1">
+      <c r="A222" s="2"/>
+      <c r="B222" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C222" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="D222" s="4" t="str">
         <f>"Dim oChartObj As ChartObject"&amp;CHAR(10)&amp;"Set oChartObj = ThisWorkbook.Sheets(シート名).ChartObjects(1)"</f>
         <v>Dim oChartObj As ChartObject
 Set oChartObj = ThisWorkbook.Sheets(シート名).ChartObjects(1)</v>
       </c>
-      <c r="E221" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F221" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" outlineLevel="1">
-      <c r="A222" s="2"/>
-      <c r="B222" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C222" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="D222" s="4" t="str">
-        <f>"Set oChartObj = .Sheets(シート名).ChartObjects.Add( XPOS, YPOS, WIDTH, HEIGHT )"</f>
-        <v>Set oChartObj = .Sheets(シート名).ChartObjects.Add( XPOS, YPOS, WIDTH, HEIGHT )</v>
-      </c>
       <c r="E222" s="5" t="s">
-        <v>310</v>
+        <v>123</v>
       </c>
       <c r="F222" s="11" t="s">
         <v>123</v>
@@ -8319,17 +8343,17 @@
     <row r="223" spans="1:6" outlineLevel="1">
       <c r="A223" s="2"/>
       <c r="B223" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C223" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D223" s="4" t="str">
-        <f>"oChartObj.Delete"</f>
-        <v>oChartObj.Delete</v>
+        <f>"Set oChartObj = .Sheets(シート名).ChartObjects.Add( XPOS, YPOS, WIDTH, HEIGHT )"</f>
+        <v>Set oChartObj = .Sheets(シート名).ChartObjects.Add( XPOS, YPOS, WIDTH, HEIGHT )</v>
       </c>
       <c r="E223" s="5" t="s">
-        <v>123</v>
+        <v>309</v>
       </c>
       <c r="F223" s="11" t="s">
         <v>123</v>
@@ -8338,14 +8362,14 @@
     <row r="224" spans="1:6" outlineLevel="1">
       <c r="A224" s="2"/>
       <c r="B224" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C224" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D224" s="4" t="str">
-        <f>"oChartObj.Chart.ChartArea.Copy"</f>
-        <v>oChartObj.Chart.ChartArea.Copy</v>
+        <f>"oChartObj.Delete"</f>
+        <v>oChartObj.Delete</v>
       </c>
       <c r="E224" s="5" t="s">
         <v>123</v>
@@ -8357,14 +8381,14 @@
     <row r="225" spans="1:6" outlineLevel="1">
       <c r="A225" s="2"/>
       <c r="B225" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C225" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D225" s="4" t="str">
-        <f>"oChartObj.Top = 10"</f>
-        <v>oChartObj.Top = 10</v>
+        <f>"oChartObj.Chart.ChartArea.Copy"</f>
+        <v>oChartObj.Chart.ChartArea.Copy</v>
       </c>
       <c r="E225" s="5" t="s">
         <v>123</v>
@@ -8376,14 +8400,14 @@
     <row r="226" spans="1:6" outlineLevel="1">
       <c r="A226" s="2"/>
       <c r="B226" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C226" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D226" s="4" t="str">
-        <f>"oChartObj.Left = 20"</f>
-        <v>oChartObj.Left = 20</v>
+        <f>"oChartObj.Top = 10"</f>
+        <v>oChartObj.Top = 10</v>
       </c>
       <c r="E226" s="5" t="s">
         <v>123</v>
@@ -8395,14 +8419,14 @@
     <row r="227" spans="1:6" outlineLevel="1">
       <c r="A227" s="2"/>
       <c r="B227" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C227" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D227" s="4" t="str">
-        <f>"oChartObj.Width = 200"</f>
-        <v>oChartObj.Width = 200</v>
+        <f>"oChartObj.Left = 20"</f>
+        <v>oChartObj.Left = 20</v>
       </c>
       <c r="E227" s="5" t="s">
         <v>123</v>
@@ -8414,14 +8438,14 @@
     <row r="228" spans="1:6" outlineLevel="1">
       <c r="A228" s="2"/>
       <c r="B228" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C228" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D228" s="4" t="str">
-        <f>"oChartObj.Height = 300"</f>
-        <v>oChartObj.Height = 300</v>
+        <f>"oChartObj.Width = 200"</f>
+        <v>oChartObj.Width = 200</v>
       </c>
       <c r="E228" s="5" t="s">
         <v>123</v>
@@ -8433,17 +8457,17 @@
     <row r="229" spans="1:6" outlineLevel="1">
       <c r="A229" s="2"/>
       <c r="B229" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C229" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D229" s="4" t="str">
-        <f>"oChartObj.Chart.ChartType = xlXYScatterLines"</f>
-        <v>oChartObj.Chart.ChartType = xlXYScatterLines</v>
+        <f>"oChartObj.Height = 300"</f>
+        <v>oChartObj.Height = 300</v>
       </c>
       <c r="E229" s="5" t="s">
-        <v>311</v>
+        <v>123</v>
       </c>
       <c r="F229" s="11" t="s">
         <v>123</v>
@@ -8452,17 +8476,17 @@
     <row r="230" spans="1:6" outlineLevel="1">
       <c r="A230" s="2"/>
       <c r="B230" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C230" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D230" s="4" t="str">
-        <f>"oChartObj.Chart.SetSourceData Source:=Union(rXAxsRng, rDataRng)"</f>
-        <v>oChartObj.Chart.SetSourceData Source:=Union(rXAxsRng, rDataRng)</v>
+        <f>"oChartObj.Chart.ChartType = xlXYScatterLines"</f>
+        <v>oChartObj.Chart.ChartType = xlXYScatterLines</v>
       </c>
       <c r="E230" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F230" s="11" t="s">
         <v>123</v>
@@ -8471,17 +8495,17 @@
     <row r="231" spans="1:6" outlineLevel="1">
       <c r="A231" s="2"/>
       <c r="B231" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C231" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D231" s="4" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).HasTitle = True"</f>
-        <v>oChartObj.Chart.Axes(xlCategory).HasTitle = True</v>
+        <f>"oChartObj.Chart.SetSourceData Source:=Union(rXAxsRng, rDataRng)"</f>
+        <v>oChartObj.Chart.SetSourceData Source:=Union(rXAxsRng, rDataRng)</v>
       </c>
       <c r="E231" s="5" t="s">
-        <v>123</v>
+        <v>311</v>
       </c>
       <c r="F231" s="11" t="s">
         <v>123</v>
@@ -8490,14 +8514,14 @@
     <row r="232" spans="1:6" outlineLevel="1">
       <c r="A232" s="2"/>
       <c r="B232" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C232" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D232" s="4" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).AxisTitle.Text = ""Test Axis X"""</f>
-        <v>oChartObj.Chart.Axes(xlCategory).AxisTitle.Text = "Test Axis X"</v>
+        <f>"oChartObj.Chart.Axes(xlCategory).HasTitle = True"</f>
+        <v>oChartObj.Chart.Axes(xlCategory).HasTitle = True</v>
       </c>
       <c r="E232" s="5" t="s">
         <v>123</v>
@@ -8509,14 +8533,14 @@
     <row r="233" spans="1:6" outlineLevel="1">
       <c r="A233" s="2"/>
       <c r="B233" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C233" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D233" s="4" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).HasMajorGridlines = True"</f>
-        <v>oChartObj.Chart.Axes(xlCategory).HasMajorGridlines = True</v>
+        <f>"oChartObj.Chart.Axes(xlCategory).AxisTitle.Text = ""Test Axis X"""</f>
+        <v>oChartObj.Chart.Axes(xlCategory).AxisTitle.Text = "Test Axis X"</v>
       </c>
       <c r="E233" s="5" t="s">
         <v>123</v>
@@ -8528,14 +8552,14 @@
     <row r="234" spans="1:6" outlineLevel="1">
       <c r="A234" s="2"/>
       <c r="B234" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C234" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D234" s="4" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.Color = RGB(217, 217, 217)"</f>
-        <v>oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.Color = RGB(217, 217, 217)</v>
+        <f>"oChartObj.Chart.Axes(xlCategory).HasMajorGridlines = True"</f>
+        <v>oChartObj.Chart.Axes(xlCategory).HasMajorGridlines = True</v>
       </c>
       <c r="E234" s="5" t="s">
         <v>123</v>
@@ -8547,14 +8571,14 @@
     <row r="235" spans="1:6" outlineLevel="1">
       <c r="A235" s="2"/>
       <c r="B235" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C235" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D235" s="4" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.Weight = 2"</f>
-        <v>oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.Weight = 2</v>
+        <f>"oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.Color = RGB(217, 217, 217)"</f>
+        <v>oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.Color = RGB(217, 217, 217)</v>
       </c>
       <c r="E235" s="5" t="s">
         <v>123</v>
@@ -8566,14 +8590,14 @@
     <row r="236" spans="1:6" outlineLevel="1">
       <c r="A236" s="2"/>
       <c r="B236" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C236" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D236" s="4" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.LineStyle = (xlContinuous\|xlDot\|xlDouble\|xlLineStyleNone\|...)"</f>
-        <v>oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.LineStyle = (xlContinuous\|xlDot\|xlDouble\|xlLineStyleNone\|...)</v>
+        <f>"oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.Weight = 2"</f>
+        <v>oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.Weight = 2</v>
       </c>
       <c r="E236" s="5" t="s">
         <v>123</v>
@@ -8585,13 +8609,14 @@
     <row r="237" spans="1:6" outlineLevel="1">
       <c r="A237" s="2"/>
       <c r="B237" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C237" s="24" t="s">
-        <v>402</v>
-      </c>
-      <c r="D237" s="5" t="s">
-        <v>262</v>
+        <v>233</v>
+      </c>
+      <c r="C237" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="D237" s="4" t="str">
+        <f>"oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.LineStyle = (xlContinuous\|xlDot\|xlDouble\|xlLineStyleNone\|...)"</f>
+        <v>oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.LineStyle = (xlContinuous\|xlDot\|xlDouble\|xlLineStyleNone\|...)</v>
       </c>
       <c r="E237" s="5" t="s">
         <v>123</v>
@@ -8603,14 +8628,13 @@
     <row r="238" spans="1:6" outlineLevel="1">
       <c r="A238" s="2"/>
       <c r="B238" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C238" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="D238" s="4" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).MinimumScaleIsAuto = False"</f>
-        <v>oChartObj.Chart.Axes(xlCategory).MinimumScaleIsAuto = False</v>
+        <v>234</v>
+      </c>
+      <c r="C238" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D238" s="5" t="s">
+        <v>261</v>
       </c>
       <c r="E238" s="5" t="s">
         <v>123</v>
@@ -8622,14 +8646,14 @@
     <row r="239" spans="1:6" outlineLevel="1">
       <c r="A239" s="2"/>
       <c r="B239" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C239" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D239" s="4" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).MaximumScaleIsAuto = False"</f>
-        <v>oChartObj.Chart.Axes(xlCategory).MaximumScaleIsAuto = False</v>
+        <f>"oChartObj.Chart.Axes(xlCategory).MinimumScaleIsAuto = False"</f>
+        <v>oChartObj.Chart.Axes(xlCategory).MinimumScaleIsAuto = False</v>
       </c>
       <c r="E239" s="5" t="s">
         <v>123</v>
@@ -8641,14 +8665,14 @@
     <row r="240" spans="1:6" outlineLevel="1">
       <c r="A240" s="2"/>
       <c r="B240" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C240" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D240" s="4" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).MinimumScale = 0"</f>
-        <v>oChartObj.Chart.Axes(xlCategory).MinimumScale = 0</v>
+        <f>"oChartObj.Chart.Axes(xlCategory).MaximumScaleIsAuto = False"</f>
+        <v>oChartObj.Chart.Axes(xlCategory).MaximumScaleIsAuto = False</v>
       </c>
       <c r="E240" s="5" t="s">
         <v>123</v>
@@ -8660,14 +8684,14 @@
     <row r="241" spans="1:6" outlineLevel="1">
       <c r="A241" s="2"/>
       <c r="B241" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C241" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D241" s="4" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).MaximumScale = 100"</f>
-        <v>oChartObj.Chart.Axes(xlCategory).MaximumScale = 100</v>
+        <f>"oChartObj.Chart.Axes(xlCategory).MinimumScale = 0"</f>
+        <v>oChartObj.Chart.Axes(xlCategory).MinimumScale = 0</v>
       </c>
       <c r="E241" s="5" t="s">
         <v>123</v>
@@ -8679,14 +8703,14 @@
     <row r="242" spans="1:6" outlineLevel="1">
       <c r="A242" s="2"/>
       <c r="B242" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C242" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D242" s="4" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).Crosses = (xlMinimum\|xlMaximum\|xlAutomatic)"</f>
-        <v>oChartObj.Chart.Axes(xlCategory).Crosses = (xlMinimum\|xlMaximum\|xlAutomatic)</v>
+        <f>"oChartObj.Chart.Axes(xlCategory).MaximumScale = 100"</f>
+        <v>oChartObj.Chart.Axes(xlCategory).MaximumScale = 100</v>
       </c>
       <c r="E242" s="5" t="s">
         <v>123</v>
@@ -8698,13 +8722,14 @@
     <row r="243" spans="1:6" outlineLevel="1">
       <c r="A243" s="2"/>
       <c r="B243" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C243" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="D243" s="4" t="s">
-        <v>263</v>
+        <v>401</v>
+      </c>
+      <c r="D243" s="4" t="str">
+        <f>"oChartObj.Chart.Axes(xlCategory).Crosses = (xlMinimum\|xlMaximum\|xlAutomatic)"</f>
+        <v>oChartObj.Chart.Axes(xlCategory).Crosses = (xlMinimum\|xlMaximum\|xlAutomatic)</v>
       </c>
       <c r="E243" s="5" t="s">
         <v>123</v>
@@ -8716,14 +8741,13 @@
     <row r="244" spans="1:6" outlineLevel="1">
       <c r="A244" s="2"/>
       <c r="B244" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C244" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="D244" s="4" t="str">
-        <f>"oChartObj.Chart.HasTitle = True"</f>
-        <v>oChartObj.Chart.HasTitle = True</v>
+        <v>401</v>
+      </c>
+      <c r="D244" s="4" t="s">
+        <v>262</v>
       </c>
       <c r="E244" s="5" t="s">
         <v>123</v>
@@ -8735,14 +8759,14 @@
     <row r="245" spans="1:6" outlineLevel="1">
       <c r="A245" s="2"/>
       <c r="B245" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C245" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D245" s="4" t="str">
-        <f>"oChartObj.Chart.ChartTitle.Text = ""Test Title"""</f>
-        <v>oChartObj.Chart.ChartTitle.Text = "Test Title"</v>
+        <f>"oChartObj.Chart.HasTitle = True"</f>
+        <v>oChartObj.Chart.HasTitle = True</v>
       </c>
       <c r="E245" s="5" t="s">
         <v>123</v>
@@ -8754,17 +8778,17 @@
     <row r="246" spans="1:6" outlineLevel="1">
       <c r="A246" s="2"/>
       <c r="B246" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C246" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D246" s="4" t="str">
-        <f>"oChartObj.Chart.ChartTitle.IncludeInLayout = False"</f>
-        <v>oChartObj.Chart.ChartTitle.IncludeInLayout = False</v>
+        <f>"oChartObj.Chart.ChartTitle.Text = ""Test Title"""</f>
+        <v>oChartObj.Chart.ChartTitle.Text = "Test Title"</v>
       </c>
       <c r="E246" s="5" t="s">
-        <v>313</v>
+        <v>123</v>
       </c>
       <c r="F246" s="11" t="s">
         <v>123</v>
@@ -8773,17 +8797,17 @@
     <row r="247" spans="1:6" outlineLevel="1">
       <c r="A247" s="2"/>
       <c r="B247" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C247" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D247" s="4" t="str">
-        <f>"oChartObj.Chart.HasLegend = True"</f>
-        <v>oChartObj.Chart.HasLegend = True</v>
+        <f>"oChartObj.Chart.ChartTitle.IncludeInLayout = False"</f>
+        <v>oChartObj.Chart.ChartTitle.IncludeInLayout = False</v>
       </c>
       <c r="E247" s="5" t="s">
-        <v>123</v>
+        <v>312</v>
       </c>
       <c r="F247" s="11" t="s">
         <v>123</v>
@@ -8792,17 +8816,17 @@
     <row r="248" spans="1:6" outlineLevel="1">
       <c r="A248" s="2"/>
       <c r="B248" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C248" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D248" s="4" t="str">
-        <f>"oChartObj.Chart.Legend.Position = xlLegendPositionTop"</f>
-        <v>oChartObj.Chart.Legend.Position = xlLegendPositionTop</v>
+        <f>"oChartObj.Chart.HasLegend = True"</f>
+        <v>oChartObj.Chart.HasLegend = True</v>
       </c>
       <c r="E248" s="5" t="s">
-        <v>265</v>
+        <v>123</v>
       </c>
       <c r="F248" s="11" t="s">
         <v>123</v>
@@ -8811,17 +8835,17 @@
     <row r="249" spans="1:6" outlineLevel="1">
       <c r="A249" s="2"/>
       <c r="B249" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C249" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D249" s="4" t="str">
-        <f>"oChartObj.Chart.Legend.IncludeInLayout = False"</f>
-        <v>oChartObj.Chart.Legend.IncludeInLayout = False</v>
+        <f>"oChartObj.Chart.Legend.Position = xlLegendPositionTop"</f>
+        <v>oChartObj.Chart.Legend.Position = xlLegendPositionTop</v>
       </c>
       <c r="E249" s="5" t="s">
-        <v>313</v>
+        <v>264</v>
       </c>
       <c r="F249" s="11" t="s">
         <v>123</v>
@@ -8830,30 +8854,35 @@
     <row r="250" spans="1:6" outlineLevel="1">
       <c r="A250" s="2"/>
       <c r="B250" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C250" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="D250" s="10" t="str">
+        <v>401</v>
+      </c>
+      <c r="D250" s="4" t="str">
+        <f>"oChartObj.Chart.Legend.IncludeInLayout = False"</f>
+        <v>oChartObj.Chart.Legend.IncludeInLayout = False</v>
+      </c>
+      <c r="E250" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="F250" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" outlineLevel="1">
+      <c r="A251" s="2"/>
+      <c r="B251" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C251" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="D251" s="10" t="str">
         <f>".Sheets(シート名).PasteSpecial Format:=""図 (JPEG)"", Link:=False, DisplayAsIcon:=False"</f>
         <v>.Sheets(シート名).PasteSpecial Format:="図 (JPEG)", Link:=False, DisplayAsIcon:=False</v>
       </c>
-      <c r="E250" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F250" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6" outlineLevel="1">
-      <c r="A251" s="8" t="s">
-        <v>356</v>
-      </c>
-      <c r="B251" s="8"/>
-      <c r="C251" s="8"/>
-      <c r="D251" s="8"/>
-      <c r="E251" s="21" t="s">
+      <c r="E251" s="5" t="s">
         <v>123</v>
       </c>
       <c r="F251" s="11" t="s">
@@ -8861,54 +8890,54 @@
       </c>
     </row>
     <row r="252" spans="1:6" outlineLevel="1">
-      <c r="A252" s="2"/>
-      <c r="B252" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="C252" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="D252" s="4" t="str">
+      <c r="A252" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="B252" s="8"/>
+      <c r="C252" s="8"/>
+      <c r="D252" s="8"/>
+      <c r="E252" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="F252" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" outlineLevel="1">
+      <c r="A253" s="2"/>
+      <c r="B253" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C253" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="D253" s="4" t="str">
         <f>"Dim goPrgrsBar As New ProgressBar"&amp;CHAR(10)&amp;"goPrgrsBar.Show vbModeless"</f>
         <v>Dim goPrgrsBar As New ProgressBar
 goPrgrsBar.Show vbModeless</v>
       </c>
-      <c r="E252" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F252" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6" outlineLevel="1">
-      <c r="A253" s="2"/>
-      <c r="B253" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C253" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="D253" s="4" t="str">
+      <c r="E253" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F253" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" outlineLevel="1">
+      <c r="A254" s="2"/>
+      <c r="B254" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C254" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="D254" s="4" t="str">
         <f>"goPrgrsBar.Hide"&amp;CHAR(10)&amp;"Unload goPrgrsBar"&amp;CHAR(10)&amp;"Set goPrgrsBar = Nothing"</f>
         <v>goPrgrsBar.Hide
 Unload goPrgrsBar
 Set goPrgrsBar = Nothing</v>
       </c>
-      <c r="E253" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F253" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6" outlineLevel="1">
-      <c r="A254" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="B254" s="8"/>
-      <c r="C254" s="8"/>
-      <c r="D254" s="8"/>
-      <c r="E254" s="21" t="s">
+      <c r="E254" s="5" t="s">
         <v>123</v>
       </c>
       <c r="F254" s="11" t="s">
@@ -8916,19 +8945,14 @@
       </c>
     </row>
     <row r="255" spans="1:6" outlineLevel="1">
-      <c r="A255" s="2"/>
-      <c r="B255" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="C255" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="D255" s="4" t="str">
-        <f>"lChk = ThisWorkbook.Sheets(シート名).CheckBoxes(1).Value"</f>
-        <v>lChk = ThisWorkbook.Sheets(シート名).CheckBoxes(1).Value</v>
-      </c>
-      <c r="E255" s="5" t="s">
-        <v>314</v>
+      <c r="A255" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="B255" s="8"/>
+      <c r="C255" s="8"/>
+      <c r="D255" s="8"/>
+      <c r="E255" s="21" t="s">
+        <v>123</v>
       </c>
       <c r="F255" s="11" t="s">
         <v>123</v>
@@ -8937,63 +8961,68 @@
     <row r="256" spans="1:6" outlineLevel="1">
       <c r="A256" s="2"/>
       <c r="B256" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C256" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D256" s="4" t="str">
+        <f>"lChk = ThisWorkbook.Sheets(シート名).CheckBoxes(1).Value"</f>
+        <v>lChk = ThisWorkbook.Sheets(シート名).CheckBoxes(1).Value</v>
+      </c>
+      <c r="E256" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="F256" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" outlineLevel="1">
+      <c r="A257" s="2"/>
+      <c r="B257" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C257" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="D257" s="4" t="str">
         <f>"Private Sub xxx\_KeyUp(ByVal KeyCode As MSForms.ReturnInteger, ByVal Shift As Integer)"&amp;CHAR(10)&amp;"End Sub"</f>
         <v>Private Sub xxx\_KeyUp(ByVal KeyCode As MSForms.ReturnInteger, ByVal Shift As Integer)
 End Sub</v>
       </c>
-      <c r="E256" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="F256" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6" outlineLevel="1">
-      <c r="A257" s="8" t="s">
-        <v>399</v>
-      </c>
-      <c r="B257" s="8"/>
-      <c r="C257" s="8"/>
-      <c r="D257" s="8"/>
-      <c r="E257" s="21" t="s">
-        <v>123</v>
+      <c r="E257" s="5" t="s">
+        <v>263</v>
       </c>
       <c r="F257" s="11" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="258" spans="1:6" outlineLevel="1">
-      <c r="A258" s="2"/>
-      <c r="B258" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="C258" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="D258" s="4" t="s">
+      <c r="A258" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="B258" s="8"/>
+      <c r="C258" s="8"/>
+      <c r="D258" s="8"/>
+      <c r="E258" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="F258" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" outlineLevel="1">
+      <c r="A259" s="2"/>
+      <c r="B259" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="E258" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F258" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6" outlineLevel="1">
-      <c r="A259" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="B259" s="8"/>
-      <c r="C259" s="8"/>
-      <c r="D259" s="8"/>
-      <c r="E259" s="21" t="s">
+      <c r="C259" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="D259" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="E259" s="5" t="s">
         <v>123</v>
       </c>
       <c r="F259" s="11" t="s">
@@ -9001,59 +9030,59 @@
       </c>
     </row>
     <row r="260" spans="1:6" outlineLevel="1">
-      <c r="A260" s="2"/>
-      <c r="B260" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C260" s="4" t="str">
+      <c r="A260" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="B260" s="8"/>
+      <c r="C260" s="8"/>
+      <c r="D260" s="8"/>
+      <c r="E260" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="F260" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" outlineLevel="1">
+      <c r="A261" s="2"/>
+      <c r="B261" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C261" s="4" t="str">
         <f>"objWshShell.Exec( ""clip"" ).StdIn.Write( ""テキスト"" )"</f>
         <v>objWshShell.Exec( "clip" ).StdIn.Write( "テキスト" )</v>
       </c>
-      <c r="D260" s="4" t="str">
+      <c r="D261" s="4" t="str">
         <f>"With CreateObject(""new:{1C3B4210-F441-11CE-B9EA-00AA006B1A69}"")"&amp;CHAR(10)&amp;CHAR(9)&amp;".GetFromClipboard"&amp;CHAR(10)&amp;CHAR(9)&amp;"sText = .GetText"&amp;CHAR(10)&amp;"End With"</f>
         <v>With CreateObject("new:{1C3B4210-F441-11CE-B9EA-00AA006B1A69}")
 	.GetFromClipboard
 	sText = .GetText
 End With</v>
       </c>
-      <c r="E260" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F260" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6" outlineLevel="1">
-      <c r="A261" s="2"/>
-      <c r="B261" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="C261" s="4" t="str">
+      <c r="E261" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F261" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" outlineLevel="1">
+      <c r="A262" s="2"/>
+      <c r="B262" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C262" s="4" t="str">
         <f>"CreateObject(""htmlfile"").ParentWindow.Clipboarddata.GetData(""text"")"</f>
         <v>CreateObject("htmlfile").ParentWindow.Clipboarddata.GetData("text")</v>
       </c>
-      <c r="D261" s="4" t="str">
+      <c r="D262" s="4" t="str">
         <f>"With CreateObject(""new:{1C3B4210-F441-11CE-B9EA-00AA006B1A69}"")"&amp;CHAR(10)&amp;CHAR(9)&amp;".SetText sText"&amp;CHAR(10)&amp;CHAR(9)&amp;".PutInClipboard"&amp;CHAR(10)&amp;"End With"</f>
         <v>With CreateObject("new:{1C3B4210-F441-11CE-B9EA-00AA006B1A69}")
 	.SetText sText
 	.PutInClipboard
 End With</v>
       </c>
-      <c r="E261" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F261" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6" outlineLevel="1">
-      <c r="A262" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="B262" s="8"/>
-      <c r="C262" s="8"/>
-      <c r="D262" s="8"/>
-      <c r="E262" s="21" t="s">
+      <c r="E262" s="5" t="s">
         <v>123</v>
       </c>
       <c r="F262" s="11" t="s">
@@ -9061,117 +9090,117 @@
       </c>
     </row>
     <row r="263" spans="1:6" outlineLevel="1">
-      <c r="A263" s="2"/>
-      <c r="B263" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="C263" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="D263" s="4" t="str">
+      <c r="A263" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="B263" s="8"/>
+      <c r="C263" s="8"/>
+      <c r="D263" s="8"/>
+      <c r="E263" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="F263" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" outlineLevel="1">
+      <c r="A264" s="2"/>
+      <c r="B264" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C264" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="D264" s="4" t="str">
         <f>"Dim wWord As Object" &amp; CHAR(10) &amp; "Set wWord = CreateObject(""Word.Application"")" &amp; CHAR(10) &amp; "wWord.Visible = False"</f>
         <v>Dim wWord As Object
 Set wWord = CreateObject("Word.Application")
 wWord.Visible = False</v>
       </c>
-      <c r="E263" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F263" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6" outlineLevel="1">
-      <c r="A264" s="2"/>
-      <c r="B264" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="C264" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="D264" s="4" t="str">
+      <c r="E264" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F264" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" outlineLevel="1">
+      <c r="A265" s="2"/>
+      <c r="B265" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C265" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="D265" s="4" t="str">
         <f>"dDoc.Close" &amp; CHAR(10) &amp; "Set dDoc = Nothing"</f>
         <v>dDoc.Close
 Set dDoc = Nothing</v>
       </c>
-      <c r="E264" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F264" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6" outlineLevel="1">
-      <c r="A265" s="2"/>
-      <c r="B265" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="C265" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="D265" s="4" t="str">
+      <c r="E265" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F265" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" outlineLevel="1">
+      <c r="A266" s="2"/>
+      <c r="B266" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C266" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="D266" s="4" t="str">
         <f>"wWord.Visible = False" &amp; CHAR(10) &amp; "wWord.Quit" &amp; CHAR(10) &amp; "Set wWord = Nothing"</f>
         <v>wWord.Visible = False
 wWord.Quit
 Set wWord = Nothing</v>
       </c>
-      <c r="E265" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F265" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6" outlineLevel="1">
-      <c r="A266" s="2"/>
-      <c r="B266" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="C266" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="D266" s="4" t="str">
+      <c r="E266" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F266" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" outlineLevel="1">
+      <c r="A267" s="2"/>
+      <c r="B267" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C267" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="D267" s="4" t="str">
         <f>"Dim dDoc As Object" &amp; CHAR(10) &amp; "Set dDoc = wWord.Documents.Open(""sFilePath"")"</f>
         <v>Dim dDoc As Object
 Set dDoc = wWord.Documents.Open("sFilePath")</v>
       </c>
-      <c r="E266" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F266" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6" outlineLevel="1">
-      <c r="A267" s="2"/>
-      <c r="B267" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C267" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="D267" s="4" t="str">
+      <c r="E267" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F267" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" outlineLevel="1">
+      <c r="A268" s="2"/>
+      <c r="B268" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C268" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="D268" s="4" t="str">
         <f>"Dim sParagraph As Object" &amp; CHAR(10) &amp; "For Each sParagraph In dDoc.Paragraphs" &amp; CHAR(10) &amp; CHAR(9) &amp; "'～処理～" &amp; CHAR(10) &amp; "Next sParagraph"</f>
         <v>Dim sParagraph As Object
 For Each sParagraph In dDoc.Paragraphs
 	'～処理～
 Next sParagraph</v>
       </c>
-      <c r="E267" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F267" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6" outlineLevel="1">
-      <c r="A268" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="B268" s="8"/>
-      <c r="C268" s="8"/>
-      <c r="D268" s="8"/>
-      <c r="E268" s="21" t="s">
+      <c r="E268" s="5" t="s">
         <v>123</v>
       </c>
       <c r="F268" s="11" t="s">
@@ -9179,35 +9208,49 @@
       </c>
     </row>
     <row r="269" spans="1:6" outlineLevel="1">
-      <c r="A269" s="2"/>
-      <c r="B269" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C269" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="D269" s="4" t="str">
+      <c r="A269" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B269" s="8"/>
+      <c r="C269" s="8"/>
+      <c r="D269" s="8"/>
+      <c r="E269" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="F269" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" outlineLevel="1">
+      <c r="A270" s="2"/>
+      <c r="B270" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C270" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="D270" s="4" t="str">
         <f>"Dim wTrgtBook As Workbook"&amp;CHAR(10)&amp;"Application.SheetsInNewWorkbook = 1"&amp;CHAR(10)&amp;"Set wTrgtBook = Workbooks.Add"</f>
         <v>Dim wTrgtBook As Workbook
 Application.SheetsInNewWorkbook = 1
 Set wTrgtBook = Workbooks.Add</v>
       </c>
-      <c r="E269" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="F269" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="270" spans="1:6" outlineLevel="1">
-      <c r="A270" s="2"/>
-      <c r="B270" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C270" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="D270" s="4" t="str">
+      <c r="E270" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="F270" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" outlineLevel="1">
+      <c r="A271" s="2"/>
+      <c r="B271" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C271" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="D271" s="4" t="str">
         <f>"If wCsvBook.Name &lt;&gt; Dir(""C:\Book1.xlsx"") Then"&amp;CHAR(10)&amp;CHAR(9)&amp;"処理"&amp;CHAR(10)&amp;"Else"&amp;CHAR(10)&amp;CHAR(9)&amp;"エラー"&amp;CHAR(10)&amp;"End If"</f>
         <v>If wCsvBook.Name &lt;&gt; Dir("C:\Book1.xlsx") Then
 	処理
@@ -9215,45 +9258,26 @@
 	エラー
 End If</v>
       </c>
-      <c r="E270" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F270" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="271" spans="1:6" outlineLevel="1">
-      <c r="A271" s="2"/>
-      <c r="B271" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C271" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="D271" s="4" t="str">
+      <c r="E271" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F271" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" outlineLevel="1">
+      <c r="A272" s="2"/>
+      <c r="B272" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C272" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="D272" s="4" t="str">
         <f>"Dim bAddBook As Workbook"&amp;CHAR(10)&amp;"Set bAddBook = Workbooks.Add"</f>
         <v>Dim bAddBook As Workbook
 Set bAddBook = Workbooks.Add</v>
       </c>
-      <c r="E271" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F271" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6" outlineLevel="1">
-      <c r="A272" s="2"/>
-      <c r="B272" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C272" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="D272" s="4" t="str">
-        <f>"ThisWorkbook.Sheets(シート名).Copy: Set wTrgtBook = ActiveWorkbook"</f>
-        <v>ThisWorkbook.Sheets(シート名).Copy: Set wTrgtBook = ActiveWorkbook</v>
-      </c>
       <c r="E272" s="5" t="s">
         <v>123</v>
       </c>
@@ -9264,14 +9288,14 @@
     <row r="273" spans="1:6" outlineLevel="1">
       <c r="A273" s="2"/>
       <c r="B273" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C273" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D273" s="4" t="str">
-        <f>"wTrgtBook.SaveAs Filename:=sFilePath"</f>
-        <v>wTrgtBook.SaveAs Filename:=sFilePath</v>
+        <f>"ThisWorkbook.Sheets(シート名).Copy: Set wTrgtBook = ActiveWorkbook"</f>
+        <v>ThisWorkbook.Sheets(シート名).Copy: Set wTrgtBook = ActiveWorkbook</v>
       </c>
       <c r="E273" s="5" t="s">
         <v>123</v>
@@ -9283,14 +9307,14 @@
     <row r="274" spans="1:6" outlineLevel="1">
       <c r="A274" s="2"/>
       <c r="B274" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C274" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D274" s="4" t="str">
-        <f>".Sheets.Count"</f>
-        <v>.Sheets.Count</v>
+        <f>"wTrgtBook.SaveAs Filename:=sFilePath"</f>
+        <v>wTrgtBook.SaveAs Filename:=sFilePath</v>
       </c>
       <c r="E274" s="5" t="s">
         <v>123</v>
@@ -9302,35 +9326,35 @@
     <row r="275" spans="1:6" outlineLevel="1">
       <c r="A275" s="2"/>
       <c r="B275" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C275" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D275" s="4" t="str">
+        <f>".Sheets.Count"</f>
+        <v>.Sheets.Count</v>
+      </c>
+      <c r="E275" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F275" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" outlineLevel="1">
+      <c r="A276" s="2"/>
+      <c r="B276" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C276" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="D276" s="4" t="str">
         <f>"Dim shAddSht As Worksheet"&amp;CHAR(10)&amp;"Set shAddSht = ThisWorkbook.Sheets.Add"</f>
         <v>Dim shAddSht As Worksheet
 Set shAddSht = ThisWorkbook.Sheets.Add</v>
       </c>
-      <c r="E275" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F275" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="276" spans="1:6" outlineLevel="1">
-      <c r="A276" s="2"/>
-      <c r="B276" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C276" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="D276" s="4" t="str">
-        <f>"ThisWorkbook.Sheets(シート名).Move After:=ThisWorkbook.Sheets( ThisWorkbook.Sheets.Count )"</f>
-        <v>ThisWorkbook.Sheets(シート名).Move After:=ThisWorkbook.Sheets( ThisWorkbook.Sheets.Count )</v>
-      </c>
       <c r="E276" s="5" t="s">
         <v>123</v>
       </c>
@@ -9341,36 +9365,36 @@
     <row r="277" spans="1:6" outlineLevel="1">
       <c r="A277" s="2"/>
       <c r="B277" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C277" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D277" s="4" t="str">
+        <f>"ThisWorkbook.Sheets(シート名).Move After:=ThisWorkbook.Sheets( ThisWorkbook.Sheets.Count )"</f>
+        <v>ThisWorkbook.Sheets(シート名).Move After:=ThisWorkbook.Sheets( ThisWorkbook.Sheets.Count )</v>
+      </c>
+      <c r="E277" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F277" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" outlineLevel="1">
+      <c r="A278" s="2"/>
+      <c r="B278" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C278" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="D278" s="4" t="str">
         <f>"Application.DisplayAlerts = False"&amp;CHAR(10)&amp;".Sheets(シート名).Delete"&amp;CHAR(10)&amp;"Application.DisplayAlerts = True"</f>
         <v>Application.DisplayAlerts = False
 .Sheets(シート名).Delete
 Application.DisplayAlerts = True</v>
       </c>
-      <c r="E277" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F277" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="278" spans="1:6" outlineLevel="1">
-      <c r="A278" s="2"/>
-      <c r="B278" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C278" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="D278" s="4" t="str">
-        <f>".Sheets(シート名).Visible = (True\|False)"</f>
-        <v>.Sheets(シート名).Visible = (True\|False)</v>
-      </c>
       <c r="E278" s="5" t="s">
         <v>123</v>
       </c>
@@ -9381,14 +9405,14 @@
     <row r="279" spans="1:6" outlineLevel="1">
       <c r="A279" s="2"/>
       <c r="B279" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C279" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D279" s="4" t="str">
-        <f>".Sheets(シート名).Move Before:=Sheets(1)"</f>
-        <v>.Sheets(シート名).Move Before:=Sheets(1)</v>
+        <f>".Sheets(シート名).Visible = (True\|False)"</f>
+        <v>.Sheets(シート名).Visible = (True\|False)</v>
       </c>
       <c r="E279" s="5" t="s">
         <v>123</v>
@@ -9400,14 +9424,14 @@
     <row r="280" spans="1:6" outlineLevel="1">
       <c r="A280" s="2"/>
       <c r="B280" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C280" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D280" s="4" t="str">
-        <f>"Application.ScreenUpdating = True"</f>
-        <v>Application.ScreenUpdating = True</v>
+        <f>".Sheets(シート名).Move Before:=Sheets(1)"</f>
+        <v>.Sheets(シート名).Move Before:=Sheets(1)</v>
       </c>
       <c r="E280" s="5" t="s">
         <v>123</v>
@@ -9419,14 +9443,14 @@
     <row r="281" spans="1:6" outlineLevel="1">
       <c r="A281" s="2"/>
       <c r="B281" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C281" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D281" s="4" t="str">
-        <f>"Application.ScreenUpdating = False"</f>
-        <v>Application.ScreenUpdating = False</v>
+        <f>"Application.ScreenUpdating = True"</f>
+        <v>Application.ScreenUpdating = True</v>
       </c>
       <c r="E281" s="5" t="s">
         <v>123</v>
@@ -9438,14 +9462,14 @@
     <row r="282" spans="1:6" outlineLevel="1">
       <c r="A282" s="2"/>
       <c r="B282" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C282" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D282" s="4" t="str">
-        <f>"Application.Calculation = xlCalculationAutomatic"</f>
-        <v>Application.Calculation = xlCalculationAutomatic</v>
+        <f>"Application.ScreenUpdating = False"</f>
+        <v>Application.ScreenUpdating = False</v>
       </c>
       <c r="E282" s="5" t="s">
         <v>123</v>
@@ -9457,14 +9481,14 @@
     <row r="283" spans="1:6" outlineLevel="1">
       <c r="A283" s="2"/>
       <c r="B283" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C283" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D283" s="4" t="str">
-        <f>"Application.Calculation = xlCalculationManual"</f>
-        <v>Application.Calculation = xlCalculationManual</v>
+        <f>"Application.Calculation = xlCalculationAutomatic"</f>
+        <v>Application.Calculation = xlCalculationAutomatic</v>
       </c>
       <c r="E283" s="5" t="s">
         <v>123</v>
@@ -9476,14 +9500,14 @@
     <row r="284" spans="1:6" outlineLevel="1">
       <c r="A284" s="2"/>
       <c r="B284" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C284" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D284" s="4" t="str">
-        <f>"Application.Calculate"</f>
-        <v>Application.Calculate</v>
+        <f>"Application.Calculation = xlCalculationManual"</f>
+        <v>Application.Calculation = xlCalculationManual</v>
       </c>
       <c r="E284" s="5" t="s">
         <v>123</v>
@@ -9495,14 +9519,14 @@
     <row r="285" spans="1:6" outlineLevel="1">
       <c r="A285" s="2"/>
       <c r="B285" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C285" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D285" s="4" t="str">
-        <f>"Application.CalculateFull"</f>
-        <v>Application.CalculateFull</v>
+        <f>"Application.Calculate"</f>
+        <v>Application.Calculate</v>
       </c>
       <c r="E285" s="5" t="s">
         <v>123</v>
@@ -9514,16 +9538,17 @@
     <row r="286" spans="1:6" outlineLevel="1">
       <c r="A286" s="2"/>
       <c r="B286" s="2" t="s">
-        <v>504</v>
+        <v>166</v>
       </c>
       <c r="C286" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="D286" s="4" t="s">
-        <v>505</v>
+        <v>401</v>
+      </c>
+      <c r="D286" s="4" t="str">
+        <f>"Application.CalculateFull"</f>
+        <v>Application.CalculateFull</v>
       </c>
       <c r="E286" s="5" t="s">
-        <v>506</v>
+        <v>123</v>
       </c>
       <c r="F286" s="11" t="s">
         <v>123</v>
@@ -9535,45 +9560,44 @@
         <v>502</v>
       </c>
       <c r="C287" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D287" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="E287" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="F287" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" outlineLevel="1">
+      <c r="A288" s="2"/>
+      <c r="B288" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="C288" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="D288" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="E288" s="5" t="s">
         <v>501</v>
       </c>
-      <c r="E287" s="5" t="s">
-        <v>503</v>
-      </c>
-      <c r="F287" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="288" spans="1:6">
-      <c r="A288" s="20" t="s">
-        <v>405</v>
-      </c>
-      <c r="B288" s="8"/>
-      <c r="C288" s="8"/>
-      <c r="D288" s="8"/>
-      <c r="E288" s="21" t="s">
-        <v>123</v>
-      </c>
       <c r="F288" s="11" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="289" spans="1:6" outlineLevel="1">
-      <c r="A289" s="2"/>
-      <c r="B289" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="C289" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="D289" s="4" t="str">
-        <f>"Application.DisplayAlerts = False"</f>
-        <v>Application.DisplayAlerts = False</v>
-      </c>
-      <c r="E289" s="5" t="s">
+    <row r="289" spans="1:6">
+      <c r="A289" s="20" t="s">
+        <v>404</v>
+      </c>
+      <c r="B289" s="8"/>
+      <c r="C289" s="8"/>
+      <c r="D289" s="8"/>
+      <c r="E289" s="21" t="s">
         <v>123</v>
       </c>
       <c r="F289" s="11" t="s">
@@ -9586,11 +9610,11 @@
         <v>259</v>
       </c>
       <c r="C290" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D290" s="4" t="str">
-        <f>"Application.DisplayAlerts = True"</f>
-        <v>Application.DisplayAlerts = True</v>
+        <f>"Application.DisplayAlerts = False"</f>
+        <v>Application.DisplayAlerts = False</v>
       </c>
       <c r="E290" s="5" t="s">
         <v>123</v>
@@ -9602,14 +9626,14 @@
     <row r="291" spans="1:6" outlineLevel="1">
       <c r="A291" s="2"/>
       <c r="B291" s="2" t="s">
-        <v>168</v>
+        <v>258</v>
       </c>
       <c r="C291" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D291" s="4" t="str">
-        <f>".Rows(2).Select"</f>
-        <v>.Rows(2).Select</v>
+        <f>"Application.DisplayAlerts = True"</f>
+        <v>Application.DisplayAlerts = True</v>
       </c>
       <c r="E291" s="5" t="s">
         <v>123</v>
@@ -9621,14 +9645,14 @@
     <row r="292" spans="1:6" outlineLevel="1">
       <c r="A292" s="2"/>
       <c r="B292" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C292" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D292" s="4" t="str">
-        <f>".Columns(2).Select"</f>
-        <v>.Columns(2).Select</v>
+        <f>".Rows(2).Select"</f>
+        <v>.Rows(2).Select</v>
       </c>
       <c r="E292" s="5" t="s">
         <v>123</v>
@@ -9640,14 +9664,14 @@
     <row r="293" spans="1:6" outlineLevel="1">
       <c r="A293" s="2"/>
       <c r="B293" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C293" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D293" s="4" t="str">
-        <f>".Cells(1,1).Select"</f>
-        <v>.Cells(1,1).Select</v>
+        <f>".Columns(2).Select"</f>
+        <v>.Columns(2).Select</v>
       </c>
       <c r="E293" s="5" t="s">
         <v>123</v>
@@ -9659,14 +9683,14 @@
     <row r="294" spans="1:6" outlineLevel="1">
       <c r="A294" s="2"/>
       <c r="B294" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C294" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D294" s="4" t="str">
-        <f>".Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).Select"</f>
-        <v>.Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).Select</v>
+        <f>".Cells(1,1).Select"</f>
+        <v>.Cells(1,1).Select</v>
       </c>
       <c r="E294" s="5" t="s">
         <v>123</v>
@@ -9678,14 +9702,14 @@
     <row r="295" spans="1:6" outlineLevel="1">
       <c r="A295" s="2"/>
       <c r="B295" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C295" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D295" s="4" t="str">
-        <f>".Cells.Find(""りんご"", LookAt:=xlWhole).Row"</f>
-        <v>.Cells.Find("りんご", LookAt:=xlWhole).Row</v>
+        <f>".Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).Select"</f>
+        <v>.Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).Select</v>
       </c>
       <c r="E295" s="5" t="s">
         <v>123</v>
@@ -9697,14 +9721,14 @@
     <row r="296" spans="1:6" outlineLevel="1">
       <c r="A296" s="2"/>
       <c r="B296" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C296" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D296" s="4" t="str">
-        <f>".Cells.Find(""りんご"", LookAt:=xlWhole).Column"</f>
-        <v>.Cells.Find("りんご", LookAt:=xlWhole).Column</v>
+        <f>".Cells.Find(""りんご"", LookAt:=xlWhole).Row"</f>
+        <v>.Cells.Find("りんご", LookAt:=xlWhole).Row</v>
       </c>
       <c r="E296" s="5" t="s">
         <v>123</v>
@@ -9716,17 +9740,17 @@
     <row r="297" spans="1:6" outlineLevel="1">
       <c r="A297" s="2"/>
       <c r="B297" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C297" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D297" s="4" t="str">
-        <f>".Cells(X, Y).Value"</f>
-        <v>.Cells(X, Y).Value</v>
+        <f>".Cells.Find(""りんご"", LookAt:=xlWhole).Column"</f>
+        <v>.Cells.Find("りんご", LookAt:=xlWhole).Column</v>
       </c>
       <c r="E297" s="5" t="s">
-        <v>304</v>
+        <v>123</v>
       </c>
       <c r="F297" s="11" t="s">
         <v>123</v>
@@ -9735,17 +9759,17 @@
     <row r="298" spans="1:6" outlineLevel="1">
       <c r="A298" s="2"/>
       <c r="B298" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C298" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D298" s="4" t="str">
-        <f>".Cells(1, 1).Top"</f>
-        <v>.Cells(1, 1).Top</v>
+        <f>".Cells(X, Y).Value"</f>
+        <v>.Cells(X, Y).Value</v>
       </c>
       <c r="E298" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F298" s="11" t="s">
         <v>123</v>
@@ -9754,17 +9778,17 @@
     <row r="299" spans="1:6" outlineLevel="1">
       <c r="A299" s="2"/>
       <c r="B299" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C299" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D299" s="4" t="str">
-        <f>".Cells(1, 1).Left"</f>
-        <v>.Cells(1, 1).Left</v>
+        <f>".Cells(1, 1).Top"</f>
+        <v>.Cells(1, 1).Top</v>
       </c>
       <c r="E299" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F299" s="11" t="s">
         <v>123</v>
@@ -9773,17 +9797,17 @@
     <row r="300" spans="1:6" outlineLevel="1">
       <c r="A300" s="2"/>
       <c r="B300" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C300" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D300" s="4" t="str">
-        <f>".Cells(1, 1).EntireRow.Delete Shift:=xlShiftUp"</f>
-        <v>.Cells(1, 1).EntireRow.Delete Shift:=xlShiftUp</v>
+        <f>".Cells(1, 1).Left"</f>
+        <v>.Cells(1, 1).Left</v>
       </c>
       <c r="E300" s="5" t="s">
-        <v>123</v>
+        <v>305</v>
       </c>
       <c r="F300" s="11" t="s">
         <v>123</v>
@@ -9792,35 +9816,35 @@
     <row r="301" spans="1:6" outlineLevel="1">
       <c r="A301" s="2"/>
       <c r="B301" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C301" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D301" s="4" t="str">
+        <f>".Cells(1, 1).EntireRow.Delete Shift:=xlShiftUp"</f>
+        <v>.Cells(1, 1).EntireRow.Delete Shift:=xlShiftUp</v>
+      </c>
+      <c r="E301" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F301" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" outlineLevel="1">
+      <c r="A302" s="2"/>
+      <c r="B302" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C302" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="D302" s="4" t="str">
         <f>"Application.CutCopyMode = False"&amp;CHAR(10)&amp;".Range(""2:4"").Insert"</f>
         <v>Application.CutCopyMode = False
 .Range("2:4").Insert</v>
       </c>
-      <c r="E301" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F301" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="302" spans="1:6" outlineLevel="1">
-      <c r="A302" s="2"/>
-      <c r="B302" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C302" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="D302" s="4" t="str">
-        <f>".Cells(行, 列).Font.Strikethrough"</f>
-        <v>.Cells(行, 列).Font.Strikethrough</v>
-      </c>
       <c r="E302" s="5" t="s">
         <v>123</v>
       </c>
@@ -9831,35 +9855,35 @@
     <row r="303" spans="1:6" outlineLevel="1">
       <c r="A303" s="2"/>
       <c r="B303" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C303" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D303" s="4" t="str">
+        <f>".Cells(行, 列).Font.Strikethrough"</f>
+        <v>.Cells(行, 列).Font.Strikethrough</v>
+      </c>
+      <c r="E303" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F303" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" outlineLevel="1">
+      <c r="A304" s="2"/>
+      <c r="B304" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C304" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="D304" s="4" t="str">
         <f>"wTrgtBook.Sheets(シート名).Activate"&amp;CHAR(10)&amp;"ActiveWindow.DisplayGridlines = False"</f>
         <v>wTrgtBook.Sheets(シート名).Activate
 ActiveWindow.DisplayGridlines = False</v>
       </c>
-      <c r="E303" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F303" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="304" spans="1:6" outlineLevel="1">
-      <c r="A304" s="2"/>
-      <c r="B304" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C304" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="D304" s="4" t="str">
-        <f>".Range(""A1"").EntireRow.Hidden"</f>
-        <v>.Range("A1").EntireRow.Hidden</v>
-      </c>
       <c r="E304" s="5" t="s">
         <v>123</v>
       </c>
@@ -9870,14 +9894,14 @@
     <row r="305" spans="1:6" outlineLevel="1">
       <c r="A305" s="2"/>
       <c r="B305" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C305" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D305" s="4" t="str">
-        <f>".Range(""A1"").EntireColumn.Hidden"</f>
-        <v>.Range("A1").EntireColumn.Hidden</v>
+        <f>".Range(""A1"").EntireRow.Hidden"</f>
+        <v>.Range("A1").EntireRow.Hidden</v>
       </c>
       <c r="E305" s="5" t="s">
         <v>123</v>
@@ -9889,12 +9913,31 @@
     <row r="306" spans="1:6" outlineLevel="1">
       <c r="A306" s="2"/>
       <c r="B306" s="2" t="s">
-        <v>340</v>
+        <v>180</v>
       </c>
       <c r="C306" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D306" s="4" t="str">
+        <f>".Range(""A1"").EntireColumn.Hidden"</f>
+        <v>.Range("A1").EntireColumn.Hidden</v>
+      </c>
+      <c r="E306" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F306" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" outlineLevel="1">
+      <c r="A307" s="2"/>
+      <c r="B307" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C307" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="D307" s="4" t="str">
         <f>"If .Cells(1, 1).EntireRow.Hidden Or .Cells(1, 1).EntireColumn.Hidden Then
     '非表示セル
 Else
@@ -9908,25 +9951,6 @@
 End If
 </v>
       </c>
-      <c r="E306" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F306" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="307" spans="1:6" outlineLevel="1">
-      <c r="A307" s="2"/>
-      <c r="B307" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C307" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="D307" s="4" t="str">
-        <f>"文字列変数 = .Range(""A1"").Font.Name"</f>
-        <v>文字列変数 = .Range("A1").Font.Name</v>
-      </c>
       <c r="E307" s="5" t="s">
         <v>123</v>
       </c>
@@ -9937,14 +9961,14 @@
     <row r="308" spans="1:6" outlineLevel="1">
       <c r="A308" s="2"/>
       <c r="B308" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C308" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D308" s="4" t="str">
-        <f>".Range(""A1"").Font.Size = 14"</f>
-        <v>.Range("A1").Font.Size = 14</v>
+        <f>"文字列変数 = .Range(""A1"").Font.Name"</f>
+        <v>文字列変数 = .Range("A1").Font.Name</v>
       </c>
       <c r="E308" s="5" t="s">
         <v>123</v>
@@ -9956,14 +9980,14 @@
     <row r="309" spans="1:6" outlineLevel="1">
       <c r="A309" s="2"/>
       <c r="B309" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C309" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D309" s="4" t="str">
-        <f>".Range(""A1"").Font.Color = RGB(0, 255, 0)"</f>
-        <v>.Range("A1").Font.Color = RGB(0, 255, 0)</v>
+        <f>".Range(""A1"").Font.Size = 14"</f>
+        <v>.Range("A1").Font.Size = 14</v>
       </c>
       <c r="E309" s="5" t="s">
         <v>123</v>
@@ -9975,14 +9999,14 @@
     <row r="310" spans="1:6" outlineLevel="1">
       <c r="A310" s="2"/>
       <c r="B310" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C310" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D310" s="4" t="str">
-        <f>".Range(""A1"").Font.Bold = True"</f>
-        <v>.Range("A1").Font.Bold = True</v>
+        <f>".Range(""A1"").Font.Color = RGB(0, 255, 0)"</f>
+        <v>.Range("A1").Font.Color = RGB(0, 255, 0)</v>
       </c>
       <c r="E310" s="5" t="s">
         <v>123</v>
@@ -9994,14 +10018,14 @@
     <row r="311" spans="1:6" outlineLevel="1">
       <c r="A311" s="2"/>
       <c r="B311" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C311" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D311" s="4" t="str">
-        <f>".Range(""A1"").Font.Underline = True"</f>
-        <v>.Range("A1").Font.Underline = True</v>
+        <f>".Range(""A1"").Font.Bold = True"</f>
+        <v>.Range("A1").Font.Bold = True</v>
       </c>
       <c r="E311" s="5" t="s">
         <v>123</v>
@@ -10013,14 +10037,14 @@
     <row r="312" spans="1:6" outlineLevel="1">
       <c r="A312" s="2"/>
       <c r="B312" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C312" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D312" s="4" t="str">
-        <f>".Range(""A1"").Interior.Color = RGB(255, 255, 0)"</f>
-        <v>.Range("A1").Interior.Color = RGB(255, 255, 0)</v>
+        <f>".Range(""A1"").Font.Underline = True"</f>
+        <v>.Range("A1").Font.Underline = True</v>
       </c>
       <c r="E312" s="5" t="s">
         <v>123</v>
@@ -10032,14 +10056,14 @@
     <row r="313" spans="1:6" outlineLevel="1">
       <c r="A313" s="2"/>
       <c r="B313" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C313" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D313" s="4" t="str">
-        <f>".Range(""A1:C3"").Borders.LineStyle = xlContinuous"</f>
-        <v>.Range("A1:C3").Borders.LineStyle = xlContinuous</v>
+        <f>".Range(""A1"").Interior.Color = RGB(255, 255, 0)"</f>
+        <v>.Range("A1").Interior.Color = RGB(255, 255, 0)</v>
       </c>
       <c r="E313" s="5" t="s">
         <v>123</v>
@@ -10051,14 +10075,14 @@
     <row r="314" spans="1:6" outlineLevel="1">
       <c r="A314" s="2"/>
       <c r="B314" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C314" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D314" s="4" t="str">
-        <f>".Range(""A1:C3"").MergeCells = True"</f>
-        <v>.Range("A1:C3").MergeCells = True</v>
+        <f>".Range(""A1:C3"").Borders.LineStyle = xlContinuous"</f>
+        <v>.Range("A1:C3").Borders.LineStyle = xlContinuous</v>
       </c>
       <c r="E314" s="5" t="s">
         <v>123</v>
@@ -10070,17 +10094,17 @@
     <row r="315" spans="1:6" outlineLevel="1">
       <c r="A315" s="2"/>
       <c r="B315" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C315" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D315" s="4" t="str">
-        <f>".Range(""A1:C3"").HorizontalAlignment = xlGeneral"</f>
-        <v>.Range("A1:C3").HorizontalAlignment = xlGeneral</v>
+        <f>".Range(""A1:C3"").MergeCells = True"</f>
+        <v>.Range("A1:C3").MergeCells = True</v>
       </c>
       <c r="E315" s="5" t="s">
-        <v>261</v>
+        <v>123</v>
       </c>
       <c r="F315" s="11" t="s">
         <v>123</v>
@@ -10089,17 +10113,17 @@
     <row r="316" spans="1:6" outlineLevel="1">
       <c r="A316" s="2"/>
       <c r="B316" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C316" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D316" s="4" t="str">
-        <f>".Range(""A1:C3"").VerticalAlignment = xlCenter"</f>
-        <v>.Range("A1:C3").VerticalAlignment = xlCenter</v>
+        <f>".Range(""A1:C3"").HorizontalAlignment = xlGeneral"</f>
+        <v>.Range("A1:C3").HorizontalAlignment = xlGeneral</v>
       </c>
       <c r="E316" s="5" t="s">
-        <v>192</v>
+        <v>260</v>
       </c>
       <c r="F316" s="11" t="s">
         <v>123</v>
@@ -10108,17 +10132,17 @@
     <row r="317" spans="1:6" outlineLevel="1">
       <c r="A317" s="2"/>
       <c r="B317" s="2" t="s">
-        <v>718</v>
+        <v>190</v>
       </c>
       <c r="C317" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D317" s="4" t="str">
-        <f>".Cells(1, 列).End(xlDown).Row"</f>
-        <v>.Cells(1, 列).End(xlDown).Row</v>
+        <f>".Range(""A1:C3"").VerticalAlignment = xlCenter"</f>
+        <v>.Range("A1:C3").VerticalAlignment = xlCenter</v>
       </c>
       <c r="E317" s="5" t="s">
-        <v>123</v>
+        <v>191</v>
       </c>
       <c r="F317" s="11" t="s">
         <v>123</v>
@@ -10127,14 +10151,14 @@
     <row r="318" spans="1:6" outlineLevel="1">
       <c r="A318" s="2"/>
       <c r="B318" s="2" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="C318" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D318" s="4" t="str">
-        <f>".Cells(行, 1).End(xlToRight).Column"</f>
-        <v>.Cells(行, 1).End(xlToRight).Column</v>
+        <f>".Cells(1, 列).End(xlDown).Row"</f>
+        <v>.Cells(1, 列).End(xlDown).Row</v>
       </c>
       <c r="E318" s="5" t="s">
         <v>123</v>
@@ -10146,14 +10170,14 @@
     <row r="319" spans="1:6" outlineLevel="1">
       <c r="A319" s="2"/>
       <c r="B319" s="2" t="s">
-        <v>193</v>
+        <v>717</v>
       </c>
       <c r="C319" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D319" s="4" t="str">
-        <f>".Cells(.Rows.Count, 列).End(xlUp).Row"</f>
-        <v>.Cells(.Rows.Count, 列).End(xlUp).Row</v>
+        <f>".Cells(行, 1).End(xlToRight).Column"</f>
+        <v>.Cells(行, 1).End(xlToRight).Column</v>
       </c>
       <c r="E319" s="5" t="s">
         <v>123</v>
@@ -10165,14 +10189,14 @@
     <row r="320" spans="1:6" outlineLevel="1">
       <c r="A320" s="2"/>
       <c r="B320" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C320" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D320" s="4" t="str">
-        <f>".Cells(行, .Columns.Count).End(xlToLeft).Column"</f>
-        <v>.Cells(行, .Columns.Count).End(xlToLeft).Column</v>
+        <f>".Cells(.Rows.Count, 列).End(xlUp).Row"</f>
+        <v>.Cells(.Rows.Count, 列).End(xlUp).Row</v>
       </c>
       <c r="E320" s="5" t="s">
         <v>123</v>
@@ -10184,14 +10208,14 @@
     <row r="321" spans="1:6" outlineLevel="1">
       <c r="A321" s="2"/>
       <c r="B321" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C321" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D321" s="4" t="str">
-        <f>".Sheets(シート名).UsedRange.Rows.Count + 1"</f>
-        <v>.Sheets(シート名).UsedRange.Rows.Count + 1</v>
+        <f>".Cells(行, .Columns.Count).End(xlToLeft).Column"</f>
+        <v>.Cells(行, .Columns.Count).End(xlToLeft).Column</v>
       </c>
       <c r="E321" s="5" t="s">
         <v>123</v>
@@ -10203,14 +10227,14 @@
     <row r="322" spans="1:6" outlineLevel="1">
       <c r="A322" s="2"/>
       <c r="B322" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C322" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D322" s="4" t="str">
-        <f>".Sheets(シート名).UsedRange.Columns.Count + 1"</f>
-        <v>.Sheets(シート名).UsedRange.Columns.Count + 1</v>
+        <f>".Sheets(シート名).UsedRange.Rows.Count + 1"</f>
+        <v>.Sheets(シート名).UsedRange.Rows.Count + 1</v>
       </c>
       <c r="E322" s="5" t="s">
         <v>123</v>
@@ -10222,14 +10246,14 @@
     <row r="323" spans="1:6" outlineLevel="1">
       <c r="A323" s="2"/>
       <c r="B323" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C323" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D323" s="4" t="str">
-        <f>"Selection(1).Row"</f>
-        <v>Selection(1).Row</v>
+        <f>".Sheets(シート名).UsedRange.Columns.Count + 1"</f>
+        <v>.Sheets(シート名).UsedRange.Columns.Count + 1</v>
       </c>
       <c r="E323" s="5" t="s">
         <v>123</v>
@@ -10241,14 +10265,14 @@
     <row r="324" spans="1:6" outlineLevel="1">
       <c r="A324" s="2"/>
       <c r="B324" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C324" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D324" s="4" t="str">
-        <f>"Selection(Selection.Count).Row"</f>
-        <v>Selection(Selection.Count).Row</v>
+        <f>"Selection(1).Row"</f>
+        <v>Selection(1).Row</v>
       </c>
       <c r="E324" s="5" t="s">
         <v>123</v>
@@ -10260,14 +10284,14 @@
     <row r="325" spans="1:6" outlineLevel="1">
       <c r="A325" s="2"/>
       <c r="B325" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C325" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D325" s="4" t="str">
-        <f>"Selection(1).Column"</f>
-        <v>Selection(1).Column</v>
+        <f>"Selection(Selection.Count).Row"</f>
+        <v>Selection(Selection.Count).Row</v>
       </c>
       <c r="E325" s="5" t="s">
         <v>123</v>
@@ -10279,14 +10303,14 @@
     <row r="326" spans="1:6" outlineLevel="1">
       <c r="A326" s="2"/>
       <c r="B326" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C326" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D326" s="4" t="str">
-        <f>"Selection(Selection.Count).Column"</f>
-        <v>Selection(Selection.Count).Column</v>
+        <f>"Selection(1).Column"</f>
+        <v>Selection(1).Column</v>
       </c>
       <c r="E326" s="5" t="s">
         <v>123</v>
@@ -10298,16 +10322,17 @@
     <row r="327" spans="1:6" outlineLevel="1">
       <c r="A327" s="2"/>
       <c r="B327" s="2" t="s">
-        <v>328</v>
+        <v>199</v>
       </c>
       <c r="C327" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="D327" s="4" t="s">
-        <v>326</v>
+        <v>401</v>
+      </c>
+      <c r="D327" s="4" t="str">
+        <f>"Selection(Selection.Count).Column"</f>
+        <v>Selection(Selection.Count).Column</v>
       </c>
       <c r="E327" s="5" t="s">
-        <v>334</v>
+        <v>123</v>
       </c>
       <c r="F327" s="11" t="s">
         <v>123</v>
@@ -10316,16 +10341,16 @@
     <row r="328" spans="1:6" outlineLevel="1">
       <c r="A328" s="2"/>
       <c r="B328" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C328" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D328" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E328" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F328" s="11" t="s">
         <v>123</v>
@@ -10334,16 +10359,16 @@
     <row r="329" spans="1:6" outlineLevel="1">
       <c r="A329" s="2"/>
       <c r="B329" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C329" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D329" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="E329" s="5" t="s">
         <v>331</v>
-      </c>
-      <c r="E329" s="5" t="s">
-        <v>333</v>
       </c>
       <c r="F329" s="11" t="s">
         <v>123</v>
@@ -10352,17 +10377,16 @@
     <row r="330" spans="1:6" outlineLevel="1">
       <c r="A330" s="2"/>
       <c r="B330" s="2" t="s">
-        <v>201</v>
+        <v>329</v>
       </c>
       <c r="C330" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="D330" s="4" t="str">
-        <f>".Range(.Cells(1, 1), .Cells(6, 3))"</f>
-        <v>.Range(.Cells(1, 1), .Cells(6, 3))</v>
+        <v>401</v>
+      </c>
+      <c r="D330" s="4" t="s">
+        <v>330</v>
       </c>
       <c r="E330" s="5" t="s">
-        <v>123</v>
+        <v>332</v>
       </c>
       <c r="F330" s="11" t="s">
         <v>123</v>
@@ -10371,14 +10395,14 @@
     <row r="331" spans="1:6" outlineLevel="1">
       <c r="A331" s="2"/>
       <c r="B331" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C331" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D331" s="4" t="str">
-        <f>".Range(""A1:B9"").Copy Destination:=ThisWorkBook.Sheets(シート名２).Range(""B1"")"</f>
-        <v>.Range("A1:B9").Copy Destination:=ThisWorkBook.Sheets(シート名２).Range("B1")</v>
+        <f>".Range(.Cells(1, 1), .Cells(6, 3))"</f>
+        <v>.Range(.Cells(1, 1), .Cells(6, 3))</v>
       </c>
       <c r="E331" s="5" t="s">
         <v>123</v>
@@ -10390,14 +10414,14 @@
     <row r="332" spans="1:6" outlineLevel="1">
       <c r="A332" s="2"/>
       <c r="B332" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C332" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D332" s="4" t="str">
-        <f>".Range(.Cells(1, 1), .Cells(.Rows.Count, 2)).Sort Key1:=.Cells(1, 2) ,order1:=xlAscending"</f>
-        <v>.Range(.Cells(1, 1), .Cells(.Rows.Count, 2)).Sort Key1:=.Cells(1, 2) ,order1:=xlAscending</v>
+        <f>".Range(""A1:B9"").Copy Destination:=ThisWorkBook.Sheets(シート名２).Range(""B1"")"</f>
+        <v>.Range("A1:B9").Copy Destination:=ThisWorkBook.Sheets(シート名２).Range("B1")</v>
       </c>
       <c r="E332" s="5" t="s">
         <v>123</v>
@@ -10409,14 +10433,14 @@
     <row r="333" spans="1:6" outlineLevel="1">
       <c r="A333" s="2"/>
       <c r="B333" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C333" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D333" s="4" t="str">
-        <f>".Range(""A1:A2"").ClearContents"</f>
-        <v>.Range("A1:A2").ClearContents</v>
+        <f>".Range(.Cells(1, 1), .Cells(.Rows.Count, 2)).Sort Key1:=.Cells(1, 2) ,order1:=xlAscending"</f>
+        <v>.Range(.Cells(1, 1), .Cells(.Rows.Count, 2)).Sort Key1:=.Cells(1, 2) ,order1:=xlAscending</v>
       </c>
       <c r="E333" s="5" t="s">
         <v>123</v>
@@ -10428,14 +10452,14 @@
     <row r="334" spans="1:6" outlineLevel="1">
       <c r="A334" s="2"/>
       <c r="B334" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C334" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D334" s="4" t="str">
-        <f>".Range(""A1:A2"").ClearFormats"</f>
-        <v>.Range("A1:A2").ClearFormats</v>
+        <f>".Range(""A1:A2"").ClearContents"</f>
+        <v>.Range("A1:A2").ClearContents</v>
       </c>
       <c r="E334" s="5" t="s">
         <v>123</v>
@@ -10447,17 +10471,17 @@
     <row r="335" spans="1:6" outlineLevel="1">
       <c r="A335" s="2"/>
       <c r="B335" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C335" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D335" s="4" t="str">
-        <f>".Range(""A1:A2"").PasteSpecial (xlPasteFormats)"</f>
-        <v>.Range("A1:A2").PasteSpecial (xlPasteFormats)</v>
+        <f>".Range(""A1:A2"").ClearFormats"</f>
+        <v>.Range("A1:A2").ClearFormats</v>
       </c>
       <c r="E335" s="5" t="s">
-        <v>192</v>
+        <v>123</v>
       </c>
       <c r="F335" s="11" t="s">
         <v>123</v>
@@ -10466,17 +10490,17 @@
     <row r="336" spans="1:6" outlineLevel="1">
       <c r="A336" s="2"/>
       <c r="B336" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C336" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D336" s="4" t="str">
-        <f>".Range(""A1:CV100"").SpecialCells(xlCellTypeBlanks).Select"</f>
-        <v>.Range("A1:CV100").SpecialCells(xlCellTypeBlanks).Select</v>
+        <f>".Range(""A1:A2"").PasteSpecial (xlPasteFormats)"</f>
+        <v>.Range("A1:A2").PasteSpecial (xlPasteFormats)</v>
       </c>
       <c r="E336" s="5" t="s">
-        <v>123</v>
+        <v>191</v>
       </c>
       <c r="F336" s="11" t="s">
         <v>123</v>
@@ -10485,17 +10509,17 @@
     <row r="337" spans="1:6" outlineLevel="1">
       <c r="A337" s="2"/>
       <c r="B337" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C337" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D337" s="4" t="str">
-        <f>".Range(""A1"").ColumnWidth = 5"</f>
-        <v>.Range("A1").ColumnWidth = 5</v>
+        <f>".Range(""A1:CV100"").SpecialCells(xlCellTypeBlanks).Select"</f>
+        <v>.Range("A1:CV100").SpecialCells(xlCellTypeBlanks).Select</v>
       </c>
       <c r="E337" s="5" t="s">
-        <v>307</v>
+        <v>123</v>
       </c>
       <c r="F337" s="11" t="s">
         <v>123</v>
@@ -10504,17 +10528,17 @@
     <row r="338" spans="1:6" outlineLevel="1">
       <c r="A338" s="2"/>
       <c r="B338" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C338" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D338" s="4" t="str">
-        <f>".Range(.Cells(4, 2), .Cells(9, 2)).Columns.AutoFit"</f>
-        <v>.Range(.Cells(4, 2), .Cells(9, 2)).Columns.AutoFit</v>
+        <f>".Range(""A1"").ColumnWidth = 5"</f>
+        <v>.Range("A1").ColumnWidth = 5</v>
       </c>
       <c r="E338" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F338" s="11" t="s">
         <v>123</v>
@@ -10523,17 +10547,17 @@
     <row r="339" spans="1:6" outlineLevel="1">
       <c r="A339" s="2"/>
       <c r="B339" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C339" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D339" s="4" t="str">
-        <f>".Sheets(シート名).UsedRange.Columns.AutoFit"</f>
-        <v>.Sheets(シート名).UsedRange.Columns.AutoFit</v>
+        <f>".Range(.Cells(4, 2), .Cells(9, 2)).Columns.AutoFit"</f>
+        <v>.Range(.Cells(4, 2), .Cells(9, 2)).Columns.AutoFit</v>
       </c>
       <c r="E339" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F339" s="11" t="s">
         <v>123</v>
@@ -10542,17 +10566,17 @@
     <row r="340" spans="1:6" outlineLevel="1">
       <c r="A340" s="2"/>
       <c r="B340" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C340" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D340" s="4" t="str">
-        <f>"Application.CutCopyMode = False"</f>
-        <v>Application.CutCopyMode = False</v>
+        <f>".Sheets(シート名).UsedRange.Columns.AutoFit"</f>
+        <v>.Sheets(シート名).UsedRange.Columns.AutoFit</v>
       </c>
       <c r="E340" s="5" t="s">
-        <v>123</v>
+        <v>307</v>
       </c>
       <c r="F340" s="11" t="s">
         <v>123</v>
@@ -10561,17 +10585,17 @@
     <row r="341" spans="1:6" outlineLevel="1">
       <c r="A341" s="2"/>
       <c r="B341" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C341" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D341" s="4" t="str">
-        <f>".Range( .Rows( lStrtRow ), .Rows( lLastRow ) ).Group"</f>
-        <v>.Range( .Rows( lStrtRow ), .Rows( lLastRow ) ).Group</v>
+        <f>"Application.CutCopyMode = False"</f>
+        <v>Application.CutCopyMode = False</v>
       </c>
       <c r="E341" s="5" t="s">
-        <v>309</v>
+        <v>123</v>
       </c>
       <c r="F341" s="11" t="s">
         <v>123</v>
@@ -10580,17 +10604,17 @@
     <row r="342" spans="1:6" outlineLevel="1">
       <c r="A342" s="2"/>
       <c r="B342" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C342" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D342" s="4" t="str">
-        <f>".Range( .Columns( lStrtRow ), .Columns( lLastRow ) ).Group"</f>
-        <v>.Range( .Columns( lStrtRow ), .Columns( lLastRow ) ).Group</v>
+        <f>".Range( .Rows( lStrtRow ), .Rows( lLastRow ) ).Group"</f>
+        <v>.Range( .Rows( lStrtRow ), .Rows( lLastRow ) ).Group</v>
       </c>
       <c r="E342" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F342" s="11" t="s">
         <v>123</v>
@@ -10599,17 +10623,17 @@
     <row r="343" spans="1:6" outlineLevel="1">
       <c r="A343" s="2"/>
       <c r="B343" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C343" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D343" s="4" t="str">
-        <f>".Sheets(シート名).Outline.SummaryRow = ( xlBelow \| xlAbove )"</f>
-        <v>.Sheets(シート名).Outline.SummaryRow = ( xlBelow \| xlAbove )</v>
+        <f>".Range( .Columns( lStrtRow ), .Columns( lLastRow ) ).Group"</f>
+        <v>.Range( .Columns( lStrtRow ), .Columns( lLastRow ) ).Group</v>
       </c>
       <c r="E343" s="5" t="s">
-        <v>123</v>
+        <v>308</v>
       </c>
       <c r="F343" s="11" t="s">
         <v>123</v>
@@ -10618,14 +10642,14 @@
     <row r="344" spans="1:6" outlineLevel="1">
       <c r="A344" s="2"/>
       <c r="B344" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C344" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D344" s="4" t="str">
-        <f>".Sheets(シート名).Outline.SummaryColumn = ( xlRight \| xlLeft )"</f>
-        <v>.Sheets(シート名).Outline.SummaryColumn = ( xlRight \| xlLeft )</v>
+        <f>".Sheets(シート名).Outline.SummaryRow = ( xlBelow \| xlAbove )"</f>
+        <v>.Sheets(シート名).Outline.SummaryRow = ( xlBelow \| xlAbove )</v>
       </c>
       <c r="E344" s="5" t="s">
         <v>123</v>
@@ -10637,14 +10661,14 @@
     <row r="345" spans="1:6" outlineLevel="1">
       <c r="A345" s="2"/>
       <c r="B345" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C345" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D345" s="4" t="str">
-        <f>".Sheets(シート名).Outline.AutomaticStyles = ( True \| False )"</f>
-        <v>.Sheets(シート名).Outline.AutomaticStyles = ( True \| False )</v>
+        <f>".Sheets(シート名).Outline.SummaryColumn = ( xlRight \| xlLeft )"</f>
+        <v>.Sheets(シート名).Outline.SummaryColumn = ( xlRight \| xlLeft )</v>
       </c>
       <c r="E345" s="5" t="s">
         <v>123</v>
@@ -10656,14 +10680,14 @@
     <row r="346" spans="1:6" outlineLevel="1">
       <c r="A346" s="2"/>
       <c r="B346" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C346" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D346" s="4" t="str">
-        <f>".Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).AutoFilter"</f>
-        <v>.Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).AutoFilter</v>
+        <f>".Sheets(シート名).Outline.AutomaticStyles = ( True \| False )"</f>
+        <v>.Sheets(シート名).Outline.AutomaticStyles = ( True \| False )</v>
       </c>
       <c r="E346" s="5" t="s">
         <v>123</v>
@@ -10675,75 +10699,75 @@
     <row r="347" spans="1:6" outlineLevel="1">
       <c r="A347" s="2"/>
       <c r="B347" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C347" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D347" s="4" t="str">
+        <f>".Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).AutoFilter"</f>
+        <v>.Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).AutoFilter</v>
+      </c>
+      <c r="E347" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F347" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" outlineLevel="1">
+      <c r="A348" s="2"/>
+      <c r="B348" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C348" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="D348" s="4" t="str">
         <f>".Rows(行).Select"&amp;CHAR(10)&amp;"ActiveWindow.FreezePanes = True"</f>
         <v>.Rows(行).Select
 ActiveWindow.FreezePanes = True</v>
       </c>
-      <c r="E347" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F347" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="348" spans="1:6" outlineLevel="1">
-      <c r="A348" s="2"/>
-      <c r="B348" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="C348" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="D348" s="4" t="str">
+      <c r="E348" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F348" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" outlineLevel="1">
+      <c r="A349" s="2"/>
+      <c r="B349" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C349" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="D349" s="4" t="str">
         <f>".Columns(列).Select"&amp;CHAR(10)&amp;"ActiveWindow.FreezePanes = True"</f>
         <v>.Columns(列).Select
 ActiveWindow.FreezePanes = True</v>
       </c>
-      <c r="E348" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F348" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="349" spans="1:6" outlineLevel="1">
-      <c r="A349" s="2"/>
-      <c r="B349" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C349" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="D349" s="4" t="str">
+      <c r="E349" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F349" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" outlineLevel="1">
+      <c r="A350" s="2"/>
+      <c r="B350" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C350" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="D350" s="4" t="str">
         <f>".Cells(行,列).Select"&amp;CHAR(10)&amp;"ActiveWindow.FreezePanes = True"</f>
         <v>.Cells(行,列).Select
 ActiveWindow.FreezePanes = True</v>
       </c>
-      <c r="E349" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F349" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="350" spans="1:6" outlineLevel="1">
-      <c r="A350" s="2"/>
-      <c r="B350" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C350" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="D350" s="4" t="str">
-        <f>"ActiveWindow.FreezePanes = False"</f>
-        <v>ActiveWindow.FreezePanes = False</v>
-      </c>
       <c r="E350" s="5" t="s">
         <v>123</v>
       </c>
@@ -10754,14 +10778,14 @@
     <row r="351" spans="1:6" outlineLevel="1">
       <c r="A351" s="2"/>
       <c r="B351" s="2" t="s">
-        <v>249</v>
+        <v>218</v>
       </c>
       <c r="C351" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D351" s="4" t="str">
-        <f>"Application.WorksheetFunction.VLookup(.Range(""C1""), .Range(""A1:B7""), 2, False)"</f>
-        <v>Application.WorksheetFunction.VLookup(.Range("C1"), .Range("A1:B7"), 2, False)</v>
+        <f>"ActiveWindow.FreezePanes = False"</f>
+        <v>ActiveWindow.FreezePanes = False</v>
       </c>
       <c r="E351" s="5" t="s">
         <v>123</v>
@@ -10773,17 +10797,17 @@
     <row r="352" spans="1:6" outlineLevel="1">
       <c r="A352" s="2"/>
       <c r="B352" s="2" t="s">
-        <v>122</v>
+        <v>248</v>
       </c>
       <c r="C352" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D352" s="4" t="str">
-        <f>"CreateObject(""WScript.Network"").UserName"</f>
-        <v>CreateObject("WScript.Network").UserName</v>
+        <f>"Application.WorksheetFunction.VLookup(.Range(""C1""), .Range(""A1:B7""), 2, False)"</f>
+        <v>Application.WorksheetFunction.VLookup(.Range("C1"), .Range("A1:B7"), 2, False)</v>
       </c>
       <c r="E352" s="5" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F352" s="11" t="s">
         <v>123</v>
@@ -10792,17 +10816,17 @@
     <row r="353" spans="1:6" outlineLevel="1">
       <c r="A353" s="2"/>
       <c r="B353" s="2" t="s">
-        <v>342</v>
+        <v>122</v>
       </c>
       <c r="C353" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="D353" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="E353" s="6" t="str">
-        <f>HYPERLINK("https://msdn.microsoft.com/ja-jp/library/office/ff197461.aspx","sShtcutKey＝Shift:+,Ctrl:^,Alt:%,...")</f>
-        <v>sShtcutKey＝Shift:+,Ctrl:^,Alt:%,...</v>
+        <v>401</v>
+      </c>
+      <c r="D353" s="4" t="str">
+        <f>"CreateObject(""WScript.Network"").UserName"</f>
+        <v>CreateObject("WScript.Network").UserName</v>
+      </c>
+      <c r="E353" s="5" t="s">
+        <v>129</v>
       </c>
       <c r="F353" s="11" t="s">
         <v>123</v>
@@ -10811,15 +10835,18 @@
     <row r="354" spans="1:6" outlineLevel="1">
       <c r="A354" s="2"/>
       <c r="B354" s="2" t="s">
-        <v>669</v>
+        <v>341</v>
       </c>
       <c r="C354" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D354" s="4" t="s">
-        <v>667</v>
-      </c>
-      <c r="E354" s="5"/>
+        <v>340</v>
+      </c>
+      <c r="E354" s="6" t="str">
+        <f>HYPERLINK("https://msdn.microsoft.com/ja-jp/library/office/ff197461.aspx","sShtcutKey＝Shift:+,Ctrl:^,Alt:%,...")</f>
+        <v>sShtcutKey＝Shift:+,Ctrl:^,Alt:%,...</v>
+      </c>
       <c r="F354" s="11" t="s">
         <v>123</v>
       </c>
@@ -10827,13 +10854,13 @@
     <row r="355" spans="1:6" outlineLevel="1">
       <c r="A355" s="2"/>
       <c r="B355" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C355" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D355" s="4" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="E355" s="5"/>
       <c r="F355" s="11" t="s">
@@ -10843,12 +10870,28 @@
     <row r="356" spans="1:6" outlineLevel="1">
       <c r="A356" s="2"/>
       <c r="B356" s="2" t="s">
-        <v>723</v>
+        <v>666</v>
       </c>
       <c r="C356" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="D356" s="10" t="str">
+        <v>401</v>
+      </c>
+      <c r="D356" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="E356" s="5"/>
+      <c r="F356" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" outlineLevel="1">
+      <c r="A357" s="2"/>
+      <c r="B357" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="C357" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="D357" s="10" t="str">
         <f>"Dim objBtn As Object
 Set objBtn = ActiveSheet.Shapes(Application.Caller)
 Dim lClm As Long
@@ -10864,36 +10907,36 @@
 lRow = objBtn.TopLeftCell.Row
 </v>
       </c>
-      <c r="E356" s="5" t="s">
-        <v>724</v>
-      </c>
-      <c r="F356" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="357" spans="1:6">
-      <c r="A357" s="20" t="s">
-        <v>470</v>
-      </c>
-      <c r="B357" s="8"/>
-      <c r="C357" s="8"/>
-      <c r="D357" s="8"/>
-      <c r="E357" s="8" t="s">
-        <v>123</v>
+      <c r="E357" s="5" t="s">
+        <v>722</v>
       </c>
       <c r="F357" s="11" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="358" spans="1:6" outlineLevel="1">
-      <c r="A358" s="2"/>
-      <c r="B358" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="C358" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="D358" s="2" t="str">
+    <row r="358" spans="1:6">
+      <c r="A358" s="20" t="s">
+        <v>468</v>
+      </c>
+      <c r="B358" s="8"/>
+      <c r="C358" s="8"/>
+      <c r="D358" s="8"/>
+      <c r="E358" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F358" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" outlineLevel="1">
+      <c r="A359" s="2"/>
+      <c r="B359" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="C359" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="D359" s="2" t="str">
         <f>"Dim bIsSheetExist As Boolean
 bIsSheetExist = False
 For Each wSheet In ThisWorkbook.Worksheets
@@ -10913,19 +10956,19 @@
     End If
 Next wSheet</v>
       </c>
-      <c r="E358" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="359" spans="1:6" outlineLevel="1">
-      <c r="A359" s="2"/>
-      <c r="B359" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="C359" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="D359" s="2" t="str">
+      <c r="E359" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" outlineLevel="1">
+      <c r="A360" s="2"/>
+      <c r="B360" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="C360" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="D360" s="2" t="str">
         <f>"Dim rFindResult As Range
 Dim sFindKeyword As String
 Dim shTrgtSht As Worksheet
@@ -10939,19 +10982,19 @@
 sFindKeyword = "test"
 Set rFindResult = shTrgtSht.Cells.Find(sFindKeyword, LookAt:=xlWhole)</v>
       </c>
-      <c r="E359" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="360" spans="1:6" outlineLevel="1">
-      <c r="A360" s="2"/>
-      <c r="B360" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="C360" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="D360" s="2" t="str">
+      <c r="E360" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" outlineLevel="1">
+      <c r="A361" s="2"/>
+      <c r="B361" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C361" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="D361" s="2" t="str">
         <f>"If rFindResult Is Nothing Then
     MsgBox _
         ""セルが見つからなかったため、処理を中断します。"" &amp; vbNewLine &amp; _
@@ -10969,15 +11012,6 @@
     End
 End If</v>
       </c>
-      <c r="E360" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="361" spans="1:6" outlineLevel="1">
-      <c r="A361" s="2"/>
-      <c r="B361" s="2"/>
-      <c r="C361" s="10"/>
-      <c r="D361" s="10"/>
       <c r="E361" s="5" t="s">
         <v>123</v>
       </c>
@@ -11090,21 +11124,30 @@
         <v>123</v>
       </c>
     </row>
-    <row r="375" spans="1:5">
-      <c r="A375" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="B375" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="C375" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="D375" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="E375" s="1" t="s">
-        <v>423</v>
+    <row r="374" spans="1:5" outlineLevel="1">
+      <c r="A374" s="2"/>
+      <c r="B374" s="2"/>
+      <c r="C374" s="10"/>
+      <c r="D374" s="10"/>
+      <c r="E374" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5">
+      <c r="A376" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="B376" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C376" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="D376" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="E376" s="1" t="s">
+        <v>421</v>
       </c>
     </row>
   </sheetData>
@@ -11112,14 +11155,13 @@
   <phoneticPr fontId="3"/>
   <hyperlinks>
     <hyperlink ref="E30" r:id="rId1" display="32 (※)値の意味は [【ファイル・フォルダ情報取得】](https://github.com/draemonash2/codes/blob/master/vbs/lib/FileSystem.vbs) 参照" xr:uid="{51FF9B99-DDF0-482F-A859-99967CEF1640}"/>
-    <hyperlink ref="E66" r:id="rId2" xr:uid="{1379D4F3-77ED-4F19-AE19-501879C3D708}"/>
-    <hyperlink ref="E160" r:id="rId3" xr:uid="{E05C5702-9A7D-43B3-950C-6EA66C521D18}"/>
-    <hyperlink ref="E184" r:id="rId4" display="32 (※)値の意味は [【ファイル・フォルダ情報取得】](https://github.com/draemonash2/codes/blob/master/vbs/lib/FileSystem.vbs) 参照" xr:uid="{647131FE-1804-4878-A961-C3C030D11B35}"/>
-    <hyperlink ref="E40" r:id="rId5" xr:uid="{82623296-AC5C-495D-B069-8D9557A73B3A}"/>
+    <hyperlink ref="E67" r:id="rId2" xr:uid="{1379D4F3-77ED-4F19-AE19-501879C3D708}"/>
+    <hyperlink ref="E161" r:id="rId3" xr:uid="{E05C5702-9A7D-43B3-950C-6EA66C521D18}"/>
+    <hyperlink ref="E185" r:id="rId4" display="32 (※)値の意味は [【ファイル・フォルダ情報取得】](https://github.com/draemonash2/codes/blob/master/vbs/lib/FileSystem.vbs) 参照" xr:uid="{647131FE-1804-4878-A961-C3C030D11B35}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="47" orientation="portrait" r:id="rId6"/>
-  <legacyDrawing r:id="rId7"/>
+  <pageSetup paperSize="9" scale="47" orientation="portrait" r:id="rId5"/>
+  <legacyDrawing r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -11130,11 +11172,11 @@
   </sheetPr>
   <dimension ref="A1:E88"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C76" sqref="C76"/>
+      <selection pane="bottomRight" activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -11157,7 +11199,7 @@
     </row>
     <row r="2" spans="1:5" ht="27">
       <c r="A2" s="14" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="29" t="s">
@@ -11172,7 +11214,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="20" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -11186,22 +11228,22 @@
     <row r="4" spans="1:5" outlineLevel="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="5" spans="1:5" outlineLevel="1">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>123</v>
@@ -11210,10 +11252,10 @@
     <row r="6" spans="1:5" outlineLevel="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>123</v>
@@ -11222,10 +11264,10 @@
     <row r="7" spans="1:5" outlineLevel="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>123</v>
@@ -11234,22 +11276,22 @@
     <row r="8" spans="1:5" outlineLevel="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="9" spans="1:5" outlineLevel="1">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>123</v>
@@ -11258,73 +11300,73 @@
     <row r="10" spans="1:5" ht="94.5" outlineLevel="1">
       <c r="A10" s="2"/>
       <c r="B10" s="32" t="s">
+        <v>655</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="D10" s="30" t="s">
         <v>657</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>658</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="11" spans="1:5" outlineLevel="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="12" spans="1:5" outlineLevel="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="13" spans="1:5" outlineLevel="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="14" spans="1:5" outlineLevel="1">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>651</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>652</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="81" outlineLevel="1">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="D15" s="30" t="s">
         <v>654</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>655</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="16" spans="1:5" outlineLevel="1">
@@ -11333,7 +11375,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>123</v>
@@ -11342,10 +11384,10 @@
     <row r="17" spans="1:5" outlineLevel="1">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>123</v>
@@ -11354,10 +11396,10 @@
     <row r="18" spans="1:5" outlineLevel="1">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>123</v>
@@ -11366,10 +11408,10 @@
     <row r="19" spans="1:5" outlineLevel="1">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>123</v>
@@ -11378,10 +11420,10 @@
     <row r="20" spans="1:5" outlineLevel="1">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>123</v>
@@ -11390,10 +11432,10 @@
     <row r="21" spans="1:5" outlineLevel="1">
       <c r="A21" s="2"/>
       <c r="B21" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>123</v>
@@ -11402,10 +11444,10 @@
     <row r="22" spans="1:5" outlineLevel="1">
       <c r="A22" s="2"/>
       <c r="B22" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>123</v>
@@ -11414,10 +11456,10 @@
     <row r="23" spans="1:5" outlineLevel="1">
       <c r="A23" s="2"/>
       <c r="B23" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>123</v>
@@ -11429,7 +11471,7 @@
         <v>13</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>123</v>
@@ -11438,10 +11480,10 @@
     <row r="25" spans="1:5" outlineLevel="1">
       <c r="A25" s="2"/>
       <c r="B25" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>123</v>
@@ -11450,10 +11492,10 @@
     <row r="26" spans="1:5" outlineLevel="1">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>123</v>
@@ -11462,10 +11504,10 @@
     <row r="27" spans="1:5" outlineLevel="1">
       <c r="A27" s="2"/>
       <c r="B27" s="2" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>123</v>
@@ -11474,10 +11516,10 @@
     <row r="28" spans="1:5" outlineLevel="1">
       <c r="A28" s="2"/>
       <c r="B28" s="2" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>123</v>
@@ -11486,10 +11528,10 @@
     <row r="29" spans="1:5" outlineLevel="1">
       <c r="A29" s="2"/>
       <c r="B29" s="2" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>123</v>
@@ -11498,30 +11540,30 @@
     <row r="30" spans="1:5" outlineLevel="1">
       <c r="A30" s="2"/>
       <c r="B30" s="2" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C30" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>663</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="31" spans="1:5" outlineLevel="1">
       <c r="A31" s="2"/>
       <c r="B31" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="D31" s="5" t="s">
         <v>664</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="20" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -11535,88 +11577,88 @@
     <row r="33" spans="1:5" outlineLevel="1">
       <c r="A33" s="2"/>
       <c r="B33" s="2" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D33" s="5"/>
     </row>
     <row r="34" spans="1:5" outlineLevel="1">
       <c r="A34" s="2"/>
       <c r="B34" s="2" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D34" s="5"/>
     </row>
     <row r="35" spans="1:5" outlineLevel="1">
       <c r="A35" s="2"/>
       <c r="B35" s="2" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D35" s="5"/>
     </row>
     <row r="36" spans="1:5" outlineLevel="1">
       <c r="A36" s="2"/>
       <c r="B36" s="2" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D36" s="5"/>
     </row>
     <row r="37" spans="1:5" outlineLevel="1">
       <c r="A37" s="2"/>
       <c r="B37" s="2" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D37" s="5"/>
     </row>
     <row r="38" spans="1:5" outlineLevel="1">
       <c r="A38" s="2"/>
       <c r="B38" s="2" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D38" s="5"/>
     </row>
     <row r="39" spans="1:5" outlineLevel="1">
       <c r="A39" s="2"/>
       <c r="B39" s="2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D39" s="5"/>
     </row>
     <row r="40" spans="1:5" outlineLevel="1">
       <c r="A40" s="2"/>
       <c r="B40" s="2" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="20" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -11630,115 +11672,115 @@
     <row r="42" spans="1:5" outlineLevel="1">
       <c r="A42" s="2"/>
       <c r="B42" s="3" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C42" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="D42" s="5" t="s">
         <v>589</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="43" spans="1:5" outlineLevel="1">
       <c r="A43" s="2"/>
       <c r="B43" s="3" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="44" spans="1:5" outlineLevel="1">
       <c r="A44" s="2"/>
       <c r="B44" s="3" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="45" spans="1:5" outlineLevel="1">
       <c r="A45" s="2"/>
       <c r="B45" s="3" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="46" spans="1:5" outlineLevel="1">
       <c r="A46" s="2"/>
       <c r="B46" s="3" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C46" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="D46" s="5" t="s">
         <v>598</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="47" spans="1:5" outlineLevel="1">
       <c r="A47" s="2"/>
       <c r="B47" s="3" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C47" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="D47" s="5" t="s">
         <v>601</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="48" spans="1:5" outlineLevel="1">
       <c r="A48" s="2"/>
       <c r="B48" s="3" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C48" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="D48" s="5" t="s">
         <v>604</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="49" spans="1:5" outlineLevel="1">
       <c r="A49" s="2"/>
       <c r="B49" s="3" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C49" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="D49" s="5" t="s">
         <v>607</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="50" spans="1:5" outlineLevel="1">
       <c r="A50" s="2"/>
       <c r="B50" s="3" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C50" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="D50" s="5" t="s">
         <v>610</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="27" outlineLevel="1">
       <c r="A51" s="2"/>
       <c r="B51" s="2" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C51" s="31" t="str">
         <f>"set CUR_DIR_PATH=%~dp0
@@ -11753,54 +11795,54 @@
     <row r="52" spans="1:5" outlineLevel="1">
       <c r="A52" s="2"/>
       <c r="B52" s="3" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C52" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="D52" s="5" t="s">
         <v>613</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="53" spans="1:5" outlineLevel="1">
       <c r="A53" s="2"/>
       <c r="B53" s="3" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C53" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="D53" s="5" t="s">
         <v>616</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="54" spans="1:5" outlineLevel="1">
       <c r="A54" s="2"/>
       <c r="B54" s="3" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C54" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="D54" s="5" t="s">
         <v>619</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="55" spans="1:5" outlineLevel="1">
       <c r="A55" s="2"/>
       <c r="B55" s="3" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C55" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="D55" s="5" t="s">
         <v>622</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="20" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -11817,19 +11859,19 @@
         <v>48</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D57" s="30" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="58" spans="1:5" outlineLevel="1">
       <c r="A58" s="2"/>
       <c r="B58" s="2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>123</v>
@@ -11838,10 +11880,10 @@
     <row r="59" spans="1:5" outlineLevel="1">
       <c r="A59" s="2"/>
       <c r="B59" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>123</v>
@@ -11850,13 +11892,13 @@
     <row r="60" spans="1:5" outlineLevel="1">
       <c r="A60" s="2"/>
       <c r="B60" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D60" s="30" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="61" spans="1:5" outlineLevel="1">
@@ -11865,7 +11907,7 @@
         <v>60</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>123</v>
@@ -11877,22 +11919,22 @@
         <v>59</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D62" s="30" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="63" spans="1:5" outlineLevel="1">
       <c r="A63" s="2"/>
       <c r="B63" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D63" s="30" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="135" outlineLevel="1">
@@ -11901,103 +11943,103 @@
         <v>58</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D64" s="30" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="94.5" outlineLevel="1">
       <c r="A65" s="2"/>
       <c r="B65" s="2" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D65" s="30" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="66" spans="1:4" outlineLevel="1">
       <c r="A66" s="2"/>
       <c r="B66" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="67" spans="1:4" outlineLevel="1">
       <c r="A67" s="2"/>
       <c r="B67" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="68" spans="1:4" outlineLevel="1">
       <c r="A68" s="2"/>
       <c r="B68" s="2" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D68" s="30" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="69" spans="1:4" outlineLevel="1">
       <c r="A69" s="2"/>
       <c r="B69" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D69" s="30" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="70" spans="1:4" outlineLevel="1">
       <c r="A70" s="2"/>
       <c r="B70" s="2" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D70" s="30" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="27" outlineLevel="1">
       <c r="A71" s="2"/>
       <c r="B71" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="D71" s="30" t="s">
         <v>577</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>578</v>
-      </c>
-      <c r="D71" s="30" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="72" spans="1:4" outlineLevel="1">
       <c r="A72" s="2"/>
       <c r="B72" s="2" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D72" s="5" t="s">
         <v>123</v>
@@ -12006,10 +12048,10 @@
     <row r="73" spans="1:4" outlineLevel="1">
       <c r="A73" s="2"/>
       <c r="B73" s="2" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D73" s="5" t="s">
         <v>123</v>
@@ -12018,22 +12060,22 @@
     <row r="74" spans="1:4" outlineLevel="1">
       <c r="A74" s="2"/>
       <c r="B74" s="2" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="75" spans="1:4" outlineLevel="1">
       <c r="A75" s="2"/>
       <c r="B75" s="2" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D75" s="5" t="s">
         <v>123</v>
@@ -12042,10 +12084,10 @@
     <row r="76" spans="1:4" outlineLevel="1">
       <c r="A76" s="2"/>
       <c r="B76" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D76" s="5" t="s">
         <v>123</v>
@@ -12054,10 +12096,10 @@
     <row r="77" spans="1:4" outlineLevel="1">
       <c r="A77" s="2"/>
       <c r="B77" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D77" s="5" t="s">
         <v>123</v>
@@ -12066,10 +12108,10 @@
     <row r="78" spans="1:4" outlineLevel="1">
       <c r="A78" s="2"/>
       <c r="B78" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D78" s="5" t="s">
         <v>123</v>

--- a/言語チートシート.xlsx
+++ b/言語チートシート.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9,7 +9,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65434E5C-741D-4885-AA37-E26E0262E998}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5B0EC1-AC1A-4BE5-8F36-79D981FC7736}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2220" yWindow="-120" windowWidth="26700" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,8 +20,6 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">bat!$A$2:$D$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'vbs,vba'!$A$2:$E$2</definedName>
-    <definedName name="testname01">#REF!</definedName>
-    <definedName name="testname03">!$A$1:$B$2</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
@@ -3878,7 +3876,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C43" sqref="C43"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.5" outlineLevelRow="1"/>

--- a/言語チートシート.xlsx
+++ b/言語チートシート.xlsx
@@ -9,7 +9,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5B0EC1-AC1A-4BE5-8F36-79D981FC7736}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51043C5D-636B-45A4-9864-BDA93A552F4D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2220" yWindow="-120" windowWidth="26700" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -300,9 +300,6 @@
     <t>ファイル ドライブ名取得</t>
   </si>
   <si>
-    <t>ファイル ファイル名取得</t>
-  </si>
-  <si>
     <t>ファイル ファイルベース名取得</t>
   </si>
   <si>
@@ -975,9 +972,6 @@
   </si>
   <si>
     <t>C:</t>
-  </si>
-  <si>
-    <t>a.txt</t>
   </si>
   <si>
     <t>a</t>
@@ -3174,6 +3168,17 @@
   </si>
   <si>
     <t>WScript.Arguments.Count</t>
+  </si>
+  <si>
+    <t>ファイル ファイル名/フォルダ名取得</t>
+    <rPh sb="15" eb="16">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>a.txt</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -3873,10 +3878,10 @@
   <dimension ref="A1:F376"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C191" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="C217" sqref="C217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -3893,44 +3898,44 @@
       <c r="A1" s="13"/>
       <c r="B1" s="13"/>
       <c r="C1" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D1" s="17"/>
       <c r="E1" s="18"/>
       <c r="F1" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="27">
       <c r="A2" s="14" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="16" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="20" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:6" outlineLevel="1">
@@ -3947,10 +3952,10 @@
         <v>Option Explicit</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:6" outlineLevel="1">
@@ -3959,14 +3964,14 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:6" outlineLevel="1">
@@ -3975,14 +3980,14 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:6" outlineLevel="1">
@@ -3991,14 +3996,14 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:6" outlineLevel="1">
@@ -4007,14 +4012,14 @@
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:6" outlineLevel="1">
@@ -4027,31 +4032,31 @@
         <v>Dim 配列変数名(最終要素番号)</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:6" outlineLevel="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:6" outlineLevel="1">
@@ -4060,26 +4065,26 @@
         <v>6</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D11" s="4" t="str">
         <f>"Const NUM As Integer = 1"</f>
         <v>Const NUM As Integer = 1</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:6" outlineLevel="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D12" s="4" t="str">
         <f>"Type T_XXX
@@ -4092,19 +4097,19 @@
 End Type</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:6" outlineLevel="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D13" s="4" t="str">
         <f>"Enum E_XXX
@@ -4117,16 +4122,16 @@
 End Enum</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:6" outlineLevel="1">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C14" s="10" t="str">
         <f>"Public Sub SubA ( _
@@ -4153,10 +4158,10 @@
 End Sub</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:6" outlineLevel="1">
@@ -4189,10 +4194,10 @@
 End Function</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:6" outlineLevel="1">
@@ -4209,10 +4214,10 @@
         <v>Call Func()</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:6" outlineLevel="1">
@@ -4229,16 +4234,16 @@
         <v>'コメント</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:6" outlineLevel="1">
       <c r="A18" s="2"/>
       <c r="B18" s="3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C18" s="4" t="str">
         <f>"If iVal = 1 Or iVal = 2 Then"&amp;CHAR(10)&amp;"ElseIf iVal = 3 Then"&amp;CHAR(10)&amp;"Else"&amp;CHAR(10)&amp;"End If"</f>
@@ -4255,16 +4260,16 @@
 End If</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:6" outlineLevel="1">
       <c r="A19" s="2"/>
       <c r="B19" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C19" s="4" t="str">
         <f>"If objTest Is Nothing Then"&amp;CHAR(10)&amp;"Else"&amp;CHAR(10)&amp;"End If"</f>
@@ -4279,16 +4284,16 @@
 End If</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:6" outlineLevel="1">
       <c r="A20" s="2"/>
       <c r="B20" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C20" s="4" t="str">
         <f>"Select Case iVal"&amp;CHAR(10)&amp;"Case 1"&amp;CHAR(10)&amp;"Case Else"&amp;CHAR(10)&amp;"End Select"</f>
@@ -4305,16 +4310,16 @@
 End Select</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:6" outlineLevel="1">
       <c r="A21" s="2"/>
       <c r="B21" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C21" s="4" t="str">
         <f>"For iVal1 = 1 To 3 [Step 1]"&amp;CHAR(10)&amp;"Next"</f>
@@ -4327,16 +4332,16 @@
 Next Val</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:6" outlineLevel="1">
       <c r="A22" s="2"/>
       <c r="B22" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C22" s="4" t="str">
         <f>"For Each Value in Values"&amp;CHAR(10)&amp;"Next"</f>
@@ -4350,16 +4355,16 @@
 Next</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:6" outlineLevel="1">
       <c r="A23" s="2"/>
       <c r="B23" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C23" s="4" t="str">
         <f>"Do"&amp;CHAR(10)&amp;CHAR(9)&amp;" 条件式＝真 "&amp;CHAR(10)&amp;"Loop While 条件式"</f>
@@ -4374,16 +4379,16 @@
 Loop While 条件式</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:6" outlineLevel="1">
       <c r="A24" s="2"/>
       <c r="B24" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C24" s="4" t="str">
         <f>"Do While 条件式"&amp;CHAR(10)&amp;CHAR(9)&amp;"条件式＝真"&amp;CHAR(10)&amp;"Loop"</f>
@@ -4398,16 +4403,16 @@
 Loop</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:6" outlineLevel="1">
       <c r="A25" s="2"/>
       <c r="B25" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C25" s="4" t="str">
         <f>"Do Until 条件式"&amp;CHAR(10)&amp;CHAR(9)&amp;"条件式＝偽"&amp;CHAR(10)&amp;"Loop"</f>
@@ -4422,10 +4427,10 @@
 Loop</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:6" outlineLevel="1">
@@ -4444,10 +4449,10 @@
 End With</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:6" outlineLevel="1">
@@ -4464,16 +4469,16 @@
         <v>Exit (Sub\|Function\|For\|Do)</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:6" outlineLevel="1">
       <c r="A28" s="2"/>
       <c r="B28" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C28" s="4" t="str">
         <f>"sStr = InputBox( ""message"", ""title"", ""default value"" )"</f>
@@ -4484,16 +4489,16 @@
         <v>sStr = InputBox( "テキストを入力してください", "title", "default value" )</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:6" outlineLevel="1">
       <c r="A29" s="2"/>
       <c r="B29" s="3" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C29" s="4" t="str">
         <f>"sStr = InputBox(""数値を入力してください。"")
@@ -4532,35 +4537,35 @@
 End If</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:6" outlineLevel="1">
       <c r="A30" s="2"/>
       <c r="B30" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C30" s="4" t="str">
         <f>"MsgBox ""Hello world"", vbOKOnly, ""title"""</f>
         <v>MsgBox "Hello world", vbOKOnly, "title"</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:6" outlineLevel="1">
       <c r="A31" s="2"/>
       <c r="B31" s="3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C31" s="4" t="str">
         <f>"WScript.Echo ""Hello world"""</f>
@@ -4571,35 +4576,35 @@
         <v>Debug.Print "Hello world"</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:6" outlineLevel="1">
       <c r="A32" s="2"/>
       <c r="B32" s="3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C32" s="4" t="str">
         <f>"Wscript.StdOut.WriteLine ""Hello world"""</f>
         <v>Wscript.StdOut.WriteLine "Hello world"</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33" spans="1:6" outlineLevel="1">
       <c r="A33" s="2"/>
       <c r="B33" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C33" s="4" t="str">
         <f>"Dim vAnswer" &amp; CHAR(10) &amp; "vAnswer = MsgBox(""処理を継続しますか？"", vbOkCancel, ""title"")" &amp; CHAR(10) &amp; "If vAnswer = vbCancel Then" &amp; CHAR(10) &amp; "    MsgBox ""キャンセルが押されたため、処理を中断します。"", vbExclamation, ""title""" &amp; CHAR(10) &amp; "    WScript.Quit" &amp; CHAR(10) &amp; "End If"</f>
@@ -4620,29 +4625,29 @@
 End If</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34" spans="1:6" outlineLevel="1">
       <c r="A34" s="2"/>
       <c r="B34" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D34" s="4" t="str">
         <f>"Debug.Assert 条件式"</f>
         <v>Debug.Assert 条件式</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35" spans="1:6" outlineLevel="1">
@@ -4660,10 +4665,10 @@
         <v>Dim cPrfrmMes As New PerformanceMeasurement</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36" spans="1:6" outlineLevel="1">
@@ -4680,10 +4685,10 @@
         <v>Set cPrfrmMes = Nothing</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37" spans="1:6" outlineLevel="1">
@@ -4700,29 +4705,29 @@
         <v>Dim sStr As String : sStr = "abc"</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38" spans="1:6" outlineLevel="1">
       <c r="A38" s="2"/>
       <c r="B38" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D38" s="4" t="str">
         <f>"Stop"</f>
         <v>Stop</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39" spans="1:6" outlineLevel="1">
@@ -4739,66 +4744,66 @@
         <v>End</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40" spans="1:6" outlineLevel="1">
       <c r="A40" s="2"/>
       <c r="B40" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>729</v>
       </c>
-      <c r="C40" s="4" t="s">
-        <v>731</v>
-      </c>
       <c r="D40" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="41" spans="1:6" outlineLevel="1">
       <c r="A41" s="2"/>
       <c r="B41" s="2" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="D41" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="20" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
       <c r="E42" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="43" spans="1:6" outlineLevel="1">
       <c r="A43" s="2"/>
       <c r="B43" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C43" s="4" t="str">
         <f>"Replace(文字列変数, ""  "", """")"</f>
@@ -4809,16 +4814,16 @@
         <v>Replace(文字列変数, "  ", "")</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="44" spans="1:6" outlineLevel="1">
       <c r="A44" s="2"/>
       <c r="B44" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C44" s="4" t="str">
         <f>"InStr(""abcabc"", ""bc"")"</f>
@@ -4829,16 +4834,16 @@
         <v>InStr("abcabc", "bc")</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="45" spans="1:6" outlineLevel="1">
       <c r="A45" s="2"/>
       <c r="B45" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C45" s="4" t="str">
         <f>"InStrRev(""abcabc"", ""bc"")"</f>
@@ -4849,16 +4854,16 @@
         <v>InStrRev("abcabc", "bc")</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="46" spans="1:6" outlineLevel="1">
       <c r="A46" s="2"/>
       <c r="B46" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C46" s="4" t="str">
         <f>"Len(""リンゴ"")"</f>
@@ -4872,16 +4877,16 @@
         <v>3</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="47" spans="1:6" outlineLevel="1">
       <c r="A47" s="2"/>
       <c r="B47" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D47" s="4" t="str">
         <f>"LenB(""リンゴ"")"</f>
@@ -4891,13 +4896,13 @@
         <v>6</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48" spans="1:6" outlineLevel="1">
       <c r="A48" s="2"/>
       <c r="B48" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C48" s="4" t="str">
         <f>"""abcdef"" &amp; ""gh"""</f>
@@ -4908,16 +4913,16 @@
         <v>abcdef &amp; "gh"</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="49" spans="1:6" outlineLevel="1">
       <c r="A49" s="2"/>
       <c r="B49" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C49" s="4" t="str">
         <f>"Left(""abcd"", 3)"</f>
@@ -4928,16 +4933,16 @@
         <v>Left$("abcd", 3)</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50" spans="1:6" outlineLevel="1">
       <c r="A50" s="2"/>
       <c r="B50" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C50" s="4" t="str">
         <f>"Mid(""abcdefgh"", 3, 2)"</f>
@@ -4948,16 +4953,16 @@
         <v>Mid$("abcdefgh", 3, 2)</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="51" spans="1:6" outlineLevel="1">
       <c r="A51" s="2"/>
       <c r="B51" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C51" s="4" t="str">
         <f>"Right(""abcd"", 2)"</f>
@@ -4968,70 +4973,70 @@
         <v>Right$("abcd", 2)</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="52" spans="1:6" outlineLevel="1">
       <c r="A52" s="2"/>
       <c r="B52" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="53" spans="1:6" outlineLevel="1">
       <c r="A53" s="2"/>
       <c r="B53" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D53" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="E53" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="E53" s="5" t="s">
-        <v>324</v>
-      </c>
       <c r="F53" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="54" spans="1:6" outlineLevel="1">
       <c r="A54" s="2"/>
       <c r="B54" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="55" spans="1:6" outlineLevel="1">
       <c r="A55" s="2"/>
       <c r="B55" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C55" s="4" t="str">
         <f>"Asc(文字)"</f>
@@ -5042,16 +5047,16 @@
         <v>Asc(文字)</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="56" spans="1:6" outlineLevel="1">
       <c r="A56" s="2"/>
       <c r="B56" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C56" s="4" t="str">
         <f>"IsNumeric( sStr )"</f>
@@ -5062,16 +5067,16 @@
         <v>IsNumeric( sStr )</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="57" spans="1:6" outlineLevel="1">
       <c r="A57" s="2"/>
       <c r="B57" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C57" s="4" t="str">
         <f>"Chr(ASCIIコード)"</f>
@@ -5082,16 +5087,16 @@
         <v>Chr(ASCIIコード)</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="58" spans="1:6" outlineLevel="1">
       <c r="A58" s="2"/>
       <c r="B58" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C58" s="4" t="str">
         <f>"""a"" &amp; String(4, ""b"")"</f>
@@ -5102,16 +5107,16 @@
         <v>"a" &amp; String(4, "b")</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="59" spans="1:6" outlineLevel="1">
       <c r="A59" s="2"/>
       <c r="B59" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C59" s="4" t="str">
         <f>"UCase(""aaa"")"</f>
@@ -5122,16 +5127,16 @@
         <v>UCase("aaa")</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="60" spans="1:6" outlineLevel="1">
       <c r="A60" s="2"/>
       <c r="B60" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C60" s="4" t="str">
         <f>"LCase(""AAA"")"</f>
@@ -5142,16 +5147,16 @@
         <v>LCase("AAA")</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="61" spans="1:6" outlineLevel="1">
       <c r="A61" s="2"/>
       <c r="B61" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C61" s="4" t="str">
         <f>"ReDim Preserve 配列名(5)"</f>
@@ -5162,16 +5167,16 @@
         <v>ReDim Preserve 配列名(5)</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="62" spans="1:6" outlineLevel="1">
       <c r="A62" s="2"/>
       <c r="B62" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C62" s="4" t="str">
         <f>"UBound(配列名)"</f>
@@ -5182,16 +5187,16 @@
         <v>UBound(配列名)</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="63" spans="1:6" outlineLevel="1">
       <c r="A63" s="2"/>
       <c r="B63" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C63" s="4" t="str">
         <f>"Dim asArray()"&amp;CHAR(10)&amp;"ReDim asArray(-1)"&amp;CHAR(10)&amp;"If Ubound(asArray) = -1 Then"&amp;CHAR(10)&amp;CHAR(9)&amp;"'未定義配列"&amp;CHAR(10)&amp;"Else"&amp;CHAR(10)&amp;CHAR(9)&amp;"'定義済み配列"&amp;CHAR(10)&amp;"End If"</f>
@@ -5212,16 +5217,16 @@
 End If</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="64" spans="1:6" outlineLevel="1">
       <c r="A64" s="2"/>
       <c r="B64" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C64" s="4" t="str">
         <f>"Join(配列, "","")"</f>
@@ -5232,16 +5237,16 @@
         <v>Join(配列, ",")</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="65" spans="1:6" outlineLevel="1">
       <c r="A65" s="2"/>
       <c r="B65" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C65" s="4" t="str">
         <f>"objWords = Split( sFilePath , ""\"" )"</f>
@@ -5252,16 +5257,16 @@
         <v>文字列配列 = Split("aaa,bbb,ccc", ",")</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="66" spans="1:6" outlineLevel="1">
       <c r="A66" s="2"/>
       <c r="B66" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C66" s="4" t="str">
         <f>"TypeName(""Test"")"</f>
@@ -5272,16 +5277,16 @@
         <v>TypeName("Test")</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="67" spans="1:6" outlineLevel="1">
       <c r="A67" s="2"/>
       <c r="B67" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C67" s="4" t="str">
         <f>"VarType(""Test"")"</f>
@@ -5292,16 +5297,16 @@
         <v>VarType("Test")</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="68" spans="1:6" outlineLevel="1">
       <c r="A68" s="2"/>
       <c r="B68" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C68" s="4" t="str">
         <f>"Hex(734)"</f>
@@ -5312,35 +5317,35 @@
         <v>文字列変数 = Hex(734)</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F68" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="69" spans="1:6" outlineLevel="1">
       <c r="A69" s="2"/>
       <c r="B69" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C69" s="4" t="str">
         <f>"CLng(""&amp;H"" &amp; ""FA"")"</f>
         <v>CLng("&amp;H" &amp; "FA")</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="70" spans="1:6" outlineLevel="1">
       <c r="A70" s="2"/>
       <c r="B70" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C70" s="4" t="str">
         <f>"&amp;HFFF0"</f>
@@ -5351,16 +5356,16 @@
         <v>&amp;HFFF0</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F70" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="71" spans="1:6" outlineLevel="1">
       <c r="A71" s="2"/>
       <c r="B71" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C71" s="4" t="str">
         <f>"&amp;HFFF0&amp;"</f>
@@ -5371,16 +5376,16 @@
         <v>&amp;HFFF0&amp;</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="72" spans="1:6" outlineLevel="1">
       <c r="A72" s="2"/>
       <c r="B72" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C72" s="4" t="str">
         <f>"CStr(234.5)"</f>
@@ -5391,16 +5396,16 @@
         <v>Val(文字列式)</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="73" spans="1:6" outlineLevel="1">
       <c r="A73" s="2"/>
       <c r="B73" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C73" s="4" t="str">
         <f>"CDbl(""234.5"")"</f>
@@ -5414,13 +5419,13 @@
         <v>234.5</v>
       </c>
       <c r="F73" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="74" spans="1:6" outlineLevel="1">
       <c r="A74" s="2"/>
       <c r="B74" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C74" s="4" t="str">
         <f>"CLng(""234.5"")"</f>
@@ -5434,32 +5439,32 @@
         <v>234</v>
       </c>
       <c r="F74" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="75" spans="1:6" outlineLevel="1">
       <c r="A75" s="2"/>
       <c r="B75" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C75" s="4" t="str">
         <f>"vbNewLine"</f>
         <v>vbNewLine</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F75" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="76" spans="1:6" outlineLevel="1">
       <c r="A76" s="2"/>
       <c r="B76" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C76" s="4" t="str">
         <f>"Fix( 99.224 )"</f>
@@ -5473,13 +5478,13 @@
         <v>99</v>
       </c>
       <c r="F76" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="77" spans="1:6" outlineLevel="1">
       <c r="A77" s="2"/>
       <c r="B77" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C77" s="4" t="str">
         <f>"Int( 99.224 )"</f>
@@ -5493,13 +5498,13 @@
         <v>99</v>
       </c>
       <c r="F77" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="78" spans="1:6" outlineLevel="1">
       <c r="A78" s="2"/>
       <c r="B78" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C78" s="4" t="str">
         <f>"Fix( -99.224 )"</f>
@@ -5510,16 +5515,16 @@
         <v>Fix( -99.224 )</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F78" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="79" spans="1:6" outlineLevel="1">
       <c r="A79" s="2"/>
       <c r="B79" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C79" s="4" t="str">
         <f>"Int( -99.224 )"</f>
@@ -5530,16 +5535,16 @@
         <v>Int( -99.224 )</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F79" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="80" spans="1:6" outlineLevel="1">
       <c r="A80" s="2"/>
       <c r="B80" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C80" s="4" t="str">
         <f>"Round( 99.555, 0 )"</f>
@@ -5553,13 +5558,13 @@
         <v>100</v>
       </c>
       <c r="F80" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="81" spans="1:6" outlineLevel="1">
       <c r="A81" s="2"/>
       <c r="B81" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C81" s="4" t="str">
         <f>"Round( 99.555, 1 )"</f>
@@ -5573,13 +5578,13 @@
         <v>99.6</v>
       </c>
       <c r="F81" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="82" spans="1:6" outlineLevel="1">
       <c r="A82" s="2"/>
       <c r="B82" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C82" s="4" t="str">
         <f>"Round( 99.555, 2 )"</f>
@@ -5593,13 +5598,13 @@
         <v>99.56</v>
       </c>
       <c r="F82" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="83" spans="1:6" outlineLevel="1">
       <c r="A83" s="2"/>
       <c r="B83" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C83" s="4" t="str">
         <f>"Round( -99.555, 0 )"</f>
@@ -5613,13 +5618,13 @@
         <v>-100</v>
       </c>
       <c r="F83" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="84" spans="1:6" outlineLevel="1">
       <c r="A84" s="2"/>
       <c r="B84" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C84" s="4" t="str">
         <f>"Round( -99.555, 1 )"</f>
@@ -5633,13 +5638,13 @@
         <v>-99.6</v>
       </c>
       <c r="F84" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="85" spans="1:6" outlineLevel="1">
       <c r="A85" s="2"/>
       <c r="B85" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C85" s="4" t="str">
         <f>"Round( -99.555, 2 )"</f>
@@ -5653,13 +5658,13 @@
         <v>-99.56</v>
       </c>
       <c r="F85" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="86" spans="1:6" outlineLevel="1">
       <c r="A86" s="2"/>
       <c r="B86" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C86" s="4" t="str">
         <f>"Round( 99.224 + 0.5, 0 )"</f>
@@ -5673,13 +5678,13 @@
         <v>100</v>
       </c>
       <c r="F86" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="87" spans="1:6" outlineLevel="1">
       <c r="A87" s="2"/>
       <c r="B87" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C87" s="4" t="str">
         <f>"Round( 99.224 + 0.05, 1 )"</f>
@@ -5693,13 +5698,13 @@
         <v>99.3</v>
       </c>
       <c r="F87" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="88" spans="1:6" outlineLevel="1">
       <c r="A88" s="2"/>
       <c r="B88" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C88" s="4" t="str">
         <f>"Round( -99.224 - 0.5, 0 )"</f>
@@ -5713,13 +5718,13 @@
         <v>-100</v>
       </c>
       <c r="F88" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="89" spans="1:6" outlineLevel="1">
       <c r="A89" s="2"/>
       <c r="B89" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C89" s="4" t="str">
         <f>"Round( -99.224 - 0.05, 1 )"</f>
@@ -5733,13 +5738,13 @@
         <v>-99.3</v>
       </c>
       <c r="F89" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="90" spans="1:6" outlineLevel="1">
       <c r="A90" s="2"/>
       <c r="B90" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C90" s="4" t="str">
         <f>"Round( 99.224 - 0.5, 0 )"</f>
@@ -5750,16 +5755,16 @@
         <v>Round( 99.224 - 0.5, 0 )</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F90" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="91" spans="1:6" outlineLevel="1">
       <c r="A91" s="2"/>
       <c r="B91" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C91" s="4" t="str">
         <f>"Round( 99.224 - 0.05, 1 )"</f>
@@ -5773,13 +5778,13 @@
         <v>99.2</v>
       </c>
       <c r="F91" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="92" spans="1:6" outlineLevel="1">
       <c r="A92" s="2"/>
       <c r="B92" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C92" s="4" t="str">
         <f>"Round( -99.224 + 0.5, 0 )"</f>
@@ -5790,16 +5795,16 @@
         <v>Round( -99.224 + 0.5, 0 )</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F92" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="93" spans="1:6" outlineLevel="1">
       <c r="A93" s="2"/>
       <c r="B93" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C93" s="4" t="str">
         <f>"Round( -99.224 + 0.05, 1 )"</f>
@@ -5813,91 +5818,91 @@
         <v>-99.2</v>
       </c>
       <c r="F93" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="94" spans="1:6" outlineLevel="1">
       <c r="A94" s="2"/>
       <c r="B94" s="2" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="F94" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="95" spans="1:6" outlineLevel="1">
       <c r="A95" s="2"/>
       <c r="B95" s="2" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C95" s="10" t="s">
+        <v>706</v>
+      </c>
+      <c r="D95" s="4" t="s">
         <v>708</v>
       </c>
-      <c r="D95" s="4" t="s">
-        <v>710</v>
-      </c>
       <c r="E95" s="5" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="F95" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="96" spans="1:6" outlineLevel="1">
       <c r="A96" s="2"/>
       <c r="B96" s="2" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="D96" s="34" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="F96" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="97" spans="1:6" outlineLevel="1">
       <c r="A97" s="2"/>
       <c r="B97" s="2" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D97" s="33" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="E97" s="5"/>
       <c r="F97" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="20" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
       <c r="D98" s="8"/>
       <c r="E98" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F98" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="99" spans="1:6" outlineLevel="1">
@@ -5906,17 +5911,17 @@
         <v>30</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D99" s="4" t="str">
         <f>"On Error Resume Next"</f>
         <v>On Error Resume Next</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F99" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="100" spans="1:6" outlineLevel="1">
@@ -5933,10 +5938,10 @@
         <v>On Error Goto 0</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F100" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="101" spans="1:6" outlineLevel="1">
@@ -5953,10 +5958,10 @@
         <v>Err.Number</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F101" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="102" spans="1:6" outlineLevel="1">
@@ -5973,123 +5978,123 @@
         <v>Err.Description</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F102" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="103" spans="1:6" outlineLevel="1">
       <c r="A103" s="2"/>
       <c r="B103" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C103" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D103" s="4" t="str">
         <f>"On Error GoTo ErrorLabel"</f>
         <v>On Error GoTo ErrorLabel</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F103" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="104" spans="1:6" outlineLevel="1">
       <c r="A104" s="2"/>
       <c r="B104" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C104" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D104" s="4" t="str">
         <f>"ErrorLabel:"</f>
         <v>ErrorLabel:</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F104" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="20" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
       <c r="D105" s="8"/>
       <c r="E105" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F105" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="106" spans="1:6" outlineLevel="1">
       <c r="A106" s="2"/>
       <c r="B106" s="2" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C106" s="4" t="str">
         <f>"Dim objTxtFile"</f>
         <v>Dim objTxtFile</v>
       </c>
       <c r="D106" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F106" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="107" spans="1:6" outlineLevel="1">
       <c r="A107" s="2"/>
       <c r="B107" s="2" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C107" s="4" t="str">
         <f>"Set objTxtFile = objFSO.OpenTextFile(""c:\codes\test\a.txt"", 1, True)"</f>
         <v>Set objTxtFile = objFSO.OpenTextFile("c:\codes\test\a.txt", 1, True)</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F107" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="108" spans="1:6" outlineLevel="1">
       <c r="A108" s="2"/>
       <c r="B108" s="2" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C108" s="4" t="str">
         <f>"objTxtFile.Close"</f>
         <v>objTxtFile.Close</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E108" s="5"/>
       <c r="F108" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="109" spans="1:6" outlineLevel="1">
       <c r="A109" s="2"/>
       <c r="B109" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C109" s="4" t="str">
         <f>"Do Until objTxtFile.AtEndOfStream"&amp;CHAR(10)&amp;"strLine = objTxtFile.ReadLine"&amp;CHAR(10)&amp;"Loop"</f>
@@ -6104,16 +6109,16 @@
 Loop</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F109" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="110" spans="1:6" outlineLevel="1">
       <c r="A110" s="2"/>
       <c r="B110" s="2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C110" s="4" t="str">
         <f>"sTextAll = objTxtFile.ReadAll"</f>
@@ -6124,16 +6129,16 @@
         <v>sTestFile = objFSO.GetFile(ファイルパス).OpenAsTextStream.ReadAll</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F110" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="111" spans="1:6" outlineLevel="1">
       <c r="A111" s="2"/>
       <c r="B111" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C111" s="4" t="str">
         <f>"objTxtFile.WriteLine strLine"</f>
@@ -6144,16 +6149,16 @@
         <v>Print #1, 文字列変数</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F111" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="112" spans="1:6" outlineLevel="1">
       <c r="A112" s="2"/>
       <c r="B112" s="2" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C112" s="10" t="str">
         <f>"Dim adoStrm
@@ -6168,70 +6173,70 @@
 Set adoStrm = CreateObject("ADODB.Stream")</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="F112" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="113" spans="1:6" outlineLevel="1">
       <c r="A113" s="2"/>
       <c r="B113" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="F113" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="114" spans="1:6" outlineLevel="1">
       <c r="A114" s="2"/>
       <c r="B114" s="2" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="F114" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="115" spans="1:6" outlineLevel="1">
       <c r="A115" s="2"/>
       <c r="B115" s="2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="F115" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="116" spans="1:6" outlineLevel="1">
       <c r="A116" s="2"/>
       <c r="B116" s="2" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C116" s="10" t="str">
         <f>"adoStrm.Open
@@ -6247,31 +6252,31 @@
       </c>
       <c r="E116" s="5"/>
       <c r="F116" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="117" spans="1:6" outlineLevel="1">
       <c r="A117" s="2"/>
       <c r="B117" s="2" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="F117" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="118" spans="1:6" outlineLevel="1">
       <c r="A118" s="2"/>
       <c r="B118" s="2" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C118" s="10" t="str">
         <f>"Do Until adoStrm.EOS
@@ -6290,16 +6295,16 @@
 Loop</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="F118" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="119" spans="1:6" outlineLevel="1">
       <c r="A119" s="2"/>
       <c r="B119" s="2" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C119" s="10" t="str">
         <f>"Dim vFile
@@ -6330,73 +6335,73 @@
 Next</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="F119" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="120" spans="1:6" outlineLevel="1">
       <c r="A120" s="2"/>
       <c r="B120" s="2" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C120" s="31" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D120" s="31" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="F120" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="121" spans="1:6" outlineLevel="1">
       <c r="A121" s="2"/>
       <c r="B121" s="2" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C121" s="31" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="D121" s="31" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="F121" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="122" spans="1:6" outlineLevel="1">
       <c r="A122" s="2"/>
       <c r="B122" s="2" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C122" s="4" t="s">
+        <v>667</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>667</v>
+      </c>
+      <c r="E122" s="5" t="s">
         <v>669</v>
       </c>
-      <c r="D122" s="4" t="s">
-        <v>669</v>
-      </c>
-      <c r="E122" s="5" t="s">
-        <v>671</v>
-      </c>
       <c r="F122" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="123" spans="1:6" outlineLevel="1">
       <c r="A123" s="2"/>
       <c r="B123" s="2" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C123" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D123" s="4" t="str">
         <f>"Set wTargetBook = Workbooks.Open(sTargetBookName)"&amp;CHAR(10)&amp;"wTargetBook.Close SaveChanges:=True"</f>
@@ -6404,30 +6409,30 @@
 wTargetBook.Close SaveChanges:=True</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F123" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="20" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
       <c r="D124" s="8"/>
       <c r="E124" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F124" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="125" spans="1:6" outlineLevel="1">
       <c r="A125" s="2"/>
       <c r="B125" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C125" s="4" t="str">
         <f>"Now()"</f>
@@ -6438,16 +6443,16 @@
         <v>Now</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F125" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="126" spans="1:6" outlineLevel="1">
       <c r="A126" s="2"/>
       <c r="B126" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C126" s="4" t="str">
         <f>"Date()"</f>
@@ -6458,16 +6463,16 @@
         <v>Date</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F126" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="127" spans="1:6" outlineLevel="1">
       <c r="A127" s="2"/>
       <c r="B127" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C127" s="4" t="str">
         <f>"Timer()"</f>
@@ -6478,16 +6483,16 @@
         <v>Timer</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F127" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="128" spans="1:6" outlineLevel="1">
       <c r="A128" s="2"/>
       <c r="B128" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C128" s="4" t="str">
         <f>"If DateDiff(""s"", sCmpBaseTime, sModDate ) &gt; 0 Then"&amp;CHAR(10)&amp;CHAR(9)&amp;"'sModDate が新しい"&amp;CHAR(10)&amp;"ElseIf DateDiff(""s"", sCmpBaseTime, sModDate ) &lt; 0 Then"&amp;CHAR(10)&amp;CHAR(9)&amp;"'sModDate が古い"&amp;CHAR(10)&amp;"Else"&amp;CHAR(10)&amp;CHAR(9)&amp;"'sModDate = sCmpBaseTime"&amp;CHAR(10)&amp;"End If"</f>
@@ -6510,16 +6515,16 @@
 End If</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F128" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="129" spans="1:6" outlineLevel="1">
       <c r="A129" s="2"/>
       <c r="B129" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C129" s="4" t="str">
         <f>"WScript.sleep(3000)"</f>
@@ -6531,30 +6536,30 @@
 Sleep 1000</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F129" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="20" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
       <c r="D130" s="8"/>
       <c r="E130" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F130" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="131" spans="1:6" outlineLevel="1">
       <c r="A131" s="2"/>
       <c r="B131" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C131" s="4" t="str">
         <f>"Dim cTrgtPaths
@@ -6569,70 +6574,70 @@
 Set cTrgtPaths = CreateObject("System.Collections.ArrayList")</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F131" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="132" spans="1:6" outlineLevel="1">
       <c r="A132" s="2"/>
       <c r="B132" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F132" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="133" spans="1:6" outlineLevel="1">
       <c r="A133" s="2"/>
       <c r="B133" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F133" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="134" spans="1:6" outlineLevel="1">
       <c r="A134" s="2"/>
       <c r="B134" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F134" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="135" spans="1:6" outlineLevel="1">
       <c r="A135" s="2"/>
       <c r="B135" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C135" s="4" t="str">
         <f>"Dim vTrgtPath
@@ -6655,88 +6660,88 @@
 Next</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F135" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="136" spans="1:6" outlineLevel="1">
       <c r="A136" s="2"/>
       <c r="B136" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F136" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="137" spans="1:6" outlineLevel="1">
       <c r="A137" s="2"/>
       <c r="B137" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F137" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="138" spans="1:6" outlineLevel="1">
       <c r="A138" s="2"/>
       <c r="B138" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C138" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F138" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="139" spans="1:6" outlineLevel="1">
       <c r="A139" s="2"/>
       <c r="B139" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F139" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="140" spans="1:6" outlineLevel="1">
       <c r="A140" s="2"/>
       <c r="B140" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C140" s="4" t="str">
         <f>"Dim avTrgtPaths
@@ -6751,48 +6756,48 @@
 avTrgtPaths = cTrgtPaths.ToArray()</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F140" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="141" spans="1:6" outlineLevel="1">
       <c r="A141" s="2"/>
       <c r="B141" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F141" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="20" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B142" s="8"/>
       <c r="C142" s="8"/>
       <c r="D142" s="8"/>
       <c r="E142" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F142" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="143" spans="1:6" outlineLevel="1">
       <c r="A143" s="2"/>
       <c r="B143" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C143" s="4" t="str">
         <f>"Dim oPriceOfFruit
@@ -6807,10 +6812,10 @@
 Set oPriceOfFruit = CreateObject("Scripting.Dictionary")</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F143" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="144" spans="1:6" outlineLevel="1">
@@ -6819,16 +6824,16 @@
         <v>16</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F144" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="145" spans="1:6" outlineLevel="1">
@@ -6837,16 +6842,16 @@
         <v>17</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F145" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="146" spans="1:6" outlineLevel="1">
@@ -6871,10 +6876,10 @@
 Next</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F146" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="147" spans="1:6" outlineLevel="1">
@@ -6883,16 +6888,16 @@
         <v>19</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F147" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="148" spans="1:6" outlineLevel="1">
@@ -6901,16 +6906,16 @@
         <v>20</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F148" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="149" spans="1:6" outlineLevel="1">
@@ -6919,16 +6924,16 @@
         <v>21</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F149" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="150" spans="1:6" outlineLevel="1">
@@ -6937,16 +6942,16 @@
         <v>22</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F150" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="151" spans="1:6" outlineLevel="1">
@@ -6955,16 +6960,16 @@
         <v>23</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F151" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="152" spans="1:6" outlineLevel="1">
@@ -6973,16 +6978,16 @@
         <v>24</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F152" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="153" spans="1:6" outlineLevel="1">
@@ -6991,16 +6996,16 @@
         <v>25</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E153" s="5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F153" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="154" spans="1:6" outlineLevel="1">
@@ -7009,16 +7014,16 @@
         <v>26</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E154" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F154" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="155" spans="1:6" outlineLevel="1">
@@ -7027,16 +7032,16 @@
         <v>27</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F155" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="156" spans="1:6" outlineLevel="1">
@@ -7045,16 +7050,16 @@
         <v>28</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F156" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="157" spans="1:6" outlineLevel="1">
@@ -7063,36 +7068,36 @@
         <v>29</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F157" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="20" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B158" s="8"/>
       <c r="C158" s="8"/>
       <c r="D158" s="8"/>
       <c r="E158" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F158" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="159" spans="1:6" outlineLevel="1">
       <c r="A159" s="2"/>
       <c r="B159" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C159" s="4" t="str">
         <f>"Dim objWshShell"&amp;CHAR(10)&amp;"Set objWshShell = WScript.CreateObject(""WScript.Shell"")"</f>
@@ -7106,10 +7111,10 @@
 Set objWshShell = CreateObject("WScript.Shell")</v>
       </c>
       <c r="E159" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F159" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="160" spans="1:6" outlineLevel="1">
@@ -7122,13 +7127,13 @@
         <v>objWshShell.Exec("C:\test.bat")</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E160" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F160" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="161" spans="1:6" outlineLevel="1">
@@ -7141,13 +7146,13 @@
         <v>objWshShell.Run "C:\test.bat", 0, True</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E161" s="9" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F161" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="162" spans="1:6" outlineLevel="1">
@@ -7160,10 +7165,10 @@
         <v>objWshShell.Run "cmd /c echo.&gt; ""C:\test.txt""", 0, True</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F162" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="163" spans="1:6" outlineLevel="1">
@@ -7176,13 +7181,13 @@
         <v>objWshShell.RegRead("HKCU\WshTest\Test1")</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E163" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F163" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="164" spans="1:6" outlineLevel="1">
@@ -7195,13 +7200,13 @@
         <v>objWshShell.RegWrite("HKCU\WshTest\Test1", "test", "REG\_SZ")</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F164" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="165" spans="1:6" outlineLevel="1">
@@ -7214,49 +7219,49 @@
         <v>objWshShell.Environment("User").Item("MYPATH\_CODES")</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E165" s="5" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F165" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="166" spans="1:6" outlineLevel="1">
       <c r="A166" s="2"/>
       <c r="B166" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C166" s="4" t="str">
         <f>"objWshShell.Environment(""User"").Remove(""MYPATH\_CODES"")"</f>
         <v>objWshShell.Environment("User").Remove("MYPATH\_CODES")</v>
       </c>
       <c r="D166" s="12" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E166" s="5"/>
       <c r="F166" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="167" spans="1:6" outlineLevel="1">
       <c r="A167" s="2"/>
       <c r="B167" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C167" s="4" t="str">
         <f>"objWshShell.SpecialFolders(""Desktop"")"</f>
         <v>objWshShell.SpecialFolders("Desktop")</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E167" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F167" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="168" spans="1:6" outlineLevel="1">
@@ -7282,10 +7287,10 @@
 End With</v>
       </c>
       <c r="E168" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F168" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="169" spans="1:6" outlineLevel="1">
@@ -7298,13 +7303,13 @@
         <v>objWshShell.CreateShortcut( "c:\test\src.txt.lnk" ).TargetPath</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E169" s="5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F169" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="170" spans="1:6" outlineLevel="1">
@@ -7330,10 +7335,10 @@
 End With</v>
       </c>
       <c r="E170" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F170" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="171" spans="1:6" outlineLevel="1">
@@ -7349,11 +7354,11 @@
 End With</v>
       </c>
       <c r="D171" s="12" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E171" s="5"/>
       <c r="F171" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="172" spans="1:6" outlineLevel="1">
@@ -7369,11 +7374,11 @@
 End With</v>
       </c>
       <c r="D172" s="12" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E172" s="5"/>
       <c r="F172" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="173" spans="1:6" outlineLevel="1">
@@ -7386,65 +7391,65 @@
         <v>objWshShell.Popup "メッセージ", lSecond, "タイトル", vbInformation</v>
       </c>
       <c r="D173" s="12" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E173" s="5"/>
       <c r="F173" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="174" spans="1:6" outlineLevel="1">
       <c r="A174" s="2"/>
       <c r="B174" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C174" s="4" t="str">
         <f>C261</f>
         <v>objWshShell.Exec( "clip" ).StdIn.Write( "テキスト" )</v>
       </c>
       <c r="D174" s="23" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E174" s="5"/>
       <c r="F174" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="175" spans="1:6" outlineLevel="1">
       <c r="A175" s="2"/>
       <c r="B175" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C175" s="4" t="str">
         <f>C262</f>
         <v>CreateObject("htmlfile").ParentWindow.Clipboarddata.GetData("text")</v>
       </c>
       <c r="D175" s="23" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E175" s="5"/>
       <c r="F175" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="20" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B176" s="8"/>
       <c r="C176" s="8"/>
       <c r="D176" s="8"/>
       <c r="E176" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F176" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="177" spans="1:6" outlineLevel="1">
       <c r="A177" s="2"/>
       <c r="B177" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C177" s="4" t="str">
         <f>"Dim objFSO"&amp;CHAR(10)&amp;"Set objFSO = CreateObject(""Scripting.FileSystemObject"")"</f>
@@ -7457,28 +7462,28 @@
 Set objFSO = CreateObject("Scripting.FileSystemObject")</v>
       </c>
       <c r="E177" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F177" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="178" spans="1:6" outlineLevel="1">
       <c r="B178" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C178" s="23" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D178" s="4" t="str">
         <f>"objFSO.CopyFile ThisWorkbook.FullName, ""c:\temp\test.xlsm"""</f>
         <v>objFSO.CopyFile ThisWorkbook.FullName, "c:\temp\test.xlsm"</v>
       </c>
       <c r="E178" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F178" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="179" spans="1:6" outlineLevel="1">
@@ -7495,10 +7500,10 @@
         <v>objFSO.CopyFile "C:\codes\a.txt", "C:\codes\test\"</v>
       </c>
       <c r="E179" s="5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F179" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="180" spans="1:6" outlineLevel="1">
@@ -7515,10 +7520,10 @@
         <v>objFSO.CopyFile "C:\codes\a.txt", "C:\codes\test\a.txt"</v>
       </c>
       <c r="E180" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F180" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="181" spans="1:6" outlineLevel="1">
@@ -7535,10 +7540,10 @@
         <v>objFSO.DeleteFile "c:\test", True</v>
       </c>
       <c r="E181" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F181" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="182" spans="1:6" outlineLevel="1">
@@ -7555,16 +7560,16 @@
         <v>objFSO.MoveFile "C:\codes\src.txt", "C:\codes\dst.txt"</v>
       </c>
       <c r="E182" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F182" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="183" spans="1:6" outlineLevel="1">
       <c r="A183" s="2"/>
       <c r="B183" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C183" s="4" t="str">
         <f>"objFSO.FileExists(""c:\codes\a.txt"") 'True"</f>
@@ -7575,19 +7580,19 @@
         <v>objFSO.FileExists("c:\codes\a.txt")</v>
       </c>
       <c r="E183" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F183" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="184" spans="1:6" outlineLevel="1">
       <c r="A184" s="2"/>
       <c r="B184" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C184" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D184" s="4" t="str">
         <f>"If Dir(""C:\Book1.xlsx"") &lt;&gt; """" Then"&amp;CHAR(10)&amp;CHAR(9)&amp;"存在"&amp;CHAR(10)&amp;"Else"&amp;CHAR(10)&amp;CHAR(9)&amp;"非存在"&amp;CHAR(10)&amp;"End If"</f>
@@ -7598,10 +7603,10 @@
 End If</v>
       </c>
       <c r="E184" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F184" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="185" spans="1:6" outlineLevel="1">
@@ -7618,10 +7623,10 @@
         <v>objFSO.GetFile( "C:\codes\a.txt" ).Attributes</v>
       </c>
       <c r="E185" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F185" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="186" spans="1:6" outlineLevel="1">
@@ -7638,10 +7643,10 @@
         <v>objFSO.GetFile( "C:\codes\a.txt" ).Attributes = 2</v>
       </c>
       <c r="E186" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F186" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="187" spans="1:6" outlineLevel="1">
@@ -7658,10 +7663,10 @@
         <v>objFSO.GetAbsolutePathName( "C:\codes\a.txt" )</v>
       </c>
       <c r="E187" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F187" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="188" spans="1:6" outlineLevel="1">
@@ -7678,16 +7683,16 @@
         <v>objFSO.GetDriveName( "C:\codes\a.txt" )</v>
       </c>
       <c r="E188" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F188" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="189" spans="1:6" outlineLevel="1">
       <c r="A189" s="2"/>
       <c r="B189" s="2" t="s">
-        <v>54</v>
+        <v>731</v>
       </c>
       <c r="C189" s="4" t="str">
         <f>"objFSO.GetFileName( ""C:\codes\a.txt"" )"</f>
@@ -7698,16 +7703,16 @@
         <v>objFSO.GetFileName( "C:\codes\a.txt" )</v>
       </c>
       <c r="E189" s="5" t="s">
-        <v>267</v>
+        <v>732</v>
       </c>
       <c r="F189" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="190" spans="1:6" outlineLevel="1">
       <c r="A190" s="2"/>
       <c r="B190" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C190" s="4" t="str">
         <f>"objFSO.GetParentFolderName( ""C:\codes\a.txt"" )"</f>
@@ -7718,16 +7723,16 @@
         <v>objFSO.GetParentFolderName( "C:\codes\a.txt" )</v>
       </c>
       <c r="E190" s="5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F190" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="191" spans="1:6" outlineLevel="1">
       <c r="A191" s="2"/>
       <c r="B191" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C191" s="4" t="str">
         <f>"objFSO.GetBaseName( ""C:\codes\a.txt"" )"</f>
@@ -7738,16 +7743,16 @@
         <v>objFSO.GetBaseName( "C:\codes\a.txt" )</v>
       </c>
       <c r="E191" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F191" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="192" spans="1:6" outlineLevel="1">
       <c r="A192" s="2"/>
       <c r="B192" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C192" s="4" t="str">
         <f>"objFSO.GetExtensionName( ""C:\codes\a.txt"" )"</f>
@@ -7758,16 +7763,16 @@
         <v>objFSO.GetExtensionName( "C:\codes\a.txt" )</v>
       </c>
       <c r="E192" s="5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F192" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="193" spans="1:6" outlineLevel="1">
       <c r="A193" s="2"/>
       <c r="B193" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C193" s="4" t="str">
         <f>"objFSO.CopyFolder ""C:\codes\src"", ""C:\codes\dst"", True"</f>
@@ -7778,16 +7783,16 @@
         <v>objFSO.CopyFolder "C:\codes\src", "C:\codes\dst", True</v>
       </c>
       <c r="E193" s="5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F193" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="194" spans="1:6" outlineLevel="1">
       <c r="A194" s="2"/>
       <c r="B194" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C194" s="4" t="str">
         <f>"objFSO.DeleteFolder ""C:\codes\test"", True"</f>
@@ -7798,16 +7803,16 @@
         <v>objFSO.DeleteFolder "C:\codes\test", True</v>
       </c>
       <c r="E194" s="5" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F194" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="195" spans="1:6" outlineLevel="1">
       <c r="A195" s="2"/>
       <c r="B195" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C195" s="4" t="str">
         <f>"objFSO.CreateFolder( ""C:\codes\test"" )"</f>
@@ -7818,16 +7823,16 @@
         <v>objFSO.CreateFolder( "C:\codes\test" )</v>
       </c>
       <c r="E195" s="5" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F195" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="196" spans="1:6" outlineLevel="1">
       <c r="A196" s="2"/>
       <c r="B196" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C196" s="4" t="str">
         <f>"objFSO.MoveFolder ""C:\codes\src"", ""C:\codes\dst"""</f>
@@ -7838,35 +7843,35 @@
         <v>objFSO.MoveFolder "C:\codes\src", "C:\codes\dst"</v>
       </c>
       <c r="E196" s="5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F196" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="197" spans="1:6" outlineLevel="1">
       <c r="A197" s="2"/>
       <c r="B197" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D197" s="4" t="str">
         <f>"objFSO.GetFolder( ""C:\codes"" ).Attributes"</f>
         <v>objFSO.GetFolder( "C:\codes" ).Attributes</v>
       </c>
       <c r="E197" s="5" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F197" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="198" spans="1:6" outlineLevel="1">
       <c r="A198" s="2"/>
       <c r="B198" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C198" s="4" t="str">
         <f>"objFSO.FolderExists( ""C:\codes"" )"</f>
@@ -7880,13 +7885,13 @@
         <v>1</v>
       </c>
       <c r="F198" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="199" spans="1:6" outlineLevel="1">
       <c r="A199" s="2"/>
       <c r="B199" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C199" s="4" t="str">
         <f>"objFSO.GetParentFolderName( ""C:\codes\src"" )"</f>
@@ -7897,47 +7902,47 @@
         <v>objFSO.GetParentFolderName( "C:\codes\src" )</v>
       </c>
       <c r="E199" s="5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F199" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="200" spans="1:6" outlineLevel="1">
       <c r="B200" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C200" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="D200" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="E200" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="C200" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="D200" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="E200" s="5" t="s">
-        <v>346</v>
-      </c>
       <c r="F200" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="201" spans="1:6">
       <c r="A201" s="20" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B201" s="8"/>
       <c r="C201" s="8"/>
       <c r="D201" s="8"/>
       <c r="E201" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F201" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="202" spans="1:6" outlineLevel="1">
       <c r="A202" s="2"/>
       <c r="B202" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C202" s="26" t="str">
         <f>"Dim oRegExp
@@ -7952,16 +7957,16 @@
 Set oRegExp = CreateObject("VBScript.RegExp")</v>
       </c>
       <c r="E202" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F202" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="203" spans="1:6" outlineLevel="1">
       <c r="A203" s="2"/>
       <c r="B203" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C203" s="26" t="str">
         <f>"Dim sTargetStr
@@ -7976,16 +7981,16 @@
 sTargetStr = "TestFunc(int bbb) TestFunc01(char aaa) TestFunc02(int bbb)"</v>
       </c>
       <c r="E203" s="5" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="F203" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="204" spans="1:6" outlineLevel="1">
       <c r="A204" s="2"/>
       <c r="B204" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C204" s="26" t="str">
         <f>"Dim sSearchPattern
@@ -8004,52 +8009,52 @@
 oRegExp.Pattern = sSearchPattern</v>
       </c>
       <c r="E204" s="5" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="F204" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="205" spans="1:6" outlineLevel="1">
       <c r="A205" s="2"/>
       <c r="B205" s="2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C205" s="27" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D205" s="10" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E205" s="5" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F205" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="206" spans="1:6" outlineLevel="1">
       <c r="A206" s="2"/>
       <c r="B206" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C206" s="26" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D206" s="10" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E206" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F206" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="207" spans="1:6" outlineLevel="1">
       <c r="A207" s="2"/>
       <c r="B207" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C207" s="26" t="str">
         <f>"Dim oMatchResult
@@ -8064,88 +8069,88 @@
 Set oMatchResult = oRegExp.Execute(sTargetStr)</v>
       </c>
       <c r="E207" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F207" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="208" spans="1:6" outlineLevel="1">
       <c r="A208" s="2"/>
       <c r="B208" s="2" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C208" s="26" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D208" s="10" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E208" s="5" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="F208" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="209" spans="1:6" outlineLevel="1">
       <c r="A209" s="2"/>
       <c r="B209" s="2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C209" s="26" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D209" s="10" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E209" s="5" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="F209" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="210" spans="1:6" outlineLevel="1">
       <c r="A210" s="2"/>
       <c r="B210" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C210" s="26" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D210" s="10" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E210" s="5" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F210" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="211" spans="1:6" outlineLevel="1">
       <c r="A211" s="2"/>
       <c r="B211" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C211" s="26" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D211" s="10" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E211" s="5" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="F211" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="212" spans="1:6" outlineLevel="1">
       <c r="A212" s="2"/>
       <c r="B212" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C212" s="26" t="str">
         <f>"Dim sReplacePattern
@@ -8161,13 +8166,13 @@
       </c>
       <c r="E212" s="5"/>
       <c r="F212" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="213" spans="1:6" outlineLevel="1">
       <c r="A213" s="2"/>
       <c r="B213" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C213" s="26" t="str">
         <f>"Dim sReplaceResult
@@ -8182,149 +8187,149 @@
 sReplaceResult = oRegExp.Replace(sTargetStr, sReplacePattern)</v>
       </c>
       <c r="E213" s="5" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="F213" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="214" spans="1:6">
       <c r="A214" s="20" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B214" s="8"/>
       <c r="C214" s="8"/>
       <c r="D214" s="8"/>
       <c r="E214" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F214" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="215" spans="1:6" outlineLevel="1">
       <c r="A215" s="2"/>
       <c r="B215" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C215" s="4" t="str">
         <f>"WScript.ScriptFullName"</f>
         <v>WScript.ScriptFullName</v>
       </c>
       <c r="D215" s="25" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E215" s="5"/>
       <c r="F215" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="216" spans="1:6" outlineLevel="1">
       <c r="A216" s="2"/>
       <c r="B216" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C216" s="4" t="str">
         <f>"WScript.ScriptName"</f>
         <v>WScript.ScriptName</v>
       </c>
       <c r="D216" s="25" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E216" s="5"/>
       <c r="F216" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="217" spans="1:6" outlineLevel="1">
       <c r="A217" s="2"/>
       <c r="B217" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C217" s="4" t="str">
         <f>"Mid( WScript.ScriptName, 1, InStrRev( WScript.ScriptName, ""."" ) - 1 )"</f>
         <v>Mid( WScript.ScriptName, 1, InStrRev( WScript.ScriptName, "." ) - 1 )</v>
       </c>
       <c r="D217" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E217" s="5"/>
       <c r="F217" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="218" spans="1:6" outlineLevel="1">
       <c r="A218" s="2"/>
       <c r="B218" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C218" s="4" t="str">
         <f>"objFSO.GetBaseName( WScript.ScriptName )"</f>
         <v>objFSO.GetBaseName( WScript.ScriptName )</v>
       </c>
       <c r="D218" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E218" s="5"/>
       <c r="F218" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="219" spans="1:6" outlineLevel="1">
       <c r="A219" s="2"/>
       <c r="B219" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C219" s="4" t="str">
         <f>"Replace( WScript.ScriptFullName, ""\"" &amp; WScript.ScriptName, """" )"</f>
         <v>Replace( WScript.ScriptFullName, "\" &amp; WScript.ScriptName, "" )</v>
       </c>
       <c r="D219" s="10" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E219" s="5"/>
       <c r="F219" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="220" spans="1:6" outlineLevel="1">
       <c r="A220" s="2"/>
       <c r="B220" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C220" s="4" t="str">
         <f>"objFSO.GetParentFolderName( WScript.ScriptFullName )"</f>
         <v>objFSO.GetParentFolderName( WScript.ScriptFullName )</v>
       </c>
       <c r="D220" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E220" s="5"/>
       <c r="F220" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="221" spans="1:6">
       <c r="A221" s="20" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B221" s="8"/>
       <c r="C221" s="8"/>
       <c r="D221" s="8"/>
       <c r="E221" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F221" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="222" spans="1:6" outlineLevel="1">
       <c r="A222" s="2"/>
       <c r="B222" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C222" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D222" s="4" t="str">
         <f>"Dim oChartObj As ChartObject"&amp;CHAR(10)&amp;"Set oChartObj = ThisWorkbook.Sheets(シート名).ChartObjects(1)"</f>
@@ -8332,582 +8337,582 @@
 Set oChartObj = ThisWorkbook.Sheets(シート名).ChartObjects(1)</v>
       </c>
       <c r="E222" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F222" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="223" spans="1:6" outlineLevel="1">
       <c r="A223" s="2"/>
       <c r="B223" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C223" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D223" s="4" t="str">
         <f>"Set oChartObj = .Sheets(シート名).ChartObjects.Add( XPOS, YPOS, WIDTH, HEIGHT )"</f>
         <v>Set oChartObj = .Sheets(シート名).ChartObjects.Add( XPOS, YPOS, WIDTH, HEIGHT )</v>
       </c>
       <c r="E223" s="5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F223" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="224" spans="1:6" outlineLevel="1">
       <c r="A224" s="2"/>
       <c r="B224" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C224" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D224" s="4" t="str">
         <f>"oChartObj.Delete"</f>
         <v>oChartObj.Delete</v>
       </c>
       <c r="E224" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F224" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="225" spans="1:6" outlineLevel="1">
       <c r="A225" s="2"/>
       <c r="B225" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C225" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D225" s="4" t="str">
         <f>"oChartObj.Chart.ChartArea.Copy"</f>
         <v>oChartObj.Chart.ChartArea.Copy</v>
       </c>
       <c r="E225" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F225" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="226" spans="1:6" outlineLevel="1">
       <c r="A226" s="2"/>
       <c r="B226" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C226" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D226" s="4" t="str">
         <f>"oChartObj.Top = 10"</f>
         <v>oChartObj.Top = 10</v>
       </c>
       <c r="E226" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F226" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="227" spans="1:6" outlineLevel="1">
       <c r="A227" s="2"/>
       <c r="B227" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C227" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D227" s="4" t="str">
         <f>"oChartObj.Left = 20"</f>
         <v>oChartObj.Left = 20</v>
       </c>
       <c r="E227" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F227" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="228" spans="1:6" outlineLevel="1">
       <c r="A228" s="2"/>
       <c r="B228" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C228" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D228" s="4" t="str">
         <f>"oChartObj.Width = 200"</f>
         <v>oChartObj.Width = 200</v>
       </c>
       <c r="E228" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F228" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="229" spans="1:6" outlineLevel="1">
       <c r="A229" s="2"/>
       <c r="B229" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C229" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D229" s="4" t="str">
         <f>"oChartObj.Height = 300"</f>
         <v>oChartObj.Height = 300</v>
       </c>
       <c r="E229" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F229" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="230" spans="1:6" outlineLevel="1">
       <c r="A230" s="2"/>
       <c r="B230" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C230" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D230" s="4" t="str">
         <f>"oChartObj.Chart.ChartType = xlXYScatterLines"</f>
         <v>oChartObj.Chart.ChartType = xlXYScatterLines</v>
       </c>
       <c r="E230" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F230" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="231" spans="1:6" outlineLevel="1">
       <c r="A231" s="2"/>
       <c r="B231" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C231" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D231" s="4" t="str">
         <f>"oChartObj.Chart.SetSourceData Source:=Union(rXAxsRng, rDataRng)"</f>
         <v>oChartObj.Chart.SetSourceData Source:=Union(rXAxsRng, rDataRng)</v>
       </c>
       <c r="E231" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F231" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="232" spans="1:6" outlineLevel="1">
       <c r="A232" s="2"/>
       <c r="B232" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C232" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D232" s="4" t="str">
         <f>"oChartObj.Chart.Axes(xlCategory).HasTitle = True"</f>
         <v>oChartObj.Chart.Axes(xlCategory).HasTitle = True</v>
       </c>
       <c r="E232" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F232" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="233" spans="1:6" outlineLevel="1">
       <c r="A233" s="2"/>
       <c r="B233" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C233" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D233" s="4" t="str">
         <f>"oChartObj.Chart.Axes(xlCategory).AxisTitle.Text = ""Test Axis X"""</f>
         <v>oChartObj.Chart.Axes(xlCategory).AxisTitle.Text = "Test Axis X"</v>
       </c>
       <c r="E233" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F233" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="234" spans="1:6" outlineLevel="1">
       <c r="A234" s="2"/>
       <c r="B234" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C234" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D234" s="4" t="str">
         <f>"oChartObj.Chart.Axes(xlCategory).HasMajorGridlines = True"</f>
         <v>oChartObj.Chart.Axes(xlCategory).HasMajorGridlines = True</v>
       </c>
       <c r="E234" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F234" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="235" spans="1:6" outlineLevel="1">
       <c r="A235" s="2"/>
       <c r="B235" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C235" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D235" s="4" t="str">
         <f>"oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.Color = RGB(217, 217, 217)"</f>
         <v>oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.Color = RGB(217, 217, 217)</v>
       </c>
       <c r="E235" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F235" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="236" spans="1:6" outlineLevel="1">
       <c r="A236" s="2"/>
       <c r="B236" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C236" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D236" s="4" t="str">
         <f>"oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.Weight = 2"</f>
         <v>oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.Weight = 2</v>
       </c>
       <c r="E236" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F236" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="237" spans="1:6" outlineLevel="1">
       <c r="A237" s="2"/>
       <c r="B237" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C237" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D237" s="4" t="str">
         <f>"oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.LineStyle = (xlContinuous\|xlDot\|xlDouble\|xlLineStyleNone\|...)"</f>
         <v>oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.LineStyle = (xlContinuous\|xlDot\|xlDouble\|xlLineStyleNone\|...)</v>
       </c>
       <c r="E237" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F237" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="238" spans="1:6" outlineLevel="1">
       <c r="A238" s="2"/>
       <c r="B238" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C238" s="24" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D238" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E238" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F238" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="239" spans="1:6" outlineLevel="1">
       <c r="A239" s="2"/>
       <c r="B239" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C239" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D239" s="4" t="str">
         <f>"oChartObj.Chart.Axes(xlCategory).MinimumScaleIsAuto = False"</f>
         <v>oChartObj.Chart.Axes(xlCategory).MinimumScaleIsAuto = False</v>
       </c>
       <c r="E239" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F239" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="240" spans="1:6" outlineLevel="1">
       <c r="A240" s="2"/>
       <c r="B240" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C240" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D240" s="4" t="str">
         <f>"oChartObj.Chart.Axes(xlCategory).MaximumScaleIsAuto = False"</f>
         <v>oChartObj.Chart.Axes(xlCategory).MaximumScaleIsAuto = False</v>
       </c>
       <c r="E240" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F240" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="241" spans="1:6" outlineLevel="1">
       <c r="A241" s="2"/>
       <c r="B241" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C241" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D241" s="4" t="str">
         <f>"oChartObj.Chart.Axes(xlCategory).MinimumScale = 0"</f>
         <v>oChartObj.Chart.Axes(xlCategory).MinimumScale = 0</v>
       </c>
       <c r="E241" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F241" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="242" spans="1:6" outlineLevel="1">
       <c r="A242" s="2"/>
       <c r="B242" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C242" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D242" s="4" t="str">
         <f>"oChartObj.Chart.Axes(xlCategory).MaximumScale = 100"</f>
         <v>oChartObj.Chart.Axes(xlCategory).MaximumScale = 100</v>
       </c>
       <c r="E242" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F242" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="243" spans="1:6" outlineLevel="1">
       <c r="A243" s="2"/>
       <c r="B243" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C243" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D243" s="4" t="str">
         <f>"oChartObj.Chart.Axes(xlCategory).Crosses = (xlMinimum\|xlMaximum\|xlAutomatic)"</f>
         <v>oChartObj.Chart.Axes(xlCategory).Crosses = (xlMinimum\|xlMaximum\|xlAutomatic)</v>
       </c>
       <c r="E243" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F243" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="244" spans="1:6" outlineLevel="1">
       <c r="A244" s="2"/>
       <c r="B244" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C244" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D244" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E244" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F244" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="245" spans="1:6" outlineLevel="1">
       <c r="A245" s="2"/>
       <c r="B245" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C245" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D245" s="4" t="str">
         <f>"oChartObj.Chart.HasTitle = True"</f>
         <v>oChartObj.Chart.HasTitle = True</v>
       </c>
       <c r="E245" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F245" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="246" spans="1:6" outlineLevel="1">
       <c r="A246" s="2"/>
       <c r="B246" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C246" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D246" s="4" t="str">
         <f>"oChartObj.Chart.ChartTitle.Text = ""Test Title"""</f>
         <v>oChartObj.Chart.ChartTitle.Text = "Test Title"</v>
       </c>
       <c r="E246" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F246" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="247" spans="1:6" outlineLevel="1">
       <c r="A247" s="2"/>
       <c r="B247" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C247" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D247" s="4" t="str">
         <f>"oChartObj.Chart.ChartTitle.IncludeInLayout = False"</f>
         <v>oChartObj.Chart.ChartTitle.IncludeInLayout = False</v>
       </c>
       <c r="E247" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F247" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="248" spans="1:6" outlineLevel="1">
       <c r="A248" s="2"/>
       <c r="B248" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C248" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D248" s="4" t="str">
         <f>"oChartObj.Chart.HasLegend = True"</f>
         <v>oChartObj.Chart.HasLegend = True</v>
       </c>
       <c r="E248" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F248" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="249" spans="1:6" outlineLevel="1">
       <c r="A249" s="2"/>
       <c r="B249" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C249" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D249" s="4" t="str">
         <f>"oChartObj.Chart.Legend.Position = xlLegendPositionTop"</f>
         <v>oChartObj.Chart.Legend.Position = xlLegendPositionTop</v>
       </c>
       <c r="E249" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F249" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="250" spans="1:6" outlineLevel="1">
       <c r="A250" s="2"/>
       <c r="B250" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C250" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D250" s="4" t="str">
         <f>"oChartObj.Chart.Legend.IncludeInLayout = False"</f>
         <v>oChartObj.Chart.Legend.IncludeInLayout = False</v>
       </c>
       <c r="E250" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F250" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="251" spans="1:6" outlineLevel="1">
       <c r="A251" s="2"/>
       <c r="B251" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C251" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D251" s="10" t="str">
         <f>".Sheets(シート名).PasteSpecial Format:=""図 (JPEG)"", Link:=False, DisplayAsIcon:=False"</f>
         <v>.Sheets(シート名).PasteSpecial Format:="図 (JPEG)", Link:=False, DisplayAsIcon:=False</v>
       </c>
       <c r="E251" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F251" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="252" spans="1:6" outlineLevel="1">
       <c r="A252" s="8" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B252" s="8"/>
       <c r="C252" s="8"/>
       <c r="D252" s="8"/>
       <c r="E252" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F252" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="253" spans="1:6" outlineLevel="1">
       <c r="A253" s="2"/>
       <c r="B253" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C253" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D253" s="4" t="str">
         <f>"Dim goPrgrsBar As New ProgressBar"&amp;CHAR(10)&amp;"goPrgrsBar.Show vbModeless"</f>
@@ -8915,19 +8920,19 @@
 goPrgrsBar.Show vbModeless</v>
       </c>
       <c r="E253" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F253" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="254" spans="1:6" outlineLevel="1">
       <c r="A254" s="2"/>
       <c r="B254" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C254" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D254" s="4" t="str">
         <f>"goPrgrsBar.Hide"&amp;CHAR(10)&amp;"Unload goPrgrsBar"&amp;CHAR(10)&amp;"Set goPrgrsBar = Nothing"</f>
@@ -8936,52 +8941,52 @@
 Set goPrgrsBar = Nothing</v>
       </c>
       <c r="E254" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F254" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="255" spans="1:6" outlineLevel="1">
       <c r="A255" s="8" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B255" s="8"/>
       <c r="C255" s="8"/>
       <c r="D255" s="8"/>
       <c r="E255" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F255" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="256" spans="1:6" outlineLevel="1">
       <c r="A256" s="2"/>
       <c r="B256" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C256" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D256" s="4" t="str">
         <f>"lChk = ThisWorkbook.Sheets(シート名).CheckBoxes(1).Value"</f>
         <v>lChk = ThisWorkbook.Sheets(シート名).CheckBoxes(1).Value</v>
       </c>
       <c r="E256" s="5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F256" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="257" spans="1:6" outlineLevel="1">
       <c r="A257" s="2"/>
       <c r="B257" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C257" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D257" s="4" t="str">
         <f>"Private Sub xxx\_KeyUp(ByVal KeyCode As MSForms.ReturnInteger, ByVal Shift As Integer)"&amp;CHAR(10)&amp;"End Sub"</f>
@@ -8989,62 +8994,62 @@
 End Sub</v>
       </c>
       <c r="E257" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F257" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="258" spans="1:6" outlineLevel="1">
       <c r="A258" s="8" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B258" s="8"/>
       <c r="C258" s="8"/>
       <c r="D258" s="8"/>
       <c r="E258" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F258" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="259" spans="1:6" outlineLevel="1">
       <c r="A259" s="2"/>
       <c r="B259" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C259" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D259" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E259" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F259" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="260" spans="1:6" outlineLevel="1">
       <c r="A260" s="8" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B260" s="8"/>
       <c r="C260" s="8"/>
       <c r="D260" s="8"/>
       <c r="E260" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F260" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="261" spans="1:6" outlineLevel="1">
       <c r="A261" s="2"/>
       <c r="B261" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C261" s="4" t="str">
         <f>"objWshShell.Exec( ""clip"" ).StdIn.Write( ""テキスト"" )"</f>
@@ -9058,16 +9063,16 @@
 End With</v>
       </c>
       <c r="E261" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F261" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="262" spans="1:6" outlineLevel="1">
       <c r="A262" s="2"/>
       <c r="B262" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C262" s="4" t="str">
         <f>"CreateObject(""htmlfile"").ParentWindow.Clipboarddata.GetData(""text"")"</f>
@@ -9081,33 +9086,33 @@
 End With</v>
       </c>
       <c r="E262" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F262" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="263" spans="1:6" outlineLevel="1">
       <c r="A263" s="8" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B263" s="8"/>
       <c r="C263" s="8"/>
       <c r="D263" s="8"/>
       <c r="E263" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F263" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="264" spans="1:6" outlineLevel="1">
       <c r="A264" s="2"/>
       <c r="B264" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C264" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D264" s="4" t="str">
         <f>"Dim wWord As Object" &amp; CHAR(10) &amp; "Set wWord = CreateObject(""Word.Application"")" &amp; CHAR(10) &amp; "wWord.Visible = False"</f>
@@ -9116,19 +9121,19 @@
 wWord.Visible = False</v>
       </c>
       <c r="E264" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F264" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="265" spans="1:6" outlineLevel="1">
       <c r="A265" s="2"/>
       <c r="B265" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C265" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D265" s="4" t="str">
         <f>"dDoc.Close" &amp; CHAR(10) &amp; "Set dDoc = Nothing"</f>
@@ -9136,19 +9141,19 @@
 Set dDoc = Nothing</v>
       </c>
       <c r="E265" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F265" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="266" spans="1:6" outlineLevel="1">
       <c r="A266" s="2"/>
       <c r="B266" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C266" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D266" s="4" t="str">
         <f>"wWord.Visible = False" &amp; CHAR(10) &amp; "wWord.Quit" &amp; CHAR(10) &amp; "Set wWord = Nothing"</f>
@@ -9157,19 +9162,19 @@
 Set wWord = Nothing</v>
       </c>
       <c r="E266" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F266" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="267" spans="1:6" outlineLevel="1">
       <c r="A267" s="2"/>
       <c r="B267" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C267" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D267" s="4" t="str">
         <f>"Dim dDoc As Object" &amp; CHAR(10) &amp; "Set dDoc = wWord.Documents.Open(""sFilePath"")"</f>
@@ -9177,19 +9182,19 @@
 Set dDoc = wWord.Documents.Open("sFilePath")</v>
       </c>
       <c r="E267" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F267" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="268" spans="1:6" outlineLevel="1">
       <c r="A268" s="2"/>
       <c r="B268" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C268" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D268" s="4" t="str">
         <f>"Dim sParagraph As Object" &amp; CHAR(10) &amp; "For Each sParagraph In dDoc.Paragraphs" &amp; CHAR(10) &amp; CHAR(9) &amp; "'～処理～" &amp; CHAR(10) &amp; "Next sParagraph"</f>
@@ -9199,33 +9204,33 @@
 Next sParagraph</v>
       </c>
       <c r="E268" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F268" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="269" spans="1:6" outlineLevel="1">
       <c r="A269" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B269" s="8"/>
       <c r="C269" s="8"/>
       <c r="D269" s="8"/>
       <c r="E269" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F269" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="270" spans="1:6" outlineLevel="1">
       <c r="A270" s="2"/>
       <c r="B270" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C270" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D270" s="4" t="str">
         <f>"Dim wTrgtBook As Workbook"&amp;CHAR(10)&amp;"Application.SheetsInNewWorkbook = 1"&amp;CHAR(10)&amp;"Set wTrgtBook = Workbooks.Add"</f>
@@ -9234,19 +9239,19 @@
 Set wTrgtBook = Workbooks.Add</v>
       </c>
       <c r="E270" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F270" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="271" spans="1:6" outlineLevel="1">
       <c r="A271" s="2"/>
       <c r="B271" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C271" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D271" s="4" t="str">
         <f>"If wCsvBook.Name &lt;&gt; Dir(""C:\Book1.xlsx"") Then"&amp;CHAR(10)&amp;CHAR(9)&amp;"処理"&amp;CHAR(10)&amp;"Else"&amp;CHAR(10)&amp;CHAR(9)&amp;"エラー"&amp;CHAR(10)&amp;"End If"</f>
@@ -9257,19 +9262,19 @@
 End If</v>
       </c>
       <c r="E271" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F271" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="272" spans="1:6" outlineLevel="1">
       <c r="A272" s="2"/>
       <c r="B272" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C272" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D272" s="4" t="str">
         <f>"Dim bAddBook As Workbook"&amp;CHAR(10)&amp;"Set bAddBook = Workbooks.Add"</f>
@@ -9277,76 +9282,76 @@
 Set bAddBook = Workbooks.Add</v>
       </c>
       <c r="E272" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F272" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="273" spans="1:6" outlineLevel="1">
       <c r="A273" s="2"/>
       <c r="B273" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C273" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D273" s="4" t="str">
         <f>"ThisWorkbook.Sheets(シート名).Copy: Set wTrgtBook = ActiveWorkbook"</f>
         <v>ThisWorkbook.Sheets(シート名).Copy: Set wTrgtBook = ActiveWorkbook</v>
       </c>
       <c r="E273" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F273" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="274" spans="1:6" outlineLevel="1">
       <c r="A274" s="2"/>
       <c r="B274" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C274" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D274" s="4" t="str">
         <f>"wTrgtBook.SaveAs Filename:=sFilePath"</f>
         <v>wTrgtBook.SaveAs Filename:=sFilePath</v>
       </c>
       <c r="E274" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F274" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="275" spans="1:6" outlineLevel="1">
       <c r="A275" s="2"/>
       <c r="B275" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C275" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D275" s="4" t="str">
         <f>".Sheets.Count"</f>
         <v>.Sheets.Count</v>
       </c>
       <c r="E275" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F275" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="276" spans="1:6" outlineLevel="1">
       <c r="A276" s="2"/>
       <c r="B276" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C276" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D276" s="4" t="str">
         <f>"Dim shAddSht As Worksheet"&amp;CHAR(10)&amp;"Set shAddSht = ThisWorkbook.Sheets.Add"</f>
@@ -9354,38 +9359,38 @@
 Set shAddSht = ThisWorkbook.Sheets.Add</v>
       </c>
       <c r="E276" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F276" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="277" spans="1:6" outlineLevel="1">
       <c r="A277" s="2"/>
       <c r="B277" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C277" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D277" s="4" t="str">
         <f>"ThisWorkbook.Sheets(シート名).Move After:=ThisWorkbook.Sheets( ThisWorkbook.Sheets.Count )"</f>
         <v>ThisWorkbook.Sheets(シート名).Move After:=ThisWorkbook.Sheets( ThisWorkbook.Sheets.Count )</v>
       </c>
       <c r="E277" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F277" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="278" spans="1:6" outlineLevel="1">
       <c r="A278" s="2"/>
       <c r="B278" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C278" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D278" s="4" t="str">
         <f>"Application.DisplayAlerts = False"&amp;CHAR(10)&amp;".Sheets(シート名).Delete"&amp;CHAR(10)&amp;"Application.DisplayAlerts = True"</f>
@@ -9394,449 +9399,449 @@
 Application.DisplayAlerts = True</v>
       </c>
       <c r="E278" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F278" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="279" spans="1:6" outlineLevel="1">
       <c r="A279" s="2"/>
       <c r="B279" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C279" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D279" s="4" t="str">
         <f>".Sheets(シート名).Visible = (True\|False)"</f>
         <v>.Sheets(シート名).Visible = (True\|False)</v>
       </c>
       <c r="E279" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F279" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="280" spans="1:6" outlineLevel="1">
       <c r="A280" s="2"/>
       <c r="B280" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C280" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D280" s="4" t="str">
         <f>".Sheets(シート名).Move Before:=Sheets(1)"</f>
         <v>.Sheets(シート名).Move Before:=Sheets(1)</v>
       </c>
       <c r="E280" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F280" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="281" spans="1:6" outlineLevel="1">
       <c r="A281" s="2"/>
       <c r="B281" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C281" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D281" s="4" t="str">
         <f>"Application.ScreenUpdating = True"</f>
         <v>Application.ScreenUpdating = True</v>
       </c>
       <c r="E281" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F281" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="282" spans="1:6" outlineLevel="1">
       <c r="A282" s="2"/>
       <c r="B282" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C282" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D282" s="4" t="str">
         <f>"Application.ScreenUpdating = False"</f>
         <v>Application.ScreenUpdating = False</v>
       </c>
       <c r="E282" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F282" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="283" spans="1:6" outlineLevel="1">
       <c r="A283" s="2"/>
       <c r="B283" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C283" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D283" s="4" t="str">
         <f>"Application.Calculation = xlCalculationAutomatic"</f>
         <v>Application.Calculation = xlCalculationAutomatic</v>
       </c>
       <c r="E283" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F283" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="284" spans="1:6" outlineLevel="1">
       <c r="A284" s="2"/>
       <c r="B284" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C284" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D284" s="4" t="str">
         <f>"Application.Calculation = xlCalculationManual"</f>
         <v>Application.Calculation = xlCalculationManual</v>
       </c>
       <c r="E284" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F284" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="285" spans="1:6" outlineLevel="1">
       <c r="A285" s="2"/>
       <c r="B285" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C285" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D285" s="4" t="str">
         <f>"Application.Calculate"</f>
         <v>Application.Calculate</v>
       </c>
       <c r="E285" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F285" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="286" spans="1:6" outlineLevel="1">
       <c r="A286" s="2"/>
       <c r="B286" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C286" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D286" s="4" t="str">
         <f>"Application.CalculateFull"</f>
         <v>Application.CalculateFull</v>
       </c>
       <c r="E286" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F286" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="287" spans="1:6" outlineLevel="1">
       <c r="A287" s="2"/>
       <c r="B287" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="C287" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="D287" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="E287" s="5" t="s">
         <v>502</v>
       </c>
-      <c r="C287" s="22" t="s">
-        <v>401</v>
-      </c>
-      <c r="D287" s="4" t="s">
-        <v>503</v>
-      </c>
-      <c r="E287" s="5" t="s">
-        <v>504</v>
-      </c>
       <c r="F287" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="288" spans="1:6" outlineLevel="1">
       <c r="A288" s="2"/>
       <c r="B288" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C288" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D288" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="E288" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="E288" s="5" t="s">
-        <v>501</v>
-      </c>
       <c r="F288" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="289" spans="1:6">
       <c r="A289" s="20" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B289" s="8"/>
       <c r="C289" s="8"/>
       <c r="D289" s="8"/>
       <c r="E289" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F289" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="290" spans="1:6" outlineLevel="1">
       <c r="A290" s="2"/>
       <c r="B290" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C290" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D290" s="4" t="str">
         <f>"Application.DisplayAlerts = False"</f>
         <v>Application.DisplayAlerts = False</v>
       </c>
       <c r="E290" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F290" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="291" spans="1:6" outlineLevel="1">
       <c r="A291" s="2"/>
       <c r="B291" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C291" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D291" s="4" t="str">
         <f>"Application.DisplayAlerts = True"</f>
         <v>Application.DisplayAlerts = True</v>
       </c>
       <c r="E291" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F291" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="292" spans="1:6" outlineLevel="1">
       <c r="A292" s="2"/>
       <c r="B292" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C292" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D292" s="4" t="str">
         <f>".Rows(2).Select"</f>
         <v>.Rows(2).Select</v>
       </c>
       <c r="E292" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F292" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="293" spans="1:6" outlineLevel="1">
       <c r="A293" s="2"/>
       <c r="B293" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C293" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D293" s="4" t="str">
         <f>".Columns(2).Select"</f>
         <v>.Columns(2).Select</v>
       </c>
       <c r="E293" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F293" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="294" spans="1:6" outlineLevel="1">
       <c r="A294" s="2"/>
       <c r="B294" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C294" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D294" s="4" t="str">
         <f>".Cells(1,1).Select"</f>
         <v>.Cells(1,1).Select</v>
       </c>
       <c r="E294" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F294" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="295" spans="1:6" outlineLevel="1">
       <c r="A295" s="2"/>
       <c r="B295" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C295" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D295" s="4" t="str">
         <f>".Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).Select"</f>
         <v>.Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).Select</v>
       </c>
       <c r="E295" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F295" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="296" spans="1:6" outlineLevel="1">
       <c r="A296" s="2"/>
       <c r="B296" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C296" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D296" s="4" t="str">
         <f>".Cells.Find(""りんご"", LookAt:=xlWhole).Row"</f>
         <v>.Cells.Find("りんご", LookAt:=xlWhole).Row</v>
       </c>
       <c r="E296" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F296" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="297" spans="1:6" outlineLevel="1">
       <c r="A297" s="2"/>
       <c r="B297" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C297" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D297" s="4" t="str">
         <f>".Cells.Find(""りんご"", LookAt:=xlWhole).Column"</f>
         <v>.Cells.Find("りんご", LookAt:=xlWhole).Column</v>
       </c>
       <c r="E297" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F297" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="298" spans="1:6" outlineLevel="1">
       <c r="A298" s="2"/>
       <c r="B298" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C298" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D298" s="4" t="str">
         <f>".Cells(X, Y).Value"</f>
         <v>.Cells(X, Y).Value</v>
       </c>
       <c r="E298" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F298" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="299" spans="1:6" outlineLevel="1">
       <c r="A299" s="2"/>
       <c r="B299" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C299" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D299" s="4" t="str">
         <f>".Cells(1, 1).Top"</f>
         <v>.Cells(1, 1).Top</v>
       </c>
       <c r="E299" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F299" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="300" spans="1:6" outlineLevel="1">
       <c r="A300" s="2"/>
       <c r="B300" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C300" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D300" s="4" t="str">
         <f>".Cells(1, 1).Left"</f>
         <v>.Cells(1, 1).Left</v>
       </c>
       <c r="E300" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F300" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="301" spans="1:6" outlineLevel="1">
       <c r="A301" s="2"/>
       <c r="B301" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C301" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D301" s="4" t="str">
         <f>".Cells(1, 1).EntireRow.Delete Shift:=xlShiftUp"</f>
         <v>.Cells(1, 1).EntireRow.Delete Shift:=xlShiftUp</v>
       </c>
       <c r="E301" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F301" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="302" spans="1:6" outlineLevel="1">
       <c r="A302" s="2"/>
       <c r="B302" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C302" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D302" s="4" t="str">
         <f>"Application.CutCopyMode = False"&amp;CHAR(10)&amp;".Range(""2:4"").Insert"</f>
@@ -9844,38 +9849,38 @@
 .Range("2:4").Insert</v>
       </c>
       <c r="E302" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F302" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="303" spans="1:6" outlineLevel="1">
       <c r="A303" s="2"/>
       <c r="B303" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C303" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D303" s="4" t="str">
         <f>".Cells(行, 列).Font.Strikethrough"</f>
         <v>.Cells(行, 列).Font.Strikethrough</v>
       </c>
       <c r="E303" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F303" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="304" spans="1:6" outlineLevel="1">
       <c r="A304" s="2"/>
       <c r="B304" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C304" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D304" s="4" t="str">
         <f>"wTrgtBook.Sheets(シート名).Activate"&amp;CHAR(10)&amp;"ActiveWindow.DisplayGridlines = False"</f>
@@ -9883,57 +9888,57 @@
 ActiveWindow.DisplayGridlines = False</v>
       </c>
       <c r="E304" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F304" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="305" spans="1:6" outlineLevel="1">
       <c r="A305" s="2"/>
       <c r="B305" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C305" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D305" s="4" t="str">
         <f>".Range(""A1"").EntireRow.Hidden"</f>
         <v>.Range("A1").EntireRow.Hidden</v>
       </c>
       <c r="E305" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F305" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="306" spans="1:6" outlineLevel="1">
       <c r="A306" s="2"/>
       <c r="B306" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C306" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D306" s="4" t="str">
         <f>".Range(""A1"").EntireColumn.Hidden"</f>
         <v>.Range("A1").EntireColumn.Hidden</v>
       </c>
       <c r="E306" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F306" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="307" spans="1:6" outlineLevel="1">
       <c r="A307" s="2"/>
       <c r="B307" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C307" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D307" s="4" t="str">
         <f>"If .Cells(1, 1).EntireRow.Hidden Or .Cells(1, 1).EntireColumn.Hidden Then
@@ -9950,776 +9955,776 @@
 </v>
       </c>
       <c r="E307" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F307" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="308" spans="1:6" outlineLevel="1">
       <c r="A308" s="2"/>
       <c r="B308" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C308" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D308" s="4" t="str">
         <f>"文字列変数 = .Range(""A1"").Font.Name"</f>
         <v>文字列変数 = .Range("A1").Font.Name</v>
       </c>
       <c r="E308" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F308" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="309" spans="1:6" outlineLevel="1">
       <c r="A309" s="2"/>
       <c r="B309" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C309" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D309" s="4" t="str">
         <f>".Range(""A1"").Font.Size = 14"</f>
         <v>.Range("A1").Font.Size = 14</v>
       </c>
       <c r="E309" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F309" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="310" spans="1:6" outlineLevel="1">
       <c r="A310" s="2"/>
       <c r="B310" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C310" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D310" s="4" t="str">
         <f>".Range(""A1"").Font.Color = RGB(0, 255, 0)"</f>
         <v>.Range("A1").Font.Color = RGB(0, 255, 0)</v>
       </c>
       <c r="E310" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F310" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="311" spans="1:6" outlineLevel="1">
       <c r="A311" s="2"/>
       <c r="B311" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C311" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D311" s="4" t="str">
         <f>".Range(""A1"").Font.Bold = True"</f>
         <v>.Range("A1").Font.Bold = True</v>
       </c>
       <c r="E311" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F311" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="312" spans="1:6" outlineLevel="1">
       <c r="A312" s="2"/>
       <c r="B312" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C312" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D312" s="4" t="str">
         <f>".Range(""A1"").Font.Underline = True"</f>
         <v>.Range("A1").Font.Underline = True</v>
       </c>
       <c r="E312" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F312" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="313" spans="1:6" outlineLevel="1">
       <c r="A313" s="2"/>
       <c r="B313" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C313" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D313" s="4" t="str">
         <f>".Range(""A1"").Interior.Color = RGB(255, 255, 0)"</f>
         <v>.Range("A1").Interior.Color = RGB(255, 255, 0)</v>
       </c>
       <c r="E313" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F313" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="314" spans="1:6" outlineLevel="1">
       <c r="A314" s="2"/>
       <c r="B314" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C314" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D314" s="4" t="str">
         <f>".Range(""A1:C3"").Borders.LineStyle = xlContinuous"</f>
         <v>.Range("A1:C3").Borders.LineStyle = xlContinuous</v>
       </c>
       <c r="E314" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F314" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="315" spans="1:6" outlineLevel="1">
       <c r="A315" s="2"/>
       <c r="B315" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C315" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D315" s="4" t="str">
         <f>".Range(""A1:C3"").MergeCells = True"</f>
         <v>.Range("A1:C3").MergeCells = True</v>
       </c>
       <c r="E315" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F315" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="316" spans="1:6" outlineLevel="1">
       <c r="A316" s="2"/>
       <c r="B316" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C316" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D316" s="4" t="str">
         <f>".Range(""A1:C3"").HorizontalAlignment = xlGeneral"</f>
         <v>.Range("A1:C3").HorizontalAlignment = xlGeneral</v>
       </c>
       <c r="E316" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F316" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="317" spans="1:6" outlineLevel="1">
       <c r="A317" s="2"/>
       <c r="B317" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C317" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D317" s="4" t="str">
         <f>".Range(""A1:C3"").VerticalAlignment = xlCenter"</f>
         <v>.Range("A1:C3").VerticalAlignment = xlCenter</v>
       </c>
       <c r="E317" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F317" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="318" spans="1:6" outlineLevel="1">
       <c r="A318" s="2"/>
       <c r="B318" s="2" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C318" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D318" s="4" t="str">
         <f>".Cells(1, 列).End(xlDown).Row"</f>
         <v>.Cells(1, 列).End(xlDown).Row</v>
       </c>
       <c r="E318" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F318" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="319" spans="1:6" outlineLevel="1">
       <c r="A319" s="2"/>
       <c r="B319" s="2" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C319" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D319" s="4" t="str">
         <f>".Cells(行, 1).End(xlToRight).Column"</f>
         <v>.Cells(行, 1).End(xlToRight).Column</v>
       </c>
       <c r="E319" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F319" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="320" spans="1:6" outlineLevel="1">
       <c r="A320" s="2"/>
       <c r="B320" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C320" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D320" s="4" t="str">
         <f>".Cells(.Rows.Count, 列).End(xlUp).Row"</f>
         <v>.Cells(.Rows.Count, 列).End(xlUp).Row</v>
       </c>
       <c r="E320" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F320" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="321" spans="1:6" outlineLevel="1">
       <c r="A321" s="2"/>
       <c r="B321" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C321" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D321" s="4" t="str">
         <f>".Cells(行, .Columns.Count).End(xlToLeft).Column"</f>
         <v>.Cells(行, .Columns.Count).End(xlToLeft).Column</v>
       </c>
       <c r="E321" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F321" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="322" spans="1:6" outlineLevel="1">
       <c r="A322" s="2"/>
       <c r="B322" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C322" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D322" s="4" t="str">
         <f>".Sheets(シート名).UsedRange.Rows.Count + 1"</f>
         <v>.Sheets(シート名).UsedRange.Rows.Count + 1</v>
       </c>
       <c r="E322" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F322" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="323" spans="1:6" outlineLevel="1">
       <c r="A323" s="2"/>
       <c r="B323" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C323" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D323" s="4" t="str">
         <f>".Sheets(シート名).UsedRange.Columns.Count + 1"</f>
         <v>.Sheets(シート名).UsedRange.Columns.Count + 1</v>
       </c>
       <c r="E323" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F323" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="324" spans="1:6" outlineLevel="1">
       <c r="A324" s="2"/>
       <c r="B324" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C324" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D324" s="4" t="str">
         <f>"Selection(1).Row"</f>
         <v>Selection(1).Row</v>
       </c>
       <c r="E324" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F324" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="325" spans="1:6" outlineLevel="1">
       <c r="A325" s="2"/>
       <c r="B325" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C325" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D325" s="4" t="str">
         <f>"Selection(Selection.Count).Row"</f>
         <v>Selection(Selection.Count).Row</v>
       </c>
       <c r="E325" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F325" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="326" spans="1:6" outlineLevel="1">
       <c r="A326" s="2"/>
       <c r="B326" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C326" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D326" s="4" t="str">
         <f>"Selection(1).Column"</f>
         <v>Selection(1).Column</v>
       </c>
       <c r="E326" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F326" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="327" spans="1:6" outlineLevel="1">
       <c r="A327" s="2"/>
       <c r="B327" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C327" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D327" s="4" t="str">
         <f>"Selection(Selection.Count).Column"</f>
         <v>Selection(Selection.Count).Column</v>
       </c>
       <c r="E327" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F327" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="328" spans="1:6" outlineLevel="1">
       <c r="A328" s="2"/>
       <c r="B328" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C328" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D328" s="4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E328" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F328" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="329" spans="1:6" outlineLevel="1">
       <c r="A329" s="2"/>
       <c r="B329" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C329" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D329" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E329" s="5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F329" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="330" spans="1:6" outlineLevel="1">
       <c r="A330" s="2"/>
       <c r="B330" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C330" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D330" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="E330" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="E330" s="5" t="s">
-        <v>332</v>
-      </c>
       <c r="F330" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="331" spans="1:6" outlineLevel="1">
       <c r="A331" s="2"/>
       <c r="B331" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C331" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D331" s="4" t="str">
         <f>".Range(.Cells(1, 1), .Cells(6, 3))"</f>
         <v>.Range(.Cells(1, 1), .Cells(6, 3))</v>
       </c>
       <c r="E331" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F331" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="332" spans="1:6" outlineLevel="1">
       <c r="A332" s="2"/>
       <c r="B332" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C332" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D332" s="4" t="str">
         <f>".Range(""A1:B9"").Copy Destination:=ThisWorkBook.Sheets(シート名２).Range(""B1"")"</f>
         <v>.Range("A1:B9").Copy Destination:=ThisWorkBook.Sheets(シート名２).Range("B1")</v>
       </c>
       <c r="E332" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F332" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="333" spans="1:6" outlineLevel="1">
       <c r="A333" s="2"/>
       <c r="B333" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C333" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D333" s="4" t="str">
         <f>".Range(.Cells(1, 1), .Cells(.Rows.Count, 2)).Sort Key1:=.Cells(1, 2) ,order1:=xlAscending"</f>
         <v>.Range(.Cells(1, 1), .Cells(.Rows.Count, 2)).Sort Key1:=.Cells(1, 2) ,order1:=xlAscending</v>
       </c>
       <c r="E333" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F333" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="334" spans="1:6" outlineLevel="1">
       <c r="A334" s="2"/>
       <c r="B334" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C334" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D334" s="4" t="str">
         <f>".Range(""A1:A2"").ClearContents"</f>
         <v>.Range("A1:A2").ClearContents</v>
       </c>
       <c r="E334" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F334" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="335" spans="1:6" outlineLevel="1">
       <c r="A335" s="2"/>
       <c r="B335" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C335" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D335" s="4" t="str">
         <f>".Range(""A1:A2"").ClearFormats"</f>
         <v>.Range("A1:A2").ClearFormats</v>
       </c>
       <c r="E335" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F335" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="336" spans="1:6" outlineLevel="1">
       <c r="A336" s="2"/>
       <c r="B336" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C336" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D336" s="4" t="str">
         <f>".Range(""A1:A2"").PasteSpecial (xlPasteFormats)"</f>
         <v>.Range("A1:A2").PasteSpecial (xlPasteFormats)</v>
       </c>
       <c r="E336" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F336" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="337" spans="1:6" outlineLevel="1">
       <c r="A337" s="2"/>
       <c r="B337" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C337" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D337" s="4" t="str">
         <f>".Range(""A1:CV100"").SpecialCells(xlCellTypeBlanks).Select"</f>
         <v>.Range("A1:CV100").SpecialCells(xlCellTypeBlanks).Select</v>
       </c>
       <c r="E337" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F337" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="338" spans="1:6" outlineLevel="1">
       <c r="A338" s="2"/>
       <c r="B338" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C338" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D338" s="4" t="str">
         <f>".Range(""A1"").ColumnWidth = 5"</f>
         <v>.Range("A1").ColumnWidth = 5</v>
       </c>
       <c r="E338" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F338" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="339" spans="1:6" outlineLevel="1">
       <c r="A339" s="2"/>
       <c r="B339" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C339" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D339" s="4" t="str">
         <f>".Range(.Cells(4, 2), .Cells(9, 2)).Columns.AutoFit"</f>
         <v>.Range(.Cells(4, 2), .Cells(9, 2)).Columns.AutoFit</v>
       </c>
       <c r="E339" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F339" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="340" spans="1:6" outlineLevel="1">
       <c r="A340" s="2"/>
       <c r="B340" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C340" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D340" s="4" t="str">
         <f>".Sheets(シート名).UsedRange.Columns.AutoFit"</f>
         <v>.Sheets(シート名).UsedRange.Columns.AutoFit</v>
       </c>
       <c r="E340" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F340" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="341" spans="1:6" outlineLevel="1">
       <c r="A341" s="2"/>
       <c r="B341" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C341" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D341" s="4" t="str">
         <f>"Application.CutCopyMode = False"</f>
         <v>Application.CutCopyMode = False</v>
       </c>
       <c r="E341" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F341" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="342" spans="1:6" outlineLevel="1">
       <c r="A342" s="2"/>
       <c r="B342" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C342" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D342" s="4" t="str">
         <f>".Range( .Rows( lStrtRow ), .Rows( lLastRow ) ).Group"</f>
         <v>.Range( .Rows( lStrtRow ), .Rows( lLastRow ) ).Group</v>
       </c>
       <c r="E342" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F342" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="343" spans="1:6" outlineLevel="1">
       <c r="A343" s="2"/>
       <c r="B343" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C343" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D343" s="4" t="str">
         <f>".Range( .Columns( lStrtRow ), .Columns( lLastRow ) ).Group"</f>
         <v>.Range( .Columns( lStrtRow ), .Columns( lLastRow ) ).Group</v>
       </c>
       <c r="E343" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F343" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="344" spans="1:6" outlineLevel="1">
       <c r="A344" s="2"/>
       <c r="B344" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C344" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D344" s="4" t="str">
         <f>".Sheets(シート名).Outline.SummaryRow = ( xlBelow \| xlAbove )"</f>
         <v>.Sheets(シート名).Outline.SummaryRow = ( xlBelow \| xlAbove )</v>
       </c>
       <c r="E344" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F344" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="345" spans="1:6" outlineLevel="1">
       <c r="A345" s="2"/>
       <c r="B345" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C345" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D345" s="4" t="str">
         <f>".Sheets(シート名).Outline.SummaryColumn = ( xlRight \| xlLeft )"</f>
         <v>.Sheets(シート名).Outline.SummaryColumn = ( xlRight \| xlLeft )</v>
       </c>
       <c r="E345" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F345" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="346" spans="1:6" outlineLevel="1">
       <c r="A346" s="2"/>
       <c r="B346" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C346" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D346" s="4" t="str">
         <f>".Sheets(シート名).Outline.AutomaticStyles = ( True \| False )"</f>
         <v>.Sheets(シート名).Outline.AutomaticStyles = ( True \| False )</v>
       </c>
       <c r="E346" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F346" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="347" spans="1:6" outlineLevel="1">
       <c r="A347" s="2"/>
       <c r="B347" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C347" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D347" s="4" t="str">
         <f>".Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).AutoFilter"</f>
         <v>.Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).AutoFilter</v>
       </c>
       <c r="E347" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F347" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="348" spans="1:6" outlineLevel="1">
       <c r="A348" s="2"/>
       <c r="B348" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C348" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D348" s="4" t="str">
         <f>".Rows(行).Select"&amp;CHAR(10)&amp;"ActiveWindow.FreezePanes = True"</f>
@@ -10727,19 +10732,19 @@
 ActiveWindow.FreezePanes = True</v>
       </c>
       <c r="E348" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F348" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="349" spans="1:6" outlineLevel="1">
       <c r="A349" s="2"/>
       <c r="B349" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C349" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D349" s="4" t="str">
         <f>".Columns(列).Select"&amp;CHAR(10)&amp;"ActiveWindow.FreezePanes = True"</f>
@@ -10747,19 +10752,19 @@
 ActiveWindow.FreezePanes = True</v>
       </c>
       <c r="E349" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F349" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="350" spans="1:6" outlineLevel="1">
       <c r="A350" s="2"/>
       <c r="B350" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C350" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D350" s="4" t="str">
         <f>".Cells(行,列).Select"&amp;CHAR(10)&amp;"ActiveWindow.FreezePanes = True"</f>
@@ -10767,127 +10772,127 @@
 ActiveWindow.FreezePanes = True</v>
       </c>
       <c r="E350" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F350" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="351" spans="1:6" outlineLevel="1">
       <c r="A351" s="2"/>
       <c r="B351" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C351" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D351" s="4" t="str">
         <f>"ActiveWindow.FreezePanes = False"</f>
         <v>ActiveWindow.FreezePanes = False</v>
       </c>
       <c r="E351" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F351" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="352" spans="1:6" outlineLevel="1">
       <c r="A352" s="2"/>
       <c r="B352" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C352" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D352" s="4" t="str">
         <f>"Application.WorksheetFunction.VLookup(.Range(""C1""), .Range(""A1:B7""), 2, False)"</f>
         <v>Application.WorksheetFunction.VLookup(.Range("C1"), .Range("A1:B7"), 2, False)</v>
       </c>
       <c r="E352" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F352" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="353" spans="1:6" outlineLevel="1">
       <c r="A353" s="2"/>
       <c r="B353" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C353" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D353" s="4" t="str">
         <f>"CreateObject(""WScript.Network"").UserName"</f>
         <v>CreateObject("WScript.Network").UserName</v>
       </c>
       <c r="E353" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F353" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="354" spans="1:6" outlineLevel="1">
       <c r="A354" s="2"/>
       <c r="B354" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C354" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D354" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E354" s="6" t="str">
         <f>HYPERLINK("https://msdn.microsoft.com/ja-jp/library/office/ff197461.aspx","sShtcutKey＝Shift:+,Ctrl:^,Alt:%,...")</f>
         <v>sShtcutKey＝Shift:+,Ctrl:^,Alt:%,...</v>
       </c>
       <c r="F354" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="355" spans="1:6" outlineLevel="1">
       <c r="A355" s="2"/>
       <c r="B355" s="2" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C355" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D355" s="4" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="E355" s="5"/>
       <c r="F355" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="356" spans="1:6" outlineLevel="1">
       <c r="A356" s="2"/>
       <c r="B356" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="C356" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="D356" s="4" t="s">
         <v>666</v>
-      </c>
-      <c r="C356" s="22" t="s">
-        <v>401</v>
-      </c>
-      <c r="D356" s="4" t="s">
-        <v>668</v>
       </c>
       <c r="E356" s="5"/>
       <c r="F356" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="357" spans="1:6" outlineLevel="1">
       <c r="A357" s="2"/>
       <c r="B357" s="2" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C357" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D357" s="10" t="str">
         <f>"Dim objBtn As Object
@@ -10906,33 +10911,33 @@
 </v>
       </c>
       <c r="E357" s="5" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="F357" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="358" spans="1:6">
       <c r="A358" s="20" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B358" s="8"/>
       <c r="C358" s="8"/>
       <c r="D358" s="8"/>
       <c r="E358" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F358" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="359" spans="1:6" outlineLevel="1">
       <c r="A359" s="2"/>
       <c r="B359" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C359" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D359" s="2" t="str">
         <f>"Dim bIsSheetExist As Boolean
@@ -10955,16 +10960,16 @@
 Next wSheet</v>
       </c>
       <c r="E359" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="360" spans="1:6" outlineLevel="1">
       <c r="A360" s="2"/>
       <c r="B360" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C360" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D360" s="2" t="str">
         <f>"Dim rFindResult As Range
@@ -10981,16 +10986,16 @@
 Set rFindResult = shTrgtSht.Cells.Find(sFindKeyword, LookAt:=xlWhole)</v>
       </c>
       <c r="E360" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="361" spans="1:6" outlineLevel="1">
       <c r="A361" s="2"/>
       <c r="B361" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C361" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D361" s="2" t="str">
         <f>"If rFindResult Is Nothing Then
@@ -11011,7 +11016,7 @@
 End If</v>
       </c>
       <c r="E361" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="362" spans="1:6" outlineLevel="1">
@@ -11020,7 +11025,7 @@
       <c r="C362" s="10"/>
       <c r="D362" s="10"/>
       <c r="E362" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="363" spans="1:6" outlineLevel="1">
@@ -11029,7 +11034,7 @@
       <c r="C363" s="10"/>
       <c r="D363" s="10"/>
       <c r="E363" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="364" spans="1:6" outlineLevel="1">
@@ -11038,7 +11043,7 @@
       <c r="C364" s="10"/>
       <c r="D364" s="10"/>
       <c r="E364" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="365" spans="1:6" outlineLevel="1">
@@ -11047,7 +11052,7 @@
       <c r="C365" s="10"/>
       <c r="D365" s="10"/>
       <c r="E365" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="366" spans="1:6" outlineLevel="1">
@@ -11056,7 +11061,7 @@
       <c r="C366" s="10"/>
       <c r="D366" s="10"/>
       <c r="E366" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="367" spans="1:6" outlineLevel="1">
@@ -11065,7 +11070,7 @@
       <c r="C367" s="10"/>
       <c r="D367" s="10"/>
       <c r="E367" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="368" spans="1:6" outlineLevel="1">
@@ -11074,7 +11079,7 @@
       <c r="C368" s="10"/>
       <c r="D368" s="10"/>
       <c r="E368" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="369" spans="1:5" outlineLevel="1">
@@ -11083,7 +11088,7 @@
       <c r="C369" s="10"/>
       <c r="D369" s="10"/>
       <c r="E369" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="370" spans="1:5" outlineLevel="1">
@@ -11092,7 +11097,7 @@
       <c r="C370" s="10"/>
       <c r="D370" s="10"/>
       <c r="E370" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="371" spans="1:5" outlineLevel="1">
@@ -11101,7 +11106,7 @@
       <c r="C371" s="10"/>
       <c r="D371" s="10"/>
       <c r="E371" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="372" spans="1:5" outlineLevel="1">
@@ -11110,7 +11115,7 @@
       <c r="C372" s="10"/>
       <c r="D372" s="10"/>
       <c r="E372" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="373" spans="1:5" outlineLevel="1">
@@ -11119,7 +11124,7 @@
       <c r="C373" s="10"/>
       <c r="D373" s="10"/>
       <c r="E373" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="374" spans="1:5" outlineLevel="1">
@@ -11128,24 +11133,24 @@
       <c r="C374" s="10"/>
       <c r="D374" s="10"/>
       <c r="E374" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="376" spans="1:5">
       <c r="A376" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D376" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E376" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
   </sheetData>
@@ -11192,179 +11197,179 @@
       <c r="C1" s="28"/>
       <c r="D1" s="18"/>
       <c r="E1" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="27">
       <c r="A2" s="14" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="19" t="s">
-        <v>127</v>
-      </c>
       <c r="E2" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="20" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:5" outlineLevel="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="5" spans="1:5" outlineLevel="1">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:5" outlineLevel="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:5" outlineLevel="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:5" outlineLevel="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="9" spans="1:5" outlineLevel="1">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="94.5" outlineLevel="1">
       <c r="A10" s="2"/>
       <c r="B10" s="32" t="s">
+        <v>653</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="D10" s="30" t="s">
         <v>655</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>656</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="11" spans="1:5" outlineLevel="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="12" spans="1:5" outlineLevel="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="13" spans="1:5" outlineLevel="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="14" spans="1:5" outlineLevel="1">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>649</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>650</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="81" outlineLevel="1">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="D15" s="30" t="s">
         <v>652</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>653</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="16" spans="1:5" outlineLevel="1">
@@ -11373,94 +11378,94 @@
         <v>15</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:5" outlineLevel="1">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:5" outlineLevel="1">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:5" outlineLevel="1">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:5" outlineLevel="1">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:5" outlineLevel="1">
       <c r="A21" s="2"/>
       <c r="B21" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:5" outlineLevel="1">
       <c r="A22" s="2"/>
       <c r="B22" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:5" outlineLevel="1">
       <c r="A23" s="2"/>
       <c r="B23" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:5" outlineLevel="1">
@@ -11469,316 +11474,316 @@
         <v>13</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:5" outlineLevel="1">
       <c r="A25" s="2"/>
       <c r="B25" s="2" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:5" outlineLevel="1">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:5" outlineLevel="1">
       <c r="A27" s="2"/>
       <c r="B27" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:5" outlineLevel="1">
       <c r="A28" s="2"/>
       <c r="B28" s="2" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:5" outlineLevel="1">
       <c r="A29" s="2"/>
       <c r="B29" s="2" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:5" outlineLevel="1">
       <c r="A30" s="2"/>
       <c r="B30" s="2" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C30" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>661</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="31" spans="1:5" outlineLevel="1">
       <c r="A31" s="2"/>
       <c r="B31" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>660</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="D31" s="5" t="s">
         <v>662</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="20" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
       <c r="D32" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33" spans="1:5" outlineLevel="1">
       <c r="A33" s="2"/>
       <c r="B33" s="2" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D33" s="5"/>
     </row>
     <row r="34" spans="1:5" outlineLevel="1">
       <c r="A34" s="2"/>
       <c r="B34" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D34" s="5"/>
     </row>
     <row r="35" spans="1:5" outlineLevel="1">
       <c r="A35" s="2"/>
       <c r="B35" s="2" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D35" s="5"/>
     </row>
     <row r="36" spans="1:5" outlineLevel="1">
       <c r="A36" s="2"/>
       <c r="B36" s="2" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D36" s="5"/>
     </row>
     <row r="37" spans="1:5" outlineLevel="1">
       <c r="A37" s="2"/>
       <c r="B37" s="2" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D37" s="5"/>
     </row>
     <row r="38" spans="1:5" outlineLevel="1">
       <c r="A38" s="2"/>
       <c r="B38" s="2" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D38" s="5"/>
     </row>
     <row r="39" spans="1:5" outlineLevel="1">
       <c r="A39" s="2"/>
       <c r="B39" s="2" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D39" s="5"/>
     </row>
     <row r="40" spans="1:5" outlineLevel="1">
       <c r="A40" s="2"/>
       <c r="B40" s="2" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="20" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
       <c r="D41" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42" spans="1:5" outlineLevel="1">
       <c r="A42" s="2"/>
       <c r="B42" s="3" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C42" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="D42" s="5" t="s">
         <v>587</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="43" spans="1:5" outlineLevel="1">
       <c r="A43" s="2"/>
       <c r="B43" s="3" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="44" spans="1:5" outlineLevel="1">
       <c r="A44" s="2"/>
       <c r="B44" s="3" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="45" spans="1:5" outlineLevel="1">
       <c r="A45" s="2"/>
       <c r="B45" s="3" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="46" spans="1:5" outlineLevel="1">
       <c r="A46" s="2"/>
       <c r="B46" s="3" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C46" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="D46" s="5" t="s">
         <v>596</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="47" spans="1:5" outlineLevel="1">
       <c r="A47" s="2"/>
       <c r="B47" s="3" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C47" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="D47" s="5" t="s">
         <v>599</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="48" spans="1:5" outlineLevel="1">
       <c r="A48" s="2"/>
       <c r="B48" s="3" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C48" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="D48" s="5" t="s">
         <v>602</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="49" spans="1:5" outlineLevel="1">
       <c r="A49" s="2"/>
       <c r="B49" s="3" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C49" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="D49" s="5" t="s">
         <v>605</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="50" spans="1:5" outlineLevel="1">
       <c r="A50" s="2"/>
       <c r="B50" s="3" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C50" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="D50" s="5" t="s">
         <v>608</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="27" outlineLevel="1">
       <c r="A51" s="2"/>
       <c r="B51" s="2" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C51" s="31" t="str">
         <f>"set CUR_DIR_PATH=%~dp0
@@ -11787,68 +11792,68 @@
 for %%1 in ("%CUR_DIR_PATH:~0,-1%") do set DIR_NAME=%%~nx1\</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="52" spans="1:5" outlineLevel="1">
       <c r="A52" s="2"/>
       <c r="B52" s="3" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C52" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="D52" s="5" t="s">
         <v>611</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="53" spans="1:5" outlineLevel="1">
       <c r="A53" s="2"/>
       <c r="B53" s="3" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C53" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="D53" s="5" t="s">
         <v>614</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="54" spans="1:5" outlineLevel="1">
       <c r="A54" s="2"/>
       <c r="B54" s="3" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C54" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="D54" s="5" t="s">
         <v>617</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="55" spans="1:5" outlineLevel="1">
       <c r="A55" s="2"/>
       <c r="B55" s="3" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C55" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="D55" s="5" t="s">
         <v>620</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="20" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
       <c r="D56" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="94.5" outlineLevel="1">
@@ -11857,262 +11862,262 @@
         <v>48</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D57" s="30" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="58" spans="1:5" outlineLevel="1">
       <c r="A58" s="2"/>
       <c r="B58" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="59" spans="1:5" outlineLevel="1">
       <c r="A59" s="2"/>
       <c r="B59" s="2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="60" spans="1:5" outlineLevel="1">
       <c r="A60" s="2"/>
       <c r="B60" s="2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D60" s="30" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="61" spans="1:5" outlineLevel="1">
       <c r="A61" s="2"/>
       <c r="B61" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="40.5" outlineLevel="1">
       <c r="A62" s="2"/>
       <c r="B62" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D62" s="30" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="63" spans="1:5" outlineLevel="1">
       <c r="A63" s="2"/>
       <c r="B63" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D63" s="30" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="135" outlineLevel="1">
       <c r="A64" s="2"/>
       <c r="B64" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D64" s="30" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="94.5" outlineLevel="1">
       <c r="A65" s="2"/>
       <c r="B65" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D65" s="30" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="66" spans="1:4" outlineLevel="1">
       <c r="A66" s="2"/>
       <c r="B66" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="67" spans="1:4" outlineLevel="1">
       <c r="A67" s="2"/>
       <c r="B67" s="2" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="68" spans="1:4" outlineLevel="1">
       <c r="A68" s="2"/>
       <c r="B68" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D68" s="30" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="69" spans="1:4" outlineLevel="1">
       <c r="A69" s="2"/>
       <c r="B69" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D69" s="30" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="70" spans="1:4" outlineLevel="1">
       <c r="A70" s="2"/>
       <c r="B70" s="2" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D70" s="30" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="27" outlineLevel="1">
       <c r="A71" s="2"/>
       <c r="B71" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="D71" s="30" t="s">
         <v>575</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>576</v>
-      </c>
-      <c r="D71" s="30" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="72" spans="1:4" outlineLevel="1">
       <c r="A72" s="2"/>
       <c r="B72" s="2" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="73" spans="1:4" outlineLevel="1">
       <c r="A73" s="2"/>
       <c r="B73" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="74" spans="1:4" outlineLevel="1">
       <c r="A74" s="2"/>
       <c r="B74" s="2" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="75" spans="1:4" outlineLevel="1">
       <c r="A75" s="2"/>
       <c r="B75" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="76" spans="1:4" outlineLevel="1">
       <c r="A76" s="2"/>
       <c r="B76" s="2" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="77" spans="1:4" outlineLevel="1">
       <c r="A77" s="2"/>
       <c r="B77" s="2" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="78" spans="1:4" outlineLevel="1">
       <c r="A78" s="2"/>
       <c r="B78" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="79" spans="1:4" outlineLevel="1">
@@ -12165,16 +12170,16 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/言語チートシート.xlsx
+++ b/言語チートシート.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9,9 +9,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51043C5D-636B-45A4-9864-BDA93A552F4D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A2DCAA9-A948-4292-8151-41A301EF2205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="-120" windowWidth="26700" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1980" yWindow="-120" windowWidth="26940" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vbs,vba" sheetId="43" r:id="rId1"/>
@@ -136,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1565" uniqueCount="733">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="742">
   <si>
     <t>変数強制定義</t>
   </si>
@@ -1889,22 +1889,6 @@
     <t>oMatchResult.Count</t>
   </si>
   <si>
-    <t>検索結果 ヒット数取得</t>
-    <rPh sb="0" eb="2">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>スウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>検索結果 サブマッチ数取得</t>
     <rPh sb="0" eb="2">
       <t>ケンサク</t>
@@ -1916,22 +1900,6 @@
       <t>スウ</t>
     </rPh>
     <rPh sb="11" eb="13">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>検索結果 結果取得</t>
-    <rPh sb="0" eb="2">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
       <t>シュトク</t>
     </rPh>
     <phoneticPr fontId="3"/>
@@ -3178,6 +3146,108 @@
   </si>
   <si>
     <t>a.txt</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>検索結果 マッチ位置取得</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>oMatchResult(2).FirstIndex</t>
+  </si>
+  <si>
+    <t>oMatchResult(2).FirstIndex</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>検索結果 マッチ長取得</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>チョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>oMatchResult(2).Length</t>
+  </si>
+  <si>
+    <t>oMatchResult(2).Length</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>39（0オリジン）</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>19（1オリジン）</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>検索結果 マッチ数取得</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>検索結果 サブマッチ文字列取得</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>検索結果 マッチ文字列取得</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュトク</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -3425,7 +3495,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
@@ -3530,6 +3600,9 @@
     </xf>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3875,13 +3948,13 @@
   <sheetPr codeName="Sheet1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F376"/>
+  <dimension ref="A1:F378"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C191" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C217" sqref="C217"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -4498,7 +4571,7 @@
     <row r="29" spans="1:6" outlineLevel="1">
       <c r="A29" s="2"/>
       <c r="B29" s="3" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C29" s="4" t="str">
         <f>"sStr = InputBox(""数値を入力してください。"")
@@ -4753,16 +4826,16 @@
     <row r="40" spans="1:6" outlineLevel="1">
       <c r="A40" s="2"/>
       <c r="B40" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>727</v>
       </c>
-      <c r="C40" s="4" t="s">
-        <v>729</v>
-      </c>
       <c r="D40" s="22" t="s">
         <v>399</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="F40" s="11" t="s">
         <v>122</v>
@@ -4771,10 +4844,10 @@
     <row r="41" spans="1:6" outlineLevel="1">
       <c r="A41" s="2"/>
       <c r="B41" s="2" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="D41" s="22" t="s">
         <v>399</v>
@@ -5824,16 +5897,16 @@
     <row r="94" spans="1:6" outlineLevel="1">
       <c r="A94" s="2"/>
       <c r="B94" s="2" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="F94" s="11" t="s">
         <v>122</v>
@@ -5842,16 +5915,16 @@
     <row r="95" spans="1:6" outlineLevel="1">
       <c r="A95" s="2"/>
       <c r="B95" s="2" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C95" s="10" t="s">
+        <v>704</v>
+      </c>
+      <c r="D95" s="4" t="s">
         <v>706</v>
       </c>
-      <c r="D95" s="4" t="s">
-        <v>708</v>
-      </c>
       <c r="E95" s="5" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="F95" s="11" t="s">
         <v>122</v>
@@ -5860,16 +5933,16 @@
     <row r="96" spans="1:6" outlineLevel="1">
       <c r="A96" s="2"/>
       <c r="B96" s="2" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="D96" s="34" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="F96" s="11" t="s">
         <v>122</v>
@@ -5878,13 +5951,13 @@
     <row r="97" spans="1:6" outlineLevel="1">
       <c r="A97" s="2"/>
       <c r="B97" s="2" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="D97" s="33" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="E97" s="5"/>
       <c r="F97" s="11" t="s">
@@ -6039,7 +6112,7 @@
     <row r="106" spans="1:6" outlineLevel="1">
       <c r="A106" s="2"/>
       <c r="B106" s="2" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C106" s="4" t="str">
         <f>"Dim objTxtFile"</f>
@@ -6058,7 +6131,7 @@
     <row r="107" spans="1:6" outlineLevel="1">
       <c r="A107" s="2"/>
       <c r="B107" s="2" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C107" s="4" t="str">
         <f>"Set objTxtFile = objFSO.OpenTextFile(""c:\codes\test\a.txt"", 1, True)"</f>
@@ -6077,7 +6150,7 @@
     <row r="108" spans="1:6" outlineLevel="1">
       <c r="A108" s="2"/>
       <c r="B108" s="2" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C108" s="4" t="str">
         <f>"objTxtFile.Close"</f>
@@ -6094,7 +6167,7 @@
     <row r="109" spans="1:6" outlineLevel="1">
       <c r="A109" s="2"/>
       <c r="B109" s="2" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C109" s="4" t="str">
         <f>"Do Until objTxtFile.AtEndOfStream"&amp;CHAR(10)&amp;"strLine = objTxtFile.ReadLine"&amp;CHAR(10)&amp;"Loop"</f>
@@ -6118,7 +6191,7 @@
     <row r="110" spans="1:6" outlineLevel="1">
       <c r="A110" s="2"/>
       <c r="B110" s="2" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C110" s="4" t="str">
         <f>"sTextAll = objTxtFile.ReadAll"</f>
@@ -6138,7 +6211,7 @@
     <row r="111" spans="1:6" outlineLevel="1">
       <c r="A111" s="2"/>
       <c r="B111" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C111" s="4" t="str">
         <f>"objTxtFile.WriteLine strLine"</f>
@@ -6158,7 +6231,7 @@
     <row r="112" spans="1:6" outlineLevel="1">
       <c r="A112" s="2"/>
       <c r="B112" s="2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C112" s="10" t="str">
         <f>"Dim adoStrm
@@ -6173,7 +6246,7 @@
 Set adoStrm = CreateObject("ADODB.Stream")</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="F112" s="11" t="s">
         <v>122</v>
@@ -6182,16 +6255,16 @@
     <row r="113" spans="1:6" outlineLevel="1">
       <c r="A113" s="2"/>
       <c r="B113" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="F113" s="11" t="s">
         <v>122</v>
@@ -6200,16 +6273,16 @@
     <row r="114" spans="1:6" outlineLevel="1">
       <c r="A114" s="2"/>
       <c r="B114" s="2" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="F114" s="11" t="s">
         <v>122</v>
@@ -6218,16 +6291,16 @@
     <row r="115" spans="1:6" outlineLevel="1">
       <c r="A115" s="2"/>
       <c r="B115" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="F115" s="11" t="s">
         <v>122</v>
@@ -6236,7 +6309,7 @@
     <row r="116" spans="1:6" outlineLevel="1">
       <c r="A116" s="2"/>
       <c r="B116" s="2" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="C116" s="10" t="str">
         <f>"adoStrm.Open
@@ -6258,16 +6331,16 @@
     <row r="117" spans="1:6" outlineLevel="1">
       <c r="A117" s="2"/>
       <c r="B117" s="2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="F117" s="11" t="s">
         <v>122</v>
@@ -6276,7 +6349,7 @@
     <row r="118" spans="1:6" outlineLevel="1">
       <c r="A118" s="2"/>
       <c r="B118" s="2" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C118" s="10" t="str">
         <f>"Do Until adoStrm.EOS
@@ -6295,7 +6368,7 @@
 Loop</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="F118" s="11" t="s">
         <v>122</v>
@@ -6304,7 +6377,7 @@
     <row r="119" spans="1:6" outlineLevel="1">
       <c r="A119" s="2"/>
       <c r="B119" s="2" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C119" s="10" t="str">
         <f>"Dim vFile
@@ -6335,7 +6408,7 @@
 Next</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="F119" s="11" t="s">
         <v>122</v>
@@ -6344,16 +6417,16 @@
     <row r="120" spans="1:6" outlineLevel="1">
       <c r="A120" s="2"/>
       <c r="B120" s="2" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C120" s="31" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="D120" s="31" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="F120" s="11" t="s">
         <v>122</v>
@@ -6362,16 +6435,16 @@
     <row r="121" spans="1:6" outlineLevel="1">
       <c r="A121" s="2"/>
       <c r="B121" s="2" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C121" s="31" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D121" s="31" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="F121" s="11" t="s">
         <v>122</v>
@@ -6380,16 +6453,16 @@
     <row r="122" spans="1:6" outlineLevel="1">
       <c r="A122" s="2"/>
       <c r="B122" s="2" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C122" s="4" t="s">
+        <v>665</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>665</v>
+      </c>
+      <c r="E122" s="5" t="s">
         <v>667</v>
-      </c>
-      <c r="D122" s="4" t="s">
-        <v>667</v>
-      </c>
-      <c r="E122" s="5" t="s">
-        <v>669</v>
       </c>
       <c r="F122" s="11" t="s">
         <v>122</v>
@@ -6398,7 +6471,7 @@
     <row r="123" spans="1:6" outlineLevel="1">
       <c r="A123" s="2"/>
       <c r="B123" s="2" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C123" s="22" t="s">
         <v>399</v>
@@ -7404,7 +7477,7 @@
         <v>138</v>
       </c>
       <c r="C174" s="4" t="str">
-        <f>C261</f>
+        <f>C263</f>
         <v>objWshShell.Exec( "clip" ).StdIn.Write( "テキスト" )</v>
       </c>
       <c r="D174" s="23" t="s">
@@ -7421,7 +7494,7 @@
         <v>139</v>
       </c>
       <c r="C175" s="4" t="str">
-        <f>C262</f>
+        <f>C264</f>
         <v>CreateObject("htmlfile").ParentWindow.Clipboarddata.GetData("text")</v>
       </c>
       <c r="D175" s="23" t="s">
@@ -7692,7 +7765,7 @@
     <row r="189" spans="1:6" outlineLevel="1">
       <c r="A189" s="2"/>
       <c r="B189" s="2" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C189" s="4" t="str">
         <f>"objFSO.GetFileName( ""C:\codes\a.txt"" )"</f>
@@ -7703,7 +7776,7 @@
         <v>objFSO.GetFileName( "C:\codes\a.txt" )</v>
       </c>
       <c r="E189" s="5" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="F189" s="11" t="s">
         <v>122</v>
@@ -7927,7 +8000,7 @@
     </row>
     <row r="201" spans="1:6">
       <c r="A201" s="20" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B201" s="8"/>
       <c r="C201" s="8"/>
@@ -7966,7 +8039,7 @@
     <row r="203" spans="1:6" outlineLevel="1">
       <c r="A203" s="2"/>
       <c r="B203" s="2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C203" s="26" t="str">
         <f>"Dim sTargetStr
@@ -7981,7 +8054,7 @@
 sTargetStr = "TestFunc(int bbb) TestFunc01(char aaa) TestFunc02(int bbb)"</v>
       </c>
       <c r="E203" s="5" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="F203" s="11" t="s">
         <v>122</v>
@@ -7990,7 +8063,7 @@
     <row r="204" spans="1:6" outlineLevel="1">
       <c r="A204" s="2"/>
       <c r="B204" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C204" s="26" t="str">
         <f>"Dim sSearchPattern
@@ -8009,7 +8082,7 @@
 oRegExp.Pattern = sSearchPattern</v>
       </c>
       <c r="E204" s="5" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="F204" s="11" t="s">
         <v>122</v>
@@ -8018,16 +8091,16 @@
     <row r="205" spans="1:6" outlineLevel="1">
       <c r="A205" s="2"/>
       <c r="B205" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C205" s="27" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D205" s="10" t="s">
         <v>467</v>
       </c>
       <c r="E205" s="5" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F205" s="11" t="s">
         <v>122</v>
@@ -8036,10 +8109,10 @@
     <row r="206" spans="1:6" outlineLevel="1">
       <c r="A206" s="2"/>
       <c r="B206" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C206" s="26" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D206" s="10" t="s">
         <v>468</v>
@@ -8078,16 +8151,16 @@
     <row r="208" spans="1:6" outlineLevel="1">
       <c r="A208" s="2"/>
       <c r="B208" s="2" t="s">
-        <v>470</v>
+        <v>739</v>
       </c>
       <c r="C208" s="26" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D208" s="10" t="s">
         <v>469</v>
       </c>
       <c r="E208" s="5" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F208" s="11" t="s">
         <v>122</v>
@@ -8096,16 +8169,16 @@
     <row r="209" spans="1:6" outlineLevel="1">
       <c r="A209" s="2"/>
       <c r="B209" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C209" s="26" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D209" s="10" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E209" s="5" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F209" s="11" t="s">
         <v>122</v>
@@ -8114,16 +8187,16 @@
     <row r="210" spans="1:6" outlineLevel="1">
       <c r="A210" s="2"/>
       <c r="B210" s="2" t="s">
-        <v>472</v>
+        <v>741</v>
       </c>
       <c r="C210" s="26" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D210" s="10" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E210" s="5" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F210" s="11" t="s">
         <v>122</v>
@@ -8132,16 +8205,16 @@
     <row r="211" spans="1:6" outlineLevel="1">
       <c r="A211" s="2"/>
       <c r="B211" s="2" t="s">
-        <v>472</v>
+        <v>740</v>
       </c>
       <c r="C211" s="26" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D211" s="10" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E211" s="5" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="F211" s="11" t="s">
         <v>122</v>
@@ -8150,93 +8223,95 @@
     <row r="212" spans="1:6" outlineLevel="1">
       <c r="A212" s="2"/>
       <c r="B212" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="C212" s="26" t="str">
+        <v>731</v>
+      </c>
+      <c r="C212" s="26" t="s">
+        <v>733</v>
+      </c>
+      <c r="D212" s="10" t="s">
+        <v>732</v>
+      </c>
+      <c r="E212" s="35" t="s">
+        <v>737</v>
+      </c>
+      <c r="F212" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" outlineLevel="1">
+      <c r="A213" s="2"/>
+      <c r="B213" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="C213" s="26" t="s">
+        <v>735</v>
+      </c>
+      <c r="D213" s="10" t="s">
+        <v>736</v>
+      </c>
+      <c r="E213" s="35" t="s">
+        <v>738</v>
+      </c>
+      <c r="F213" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" outlineLevel="1">
+      <c r="A214" s="2"/>
+      <c r="B214" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="C214" s="26" t="str">
         <f>"Dim sReplacePattern
 sReplacePattern = ""型名:$2"""</f>
         <v>Dim sReplacePattern
 sReplacePattern = "型名:$2"</v>
       </c>
-      <c r="D212" s="10" t="str">
+      <c r="D214" s="10" t="str">
         <f>"Dim sReplacePattern As String
 sReplacePattern = ""型名:$2"""</f>
         <v>Dim sReplacePattern As String
 sReplacePattern = "型名:$2"</v>
       </c>
-      <c r="E212" s="5"/>
-      <c r="F212" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" outlineLevel="1">
-      <c r="A213" s="2"/>
-      <c r="B213" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="C213" s="26" t="str">
+      <c r="E214" s="5"/>
+      <c r="F214" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" outlineLevel="1">
+      <c r="A215" s="2"/>
+      <c r="B215" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="C215" s="26" t="str">
         <f>"Dim sReplaceResult
 oRegExp.Replace(sTargetStr, sReplacePattern)"</f>
         <v>Dim sReplaceResult
 oRegExp.Replace(sTargetStr, sReplacePattern)</v>
       </c>
-      <c r="D213" s="10" t="str">
+      <c r="D215" s="10" t="str">
         <f>"Dim sReplaceResult As String
 sReplaceResult = oRegExp.Replace(sTargetStr, sReplacePattern)"</f>
         <v>Dim sReplaceResult As String
 sReplaceResult = oRegExp.Replace(sTargetStr, sReplacePattern)</v>
       </c>
-      <c r="E213" s="5" t="s">
-        <v>488</v>
-      </c>
-      <c r="F213" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6">
-      <c r="A214" s="20" t="s">
+      <c r="E215" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="F215" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216" s="20" t="s">
         <v>400</v>
       </c>
-      <c r="B214" s="8"/>
-      <c r="C214" s="8"/>
-      <c r="D214" s="8"/>
-      <c r="E214" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="F214" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" outlineLevel="1">
-      <c r="A215" s="2"/>
-      <c r="B215" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C215" s="4" t="str">
-        <f>"WScript.ScriptFullName"</f>
-        <v>WScript.ScriptFullName</v>
-      </c>
-      <c r="D215" s="25" t="s">
-        <v>422</v>
-      </c>
-      <c r="E215" s="5"/>
-      <c r="F215" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" outlineLevel="1">
-      <c r="A216" s="2"/>
-      <c r="B216" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C216" s="4" t="str">
-        <f>"WScript.ScriptName"</f>
-        <v>WScript.ScriptName</v>
-      </c>
-      <c r="D216" s="25" t="s">
-        <v>420</v>
-      </c>
-      <c r="E216" s="5"/>
+      <c r="B216" s="8"/>
+      <c r="C216" s="8"/>
+      <c r="D216" s="8"/>
+      <c r="E216" s="21" t="s">
+        <v>122</v>
+      </c>
       <c r="F216" s="11" t="s">
         <v>122</v>
       </c>
@@ -8244,14 +8319,14 @@
     <row r="217" spans="1:6" outlineLevel="1">
       <c r="A217" s="2"/>
       <c r="B217" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C217" s="4" t="str">
-        <f>"Mid( WScript.ScriptName, 1, InStrRev( WScript.ScriptName, ""."" ) - 1 )"</f>
-        <v>Mid( WScript.ScriptName, 1, InStrRev( WScript.ScriptName, "." ) - 1 )</v>
-      </c>
-      <c r="D217" s="22" t="s">
-        <v>399</v>
+        <f>"WScript.ScriptFullName"</f>
+        <v>WScript.ScriptFullName</v>
+      </c>
+      <c r="D217" s="25" t="s">
+        <v>422</v>
       </c>
       <c r="E217" s="5"/>
       <c r="F217" s="11" t="s">
@@ -8261,14 +8336,14 @@
     <row r="218" spans="1:6" outlineLevel="1">
       <c r="A218" s="2"/>
       <c r="B218" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C218" s="4" t="str">
-        <f>"objFSO.GetBaseName( WScript.ScriptName )"</f>
-        <v>objFSO.GetBaseName( WScript.ScriptName )</v>
-      </c>
-      <c r="D218" s="22" t="s">
-        <v>399</v>
+        <f>"WScript.ScriptName"</f>
+        <v>WScript.ScriptName</v>
+      </c>
+      <c r="D218" s="25" t="s">
+        <v>420</v>
       </c>
       <c r="E218" s="5"/>
       <c r="F218" s="11" t="s">
@@ -8278,14 +8353,14 @@
     <row r="219" spans="1:6" outlineLevel="1">
       <c r="A219" s="2"/>
       <c r="B219" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C219" s="4" t="str">
-        <f>"Replace( WScript.ScriptFullName, ""\"" &amp; WScript.ScriptName, """" )"</f>
-        <v>Replace( WScript.ScriptFullName, "\" &amp; WScript.ScriptName, "" )</v>
-      </c>
-      <c r="D219" s="10" t="s">
-        <v>421</v>
+        <f>"Mid( WScript.ScriptName, 1, InStrRev( WScript.ScriptName, ""."" ) - 1 )"</f>
+        <v>Mid( WScript.ScriptName, 1, InStrRev( WScript.ScriptName, "." ) - 1 )</v>
+      </c>
+      <c r="D219" s="22" t="s">
+        <v>399</v>
       </c>
       <c r="E219" s="5"/>
       <c r="F219" s="11" t="s">
@@ -8295,11 +8370,11 @@
     <row r="220" spans="1:6" outlineLevel="1">
       <c r="A220" s="2"/>
       <c r="B220" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C220" s="4" t="str">
-        <f>"objFSO.GetParentFolderName( WScript.ScriptFullName )"</f>
-        <v>objFSO.GetParentFolderName( WScript.ScriptFullName )</v>
+        <f>"objFSO.GetBaseName( WScript.ScriptName )"</f>
+        <v>objFSO.GetBaseName( WScript.ScriptName )</v>
       </c>
       <c r="D220" s="22" t="s">
         <v>399</v>
@@ -8309,16 +8384,19 @@
         <v>122</v>
       </c>
     </row>
-    <row r="221" spans="1:6">
-      <c r="A221" s="20" t="s">
-        <v>401</v>
-      </c>
-      <c r="B221" s="8"/>
-      <c r="C221" s="8"/>
-      <c r="D221" s="8"/>
-      <c r="E221" s="21" t="s">
-        <v>122</v>
-      </c>
+    <row r="221" spans="1:6" outlineLevel="1">
+      <c r="A221" s="2"/>
+      <c r="B221" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C221" s="4" t="str">
+        <f>"Replace( WScript.ScriptFullName, ""\"" &amp; WScript.ScriptName, """" )"</f>
+        <v>Replace( WScript.ScriptFullName, "\" &amp; WScript.ScriptName, "" )</v>
+      </c>
+      <c r="D221" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="E221" s="5"/>
       <c r="F221" s="11" t="s">
         <v>122</v>
       </c>
@@ -8326,54 +8404,47 @@
     <row r="222" spans="1:6" outlineLevel="1">
       <c r="A222" s="2"/>
       <c r="B222" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C222" s="4" t="str">
+        <f>"objFSO.GetParentFolderName( WScript.ScriptFullName )"</f>
+        <v>objFSO.GetParentFolderName( WScript.ScriptFullName )</v>
+      </c>
+      <c r="D222" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="E222" s="5"/>
+      <c r="F222" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
+      <c r="A223" s="20" t="s">
+        <v>401</v>
+      </c>
+      <c r="B223" s="8"/>
+      <c r="C223" s="8"/>
+      <c r="D223" s="8"/>
+      <c r="E223" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="F223" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" outlineLevel="1">
+      <c r="A224" s="2"/>
+      <c r="B224" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="C222" s="22" t="s">
-        <v>399</v>
-      </c>
-      <c r="D222" s="4" t="str">
+      <c r="C224" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="D224" s="4" t="str">
         <f>"Dim oChartObj As ChartObject"&amp;CHAR(10)&amp;"Set oChartObj = ThisWorkbook.Sheets(シート名).ChartObjects(1)"</f>
         <v>Dim oChartObj As ChartObject
 Set oChartObj = ThisWorkbook.Sheets(シート名).ChartObjects(1)</v>
       </c>
-      <c r="E222" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F222" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" outlineLevel="1">
-      <c r="A223" s="2"/>
-      <c r="B223" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C223" s="22" t="s">
-        <v>399</v>
-      </c>
-      <c r="D223" s="4" t="str">
-        <f>"Set oChartObj = .Sheets(シート名).ChartObjects.Add( XPOS, YPOS, WIDTH, HEIGHT )"</f>
-        <v>Set oChartObj = .Sheets(シート名).ChartObjects.Add( XPOS, YPOS, WIDTH, HEIGHT )</v>
-      </c>
-      <c r="E223" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="F223" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" outlineLevel="1">
-      <c r="A224" s="2"/>
-      <c r="B224" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C224" s="22" t="s">
-        <v>399</v>
-      </c>
-      <c r="D224" s="4" t="str">
-        <f>"oChartObj.Delete"</f>
-        <v>oChartObj.Delete</v>
-      </c>
       <c r="E224" s="5" t="s">
         <v>122</v>
       </c>
@@ -8384,17 +8455,17 @@
     <row r="225" spans="1:6" outlineLevel="1">
       <c r="A225" s="2"/>
       <c r="B225" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C225" s="22" t="s">
         <v>399</v>
       </c>
       <c r="D225" s="4" t="str">
-        <f>"oChartObj.Chart.ChartArea.Copy"</f>
-        <v>oChartObj.Chart.ChartArea.Copy</v>
+        <f>"Set oChartObj = .Sheets(シート名).ChartObjects.Add( XPOS, YPOS, WIDTH, HEIGHT )"</f>
+        <v>Set oChartObj = .Sheets(シート名).ChartObjects.Add( XPOS, YPOS, WIDTH, HEIGHT )</v>
       </c>
       <c r="E225" s="5" t="s">
-        <v>122</v>
+        <v>307</v>
       </c>
       <c r="F225" s="11" t="s">
         <v>122</v>
@@ -8403,14 +8474,14 @@
     <row r="226" spans="1:6" outlineLevel="1">
       <c r="A226" s="2"/>
       <c r="B226" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C226" s="22" t="s">
         <v>399</v>
       </c>
       <c r="D226" s="4" t="str">
-        <f>"oChartObj.Top = 10"</f>
-        <v>oChartObj.Top = 10</v>
+        <f>"oChartObj.Delete"</f>
+        <v>oChartObj.Delete</v>
       </c>
       <c r="E226" s="5" t="s">
         <v>122</v>
@@ -8422,14 +8493,14 @@
     <row r="227" spans="1:6" outlineLevel="1">
       <c r="A227" s="2"/>
       <c r="B227" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C227" s="22" t="s">
         <v>399</v>
       </c>
       <c r="D227" s="4" t="str">
-        <f>"oChartObj.Left = 20"</f>
-        <v>oChartObj.Left = 20</v>
+        <f>"oChartObj.Chart.ChartArea.Copy"</f>
+        <v>oChartObj.Chart.ChartArea.Copy</v>
       </c>
       <c r="E227" s="5" t="s">
         <v>122</v>
@@ -8441,14 +8512,14 @@
     <row r="228" spans="1:6" outlineLevel="1">
       <c r="A228" s="2"/>
       <c r="B228" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C228" s="22" t="s">
         <v>399</v>
       </c>
       <c r="D228" s="4" t="str">
-        <f>"oChartObj.Width = 200"</f>
-        <v>oChartObj.Width = 200</v>
+        <f>"oChartObj.Top = 10"</f>
+        <v>oChartObj.Top = 10</v>
       </c>
       <c r="E228" s="5" t="s">
         <v>122</v>
@@ -8460,14 +8531,14 @@
     <row r="229" spans="1:6" outlineLevel="1">
       <c r="A229" s="2"/>
       <c r="B229" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C229" s="22" t="s">
         <v>399</v>
       </c>
       <c r="D229" s="4" t="str">
-        <f>"oChartObj.Height = 300"</f>
-        <v>oChartObj.Height = 300</v>
+        <f>"oChartObj.Left = 20"</f>
+        <v>oChartObj.Left = 20</v>
       </c>
       <c r="E229" s="5" t="s">
         <v>122</v>
@@ -8479,17 +8550,17 @@
     <row r="230" spans="1:6" outlineLevel="1">
       <c r="A230" s="2"/>
       <c r="B230" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C230" s="22" t="s">
         <v>399</v>
       </c>
       <c r="D230" s="4" t="str">
-        <f>"oChartObj.Chart.ChartType = xlXYScatterLines"</f>
-        <v>oChartObj.Chart.ChartType = xlXYScatterLines</v>
+        <f>"oChartObj.Width = 200"</f>
+        <v>oChartObj.Width = 200</v>
       </c>
       <c r="E230" s="5" t="s">
-        <v>308</v>
+        <v>122</v>
       </c>
       <c r="F230" s="11" t="s">
         <v>122</v>
@@ -8498,17 +8569,17 @@
     <row r="231" spans="1:6" outlineLevel="1">
       <c r="A231" s="2"/>
       <c r="B231" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C231" s="22" t="s">
         <v>399</v>
       </c>
       <c r="D231" s="4" t="str">
-        <f>"oChartObj.Chart.SetSourceData Source:=Union(rXAxsRng, rDataRng)"</f>
-        <v>oChartObj.Chart.SetSourceData Source:=Union(rXAxsRng, rDataRng)</v>
+        <f>"oChartObj.Height = 300"</f>
+        <v>oChartObj.Height = 300</v>
       </c>
       <c r="E231" s="5" t="s">
-        <v>309</v>
+        <v>122</v>
       </c>
       <c r="F231" s="11" t="s">
         <v>122</v>
@@ -8517,17 +8588,17 @@
     <row r="232" spans="1:6" outlineLevel="1">
       <c r="A232" s="2"/>
       <c r="B232" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C232" s="22" t="s">
         <v>399</v>
       </c>
       <c r="D232" s="4" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).HasTitle = True"</f>
-        <v>oChartObj.Chart.Axes(xlCategory).HasTitle = True</v>
+        <f>"oChartObj.Chart.ChartType = xlXYScatterLines"</f>
+        <v>oChartObj.Chart.ChartType = xlXYScatterLines</v>
       </c>
       <c r="E232" s="5" t="s">
-        <v>122</v>
+        <v>308</v>
       </c>
       <c r="F232" s="11" t="s">
         <v>122</v>
@@ -8536,17 +8607,17 @@
     <row r="233" spans="1:6" outlineLevel="1">
       <c r="A233" s="2"/>
       <c r="B233" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C233" s="22" t="s">
         <v>399</v>
       </c>
       <c r="D233" s="4" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).AxisTitle.Text = ""Test Axis X"""</f>
-        <v>oChartObj.Chart.Axes(xlCategory).AxisTitle.Text = "Test Axis X"</v>
+        <f>"oChartObj.Chart.SetSourceData Source:=Union(rXAxsRng, rDataRng)"</f>
+        <v>oChartObj.Chart.SetSourceData Source:=Union(rXAxsRng, rDataRng)</v>
       </c>
       <c r="E233" s="5" t="s">
-        <v>122</v>
+        <v>309</v>
       </c>
       <c r="F233" s="11" t="s">
         <v>122</v>
@@ -8555,14 +8626,14 @@
     <row r="234" spans="1:6" outlineLevel="1">
       <c r="A234" s="2"/>
       <c r="B234" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C234" s="22" t="s">
         <v>399</v>
       </c>
       <c r="D234" s="4" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).HasMajorGridlines = True"</f>
-        <v>oChartObj.Chart.Axes(xlCategory).HasMajorGridlines = True</v>
+        <f>"oChartObj.Chart.Axes(xlCategory).HasTitle = True"</f>
+        <v>oChartObj.Chart.Axes(xlCategory).HasTitle = True</v>
       </c>
       <c r="E234" s="5" t="s">
         <v>122</v>
@@ -8574,14 +8645,14 @@
     <row r="235" spans="1:6" outlineLevel="1">
       <c r="A235" s="2"/>
       <c r="B235" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C235" s="22" t="s">
         <v>399</v>
       </c>
       <c r="D235" s="4" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.Color = RGB(217, 217, 217)"</f>
-        <v>oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.Color = RGB(217, 217, 217)</v>
+        <f>"oChartObj.Chart.Axes(xlCategory).AxisTitle.Text = ""Test Axis X"""</f>
+        <v>oChartObj.Chart.Axes(xlCategory).AxisTitle.Text = "Test Axis X"</v>
       </c>
       <c r="E235" s="5" t="s">
         <v>122</v>
@@ -8593,14 +8664,14 @@
     <row r="236" spans="1:6" outlineLevel="1">
       <c r="A236" s="2"/>
       <c r="B236" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C236" s="22" t="s">
         <v>399</v>
       </c>
       <c r="D236" s="4" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.Weight = 2"</f>
-        <v>oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.Weight = 2</v>
+        <f>"oChartObj.Chart.Axes(xlCategory).HasMajorGridlines = True"</f>
+        <v>oChartObj.Chart.Axes(xlCategory).HasMajorGridlines = True</v>
       </c>
       <c r="E236" s="5" t="s">
         <v>122</v>
@@ -8612,14 +8683,14 @@
     <row r="237" spans="1:6" outlineLevel="1">
       <c r="A237" s="2"/>
       <c r="B237" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C237" s="22" t="s">
         <v>399</v>
       </c>
       <c r="D237" s="4" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.LineStyle = (xlContinuous\|xlDot\|xlDouble\|xlLineStyleNone\|...)"</f>
-        <v>oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.LineStyle = (xlContinuous\|xlDot\|xlDouble\|xlLineStyleNone\|...)</v>
+        <f>"oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.Color = RGB(217, 217, 217)"</f>
+        <v>oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.Color = RGB(217, 217, 217)</v>
       </c>
       <c r="E237" s="5" t="s">
         <v>122</v>
@@ -8631,13 +8702,14 @@
     <row r="238" spans="1:6" outlineLevel="1">
       <c r="A238" s="2"/>
       <c r="B238" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C238" s="24" t="s">
-        <v>399</v>
-      </c>
-      <c r="D238" s="5" t="s">
-        <v>260</v>
+        <v>231</v>
+      </c>
+      <c r="C238" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="D238" s="4" t="str">
+        <f>"oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.Weight = 2"</f>
+        <v>oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.Weight = 2</v>
       </c>
       <c r="E238" s="5" t="s">
         <v>122</v>
@@ -8649,14 +8721,14 @@
     <row r="239" spans="1:6" outlineLevel="1">
       <c r="A239" s="2"/>
       <c r="B239" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C239" s="22" t="s">
         <v>399</v>
       </c>
       <c r="D239" s="4" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).MinimumScaleIsAuto = False"</f>
-        <v>oChartObj.Chart.Axes(xlCategory).MinimumScaleIsAuto = False</v>
+        <f>"oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.LineStyle = (xlContinuous\|xlDot\|xlDouble\|xlLineStyleNone\|...)"</f>
+        <v>oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.LineStyle = (xlContinuous\|xlDot\|xlDouble\|xlLineStyleNone\|...)</v>
       </c>
       <c r="E239" s="5" t="s">
         <v>122</v>
@@ -8668,14 +8740,13 @@
     <row r="240" spans="1:6" outlineLevel="1">
       <c r="A240" s="2"/>
       <c r="B240" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C240" s="22" t="s">
-        <v>399</v>
-      </c>
-      <c r="D240" s="4" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).MaximumScaleIsAuto = False"</f>
-        <v>oChartObj.Chart.Axes(xlCategory).MaximumScaleIsAuto = False</v>
+        <v>233</v>
+      </c>
+      <c r="C240" s="24" t="s">
+        <v>399</v>
+      </c>
+      <c r="D240" s="5" t="s">
+        <v>260</v>
       </c>
       <c r="E240" s="5" t="s">
         <v>122</v>
@@ -8687,14 +8758,14 @@
     <row r="241" spans="1:6" outlineLevel="1">
       <c r="A241" s="2"/>
       <c r="B241" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C241" s="22" t="s">
         <v>399</v>
       </c>
       <c r="D241" s="4" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).MinimumScale = 0"</f>
-        <v>oChartObj.Chart.Axes(xlCategory).MinimumScale = 0</v>
+        <f>"oChartObj.Chart.Axes(xlCategory).MinimumScaleIsAuto = False"</f>
+        <v>oChartObj.Chart.Axes(xlCategory).MinimumScaleIsAuto = False</v>
       </c>
       <c r="E241" s="5" t="s">
         <v>122</v>
@@ -8706,14 +8777,14 @@
     <row r="242" spans="1:6" outlineLevel="1">
       <c r="A242" s="2"/>
       <c r="B242" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C242" s="22" t="s">
         <v>399</v>
       </c>
       <c r="D242" s="4" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).MaximumScale = 100"</f>
-        <v>oChartObj.Chart.Axes(xlCategory).MaximumScale = 100</v>
+        <f>"oChartObj.Chart.Axes(xlCategory).MaximumScaleIsAuto = False"</f>
+        <v>oChartObj.Chart.Axes(xlCategory).MaximumScaleIsAuto = False</v>
       </c>
       <c r="E242" s="5" t="s">
         <v>122</v>
@@ -8725,14 +8796,14 @@
     <row r="243" spans="1:6" outlineLevel="1">
       <c r="A243" s="2"/>
       <c r="B243" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C243" s="22" t="s">
         <v>399</v>
       </c>
       <c r="D243" s="4" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).Crosses = (xlMinimum\|xlMaximum\|xlAutomatic)"</f>
-        <v>oChartObj.Chart.Axes(xlCategory).Crosses = (xlMinimum\|xlMaximum\|xlAutomatic)</v>
+        <f>"oChartObj.Chart.Axes(xlCategory).MinimumScale = 0"</f>
+        <v>oChartObj.Chart.Axes(xlCategory).MinimumScale = 0</v>
       </c>
       <c r="E243" s="5" t="s">
         <v>122</v>
@@ -8744,13 +8815,14 @@
     <row r="244" spans="1:6" outlineLevel="1">
       <c r="A244" s="2"/>
       <c r="B244" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C244" s="22" t="s">
         <v>399</v>
       </c>
-      <c r="D244" s="4" t="s">
-        <v>261</v>
+      <c r="D244" s="4" t="str">
+        <f>"oChartObj.Chart.Axes(xlCategory).MaximumScale = 100"</f>
+        <v>oChartObj.Chart.Axes(xlCategory).MaximumScale = 100</v>
       </c>
       <c r="E244" s="5" t="s">
         <v>122</v>
@@ -8762,14 +8834,14 @@
     <row r="245" spans="1:6" outlineLevel="1">
       <c r="A245" s="2"/>
       <c r="B245" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C245" s="22" t="s">
         <v>399</v>
       </c>
       <c r="D245" s="4" t="str">
-        <f>"oChartObj.Chart.HasTitle = True"</f>
-        <v>oChartObj.Chart.HasTitle = True</v>
+        <f>"oChartObj.Chart.Axes(xlCategory).Crosses = (xlMinimum\|xlMaximum\|xlAutomatic)"</f>
+        <v>oChartObj.Chart.Axes(xlCategory).Crosses = (xlMinimum\|xlMaximum\|xlAutomatic)</v>
       </c>
       <c r="E245" s="5" t="s">
         <v>122</v>
@@ -8781,14 +8853,13 @@
     <row r="246" spans="1:6" outlineLevel="1">
       <c r="A246" s="2"/>
       <c r="B246" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C246" s="22" t="s">
         <v>399</v>
       </c>
-      <c r="D246" s="4" t="str">
-        <f>"oChartObj.Chart.ChartTitle.Text = ""Test Title"""</f>
-        <v>oChartObj.Chart.ChartTitle.Text = "Test Title"</v>
+      <c r="D246" s="4" t="s">
+        <v>261</v>
       </c>
       <c r="E246" s="5" t="s">
         <v>122</v>
@@ -8800,17 +8871,17 @@
     <row r="247" spans="1:6" outlineLevel="1">
       <c r="A247" s="2"/>
       <c r="B247" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C247" s="22" t="s">
         <v>399</v>
       </c>
       <c r="D247" s="4" t="str">
-        <f>"oChartObj.Chart.ChartTitle.IncludeInLayout = False"</f>
-        <v>oChartObj.Chart.ChartTitle.IncludeInLayout = False</v>
+        <f>"oChartObj.Chart.HasTitle = True"</f>
+        <v>oChartObj.Chart.HasTitle = True</v>
       </c>
       <c r="E247" s="5" t="s">
-        <v>310</v>
+        <v>122</v>
       </c>
       <c r="F247" s="11" t="s">
         <v>122</v>
@@ -8819,14 +8890,14 @@
     <row r="248" spans="1:6" outlineLevel="1">
       <c r="A248" s="2"/>
       <c r="B248" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C248" s="22" t="s">
         <v>399</v>
       </c>
       <c r="D248" s="4" t="str">
-        <f>"oChartObj.Chart.HasLegend = True"</f>
-        <v>oChartObj.Chart.HasLegend = True</v>
+        <f>"oChartObj.Chart.ChartTitle.Text = ""Test Title"""</f>
+        <v>oChartObj.Chart.ChartTitle.Text = "Test Title"</v>
       </c>
       <c r="E248" s="5" t="s">
         <v>122</v>
@@ -8838,17 +8909,17 @@
     <row r="249" spans="1:6" outlineLevel="1">
       <c r="A249" s="2"/>
       <c r="B249" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C249" s="22" t="s">
         <v>399</v>
       </c>
       <c r="D249" s="4" t="str">
-        <f>"oChartObj.Chart.Legend.Position = xlLegendPositionTop"</f>
-        <v>oChartObj.Chart.Legend.Position = xlLegendPositionTop</v>
+        <f>"oChartObj.Chart.ChartTitle.IncludeInLayout = False"</f>
+        <v>oChartObj.Chart.ChartTitle.IncludeInLayout = False</v>
       </c>
       <c r="E249" s="5" t="s">
-        <v>263</v>
+        <v>310</v>
       </c>
       <c r="F249" s="11" t="s">
         <v>122</v>
@@ -8857,17 +8928,17 @@
     <row r="250" spans="1:6" outlineLevel="1">
       <c r="A250" s="2"/>
       <c r="B250" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C250" s="22" t="s">
         <v>399</v>
       </c>
       <c r="D250" s="4" t="str">
-        <f>"oChartObj.Chart.Legend.IncludeInLayout = False"</f>
-        <v>oChartObj.Chart.Legend.IncludeInLayout = False</v>
+        <f>"oChartObj.Chart.HasLegend = True"</f>
+        <v>oChartObj.Chart.HasLegend = True</v>
       </c>
       <c r="E250" s="5" t="s">
-        <v>310</v>
+        <v>122</v>
       </c>
       <c r="F250" s="11" t="s">
         <v>122</v>
@@ -8876,31 +8947,36 @@
     <row r="251" spans="1:6" outlineLevel="1">
       <c r="A251" s="2"/>
       <c r="B251" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C251" s="22" t="s">
         <v>399</v>
       </c>
-      <c r="D251" s="10" t="str">
-        <f>".Sheets(シート名).PasteSpecial Format:=""図 (JPEG)"", Link:=False, DisplayAsIcon:=False"</f>
-        <v>.Sheets(シート名).PasteSpecial Format:="図 (JPEG)", Link:=False, DisplayAsIcon:=False</v>
+      <c r="D251" s="4" t="str">
+        <f>"oChartObj.Chart.Legend.Position = xlLegendPositionTop"</f>
+        <v>oChartObj.Chart.Legend.Position = xlLegendPositionTop</v>
       </c>
       <c r="E251" s="5" t="s">
-        <v>122</v>
+        <v>263</v>
       </c>
       <c r="F251" s="11" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="252" spans="1:6" outlineLevel="1">
-      <c r="A252" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="B252" s="8"/>
-      <c r="C252" s="8"/>
-      <c r="D252" s="8"/>
-      <c r="E252" s="21" t="s">
-        <v>122</v>
+      <c r="A252" s="2"/>
+      <c r="B252" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C252" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="D252" s="4" t="str">
+        <f>"oChartObj.Chart.Legend.IncludeInLayout = False"</f>
+        <v>oChartObj.Chart.Legend.IncludeInLayout = False</v>
+      </c>
+      <c r="E252" s="5" t="s">
+        <v>310</v>
       </c>
       <c r="F252" s="11" t="s">
         <v>122</v>
@@ -8909,124 +8985,125 @@
     <row r="253" spans="1:6" outlineLevel="1">
       <c r="A253" s="2"/>
       <c r="B253" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C253" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="D253" s="10" t="str">
+        <f>".Sheets(シート名).PasteSpecial Format:=""図 (JPEG)"", Link:=False, DisplayAsIcon:=False"</f>
+        <v>.Sheets(シート名).PasteSpecial Format:="図 (JPEG)", Link:=False, DisplayAsIcon:=False</v>
+      </c>
+      <c r="E253" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F253" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" outlineLevel="1">
+      <c r="A254" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="B254" s="8"/>
+      <c r="C254" s="8"/>
+      <c r="D254" s="8"/>
+      <c r="E254" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="F254" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" outlineLevel="1">
+      <c r="A255" s="2"/>
+      <c r="B255" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="C253" s="22" t="s">
-        <v>399</v>
-      </c>
-      <c r="D253" s="4" t="str">
+      <c r="C255" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="D255" s="4" t="str">
         <f>"Dim goPrgrsBar As New ProgressBar"&amp;CHAR(10)&amp;"goPrgrsBar.Show vbModeless"</f>
         <v>Dim goPrgrsBar As New ProgressBar
 goPrgrsBar.Show vbModeless</v>
       </c>
-      <c r="E253" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F253" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6" outlineLevel="1">
-      <c r="A254" s="2"/>
-      <c r="B254" s="2" t="s">
+      <c r="E255" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F255" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" outlineLevel="1">
+      <c r="A256" s="2"/>
+      <c r="B256" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="C254" s="22" t="s">
-        <v>399</v>
-      </c>
-      <c r="D254" s="4" t="str">
+      <c r="C256" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="D256" s="4" t="str">
         <f>"goPrgrsBar.Hide"&amp;CHAR(10)&amp;"Unload goPrgrsBar"&amp;CHAR(10)&amp;"Set goPrgrsBar = Nothing"</f>
         <v>goPrgrsBar.Hide
 Unload goPrgrsBar
 Set goPrgrsBar = Nothing</v>
       </c>
-      <c r="E254" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F254" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6" outlineLevel="1">
-      <c r="A255" s="8" t="s">
+      <c r="E256" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F256" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" outlineLevel="1">
+      <c r="A257" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="B255" s="8"/>
-      <c r="C255" s="8"/>
-      <c r="D255" s="8"/>
-      <c r="E255" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="F255" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6" outlineLevel="1">
-      <c r="A256" s="2"/>
-      <c r="B256" s="2" t="s">
+      <c r="B257" s="8"/>
+      <c r="C257" s="8"/>
+      <c r="D257" s="8"/>
+      <c r="E257" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="F257" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" outlineLevel="1">
+      <c r="A258" s="2"/>
+      <c r="B258" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C256" s="22" t="s">
-        <v>399</v>
-      </c>
-      <c r="D256" s="4" t="str">
+      <c r="C258" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="D258" s="4" t="str">
         <f>"lChk = ThisWorkbook.Sheets(シート名).CheckBoxes(1).Value"</f>
         <v>lChk = ThisWorkbook.Sheets(シート名).CheckBoxes(1).Value</v>
       </c>
-      <c r="E256" s="5" t="s">
+      <c r="E258" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="F256" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6" outlineLevel="1">
-      <c r="A257" s="2"/>
-      <c r="B257" s="2" t="s">
+      <c r="F258" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" outlineLevel="1">
+      <c r="A259" s="2"/>
+      <c r="B259" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="C257" s="22" t="s">
-        <v>399</v>
-      </c>
-      <c r="D257" s="4" t="str">
+      <c r="C259" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="D259" s="4" t="str">
         <f>"Private Sub xxx\_KeyUp(ByVal KeyCode As MSForms.ReturnInteger, ByVal Shift As Integer)"&amp;CHAR(10)&amp;"End Sub"</f>
         <v>Private Sub xxx\_KeyUp(ByVal KeyCode As MSForms.ReturnInteger, ByVal Shift As Integer)
 End Sub</v>
       </c>
-      <c r="E257" s="5" t="s">
+      <c r="E259" s="5" t="s">
         <v>262</v>
-      </c>
-      <c r="F257" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6" outlineLevel="1">
-      <c r="A258" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="B258" s="8"/>
-      <c r="C258" s="8"/>
-      <c r="D258" s="8"/>
-      <c r="E258" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="F258" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6" outlineLevel="1">
-      <c r="A259" s="2"/>
-      <c r="B259" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="C259" s="22" t="s">
-        <v>399</v>
-      </c>
-      <c r="D259" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="E259" s="5" t="s">
-        <v>122</v>
       </c>
       <c r="F259" s="11" t="s">
         <v>122</v>
@@ -9034,7 +9111,7 @@
     </row>
     <row r="260" spans="1:6" outlineLevel="1">
       <c r="A260" s="8" t="s">
-        <v>356</v>
+        <v>396</v>
       </c>
       <c r="B260" s="8"/>
       <c r="C260" s="8"/>
@@ -9049,211 +9126,243 @@
     <row r="261" spans="1:6" outlineLevel="1">
       <c r="A261" s="2"/>
       <c r="B261" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C261" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="D261" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="E261" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F261" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" outlineLevel="1">
+      <c r="A262" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="B262" s="8"/>
+      <c r="C262" s="8"/>
+      <c r="D262" s="8"/>
+      <c r="E262" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="F262" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" outlineLevel="1">
+      <c r="A263" s="2"/>
+      <c r="B263" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C261" s="4" t="str">
+      <c r="C263" s="4" t="str">
         <f>"objWshShell.Exec( ""clip"" ).StdIn.Write( ""テキスト"" )"</f>
         <v>objWshShell.Exec( "clip" ).StdIn.Write( "テキスト" )</v>
       </c>
-      <c r="D261" s="4" t="str">
+      <c r="D263" s="4" t="str">
         <f>"With CreateObject(""new:{1C3B4210-F441-11CE-B9EA-00AA006B1A69}"")"&amp;CHAR(10)&amp;CHAR(9)&amp;".GetFromClipboard"&amp;CHAR(10)&amp;CHAR(9)&amp;"sText = .GetText"&amp;CHAR(10)&amp;"End With"</f>
         <v>With CreateObject("new:{1C3B4210-F441-11CE-B9EA-00AA006B1A69}")
 	.GetFromClipboard
 	sText = .GetText
 End With</v>
       </c>
-      <c r="E261" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F261" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6" outlineLevel="1">
-      <c r="A262" s="2"/>
-      <c r="B262" s="2" t="s">
+      <c r="E263" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F263" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" outlineLevel="1">
+      <c r="A264" s="2"/>
+      <c r="B264" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C262" s="4" t="str">
+      <c r="C264" s="4" t="str">
         <f>"CreateObject(""htmlfile"").ParentWindow.Clipboarddata.GetData(""text"")"</f>
         <v>CreateObject("htmlfile").ParentWindow.Clipboarddata.GetData("text")</v>
       </c>
-      <c r="D262" s="4" t="str">
+      <c r="D264" s="4" t="str">
         <f>"With CreateObject(""new:{1C3B4210-F441-11CE-B9EA-00AA006B1A69}"")"&amp;CHAR(10)&amp;CHAR(9)&amp;".SetText sText"&amp;CHAR(10)&amp;CHAR(9)&amp;".PutInClipboard"&amp;CHAR(10)&amp;"End With"</f>
         <v>With CreateObject("new:{1C3B4210-F441-11CE-B9EA-00AA006B1A69}")
 	.SetText sText
 	.PutInClipboard
 End With</v>
       </c>
-      <c r="E262" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F262" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6" outlineLevel="1">
-      <c r="A263" s="8" t="s">
+      <c r="E264" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F264" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" outlineLevel="1">
+      <c r="A265" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="B263" s="8"/>
-      <c r="C263" s="8"/>
-      <c r="D263" s="8"/>
-      <c r="E263" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="F263" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6" outlineLevel="1">
-      <c r="A264" s="2"/>
-      <c r="B264" s="2" t="s">
+      <c r="B265" s="8"/>
+      <c r="C265" s="8"/>
+      <c r="D265" s="8"/>
+      <c r="E265" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="F265" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" outlineLevel="1">
+      <c r="A266" s="2"/>
+      <c r="B266" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="C264" s="22" t="s">
-        <v>399</v>
-      </c>
-      <c r="D264" s="4" t="str">
+      <c r="C266" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="D266" s="4" t="str">
         <f>"Dim wWord As Object" &amp; CHAR(10) &amp; "Set wWord = CreateObject(""Word.Application"")" &amp; CHAR(10) &amp; "wWord.Visible = False"</f>
         <v>Dim wWord As Object
 Set wWord = CreateObject("Word.Application")
 wWord.Visible = False</v>
       </c>
-      <c r="E264" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F264" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6" outlineLevel="1">
-      <c r="A265" s="2"/>
-      <c r="B265" s="2" t="s">
+      <c r="E266" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F266" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" outlineLevel="1">
+      <c r="A267" s="2"/>
+      <c r="B267" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="C265" s="22" t="s">
-        <v>399</v>
-      </c>
-      <c r="D265" s="4" t="str">
+      <c r="C267" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="D267" s="4" t="str">
         <f>"dDoc.Close" &amp; CHAR(10) &amp; "Set dDoc = Nothing"</f>
         <v>dDoc.Close
 Set dDoc = Nothing</v>
       </c>
-      <c r="E265" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F265" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6" outlineLevel="1">
-      <c r="A266" s="2"/>
-      <c r="B266" s="2" t="s">
+      <c r="E267" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F267" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" outlineLevel="1">
+      <c r="A268" s="2"/>
+      <c r="B268" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="C266" s="22" t="s">
-        <v>399</v>
-      </c>
-      <c r="D266" s="4" t="str">
+      <c r="C268" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="D268" s="4" t="str">
         <f>"wWord.Visible = False" &amp; CHAR(10) &amp; "wWord.Quit" &amp; CHAR(10) &amp; "Set wWord = Nothing"</f>
         <v>wWord.Visible = False
 wWord.Quit
 Set wWord = Nothing</v>
       </c>
-      <c r="E266" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F266" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6" outlineLevel="1">
-      <c r="A267" s="2"/>
-      <c r="B267" s="2" t="s">
+      <c r="E268" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F268" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" outlineLevel="1">
+      <c r="A269" s="2"/>
+      <c r="B269" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="C267" s="22" t="s">
-        <v>399</v>
-      </c>
-      <c r="D267" s="4" t="str">
+      <c r="C269" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="D269" s="4" t="str">
         <f>"Dim dDoc As Object" &amp; CHAR(10) &amp; "Set dDoc = wWord.Documents.Open(""sFilePath"")"</f>
         <v>Dim dDoc As Object
 Set dDoc = wWord.Documents.Open("sFilePath")</v>
       </c>
-      <c r="E267" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F267" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6" outlineLevel="1">
-      <c r="A268" s="2"/>
-      <c r="B268" s="2" t="s">
+      <c r="E269" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F269" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" outlineLevel="1">
+      <c r="A270" s="2"/>
+      <c r="B270" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="C268" s="22" t="s">
-        <v>399</v>
-      </c>
-      <c r="D268" s="4" t="str">
+      <c r="C270" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="D270" s="4" t="str">
         <f>"Dim sParagraph As Object" &amp; CHAR(10) &amp; "For Each sParagraph In dDoc.Paragraphs" &amp; CHAR(10) &amp; CHAR(9) &amp; "'～処理～" &amp; CHAR(10) &amp; "Next sParagraph"</f>
         <v>Dim sParagraph As Object
 For Each sParagraph In dDoc.Paragraphs
 	'～処理～
 Next sParagraph</v>
       </c>
-      <c r="E268" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F268" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6" outlineLevel="1">
-      <c r="A269" s="8" t="s">
+      <c r="E270" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F270" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" outlineLevel="1">
+      <c r="A271" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="B269" s="8"/>
-      <c r="C269" s="8"/>
-      <c r="D269" s="8"/>
-      <c r="E269" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="F269" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="270" spans="1:6" outlineLevel="1">
-      <c r="A270" s="2"/>
-      <c r="B270" s="2" t="s">
+      <c r="B271" s="8"/>
+      <c r="C271" s="8"/>
+      <c r="D271" s="8"/>
+      <c r="E271" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="F271" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" outlineLevel="1">
+      <c r="A272" s="2"/>
+      <c r="B272" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C270" s="22" t="s">
-        <v>399</v>
-      </c>
-      <c r="D270" s="4" t="str">
+      <c r="C272" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="D272" s="4" t="str">
         <f>"Dim wTrgtBook As Workbook"&amp;CHAR(10)&amp;"Application.SheetsInNewWorkbook = 1"&amp;CHAR(10)&amp;"Set wTrgtBook = Workbooks.Add"</f>
         <v>Dim wTrgtBook As Workbook
 Application.SheetsInNewWorkbook = 1
 Set wTrgtBook = Workbooks.Add</v>
       </c>
-      <c r="E270" s="5" t="s">
+      <c r="E272" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="F270" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="271" spans="1:6" outlineLevel="1">
-      <c r="A271" s="2"/>
-      <c r="B271" s="2" t="s">
+      <c r="F272" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" outlineLevel="1">
+      <c r="A273" s="2"/>
+      <c r="B273" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C271" s="22" t="s">
-        <v>399</v>
-      </c>
-      <c r="D271" s="4" t="str">
+      <c r="C273" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="D273" s="4" t="str">
         <f>"If wCsvBook.Name &lt;&gt; Dir(""C:\Book1.xlsx"") Then"&amp;CHAR(10)&amp;CHAR(9)&amp;"処理"&amp;CHAR(10)&amp;"Else"&amp;CHAR(10)&amp;CHAR(9)&amp;"エラー"&amp;CHAR(10)&amp;"End If"</f>
         <v>If wCsvBook.Name &lt;&gt; Dir("C:\Book1.xlsx") Then
 	処理
@@ -9261,64 +9370,26 @@
 	エラー
 End If</v>
       </c>
-      <c r="E271" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F271" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6" outlineLevel="1">
-      <c r="A272" s="2"/>
-      <c r="B272" s="2" t="s">
+      <c r="E273" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F273" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" outlineLevel="1">
+      <c r="A274" s="2"/>
+      <c r="B274" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C272" s="22" t="s">
-        <v>399</v>
-      </c>
-      <c r="D272" s="4" t="str">
+      <c r="C274" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="D274" s="4" t="str">
         <f>"Dim bAddBook As Workbook"&amp;CHAR(10)&amp;"Set bAddBook = Workbooks.Add"</f>
         <v>Dim bAddBook As Workbook
 Set bAddBook = Workbooks.Add</v>
       </c>
-      <c r="E272" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F272" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="273" spans="1:6" outlineLevel="1">
-      <c r="A273" s="2"/>
-      <c r="B273" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C273" s="22" t="s">
-        <v>399</v>
-      </c>
-      <c r="D273" s="4" t="str">
-        <f>"ThisWorkbook.Sheets(シート名).Copy: Set wTrgtBook = ActiveWorkbook"</f>
-        <v>ThisWorkbook.Sheets(シート名).Copy: Set wTrgtBook = ActiveWorkbook</v>
-      </c>
-      <c r="E273" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F273" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="274" spans="1:6" outlineLevel="1">
-      <c r="A274" s="2"/>
-      <c r="B274" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C274" s="22" t="s">
-        <v>399</v>
-      </c>
-      <c r="D274" s="4" t="str">
-        <f>"wTrgtBook.SaveAs Filename:=sFilePath"</f>
-        <v>wTrgtBook.SaveAs Filename:=sFilePath</v>
-      </c>
       <c r="E274" s="5" t="s">
         <v>122</v>
       </c>
@@ -9329,14 +9400,14 @@
     <row r="275" spans="1:6" outlineLevel="1">
       <c r="A275" s="2"/>
       <c r="B275" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C275" s="22" t="s">
         <v>399</v>
       </c>
       <c r="D275" s="4" t="str">
-        <f>".Sheets.Count"</f>
-        <v>.Sheets.Count</v>
+        <f>"ThisWorkbook.Sheets(シート名).Copy: Set wTrgtBook = ActiveWorkbook"</f>
+        <v>ThisWorkbook.Sheets(シート名).Copy: Set wTrgtBook = ActiveWorkbook</v>
       </c>
       <c r="E275" s="5" t="s">
         <v>122</v>
@@ -9348,94 +9419,94 @@
     <row r="276" spans="1:6" outlineLevel="1">
       <c r="A276" s="2"/>
       <c r="B276" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C276" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="D276" s="4" t="str">
+        <f>"wTrgtBook.SaveAs Filename:=sFilePath"</f>
+        <v>wTrgtBook.SaveAs Filename:=sFilePath</v>
+      </c>
+      <c r="E276" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F276" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" outlineLevel="1">
+      <c r="A277" s="2"/>
+      <c r="B277" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C277" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="D277" s="4" t="str">
+        <f>".Sheets.Count"</f>
+        <v>.Sheets.Count</v>
+      </c>
+      <c r="E277" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F277" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" outlineLevel="1">
+      <c r="A278" s="2"/>
+      <c r="B278" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C276" s="22" t="s">
-        <v>399</v>
-      </c>
-      <c r="D276" s="4" t="str">
+      <c r="C278" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="D278" s="4" t="str">
         <f>"Dim shAddSht As Worksheet"&amp;CHAR(10)&amp;"Set shAddSht = ThisWorkbook.Sheets.Add"</f>
         <v>Dim shAddSht As Worksheet
 Set shAddSht = ThisWorkbook.Sheets.Add</v>
       </c>
-      <c r="E276" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F276" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="277" spans="1:6" outlineLevel="1">
-      <c r="A277" s="2"/>
-      <c r="B277" s="2" t="s">
+      <c r="E278" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F278" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" outlineLevel="1">
+      <c r="A279" s="2"/>
+      <c r="B279" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C277" s="22" t="s">
-        <v>399</v>
-      </c>
-      <c r="D277" s="4" t="str">
+      <c r="C279" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="D279" s="4" t="str">
         <f>"ThisWorkbook.Sheets(シート名).Move After:=ThisWorkbook.Sheets( ThisWorkbook.Sheets.Count )"</f>
         <v>ThisWorkbook.Sheets(シート名).Move After:=ThisWorkbook.Sheets( ThisWorkbook.Sheets.Count )</v>
       </c>
-      <c r="E277" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F277" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="278" spans="1:6" outlineLevel="1">
-      <c r="A278" s="2"/>
-      <c r="B278" s="2" t="s">
+      <c r="E279" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F279" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" outlineLevel="1">
+      <c r="A280" s="2"/>
+      <c r="B280" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C278" s="22" t="s">
-        <v>399</v>
-      </c>
-      <c r="D278" s="4" t="str">
+      <c r="C280" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="D280" s="4" t="str">
         <f>"Application.DisplayAlerts = False"&amp;CHAR(10)&amp;".Sheets(シート名).Delete"&amp;CHAR(10)&amp;"Application.DisplayAlerts = True"</f>
         <v>Application.DisplayAlerts = False
 .Sheets(シート名).Delete
 Application.DisplayAlerts = True</v>
       </c>
-      <c r="E278" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F278" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="279" spans="1:6" outlineLevel="1">
-      <c r="A279" s="2"/>
-      <c r="B279" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C279" s="22" t="s">
-        <v>399</v>
-      </c>
-      <c r="D279" s="4" t="str">
-        <f>".Sheets(シート名).Visible = (True\|False)"</f>
-        <v>.Sheets(シート名).Visible = (True\|False)</v>
-      </c>
-      <c r="E279" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F279" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="280" spans="1:6" outlineLevel="1">
-      <c r="A280" s="2"/>
-      <c r="B280" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C280" s="22" t="s">
-        <v>399</v>
-      </c>
-      <c r="D280" s="4" t="str">
-        <f>".Sheets(シート名).Move Before:=Sheets(1)"</f>
-        <v>.Sheets(シート名).Move Before:=Sheets(1)</v>
-      </c>
       <c r="E280" s="5" t="s">
         <v>122</v>
       </c>
@@ -9446,14 +9517,14 @@
     <row r="281" spans="1:6" outlineLevel="1">
       <c r="A281" s="2"/>
       <c r="B281" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C281" s="22" t="s">
         <v>399</v>
       </c>
       <c r="D281" s="4" t="str">
-        <f>"Application.ScreenUpdating = True"</f>
-        <v>Application.ScreenUpdating = True</v>
+        <f>".Sheets(シート名).Visible = (True\|False)"</f>
+        <v>.Sheets(シート名).Visible = (True\|False)</v>
       </c>
       <c r="E281" s="5" t="s">
         <v>122</v>
@@ -9465,14 +9536,14 @@
     <row r="282" spans="1:6" outlineLevel="1">
       <c r="A282" s="2"/>
       <c r="B282" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C282" s="22" t="s">
         <v>399</v>
       </c>
       <c r="D282" s="4" t="str">
-        <f>"Application.ScreenUpdating = False"</f>
-        <v>Application.ScreenUpdating = False</v>
+        <f>".Sheets(シート名).Move Before:=Sheets(1)"</f>
+        <v>.Sheets(シート名).Move Before:=Sheets(1)</v>
       </c>
       <c r="E282" s="5" t="s">
         <v>122</v>
@@ -9484,14 +9555,14 @@
     <row r="283" spans="1:6" outlineLevel="1">
       <c r="A283" s="2"/>
       <c r="B283" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C283" s="22" t="s">
         <v>399</v>
       </c>
       <c r="D283" s="4" t="str">
-        <f>"Application.Calculation = xlCalculationAutomatic"</f>
-        <v>Application.Calculation = xlCalculationAutomatic</v>
+        <f>"Application.ScreenUpdating = True"</f>
+        <v>Application.ScreenUpdating = True</v>
       </c>
       <c r="E283" s="5" t="s">
         <v>122</v>
@@ -9503,14 +9574,14 @@
     <row r="284" spans="1:6" outlineLevel="1">
       <c r="A284" s="2"/>
       <c r="B284" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C284" s="22" t="s">
         <v>399</v>
       </c>
       <c r="D284" s="4" t="str">
-        <f>"Application.Calculation = xlCalculationManual"</f>
-        <v>Application.Calculation = xlCalculationManual</v>
+        <f>"Application.ScreenUpdating = False"</f>
+        <v>Application.ScreenUpdating = False</v>
       </c>
       <c r="E284" s="5" t="s">
         <v>122</v>
@@ -9522,14 +9593,14 @@
     <row r="285" spans="1:6" outlineLevel="1">
       <c r="A285" s="2"/>
       <c r="B285" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C285" s="22" t="s">
         <v>399</v>
       </c>
       <c r="D285" s="4" t="str">
-        <f>"Application.Calculate"</f>
-        <v>Application.Calculate</v>
+        <f>"Application.Calculation = xlCalculationAutomatic"</f>
+        <v>Application.Calculation = xlCalculationAutomatic</v>
       </c>
       <c r="E285" s="5" t="s">
         <v>122</v>
@@ -9541,14 +9612,14 @@
     <row r="286" spans="1:6" outlineLevel="1">
       <c r="A286" s="2"/>
       <c r="B286" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C286" s="22" t="s">
         <v>399</v>
       </c>
       <c r="D286" s="4" t="str">
-        <f>"Application.CalculateFull"</f>
-        <v>Application.CalculateFull</v>
+        <f>"Application.Calculation = xlCalculationManual"</f>
+        <v>Application.Calculation = xlCalculationManual</v>
       </c>
       <c r="E286" s="5" t="s">
         <v>122</v>
@@ -9560,16 +9631,17 @@
     <row r="287" spans="1:6" outlineLevel="1">
       <c r="A287" s="2"/>
       <c r="B287" s="2" t="s">
-        <v>500</v>
+        <v>164</v>
       </c>
       <c r="C287" s="22" t="s">
         <v>399</v>
       </c>
-      <c r="D287" s="4" t="s">
-        <v>501</v>
+      <c r="D287" s="4" t="str">
+        <f>"Application.Calculate"</f>
+        <v>Application.Calculate</v>
       </c>
       <c r="E287" s="5" t="s">
-        <v>502</v>
+        <v>122</v>
       </c>
       <c r="F287" s="11" t="s">
         <v>122</v>
@@ -9578,30 +9650,35 @@
     <row r="288" spans="1:6" outlineLevel="1">
       <c r="A288" s="2"/>
       <c r="B288" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C288" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="D288" s="4" t="str">
+        <f>"Application.CalculateFull"</f>
+        <v>Application.CalculateFull</v>
+      </c>
+      <c r="E288" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F288" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" outlineLevel="1">
+      <c r="A289" s="2"/>
+      <c r="B289" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="C288" s="22" t="s">
-        <v>399</v>
-      </c>
-      <c r="D288" s="4" t="s">
-        <v>497</v>
-      </c>
-      <c r="E288" s="5" t="s">
+      <c r="C289" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="D289" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="F288" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="289" spans="1:6">
-      <c r="A289" s="20" t="s">
-        <v>402</v>
-      </c>
-      <c r="B289" s="8"/>
-      <c r="C289" s="8"/>
-      <c r="D289" s="8"/>
-      <c r="E289" s="21" t="s">
-        <v>122</v>
+      <c r="E289" s="5" t="s">
+        <v>500</v>
       </c>
       <c r="F289" s="11" t="s">
         <v>122</v>
@@ -9610,35 +9687,29 @@
     <row r="290" spans="1:6" outlineLevel="1">
       <c r="A290" s="2"/>
       <c r="B290" s="2" t="s">
-        <v>258</v>
+        <v>496</v>
       </c>
       <c r="C290" s="22" t="s">
         <v>399</v>
       </c>
-      <c r="D290" s="4" t="str">
-        <f>"Application.DisplayAlerts = False"</f>
-        <v>Application.DisplayAlerts = False</v>
+      <c r="D290" s="4" t="s">
+        <v>495</v>
       </c>
       <c r="E290" s="5" t="s">
-        <v>122</v>
+        <v>497</v>
       </c>
       <c r="F290" s="11" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="291" spans="1:6" outlineLevel="1">
-      <c r="A291" s="2"/>
-      <c r="B291" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="C291" s="22" t="s">
-        <v>399</v>
-      </c>
-      <c r="D291" s="4" t="str">
-        <f>"Application.DisplayAlerts = True"</f>
-        <v>Application.DisplayAlerts = True</v>
-      </c>
-      <c r="E291" s="5" t="s">
+    <row r="291" spans="1:6">
+      <c r="A291" s="20" t="s">
+        <v>402</v>
+      </c>
+      <c r="B291" s="8"/>
+      <c r="C291" s="8"/>
+      <c r="D291" s="8"/>
+      <c r="E291" s="21" t="s">
         <v>122</v>
       </c>
       <c r="F291" s="11" t="s">
@@ -9648,14 +9719,14 @@
     <row r="292" spans="1:6" outlineLevel="1">
       <c r="A292" s="2"/>
       <c r="B292" s="2" t="s">
-        <v>166</v>
+        <v>258</v>
       </c>
       <c r="C292" s="22" t="s">
         <v>399</v>
       </c>
       <c r="D292" s="4" t="str">
-        <f>".Rows(2).Select"</f>
-        <v>.Rows(2).Select</v>
+        <f>"Application.DisplayAlerts = False"</f>
+        <v>Application.DisplayAlerts = False</v>
       </c>
       <c r="E292" s="5" t="s">
         <v>122</v>
@@ -9667,14 +9738,14 @@
     <row r="293" spans="1:6" outlineLevel="1">
       <c r="A293" s="2"/>
       <c r="B293" s="2" t="s">
-        <v>167</v>
+        <v>257</v>
       </c>
       <c r="C293" s="22" t="s">
         <v>399</v>
       </c>
       <c r="D293" s="4" t="str">
-        <f>".Columns(2).Select"</f>
-        <v>.Columns(2).Select</v>
+        <f>"Application.DisplayAlerts = True"</f>
+        <v>Application.DisplayAlerts = True</v>
       </c>
       <c r="E293" s="5" t="s">
         <v>122</v>
@@ -9686,14 +9757,14 @@
     <row r="294" spans="1:6" outlineLevel="1">
       <c r="A294" s="2"/>
       <c r="B294" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C294" s="22" t="s">
         <v>399</v>
       </c>
       <c r="D294" s="4" t="str">
-        <f>".Cells(1,1).Select"</f>
-        <v>.Cells(1,1).Select</v>
+        <f>".Rows(2).Select"</f>
+        <v>.Rows(2).Select</v>
       </c>
       <c r="E294" s="5" t="s">
         <v>122</v>
@@ -9705,14 +9776,14 @@
     <row r="295" spans="1:6" outlineLevel="1">
       <c r="A295" s="2"/>
       <c r="B295" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C295" s="22" t="s">
         <v>399</v>
       </c>
       <c r="D295" s="4" t="str">
-        <f>".Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).Select"</f>
-        <v>.Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).Select</v>
+        <f>".Columns(2).Select"</f>
+        <v>.Columns(2).Select</v>
       </c>
       <c r="E295" s="5" t="s">
         <v>122</v>
@@ -9724,14 +9795,14 @@
     <row r="296" spans="1:6" outlineLevel="1">
       <c r="A296" s="2"/>
       <c r="B296" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C296" s="22" t="s">
         <v>399</v>
       </c>
       <c r="D296" s="4" t="str">
-        <f>".Cells.Find(""りんご"", LookAt:=xlWhole).Row"</f>
-        <v>.Cells.Find("りんご", LookAt:=xlWhole).Row</v>
+        <f>".Cells(1,1).Select"</f>
+        <v>.Cells(1,1).Select</v>
       </c>
       <c r="E296" s="5" t="s">
         <v>122</v>
@@ -9743,14 +9814,14 @@
     <row r="297" spans="1:6" outlineLevel="1">
       <c r="A297" s="2"/>
       <c r="B297" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C297" s="22" t="s">
         <v>399</v>
       </c>
       <c r="D297" s="4" t="str">
-        <f>".Cells.Find(""りんご"", LookAt:=xlWhole).Column"</f>
-        <v>.Cells.Find("りんご", LookAt:=xlWhole).Column</v>
+        <f>".Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).Select"</f>
+        <v>.Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).Select</v>
       </c>
       <c r="E297" s="5" t="s">
         <v>122</v>
@@ -9762,17 +9833,17 @@
     <row r="298" spans="1:6" outlineLevel="1">
       <c r="A298" s="2"/>
       <c r="B298" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C298" s="22" t="s">
         <v>399</v>
       </c>
       <c r="D298" s="4" t="str">
-        <f>".Cells(X, Y).Value"</f>
-        <v>.Cells(X, Y).Value</v>
+        <f>".Cells.Find(""りんご"", LookAt:=xlWhole).Row"</f>
+        <v>.Cells.Find("りんご", LookAt:=xlWhole).Row</v>
       </c>
       <c r="E298" s="5" t="s">
-        <v>301</v>
+        <v>122</v>
       </c>
       <c r="F298" s="11" t="s">
         <v>122</v>
@@ -9781,17 +9852,17 @@
     <row r="299" spans="1:6" outlineLevel="1">
       <c r="A299" s="2"/>
       <c r="B299" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C299" s="22" t="s">
         <v>399</v>
       </c>
       <c r="D299" s="4" t="str">
-        <f>".Cells(1, 1).Top"</f>
-        <v>.Cells(1, 1).Top</v>
+        <f>".Cells.Find(""りんご"", LookAt:=xlWhole).Column"</f>
+        <v>.Cells.Find("りんご", LookAt:=xlWhole).Column</v>
       </c>
       <c r="E299" s="5" t="s">
-        <v>302</v>
+        <v>122</v>
       </c>
       <c r="F299" s="11" t="s">
         <v>122</v>
@@ -9800,17 +9871,17 @@
     <row r="300" spans="1:6" outlineLevel="1">
       <c r="A300" s="2"/>
       <c r="B300" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C300" s="22" t="s">
         <v>399</v>
       </c>
       <c r="D300" s="4" t="str">
-        <f>".Cells(1, 1).Left"</f>
-        <v>.Cells(1, 1).Left</v>
+        <f>".Cells(X, Y).Value"</f>
+        <v>.Cells(X, Y).Value</v>
       </c>
       <c r="E300" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F300" s="11" t="s">
         <v>122</v>
@@ -9819,17 +9890,17 @@
     <row r="301" spans="1:6" outlineLevel="1">
       <c r="A301" s="2"/>
       <c r="B301" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C301" s="22" t="s">
         <v>399</v>
       </c>
       <c r="D301" s="4" t="str">
-        <f>".Cells(1, 1).EntireRow.Delete Shift:=xlShiftUp"</f>
-        <v>.Cells(1, 1).EntireRow.Delete Shift:=xlShiftUp</v>
+        <f>".Cells(1, 1).Top"</f>
+        <v>.Cells(1, 1).Top</v>
       </c>
       <c r="E301" s="5" t="s">
-        <v>122</v>
+        <v>302</v>
       </c>
       <c r="F301" s="11" t="s">
         <v>122</v>
@@ -9838,93 +9909,93 @@
     <row r="302" spans="1:6" outlineLevel="1">
       <c r="A302" s="2"/>
       <c r="B302" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C302" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="D302" s="4" t="str">
+        <f>".Cells(1, 1).Left"</f>
+        <v>.Cells(1, 1).Left</v>
+      </c>
+      <c r="E302" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="F302" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" outlineLevel="1">
+      <c r="A303" s="2"/>
+      <c r="B303" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C303" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="D303" s="4" t="str">
+        <f>".Cells(1, 1).EntireRow.Delete Shift:=xlShiftUp"</f>
+        <v>.Cells(1, 1).EntireRow.Delete Shift:=xlShiftUp</v>
+      </c>
+      <c r="E303" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F303" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" outlineLevel="1">
+      <c r="A304" s="2"/>
+      <c r="B304" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C302" s="22" t="s">
-        <v>399</v>
-      </c>
-      <c r="D302" s="4" t="str">
+      <c r="C304" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="D304" s="4" t="str">
         <f>"Application.CutCopyMode = False"&amp;CHAR(10)&amp;".Range(""2:4"").Insert"</f>
         <v>Application.CutCopyMode = False
 .Range("2:4").Insert</v>
       </c>
-      <c r="E302" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F302" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="303" spans="1:6" outlineLevel="1">
-      <c r="A303" s="2"/>
-      <c r="B303" s="2" t="s">
+      <c r="E304" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F304" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" outlineLevel="1">
+      <c r="A305" s="2"/>
+      <c r="B305" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C303" s="22" t="s">
-        <v>399</v>
-      </c>
-      <c r="D303" s="4" t="str">
+      <c r="C305" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="D305" s="4" t="str">
         <f>".Cells(行, 列).Font.Strikethrough"</f>
         <v>.Cells(行, 列).Font.Strikethrough</v>
       </c>
-      <c r="E303" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F303" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="304" spans="1:6" outlineLevel="1">
-      <c r="A304" s="2"/>
-      <c r="B304" s="2" t="s">
+      <c r="E305" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F305" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" outlineLevel="1">
+      <c r="A306" s="2"/>
+      <c r="B306" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C304" s="22" t="s">
-        <v>399</v>
-      </c>
-      <c r="D304" s="4" t="str">
+      <c r="C306" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="D306" s="4" t="str">
         <f>"wTrgtBook.Sheets(シート名).Activate"&amp;CHAR(10)&amp;"ActiveWindow.DisplayGridlines = False"</f>
         <v>wTrgtBook.Sheets(シート名).Activate
 ActiveWindow.DisplayGridlines = False</v>
       </c>
-      <c r="E304" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F304" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="305" spans="1:6" outlineLevel="1">
-      <c r="A305" s="2"/>
-      <c r="B305" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C305" s="22" t="s">
-        <v>399</v>
-      </c>
-      <c r="D305" s="4" t="str">
-        <f>".Range(""A1"").EntireRow.Hidden"</f>
-        <v>.Range("A1").EntireRow.Hidden</v>
-      </c>
-      <c r="E305" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F305" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="306" spans="1:6" outlineLevel="1">
-      <c r="A306" s="2"/>
-      <c r="B306" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C306" s="22" t="s">
-        <v>399</v>
-      </c>
-      <c r="D306" s="4" t="str">
-        <f>".Range(""A1"").EntireColumn.Hidden"</f>
-        <v>.Range("A1").EntireColumn.Hidden</v>
-      </c>
       <c r="E306" s="5" t="s">
         <v>122</v>
       </c>
@@ -9935,12 +10006,50 @@
     <row r="307" spans="1:6" outlineLevel="1">
       <c r="A307" s="2"/>
       <c r="B307" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C307" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="D307" s="4" t="str">
+        <f>".Range(""A1"").EntireRow.Hidden"</f>
+        <v>.Range("A1").EntireRow.Hidden</v>
+      </c>
+      <c r="E307" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F307" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" outlineLevel="1">
+      <c r="A308" s="2"/>
+      <c r="B308" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C308" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="D308" s="4" t="str">
+        <f>".Range(""A1"").EntireColumn.Hidden"</f>
+        <v>.Range("A1").EntireColumn.Hidden</v>
+      </c>
+      <c r="E308" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F308" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" outlineLevel="1">
+      <c r="A309" s="2"/>
+      <c r="B309" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="C307" s="22" t="s">
-        <v>399</v>
-      </c>
-      <c r="D307" s="4" t="str">
+      <c r="C309" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="D309" s="4" t="str">
         <f>"If .Cells(1, 1).EntireRow.Hidden Or .Cells(1, 1).EntireColumn.Hidden Then
     '非表示セル
 Else
@@ -9954,44 +10063,6 @@
 End If
 </v>
       </c>
-      <c r="E307" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F307" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="308" spans="1:6" outlineLevel="1">
-      <c r="A308" s="2"/>
-      <c r="B308" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C308" s="22" t="s">
-        <v>399</v>
-      </c>
-      <c r="D308" s="4" t="str">
-        <f>"文字列変数 = .Range(""A1"").Font.Name"</f>
-        <v>文字列変数 = .Range("A1").Font.Name</v>
-      </c>
-      <c r="E308" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F308" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="309" spans="1:6" outlineLevel="1">
-      <c r="A309" s="2"/>
-      <c r="B309" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C309" s="22" t="s">
-        <v>399</v>
-      </c>
-      <c r="D309" s="4" t="str">
-        <f>".Range(""A1"").Font.Size = 14"</f>
-        <v>.Range("A1").Font.Size = 14</v>
-      </c>
       <c r="E309" s="5" t="s">
         <v>122</v>
       </c>
@@ -10002,14 +10073,14 @@
     <row r="310" spans="1:6" outlineLevel="1">
       <c r="A310" s="2"/>
       <c r="B310" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C310" s="22" t="s">
         <v>399</v>
       </c>
       <c r="D310" s="4" t="str">
-        <f>".Range(""A1"").Font.Color = RGB(0, 255, 0)"</f>
-        <v>.Range("A1").Font.Color = RGB(0, 255, 0)</v>
+        <f>"文字列変数 = .Range(""A1"").Font.Name"</f>
+        <v>文字列変数 = .Range("A1").Font.Name</v>
       </c>
       <c r="E310" s="5" t="s">
         <v>122</v>
@@ -10021,14 +10092,14 @@
     <row r="311" spans="1:6" outlineLevel="1">
       <c r="A311" s="2"/>
       <c r="B311" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C311" s="22" t="s">
         <v>399</v>
       </c>
       <c r="D311" s="4" t="str">
-        <f>".Range(""A1"").Font.Bold = True"</f>
-        <v>.Range("A1").Font.Bold = True</v>
+        <f>".Range(""A1"").Font.Size = 14"</f>
+        <v>.Range("A1").Font.Size = 14</v>
       </c>
       <c r="E311" s="5" t="s">
         <v>122</v>
@@ -10040,14 +10111,14 @@
     <row r="312" spans="1:6" outlineLevel="1">
       <c r="A312" s="2"/>
       <c r="B312" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C312" s="22" t="s">
         <v>399</v>
       </c>
       <c r="D312" s="4" t="str">
-        <f>".Range(""A1"").Font.Underline = True"</f>
-        <v>.Range("A1").Font.Underline = True</v>
+        <f>".Range(""A1"").Font.Color = RGB(0, 255, 0)"</f>
+        <v>.Range("A1").Font.Color = RGB(0, 255, 0)</v>
       </c>
       <c r="E312" s="5" t="s">
         <v>122</v>
@@ -10059,14 +10130,14 @@
     <row r="313" spans="1:6" outlineLevel="1">
       <c r="A313" s="2"/>
       <c r="B313" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C313" s="22" t="s">
         <v>399</v>
       </c>
       <c r="D313" s="4" t="str">
-        <f>".Range(""A1"").Interior.Color = RGB(255, 255, 0)"</f>
-        <v>.Range("A1").Interior.Color = RGB(255, 255, 0)</v>
+        <f>".Range(""A1"").Font.Bold = True"</f>
+        <v>.Range("A1").Font.Bold = True</v>
       </c>
       <c r="E313" s="5" t="s">
         <v>122</v>
@@ -10078,14 +10149,14 @@
     <row r="314" spans="1:6" outlineLevel="1">
       <c r="A314" s="2"/>
       <c r="B314" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C314" s="22" t="s">
         <v>399</v>
       </c>
       <c r="D314" s="4" t="str">
-        <f>".Range(""A1:C3"").Borders.LineStyle = xlContinuous"</f>
-        <v>.Range("A1:C3").Borders.LineStyle = xlContinuous</v>
+        <f>".Range(""A1"").Font.Underline = True"</f>
+        <v>.Range("A1").Font.Underline = True</v>
       </c>
       <c r="E314" s="5" t="s">
         <v>122</v>
@@ -10097,14 +10168,14 @@
     <row r="315" spans="1:6" outlineLevel="1">
       <c r="A315" s="2"/>
       <c r="B315" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C315" s="22" t="s">
         <v>399</v>
       </c>
       <c r="D315" s="4" t="str">
-        <f>".Range(""A1:C3"").MergeCells = True"</f>
-        <v>.Range("A1:C3").MergeCells = True</v>
+        <f>".Range(""A1"").Interior.Color = RGB(255, 255, 0)"</f>
+        <v>.Range("A1").Interior.Color = RGB(255, 255, 0)</v>
       </c>
       <c r="E315" s="5" t="s">
         <v>122</v>
@@ -10116,17 +10187,17 @@
     <row r="316" spans="1:6" outlineLevel="1">
       <c r="A316" s="2"/>
       <c r="B316" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C316" s="22" t="s">
         <v>399</v>
       </c>
       <c r="D316" s="4" t="str">
-        <f>".Range(""A1:C3"").HorizontalAlignment = xlGeneral"</f>
-        <v>.Range("A1:C3").HorizontalAlignment = xlGeneral</v>
+        <f>".Range(""A1:C3"").Borders.LineStyle = xlContinuous"</f>
+        <v>.Range("A1:C3").Borders.LineStyle = xlContinuous</v>
       </c>
       <c r="E316" s="5" t="s">
-        <v>259</v>
+        <v>122</v>
       </c>
       <c r="F316" s="11" t="s">
         <v>122</v>
@@ -10135,17 +10206,17 @@
     <row r="317" spans="1:6" outlineLevel="1">
       <c r="A317" s="2"/>
       <c r="B317" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C317" s="22" t="s">
         <v>399</v>
       </c>
       <c r="D317" s="4" t="str">
-        <f>".Range(""A1:C3"").VerticalAlignment = xlCenter"</f>
-        <v>.Range("A1:C3").VerticalAlignment = xlCenter</v>
+        <f>".Range(""A1:C3"").MergeCells = True"</f>
+        <v>.Range("A1:C3").MergeCells = True</v>
       </c>
       <c r="E317" s="5" t="s">
-        <v>190</v>
+        <v>122</v>
       </c>
       <c r="F317" s="11" t="s">
         <v>122</v>
@@ -10154,17 +10225,17 @@
     <row r="318" spans="1:6" outlineLevel="1">
       <c r="A318" s="2"/>
       <c r="B318" s="2" t="s">
-        <v>714</v>
+        <v>188</v>
       </c>
       <c r="C318" s="22" t="s">
         <v>399</v>
       </c>
       <c r="D318" s="4" t="str">
-        <f>".Cells(1, 列).End(xlDown).Row"</f>
-        <v>.Cells(1, 列).End(xlDown).Row</v>
+        <f>".Range(""A1:C3"").HorizontalAlignment = xlGeneral"</f>
+        <v>.Range("A1:C3").HorizontalAlignment = xlGeneral</v>
       </c>
       <c r="E318" s="5" t="s">
-        <v>122</v>
+        <v>259</v>
       </c>
       <c r="F318" s="11" t="s">
         <v>122</v>
@@ -10173,17 +10244,17 @@
     <row r="319" spans="1:6" outlineLevel="1">
       <c r="A319" s="2"/>
       <c r="B319" s="2" t="s">
-        <v>715</v>
+        <v>189</v>
       </c>
       <c r="C319" s="22" t="s">
         <v>399</v>
       </c>
       <c r="D319" s="4" t="str">
-        <f>".Cells(行, 1).End(xlToRight).Column"</f>
-        <v>.Cells(行, 1).End(xlToRight).Column</v>
+        <f>".Range(""A1:C3"").VerticalAlignment = xlCenter"</f>
+        <v>.Range("A1:C3").VerticalAlignment = xlCenter</v>
       </c>
       <c r="E319" s="5" t="s">
-        <v>122</v>
+        <v>190</v>
       </c>
       <c r="F319" s="11" t="s">
         <v>122</v>
@@ -10192,14 +10263,14 @@
     <row r="320" spans="1:6" outlineLevel="1">
       <c r="A320" s="2"/>
       <c r="B320" s="2" t="s">
-        <v>191</v>
+        <v>712</v>
       </c>
       <c r="C320" s="22" t="s">
         <v>399</v>
       </c>
       <c r="D320" s="4" t="str">
-        <f>".Cells(.Rows.Count, 列).End(xlUp).Row"</f>
-        <v>.Cells(.Rows.Count, 列).End(xlUp).Row</v>
+        <f>".Cells(1, 列).End(xlDown).Row"</f>
+        <v>.Cells(1, 列).End(xlDown).Row</v>
       </c>
       <c r="E320" s="5" t="s">
         <v>122</v>
@@ -10211,14 +10282,14 @@
     <row r="321" spans="1:6" outlineLevel="1">
       <c r="A321" s="2"/>
       <c r="B321" s="2" t="s">
-        <v>192</v>
+        <v>713</v>
       </c>
       <c r="C321" s="22" t="s">
         <v>399</v>
       </c>
       <c r="D321" s="4" t="str">
-        <f>".Cells(行, .Columns.Count).End(xlToLeft).Column"</f>
-        <v>.Cells(行, .Columns.Count).End(xlToLeft).Column</v>
+        <f>".Cells(行, 1).End(xlToRight).Column"</f>
+        <v>.Cells(行, 1).End(xlToRight).Column</v>
       </c>
       <c r="E321" s="5" t="s">
         <v>122</v>
@@ -10230,14 +10301,14 @@
     <row r="322" spans="1:6" outlineLevel="1">
       <c r="A322" s="2"/>
       <c r="B322" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C322" s="22" t="s">
         <v>399</v>
       </c>
       <c r="D322" s="4" t="str">
-        <f>".Sheets(シート名).UsedRange.Rows.Count + 1"</f>
-        <v>.Sheets(シート名).UsedRange.Rows.Count + 1</v>
+        <f>".Cells(.Rows.Count, 列).End(xlUp).Row"</f>
+        <v>.Cells(.Rows.Count, 列).End(xlUp).Row</v>
       </c>
       <c r="E322" s="5" t="s">
         <v>122</v>
@@ -10249,14 +10320,14 @@
     <row r="323" spans="1:6" outlineLevel="1">
       <c r="A323" s="2"/>
       <c r="B323" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C323" s="22" t="s">
         <v>399</v>
       </c>
       <c r="D323" s="4" t="str">
-        <f>".Sheets(シート名).UsedRange.Columns.Count + 1"</f>
-        <v>.Sheets(シート名).UsedRange.Columns.Count + 1</v>
+        <f>".Cells(行, .Columns.Count).End(xlToLeft).Column"</f>
+        <v>.Cells(行, .Columns.Count).End(xlToLeft).Column</v>
       </c>
       <c r="E323" s="5" t="s">
         <v>122</v>
@@ -10268,14 +10339,14 @@
     <row r="324" spans="1:6" outlineLevel="1">
       <c r="A324" s="2"/>
       <c r="B324" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C324" s="22" t="s">
         <v>399</v>
       </c>
       <c r="D324" s="4" t="str">
-        <f>"Selection(1).Row"</f>
-        <v>Selection(1).Row</v>
+        <f>".Sheets(シート名).UsedRange.Rows.Count + 1"</f>
+        <v>.Sheets(シート名).UsedRange.Rows.Count + 1</v>
       </c>
       <c r="E324" s="5" t="s">
         <v>122</v>
@@ -10287,14 +10358,14 @@
     <row r="325" spans="1:6" outlineLevel="1">
       <c r="A325" s="2"/>
       <c r="B325" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C325" s="22" t="s">
         <v>399</v>
       </c>
       <c r="D325" s="4" t="str">
-        <f>"Selection(Selection.Count).Row"</f>
-        <v>Selection(Selection.Count).Row</v>
+        <f>".Sheets(シート名).UsedRange.Columns.Count + 1"</f>
+        <v>.Sheets(シート名).UsedRange.Columns.Count + 1</v>
       </c>
       <c r="E325" s="5" t="s">
         <v>122</v>
@@ -10306,14 +10377,14 @@
     <row r="326" spans="1:6" outlineLevel="1">
       <c r="A326" s="2"/>
       <c r="B326" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C326" s="22" t="s">
         <v>399</v>
       </c>
       <c r="D326" s="4" t="str">
-        <f>"Selection(1).Column"</f>
-        <v>Selection(1).Column</v>
+        <f>"Selection(1).Row"</f>
+        <v>Selection(1).Row</v>
       </c>
       <c r="E326" s="5" t="s">
         <v>122</v>
@@ -10325,14 +10396,14 @@
     <row r="327" spans="1:6" outlineLevel="1">
       <c r="A327" s="2"/>
       <c r="B327" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C327" s="22" t="s">
         <v>399</v>
       </c>
       <c r="D327" s="4" t="str">
-        <f>"Selection(Selection.Count).Column"</f>
-        <v>Selection(Selection.Count).Column</v>
+        <f>"Selection(Selection.Count).Row"</f>
+        <v>Selection(Selection.Count).Row</v>
       </c>
       <c r="E327" s="5" t="s">
         <v>122</v>
@@ -10344,16 +10415,17 @@
     <row r="328" spans="1:6" outlineLevel="1">
       <c r="A328" s="2"/>
       <c r="B328" s="2" t="s">
-        <v>325</v>
+        <v>197</v>
       </c>
       <c r="C328" s="22" t="s">
         <v>399</v>
       </c>
-      <c r="D328" s="4" t="s">
-        <v>323</v>
+      <c r="D328" s="4" t="str">
+        <f>"Selection(1).Column"</f>
+        <v>Selection(1).Column</v>
       </c>
       <c r="E328" s="5" t="s">
-        <v>331</v>
+        <v>122</v>
       </c>
       <c r="F328" s="11" t="s">
         <v>122</v>
@@ -10362,16 +10434,17 @@
     <row r="329" spans="1:6" outlineLevel="1">
       <c r="A329" s="2"/>
       <c r="B329" s="2" t="s">
-        <v>326</v>
+        <v>198</v>
       </c>
       <c r="C329" s="22" t="s">
         <v>399</v>
       </c>
-      <c r="D329" s="4" t="s">
-        <v>324</v>
+      <c r="D329" s="4" t="str">
+        <f>"Selection(Selection.Count).Column"</f>
+        <v>Selection(Selection.Count).Column</v>
       </c>
       <c r="E329" s="5" t="s">
-        <v>329</v>
+        <v>122</v>
       </c>
       <c r="F329" s="11" t="s">
         <v>122</v>
@@ -10380,16 +10453,16 @@
     <row r="330" spans="1:6" outlineLevel="1">
       <c r="A330" s="2"/>
       <c r="B330" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C330" s="22" t="s">
         <v>399</v>
       </c>
       <c r="D330" s="4" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="E330" s="5" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F330" s="11" t="s">
         <v>122</v>
@@ -10398,17 +10471,16 @@
     <row r="331" spans="1:6" outlineLevel="1">
       <c r="A331" s="2"/>
       <c r="B331" s="2" t="s">
-        <v>199</v>
+        <v>326</v>
       </c>
       <c r="C331" s="22" t="s">
         <v>399</v>
       </c>
-      <c r="D331" s="4" t="str">
-        <f>".Range(.Cells(1, 1), .Cells(6, 3))"</f>
-        <v>.Range(.Cells(1, 1), .Cells(6, 3))</v>
+      <c r="D331" s="4" t="s">
+        <v>324</v>
       </c>
       <c r="E331" s="5" t="s">
-        <v>122</v>
+        <v>329</v>
       </c>
       <c r="F331" s="11" t="s">
         <v>122</v>
@@ -10417,17 +10489,16 @@
     <row r="332" spans="1:6" outlineLevel="1">
       <c r="A332" s="2"/>
       <c r="B332" s="2" t="s">
-        <v>200</v>
+        <v>327</v>
       </c>
       <c r="C332" s="22" t="s">
         <v>399</v>
       </c>
-      <c r="D332" s="4" t="str">
-        <f>".Range(""A1:B9"").Copy Destination:=ThisWorkBook.Sheets(シート名２).Range(""B1"")"</f>
-        <v>.Range("A1:B9").Copy Destination:=ThisWorkBook.Sheets(シート名２).Range("B1")</v>
+      <c r="D332" s="4" t="s">
+        <v>328</v>
       </c>
       <c r="E332" s="5" t="s">
-        <v>122</v>
+        <v>330</v>
       </c>
       <c r="F332" s="11" t="s">
         <v>122</v>
@@ -10436,14 +10507,14 @@
     <row r="333" spans="1:6" outlineLevel="1">
       <c r="A333" s="2"/>
       <c r="B333" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C333" s="22" t="s">
         <v>399</v>
       </c>
       <c r="D333" s="4" t="str">
-        <f>".Range(.Cells(1, 1), .Cells(.Rows.Count, 2)).Sort Key1:=.Cells(1, 2) ,order1:=xlAscending"</f>
-        <v>.Range(.Cells(1, 1), .Cells(.Rows.Count, 2)).Sort Key1:=.Cells(1, 2) ,order1:=xlAscending</v>
+        <f>".Range(.Cells(1, 1), .Cells(6, 3))"</f>
+        <v>.Range(.Cells(1, 1), .Cells(6, 3))</v>
       </c>
       <c r="E333" s="5" t="s">
         <v>122</v>
@@ -10455,14 +10526,14 @@
     <row r="334" spans="1:6" outlineLevel="1">
       <c r="A334" s="2"/>
       <c r="B334" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C334" s="22" t="s">
         <v>399</v>
       </c>
       <c r="D334" s="4" t="str">
-        <f>".Range(""A1:A2"").ClearContents"</f>
-        <v>.Range("A1:A2").ClearContents</v>
+        <f>".Range(""A1:B9"").Copy Destination:=ThisWorkBook.Sheets(シート名２).Range(""B1"")"</f>
+        <v>.Range("A1:B9").Copy Destination:=ThisWorkBook.Sheets(シート名２).Range("B1")</v>
       </c>
       <c r="E334" s="5" t="s">
         <v>122</v>
@@ -10474,14 +10545,14 @@
     <row r="335" spans="1:6" outlineLevel="1">
       <c r="A335" s="2"/>
       <c r="B335" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C335" s="22" t="s">
         <v>399</v>
       </c>
       <c r="D335" s="4" t="str">
-        <f>".Range(""A1:A2"").ClearFormats"</f>
-        <v>.Range("A1:A2").ClearFormats</v>
+        <f>".Range(.Cells(1, 1), .Cells(.Rows.Count, 2)).Sort Key1:=.Cells(1, 2) ,order1:=xlAscending"</f>
+        <v>.Range(.Cells(1, 1), .Cells(.Rows.Count, 2)).Sort Key1:=.Cells(1, 2) ,order1:=xlAscending</v>
       </c>
       <c r="E335" s="5" t="s">
         <v>122</v>
@@ -10493,17 +10564,17 @@
     <row r="336" spans="1:6" outlineLevel="1">
       <c r="A336" s="2"/>
       <c r="B336" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C336" s="22" t="s">
         <v>399</v>
       </c>
       <c r="D336" s="4" t="str">
-        <f>".Range(""A1:A2"").PasteSpecial (xlPasteFormats)"</f>
-        <v>.Range("A1:A2").PasteSpecial (xlPasteFormats)</v>
+        <f>".Range(""A1:A2"").ClearContents"</f>
+        <v>.Range("A1:A2").ClearContents</v>
       </c>
       <c r="E336" s="5" t="s">
-        <v>190</v>
+        <v>122</v>
       </c>
       <c r="F336" s="11" t="s">
         <v>122</v>
@@ -10512,14 +10583,14 @@
     <row r="337" spans="1:6" outlineLevel="1">
       <c r="A337" s="2"/>
       <c r="B337" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C337" s="22" t="s">
         <v>399</v>
       </c>
       <c r="D337" s="4" t="str">
-        <f>".Range(""A1:CV100"").SpecialCells(xlCellTypeBlanks).Select"</f>
-        <v>.Range("A1:CV100").SpecialCells(xlCellTypeBlanks).Select</v>
+        <f>".Range(""A1:A2"").ClearFormats"</f>
+        <v>.Range("A1:A2").ClearFormats</v>
       </c>
       <c r="E337" s="5" t="s">
         <v>122</v>
@@ -10531,17 +10602,17 @@
     <row r="338" spans="1:6" outlineLevel="1">
       <c r="A338" s="2"/>
       <c r="B338" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C338" s="22" t="s">
         <v>399</v>
       </c>
       <c r="D338" s="4" t="str">
-        <f>".Range(""A1"").ColumnWidth = 5"</f>
-        <v>.Range("A1").ColumnWidth = 5</v>
+        <f>".Range(""A1:A2"").PasteSpecial (xlPasteFormats)"</f>
+        <v>.Range("A1:A2").PasteSpecial (xlPasteFormats)</v>
       </c>
       <c r="E338" s="5" t="s">
-        <v>304</v>
+        <v>190</v>
       </c>
       <c r="F338" s="11" t="s">
         <v>122</v>
@@ -10550,17 +10621,17 @@
     <row r="339" spans="1:6" outlineLevel="1">
       <c r="A339" s="2"/>
       <c r="B339" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C339" s="22" t="s">
         <v>399</v>
       </c>
       <c r="D339" s="4" t="str">
-        <f>".Range(.Cells(4, 2), .Cells(9, 2)).Columns.AutoFit"</f>
-        <v>.Range(.Cells(4, 2), .Cells(9, 2)).Columns.AutoFit</v>
+        <f>".Range(""A1:CV100"").SpecialCells(xlCellTypeBlanks).Select"</f>
+        <v>.Range("A1:CV100").SpecialCells(xlCellTypeBlanks).Select</v>
       </c>
       <c r="E339" s="5" t="s">
-        <v>305</v>
+        <v>122</v>
       </c>
       <c r="F339" s="11" t="s">
         <v>122</v>
@@ -10569,17 +10640,17 @@
     <row r="340" spans="1:6" outlineLevel="1">
       <c r="A340" s="2"/>
       <c r="B340" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C340" s="22" t="s">
         <v>399</v>
       </c>
       <c r="D340" s="4" t="str">
-        <f>".Sheets(シート名).UsedRange.Columns.AutoFit"</f>
-        <v>.Sheets(シート名).UsedRange.Columns.AutoFit</v>
+        <f>".Range(""A1"").ColumnWidth = 5"</f>
+        <v>.Range("A1").ColumnWidth = 5</v>
       </c>
       <c r="E340" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F340" s="11" t="s">
         <v>122</v>
@@ -10588,17 +10659,17 @@
     <row r="341" spans="1:6" outlineLevel="1">
       <c r="A341" s="2"/>
       <c r="B341" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C341" s="22" t="s">
         <v>399</v>
       </c>
       <c r="D341" s="4" t="str">
-        <f>"Application.CutCopyMode = False"</f>
-        <v>Application.CutCopyMode = False</v>
+        <f>".Range(.Cells(4, 2), .Cells(9, 2)).Columns.AutoFit"</f>
+        <v>.Range(.Cells(4, 2), .Cells(9, 2)).Columns.AutoFit</v>
       </c>
       <c r="E341" s="5" t="s">
-        <v>122</v>
+        <v>305</v>
       </c>
       <c r="F341" s="11" t="s">
         <v>122</v>
@@ -10607,17 +10678,17 @@
     <row r="342" spans="1:6" outlineLevel="1">
       <c r="A342" s="2"/>
       <c r="B342" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C342" s="22" t="s">
         <v>399</v>
       </c>
       <c r="D342" s="4" t="str">
-        <f>".Range( .Rows( lStrtRow ), .Rows( lLastRow ) ).Group"</f>
-        <v>.Range( .Rows( lStrtRow ), .Rows( lLastRow ) ).Group</v>
+        <f>".Sheets(シート名).UsedRange.Columns.AutoFit"</f>
+        <v>.Sheets(シート名).UsedRange.Columns.AutoFit</v>
       </c>
       <c r="E342" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F342" s="11" t="s">
         <v>122</v>
@@ -10626,17 +10697,17 @@
     <row r="343" spans="1:6" outlineLevel="1">
       <c r="A343" s="2"/>
       <c r="B343" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C343" s="22" t="s">
         <v>399</v>
       </c>
       <c r="D343" s="4" t="str">
-        <f>".Range( .Columns( lStrtRow ), .Columns( lLastRow ) ).Group"</f>
-        <v>.Range( .Columns( lStrtRow ), .Columns( lLastRow ) ).Group</v>
+        <f>"Application.CutCopyMode = False"</f>
+        <v>Application.CutCopyMode = False</v>
       </c>
       <c r="E343" s="5" t="s">
-        <v>306</v>
+        <v>122</v>
       </c>
       <c r="F343" s="11" t="s">
         <v>122</v>
@@ -10645,17 +10716,17 @@
     <row r="344" spans="1:6" outlineLevel="1">
       <c r="A344" s="2"/>
       <c r="B344" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C344" s="22" t="s">
         <v>399</v>
       </c>
       <c r="D344" s="4" t="str">
-        <f>".Sheets(シート名).Outline.SummaryRow = ( xlBelow \| xlAbove )"</f>
-        <v>.Sheets(シート名).Outline.SummaryRow = ( xlBelow \| xlAbove )</v>
+        <f>".Range( .Rows( lStrtRow ), .Rows( lLastRow ) ).Group"</f>
+        <v>.Range( .Rows( lStrtRow ), .Rows( lLastRow ) ).Group</v>
       </c>
       <c r="E344" s="5" t="s">
-        <v>122</v>
+        <v>306</v>
       </c>
       <c r="F344" s="11" t="s">
         <v>122</v>
@@ -10664,17 +10735,17 @@
     <row r="345" spans="1:6" outlineLevel="1">
       <c r="A345" s="2"/>
       <c r="B345" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C345" s="22" t="s">
         <v>399</v>
       </c>
       <c r="D345" s="4" t="str">
-        <f>".Sheets(シート名).Outline.SummaryColumn = ( xlRight \| xlLeft )"</f>
-        <v>.Sheets(シート名).Outline.SummaryColumn = ( xlRight \| xlLeft )</v>
+        <f>".Range( .Columns( lStrtRow ), .Columns( lLastRow ) ).Group"</f>
+        <v>.Range( .Columns( lStrtRow ), .Columns( lLastRow ) ).Group</v>
       </c>
       <c r="E345" s="5" t="s">
-        <v>122</v>
+        <v>306</v>
       </c>
       <c r="F345" s="11" t="s">
         <v>122</v>
@@ -10683,14 +10754,14 @@
     <row r="346" spans="1:6" outlineLevel="1">
       <c r="A346" s="2"/>
       <c r="B346" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C346" s="22" t="s">
         <v>399</v>
       </c>
       <c r="D346" s="4" t="str">
-        <f>".Sheets(シート名).Outline.AutomaticStyles = ( True \| False )"</f>
-        <v>.Sheets(シート名).Outline.AutomaticStyles = ( True \| False )</v>
+        <f>".Sheets(シート名).Outline.SummaryRow = ( xlBelow \| xlAbove )"</f>
+        <v>.Sheets(シート名).Outline.SummaryRow = ( xlBelow \| xlAbove )</v>
       </c>
       <c r="E346" s="5" t="s">
         <v>122</v>
@@ -10702,14 +10773,14 @@
     <row r="347" spans="1:6" outlineLevel="1">
       <c r="A347" s="2"/>
       <c r="B347" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C347" s="22" t="s">
         <v>399</v>
       </c>
       <c r="D347" s="4" t="str">
-        <f>".Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).AutoFilter"</f>
-        <v>.Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).AutoFilter</v>
+        <f>".Sheets(シート名).Outline.SummaryColumn = ( xlRight \| xlLeft )"</f>
+        <v>.Sheets(シート名).Outline.SummaryColumn = ( xlRight \| xlLeft )</v>
       </c>
       <c r="E347" s="5" t="s">
         <v>122</v>
@@ -10721,94 +10792,94 @@
     <row r="348" spans="1:6" outlineLevel="1">
       <c r="A348" s="2"/>
       <c r="B348" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C348" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="D348" s="4" t="str">
+        <f>".Sheets(シート名).Outline.AutomaticStyles = ( True \| False )"</f>
+        <v>.Sheets(シート名).Outline.AutomaticStyles = ( True \| False )</v>
+      </c>
+      <c r="E348" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F348" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" outlineLevel="1">
+      <c r="A349" s="2"/>
+      <c r="B349" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C349" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="D349" s="4" t="str">
+        <f>".Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).AutoFilter"</f>
+        <v>.Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).AutoFilter</v>
+      </c>
+      <c r="E349" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F349" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" outlineLevel="1">
+      <c r="A350" s="2"/>
+      <c r="B350" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C348" s="22" t="s">
-        <v>399</v>
-      </c>
-      <c r="D348" s="4" t="str">
+      <c r="C350" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="D350" s="4" t="str">
         <f>".Rows(行).Select"&amp;CHAR(10)&amp;"ActiveWindow.FreezePanes = True"</f>
         <v>.Rows(行).Select
 ActiveWindow.FreezePanes = True</v>
       </c>
-      <c r="E348" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F348" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="349" spans="1:6" outlineLevel="1">
-      <c r="A349" s="2"/>
-      <c r="B349" s="2" t="s">
+      <c r="E350" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F350" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" outlineLevel="1">
+      <c r="A351" s="2"/>
+      <c r="B351" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C349" s="22" t="s">
-        <v>399</v>
-      </c>
-      <c r="D349" s="4" t="str">
+      <c r="C351" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="D351" s="4" t="str">
         <f>".Columns(列).Select"&amp;CHAR(10)&amp;"ActiveWindow.FreezePanes = True"</f>
         <v>.Columns(列).Select
 ActiveWindow.FreezePanes = True</v>
       </c>
-      <c r="E349" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F349" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="350" spans="1:6" outlineLevel="1">
-      <c r="A350" s="2"/>
-      <c r="B350" s="2" t="s">
+      <c r="E351" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F351" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" outlineLevel="1">
+      <c r="A352" s="2"/>
+      <c r="B352" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C350" s="22" t="s">
-        <v>399</v>
-      </c>
-      <c r="D350" s="4" t="str">
+      <c r="C352" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="D352" s="4" t="str">
         <f>".Cells(行,列).Select"&amp;CHAR(10)&amp;"ActiveWindow.FreezePanes = True"</f>
         <v>.Cells(行,列).Select
 ActiveWindow.FreezePanes = True</v>
       </c>
-      <c r="E350" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F350" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="351" spans="1:6" outlineLevel="1">
-      <c r="A351" s="2"/>
-      <c r="B351" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="C351" s="22" t="s">
-        <v>399</v>
-      </c>
-      <c r="D351" s="4" t="str">
-        <f>"ActiveWindow.FreezePanes = False"</f>
-        <v>ActiveWindow.FreezePanes = False</v>
-      </c>
-      <c r="E351" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F351" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="352" spans="1:6" outlineLevel="1">
-      <c r="A352" s="2"/>
-      <c r="B352" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="C352" s="22" t="s">
-        <v>399</v>
-      </c>
-      <c r="D352" s="4" t="str">
-        <f>"Application.WorksheetFunction.VLookup(.Range(""C1""), .Range(""A1:B7""), 2, False)"</f>
-        <v>Application.WorksheetFunction.VLookup(.Range("C1"), .Range("A1:B7"), 2, False)</v>
-      </c>
       <c r="E352" s="5" t="s">
         <v>122</v>
       </c>
@@ -10819,17 +10890,17 @@
     <row r="353" spans="1:6" outlineLevel="1">
       <c r="A353" s="2"/>
       <c r="B353" s="2" t="s">
-        <v>121</v>
+        <v>217</v>
       </c>
       <c r="C353" s="22" t="s">
         <v>399</v>
       </c>
       <c r="D353" s="4" t="str">
-        <f>"CreateObject(""WScript.Network"").UserName"</f>
-        <v>CreateObject("WScript.Network").UserName</v>
+        <f>"ActiveWindow.FreezePanes = False"</f>
+        <v>ActiveWindow.FreezePanes = False</v>
       </c>
       <c r="E353" s="5" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F353" s="11" t="s">
         <v>122</v>
@@ -10838,17 +10909,17 @@
     <row r="354" spans="1:6" outlineLevel="1">
       <c r="A354" s="2"/>
       <c r="B354" s="2" t="s">
-        <v>339</v>
+        <v>247</v>
       </c>
       <c r="C354" s="22" t="s">
         <v>399</v>
       </c>
-      <c r="D354" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="E354" s="6" t="str">
-        <f>HYPERLINK("https://msdn.microsoft.com/ja-jp/library/office/ff197461.aspx","sShtcutKey＝Shift:+,Ctrl:^,Alt:%,...")</f>
-        <v>sShtcutKey＝Shift:+,Ctrl:^,Alt:%,...</v>
+      <c r="D354" s="4" t="str">
+        <f>"Application.WorksheetFunction.VLookup(.Range(""C1""), .Range(""A1:B7""), 2, False)"</f>
+        <v>Application.WorksheetFunction.VLookup(.Range("C1"), .Range("A1:B7"), 2, False)</v>
+      </c>
+      <c r="E354" s="5" t="s">
+        <v>122</v>
       </c>
       <c r="F354" s="11" t="s">
         <v>122</v>
@@ -10857,15 +10928,18 @@
     <row r="355" spans="1:6" outlineLevel="1">
       <c r="A355" s="2"/>
       <c r="B355" s="2" t="s">
-        <v>665</v>
+        <v>121</v>
       </c>
       <c r="C355" s="22" t="s">
         <v>399</v>
       </c>
-      <c r="D355" s="4" t="s">
-        <v>663</v>
-      </c>
-      <c r="E355" s="5"/>
+      <c r="D355" s="4" t="str">
+        <f>"CreateObject(""WScript.Network"").UserName"</f>
+        <v>CreateObject("WScript.Network").UserName</v>
+      </c>
+      <c r="E355" s="5" t="s">
+        <v>128</v>
+      </c>
       <c r="F355" s="11" t="s">
         <v>122</v>
       </c>
@@ -10873,15 +10947,18 @@
     <row r="356" spans="1:6" outlineLevel="1">
       <c r="A356" s="2"/>
       <c r="B356" s="2" t="s">
-        <v>664</v>
+        <v>339</v>
       </c>
       <c r="C356" s="22" t="s">
         <v>399</v>
       </c>
       <c r="D356" s="4" t="s">
-        <v>666</v>
-      </c>
-      <c r="E356" s="5"/>
+        <v>338</v>
+      </c>
+      <c r="E356" s="6" t="str">
+        <f>HYPERLINK("https://msdn.microsoft.com/ja-jp/library/office/ff197461.aspx","sShtcutKey＝Shift:+,Ctrl:^,Alt:%,...")</f>
+        <v>sShtcutKey＝Shift:+,Ctrl:^,Alt:%,...</v>
+      </c>
       <c r="F356" s="11" t="s">
         <v>122</v>
       </c>
@@ -10889,12 +10966,44 @@
     <row r="357" spans="1:6" outlineLevel="1">
       <c r="A357" s="2"/>
       <c r="B357" s="2" t="s">
-        <v>719</v>
+        <v>663</v>
       </c>
       <c r="C357" s="22" t="s">
         <v>399</v>
       </c>
-      <c r="D357" s="10" t="str">
+      <c r="D357" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="E357" s="5"/>
+      <c r="F357" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" outlineLevel="1">
+      <c r="A358" s="2"/>
+      <c r="B358" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="C358" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="D358" s="4" t="s">
+        <v>664</v>
+      </c>
+      <c r="E358" s="5"/>
+      <c r="F358" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" outlineLevel="1">
+      <c r="A359" s="2"/>
+      <c r="B359" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="C359" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="D359" s="10" t="str">
         <f>"Dim objBtn As Object
 Set objBtn = ActiveSheet.Shapes(Application.Caller)
 Dim lClm As Long
@@ -10910,36 +11019,36 @@
 lRow = objBtn.TopLeftCell.Row
 </v>
       </c>
-      <c r="E357" s="5" t="s">
-        <v>720</v>
-      </c>
-      <c r="F357" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="358" spans="1:6">
-      <c r="A358" s="20" t="s">
+      <c r="E359" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="F359" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6">
+      <c r="A360" s="20" t="s">
         <v>466</v>
       </c>
-      <c r="B358" s="8"/>
-      <c r="C358" s="8"/>
-      <c r="D358" s="8"/>
-      <c r="E358" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="F358" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="359" spans="1:6" outlineLevel="1">
-      <c r="A359" s="2"/>
-      <c r="B359" s="2" t="s">
+      <c r="B360" s="8"/>
+      <c r="C360" s="8"/>
+      <c r="D360" s="8"/>
+      <c r="E360" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F360" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" outlineLevel="1">
+      <c r="A361" s="2"/>
+      <c r="B361" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="C359" s="22" t="s">
-        <v>399</v>
-      </c>
-      <c r="D359" s="2" t="str">
+      <c r="C361" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="D361" s="2" t="str">
         <f>"Dim bIsSheetExist As Boolean
 bIsSheetExist = False
 For Each wSheet In ThisWorkbook.Worksheets
@@ -10959,19 +11068,19 @@
     End If
 Next wSheet</v>
       </c>
-      <c r="E359" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="360" spans="1:6" outlineLevel="1">
-      <c r="A360" s="2"/>
-      <c r="B360" s="2" t="s">
+      <c r="E361" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" outlineLevel="1">
+      <c r="A362" s="2"/>
+      <c r="B362" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="C360" s="22" t="s">
-        <v>399</v>
-      </c>
-      <c r="D360" s="2" t="str">
+      <c r="C362" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="D362" s="2" t="str">
         <f>"Dim rFindResult As Range
 Dim sFindKeyword As String
 Dim shTrgtSht As Worksheet
@@ -10985,19 +11094,19 @@
 sFindKeyword = "test"
 Set rFindResult = shTrgtSht.Cells.Find(sFindKeyword, LookAt:=xlWhole)</v>
       </c>
-      <c r="E360" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="361" spans="1:6" outlineLevel="1">
-      <c r="A361" s="2"/>
-      <c r="B361" s="2" t="s">
+      <c r="E362" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" outlineLevel="1">
+      <c r="A363" s="2"/>
+      <c r="B363" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="C361" s="22" t="s">
-        <v>399</v>
-      </c>
-      <c r="D361" s="2" t="str">
+      <c r="C363" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="D363" s="2" t="str">
         <f>"If rFindResult Is Nothing Then
     MsgBox _
         ""セルが見つからなかったため、処理を中断します。"" &amp; vbNewLine &amp; _
@@ -11015,24 +11124,6 @@
     End
 End If</v>
       </c>
-      <c r="E361" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="362" spans="1:6" outlineLevel="1">
-      <c r="A362" s="2"/>
-      <c r="B362" s="2"/>
-      <c r="C362" s="10"/>
-      <c r="D362" s="10"/>
-      <c r="E362" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="363" spans="1:6" outlineLevel="1">
-      <c r="A363" s="2"/>
-      <c r="B363" s="2"/>
-      <c r="C363" s="10"/>
-      <c r="D363" s="10"/>
       <c r="E363" s="5" t="s">
         <v>122</v>
       </c>
@@ -11136,20 +11227,38 @@
         <v>122</v>
       </c>
     </row>
-    <row r="376" spans="1:5">
-      <c r="A376" s="7" t="s">
+    <row r="375" spans="1:5" outlineLevel="1">
+      <c r="A375" s="2"/>
+      <c r="B375" s="2"/>
+      <c r="C375" s="10"/>
+      <c r="D375" s="10"/>
+      <c r="E375" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" outlineLevel="1">
+      <c r="A376" s="2"/>
+      <c r="B376" s="2"/>
+      <c r="C376" s="10"/>
+      <c r="D376" s="10"/>
+      <c r="E376" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5">
+      <c r="A378" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="B376" s="1" t="s">
+      <c r="B378" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="C376" s="1" t="s">
+      <c r="C378" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="D376" s="1" t="s">
+      <c r="D378" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="E376" s="1" t="s">
+      <c r="E378" s="1" t="s">
         <v>419</v>
       </c>
     </row>
@@ -11217,7 +11326,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="20" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -11231,13 +11340,13 @@
     <row r="4" spans="1:5" outlineLevel="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="5" spans="1:5" outlineLevel="1">
@@ -11246,7 +11355,7 @@
         <v>142</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>122</v>
@@ -11255,10 +11364,10 @@
     <row r="6" spans="1:5" outlineLevel="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>122</v>
@@ -11267,10 +11376,10 @@
     <row r="7" spans="1:5" outlineLevel="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>122</v>
@@ -11279,22 +11388,22 @@
     <row r="8" spans="1:5" outlineLevel="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="9" spans="1:5" outlineLevel="1">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>122</v>
@@ -11303,73 +11412,73 @@
     <row r="10" spans="1:5" ht="94.5" outlineLevel="1">
       <c r="A10" s="2"/>
       <c r="B10" s="32" t="s">
+        <v>651</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="D10" s="30" t="s">
         <v>653</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>654</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="11" spans="1:5" outlineLevel="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="12" spans="1:5" outlineLevel="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="13" spans="1:5" outlineLevel="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="14" spans="1:5" outlineLevel="1">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>647</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>648</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="81" outlineLevel="1">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="D15" s="30" t="s">
         <v>650</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>651</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="16" spans="1:5" outlineLevel="1">
@@ -11378,7 +11487,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>122</v>
@@ -11387,10 +11496,10 @@
     <row r="17" spans="1:5" outlineLevel="1">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>122</v>
@@ -11399,10 +11508,10 @@
     <row r="18" spans="1:5" outlineLevel="1">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>122</v>
@@ -11411,10 +11520,10 @@
     <row r="19" spans="1:5" outlineLevel="1">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>122</v>
@@ -11423,10 +11532,10 @@
     <row r="20" spans="1:5" outlineLevel="1">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>122</v>
@@ -11435,10 +11544,10 @@
     <row r="21" spans="1:5" outlineLevel="1">
       <c r="A21" s="2"/>
       <c r="B21" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>122</v>
@@ -11447,10 +11556,10 @@
     <row r="22" spans="1:5" outlineLevel="1">
       <c r="A22" s="2"/>
       <c r="B22" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>122</v>
@@ -11459,10 +11568,10 @@
     <row r="23" spans="1:5" outlineLevel="1">
       <c r="A23" s="2"/>
       <c r="B23" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>122</v>
@@ -11474,7 +11583,7 @@
         <v>13</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>122</v>
@@ -11483,10 +11592,10 @@
     <row r="25" spans="1:5" outlineLevel="1">
       <c r="A25" s="2"/>
       <c r="B25" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>122</v>
@@ -11495,10 +11604,10 @@
     <row r="26" spans="1:5" outlineLevel="1">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>122</v>
@@ -11507,10 +11616,10 @@
     <row r="27" spans="1:5" outlineLevel="1">
       <c r="A27" s="2"/>
       <c r="B27" s="2" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>122</v>
@@ -11519,10 +11628,10 @@
     <row r="28" spans="1:5" outlineLevel="1">
       <c r="A28" s="2"/>
       <c r="B28" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>122</v>
@@ -11531,10 +11640,10 @@
     <row r="29" spans="1:5" outlineLevel="1">
       <c r="A29" s="2"/>
       <c r="B29" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>122</v>
@@ -11543,30 +11652,30 @@
     <row r="30" spans="1:5" outlineLevel="1">
       <c r="A30" s="2"/>
       <c r="B30" s="2" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C30" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>659</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="31" spans="1:5" outlineLevel="1">
       <c r="A31" s="2"/>
       <c r="B31" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>658</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="D31" s="5" t="s">
         <v>660</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="20" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -11580,88 +11689,88 @@
     <row r="33" spans="1:5" outlineLevel="1">
       <c r="A33" s="2"/>
       <c r="B33" s="2" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D33" s="5"/>
     </row>
     <row r="34" spans="1:5" outlineLevel="1">
       <c r="A34" s="2"/>
       <c r="B34" s="2" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D34" s="5"/>
     </row>
     <row r="35" spans="1:5" outlineLevel="1">
       <c r="A35" s="2"/>
       <c r="B35" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D35" s="5"/>
     </row>
     <row r="36" spans="1:5" outlineLevel="1">
       <c r="A36" s="2"/>
       <c r="B36" s="2" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D36" s="5"/>
     </row>
     <row r="37" spans="1:5" outlineLevel="1">
       <c r="A37" s="2"/>
       <c r="B37" s="2" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D37" s="5"/>
     </row>
     <row r="38" spans="1:5" outlineLevel="1">
       <c r="A38" s="2"/>
       <c r="B38" s="2" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D38" s="5"/>
     </row>
     <row r="39" spans="1:5" outlineLevel="1">
       <c r="A39" s="2"/>
       <c r="B39" s="2" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D39" s="5"/>
     </row>
     <row r="40" spans="1:5" outlineLevel="1">
       <c r="A40" s="2"/>
       <c r="B40" s="2" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="20" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -11675,46 +11784,46 @@
     <row r="42" spans="1:5" outlineLevel="1">
       <c r="A42" s="2"/>
       <c r="B42" s="3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C42" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="D42" s="5" t="s">
         <v>585</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="43" spans="1:5" outlineLevel="1">
       <c r="A43" s="2"/>
       <c r="B43" s="3" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="44" spans="1:5" outlineLevel="1">
       <c r="A44" s="2"/>
       <c r="B44" s="3" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="45" spans="1:5" outlineLevel="1">
       <c r="A45" s="2"/>
       <c r="B45" s="3" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>265</v>
@@ -11723,67 +11832,67 @@
     <row r="46" spans="1:5" outlineLevel="1">
       <c r="A46" s="2"/>
       <c r="B46" s="3" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C46" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="D46" s="5" t="s">
         <v>594</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="47" spans="1:5" outlineLevel="1">
       <c r="A47" s="2"/>
       <c r="B47" s="3" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C47" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="D47" s="5" t="s">
         <v>597</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="48" spans="1:5" outlineLevel="1">
       <c r="A48" s="2"/>
       <c r="B48" s="3" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C48" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="D48" s="5" t="s">
         <v>600</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="49" spans="1:5" outlineLevel="1">
       <c r="A49" s="2"/>
       <c r="B49" s="3" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C49" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="D49" s="5" t="s">
         <v>603</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="50" spans="1:5" outlineLevel="1">
       <c r="A50" s="2"/>
       <c r="B50" s="3" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C50" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="D50" s="5" t="s">
         <v>606</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="27" outlineLevel="1">
       <c r="A51" s="2"/>
       <c r="B51" s="2" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C51" s="31" t="str">
         <f>"set CUR_DIR_PATH=%~dp0
@@ -11798,49 +11907,49 @@
     <row r="52" spans="1:5" outlineLevel="1">
       <c r="A52" s="2"/>
       <c r="B52" s="3" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C52" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="D52" s="5" t="s">
         <v>609</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="53" spans="1:5" outlineLevel="1">
       <c r="A53" s="2"/>
       <c r="B53" s="3" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C53" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="D53" s="5" t="s">
         <v>612</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="54" spans="1:5" outlineLevel="1">
       <c r="A54" s="2"/>
       <c r="B54" s="3" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C54" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="D54" s="5" t="s">
         <v>615</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="55" spans="1:5" outlineLevel="1">
       <c r="A55" s="2"/>
       <c r="B55" s="3" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C55" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="D55" s="5" t="s">
         <v>618</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -11862,19 +11971,19 @@
         <v>48</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D57" s="30" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="58" spans="1:5" outlineLevel="1">
       <c r="A58" s="2"/>
       <c r="B58" s="2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>122</v>
@@ -11883,10 +11992,10 @@
     <row r="59" spans="1:5" outlineLevel="1">
       <c r="A59" s="2"/>
       <c r="B59" s="2" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>122</v>
@@ -11895,13 +12004,13 @@
     <row r="60" spans="1:5" outlineLevel="1">
       <c r="A60" s="2"/>
       <c r="B60" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D60" s="30" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="61" spans="1:5" outlineLevel="1">
@@ -11910,7 +12019,7 @@
         <v>59</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>122</v>
@@ -11922,22 +12031,22 @@
         <v>58</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D62" s="30" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="63" spans="1:5" outlineLevel="1">
       <c r="A63" s="2"/>
       <c r="B63" s="2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D63" s="30" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="135" outlineLevel="1">
@@ -11946,103 +12055,103 @@
         <v>57</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D64" s="30" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="94.5" outlineLevel="1">
       <c r="A65" s="2"/>
       <c r="B65" s="2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D65" s="30" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="66" spans="1:4" outlineLevel="1">
       <c r="A66" s="2"/>
       <c r="B66" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="67" spans="1:4" outlineLevel="1">
       <c r="A67" s="2"/>
       <c r="B67" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="68" spans="1:4" outlineLevel="1">
       <c r="A68" s="2"/>
       <c r="B68" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D68" s="30" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="69" spans="1:4" outlineLevel="1">
       <c r="A69" s="2"/>
       <c r="B69" s="2" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D69" s="30" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="70" spans="1:4" outlineLevel="1">
       <c r="A70" s="2"/>
       <c r="B70" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D70" s="30" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="27" outlineLevel="1">
       <c r="A71" s="2"/>
       <c r="B71" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="D71" s="30" t="s">
         <v>573</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>574</v>
-      </c>
-      <c r="D71" s="30" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="72" spans="1:4" outlineLevel="1">
       <c r="A72" s="2"/>
       <c r="B72" s="2" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="D72" s="5" t="s">
         <v>122</v>
@@ -12051,10 +12160,10 @@
     <row r="73" spans="1:4" outlineLevel="1">
       <c r="A73" s="2"/>
       <c r="B73" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D73" s="5" t="s">
         <v>122</v>
@@ -12063,22 +12172,22 @@
     <row r="74" spans="1:4" outlineLevel="1">
       <c r="A74" s="2"/>
       <c r="B74" s="2" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="75" spans="1:4" outlineLevel="1">
       <c r="A75" s="2"/>
       <c r="B75" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D75" s="5" t="s">
         <v>122</v>
@@ -12087,10 +12196,10 @@
     <row r="76" spans="1:4" outlineLevel="1">
       <c r="A76" s="2"/>
       <c r="B76" s="2" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D76" s="5" t="s">
         <v>122</v>
@@ -12099,10 +12208,10 @@
     <row r="77" spans="1:4" outlineLevel="1">
       <c r="A77" s="2"/>
       <c r="B77" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D77" s="5" t="s">
         <v>122</v>
@@ -12111,10 +12220,10 @@
     <row r="78" spans="1:4" outlineLevel="1">
       <c r="A78" s="2"/>
       <c r="B78" s="2" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D78" s="5" t="s">
         <v>122</v>

--- a/言語チートシート.xlsx
+++ b/言語チートシート.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9,7 +9,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A2DCAA9-A948-4292-8151-41A301EF2205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4220B98A-F5FD-413D-89CD-2A60043157FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1980" yWindow="-120" windowWidth="26940" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,6 +22,15 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'vbs,vba'!$A$2:$E$2</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -136,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="742">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1595" uniqueCount="750">
   <si>
     <t>変数強制定義</t>
   </si>
@@ -3248,6 +3257,56 @@
     <rPh sb="11" eb="13">
       <t>シュトク</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>セルコメント 編集</t>
+    <rPh sb="7" eb="9">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>セルコメント 書式設定</t>
+    <rPh sb="7" eb="9">
+      <t>ショシキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>セルコメント 有無判定</t>
+    <rPh sb="7" eb="9">
+      <t>ウム</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>.Cells(lRowIdx, lClmIdx).Comment Is Nothing</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>.Cells(lRowIdx, lClmIdx).Comment.Shape.Placement = xlMoveAndSize</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>.Cells(lRowIdx, lClmIdx).Comment.Text = "コメント"</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>セルコメント 追加</t>
+    <rPh sb="7" eb="9">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>.Cells(lRowIdx, lClmIdx).AddComment "これはコメントです"</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -3948,7 +4007,7 @@
   <sheetPr codeName="Sheet1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F378"/>
+  <dimension ref="A1:F382"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -11026,14 +11085,18 @@
         <v>122</v>
       </c>
     </row>
-    <row r="360" spans="1:6">
-      <c r="A360" s="20" t="s">
-        <v>466</v>
-      </c>
-      <c r="B360" s="8"/>
-      <c r="C360" s="8"/>
-      <c r="D360" s="8"/>
-      <c r="E360" s="8" t="s">
+    <row r="360" spans="1:6" outlineLevel="1">
+      <c r="A360" s="2"/>
+      <c r="B360" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="C360" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="D360" s="10" t="s">
+        <v>745</v>
+      </c>
+      <c r="E360" s="5" t="s">
         <v>122</v>
       </c>
       <c r="F360" s="11" t="s">
@@ -11043,12 +11106,80 @@
     <row r="361" spans="1:6" outlineLevel="1">
       <c r="A361" s="2"/>
       <c r="B361" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="C361" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="D361" s="10" t="s">
+        <v>749</v>
+      </c>
+      <c r="E361" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F361" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" outlineLevel="1">
+      <c r="A362" s="2"/>
+      <c r="B362" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="C362" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="D362" s="10" t="s">
+        <v>747</v>
+      </c>
+      <c r="E362" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F362" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" outlineLevel="1">
+      <c r="A363" s="2"/>
+      <c r="B363" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="C363" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="D363" s="10" t="s">
+        <v>746</v>
+      </c>
+      <c r="E363" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F363" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6">
+      <c r="A364" s="20" t="s">
+        <v>466</v>
+      </c>
+      <c r="B364" s="8"/>
+      <c r="C364" s="8"/>
+      <c r="D364" s="8"/>
+      <c r="E364" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F364" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" outlineLevel="1">
+      <c r="A365" s="2"/>
+      <c r="B365" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="C361" s="22" t="s">
-        <v>399</v>
-      </c>
-      <c r="D361" s="2" t="str">
+      <c r="C365" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="D365" s="2" t="str">
         <f>"Dim bIsSheetExist As Boolean
 bIsSheetExist = False
 For Each wSheet In ThisWorkbook.Worksheets
@@ -11068,19 +11199,19 @@
     End If
 Next wSheet</v>
       </c>
-      <c r="E361" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="362" spans="1:6" outlineLevel="1">
-      <c r="A362" s="2"/>
-      <c r="B362" s="2" t="s">
+      <c r="E365" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" outlineLevel="1">
+      <c r="A366" s="2"/>
+      <c r="B366" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="C362" s="22" t="s">
-        <v>399</v>
-      </c>
-      <c r="D362" s="2" t="str">
+      <c r="C366" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="D366" s="2" t="str">
         <f>"Dim rFindResult As Range
 Dim sFindKeyword As String
 Dim shTrgtSht As Worksheet
@@ -11094,19 +11225,19 @@
 sFindKeyword = "test"
 Set rFindResult = shTrgtSht.Cells.Find(sFindKeyword, LookAt:=xlWhole)</v>
       </c>
-      <c r="E362" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="363" spans="1:6" outlineLevel="1">
-      <c r="A363" s="2"/>
-      <c r="B363" s="2" t="s">
+      <c r="E366" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" outlineLevel="1">
+      <c r="A367" s="2"/>
+      <c r="B367" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="C363" s="22" t="s">
-        <v>399</v>
-      </c>
-      <c r="D363" s="2" t="str">
+      <c r="C367" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="D367" s="2" t="str">
         <f>"If rFindResult Is Nothing Then
     MsgBox _
         ""セルが見つからなかったため、処理を中断します。"" &amp; vbNewLine &amp; _
@@ -11124,42 +11255,6 @@
     End
 End If</v>
       </c>
-      <c r="E363" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="364" spans="1:6" outlineLevel="1">
-      <c r="A364" s="2"/>
-      <c r="B364" s="2"/>
-      <c r="C364" s="10"/>
-      <c r="D364" s="10"/>
-      <c r="E364" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="365" spans="1:6" outlineLevel="1">
-      <c r="A365" s="2"/>
-      <c r="B365" s="2"/>
-      <c r="C365" s="10"/>
-      <c r="D365" s="10"/>
-      <c r="E365" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="366" spans="1:6" outlineLevel="1">
-      <c r="A366" s="2"/>
-      <c r="B366" s="2"/>
-      <c r="C366" s="10"/>
-      <c r="D366" s="10"/>
-      <c r="E366" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="367" spans="1:6" outlineLevel="1">
-      <c r="A367" s="2"/>
-      <c r="B367" s="2"/>
-      <c r="C367" s="10"/>
-      <c r="D367" s="10"/>
       <c r="E367" s="5" t="s">
         <v>122</v>
       </c>
@@ -11245,20 +11340,56 @@
         <v>122</v>
       </c>
     </row>
-    <row r="378" spans="1:5">
-      <c r="A378" s="7" t="s">
+    <row r="377" spans="1:5" outlineLevel="1">
+      <c r="A377" s="2"/>
+      <c r="B377" s="2"/>
+      <c r="C377" s="10"/>
+      <c r="D377" s="10"/>
+      <c r="E377" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" outlineLevel="1">
+      <c r="A378" s="2"/>
+      <c r="B378" s="2"/>
+      <c r="C378" s="10"/>
+      <c r="D378" s="10"/>
+      <c r="E378" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" outlineLevel="1">
+      <c r="A379" s="2"/>
+      <c r="B379" s="2"/>
+      <c r="C379" s="10"/>
+      <c r="D379" s="10"/>
+      <c r="E379" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" outlineLevel="1">
+      <c r="A380" s="2"/>
+      <c r="B380" s="2"/>
+      <c r="C380" s="10"/>
+      <c r="D380" s="10"/>
+      <c r="E380" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5">
+      <c r="A382" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="B378" s="1" t="s">
+      <c r="B382" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="C378" s="1" t="s">
+      <c r="C382" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="D378" s="1" t="s">
+      <c r="D382" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="E378" s="1" t="s">
+      <c r="E382" s="1" t="s">
         <v>419</v>
       </c>
     </row>

--- a/言語チートシート.xlsx
+++ b/言語チートシート.xlsx
@@ -9,16 +9,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4220B98A-F5FD-413D-89CD-2A60043157FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7372083B-77E3-404A-A666-69B423757EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="-120" windowWidth="26940" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-32430" yWindow="-28485" windowWidth="32475" windowHeight="45030" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vbs,vba" sheetId="43" r:id="rId1"/>
-    <sheet name="bat" sheetId="44" r:id="rId2"/>
+    <sheet name="python" sheetId="45" r:id="rId2"/>
+    <sheet name="bat" sheetId="44" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">bat!$A$2:$D$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">bat!$A$2:$D$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">python!$A$2:$D$252</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'vbs,vba'!$A$2:$E$2</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -145,7 +147,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1595" uniqueCount="750">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2268" uniqueCount="978">
   <si>
     <t>変数強制定義</t>
   </si>
@@ -1284,9 +1286,6 @@
   </si>
   <si>
     <t>文字列長 取得３</t>
-  </si>
-  <si>
-    <t>LenByte("あaＢ")</t>
   </si>
   <si>
     <t>LenB(""リンゴ"")</t>
@@ -3309,12 +3308,912 @@
     <t>.Cells(lRowIdx, lClmIdx).AddComment "これはコメントです"</t>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>value = func(1, 2)</t>
+  </si>
+  <si>
+    <t>break</t>
+  </si>
+  <si>
+    <t>インタプリタパス指定</t>
+  </si>
+  <si>
+    <t>#! /usr/bin/python</t>
+  </si>
+  <si>
+    <t>import</t>
+  </si>
+  <si>
+    <t>import testmod</t>
+  </si>
+  <si>
+    <t>continue</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>出力①</t>
+  </si>
+  <si>
+    <t>出力②</t>
+  </si>
+  <si>
+    <t>assert a == 4</t>
+  </si>
+  <si>
+    <t>条件式 and</t>
+  </si>
+  <si>
+    <t>条件式 or</t>
+  </si>
+  <si>
+    <t>条件式 not</t>
+  </si>
+  <si>
+    <t>四則演算（加算）</t>
+  </si>
+  <si>
+    <t>10 + 10</t>
+  </si>
+  <si>
+    <t>四則演算（減算）</t>
+  </si>
+  <si>
+    <t>四則演算（乗算）</t>
+  </si>
+  <si>
+    <t>四則演算（除算）</t>
+  </si>
+  <si>
+    <t>インクリメント</t>
+  </si>
+  <si>
+    <t>デクリメント</t>
+  </si>
+  <si>
+    <t>文字列 ０埋込</t>
+  </si>
+  <si>
+    <t>リスト 連結</t>
+  </si>
+  <si>
+    <t>list1 + list2</t>
+  </si>
+  <si>
+    <t>fileobj.close()</t>
+  </si>
+  <si>
+    <t>for line in fileobj: ～</t>
+  </si>
+  <si>
+    <t>line = fileobj.readline()</t>
+  </si>
+  <si>
+    <t>fileobj.write( "test string" )</t>
+  </si>
+  <si>
+    <t>Python3.4 から追加されたっぽい</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>operation は省略可能。（初期値は1）</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>10 * 10</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>10 - 10</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>10 / 10</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>test_num += 1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>test_num -= 1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「r」によりパス区切りの \ のエスケープが不要となる</t>
+  </si>
+  <si>
+    <t>test_1 と test_2 の間に改行が入る</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>hex(ord(u"あ"))</t>
+  </si>
+  <si>
+    <t>0x3042</t>
+  </si>
+  <si>
+    <t>chr(97)</t>
+  </si>
+  <si>
+    <t>'a'</t>
+  </si>
+  <si>
+    <t>hex(29)</t>
+  </si>
+  <si>
+    <t>'0x1d'</t>
+  </si>
+  <si>
+    <t>int('0x1d', 16)</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>int("1234")</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>str(1234)</t>
+  </si>
+  <si>
+    <t>リスト 参照</t>
+  </si>
+  <si>
+    <t>リスト 削除</t>
+  </si>
+  <si>
+    <t>リスト 末尾取り出し</t>
+  </si>
+  <si>
+    <t>リスト 要素番号取得</t>
+  </si>
+  <si>
+    <t>リスト 要素数取得</t>
+  </si>
+  <si>
+    <t>リスト 追加（末尾）</t>
+  </si>
+  <si>
+    <t>リスト 追加（中間）</t>
+  </si>
+  <si>
+    <t>list[0]</t>
+  </si>
+  <si>
+    <t>'1' （0 オリジン）</t>
+  </si>
+  <si>
+    <t>list.remove('2')</t>
+  </si>
+  <si>
+    <t>list = ['1', '3', '2', '1']（先頭の '2' のみ削除）</t>
+  </si>
+  <si>
+    <t>list.pop(1)</t>
+  </si>
+  <si>
+    <t>list = ['1', '3', '2', '1']</t>
+  </si>
+  <si>
+    <t>list.index('2')</t>
+  </si>
+  <si>
+    <t>1（先頭の要素のみ）</t>
+  </si>
+  <si>
+    <t>list.count('2')</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>len( list )</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>list.append('-')</t>
+  </si>
+  <si>
+    <t>list = ['1','2','3','2','1','-']</t>
+  </si>
+  <si>
+    <t>list.insert(1,'-')</t>
+  </si>
+  <si>
+    <t>list = ['1','-','2','3','2','1']</t>
+  </si>
+  <si>
+    <t>list = ['1','2','3','2','1']</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>リスト</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>fileobj = open( "hoge.txt", 'r' )</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>'r':読込、'w':書込、'a':追記</t>
+  </si>
+  <si>
+    <t>allLines = fileobj.readLines()</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>リストとして取得（改行文字は削除されない！）</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>allLines = fileobj.read()</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>改行区切りの文字列として取得</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1[ms] スリープ</t>
+  </si>
+  <si>
+    <t># -*- coding: cp932 -*-</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>for value in for_sample:</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>vba の for each と同じ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>for i in range( len( list ) ):</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>list 要素数分繰り返し</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>if value_1 == "python" and value_2 == "izm":</t>
+  </si>
+  <si>
+    <t>if value_1 == "python" or value_2 == "izm":</t>
+  </si>
+  <si>
+    <t>if not value_1 == "python":</t>
+  </si>
+  <si>
+    <t>while 条件式 :</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>変数定義</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>繰返し continue</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>処理継続チェック(アサート)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>文字列 置換</t>
+    <rPh sb="0" eb="3">
+      <t>モジレツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>文字列 文字埋込</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>文字列 小文字化</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>文字列 大文字化</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>文字列⇒数値 変換</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>'\n' | '\r'</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>スリープ処理</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ＴＸＴ 定義</t>
+    <rPh sb="4" eb="6">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ＴＸＴ オープン</t>
+  </si>
+  <si>
+    <t>ＴＸＴ クローズ</t>
+  </si>
+  <si>
+    <t>ＴＸＴ 読込（一行ずつ）</t>
+  </si>
+  <si>
+    <t>ＴＸＴ 読込（一括）</t>
+  </si>
+  <si>
+    <t>ＴＸＴ 書込</t>
+  </si>
+  <si>
+    <t>リスト参照</t>
+    <rPh sb="3" eb="5">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>クラスで代用可能っぽい</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>エンコード宣言(文字コード)</t>
+    <rPh sb="8" eb="10">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>(utf-8|Shift_JIS|EUC-JP|cp932) Python3では不要</t>
+    <rPh sb="40" eb="42">
+      <t>フヨウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>print("python")</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>print(u"array[%d] = %s" % (2,"apple"))</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>array[2] = apple</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>from datetime import datetime</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>datetime.now().strftime("%Y/%m/%d %H:%M:%S")</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>time.sleep( 0.001 )</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>import sleep</t>
+  </si>
+  <si>
+    <t>import os</t>
+  </si>
+  <si>
+    <t>os.system( "attrib +h " + r"c:\test\a.txt" )</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>フォルダ 作成（単層）</t>
+    <rPh sb="8" eb="10">
+      <t>タンソウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>フォルダ 作成（複層）</t>
+    <rPh sb="8" eb="10">
+      <t>フクソウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>os.mkdir( trgtpath )</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>os.makedirs( trgtpath )</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>import os.path</t>
+  </si>
+  <si>
+    <t>ファイル名抽出</t>
+  </si>
+  <si>
+    <t>ディレクトリパス抽出</t>
+  </si>
+  <si>
+    <t>拡張子抽出</t>
+  </si>
+  <si>
+    <t>ファイル存在確認</t>
+  </si>
+  <si>
+    <t>ディレクトリ存在確認</t>
+  </si>
+  <si>
+    <t>import shutil</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ファイルコピー１</t>
+  </si>
+  <si>
+    <t>ファイルコピー２</t>
+  </si>
+  <si>
+    <t>ディレクトリコピー</t>
+  </si>
+  <si>
+    <t>ディレクトリ配下削除</t>
+  </si>
+  <si>
+    <t>shutil.copyfile(r"C:\src\src.txt", r"C:\dst\dst.txt")</t>
+  </si>
+  <si>
+    <t>shutil.copy(r"C:\src\src.txt", r"C:\dst")</t>
+  </si>
+  <si>
+    <t>shutil.copytree(r"C:\src", r"C:\dst")</t>
+  </si>
+  <si>
+    <t>配下のファイルも削除</t>
+  </si>
+  <si>
+    <t>shutil.rmtree(r"C:\targetdir")</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>__file__</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>"C:\dir\sample.py" → "dir\sample.py"</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>実行スクリプト ファイル絶対パス</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>実行スクリプト ファイル名</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>実行スクリプト ファイル相対パス２</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>実行スクリプト ファイル相対パス１</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>"C:\dir\sample.py" → "C:\dir\sample.py"</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>"C:\dir\sample.py" → "sample.py"</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>os.path.abspath( __file__ )</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>os.path.basename( os.path.abspath( __file__ ) )</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>sys.argv[0]</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>import sys</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>サンプルスクリプト</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>フォルダ以外。サブフォルダ配下は無視</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>フォルダ内ファイルリスト取得</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ファイル/ディレクトリ判別</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>os.path.isdir(r"c:\dir\sample.py")</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>フォルダ配下ファイル/フォルダリスト取得</t>
+    <rPh sb="4" eb="6">
+      <t>ハイカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>シングルクオーテーションでも可(違いなし)</t>
+    <rPh sb="14" eb="15">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>チガ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>文字列表現(複数行)</t>
+    <rPh sb="3" eb="5">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>文字列表現(単一行)</t>
+    <rPh sb="3" eb="5">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>タンイツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>文字列表現(エスケープ無視)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>文字列 検索</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>文字列 位置検索（前方）</t>
+    <rPh sb="4" eb="6">
+      <t>イチ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>"python-izm"</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>r"C:\targetdir\sample.txt"</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>"python-izm".replace("izm","ism")</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>4、第二引数:開始位置(0オリジン、省略可)、第三引数:終了位置(0オリジン、省略可)、見つからない場合は「-1」が返される</t>
+    <rPh sb="7" eb="9">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ショウリャク</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ダイサン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>"bc" in "abcdabcd"</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>"abcdabcd".rfind("a")</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>"abcdabcd".find("a")</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>0、第二引数:開始位置(0オリジン、省略可)、第三引数:終了位置(0オリジン、省略可)、見つからない場合は「-1」が返される</t>
+    <rPh sb="7" eb="9">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ショウリャク</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ダイサン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>文字列 位置検索（後方）</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>"python-izm".split("-")</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>['python', 'izm']</t>
+  </si>
+  <si>
+    <t>python-ism</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>"python" + "izm"</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>pythonizm</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>"abcdabcd"[0]</t>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>"abcdabcd"[:3]</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>"abcdabcd"[1:3]</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>"abcdabcd"[2:]</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>abc</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>bc</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>cdabcd</t>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>LenByte("あaＢ")</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>len("あiう".encode('shift-jis'))</t>
+  </si>
+  <si>
+    <t>len("あiう")</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>入力（数値入力のみ）</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>戻り値は文字列型。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>戻り値は数値型。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>intAnswer = input( "please input &gt;&gt;" )</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>strAnswer = raw_input( "please input &gt;&gt;" )</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>入力（数値/文字列入力）</t>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>sys.exit()</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>sys.argv</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>"python test.py python izm com" 実行時、sys.argv = ['test.py', 'python', 'izm', 'com']</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>文字列 数値判定</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>文字列 抽出 右</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>文字列 抽出 中</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>文字列 抽出 左</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>文字列 抽出</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>文字列 結合</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>文字列 分割</t>
+    <rPh sb="0" eb="3">
+      <t>モジレツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>文字列 繰り返し</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ABCDABCD</t>
+  </si>
+  <si>
+    <t>abcdabcd</t>
+  </si>
+  <si>
+    <t>!!!!!!1234</t>
+  </si>
+  <si>
+    <t>"abcdabcd".upper()</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>"ABCDABCD".lower()</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>"1234".rjust(10,"!")</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>"1234".zfill(10)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>"ABC" * 4</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ABCABCABCABC</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>"123".isnumeric()</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>os.path.basename( "/home/aaa/bbb/c.txt" )</t>
+  </si>
+  <si>
+    <t>os.path.dirname( "/home/aaa/bbb/c.txt" )</t>
+  </si>
+  <si>
+    <t>path, ext = os.path.splitext( "/home/aaa/bbb/c.txt" )</t>
+  </si>
+  <si>
+    <t>ext = .txt</t>
+  </si>
+  <si>
+    <t>c.txt</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>/home/aaa/bbb</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>os.path.exists( "/home/aaa/bbb/c.txt" )</t>
+  </si>
+  <si>
+    <t>os.path.isdir( "/home/aaa/bbb/c.txt" )</t>
+  </si>
+  <si>
+    <t>False</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>★Windows版は？</t>
+    <rPh sb="8" eb="9">
+      <t>バン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -3379,6 +4278,13 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="MS P ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
@@ -3554,7 +4460,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
@@ -3662,6 +4568,60 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4009,11 +4969,11 @@
   </sheetPr>
   <dimension ref="A1:F382"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -4040,14 +5000,14 @@
     </row>
     <row r="2" spans="1:6" ht="27">
       <c r="A2" s="14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="16" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E2" s="19" t="s">
         <v>126</v>
@@ -4058,7 +5018,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="20" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -4096,10 +5056,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="11" t="s">
@@ -4112,10 +5072,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="11" t="s">
@@ -4128,10 +5088,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="11" t="s">
@@ -4144,10 +5104,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="11" t="s">
@@ -4164,10 +5124,10 @@
         <v>Dim 配列変数名(最終要素番号)</v>
       </c>
       <c r="D9" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>415</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>416</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>122</v>
@@ -4176,16 +5136,16 @@
     <row r="10" spans="1:6" outlineLevel="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>398</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="C10" s="22" t="s">
-        <v>399</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>341</v>
-      </c>
       <c r="E10" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>122</v>
@@ -4197,7 +5157,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D11" s="4" t="str">
         <f>"Const NUM As Integer = 1"</f>
@@ -4216,7 +5176,7 @@
         <v>140</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D12" s="4" t="str">
         <f>"Type T_XXX
@@ -4229,7 +5189,7 @@
 End Type</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>122</v>
@@ -4241,7 +5201,7 @@
         <v>142</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D13" s="4" t="str">
         <f>"Enum E_XXX
@@ -4254,7 +5214,7 @@
 End Enum</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>122</v>
@@ -4375,7 +5335,7 @@
     <row r="18" spans="1:6" outlineLevel="1">
       <c r="A18" s="2"/>
       <c r="B18" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C18" s="4" t="str">
         <f>"If iVal = 1 Or iVal = 2 Then"&amp;CHAR(10)&amp;"ElseIf iVal = 3 Then"&amp;CHAR(10)&amp;"Else"&amp;CHAR(10)&amp;"End If"</f>
@@ -4401,7 +5361,7 @@
     <row r="19" spans="1:6" outlineLevel="1">
       <c r="A19" s="2"/>
       <c r="B19" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C19" s="4" t="str">
         <f>"If objTest Is Nothing Then"&amp;CHAR(10)&amp;"Else"&amp;CHAR(10)&amp;"End If"</f>
@@ -4425,7 +5385,7 @@
     <row r="20" spans="1:6" outlineLevel="1">
       <c r="A20" s="2"/>
       <c r="B20" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C20" s="4" t="str">
         <f>"Select Case iVal"&amp;CHAR(10)&amp;"Case 1"&amp;CHAR(10)&amp;"Case Else"&amp;CHAR(10)&amp;"End Select"</f>
@@ -4451,7 +5411,7 @@
     <row r="21" spans="1:6" outlineLevel="1">
       <c r="A21" s="2"/>
       <c r="B21" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C21" s="4" t="str">
         <f>"For iVal1 = 1 To 3 [Step 1]"&amp;CHAR(10)&amp;"Next"</f>
@@ -4473,7 +5433,7 @@
     <row r="22" spans="1:6" outlineLevel="1">
       <c r="A22" s="2"/>
       <c r="B22" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C22" s="4" t="str">
         <f>"For Each Value in Values"&amp;CHAR(10)&amp;"Next"</f>
@@ -4496,7 +5456,7 @@
     <row r="23" spans="1:6" outlineLevel="1">
       <c r="A23" s="2"/>
       <c r="B23" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C23" s="4" t="str">
         <f>"Do"&amp;CHAR(10)&amp;CHAR(9)&amp;" 条件式＝真 "&amp;CHAR(10)&amp;"Loop While 条件式"</f>
@@ -4520,7 +5480,7 @@
     <row r="24" spans="1:6" outlineLevel="1">
       <c r="A24" s="2"/>
       <c r="B24" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C24" s="4" t="str">
         <f>"Do While 条件式"&amp;CHAR(10)&amp;CHAR(9)&amp;"条件式＝真"&amp;CHAR(10)&amp;"Loop"</f>
@@ -4544,7 +5504,7 @@
     <row r="25" spans="1:6" outlineLevel="1">
       <c r="A25" s="2"/>
       <c r="B25" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C25" s="4" t="str">
         <f>"Do Until 条件式"&amp;CHAR(10)&amp;CHAR(9)&amp;"条件式＝偽"&amp;CHAR(10)&amp;"Loop"</f>
@@ -4610,7 +5570,7 @@
     <row r="28" spans="1:6" outlineLevel="1">
       <c r="A28" s="2"/>
       <c r="B28" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C28" s="4" t="str">
         <f>"sStr = InputBox( ""message"", ""title"", ""default value"" )"</f>
@@ -4630,7 +5590,7 @@
     <row r="29" spans="1:6" outlineLevel="1">
       <c r="A29" s="2"/>
       <c r="B29" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C29" s="4" t="str">
         <f>"sStr = InputBox(""数値を入力してください。"")
@@ -4678,17 +5638,17 @@
     <row r="30" spans="1:6" outlineLevel="1">
       <c r="A30" s="2"/>
       <c r="B30" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C30" s="4" t="str">
         <f>"MsgBox ""Hello world"", vbOKOnly, ""title"""</f>
         <v>MsgBox "Hello world", vbOKOnly, "title"</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F30" s="11" t="s">
         <v>122</v>
@@ -4697,7 +5657,7 @@
     <row r="31" spans="1:6" outlineLevel="1">
       <c r="A31" s="2"/>
       <c r="B31" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C31" s="4" t="str">
         <f>"WScript.Echo ""Hello world"""</f>
@@ -4717,14 +5677,14 @@
     <row r="32" spans="1:6" outlineLevel="1">
       <c r="A32" s="2"/>
       <c r="B32" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C32" s="4" t="str">
         <f>"Wscript.StdOut.WriteLine ""Hello world"""</f>
         <v>Wscript.StdOut.WriteLine "Hello world"</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>123</v>
@@ -4736,7 +5696,7 @@
     <row r="33" spans="1:6" outlineLevel="1">
       <c r="A33" s="2"/>
       <c r="B33" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C33" s="4" t="str">
         <f>"Dim vAnswer" &amp; CHAR(10) &amp; "vAnswer = MsgBox(""処理を継続しますか？"", vbOkCancel, ""title"")" &amp; CHAR(10) &amp; "If vAnswer = vbCancel Then" &amp; CHAR(10) &amp; "    MsgBox ""キャンセルが押されたため、処理を中断します。"", vbExclamation, ""title""" &amp; CHAR(10) &amp; "    WScript.Quit" &amp; CHAR(10) &amp; "End If"</f>
@@ -4766,10 +5726,10 @@
     <row r="34" spans="1:6" outlineLevel="1">
       <c r="A34" s="2"/>
       <c r="B34" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D34" s="4" t="str">
         <f>"Debug.Assert 条件式"</f>
@@ -4849,7 +5809,7 @@
         <v>143</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D38" s="4" t="str">
         <f>"Stop"</f>
@@ -4885,16 +5845,16 @@
     <row r="40" spans="1:6" outlineLevel="1">
       <c r="A40" s="2"/>
       <c r="B40" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>726</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>398</v>
+      </c>
+      <c r="E40" s="5" t="s">
         <v>725</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>727</v>
-      </c>
-      <c r="D40" s="22" t="s">
-        <v>399</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>726</v>
       </c>
       <c r="F40" s="11" t="s">
         <v>122</v>
@@ -4903,13 +5863,13 @@
     <row r="41" spans="1:6" outlineLevel="1">
       <c r="A41" s="2"/>
       <c r="B41" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D41" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>122</v>
@@ -4920,7 +5880,7 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="20" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -4966,7 +5926,7 @@
         <v>InStr("abcabc", "bc")</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F44" s="11" t="s">
         <v>122</v>
@@ -4986,7 +5946,7 @@
         <v>InStrRev("abcabc", "bc")</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F45" s="11" t="s">
         <v>122</v>
@@ -5018,7 +5978,7 @@
         <v>66</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D47" s="4" t="str">
         <f>"LenB(""リンゴ"")"</f>
@@ -5153,13 +6113,13 @@
         <v>334</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>335</v>
+        <v>936</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>317</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F54" s="11" t="s">
         <v>122</v>
@@ -5199,7 +6159,7 @@
         <v>IsNumeric( sStr )</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F56" s="11" t="s">
         <v>122</v>
@@ -5219,7 +6179,7 @@
         <v>Chr(ASCIIコード)</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F57" s="11" t="s">
         <v>122</v>
@@ -5429,7 +6389,7 @@
         <v>VarType("Test")</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F67" s="11" t="s">
         <v>122</v>
@@ -5465,7 +6425,7 @@
         <v>CLng("&amp;H" &amp; "FA")</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>122</v>
@@ -5584,7 +6544,7 @@
         <v>vbNewLine</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E75" s="5" t="s">
         <v>136</v>
@@ -5956,16 +6916,16 @@
     <row r="94" spans="1:6" outlineLevel="1">
       <c r="A94" s="2"/>
       <c r="B94" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F94" s="11" t="s">
         <v>122</v>
@@ -5974,16 +6934,16 @@
     <row r="95" spans="1:6" outlineLevel="1">
       <c r="A95" s="2"/>
       <c r="B95" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C95" s="10" t="s">
+        <v>703</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>705</v>
+      </c>
+      <c r="E95" s="5" t="s">
         <v>704</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>706</v>
-      </c>
-      <c r="E95" s="5" t="s">
-        <v>705</v>
       </c>
       <c r="F95" s="11" t="s">
         <v>122</v>
@@ -5992,16 +6952,16 @@
     <row r="96" spans="1:6" outlineLevel="1">
       <c r="A96" s="2"/>
       <c r="B96" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D96" s="34" t="s">
+        <v>706</v>
+      </c>
+      <c r="E96" s="5" t="s">
         <v>707</v>
-      </c>
-      <c r="E96" s="5" t="s">
-        <v>708</v>
       </c>
       <c r="F96" s="11" t="s">
         <v>122</v>
@@ -6010,13 +6970,13 @@
     <row r="97" spans="1:6" outlineLevel="1">
       <c r="A97" s="2"/>
       <c r="B97" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D97" s="33" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E97" s="5"/>
       <c r="F97" s="11" t="s">
@@ -6025,7 +6985,7 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="20" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
@@ -6043,7 +7003,7 @@
         <v>30</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D99" s="4" t="str">
         <f>"On Error Resume Next"</f>
@@ -6122,7 +7082,7 @@
         <v>144</v>
       </c>
       <c r="C103" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D103" s="4" t="str">
         <f>"On Error GoTo ErrorLabel"</f>
@@ -6141,7 +7101,7 @@
         <v>145</v>
       </c>
       <c r="C104" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D104" s="4" t="str">
         <f>"ErrorLabel:"</f>
@@ -6156,7 +7116,7 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="20" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
@@ -6171,14 +7131,14 @@
     <row r="106" spans="1:6" outlineLevel="1">
       <c r="A106" s="2"/>
       <c r="B106" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C106" s="4" t="str">
         <f>"Dim objTxtFile"</f>
         <v>Dim objTxtFile</v>
       </c>
       <c r="D106" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E106" s="5" t="s">
         <v>122</v>
@@ -6190,14 +7150,14 @@
     <row r="107" spans="1:6" outlineLevel="1">
       <c r="A107" s="2"/>
       <c r="B107" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C107" s="4" t="str">
         <f>"Set objTxtFile = objFSO.OpenTextFile(""c:\codes\test\a.txt"", 1, True)"</f>
         <v>Set objTxtFile = objFSO.OpenTextFile("c:\codes\test\a.txt", 1, True)</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E107" s="5" t="s">
         <v>122</v>
@@ -6209,14 +7169,14 @@
     <row r="108" spans="1:6" outlineLevel="1">
       <c r="A108" s="2"/>
       <c r="B108" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C108" s="4" t="str">
         <f>"objTxtFile.Close"</f>
         <v>objTxtFile.Close</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E108" s="5"/>
       <c r="F108" s="11" t="s">
@@ -6226,7 +7186,7 @@
     <row r="109" spans="1:6" outlineLevel="1">
       <c r="A109" s="2"/>
       <c r="B109" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C109" s="4" t="str">
         <f>"Do Until objTxtFile.AtEndOfStream"&amp;CHAR(10)&amp;"strLine = objTxtFile.ReadLine"&amp;CHAR(10)&amp;"Loop"</f>
@@ -6250,7 +7210,7 @@
     <row r="110" spans="1:6" outlineLevel="1">
       <c r="A110" s="2"/>
       <c r="B110" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C110" s="4" t="str">
         <f>"sTextAll = objTxtFile.ReadAll"</f>
@@ -6270,7 +7230,7 @@
     <row r="111" spans="1:6" outlineLevel="1">
       <c r="A111" s="2"/>
       <c r="B111" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C111" s="4" t="str">
         <f>"objTxtFile.WriteLine strLine"</f>
@@ -6290,7 +7250,7 @@
     <row r="112" spans="1:6" outlineLevel="1">
       <c r="A112" s="2"/>
       <c r="B112" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C112" s="10" t="str">
         <f>"Dim adoStrm
@@ -6305,7 +7265,7 @@
 Set adoStrm = CreateObject("ADODB.Stream")</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F112" s="11" t="s">
         <v>122</v>
@@ -6314,16 +7274,16 @@
     <row r="113" spans="1:6" outlineLevel="1">
       <c r="A113" s="2"/>
       <c r="B113" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C113" s="10" t="s">
+        <v>670</v>
+      </c>
+      <c r="D113" s="10" t="s">
+        <v>670</v>
+      </c>
+      <c r="E113" s="5" t="s">
         <v>671</v>
-      </c>
-      <c r="D113" s="10" t="s">
-        <v>671</v>
-      </c>
-      <c r="E113" s="5" t="s">
-        <v>672</v>
       </c>
       <c r="F113" s="11" t="s">
         <v>122</v>
@@ -6332,16 +7292,16 @@
     <row r="114" spans="1:6" outlineLevel="1">
       <c r="A114" s="2"/>
       <c r="B114" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C114" s="10" t="s">
+        <v>672</v>
+      </c>
+      <c r="D114" s="10" t="s">
+        <v>672</v>
+      </c>
+      <c r="E114" s="5" t="s">
         <v>673</v>
-      </c>
-      <c r="D114" s="10" t="s">
-        <v>673</v>
-      </c>
-      <c r="E114" s="5" t="s">
-        <v>674</v>
       </c>
       <c r="F114" s="11" t="s">
         <v>122</v>
@@ -6350,16 +7310,16 @@
     <row r="115" spans="1:6" outlineLevel="1">
       <c r="A115" s="2"/>
       <c r="B115" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C115" s="10" t="s">
+        <v>674</v>
+      </c>
+      <c r="D115" s="10" t="s">
+        <v>674</v>
+      </c>
+      <c r="E115" s="5" t="s">
         <v>675</v>
-      </c>
-      <c r="D115" s="10" t="s">
-        <v>675</v>
-      </c>
-      <c r="E115" s="5" t="s">
-        <v>676</v>
       </c>
       <c r="F115" s="11" t="s">
         <v>122</v>
@@ -6368,7 +7328,7 @@
     <row r="116" spans="1:6" outlineLevel="1">
       <c r="A116" s="2"/>
       <c r="B116" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C116" s="10" t="str">
         <f>"adoStrm.Open
@@ -6390,16 +7350,16 @@
     <row r="117" spans="1:6" outlineLevel="1">
       <c r="A117" s="2"/>
       <c r="B117" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F117" s="11" t="s">
         <v>122</v>
@@ -6408,7 +7368,7 @@
     <row r="118" spans="1:6" outlineLevel="1">
       <c r="A118" s="2"/>
       <c r="B118" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C118" s="10" t="str">
         <f>"Do Until adoStrm.EOS
@@ -6427,7 +7387,7 @@
 Loop</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F118" s="11" t="s">
         <v>122</v>
@@ -6436,7 +7396,7 @@
     <row r="119" spans="1:6" outlineLevel="1">
       <c r="A119" s="2"/>
       <c r="B119" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C119" s="10" t="str">
         <f>"Dim vFile
@@ -6467,7 +7427,7 @@
 Next</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F119" s="11" t="s">
         <v>122</v>
@@ -6476,16 +7436,16 @@
     <row r="120" spans="1:6" outlineLevel="1">
       <c r="A120" s="2"/>
       <c r="B120" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C120" s="31" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D120" s="31" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F120" s="11" t="s">
         <v>122</v>
@@ -6494,16 +7454,16 @@
     <row r="121" spans="1:6" outlineLevel="1">
       <c r="A121" s="2"/>
       <c r="B121" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C121" s="31" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D121" s="31" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F121" s="11" t="s">
         <v>122</v>
@@ -6512,16 +7472,16 @@
     <row r="122" spans="1:6" outlineLevel="1">
       <c r="A122" s="2"/>
       <c r="B122" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F122" s="11" t="s">
         <v>122</v>
@@ -6530,10 +7490,10 @@
     <row r="123" spans="1:6" outlineLevel="1">
       <c r="A123" s="2"/>
       <c r="B123" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C123" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D123" s="4" t="str">
         <f>"Set wTargetBook = Workbooks.Open(sTargetBookName)"&amp;CHAR(10)&amp;"wTargetBook.Close SaveChanges:=True"</f>
@@ -6549,7 +7509,7 @@
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="20" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
@@ -6676,7 +7636,7 @@
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="20" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
@@ -6691,7 +7651,7 @@
     <row r="131" spans="1:6" outlineLevel="1">
       <c r="A131" s="2"/>
       <c r="B131" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C131" s="4" t="str">
         <f>"Dim cTrgtPaths
@@ -6715,13 +7675,13 @@
     <row r="132" spans="1:6" outlineLevel="1">
       <c r="A132" s="2"/>
       <c r="B132" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E132" s="5" t="s">
         <v>122</v>
@@ -6733,13 +7693,13 @@
     <row r="133" spans="1:6" outlineLevel="1">
       <c r="A133" s="2"/>
       <c r="B133" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E133" s="5" t="s">
         <v>122</v>
@@ -6751,13 +7711,13 @@
     <row r="134" spans="1:6" outlineLevel="1">
       <c r="A134" s="2"/>
       <c r="B134" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E134" s="5" t="s">
         <v>124</v>
@@ -6769,7 +7729,7 @@
     <row r="135" spans="1:6" outlineLevel="1">
       <c r="A135" s="2"/>
       <c r="B135" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C135" s="4" t="str">
         <f>"Dim vTrgtPath
@@ -6801,13 +7761,13 @@
     <row r="136" spans="1:6" outlineLevel="1">
       <c r="A136" s="2"/>
       <c r="B136" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E136" s="5" t="s">
         <v>269</v>
@@ -6819,13 +7779,13 @@
     <row r="137" spans="1:6" outlineLevel="1">
       <c r="A137" s="2"/>
       <c r="B137" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E137" s="5" t="s">
         <v>270</v>
@@ -6837,16 +7797,16 @@
     <row r="138" spans="1:6" outlineLevel="1">
       <c r="A138" s="2"/>
       <c r="B138" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C138" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F138" s="11" t="s">
         <v>122</v>
@@ -6855,13 +7815,13 @@
     <row r="139" spans="1:6" outlineLevel="1">
       <c r="A139" s="2"/>
       <c r="B139" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E139" s="5" t="s">
         <v>122</v>
@@ -6873,7 +7833,7 @@
     <row r="140" spans="1:6" outlineLevel="1">
       <c r="A140" s="2"/>
       <c r="B140" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C140" s="4" t="str">
         <f>"Dim avTrgtPaths
@@ -6897,13 +7857,13 @@
     <row r="141" spans="1:6" outlineLevel="1">
       <c r="A141" s="2"/>
       <c r="B141" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E141" s="5" t="s">
         <v>122</v>
@@ -6914,7 +7874,7 @@
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="20" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B142" s="8"/>
       <c r="C142" s="8"/>
@@ -6929,7 +7889,7 @@
     <row r="143" spans="1:6" outlineLevel="1">
       <c r="A143" s="2"/>
       <c r="B143" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C143" s="4" t="str">
         <f>"Dim oPriceOfFruit
@@ -6956,10 +7916,10 @@
         <v>16</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E144" s="5" t="s">
         <v>122</v>
@@ -6974,10 +7934,10 @@
         <v>17</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E145" s="5" t="s">
         <v>122</v>
@@ -7020,10 +7980,10 @@
         <v>19</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E147" s="5" t="s">
         <v>122</v>
@@ -7038,10 +7998,10 @@
         <v>20</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E148" s="5" t="s">
         <v>273</v>
@@ -7056,10 +8016,10 @@
         <v>21</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E149" s="5" t="s">
         <v>273</v>
@@ -7074,10 +8034,10 @@
         <v>22</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E150" s="5" t="s">
         <v>122</v>
@@ -7092,10 +8052,10 @@
         <v>23</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E151" s="5" t="s">
         <v>122</v>
@@ -7110,10 +8070,10 @@
         <v>24</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E152" s="5" t="s">
         <v>122</v>
@@ -7128,10 +8088,10 @@
         <v>25</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E153" s="5" t="s">
         <v>274</v>
@@ -7146,10 +8106,10 @@
         <v>26</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E154" s="5" t="s">
         <v>122</v>
@@ -7164,10 +8124,10 @@
         <v>27</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E155" s="5" t="s">
         <v>275</v>
@@ -7182,10 +8142,10 @@
         <v>28</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E156" s="5" t="s">
         <v>275</v>
@@ -7200,10 +8160,10 @@
         <v>29</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E157" s="5" t="s">
         <v>276</v>
@@ -7214,7 +8174,7 @@
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="20" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B158" s="8"/>
       <c r="C158" s="8"/>
@@ -7229,7 +8189,7 @@
     <row r="159" spans="1:6" outlineLevel="1">
       <c r="A159" s="2"/>
       <c r="B159" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C159" s="4" t="str">
         <f>"Dim objWshShell"&amp;CHAR(10)&amp;"Set objWshShell = WScript.CreateObject(""WScript.Shell"")"</f>
@@ -7259,7 +8219,7 @@
         <v>objWshShell.Exec("C:\test.bat")</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E160" s="5" t="s">
         <v>278</v>
@@ -7278,10 +8238,10 @@
         <v>objWshShell.Run "C:\test.bat", 0, True</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E161" s="9" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F161" s="11" t="s">
         <v>122</v>
@@ -7297,7 +8257,7 @@
         <v>objWshShell.Run "cmd /c echo.&gt; ""C:\test.txt""", 0, True</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F162" s="11" t="s">
         <v>122</v>
@@ -7313,7 +8273,7 @@
         <v>objWshShell.RegRead("HKCU\WshTest\Test1")</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E163" s="5" t="s">
         <v>122</v>
@@ -7332,7 +8292,7 @@
         <v>objWshShell.RegWrite("HKCU\WshTest\Test1", "test", "REG\_SZ")</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E164" s="5" t="s">
         <v>279</v>
@@ -7351,10 +8311,10 @@
         <v>objWshShell.Environment("User").Item("MYPATH\_CODES")</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E165" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F165" s="11" t="s">
         <v>122</v>
@@ -7363,14 +8323,14 @@
     <row r="166" spans="1:6" outlineLevel="1">
       <c r="A166" s="2"/>
       <c r="B166" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C166" s="4" t="str">
         <f>"objWshShell.Environment(""User"").Remove(""MYPATH\_CODES"")"</f>
         <v>objWshShell.Environment("User").Remove("MYPATH\_CODES")</v>
       </c>
       <c r="D166" s="12" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E166" s="5"/>
       <c r="F166" s="11" t="s">
@@ -7380,14 +8340,14 @@
     <row r="167" spans="1:6" outlineLevel="1">
       <c r="A167" s="2"/>
       <c r="B167" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C167" s="4" t="str">
         <f>"objWshShell.SpecialFolders(""Desktop"")"</f>
         <v>objWshShell.SpecialFolders("Desktop")</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E167" s="5" t="s">
         <v>146</v>
@@ -7435,7 +8395,7 @@
         <v>objWshShell.CreateShortcut( "c:\test\src.txt.lnk" ).TargetPath</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E169" s="5" t="s">
         <v>280</v>
@@ -7486,7 +8446,7 @@
 End With</v>
       </c>
       <c r="D171" s="12" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E171" s="5"/>
       <c r="F171" s="11" t="s">
@@ -7506,7 +8466,7 @@
 End With</v>
       </c>
       <c r="D172" s="12" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E172" s="5"/>
       <c r="F172" s="11" t="s">
@@ -7523,7 +8483,7 @@
         <v>objWshShell.Popup "メッセージ", lSecond, "タイトル", vbInformation</v>
       </c>
       <c r="D173" s="12" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E173" s="5"/>
       <c r="F173" s="11" t="s">
@@ -7540,7 +8500,7 @@
         <v>objWshShell.Exec( "clip" ).StdIn.Write( "テキスト" )</v>
       </c>
       <c r="D174" s="23" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E174" s="5"/>
       <c r="F174" s="11" t="s">
@@ -7557,7 +8517,7 @@
         <v>CreateObject("htmlfile").ParentWindow.Clipboarddata.GetData("text")</v>
       </c>
       <c r="D175" s="23" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E175" s="5"/>
       <c r="F175" s="11" t="s">
@@ -7566,7 +8526,7 @@
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="20" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B176" s="8"/>
       <c r="C176" s="8"/>
@@ -7581,7 +8541,7 @@
     <row r="177" spans="1:6" outlineLevel="1">
       <c r="A177" s="2"/>
       <c r="B177" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C177" s="4" t="str">
         <f>"Dim objFSO"&amp;CHAR(10)&amp;"Set objFSO = CreateObject(""Scripting.FileSystemObject"")"</f>
@@ -7602,10 +8562,10 @@
     </row>
     <row r="178" spans="1:6" outlineLevel="1">
       <c r="B178" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C178" s="23" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D178" s="4" t="str">
         <f>"objFSO.CopyFile ThisWorkbook.FullName, ""c:\temp\test.xlsm"""</f>
@@ -7724,7 +8684,7 @@
         <v>148</v>
       </c>
       <c r="C184" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D184" s="4" t="str">
         <f>"If Dir(""C:\Book1.xlsx"") &lt;&gt; """" Then"&amp;CHAR(10)&amp;CHAR(9)&amp;"存在"&amp;CHAR(10)&amp;"Else"&amp;CHAR(10)&amp;CHAR(9)&amp;"非存在"&amp;CHAR(10)&amp;"End If"</f>
@@ -7824,7 +8784,7 @@
     <row r="189" spans="1:6" outlineLevel="1">
       <c r="A189" s="2"/>
       <c r="B189" s="2" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C189" s="4" t="str">
         <f>"objFSO.GetFileName( ""C:\codes\a.txt"" )"</f>
@@ -7835,7 +8795,7 @@
         <v>objFSO.GetFileName( "C:\codes\a.txt" )</v>
       </c>
       <c r="E189" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="F189" s="11" t="s">
         <v>122</v>
@@ -7987,7 +8947,7 @@
         <v>61</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D197" s="4" t="str">
         <f>"objFSO.GetFolder( ""C:\codes"" ).Attributes"</f>
@@ -8003,7 +8963,7 @@
     <row r="198" spans="1:6" outlineLevel="1">
       <c r="A198" s="2"/>
       <c r="B198" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C198" s="4" t="str">
         <f>"objFSO.FolderExists( ""C:\codes"" )"</f>
@@ -8023,7 +8983,7 @@
     <row r="199" spans="1:6" outlineLevel="1">
       <c r="A199" s="2"/>
       <c r="B199" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C199" s="4" t="str">
         <f>"objFSO.GetParentFolderName( ""C:\codes\src"" )"</f>
@@ -8042,16 +9002,16 @@
     </row>
     <row r="200" spans="1:6" outlineLevel="1">
       <c r="B200" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C200" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="C200" s="4" t="s">
+      <c r="D200" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="E200" s="5" t="s">
         <v>343</v>
-      </c>
-      <c r="D200" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="E200" s="5" t="s">
-        <v>344</v>
       </c>
       <c r="F200" s="11" t="s">
         <v>122</v>
@@ -8059,7 +9019,7 @@
     </row>
     <row r="201" spans="1:6">
       <c r="A201" s="20" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B201" s="8"/>
       <c r="C201" s="8"/>
@@ -8074,7 +9034,7 @@
     <row r="202" spans="1:6" outlineLevel="1">
       <c r="A202" s="2"/>
       <c r="B202" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C202" s="26" t="str">
         <f>"Dim oRegExp
@@ -8098,7 +9058,7 @@
     <row r="203" spans="1:6" outlineLevel="1">
       <c r="A203" s="2"/>
       <c r="B203" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C203" s="26" t="str">
         <f>"Dim sTargetStr
@@ -8113,7 +9073,7 @@
 sTargetStr = "TestFunc(int bbb) TestFunc01(char aaa) TestFunc02(int bbb)"</v>
       </c>
       <c r="E203" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F203" s="11" t="s">
         <v>122</v>
@@ -8122,7 +9082,7 @@
     <row r="204" spans="1:6" outlineLevel="1">
       <c r="A204" s="2"/>
       <c r="B204" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C204" s="26" t="str">
         <f>"Dim sSearchPattern
@@ -8141,7 +9101,7 @@
 oRegExp.Pattern = sSearchPattern</v>
       </c>
       <c r="E204" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F204" s="11" t="s">
         <v>122</v>
@@ -8150,16 +9110,16 @@
     <row r="205" spans="1:6" outlineLevel="1">
       <c r="A205" s="2"/>
       <c r="B205" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C205" s="27" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D205" s="10" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E205" s="5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F205" s="11" t="s">
         <v>122</v>
@@ -8168,13 +9128,13 @@
     <row r="206" spans="1:6" outlineLevel="1">
       <c r="A206" s="2"/>
       <c r="B206" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C206" s="26" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D206" s="10" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E206" s="5" t="s">
         <v>122</v>
@@ -8186,7 +9146,7 @@
     <row r="207" spans="1:6" outlineLevel="1">
       <c r="A207" s="2"/>
       <c r="B207" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C207" s="26" t="str">
         <f>"Dim oMatchResult
@@ -8210,16 +9170,16 @@
     <row r="208" spans="1:6" outlineLevel="1">
       <c r="A208" s="2"/>
       <c r="B208" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C208" s="26" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D208" s="10" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E208" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F208" s="11" t="s">
         <v>122</v>
@@ -8228,16 +9188,16 @@
     <row r="209" spans="1:6" outlineLevel="1">
       <c r="A209" s="2"/>
       <c r="B209" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C209" s="26" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D209" s="10" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E209" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F209" s="11" t="s">
         <v>122</v>
@@ -8246,16 +9206,16 @@
     <row r="210" spans="1:6" outlineLevel="1">
       <c r="A210" s="2"/>
       <c r="B210" s="2" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C210" s="26" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D210" s="10" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E210" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F210" s="11" t="s">
         <v>122</v>
@@ -8264,16 +9224,16 @@
     <row r="211" spans="1:6" outlineLevel="1">
       <c r="A211" s="2"/>
       <c r="B211" s="2" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C211" s="26" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D211" s="10" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E211" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F211" s="11" t="s">
         <v>122</v>
@@ -8282,16 +9242,16 @@
     <row r="212" spans="1:6" outlineLevel="1">
       <c r="A212" s="2"/>
       <c r="B212" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="C212" s="26" t="s">
+        <v>732</v>
+      </c>
+      <c r="D212" s="10" t="s">
         <v>731</v>
       </c>
-      <c r="C212" s="26" t="s">
-        <v>733</v>
-      </c>
-      <c r="D212" s="10" t="s">
-        <v>732</v>
-      </c>
       <c r="E212" s="35" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="F212" s="11" t="s">
         <v>122</v>
@@ -8300,16 +9260,16 @@
     <row r="213" spans="1:6" outlineLevel="1">
       <c r="A213" s="2"/>
       <c r="B213" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="C213" s="26" t="s">
         <v>734</v>
       </c>
-      <c r="C213" s="26" t="s">
+      <c r="D213" s="10" t="s">
         <v>735</v>
       </c>
-      <c r="D213" s="10" t="s">
-        <v>736</v>
-      </c>
       <c r="E213" s="35" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F213" s="11" t="s">
         <v>122</v>
@@ -8318,7 +9278,7 @@
     <row r="214" spans="1:6" outlineLevel="1">
       <c r="A214" s="2"/>
       <c r="B214" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C214" s="26" t="str">
         <f>"Dim sReplacePattern
@@ -8340,7 +9300,7 @@
     <row r="215" spans="1:6" outlineLevel="1">
       <c r="A215" s="2"/>
       <c r="B215" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C215" s="26" t="str">
         <f>"Dim sReplaceResult
@@ -8355,7 +9315,7 @@
 sReplaceResult = oRegExp.Replace(sTargetStr, sReplacePattern)</v>
       </c>
       <c r="E215" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F215" s="11" t="s">
         <v>122</v>
@@ -8363,7 +9323,7 @@
     </row>
     <row r="216" spans="1:6">
       <c r="A216" s="20" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B216" s="8"/>
       <c r="C216" s="8"/>
@@ -8385,7 +9345,7 @@
         <v>WScript.ScriptFullName</v>
       </c>
       <c r="D217" s="25" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E217" s="5"/>
       <c r="F217" s="11" t="s">
@@ -8402,7 +9362,7 @@
         <v>WScript.ScriptName</v>
       </c>
       <c r="D218" s="25" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E218" s="5"/>
       <c r="F218" s="11" t="s">
@@ -8419,7 +9379,7 @@
         <v>Mid( WScript.ScriptName, 1, InStrRev( WScript.ScriptName, "." ) - 1 )</v>
       </c>
       <c r="D219" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E219" s="5"/>
       <c r="F219" s="11" t="s">
@@ -8436,7 +9396,7 @@
         <v>objFSO.GetBaseName( WScript.ScriptName )</v>
       </c>
       <c r="D220" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E220" s="5"/>
       <c r="F220" s="11" t="s">
@@ -8453,7 +9413,7 @@
         <v>Replace( WScript.ScriptFullName, "\" &amp; WScript.ScriptName, "" )</v>
       </c>
       <c r="D221" s="10" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E221" s="5"/>
       <c r="F221" s="11" t="s">
@@ -8470,7 +9430,7 @@
         <v>objFSO.GetParentFolderName( WScript.ScriptFullName )</v>
       </c>
       <c r="D222" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E222" s="5"/>
       <c r="F222" s="11" t="s">
@@ -8479,7 +9439,7 @@
     </row>
     <row r="223" spans="1:6">
       <c r="A223" s="20" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B223" s="8"/>
       <c r="C223" s="8"/>
@@ -8494,10 +9454,10 @@
     <row r="224" spans="1:6" outlineLevel="1">
       <c r="A224" s="2"/>
       <c r="B224" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C224" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D224" s="4" t="str">
         <f>"Dim oChartObj As ChartObject"&amp;CHAR(10)&amp;"Set oChartObj = ThisWorkbook.Sheets(シート名).ChartObjects(1)"</f>
@@ -8517,7 +9477,7 @@
         <v>218</v>
       </c>
       <c r="C225" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D225" s="4" t="str">
         <f>"Set oChartObj = .Sheets(シート名).ChartObjects.Add( XPOS, YPOS, WIDTH, HEIGHT )"</f>
@@ -8536,7 +9496,7 @@
         <v>219</v>
       </c>
       <c r="C226" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D226" s="4" t="str">
         <f>"oChartObj.Delete"</f>
@@ -8555,7 +9515,7 @@
         <v>220</v>
       </c>
       <c r="C227" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D227" s="4" t="str">
         <f>"oChartObj.Chart.ChartArea.Copy"</f>
@@ -8574,7 +9534,7 @@
         <v>221</v>
       </c>
       <c r="C228" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D228" s="4" t="str">
         <f>"oChartObj.Top = 10"</f>
@@ -8593,7 +9553,7 @@
         <v>222</v>
       </c>
       <c r="C229" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D229" s="4" t="str">
         <f>"oChartObj.Left = 20"</f>
@@ -8612,7 +9572,7 @@
         <v>223</v>
       </c>
       <c r="C230" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D230" s="4" t="str">
         <f>"oChartObj.Width = 200"</f>
@@ -8631,7 +9591,7 @@
         <v>224</v>
       </c>
       <c r="C231" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D231" s="4" t="str">
         <f>"oChartObj.Height = 300"</f>
@@ -8650,7 +9610,7 @@
         <v>225</v>
       </c>
       <c r="C232" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D232" s="4" t="str">
         <f>"oChartObj.Chart.ChartType = xlXYScatterLines"</f>
@@ -8669,7 +9629,7 @@
         <v>226</v>
       </c>
       <c r="C233" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D233" s="4" t="str">
         <f>"oChartObj.Chart.SetSourceData Source:=Union(rXAxsRng, rDataRng)"</f>
@@ -8688,7 +9648,7 @@
         <v>227</v>
       </c>
       <c r="C234" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D234" s="4" t="str">
         <f>"oChartObj.Chart.Axes(xlCategory).HasTitle = True"</f>
@@ -8707,7 +9667,7 @@
         <v>228</v>
       </c>
       <c r="C235" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D235" s="4" t="str">
         <f>"oChartObj.Chart.Axes(xlCategory).AxisTitle.Text = ""Test Axis X"""</f>
@@ -8726,7 +9686,7 @@
         <v>229</v>
       </c>
       <c r="C236" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D236" s="4" t="str">
         <f>"oChartObj.Chart.Axes(xlCategory).HasMajorGridlines = True"</f>
@@ -8745,7 +9705,7 @@
         <v>230</v>
       </c>
       <c r="C237" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D237" s="4" t="str">
         <f>"oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.Color = RGB(217, 217, 217)"</f>
@@ -8764,7 +9724,7 @@
         <v>231</v>
       </c>
       <c r="C238" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D238" s="4" t="str">
         <f>"oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.Weight = 2"</f>
@@ -8783,7 +9743,7 @@
         <v>232</v>
       </c>
       <c r="C239" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D239" s="4" t="str">
         <f>"oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.LineStyle = (xlContinuous\|xlDot\|xlDouble\|xlLineStyleNone\|...)"</f>
@@ -8802,7 +9762,7 @@
         <v>233</v>
       </c>
       <c r="C240" s="24" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D240" s="5" t="s">
         <v>260</v>
@@ -8820,7 +9780,7 @@
         <v>234</v>
       </c>
       <c r="C241" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D241" s="4" t="str">
         <f>"oChartObj.Chart.Axes(xlCategory).MinimumScaleIsAuto = False"</f>
@@ -8839,7 +9799,7 @@
         <v>235</v>
       </c>
       <c r="C242" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D242" s="4" t="str">
         <f>"oChartObj.Chart.Axes(xlCategory).MaximumScaleIsAuto = False"</f>
@@ -8858,7 +9818,7 @@
         <v>236</v>
       </c>
       <c r="C243" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D243" s="4" t="str">
         <f>"oChartObj.Chart.Axes(xlCategory).MinimumScale = 0"</f>
@@ -8877,7 +9837,7 @@
         <v>237</v>
       </c>
       <c r="C244" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D244" s="4" t="str">
         <f>"oChartObj.Chart.Axes(xlCategory).MaximumScale = 100"</f>
@@ -8896,7 +9856,7 @@
         <v>238</v>
       </c>
       <c r="C245" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D245" s="4" t="str">
         <f>"oChartObj.Chart.Axes(xlCategory).Crosses = (xlMinimum\|xlMaximum\|xlAutomatic)"</f>
@@ -8915,7 +9875,7 @@
         <v>239</v>
       </c>
       <c r="C246" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D246" s="4" t="s">
         <v>261</v>
@@ -8933,7 +9893,7 @@
         <v>240</v>
       </c>
       <c r="C247" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D247" s="4" t="str">
         <f>"oChartObj.Chart.HasTitle = True"</f>
@@ -8952,7 +9912,7 @@
         <v>241</v>
       </c>
       <c r="C248" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D248" s="4" t="str">
         <f>"oChartObj.Chart.ChartTitle.Text = ""Test Title"""</f>
@@ -8971,7 +9931,7 @@
         <v>242</v>
       </c>
       <c r="C249" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D249" s="4" t="str">
         <f>"oChartObj.Chart.ChartTitle.IncludeInLayout = False"</f>
@@ -8990,7 +9950,7 @@
         <v>243</v>
       </c>
       <c r="C250" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D250" s="4" t="str">
         <f>"oChartObj.Chart.HasLegend = True"</f>
@@ -9009,7 +9969,7 @@
         <v>244</v>
       </c>
       <c r="C251" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D251" s="4" t="str">
         <f>"oChartObj.Chart.Legend.Position = xlLegendPositionTop"</f>
@@ -9028,7 +9988,7 @@
         <v>245</v>
       </c>
       <c r="C252" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D252" s="4" t="str">
         <f>"oChartObj.Chart.Legend.IncludeInLayout = False"</f>
@@ -9047,7 +10007,7 @@
         <v>246</v>
       </c>
       <c r="C253" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D253" s="10" t="str">
         <f>".Sheets(シート名).PasteSpecial Format:=""図 (JPEG)"", Link:=False, DisplayAsIcon:=False"</f>
@@ -9062,7 +10022,7 @@
     </row>
     <row r="254" spans="1:6" outlineLevel="1">
       <c r="A254" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B254" s="8"/>
       <c r="C254" s="8"/>
@@ -9080,7 +10040,7 @@
         <v>248</v>
       </c>
       <c r="C255" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D255" s="4" t="str">
         <f>"Dim goPrgrsBar As New ProgressBar"&amp;CHAR(10)&amp;"goPrgrsBar.Show vbModeless"</f>
@@ -9100,7 +10060,7 @@
         <v>249</v>
       </c>
       <c r="C256" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D256" s="4" t="str">
         <f>"goPrgrsBar.Hide"&amp;CHAR(10)&amp;"Unload goPrgrsBar"&amp;CHAR(10)&amp;"Set goPrgrsBar = Nothing"</f>
@@ -9117,7 +10077,7 @@
     </row>
     <row r="257" spans="1:6" outlineLevel="1">
       <c r="A257" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B257" s="8"/>
       <c r="C257" s="8"/>
@@ -9135,7 +10095,7 @@
         <v>250</v>
       </c>
       <c r="C258" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D258" s="4" t="str">
         <f>"lChk = ThisWorkbook.Sheets(シート名).CheckBoxes(1).Value"</f>
@@ -9154,7 +10114,7 @@
         <v>251</v>
       </c>
       <c r="C259" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D259" s="4" t="str">
         <f>"Private Sub xxx\_KeyUp(ByVal KeyCode As MSForms.ReturnInteger, ByVal Shift As Integer)"&amp;CHAR(10)&amp;"End Sub"</f>
@@ -9170,7 +10130,7 @@
     </row>
     <row r="260" spans="1:6" outlineLevel="1">
       <c r="A260" s="8" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B260" s="8"/>
       <c r="C260" s="8"/>
@@ -9185,13 +10145,13 @@
     <row r="261" spans="1:6" outlineLevel="1">
       <c r="A261" s="2"/>
       <c r="B261" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C261" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D261" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E261" s="5" t="s">
         <v>122</v>
@@ -9202,7 +10162,7 @@
     </row>
     <row r="262" spans="1:6" outlineLevel="1">
       <c r="A262" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B262" s="8"/>
       <c r="C262" s="8"/>
@@ -9262,7 +10222,7 @@
     </row>
     <row r="265" spans="1:6" outlineLevel="1">
       <c r="A265" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B265" s="8"/>
       <c r="C265" s="8"/>
@@ -9280,7 +10240,7 @@
         <v>312</v>
       </c>
       <c r="C266" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D266" s="4" t="str">
         <f>"Dim wWord As Object" &amp; CHAR(10) &amp; "Set wWord = CreateObject(""Word.Application"")" &amp; CHAR(10) &amp; "wWord.Visible = False"</f>
@@ -9301,7 +10261,7 @@
         <v>315</v>
       </c>
       <c r="C267" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D267" s="4" t="str">
         <f>"dDoc.Close" &amp; CHAR(10) &amp; "Set dDoc = Nothing"</f>
@@ -9321,7 +10281,7 @@
         <v>316</v>
       </c>
       <c r="C268" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D268" s="4" t="str">
         <f>"wWord.Visible = False" &amp; CHAR(10) &amp; "wWord.Quit" &amp; CHAR(10) &amp; "Set wWord = Nothing"</f>
@@ -9342,7 +10302,7 @@
         <v>313</v>
       </c>
       <c r="C269" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D269" s="4" t="str">
         <f>"Dim dDoc As Object" &amp; CHAR(10) &amp; "Set dDoc = wWord.Documents.Open(""sFilePath"")"</f>
@@ -9362,7 +10322,7 @@
         <v>314</v>
       </c>
       <c r="C270" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D270" s="4" t="str">
         <f>"Dim sParagraph As Object" &amp; CHAR(10) &amp; "For Each sParagraph In dDoc.Paragraphs" &amp; CHAR(10) &amp; CHAR(9) &amp; "'～処理～" &amp; CHAR(10) &amp; "Next sParagraph"</f>
@@ -9380,7 +10340,7 @@
     </row>
     <row r="271" spans="1:6" outlineLevel="1">
       <c r="A271" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B271" s="8"/>
       <c r="C271" s="8"/>
@@ -9398,7 +10358,7 @@
         <v>149</v>
       </c>
       <c r="C272" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D272" s="4" t="str">
         <f>"Dim wTrgtBook As Workbook"&amp;CHAR(10)&amp;"Application.SheetsInNewWorkbook = 1"&amp;CHAR(10)&amp;"Set wTrgtBook = Workbooks.Add"</f>
@@ -9419,7 +10379,7 @@
         <v>150</v>
       </c>
       <c r="C273" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D273" s="4" t="str">
         <f>"If wCsvBook.Name &lt;&gt; Dir(""C:\Book1.xlsx"") Then"&amp;CHAR(10)&amp;CHAR(9)&amp;"処理"&amp;CHAR(10)&amp;"Else"&amp;CHAR(10)&amp;CHAR(9)&amp;"エラー"&amp;CHAR(10)&amp;"End If"</f>
@@ -9442,7 +10402,7 @@
         <v>151</v>
       </c>
       <c r="C274" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D274" s="4" t="str">
         <f>"Dim bAddBook As Workbook"&amp;CHAR(10)&amp;"Set bAddBook = Workbooks.Add"</f>
@@ -9462,7 +10422,7 @@
         <v>152</v>
       </c>
       <c r="C275" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D275" s="4" t="str">
         <f>"ThisWorkbook.Sheets(シート名).Copy: Set wTrgtBook = ActiveWorkbook"</f>
@@ -9481,7 +10441,7 @@
         <v>153</v>
       </c>
       <c r="C276" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D276" s="4" t="str">
         <f>"wTrgtBook.SaveAs Filename:=sFilePath"</f>
@@ -9500,7 +10460,7 @@
         <v>154</v>
       </c>
       <c r="C277" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D277" s="4" t="str">
         <f>".Sheets.Count"</f>
@@ -9519,7 +10479,7 @@
         <v>155</v>
       </c>
       <c r="C278" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D278" s="4" t="str">
         <f>"Dim shAddSht As Worksheet"&amp;CHAR(10)&amp;"Set shAddSht = ThisWorkbook.Sheets.Add"</f>
@@ -9539,7 +10499,7 @@
         <v>156</v>
       </c>
       <c r="C279" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D279" s="4" t="str">
         <f>"ThisWorkbook.Sheets(シート名).Move After:=ThisWorkbook.Sheets( ThisWorkbook.Sheets.Count )"</f>
@@ -9558,7 +10518,7 @@
         <v>157</v>
       </c>
       <c r="C280" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D280" s="4" t="str">
         <f>"Application.DisplayAlerts = False"&amp;CHAR(10)&amp;".Sheets(シート名).Delete"&amp;CHAR(10)&amp;"Application.DisplayAlerts = True"</f>
@@ -9579,7 +10539,7 @@
         <v>158</v>
       </c>
       <c r="C281" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D281" s="4" t="str">
         <f>".Sheets(シート名).Visible = (True\|False)"</f>
@@ -9598,7 +10558,7 @@
         <v>159</v>
       </c>
       <c r="C282" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D282" s="4" t="str">
         <f>".Sheets(シート名).Move Before:=Sheets(1)"</f>
@@ -9617,7 +10577,7 @@
         <v>160</v>
       </c>
       <c r="C283" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D283" s="4" t="str">
         <f>"Application.ScreenUpdating = True"</f>
@@ -9636,7 +10596,7 @@
         <v>161</v>
       </c>
       <c r="C284" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D284" s="4" t="str">
         <f>"Application.ScreenUpdating = False"</f>
@@ -9655,7 +10615,7 @@
         <v>162</v>
       </c>
       <c r="C285" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D285" s="4" t="str">
         <f>"Application.Calculation = xlCalculationAutomatic"</f>
@@ -9674,7 +10634,7 @@
         <v>163</v>
       </c>
       <c r="C286" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D286" s="4" t="str">
         <f>"Application.Calculation = xlCalculationManual"</f>
@@ -9693,7 +10653,7 @@
         <v>164</v>
       </c>
       <c r="C287" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D287" s="4" t="str">
         <f>"Application.Calculate"</f>
@@ -9712,7 +10672,7 @@
         <v>165</v>
       </c>
       <c r="C288" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D288" s="4" t="str">
         <f>"Application.CalculateFull"</f>
@@ -9728,16 +10688,16 @@
     <row r="289" spans="1:6" outlineLevel="1">
       <c r="A289" s="2"/>
       <c r="B289" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="C289" s="22" t="s">
+        <v>398</v>
+      </c>
+      <c r="D289" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="C289" s="22" t="s">
-        <v>399</v>
-      </c>
-      <c r="D289" s="4" t="s">
+      <c r="E289" s="5" t="s">
         <v>499</v>
-      </c>
-      <c r="E289" s="5" t="s">
-        <v>500</v>
       </c>
       <c r="F289" s="11" t="s">
         <v>122</v>
@@ -9746,16 +10706,16 @@
     <row r="290" spans="1:6" outlineLevel="1">
       <c r="A290" s="2"/>
       <c r="B290" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="C290" s="22" t="s">
+        <v>398</v>
+      </c>
+      <c r="D290" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="E290" s="5" t="s">
         <v>496</v>
-      </c>
-      <c r="C290" s="22" t="s">
-        <v>399</v>
-      </c>
-      <c r="D290" s="4" t="s">
-        <v>495</v>
-      </c>
-      <c r="E290" s="5" t="s">
-        <v>497</v>
       </c>
       <c r="F290" s="11" t="s">
         <v>122</v>
@@ -9763,7 +10723,7 @@
     </row>
     <row r="291" spans="1:6">
       <c r="A291" s="20" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B291" s="8"/>
       <c r="C291" s="8"/>
@@ -9781,7 +10741,7 @@
         <v>258</v>
       </c>
       <c r="C292" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D292" s="4" t="str">
         <f>"Application.DisplayAlerts = False"</f>
@@ -9800,7 +10760,7 @@
         <v>257</v>
       </c>
       <c r="C293" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D293" s="4" t="str">
         <f>"Application.DisplayAlerts = True"</f>
@@ -9819,7 +10779,7 @@
         <v>166</v>
       </c>
       <c r="C294" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D294" s="4" t="str">
         <f>".Rows(2).Select"</f>
@@ -9838,7 +10798,7 @@
         <v>167</v>
       </c>
       <c r="C295" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D295" s="4" t="str">
         <f>".Columns(2).Select"</f>
@@ -9857,7 +10817,7 @@
         <v>168</v>
       </c>
       <c r="C296" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D296" s="4" t="str">
         <f>".Cells(1,1).Select"</f>
@@ -9876,7 +10836,7 @@
         <v>169</v>
       </c>
       <c r="C297" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D297" s="4" t="str">
         <f>".Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).Select"</f>
@@ -9895,7 +10855,7 @@
         <v>170</v>
       </c>
       <c r="C298" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D298" s="4" t="str">
         <f>".Cells.Find(""りんご"", LookAt:=xlWhole).Row"</f>
@@ -9914,7 +10874,7 @@
         <v>170</v>
       </c>
       <c r="C299" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D299" s="4" t="str">
         <f>".Cells.Find(""りんご"", LookAt:=xlWhole).Column"</f>
@@ -9933,7 +10893,7 @@
         <v>171</v>
       </c>
       <c r="C300" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D300" s="4" t="str">
         <f>".Cells(X, Y).Value"</f>
@@ -9952,7 +10912,7 @@
         <v>172</v>
       </c>
       <c r="C301" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D301" s="4" t="str">
         <f>".Cells(1, 1).Top"</f>
@@ -9971,7 +10931,7 @@
         <v>173</v>
       </c>
       <c r="C302" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D302" s="4" t="str">
         <f>".Cells(1, 1).Left"</f>
@@ -9990,7 +10950,7 @@
         <v>174</v>
       </c>
       <c r="C303" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D303" s="4" t="str">
         <f>".Cells(1, 1).EntireRow.Delete Shift:=xlShiftUp"</f>
@@ -10009,7 +10969,7 @@
         <v>175</v>
       </c>
       <c r="C304" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D304" s="4" t="str">
         <f>"Application.CutCopyMode = False"&amp;CHAR(10)&amp;".Range(""2:4"").Insert"</f>
@@ -10029,7 +10989,7 @@
         <v>176</v>
       </c>
       <c r="C305" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D305" s="4" t="str">
         <f>".Cells(行, 列).Font.Strikethrough"</f>
@@ -10048,7 +11008,7 @@
         <v>177</v>
       </c>
       <c r="C306" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D306" s="4" t="str">
         <f>"wTrgtBook.Sheets(シート名).Activate"&amp;CHAR(10)&amp;"ActiveWindow.DisplayGridlines = False"</f>
@@ -10068,7 +11028,7 @@
         <v>178</v>
       </c>
       <c r="C307" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D307" s="4" t="str">
         <f>".Range(""A1"").EntireRow.Hidden"</f>
@@ -10087,7 +11047,7 @@
         <v>179</v>
       </c>
       <c r="C308" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D308" s="4" t="str">
         <f>".Range(""A1"").EntireColumn.Hidden"</f>
@@ -10103,10 +11063,10 @@
     <row r="309" spans="1:6" outlineLevel="1">
       <c r="A309" s="2"/>
       <c r="B309" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C309" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D309" s="4" t="str">
         <f>"If .Cells(1, 1).EntireRow.Hidden Or .Cells(1, 1).EntireColumn.Hidden Then
@@ -10135,7 +11095,7 @@
         <v>180</v>
       </c>
       <c r="C310" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D310" s="4" t="str">
         <f>"文字列変数 = .Range(""A1"").Font.Name"</f>
@@ -10154,7 +11114,7 @@
         <v>181</v>
       </c>
       <c r="C311" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D311" s="4" t="str">
         <f>".Range(""A1"").Font.Size = 14"</f>
@@ -10173,7 +11133,7 @@
         <v>182</v>
       </c>
       <c r="C312" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D312" s="4" t="str">
         <f>".Range(""A1"").Font.Color = RGB(0, 255, 0)"</f>
@@ -10192,7 +11152,7 @@
         <v>183</v>
       </c>
       <c r="C313" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D313" s="4" t="str">
         <f>".Range(""A1"").Font.Bold = True"</f>
@@ -10211,7 +11171,7 @@
         <v>184</v>
       </c>
       <c r="C314" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D314" s="4" t="str">
         <f>".Range(""A1"").Font.Underline = True"</f>
@@ -10230,7 +11190,7 @@
         <v>185</v>
       </c>
       <c r="C315" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D315" s="4" t="str">
         <f>".Range(""A1"").Interior.Color = RGB(255, 255, 0)"</f>
@@ -10249,7 +11209,7 @@
         <v>186</v>
       </c>
       <c r="C316" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D316" s="4" t="str">
         <f>".Range(""A1:C3"").Borders.LineStyle = xlContinuous"</f>
@@ -10268,7 +11228,7 @@
         <v>187</v>
       </c>
       <c r="C317" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D317" s="4" t="str">
         <f>".Range(""A1:C3"").MergeCells = True"</f>
@@ -10287,7 +11247,7 @@
         <v>188</v>
       </c>
       <c r="C318" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D318" s="4" t="str">
         <f>".Range(""A1:C3"").HorizontalAlignment = xlGeneral"</f>
@@ -10306,7 +11266,7 @@
         <v>189</v>
       </c>
       <c r="C319" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D319" s="4" t="str">
         <f>".Range(""A1:C3"").VerticalAlignment = xlCenter"</f>
@@ -10322,10 +11282,10 @@
     <row r="320" spans="1:6" outlineLevel="1">
       <c r="A320" s="2"/>
       <c r="B320" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C320" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D320" s="4" t="str">
         <f>".Cells(1, 列).End(xlDown).Row"</f>
@@ -10341,10 +11301,10 @@
     <row r="321" spans="1:6" outlineLevel="1">
       <c r="A321" s="2"/>
       <c r="B321" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C321" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D321" s="4" t="str">
         <f>".Cells(行, 1).End(xlToRight).Column"</f>
@@ -10363,7 +11323,7 @@
         <v>191</v>
       </c>
       <c r="C322" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D322" s="4" t="str">
         <f>".Cells(.Rows.Count, 列).End(xlUp).Row"</f>
@@ -10382,7 +11342,7 @@
         <v>192</v>
       </c>
       <c r="C323" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D323" s="4" t="str">
         <f>".Cells(行, .Columns.Count).End(xlToLeft).Column"</f>
@@ -10401,7 +11361,7 @@
         <v>193</v>
       </c>
       <c r="C324" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D324" s="4" t="str">
         <f>".Sheets(シート名).UsedRange.Rows.Count + 1"</f>
@@ -10420,7 +11380,7 @@
         <v>194</v>
       </c>
       <c r="C325" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D325" s="4" t="str">
         <f>".Sheets(シート名).UsedRange.Columns.Count + 1"</f>
@@ -10439,7 +11399,7 @@
         <v>195</v>
       </c>
       <c r="C326" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D326" s="4" t="str">
         <f>"Selection(1).Row"</f>
@@ -10458,7 +11418,7 @@
         <v>196</v>
       </c>
       <c r="C327" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D327" s="4" t="str">
         <f>"Selection(Selection.Count).Row"</f>
@@ -10477,7 +11437,7 @@
         <v>197</v>
       </c>
       <c r="C328" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D328" s="4" t="str">
         <f>"Selection(1).Column"</f>
@@ -10496,7 +11456,7 @@
         <v>198</v>
       </c>
       <c r="C329" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D329" s="4" t="str">
         <f>"Selection(Selection.Count).Column"</f>
@@ -10515,7 +11475,7 @@
         <v>325</v>
       </c>
       <c r="C330" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D330" s="4" t="s">
         <v>323</v>
@@ -10533,7 +11493,7 @@
         <v>326</v>
       </c>
       <c r="C331" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D331" s="4" t="s">
         <v>324</v>
@@ -10551,7 +11511,7 @@
         <v>327</v>
       </c>
       <c r="C332" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D332" s="4" t="s">
         <v>328</v>
@@ -10569,7 +11529,7 @@
         <v>199</v>
       </c>
       <c r="C333" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D333" s="4" t="str">
         <f>".Range(.Cells(1, 1), .Cells(6, 3))"</f>
@@ -10588,7 +11548,7 @@
         <v>200</v>
       </c>
       <c r="C334" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D334" s="4" t="str">
         <f>".Range(""A1:B9"").Copy Destination:=ThisWorkBook.Sheets(シート名２).Range(""B1"")"</f>
@@ -10607,7 +11567,7 @@
         <v>201</v>
       </c>
       <c r="C335" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D335" s="4" t="str">
         <f>".Range(.Cells(1, 1), .Cells(.Rows.Count, 2)).Sort Key1:=.Cells(1, 2) ,order1:=xlAscending"</f>
@@ -10626,7 +11586,7 @@
         <v>202</v>
       </c>
       <c r="C336" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D336" s="4" t="str">
         <f>".Range(""A1:A2"").ClearContents"</f>
@@ -10645,7 +11605,7 @@
         <v>203</v>
       </c>
       <c r="C337" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D337" s="4" t="str">
         <f>".Range(""A1:A2"").ClearFormats"</f>
@@ -10664,7 +11624,7 @@
         <v>204</v>
       </c>
       <c r="C338" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D338" s="4" t="str">
         <f>".Range(""A1:A2"").PasteSpecial (xlPasteFormats)"</f>
@@ -10683,7 +11643,7 @@
         <v>205</v>
       </c>
       <c r="C339" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D339" s="4" t="str">
         <f>".Range(""A1:CV100"").SpecialCells(xlCellTypeBlanks).Select"</f>
@@ -10702,7 +11662,7 @@
         <v>206</v>
       </c>
       <c r="C340" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D340" s="4" t="str">
         <f>".Range(""A1"").ColumnWidth = 5"</f>
@@ -10721,7 +11681,7 @@
         <v>207</v>
       </c>
       <c r="C341" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D341" s="4" t="str">
         <f>".Range(.Cells(4, 2), .Cells(9, 2)).Columns.AutoFit"</f>
@@ -10740,7 +11700,7 @@
         <v>208</v>
       </c>
       <c r="C342" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D342" s="4" t="str">
         <f>".Sheets(シート名).UsedRange.Columns.AutoFit"</f>
@@ -10759,7 +11719,7 @@
         <v>209</v>
       </c>
       <c r="C343" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D343" s="4" t="str">
         <f>"Application.CutCopyMode = False"</f>
@@ -10778,7 +11738,7 @@
         <v>210</v>
       </c>
       <c r="C344" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D344" s="4" t="str">
         <f>".Range( .Rows( lStrtRow ), .Rows( lLastRow ) ).Group"</f>
@@ -10797,7 +11757,7 @@
         <v>210</v>
       </c>
       <c r="C345" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D345" s="4" t="str">
         <f>".Range( .Columns( lStrtRow ), .Columns( lLastRow ) ).Group"</f>
@@ -10816,7 +11776,7 @@
         <v>211</v>
       </c>
       <c r="C346" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D346" s="4" t="str">
         <f>".Sheets(シート名).Outline.SummaryRow = ( xlBelow \| xlAbove )"</f>
@@ -10835,7 +11795,7 @@
         <v>212</v>
       </c>
       <c r="C347" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D347" s="4" t="str">
         <f>".Sheets(シート名).Outline.SummaryColumn = ( xlRight \| xlLeft )"</f>
@@ -10854,7 +11814,7 @@
         <v>213</v>
       </c>
       <c r="C348" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D348" s="4" t="str">
         <f>".Sheets(シート名).Outline.AutomaticStyles = ( True \| False )"</f>
@@ -10873,7 +11833,7 @@
         <v>214</v>
       </c>
       <c r="C349" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D349" s="4" t="str">
         <f>".Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).AutoFilter"</f>
@@ -10892,7 +11852,7 @@
         <v>215</v>
       </c>
       <c r="C350" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D350" s="4" t="str">
         <f>".Rows(行).Select"&amp;CHAR(10)&amp;"ActiveWindow.FreezePanes = True"</f>
@@ -10912,7 +11872,7 @@
         <v>215</v>
       </c>
       <c r="C351" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D351" s="4" t="str">
         <f>".Columns(列).Select"&amp;CHAR(10)&amp;"ActiveWindow.FreezePanes = True"</f>
@@ -10932,7 +11892,7 @@
         <v>216</v>
       </c>
       <c r="C352" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D352" s="4" t="str">
         <f>".Cells(行,列).Select"&amp;CHAR(10)&amp;"ActiveWindow.FreezePanes = True"</f>
@@ -10952,7 +11912,7 @@
         <v>217</v>
       </c>
       <c r="C353" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D353" s="4" t="str">
         <f>"ActiveWindow.FreezePanes = False"</f>
@@ -10971,7 +11931,7 @@
         <v>247</v>
       </c>
       <c r="C354" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D354" s="4" t="str">
         <f>"Application.WorksheetFunction.VLookup(.Range(""C1""), .Range(""A1:B7""), 2, False)"</f>
@@ -10990,7 +11950,7 @@
         <v>121</v>
       </c>
       <c r="C355" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D355" s="4" t="str">
         <f>"CreateObject(""WScript.Network"").UserName"</f>
@@ -11006,13 +11966,13 @@
     <row r="356" spans="1:6" outlineLevel="1">
       <c r="A356" s="2"/>
       <c r="B356" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C356" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D356" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E356" s="6" t="str">
         <f>HYPERLINK("https://msdn.microsoft.com/ja-jp/library/office/ff197461.aspx","sShtcutKey＝Shift:+,Ctrl:^,Alt:%,...")</f>
@@ -11025,13 +11985,13 @@
     <row r="357" spans="1:6" outlineLevel="1">
       <c r="A357" s="2"/>
       <c r="B357" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C357" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D357" s="4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E357" s="5"/>
       <c r="F357" s="11" t="s">
@@ -11041,13 +12001,13 @@
     <row r="358" spans="1:6" outlineLevel="1">
       <c r="A358" s="2"/>
       <c r="B358" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C358" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D358" s="4" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E358" s="5"/>
       <c r="F358" s="11" t="s">
@@ -11057,10 +12017,10 @@
     <row r="359" spans="1:6" outlineLevel="1">
       <c r="A359" s="2"/>
       <c r="B359" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C359" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D359" s="10" t="str">
         <f>"Dim objBtn As Object
@@ -11079,7 +12039,7 @@
 </v>
       </c>
       <c r="E359" s="5" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F359" s="11" t="s">
         <v>122</v>
@@ -11088,13 +12048,13 @@
     <row r="360" spans="1:6" outlineLevel="1">
       <c r="A360" s="2"/>
       <c r="B360" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="C360" s="22" t="s">
+        <v>398</v>
+      </c>
+      <c r="D360" s="10" t="s">
         <v>744</v>
-      </c>
-      <c r="C360" s="22" t="s">
-        <v>399</v>
-      </c>
-      <c r="D360" s="10" t="s">
-        <v>745</v>
       </c>
       <c r="E360" s="5" t="s">
         <v>122</v>
@@ -11106,13 +12066,13 @@
     <row r="361" spans="1:6" outlineLevel="1">
       <c r="A361" s="2"/>
       <c r="B361" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="C361" s="22" t="s">
+        <v>398</v>
+      </c>
+      <c r="D361" s="10" t="s">
         <v>748</v>
-      </c>
-      <c r="C361" s="22" t="s">
-        <v>399</v>
-      </c>
-      <c r="D361" s="10" t="s">
-        <v>749</v>
       </c>
       <c r="E361" s="5" t="s">
         <v>122</v>
@@ -11124,13 +12084,13 @@
     <row r="362" spans="1:6" outlineLevel="1">
       <c r="A362" s="2"/>
       <c r="B362" s="2" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C362" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D362" s="10" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E362" s="5" t="s">
         <v>122</v>
@@ -11142,13 +12102,13 @@
     <row r="363" spans="1:6" outlineLevel="1">
       <c r="A363" s="2"/>
       <c r="B363" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C363" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D363" s="10" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E363" s="5" t="s">
         <v>122</v>
@@ -11159,7 +12119,7 @@
     </row>
     <row r="364" spans="1:6">
       <c r="A364" s="20" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B364" s="8"/>
       <c r="C364" s="8"/>
@@ -11174,10 +12134,10 @@
     <row r="365" spans="1:6" outlineLevel="1">
       <c r="A365" s="2"/>
       <c r="B365" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C365" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D365" s="2" t="str">
         <f>"Dim bIsSheetExist As Boolean
@@ -11206,10 +12166,10 @@
     <row r="366" spans="1:6" outlineLevel="1">
       <c r="A366" s="2"/>
       <c r="B366" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C366" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D366" s="2" t="str">
         <f>"Dim rFindResult As Range
@@ -11232,10 +12192,10 @@
     <row r="367" spans="1:6" outlineLevel="1">
       <c r="A367" s="2"/>
       <c r="B367" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C367" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D367" s="2" t="str">
         <f>"If rFindResult Is Nothing Then
@@ -11378,19 +12338,19 @@
     </row>
     <row r="382" spans="1:5">
       <c r="A382" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D382" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E382" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
   </sheetData>
@@ -11409,6 +12369,3284 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06485A82-9CB1-4C26-8D56-717B45F0CC72}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:F267"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C103" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L1" sqref="L1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C249" sqref="C249"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="3.83203125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="50.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="79.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="66.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" style="11"/>
+    <col min="6" max="6" width="10" style="49" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.33203125" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="13"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="27">
+      <c r="A2" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="20" t="s">
+        <v>357</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" outlineLevel="1">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>398</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" outlineLevel="1">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>398</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" outlineLevel="1">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="47" t="s">
+        <v>398</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>855</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" outlineLevel="1">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>398</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" outlineLevel="1">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" s="47" t="s">
+        <v>398</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" outlineLevel="1">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" s="47" t="s">
+        <v>398</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>777</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" outlineLevel="1">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" s="47" t="s">
+        <v>398</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" outlineLevel="1">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="39" t="str">
+        <f>"def func( num_1, num_2, operation=1):"&amp;CHAR(10)&amp;CHAR(9)&amp;"return value"</f>
+        <v>def func( num_1, num_2, operation=1):
+	return value</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>778</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" outlineLevel="1">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>749</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" outlineLevel="1">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" outlineLevel="1">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C14" s="39" t="str">
+        <f>"if value == 1:"&amp;CHAR(10)&amp;CHAR(9)&amp;"# 処理A"&amp;CHAR(10)&amp;"elif value == 2:"&amp;CHAR(10)&amp;CHAR(9)&amp;"# 処理B"&amp;CHAR(10)&amp;"else:"&amp;CHAR(10)&amp;CHAR(9)&amp;"# 処理C"</f>
+        <v>if value == 1:
+	# 処理A
+elif value == 2:
+	# 処理B
+else:
+	# 処理C</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" outlineLevel="1">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" outlineLevel="1">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C16" s="47" t="s">
+        <v>398</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" outlineLevel="1">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>832</v>
+      </c>
+      <c r="D17" s="40" t="s">
+        <v>833</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" outlineLevel="1">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="C18" s="39" t="s">
+        <v>830</v>
+      </c>
+      <c r="D18" s="40" t="s">
+        <v>831</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" outlineLevel="1">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>837</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" outlineLevel="1">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C20" s="47" t="s">
+        <v>398</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" outlineLevel="1">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="C21" s="47" t="s">
+        <v>398</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="43" customFormat="1" outlineLevel="1">
+      <c r="A22" s="37"/>
+      <c r="B22" s="38" t="s">
+        <v>839</v>
+      </c>
+      <c r="C22" s="39" t="s">
+        <v>755</v>
+      </c>
+      <c r="D22" s="40"/>
+      <c r="E22" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="F22" s="49"/>
+    </row>
+    <row r="23" spans="1:6" outlineLevel="1">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="39" t="s">
+        <v>750</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" outlineLevel="1">
+      <c r="A24" s="2"/>
+      <c r="B24" s="38" t="s">
+        <v>940</v>
+      </c>
+      <c r="C24" s="39" t="s">
+        <v>943</v>
+      </c>
+      <c r="D24" s="40" t="s">
+        <v>942</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" outlineLevel="1">
+      <c r="A25" s="2"/>
+      <c r="B25" s="38" t="s">
+        <v>945</v>
+      </c>
+      <c r="C25" s="39" t="s">
+        <v>944</v>
+      </c>
+      <c r="D25" s="40" t="s">
+        <v>941</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" outlineLevel="1">
+      <c r="A26" s="2"/>
+      <c r="B26" s="38" t="s">
+        <v>757</v>
+      </c>
+      <c r="C26" s="42" t="s">
+        <v>859</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" outlineLevel="1">
+      <c r="A27" s="2"/>
+      <c r="B27" s="38" t="s">
+        <v>758</v>
+      </c>
+      <c r="C27" s="42" t="s">
+        <v>860</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>861</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" outlineLevel="1">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="C28" s="39" t="s">
+        <v>759</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" outlineLevel="1">
+      <c r="A29" s="2"/>
+      <c r="B29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="12"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" outlineLevel="1">
+      <c r="A30" s="2"/>
+      <c r="B30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="12"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" outlineLevel="1">
+      <c r="A31" s="2"/>
+      <c r="B31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="12"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" outlineLevel="1">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C32" s="12"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="43" customFormat="1" outlineLevel="1">
+      <c r="A33" s="37"/>
+      <c r="B33" s="37" t="s">
+        <v>857</v>
+      </c>
+      <c r="C33" s="39" t="s">
+        <v>829</v>
+      </c>
+      <c r="D33" s="40" t="s">
+        <v>858</v>
+      </c>
+      <c r="E33" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="F33" s="49"/>
+    </row>
+    <row r="34" spans="1:6" s="43" customFormat="1" outlineLevel="1">
+      <c r="A34" s="37"/>
+      <c r="B34" s="37" t="s">
+        <v>751</v>
+      </c>
+      <c r="C34" s="39" t="s">
+        <v>752</v>
+      </c>
+      <c r="D34" s="40"/>
+      <c r="E34" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="F34" s="49"/>
+    </row>
+    <row r="35" spans="1:6" s="43" customFormat="1" outlineLevel="1">
+      <c r="A35" s="37"/>
+      <c r="B35" s="37" t="s">
+        <v>753</v>
+      </c>
+      <c r="C35" s="39" t="s">
+        <v>754</v>
+      </c>
+      <c r="D35" s="40"/>
+      <c r="E35" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="F35" s="49"/>
+    </row>
+    <row r="36" spans="1:6" s="43" customFormat="1" outlineLevel="1">
+      <c r="A36" s="2"/>
+      <c r="B36" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>834</v>
+      </c>
+      <c r="D36" s="5"/>
+      <c r="E36" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="F36" s="49"/>
+    </row>
+    <row r="37" spans="1:6" outlineLevel="1">
+      <c r="A37" s="2"/>
+      <c r="B37" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="D37" s="5"/>
+      <c r="E37" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" outlineLevel="1">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>836</v>
+      </c>
+      <c r="D38" s="5"/>
+      <c r="E38" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" outlineLevel="1">
+      <c r="A39" s="2"/>
+      <c r="B39" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="D39" s="5"/>
+      <c r="E39" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" outlineLevel="1">
+      <c r="A40" s="2"/>
+      <c r="B40" s="3" t="s">
+        <v>765</v>
+      </c>
+      <c r="C40" s="36" t="s">
+        <v>780</v>
+      </c>
+      <c r="D40" s="5"/>
+      <c r="E40" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" outlineLevel="1">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>779</v>
+      </c>
+      <c r="D41" s="5"/>
+      <c r="E41" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" outlineLevel="1">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="C42" s="36" t="s">
+        <v>781</v>
+      </c>
+      <c r="D42" s="5"/>
+      <c r="E42" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" outlineLevel="1">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>782</v>
+      </c>
+      <c r="D43" s="5"/>
+      <c r="E43" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" outlineLevel="1">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>783</v>
+      </c>
+      <c r="D44" s="5"/>
+      <c r="E44" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="20" t="s">
+        <v>356</v>
+      </c>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" s="43" customFormat="1" outlineLevel="1">
+      <c r="A46" s="2"/>
+      <c r="B46" s="37" t="s">
+        <v>909</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>913</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>907</v>
+      </c>
+      <c r="E46" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="F46" s="49"/>
+    </row>
+    <row r="47" spans="1:6" outlineLevel="1">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2" t="s">
+        <v>908</v>
+      </c>
+      <c r="C47" s="42" t="str">
+        <f>""""""""&amp;CHAR(10)&amp;"test_1"&amp;CHAR(10)&amp;"test_2"&amp;CHAR(10)&amp;""""""""</f>
+        <v>"""
+test_1
+test_2
+"""</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>785</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" outlineLevel="1">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>914</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>784</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" outlineLevel="1">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>915</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>924</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" outlineLevel="1">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>919</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>920</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" outlineLevel="1">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="C51" s="42" t="s">
+        <v>918</v>
+      </c>
+      <c r="D51" s="40" t="s">
+        <v>916</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" outlineLevel="1">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2" t="s">
+        <v>911</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>917</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" outlineLevel="1">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C53" s="42" t="s">
+        <v>938</v>
+      </c>
+      <c r="D53" s="40" t="s">
+        <v>935</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" outlineLevel="1">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C54" s="42" t="s">
+        <v>937</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>939</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" outlineLevel="1">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2" t="s">
+        <v>955</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>922</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>923</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" outlineLevel="1">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2" t="s">
+        <v>954</v>
+      </c>
+      <c r="C56" s="39" t="s">
+        <v>925</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>926</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" outlineLevel="1">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="C57" s="39" t="s">
+        <v>927</v>
+      </c>
+      <c r="D57" s="40" t="s">
+        <v>928</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" s="43" customFormat="1" outlineLevel="1">
+      <c r="A58" s="37"/>
+      <c r="B58" s="37" t="s">
+        <v>952</v>
+      </c>
+      <c r="C58" s="39" t="s">
+        <v>929</v>
+      </c>
+      <c r="D58" s="40" t="s">
+        <v>932</v>
+      </c>
+      <c r="E58" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="F58" s="49"/>
+    </row>
+    <row r="59" spans="1:6" outlineLevel="1">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="C59" s="39" t="s">
+        <v>930</v>
+      </c>
+      <c r="D59" s="40" t="s">
+        <v>933</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" outlineLevel="1">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="C60" s="39" t="s">
+        <v>931</v>
+      </c>
+      <c r="D60" s="40" t="s">
+        <v>934</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" outlineLevel="1">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="C61" s="42" t="s">
+        <v>966</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>967</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" outlineLevel="1">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C62" s="39" t="s">
+        <v>786</v>
+      </c>
+      <c r="D62" s="40" t="s">
+        <v>787</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" outlineLevel="1">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C63" s="39" t="s">
+        <v>788</v>
+      </c>
+      <c r="D63" s="40" t="s">
+        <v>789</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" outlineLevel="1">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2" t="s">
+        <v>956</v>
+      </c>
+      <c r="C64" s="42" t="s">
+        <v>964</v>
+      </c>
+      <c r="D64" s="51" t="s">
+        <v>965</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" outlineLevel="1">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="C65" s="42" t="s">
+        <v>960</v>
+      </c>
+      <c r="D65" s="35" t="s">
+        <v>957</v>
+      </c>
+      <c r="E65" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" outlineLevel="1">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="C66" s="42" t="s">
+        <v>961</v>
+      </c>
+      <c r="D66" s="35" t="s">
+        <v>958</v>
+      </c>
+      <c r="E66" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="F66" s="50"/>
+    </row>
+    <row r="67" spans="1:6" outlineLevel="1">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="C67" s="42" t="s">
+        <v>962</v>
+      </c>
+      <c r="D67" s="35" t="s">
+        <v>959</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" outlineLevel="1">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="C68" s="42" t="s">
+        <v>963</v>
+      </c>
+      <c r="D68" s="35">
+        <v>1234</v>
+      </c>
+      <c r="E68" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" outlineLevel="1">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C69" s="44"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" outlineLevel="1">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C70" s="44"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" outlineLevel="1">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C71" s="44"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="43" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" s="43" customFormat="1" outlineLevel="1">
+      <c r="A72" s="37"/>
+      <c r="B72" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C72" s="44"/>
+      <c r="D72" s="39"/>
+      <c r="E72" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="F72" s="49"/>
+    </row>
+    <row r="73" spans="1:6" s="43" customFormat="1" outlineLevel="1">
+      <c r="A73" s="37"/>
+      <c r="B73" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="C73" s="44"/>
+      <c r="D73" s="39"/>
+      <c r="E73" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="F73" s="49"/>
+    </row>
+    <row r="74" spans="1:6" outlineLevel="1">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C74" s="44"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" outlineLevel="1">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C75" s="44"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" outlineLevel="1">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C76" s="39" t="s">
+        <v>790</v>
+      </c>
+      <c r="D76" s="40" t="s">
+        <v>791</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" outlineLevel="1">
+      <c r="A77" s="2"/>
+      <c r="B77" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C77" s="39" t="s">
+        <v>792</v>
+      </c>
+      <c r="D77" s="40" t="s">
+        <v>793</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" outlineLevel="1">
+      <c r="A78" s="2"/>
+      <c r="B78" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C78" s="44"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" outlineLevel="1">
+      <c r="A79" s="2"/>
+      <c r="B79" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C79" s="44"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" outlineLevel="1">
+      <c r="A80" s="2"/>
+      <c r="B80" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C80" s="39" t="s">
+        <v>796</v>
+      </c>
+      <c r="D80" s="40" t="s">
+        <v>795</v>
+      </c>
+      <c r="E80" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" outlineLevel="1">
+      <c r="A81" s="2"/>
+      <c r="B81" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="C81" s="39" t="s">
+        <v>794</v>
+      </c>
+      <c r="D81" s="40" t="s">
+        <v>795</v>
+      </c>
+      <c r="E81" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" outlineLevel="1">
+      <c r="A82" s="2"/>
+      <c r="B82" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C82" s="48" t="s">
+        <v>846</v>
+      </c>
+      <c r="D82" s="5"/>
+      <c r="E82" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" outlineLevel="1">
+      <c r="A83" s="2"/>
+      <c r="B83" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C83" s="44"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" outlineLevel="1">
+      <c r="A84" s="2"/>
+      <c r="B84" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C84" s="44"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" outlineLevel="1">
+      <c r="A85" s="2"/>
+      <c r="B85" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C85" s="44"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" outlineLevel="1">
+      <c r="A86" s="2"/>
+      <c r="B86" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C86" s="44"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" outlineLevel="1">
+      <c r="A87" s="2"/>
+      <c r="B87" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C87" s="44"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" outlineLevel="1">
+      <c r="A88" s="2"/>
+      <c r="B88" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C88" s="44"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" outlineLevel="1">
+      <c r="A89" s="2"/>
+      <c r="B89" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C89" s="44"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" outlineLevel="1">
+      <c r="A90" s="2"/>
+      <c r="B90" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C90" s="44"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" outlineLevel="1">
+      <c r="A91" s="2"/>
+      <c r="B91" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C91" s="44"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" outlineLevel="1">
+      <c r="A92" s="2"/>
+      <c r="B92" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C92" s="44"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" outlineLevel="1">
+      <c r="A93" s="2"/>
+      <c r="B93" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C93" s="44"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" outlineLevel="1">
+      <c r="A94" s="2"/>
+      <c r="B94" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C94" s="44"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" outlineLevel="1">
+      <c r="A95" s="2"/>
+      <c r="B95" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C95" s="44"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" outlineLevel="1">
+      <c r="A96" s="2"/>
+      <c r="B96" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C96" s="44"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" outlineLevel="1">
+      <c r="A97" s="2"/>
+      <c r="B97" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C97" s="44"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" outlineLevel="1">
+      <c r="A98" s="2"/>
+      <c r="B98" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C98" s="44"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" outlineLevel="1">
+      <c r="A99" s="2"/>
+      <c r="B99" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C99" s="44"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" outlineLevel="1">
+      <c r="A100" s="2"/>
+      <c r="B100" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C100" s="44"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" outlineLevel="1">
+      <c r="A101" s="2"/>
+      <c r="B101" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="C101" s="44"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" outlineLevel="1">
+      <c r="A102" s="2"/>
+      <c r="B102" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="C102" s="44"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" outlineLevel="1">
+      <c r="A103" s="2"/>
+      <c r="B103" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="C103" s="44"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" outlineLevel="1">
+      <c r="A104" s="2"/>
+      <c r="B104" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="C104" s="44"/>
+      <c r="D104" s="5"/>
+      <c r="E104" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="B105" s="8"/>
+      <c r="C105" s="8"/>
+      <c r="D105" s="21"/>
+      <c r="E105" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" outlineLevel="1">
+      <c r="A106" s="2"/>
+      <c r="B106" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C106" s="44"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" outlineLevel="1">
+      <c r="A107" s="2"/>
+      <c r="B107" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C107" s="44"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" outlineLevel="1">
+      <c r="A108" s="2"/>
+      <c r="B108" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C108" s="44"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" outlineLevel="1">
+      <c r="A109" s="2"/>
+      <c r="B109" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C109" s="44"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" outlineLevel="1">
+      <c r="A110" s="2"/>
+      <c r="B110" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C110" s="44"/>
+      <c r="D110" s="5"/>
+      <c r="E110" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" outlineLevel="1">
+      <c r="A111" s="2"/>
+      <c r="B111" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C111" s="44"/>
+      <c r="D111" s="5"/>
+      <c r="E111" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="B112" s="8"/>
+      <c r="C112" s="8"/>
+      <c r="D112" s="21"/>
+      <c r="E112" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" outlineLevel="1">
+      <c r="A113" s="2"/>
+      <c r="B113" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="C113" s="47" t="s">
+        <v>848</v>
+      </c>
+      <c r="D113" s="5"/>
+      <c r="E113" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" outlineLevel="1">
+      <c r="A114" s="2"/>
+      <c r="B114" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="C114" s="39" t="s">
+        <v>822</v>
+      </c>
+      <c r="D114" s="40" t="s">
+        <v>823</v>
+      </c>
+      <c r="E114" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" outlineLevel="1">
+      <c r="A115" s="2"/>
+      <c r="B115" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="C115" s="39" t="s">
+        <v>773</v>
+      </c>
+      <c r="D115" s="5"/>
+      <c r="E115" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" outlineLevel="1">
+      <c r="A116" s="2"/>
+      <c r="B116" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="C116" s="39" t="s">
+        <v>774</v>
+      </c>
+      <c r="D116" s="5"/>
+      <c r="E116" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" s="43" customFormat="1" outlineLevel="1">
+      <c r="A117" s="37"/>
+      <c r="B117" s="37" t="s">
+        <v>852</v>
+      </c>
+      <c r="C117" s="39" t="s">
+        <v>775</v>
+      </c>
+      <c r="D117" s="40"/>
+      <c r="E117" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="F117" s="49"/>
+    </row>
+    <row r="118" spans="1:6" s="43" customFormat="1" outlineLevel="1">
+      <c r="A118" s="37"/>
+      <c r="B118" s="37" t="s">
+        <v>853</v>
+      </c>
+      <c r="C118" s="39" t="s">
+        <v>824</v>
+      </c>
+      <c r="D118" s="40" t="s">
+        <v>825</v>
+      </c>
+      <c r="E118" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="F118" s="49"/>
+    </row>
+    <row r="119" spans="1:6" outlineLevel="1">
+      <c r="A119" s="2"/>
+      <c r="B119" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="C119" s="39" t="s">
+        <v>826</v>
+      </c>
+      <c r="D119" s="40" t="s">
+        <v>827</v>
+      </c>
+      <c r="E119" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" outlineLevel="1">
+      <c r="A120" s="2"/>
+      <c r="B120" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="C120" s="39" t="s">
+        <v>776</v>
+      </c>
+      <c r="D120" s="40"/>
+      <c r="E120" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" outlineLevel="1">
+      <c r="A121" s="2"/>
+      <c r="B121" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="C121" s="44"/>
+      <c r="D121" s="5"/>
+      <c r="E121" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="20" t="s">
+        <v>862</v>
+      </c>
+      <c r="B122" s="8"/>
+      <c r="C122" s="8"/>
+      <c r="D122" s="21"/>
+      <c r="E122" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" outlineLevel="1">
+      <c r="A123" s="2"/>
+      <c r="B123" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C123" s="39" t="s">
+        <v>863</v>
+      </c>
+      <c r="D123" s="40"/>
+      <c r="E123" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" outlineLevel="1">
+      <c r="A124" s="2"/>
+      <c r="B124" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C124" s="44"/>
+      <c r="D124" s="5"/>
+      <c r="E124" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" outlineLevel="1">
+      <c r="A125" s="2"/>
+      <c r="B125" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C125" s="44"/>
+      <c r="D125" s="5"/>
+      <c r="E125" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" s="43" customFormat="1" outlineLevel="1">
+      <c r="A126" s="2"/>
+      <c r="B126" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C126" s="44"/>
+      <c r="D126" s="5"/>
+      <c r="E126" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="F126" s="49"/>
+    </row>
+    <row r="127" spans="1:6" outlineLevel="1">
+      <c r="A127" s="45" t="s">
+        <v>865</v>
+      </c>
+      <c r="B127" s="41"/>
+      <c r="C127" s="41"/>
+      <c r="D127" s="46"/>
+      <c r="E127" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" outlineLevel="1">
+      <c r="A128" s="2"/>
+      <c r="B128" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="C128" s="39" t="s">
+        <v>864</v>
+      </c>
+      <c r="D128" s="40" t="s">
+        <v>828</v>
+      </c>
+      <c r="E128" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" s="43" customFormat="1">
+      <c r="A129" s="45" t="s">
+        <v>821</v>
+      </c>
+      <c r="B129" s="41"/>
+      <c r="C129" s="41"/>
+      <c r="D129" s="46"/>
+      <c r="E129" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="F129" s="49"/>
+    </row>
+    <row r="130" spans="1:6" outlineLevel="1">
+      <c r="A130" s="2"/>
+      <c r="B130" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="C130" s="44"/>
+      <c r="D130" s="5" t="s">
+        <v>820</v>
+      </c>
+      <c r="E130" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" outlineLevel="1">
+      <c r="A131" s="2"/>
+      <c r="B131" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>804</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>805</v>
+      </c>
+      <c r="E131" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" outlineLevel="1">
+      <c r="A132" s="2"/>
+      <c r="B132" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>806</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>807</v>
+      </c>
+      <c r="E132" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" outlineLevel="1">
+      <c r="A133" s="2"/>
+      <c r="B133" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>808</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>809</v>
+      </c>
+      <c r="E133" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" outlineLevel="1">
+      <c r="A134" s="2"/>
+      <c r="B134" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>811</v>
+      </c>
+      <c r="E134" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" outlineLevel="1">
+      <c r="A135" s="2"/>
+      <c r="B135" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>812</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>813</v>
+      </c>
+      <c r="E135" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" outlineLevel="1">
+      <c r="A136" s="2"/>
+      <c r="B136" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>815</v>
+      </c>
+      <c r="E136" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" outlineLevel="1">
+      <c r="A137" s="2"/>
+      <c r="B137" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>816</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>817</v>
+      </c>
+      <c r="E137" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" outlineLevel="1">
+      <c r="A138" s="2"/>
+      <c r="B138" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>818</v>
+      </c>
+      <c r="D138" s="5" t="s">
+        <v>819</v>
+      </c>
+      <c r="E138" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" outlineLevel="1">
+      <c r="A139" s="2"/>
+      <c r="B139" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>772</v>
+      </c>
+      <c r="D139" s="5"/>
+      <c r="E139" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" s="20" t="s">
+        <v>359</v>
+      </c>
+      <c r="B140" s="8"/>
+      <c r="C140" s="8"/>
+      <c r="D140" s="21"/>
+      <c r="E140" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" outlineLevel="1">
+      <c r="A141" s="2"/>
+      <c r="B141" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C141" s="44"/>
+      <c r="D141" s="5"/>
+      <c r="E141" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" outlineLevel="1">
+      <c r="A142" s="2"/>
+      <c r="B142" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C142" s="44"/>
+      <c r="D142" s="5"/>
+      <c r="E142" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" outlineLevel="1">
+      <c r="A143" s="2"/>
+      <c r="B143" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C143" s="44"/>
+      <c r="D143" s="5"/>
+      <c r="E143" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" outlineLevel="1">
+      <c r="A144" s="2"/>
+      <c r="B144" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C144" s="44"/>
+      <c r="D144" s="5"/>
+      <c r="E144" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" outlineLevel="1">
+      <c r="A145" s="2"/>
+      <c r="B145" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C145" s="44"/>
+      <c r="D145" s="5"/>
+      <c r="E145" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" outlineLevel="1">
+      <c r="A146" s="2"/>
+      <c r="B146" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C146" s="44"/>
+      <c r="D146" s="5"/>
+      <c r="E146" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" outlineLevel="1">
+      <c r="A147" s="2"/>
+      <c r="B147" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C147" s="44"/>
+      <c r="D147" s="5"/>
+      <c r="E147" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" outlineLevel="1">
+      <c r="A148" s="2"/>
+      <c r="B148" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C148" s="44"/>
+      <c r="D148" s="5"/>
+      <c r="E148" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" outlineLevel="1">
+      <c r="A149" s="2"/>
+      <c r="B149" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C149" s="44"/>
+      <c r="D149" s="5"/>
+      <c r="E149" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" outlineLevel="1">
+      <c r="A150" s="2"/>
+      <c r="B150" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C150" s="44"/>
+      <c r="D150" s="5"/>
+      <c r="E150" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" outlineLevel="1">
+      <c r="A151" s="2"/>
+      <c r="B151" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C151" s="44"/>
+      <c r="D151" s="5"/>
+      <c r="E151" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="20" t="s">
+        <v>358</v>
+      </c>
+      <c r="B152" s="8"/>
+      <c r="C152" s="8"/>
+      <c r="D152" s="21"/>
+      <c r="E152" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" outlineLevel="1">
+      <c r="A153" s="2"/>
+      <c r="B153" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C153" s="44"/>
+      <c r="D153" s="5"/>
+      <c r="E153" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" outlineLevel="1">
+      <c r="A154" s="2"/>
+      <c r="B154" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C154" s="44"/>
+      <c r="D154" s="5"/>
+      <c r="E154" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" outlineLevel="1">
+      <c r="A155" s="2"/>
+      <c r="B155" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C155" s="44"/>
+      <c r="D155" s="5"/>
+      <c r="E155" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" outlineLevel="1">
+      <c r="A156" s="2"/>
+      <c r="B156" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C156" s="44"/>
+      <c r="D156" s="5"/>
+      <c r="E156" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" outlineLevel="1">
+      <c r="A157" s="2"/>
+      <c r="B157" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C157" s="44"/>
+      <c r="D157" s="5"/>
+      <c r="E157" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" outlineLevel="1">
+      <c r="A158" s="2"/>
+      <c r="B158" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C158" s="44"/>
+      <c r="D158" s="5"/>
+      <c r="E158" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" outlineLevel="1">
+      <c r="A159" s="2"/>
+      <c r="B159" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C159" s="44"/>
+      <c r="D159" s="5"/>
+      <c r="E159" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" outlineLevel="1">
+      <c r="A160" s="2"/>
+      <c r="B160" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C160" s="44"/>
+      <c r="D160" s="5"/>
+      <c r="E160" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" outlineLevel="1">
+      <c r="A161" s="2"/>
+      <c r="B161" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C161" s="44"/>
+      <c r="D161" s="5"/>
+      <c r="E161" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" outlineLevel="1">
+      <c r="A162" s="2"/>
+      <c r="B162" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C162" s="44"/>
+      <c r="D162" s="5"/>
+      <c r="E162" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" outlineLevel="1">
+      <c r="A163" s="2"/>
+      <c r="B163" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C163" s="44"/>
+      <c r="D163" s="5"/>
+      <c r="E163" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" outlineLevel="1">
+      <c r="A164" s="2"/>
+      <c r="B164" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C164" s="44"/>
+      <c r="D164" s="5"/>
+      <c r="E164" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" outlineLevel="1">
+      <c r="A165" s="2"/>
+      <c r="B165" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C165" s="44"/>
+      <c r="D165" s="5"/>
+      <c r="E165" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" outlineLevel="1">
+      <c r="A166" s="2"/>
+      <c r="B166" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C166" s="44"/>
+      <c r="D166" s="5"/>
+      <c r="E166" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" outlineLevel="1">
+      <c r="A167" s="2"/>
+      <c r="B167" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C167" s="44"/>
+      <c r="D167" s="5"/>
+      <c r="E167" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" s="20" t="s">
+        <v>483</v>
+      </c>
+      <c r="B168" s="8"/>
+      <c r="C168" s="20"/>
+      <c r="D168" s="21"/>
+      <c r="E168" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" outlineLevel="1">
+      <c r="A169" s="2"/>
+      <c r="B169" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C169" s="44"/>
+      <c r="D169" s="5"/>
+      <c r="E169" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" outlineLevel="1">
+      <c r="A170" s="2"/>
+      <c r="B170" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="C170" s="44"/>
+      <c r="D170" s="5"/>
+      <c r="E170" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" outlineLevel="1">
+      <c r="A171" s="2"/>
+      <c r="B171" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="C171" s="44"/>
+      <c r="D171" s="5"/>
+      <c r="E171" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" outlineLevel="1">
+      <c r="A172" s="2"/>
+      <c r="B172" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="C172" s="44"/>
+      <c r="D172" s="5"/>
+      <c r="E172" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" outlineLevel="1">
+      <c r="A173" s="2"/>
+      <c r="B173" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C173" s="44"/>
+      <c r="D173" s="5"/>
+      <c r="E173" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" outlineLevel="1">
+      <c r="A174" s="2"/>
+      <c r="B174" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="C174" s="44"/>
+      <c r="D174" s="5"/>
+      <c r="E174" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" outlineLevel="1">
+      <c r="A175" s="2"/>
+      <c r="B175" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="C175" s="44"/>
+      <c r="D175" s="5"/>
+      <c r="E175" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" outlineLevel="1">
+      <c r="A176" s="2"/>
+      <c r="B176" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="C176" s="44"/>
+      <c r="D176" s="5"/>
+      <c r="E176" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" outlineLevel="1">
+      <c r="A177" s="2"/>
+      <c r="B177" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="C177" s="44"/>
+      <c r="D177" s="5"/>
+      <c r="E177" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" outlineLevel="1">
+      <c r="A178" s="2"/>
+      <c r="B178" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="C178" s="44"/>
+      <c r="D178" s="5"/>
+      <c r="E178" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" outlineLevel="1">
+      <c r="A179" s="2"/>
+      <c r="B179" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="C179" s="44"/>
+      <c r="D179" s="5"/>
+      <c r="E179" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" outlineLevel="1">
+      <c r="A180" s="2"/>
+      <c r="B180" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="C180" s="44"/>
+      <c r="D180" s="5"/>
+      <c r="E180" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" outlineLevel="1">
+      <c r="A181" s="2"/>
+      <c r="B181" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="C181" s="44"/>
+      <c r="D181" s="5"/>
+      <c r="E181" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" outlineLevel="1">
+      <c r="A182" s="2"/>
+      <c r="B182" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="C182" s="44"/>
+      <c r="D182" s="5"/>
+      <c r="E182" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" s="20" t="s">
+        <v>866</v>
+      </c>
+      <c r="B183" s="8"/>
+      <c r="C183" s="8"/>
+      <c r="D183" s="21"/>
+      <c r="E183" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" outlineLevel="1">
+      <c r="A184" s="2"/>
+      <c r="B184" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C184" s="39" t="s">
+        <v>867</v>
+      </c>
+      <c r="E184" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" outlineLevel="1">
+      <c r="A185" s="2"/>
+      <c r="B185" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C185" s="44"/>
+      <c r="D185" s="5"/>
+      <c r="E185" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" outlineLevel="1">
+      <c r="A186" s="2"/>
+      <c r="B186" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C186" s="44"/>
+      <c r="D186" s="5"/>
+      <c r="E186" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" outlineLevel="1">
+      <c r="A187" s="2"/>
+      <c r="B187" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C187" s="44"/>
+      <c r="D187" s="5"/>
+      <c r="E187" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" outlineLevel="1">
+      <c r="A188" s="2"/>
+      <c r="B188" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="C188" s="44"/>
+      <c r="D188" s="5"/>
+      <c r="E188" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" outlineLevel="1">
+      <c r="A189" s="2"/>
+      <c r="B189" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C189" s="44"/>
+      <c r="D189" s="5"/>
+      <c r="E189" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" outlineLevel="1">
+      <c r="A190" s="2"/>
+      <c r="B190" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C190" s="44"/>
+      <c r="D190" s="5"/>
+      <c r="E190" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" outlineLevel="1">
+      <c r="A191" s="2"/>
+      <c r="B191" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C191" s="44"/>
+      <c r="D191" s="5"/>
+      <c r="E191" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" outlineLevel="1">
+      <c r="A192" s="2"/>
+      <c r="B192" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C192" s="44"/>
+      <c r="D192" s="5"/>
+      <c r="E192" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" outlineLevel="1">
+      <c r="A193" s="2"/>
+      <c r="B193" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C193" s="44"/>
+      <c r="D193" s="5"/>
+      <c r="E193" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" outlineLevel="1">
+      <c r="A194" s="2"/>
+      <c r="B194" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C194" s="44"/>
+      <c r="D194" s="5"/>
+      <c r="E194" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" outlineLevel="1">
+      <c r="A195" s="2"/>
+      <c r="B195" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C195" s="44"/>
+      <c r="D195" s="5"/>
+      <c r="E195" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" outlineLevel="1">
+      <c r="A196" s="2"/>
+      <c r="B196" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C196" s="44"/>
+      <c r="D196" s="5"/>
+      <c r="E196" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" outlineLevel="1">
+      <c r="A197" s="2"/>
+      <c r="B197" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C197" s="44"/>
+      <c r="D197" s="5"/>
+      <c r="E197" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" outlineLevel="1">
+      <c r="A198" s="2"/>
+      <c r="B198" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C198" s="44"/>
+      <c r="D198" s="5"/>
+      <c r="E198" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" outlineLevel="1">
+      <c r="B199" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="C199" s="44"/>
+      <c r="D199" s="5"/>
+      <c r="E199" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" outlineLevel="1">
+      <c r="A200" s="2"/>
+      <c r="B200" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C200" s="44"/>
+      <c r="D200" s="5"/>
+      <c r="E200" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" outlineLevel="1">
+      <c r="A201" s="2"/>
+      <c r="B201" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C201" s="44"/>
+      <c r="D201" s="5"/>
+      <c r="E201" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" outlineLevel="1">
+      <c r="A202" s="2"/>
+      <c r="B202" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C202" s="44"/>
+      <c r="D202" s="5"/>
+      <c r="E202" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" outlineLevel="1">
+      <c r="A203" s="2"/>
+      <c r="B203" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C203" s="44"/>
+      <c r="D203" s="5"/>
+      <c r="E203" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" outlineLevel="1">
+      <c r="A204" s="2"/>
+      <c r="B204" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C204" s="44"/>
+      <c r="D204" s="5"/>
+      <c r="E204" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" outlineLevel="1">
+      <c r="A205" s="2"/>
+      <c r="B205" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C205" s="44"/>
+      <c r="D205" s="5"/>
+      <c r="E205" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" outlineLevel="1">
+      <c r="A206" s="2"/>
+      <c r="B206" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C206" s="44"/>
+      <c r="D206" s="5"/>
+      <c r="E206" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" outlineLevel="1">
+      <c r="A207" s="2"/>
+      <c r="B207" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C207" s="44"/>
+      <c r="D207" s="5"/>
+      <c r="E207" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" outlineLevel="1">
+      <c r="A208" s="2"/>
+      <c r="B208" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C208" s="44"/>
+      <c r="D208" s="5"/>
+      <c r="E208" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" outlineLevel="1">
+      <c r="A209" s="2"/>
+      <c r="B209" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C209" s="44"/>
+      <c r="D209" s="5"/>
+      <c r="E209" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" outlineLevel="1">
+      <c r="A210" s="2"/>
+      <c r="B210" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="C210" s="44"/>
+      <c r="D210" s="5"/>
+      <c r="E210" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" outlineLevel="1">
+      <c r="A211" s="2"/>
+      <c r="B211" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C211" s="44"/>
+      <c r="D211" s="5"/>
+      <c r="E211" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" outlineLevel="1">
+      <c r="A212" s="2"/>
+      <c r="B212" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C212" s="44"/>
+      <c r="D212" s="5"/>
+      <c r="E212" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" outlineLevel="1">
+      <c r="A213" s="2"/>
+      <c r="B213" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C213" s="44"/>
+      <c r="D213" s="5"/>
+      <c r="E213" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" outlineLevel="1">
+      <c r="A214" s="2"/>
+      <c r="B214" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C214" s="44"/>
+      <c r="D214" s="5"/>
+      <c r="E214" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" s="43" customFormat="1" outlineLevel="1">
+      <c r="A215" s="2"/>
+      <c r="B215" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C215" s="44"/>
+      <c r="D215" s="5"/>
+      <c r="E215" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="F215" s="49"/>
+    </row>
+    <row r="216" spans="1:6" outlineLevel="1">
+      <c r="A216" s="37"/>
+      <c r="B216" s="37" t="s">
+        <v>868</v>
+      </c>
+      <c r="C216" s="42" t="s">
+        <v>870</v>
+      </c>
+      <c r="D216" s="40"/>
+      <c r="E216" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" outlineLevel="1">
+      <c r="A217" s="2"/>
+      <c r="B217" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="C217" s="42" t="s">
+        <v>871</v>
+      </c>
+      <c r="D217" s="5"/>
+      <c r="E217" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" outlineLevel="1">
+      <c r="A218" s="2"/>
+      <c r="B218" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C218" s="44"/>
+      <c r="D218" s="5"/>
+      <c r="E218" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" outlineLevel="1">
+      <c r="A219" s="2"/>
+      <c r="B219" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C219" s="44"/>
+      <c r="D219" s="5"/>
+      <c r="E219" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" outlineLevel="1">
+      <c r="A220" s="2"/>
+      <c r="B220" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C220" s="44"/>
+      <c r="D220" s="5"/>
+      <c r="E220" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" outlineLevel="1">
+      <c r="A221" s="2"/>
+      <c r="B221" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="C221" s="44"/>
+      <c r="D221" s="5"/>
+      <c r="E221" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" s="43" customFormat="1">
+      <c r="A222" s="7"/>
+      <c r="B222" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C222" s="44"/>
+      <c r="D222" s="5"/>
+      <c r="E222" s="43" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" s="43" customFormat="1">
+      <c r="A223" s="37"/>
+      <c r="B223" s="37" t="s">
+        <v>890</v>
+      </c>
+      <c r="C223" s="42" t="s">
+        <v>896</v>
+      </c>
+      <c r="D223" s="40" t="s">
+        <v>894</v>
+      </c>
+      <c r="E223" s="43" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" s="43" customFormat="1" outlineLevel="1">
+      <c r="A224" s="37"/>
+      <c r="B224" s="37" t="s">
+        <v>891</v>
+      </c>
+      <c r="C224" s="42" t="s">
+        <v>897</v>
+      </c>
+      <c r="D224" s="40" t="s">
+        <v>895</v>
+      </c>
+      <c r="E224" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="F224" s="49"/>
+    </row>
+    <row r="225" spans="1:6" s="43" customFormat="1" outlineLevel="1">
+      <c r="A225" s="7"/>
+      <c r="B225" s="37" t="s">
+        <v>903</v>
+      </c>
+      <c r="C225" s="42" t="s">
+        <v>904</v>
+      </c>
+      <c r="D225" s="40" t="s">
+        <v>905</v>
+      </c>
+      <c r="E225" s="43" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" s="43" customFormat="1" outlineLevel="1">
+      <c r="A226" s="45" t="s">
+        <v>872</v>
+      </c>
+      <c r="B226" s="41"/>
+      <c r="C226" s="41"/>
+      <c r="D226" s="46"/>
+      <c r="E226" s="43" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" s="43" customFormat="1" outlineLevel="1">
+      <c r="A227" s="37"/>
+      <c r="B227" s="37" t="s">
+        <v>873</v>
+      </c>
+      <c r="C227" s="42" t="s">
+        <v>968</v>
+      </c>
+      <c r="D227" s="52" t="s">
+        <v>972</v>
+      </c>
+      <c r="E227" s="53" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" s="43" customFormat="1" outlineLevel="1">
+      <c r="A228" s="37"/>
+      <c r="B228" s="37" t="s">
+        <v>874</v>
+      </c>
+      <c r="C228" s="42" t="s">
+        <v>969</v>
+      </c>
+      <c r="D228" s="35" t="s">
+        <v>973</v>
+      </c>
+      <c r="E228" s="43" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" s="43" customFormat="1" outlineLevel="1">
+      <c r="A229" s="37"/>
+      <c r="B229" s="37" t="s">
+        <v>875</v>
+      </c>
+      <c r="C229" s="42" t="s">
+        <v>970</v>
+      </c>
+      <c r="D229" s="35" t="s">
+        <v>971</v>
+      </c>
+      <c r="E229" s="43" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" s="43" customFormat="1" outlineLevel="1">
+      <c r="A230" s="37"/>
+      <c r="B230" s="37" t="s">
+        <v>876</v>
+      </c>
+      <c r="C230" s="42" t="s">
+        <v>974</v>
+      </c>
+      <c r="D230" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="E230" s="43" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" s="43" customFormat="1" outlineLevel="1">
+      <c r="A231" s="37"/>
+      <c r="B231" s="37" t="s">
+        <v>877</v>
+      </c>
+      <c r="C231" s="42" t="s">
+        <v>975</v>
+      </c>
+      <c r="D231" s="35" t="s">
+        <v>976</v>
+      </c>
+      <c r="E231" s="43" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" s="43" customFormat="1" outlineLevel="1">
+      <c r="A232" s="45" t="s">
+        <v>878</v>
+      </c>
+      <c r="B232" s="41"/>
+      <c r="C232" s="41"/>
+      <c r="D232" s="46"/>
+      <c r="E232" s="43" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" s="43" customFormat="1" outlineLevel="1">
+      <c r="A233" s="37"/>
+      <c r="B233" s="37" t="s">
+        <v>879</v>
+      </c>
+      <c r="C233" s="42" t="s">
+        <v>883</v>
+      </c>
+      <c r="D233" s="35"/>
+      <c r="E233" s="43" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" s="43" customFormat="1" outlineLevel="1">
+      <c r="A234" s="37"/>
+      <c r="B234" s="37" t="s">
+        <v>880</v>
+      </c>
+      <c r="C234" s="42" t="s">
+        <v>884</v>
+      </c>
+      <c r="D234" s="35"/>
+      <c r="E234" s="43" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" s="43" customFormat="1" outlineLevel="1">
+      <c r="A235" s="37"/>
+      <c r="B235" s="37" t="s">
+        <v>881</v>
+      </c>
+      <c r="C235" s="42" t="s">
+        <v>885</v>
+      </c>
+      <c r="D235" s="35"/>
+      <c r="E235" s="43" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6">
+      <c r="A236" s="37"/>
+      <c r="B236" s="37" t="s">
+        <v>882</v>
+      </c>
+      <c r="C236" s="42" t="s">
+        <v>887</v>
+      </c>
+      <c r="D236" s="35" t="s">
+        <v>886</v>
+      </c>
+      <c r="E236" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="F236" s="43"/>
+    </row>
+    <row r="237" spans="1:6" outlineLevel="1">
+      <c r="A237" s="2"/>
+      <c r="B237" s="37" t="s">
+        <v>893</v>
+      </c>
+      <c r="C237" s="42" t="s">
+        <v>888</v>
+      </c>
+      <c r="D237" s="5" t="s">
+        <v>889</v>
+      </c>
+      <c r="E237" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="F237" s="43"/>
+    </row>
+    <row r="238" spans="1:6" s="43" customFormat="1">
+      <c r="A238" s="20" t="s">
+        <v>899</v>
+      </c>
+      <c r="B238" s="8"/>
+      <c r="C238" s="20"/>
+      <c r="D238" s="21"/>
+      <c r="E238" s="43" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" outlineLevel="1">
+      <c r="A239" s="37"/>
+      <c r="B239" s="37" t="s">
+        <v>892</v>
+      </c>
+      <c r="C239" s="42" t="s">
+        <v>898</v>
+      </c>
+      <c r="D239" s="40" t="s">
+        <v>889</v>
+      </c>
+      <c r="E239" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="F239" s="43"/>
+    </row>
+    <row r="240" spans="1:6" outlineLevel="1">
+      <c r="A240" s="2"/>
+      <c r="B240" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C240" s="44"/>
+      <c r="D240" s="5"/>
+      <c r="E240" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="F240" s="43"/>
+    </row>
+    <row r="241" spans="1:6" outlineLevel="1">
+      <c r="A241" s="2"/>
+      <c r="B241" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C241" s="44"/>
+      <c r="D241" s="5"/>
+      <c r="E241" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" outlineLevel="1">
+      <c r="A242" s="2"/>
+      <c r="B242" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C242" s="44"/>
+      <c r="D242" s="5"/>
+      <c r="E242" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" outlineLevel="1">
+      <c r="A243" s="2"/>
+      <c r="B243" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C243" s="44"/>
+      <c r="D243" s="5"/>
+      <c r="E243" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" outlineLevel="1">
+      <c r="A244" s="2"/>
+      <c r="B244" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C244" s="44"/>
+      <c r="D244" s="5"/>
+      <c r="E244" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" outlineLevel="1">
+      <c r="A245" s="2"/>
+      <c r="B245" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C245" s="42" t="s">
+        <v>946</v>
+      </c>
+      <c r="D245" s="5"/>
+      <c r="E245" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" outlineLevel="1">
+      <c r="A246" s="2"/>
+      <c r="B246" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="C246" s="42" t="s">
+        <v>947</v>
+      </c>
+      <c r="D246" s="40" t="s">
+        <v>948</v>
+      </c>
+      <c r="E246" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" outlineLevel="1">
+      <c r="A247" s="2"/>
+      <c r="B247" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="C247" s="44"/>
+      <c r="D247" s="5"/>
+      <c r="E247" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" outlineLevel="1">
+      <c r="A248" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="B248" s="8"/>
+      <c r="C248" s="20"/>
+      <c r="D248" s="21"/>
+      <c r="E248" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" outlineLevel="1">
+      <c r="A249" s="2"/>
+      <c r="B249" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C249" s="44"/>
+      <c r="D249" s="5"/>
+      <c r="E249" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" outlineLevel="1">
+      <c r="A250" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="B250" s="8"/>
+      <c r="C250" s="20"/>
+      <c r="D250" s="21"/>
+      <c r="E250" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" outlineLevel="1">
+      <c r="A251" s="2"/>
+      <c r="B251" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C251" s="44"/>
+      <c r="D251" s="5"/>
+      <c r="E251" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" s="43" customFormat="1" outlineLevel="1">
+      <c r="A252" s="2"/>
+      <c r="B252" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C252" s="44"/>
+      <c r="D252" s="5"/>
+      <c r="E252" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="F252" s="49"/>
+    </row>
+    <row r="253" spans="1:6" outlineLevel="1">
+      <c r="A253" s="41" t="s">
+        <v>900</v>
+      </c>
+      <c r="B253" s="41"/>
+      <c r="C253" s="45"/>
+      <c r="D253" s="46"/>
+    </row>
+    <row r="254" spans="1:6" outlineLevel="1">
+      <c r="A254" s="2"/>
+      <c r="B254" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="C254" s="4" t="str">
+        <f>"import glob"&amp;CHAR(10)&amp;"files = glob.glob(r""C:\Python25\*.*"")"</f>
+        <v>import glob
+files = glob.glob(r"C:\Python25\*.*")</v>
+      </c>
+      <c r="D254" s="5" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" outlineLevel="1">
+      <c r="A255" s="2"/>
+      <c r="B255" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="C255" s="4" t="str">
+        <f>"# create file list. filetype selectable"&amp;CHAR(10)&amp;"#   0:both, 1:files, 2:directorys, other:none"&amp;CHAR(10)&amp;"def create_file_list(dirpath, filetype):"&amp;CHAR(10)&amp;"    for root, dirs, files in os.walk(dirpath):"&amp;CHAR(10)&amp;"        if filetype == 0 or filetype == 2:"&amp;CHAR(10)&amp;"            yield root.replace(""\\"", ""/"")"&amp;CHAR(10)&amp;"        if filetype == 0 or filetype == 1:"&amp;CHAR(10)&amp;"            for file in files:"&amp;CHAR(10)&amp;"                yield os.path.join(root, file).replace(""\\"", ""/"")"</f>
+        <v># create file list. filetype selectable
+#   0:both, 1:files, 2:directorys, other:none
+def create_file_list(dirpath, filetype):
+    for root, dirs, files in os.walk(dirpath):
+        if filetype == 0 or filetype == 2:
+            yield root.replace("\\", "/")
+        if filetype == 0 or filetype == 1:
+            for file in files:
+                yield os.path.join(root, file).replace("\\", "/")</v>
+      </c>
+      <c r="D255" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" outlineLevel="1">
+      <c r="A256" s="2"/>
+      <c r="B256" s="2"/>
+      <c r="C256" s="4"/>
+      <c r="D256" s="5"/>
+    </row>
+    <row r="257" spans="1:4" outlineLevel="1">
+      <c r="A257" s="2"/>
+      <c r="B257" s="2"/>
+      <c r="C257" s="10"/>
+      <c r="D257" s="5"/>
+    </row>
+    <row r="258" spans="1:4" outlineLevel="1">
+      <c r="A258" s="2"/>
+      <c r="B258" s="2"/>
+      <c r="C258" s="10"/>
+      <c r="D258" s="5"/>
+    </row>
+    <row r="259" spans="1:4" outlineLevel="1">
+      <c r="A259" s="2"/>
+      <c r="B259" s="2"/>
+      <c r="C259" s="10"/>
+      <c r="D259" s="5"/>
+    </row>
+    <row r="260" spans="1:4" outlineLevel="1">
+      <c r="A260" s="2"/>
+      <c r="B260" s="2"/>
+      <c r="C260" s="10"/>
+      <c r="D260" s="5"/>
+    </row>
+    <row r="261" spans="1:4" outlineLevel="1">
+      <c r="A261" s="2"/>
+      <c r="B261" s="2"/>
+      <c r="C261" s="10"/>
+      <c r="D261" s="5"/>
+    </row>
+    <row r="262" spans="1:4" outlineLevel="1">
+      <c r="A262" s="2"/>
+      <c r="B262" s="2"/>
+      <c r="C262" s="10"/>
+      <c r="D262" s="5"/>
+    </row>
+    <row r="263" spans="1:4" outlineLevel="1">
+      <c r="A263" s="2"/>
+      <c r="B263" s="2"/>
+      <c r="C263" s="10"/>
+      <c r="D263" s="5"/>
+    </row>
+    <row r="264" spans="1:4" outlineLevel="1">
+      <c r="A264" s="2"/>
+      <c r="B264" s="2"/>
+      <c r="C264" s="10"/>
+      <c r="D264" s="5"/>
+    </row>
+    <row r="265" spans="1:4" outlineLevel="1">
+      <c r="A265" s="2"/>
+      <c r="B265" s="2"/>
+      <c r="C265" s="10"/>
+      <c r="D265" s="5"/>
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="47" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{997FEDBF-B0E8-4AC4-BF8D-311B93943C49}">
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -11416,10 +15654,10 @@
   <dimension ref="A1:E88"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C65" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C77" sqref="C77"/>
+      <selection pane="bottomRight" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -11442,7 +15680,7 @@
     </row>
     <row r="2" spans="1:5" ht="27">
       <c r="A2" s="14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="29" t="s">
@@ -11457,7 +15695,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="20" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -11471,13 +15709,13 @@
     <row r="4" spans="1:5" outlineLevel="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="5" spans="1:5" outlineLevel="1">
@@ -11486,7 +15724,7 @@
         <v>142</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>122</v>
@@ -11495,10 +15733,10 @@
     <row r="6" spans="1:5" outlineLevel="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>122</v>
@@ -11507,10 +15745,10 @@
     <row r="7" spans="1:5" outlineLevel="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>122</v>
@@ -11519,22 +15757,22 @@
     <row r="8" spans="1:5" outlineLevel="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="9" spans="1:5" outlineLevel="1">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>122</v>
@@ -11543,73 +15781,73 @@
     <row r="10" spans="1:5" ht="94.5" outlineLevel="1">
       <c r="A10" s="2"/>
       <c r="B10" s="32" t="s">
+        <v>650</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>651</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="30" t="s">
         <v>652</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="11" spans="1:5" outlineLevel="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="12" spans="1:5" outlineLevel="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>641</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>642</v>
-      </c>
       <c r="D12" s="5" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="13" spans="1:5" outlineLevel="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>643</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>644</v>
-      </c>
       <c r="D13" s="5" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="14" spans="1:5" outlineLevel="1">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>645</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="D14" s="5" t="s">
         <v>646</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="81" outlineLevel="1">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>648</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="D15" s="30" t="s">
         <v>649</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="16" spans="1:5" outlineLevel="1">
@@ -11618,7 +15856,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>122</v>
@@ -11627,10 +15865,10 @@
     <row r="17" spans="1:5" outlineLevel="1">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>122</v>
@@ -11639,10 +15877,10 @@
     <row r="18" spans="1:5" outlineLevel="1">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>122</v>
@@ -11651,10 +15889,10 @@
     <row r="19" spans="1:5" outlineLevel="1">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>122</v>
@@ -11663,10 +15901,10 @@
     <row r="20" spans="1:5" outlineLevel="1">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>122</v>
@@ -11675,10 +15913,10 @@
     <row r="21" spans="1:5" outlineLevel="1">
       <c r="A21" s="2"/>
       <c r="B21" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>122</v>
@@ -11687,10 +15925,10 @@
     <row r="22" spans="1:5" outlineLevel="1">
       <c r="A22" s="2"/>
       <c r="B22" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>122</v>
@@ -11699,10 +15937,10 @@
     <row r="23" spans="1:5" outlineLevel="1">
       <c r="A23" s="2"/>
       <c r="B23" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>122</v>
@@ -11714,7 +15952,7 @@
         <v>13</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>122</v>
@@ -11723,10 +15961,10 @@
     <row r="25" spans="1:5" outlineLevel="1">
       <c r="A25" s="2"/>
       <c r="B25" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>122</v>
@@ -11735,10 +15973,10 @@
     <row r="26" spans="1:5" outlineLevel="1">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>122</v>
@@ -11747,10 +15985,10 @@
     <row r="27" spans="1:5" outlineLevel="1">
       <c r="A27" s="2"/>
       <c r="B27" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>122</v>
@@ -11759,10 +15997,10 @@
     <row r="28" spans="1:5" outlineLevel="1">
       <c r="A28" s="2"/>
       <c r="B28" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>122</v>
@@ -11771,10 +16009,10 @@
     <row r="29" spans="1:5" outlineLevel="1">
       <c r="A29" s="2"/>
       <c r="B29" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>122</v>
@@ -11783,30 +16021,30 @@
     <row r="30" spans="1:5" outlineLevel="1">
       <c r="A30" s="2"/>
       <c r="B30" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>656</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>657</v>
-      </c>
       <c r="D30" s="5" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="31" spans="1:5" outlineLevel="1">
       <c r="A31" s="2"/>
       <c r="B31" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="20" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -11820,88 +16058,88 @@
     <row r="33" spans="1:5" outlineLevel="1">
       <c r="A33" s="2"/>
       <c r="B33" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D33" s="5"/>
     </row>
     <row r="34" spans="1:5" outlineLevel="1">
       <c r="A34" s="2"/>
       <c r="B34" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D34" s="5"/>
     </row>
     <row r="35" spans="1:5" outlineLevel="1">
       <c r="A35" s="2"/>
       <c r="B35" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D35" s="5"/>
     </row>
     <row r="36" spans="1:5" outlineLevel="1">
       <c r="A36" s="2"/>
       <c r="B36" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D36" s="5"/>
     </row>
     <row r="37" spans="1:5" outlineLevel="1">
       <c r="A37" s="2"/>
       <c r="B37" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D37" s="5"/>
     </row>
     <row r="38" spans="1:5" outlineLevel="1">
       <c r="A38" s="2"/>
       <c r="B38" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D38" s="5"/>
     </row>
     <row r="39" spans="1:5" outlineLevel="1">
       <c r="A39" s="2"/>
       <c r="B39" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D39" s="5"/>
     </row>
     <row r="40" spans="1:5" outlineLevel="1">
       <c r="A40" s="2"/>
       <c r="B40" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="20" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -11915,46 +16153,46 @@
     <row r="42" spans="1:5" outlineLevel="1">
       <c r="A42" s="2"/>
       <c r="B42" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="D42" s="5" t="s">
         <v>584</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="43" spans="1:5" outlineLevel="1">
       <c r="A43" s="2"/>
       <c r="B43" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="44" spans="1:5" outlineLevel="1">
       <c r="A44" s="2"/>
       <c r="B44" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="45" spans="1:5" outlineLevel="1">
       <c r="A45" s="2"/>
       <c r="B45" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>265</v>
@@ -11963,67 +16201,67 @@
     <row r="46" spans="1:5" outlineLevel="1">
       <c r="A46" s="2"/>
       <c r="B46" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="D46" s="5" t="s">
         <v>593</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="47" spans="1:5" outlineLevel="1">
       <c r="A47" s="2"/>
       <c r="B47" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="D47" s="5" t="s">
         <v>596</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="48" spans="1:5" outlineLevel="1">
       <c r="A48" s="2"/>
       <c r="B48" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="D48" s="5" t="s">
         <v>599</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>598</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="49" spans="1:5" outlineLevel="1">
       <c r="A49" s="2"/>
       <c r="B49" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="D49" s="5" t="s">
         <v>602</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>601</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="50" spans="1:5" outlineLevel="1">
       <c r="A50" s="2"/>
       <c r="B50" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="D50" s="5" t="s">
         <v>605</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="27" outlineLevel="1">
       <c r="A51" s="2"/>
       <c r="B51" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C51" s="31" t="str">
         <f>"set CUR_DIR_PATH=%~dp0
@@ -12038,54 +16276,54 @@
     <row r="52" spans="1:5" outlineLevel="1">
       <c r="A52" s="2"/>
       <c r="B52" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="D52" s="5" t="s">
         <v>608</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="53" spans="1:5" outlineLevel="1">
       <c r="A53" s="2"/>
       <c r="B53" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="D53" s="5" t="s">
         <v>611</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="54" spans="1:5" outlineLevel="1">
       <c r="A54" s="2"/>
       <c r="B54" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="D54" s="5" t="s">
         <v>614</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>613</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="55" spans="1:5" outlineLevel="1">
       <c r="A55" s="2"/>
       <c r="B55" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="D55" s="5" t="s">
         <v>617</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="20" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -12102,19 +16340,19 @@
         <v>48</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D57" s="30" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="58" spans="1:5" outlineLevel="1">
       <c r="A58" s="2"/>
       <c r="B58" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>122</v>
@@ -12123,10 +16361,10 @@
     <row r="59" spans="1:5" outlineLevel="1">
       <c r="A59" s="2"/>
       <c r="B59" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>122</v>
@@ -12135,13 +16373,13 @@
     <row r="60" spans="1:5" outlineLevel="1">
       <c r="A60" s="2"/>
       <c r="B60" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D60" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="61" spans="1:5" outlineLevel="1">
@@ -12150,7 +16388,7 @@
         <v>59</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>122</v>
@@ -12162,22 +16400,22 @@
         <v>58</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D62" s="30" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="63" spans="1:5" outlineLevel="1">
       <c r="A63" s="2"/>
       <c r="B63" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D63" s="30" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="135" outlineLevel="1">
@@ -12186,103 +16424,103 @@
         <v>57</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D64" s="30" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="94.5" outlineLevel="1">
       <c r="A65" s="2"/>
       <c r="B65" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D65" s="30" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="66" spans="1:4" outlineLevel="1">
       <c r="A66" s="2"/>
       <c r="B66" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="67" spans="1:4" outlineLevel="1">
       <c r="A67" s="2"/>
       <c r="B67" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="68" spans="1:4" outlineLevel="1">
       <c r="A68" s="2"/>
       <c r="B68" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D68" s="30" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="69" spans="1:4" outlineLevel="1">
       <c r="A69" s="2"/>
       <c r="B69" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D69" s="30" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="70" spans="1:4" outlineLevel="1">
       <c r="A70" s="2"/>
       <c r="B70" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D70" s="30" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="27" outlineLevel="1">
       <c r="A71" s="2"/>
       <c r="B71" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>571</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="D71" s="30" t="s">
         <v>572</v>
-      </c>
-      <c r="D71" s="30" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="72" spans="1:4" outlineLevel="1">
       <c r="A72" s="2"/>
       <c r="B72" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D72" s="5" t="s">
         <v>122</v>
@@ -12291,10 +16529,10 @@
     <row r="73" spans="1:4" outlineLevel="1">
       <c r="A73" s="2"/>
       <c r="B73" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D73" s="5" t="s">
         <v>122</v>
@@ -12303,22 +16541,22 @@
     <row r="74" spans="1:4" outlineLevel="1">
       <c r="A74" s="2"/>
       <c r="B74" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="D74" s="5" t="s">
         <v>722</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>720</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="75" spans="1:4" outlineLevel="1">
       <c r="A75" s="2"/>
       <c r="B75" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D75" s="5" t="s">
         <v>122</v>
@@ -12327,10 +16565,10 @@
     <row r="76" spans="1:4" outlineLevel="1">
       <c r="A76" s="2"/>
       <c r="B76" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D76" s="5" t="s">
         <v>122</v>
@@ -12339,10 +16577,10 @@
     <row r="77" spans="1:4" outlineLevel="1">
       <c r="A77" s="2"/>
       <c r="B77" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D77" s="5" t="s">
         <v>122</v>
@@ -12351,10 +16589,10 @@
     <row r="78" spans="1:4" outlineLevel="1">
       <c r="A78" s="2"/>
       <c r="B78" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D78" s="5" t="s">
         <v>122</v>

--- a/言語チートシート.xlsx
+++ b/言語チートシート.xlsx
@@ -9,9 +9,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7372083B-77E3-404A-A666-69B423757EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79CEA8CC-77A5-469D-A9F4-5D58FC633577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32430" yWindow="-28485" windowWidth="32475" windowHeight="45030" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1980" yWindow="-120" windowWidth="26940" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vbs,vba" sheetId="43" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">bat!$A$2:$D$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">python!$A$2:$D$252</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">python!$A$2:$D$253</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'vbs,vba'!$A$2:$E$2</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -147,7 +147,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2268" uniqueCount="978">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2274" uniqueCount="983">
   <si>
     <t>変数強制定義</t>
   </si>
@@ -4206,6 +4206,35 @@
     <rPh sb="8" eb="9">
       <t>バン</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>分岐 何もしない処理</t>
+    <rPh sb="3" eb="4">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>e.g. if value == 0: ～ pass。これがないとインデントによるブロック構造の為、エラーが発生してしまう</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>メインプログラム実行時にのみ処理実行</t>
+    <rPh sb="16" eb="18">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>if __name__ == "__main__":</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -4460,7 +4489,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
@@ -4621,6 +4650,15 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -4973,7 +5011,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C56" sqref="C56"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -12373,13 +12411,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F267"/>
+  <dimension ref="A1:F268"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C103" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C249" sqref="C249"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -12387,7 +12425,7 @@
     <col min="1" max="1" width="3.83203125" style="7" customWidth="1"/>
     <col min="2" max="2" width="50.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="79.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="66.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="66.33203125" style="56" customWidth="1"/>
     <col min="5" max="5" width="9.33203125" style="11"/>
     <col min="6" max="6" width="10" style="49" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9.33203125" style="11"/>
@@ -12423,7 +12461,7 @@
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="46" t="s">
         <v>122</v>
       </c>
       <c r="E3" s="11" t="s">
@@ -12438,7 +12476,7 @@
       <c r="C4" s="47" t="s">
         <v>398</v>
       </c>
-      <c r="D4" s="5"/>
+      <c r="D4" s="40"/>
       <c r="E4" s="11" t="s">
         <v>122</v>
       </c>
@@ -12451,7 +12489,7 @@
       <c r="C5" s="47" t="s">
         <v>398</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="D5" s="40"/>
       <c r="E5" s="11" t="s">
         <v>122</v>
       </c>
@@ -12479,7 +12517,7 @@
       <c r="C7" s="47" t="s">
         <v>398</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="40"/>
       <c r="E7" s="11" t="s">
         <v>122</v>
       </c>
@@ -12492,7 +12530,7 @@
       <c r="C8" s="47" t="s">
         <v>398</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="40" t="s">
         <v>856</v>
       </c>
       <c r="E8" s="11" t="s">
@@ -12507,7 +12545,7 @@
       <c r="C9" s="47" t="s">
         <v>398</v>
       </c>
-      <c r="D9" s="39" t="s">
+      <c r="D9" s="55" t="s">
         <v>777</v>
       </c>
       <c r="E9" s="11" t="s">
@@ -12522,7 +12560,7 @@
       <c r="C10" s="47" t="s">
         <v>398</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="40"/>
       <c r="E10" s="11" t="s">
         <v>122</v>
       </c>
@@ -12552,7 +12590,7 @@
       <c r="C12" s="39" t="s">
         <v>749</v>
       </c>
-      <c r="D12" s="5"/>
+      <c r="D12" s="40"/>
       <c r="E12" s="11" t="s">
         <v>122</v>
       </c>
@@ -12565,7 +12603,7 @@
       <c r="C13" s="4" t="s">
         <v>756</v>
       </c>
-      <c r="D13" s="5"/>
+      <c r="D13" s="40"/>
       <c r="E13" s="11" t="s">
         <v>122</v>
       </c>
@@ -12576,15 +12614,15 @@
         <v>371</v>
       </c>
       <c r="C14" s="39" t="str">
-        <f>"if value == 1:"&amp;CHAR(10)&amp;CHAR(9)&amp;"# 処理A"&amp;CHAR(10)&amp;"elif value == 2:"&amp;CHAR(10)&amp;CHAR(9)&amp;"# 処理B"&amp;CHAR(10)&amp;"else:"&amp;CHAR(10)&amp;CHAR(9)&amp;"# 処理C"</f>
+        <f>"if value == 1:"&amp;CHAR(10)&amp;CHAR(9)&amp;"処理A"&amp;CHAR(10)&amp;"elif value == 2:"&amp;CHAR(10)&amp;CHAR(9)&amp;"処理B"&amp;CHAR(10)&amp;"else:"&amp;CHAR(10)&amp;CHAR(9)&amp;"処理C"</f>
         <v>if value == 1:
-	# 処理A
+	処理A
 elif value == 2:
-	# 処理B
+	処理B
 else:
-	# 処理C</v>
-      </c>
-      <c r="D14" s="5"/>
+	処理C</v>
+      </c>
+      <c r="D14" s="40"/>
       <c r="E14" s="11" t="s">
         <v>122</v>
       </c>
@@ -12595,7 +12633,7 @@
         <v>372</v>
       </c>
       <c r="C15" s="12"/>
-      <c r="D15" s="5"/>
+      <c r="D15" s="40"/>
       <c r="E15" s="11" t="s">
         <v>122</v>
       </c>
@@ -12608,36 +12646,37 @@
       <c r="C16" s="47" t="s">
         <v>398</v>
       </c>
-      <c r="D16" s="5"/>
+      <c r="D16" s="40"/>
       <c r="E16" s="11" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="1:6" outlineLevel="1">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="C17" s="39" t="s">
-        <v>832</v>
+    <row r="17" spans="1:6" s="43" customFormat="1" outlineLevel="1">
+      <c r="A17" s="37"/>
+      <c r="B17" s="38" t="s">
+        <v>978</v>
+      </c>
+      <c r="C17" s="54" t="s">
+        <v>979</v>
       </c>
       <c r="D17" s="40" t="s">
-        <v>833</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>122</v>
-      </c>
+        <v>980</v>
+      </c>
+      <c r="E17" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="F17" s="49"/>
     </row>
     <row r="18" spans="1:6" outlineLevel="1">
       <c r="A18" s="2"/>
       <c r="B18" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C18" s="39" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="D18" s="40" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>122</v>
@@ -12646,12 +12685,14 @@
     <row r="19" spans="1:6" outlineLevel="1">
       <c r="A19" s="2"/>
       <c r="B19" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C19" s="39" t="s">
-        <v>837</v>
-      </c>
-      <c r="D19" s="5"/>
+        <v>830</v>
+      </c>
+      <c r="D19" s="40" t="s">
+        <v>831</v>
+      </c>
       <c r="E19" s="11" t="s">
         <v>122</v>
       </c>
@@ -12659,12 +12700,12 @@
     <row r="20" spans="1:6" outlineLevel="1">
       <c r="A20" s="2"/>
       <c r="B20" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C20" s="47" t="s">
-        <v>398</v>
-      </c>
-      <c r="D20" s="5"/>
+        <v>376</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>837</v>
+      </c>
+      <c r="D20" s="40"/>
       <c r="E20" s="11" t="s">
         <v>122</v>
       </c>
@@ -12672,54 +12713,52 @@
     <row r="21" spans="1:6" outlineLevel="1">
       <c r="A21" s="2"/>
       <c r="B21" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C21" s="47" t="s">
         <v>398</v>
       </c>
-      <c r="D21" s="5"/>
+      <c r="D21" s="40"/>
       <c r="E21" s="11" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="43" customFormat="1" outlineLevel="1">
-      <c r="A22" s="37"/>
-      <c r="B22" s="38" t="s">
+    <row r="22" spans="1:6" outlineLevel="1">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="C22" s="47" t="s">
+        <v>398</v>
+      </c>
+      <c r="D22" s="40"/>
+      <c r="E22" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="43" customFormat="1" outlineLevel="1">
+      <c r="A23" s="37"/>
+      <c r="B23" s="38" t="s">
         <v>839</v>
       </c>
-      <c r="C22" s="39" t="s">
+      <c r="C23" s="39" t="s">
         <v>755</v>
       </c>
-      <c r="D22" s="40"/>
-      <c r="E22" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="F22" s="49"/>
-    </row>
-    <row r="23" spans="1:6" outlineLevel="1">
-      <c r="A23" s="2"/>
-      <c r="B23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="39" t="s">
-        <v>750</v>
-      </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="11" t="s">
-        <v>122</v>
-      </c>
+      <c r="D23" s="40"/>
+      <c r="E23" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="F23" s="49"/>
     </row>
     <row r="24" spans="1:6" outlineLevel="1">
       <c r="A24" s="2"/>
-      <c r="B24" s="38" t="s">
-        <v>940</v>
+      <c r="B24" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C24" s="39" t="s">
-        <v>943</v>
-      </c>
-      <c r="D24" s="40" t="s">
-        <v>942</v>
-      </c>
+        <v>750</v>
+      </c>
+      <c r="D24" s="40"/>
       <c r="E24" s="11" t="s">
         <v>122</v>
       </c>
@@ -12727,13 +12766,13 @@
     <row r="25" spans="1:6" outlineLevel="1">
       <c r="A25" s="2"/>
       <c r="B25" s="38" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
       <c r="C25" s="39" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="D25" s="40" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>122</v>
@@ -12742,12 +12781,14 @@
     <row r="26" spans="1:6" outlineLevel="1">
       <c r="A26" s="2"/>
       <c r="B26" s="38" t="s">
-        <v>757</v>
-      </c>
-      <c r="C26" s="42" t="s">
-        <v>859</v>
-      </c>
-      <c r="D26" s="5"/>
+        <v>945</v>
+      </c>
+      <c r="C26" s="39" t="s">
+        <v>944</v>
+      </c>
+      <c r="D26" s="40" t="s">
+        <v>941</v>
+      </c>
       <c r="E26" s="11" t="s">
         <v>122</v>
       </c>
@@ -12755,38 +12796,40 @@
     <row r="27" spans="1:6" outlineLevel="1">
       <c r="A27" s="2"/>
       <c r="B27" s="38" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C27" s="42" t="s">
-        <v>860</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>861</v>
-      </c>
+        <v>859</v>
+      </c>
+      <c r="D27" s="40"/>
       <c r="E27" s="11" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:6" outlineLevel="1">
       <c r="A28" s="2"/>
-      <c r="B28" s="2" t="s">
-        <v>840</v>
-      </c>
-      <c r="C28" s="39" t="s">
-        <v>759</v>
-      </c>
-      <c r="D28" s="5"/>
+      <c r="B28" s="38" t="s">
+        <v>758</v>
+      </c>
+      <c r="C28" s="42" t="s">
+        <v>860</v>
+      </c>
+      <c r="D28" s="40" t="s">
+        <v>861</v>
+      </c>
       <c r="E28" s="11" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:6" outlineLevel="1">
       <c r="A29" s="2"/>
-      <c r="B29" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="12"/>
-      <c r="D29" s="5"/>
+      <c r="B29" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="C29" s="39" t="s">
+        <v>759</v>
+      </c>
+      <c r="D29" s="40"/>
       <c r="E29" s="11" t="s">
         <v>122</v>
       </c>
@@ -12794,10 +12837,10 @@
     <row r="30" spans="1:6" outlineLevel="1">
       <c r="A30" s="2"/>
       <c r="B30" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C30" s="12"/>
-      <c r="D30" s="5"/>
+      <c r="D30" s="40"/>
       <c r="E30" s="11" t="s">
         <v>122</v>
       </c>
@@ -12805,50 +12848,47 @@
     <row r="31" spans="1:6" outlineLevel="1">
       <c r="A31" s="2"/>
       <c r="B31" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C31" s="12"/>
-      <c r="D31" s="5"/>
+      <c r="D31" s="40"/>
       <c r="E31" s="11" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:6" outlineLevel="1">
       <c r="A32" s="2"/>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="12"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" outlineLevel="1">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C32" s="12"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" s="43" customFormat="1" outlineLevel="1">
-      <c r="A33" s="37"/>
-      <c r="B33" s="37" t="s">
-        <v>857</v>
-      </c>
-      <c r="C33" s="39" t="s">
-        <v>829</v>
-      </c>
-      <c r="D33" s="40" t="s">
-        <v>858</v>
-      </c>
-      <c r="E33" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="F33" s="49"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="11" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="34" spans="1:6" s="43" customFormat="1" outlineLevel="1">
       <c r="A34" s="37"/>
       <c r="B34" s="37" t="s">
-        <v>751</v>
+        <v>857</v>
       </c>
       <c r="C34" s="39" t="s">
-        <v>752</v>
-      </c>
-      <c r="D34" s="40"/>
+        <v>829</v>
+      </c>
+      <c r="D34" s="40" t="s">
+        <v>858</v>
+      </c>
       <c r="E34" s="43" t="s">
         <v>122</v>
       </c>
@@ -12857,10 +12897,10 @@
     <row r="35" spans="1:6" s="43" customFormat="1" outlineLevel="1">
       <c r="A35" s="37"/>
       <c r="B35" s="37" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C35" s="39" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="D35" s="40"/>
       <c r="E35" s="43" t="s">
@@ -12869,54 +12909,55 @@
       <c r="F35" s="49"/>
     </row>
     <row r="36" spans="1:6" s="43" customFormat="1" outlineLevel="1">
-      <c r="A36" s="2"/>
-      <c r="B36" s="3" t="s">
-        <v>760</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>834</v>
-      </c>
-      <c r="D36" s="5"/>
+      <c r="A36" s="37"/>
+      <c r="B36" s="37" t="s">
+        <v>753</v>
+      </c>
+      <c r="C36" s="39" t="s">
+        <v>754</v>
+      </c>
+      <c r="D36" s="40"/>
       <c r="E36" s="43" t="s">
         <v>122</v>
       </c>
       <c r="F36" s="49"/>
     </row>
-    <row r="37" spans="1:6" outlineLevel="1">
+    <row r="37" spans="1:6" s="43" customFormat="1" outlineLevel="1">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>835</v>
-      </c>
-      <c r="D37" s="5"/>
-      <c r="E37" s="11" t="s">
-        <v>122</v>
-      </c>
+        <v>834</v>
+      </c>
+      <c r="D37" s="40"/>
+      <c r="E37" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="F37" s="49"/>
     </row>
     <row r="38" spans="1:6" outlineLevel="1">
       <c r="A38" s="2"/>
-      <c r="B38" s="2" t="s">
-        <v>762</v>
+      <c r="B38" s="3" t="s">
+        <v>761</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>836</v>
-      </c>
-      <c r="D38" s="5"/>
+        <v>835</v>
+      </c>
+      <c r="D38" s="40"/>
       <c r="E38" s="11" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="39" spans="1:6" outlineLevel="1">
       <c r="A39" s="2"/>
-      <c r="B39" s="3" t="s">
-        <v>763</v>
+      <c r="B39" s="2" t="s">
+        <v>762</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>764</v>
-      </c>
-      <c r="D39" s="5"/>
+        <v>836</v>
+      </c>
+      <c r="D39" s="40"/>
       <c r="E39" s="11" t="s">
         <v>122</v>
       </c>
@@ -12924,25 +12965,25 @@
     <row r="40" spans="1:6" outlineLevel="1">
       <c r="A40" s="2"/>
       <c r="B40" s="3" t="s">
-        <v>765</v>
-      </c>
-      <c r="C40" s="36" t="s">
-        <v>780</v>
-      </c>
-      <c r="D40" s="5"/>
+        <v>763</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="D40" s="40"/>
       <c r="E40" s="11" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="41" spans="1:6" outlineLevel="1">
       <c r="A41" s="2"/>
-      <c r="B41" s="2" t="s">
-        <v>766</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>779</v>
-      </c>
-      <c r="D41" s="5"/>
+      <c r="B41" s="3" t="s">
+        <v>765</v>
+      </c>
+      <c r="C41" s="36" t="s">
+        <v>780</v>
+      </c>
+      <c r="D41" s="40"/>
       <c r="E41" s="11" t="s">
         <v>122</v>
       </c>
@@ -12950,12 +12991,12 @@
     <row r="42" spans="1:6" outlineLevel="1">
       <c r="A42" s="2"/>
       <c r="B42" s="2" t="s">
-        <v>767</v>
-      </c>
-      <c r="C42" s="36" t="s">
-        <v>781</v>
-      </c>
-      <c r="D42" s="5"/>
+        <v>766</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>779</v>
+      </c>
+      <c r="D42" s="40"/>
       <c r="E42" s="11" t="s">
         <v>122</v>
       </c>
@@ -12963,12 +13004,12 @@
     <row r="43" spans="1:6" outlineLevel="1">
       <c r="A43" s="2"/>
       <c r="B43" s="2" t="s">
-        <v>768</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>782</v>
-      </c>
-      <c r="D43" s="5"/>
+        <v>767</v>
+      </c>
+      <c r="C43" s="36" t="s">
+        <v>781</v>
+      </c>
+      <c r="D43" s="40"/>
       <c r="E43" s="11" t="s">
         <v>122</v>
       </c>
@@ -12976,72 +13017,70 @@
     <row r="44" spans="1:6" outlineLevel="1">
       <c r="A44" s="2"/>
       <c r="B44" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>782</v>
+      </c>
+      <c r="D44" s="40"/>
+      <c r="E44" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" outlineLevel="1">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2" t="s">
         <v>769</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C45" s="4" t="s">
         <v>783</v>
       </c>
-      <c r="D44" s="5"/>
-      <c r="E44" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="20" t="s">
+      <c r="D45" s="40"/>
+      <c r="E45" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="20" t="s">
         <v>356</v>
       </c>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" s="43" customFormat="1" outlineLevel="1">
-      <c r="A46" s="2"/>
-      <c r="B46" s="37" t="s">
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="46"/>
+      <c r="E46" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" s="43" customFormat="1" outlineLevel="1">
+      <c r="A47" s="2"/>
+      <c r="B47" s="37" t="s">
         <v>909</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C47" s="4" t="s">
         <v>913</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D47" s="40" t="s">
         <v>907</v>
       </c>
-      <c r="E46" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="F46" s="49"/>
-    </row>
-    <row r="47" spans="1:6" outlineLevel="1">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2" t="s">
+      <c r="E47" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="F47" s="49"/>
+    </row>
+    <row r="48" spans="1:6" outlineLevel="1">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2" t="s">
         <v>908</v>
       </c>
-      <c r="C47" s="42" t="str">
+      <c r="C48" s="42" t="str">
         <f>""""""""&amp;CHAR(10)&amp;"test_1"&amp;CHAR(10)&amp;"test_2"&amp;CHAR(10)&amp;""""""""</f>
         <v>"""
 test_1
 test_2
 """</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D48" s="40" t="s">
         <v>785</v>
-      </c>
-      <c r="E47" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" outlineLevel="1">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2" t="s">
-        <v>910</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>914</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>784</v>
       </c>
       <c r="E48" s="11" t="s">
         <v>122</v>
@@ -13050,13 +13089,13 @@
     <row r="49" spans="1:6" outlineLevel="1">
       <c r="A49" s="2"/>
       <c r="B49" s="2" t="s">
-        <v>841</v>
+        <v>910</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>915</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>924</v>
+        <v>914</v>
+      </c>
+      <c r="D49" s="40" t="s">
+        <v>784</v>
       </c>
       <c r="E49" s="11" t="s">
         <v>122</v>
@@ -13065,13 +13104,13 @@
     <row r="50" spans="1:6" outlineLevel="1">
       <c r="A50" s="2"/>
       <c r="B50" s="2" t="s">
-        <v>912</v>
+        <v>841</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>919</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>920</v>
+        <v>915</v>
+      </c>
+      <c r="D50" s="40" t="s">
+        <v>924</v>
       </c>
       <c r="E50" s="11" t="s">
         <v>122</v>
@@ -13080,13 +13119,13 @@
     <row r="51" spans="1:6" outlineLevel="1">
       <c r="A51" s="2"/>
       <c r="B51" s="2" t="s">
-        <v>921</v>
-      </c>
-      <c r="C51" s="42" t="s">
-        <v>918</v>
+        <v>912</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>919</v>
       </c>
       <c r="D51" s="40" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="E51" s="11" t="s">
         <v>122</v>
@@ -13095,13 +13134,13 @@
     <row r="52" spans="1:6" outlineLevel="1">
       <c r="A52" s="2"/>
       <c r="B52" s="2" t="s">
-        <v>911</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>917</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>130</v>
+        <v>921</v>
+      </c>
+      <c r="C52" s="42" t="s">
+        <v>918</v>
+      </c>
+      <c r="D52" s="40" t="s">
+        <v>916</v>
       </c>
       <c r="E52" s="11" t="s">
         <v>122</v>
@@ -13110,13 +13149,13 @@
     <row r="53" spans="1:6" outlineLevel="1">
       <c r="A53" s="2"/>
       <c r="B53" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C53" s="42" t="s">
-        <v>938</v>
+        <v>911</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>917</v>
       </c>
       <c r="D53" s="40" t="s">
-        <v>935</v>
+        <v>130</v>
       </c>
       <c r="E53" s="11" t="s">
         <v>122</v>
@@ -13125,13 +13164,13 @@
     <row r="54" spans="1:6" outlineLevel="1">
       <c r="A54" s="2"/>
       <c r="B54" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C54" s="42" t="s">
-        <v>937</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>939</v>
+        <v>938</v>
+      </c>
+      <c r="D54" s="40" t="s">
+        <v>935</v>
       </c>
       <c r="E54" s="11" t="s">
         <v>122</v>
@@ -13140,13 +13179,13 @@
     <row r="55" spans="1:6" outlineLevel="1">
       <c r="A55" s="2"/>
       <c r="B55" s="2" t="s">
-        <v>955</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>922</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>923</v>
+        <v>66</v>
+      </c>
+      <c r="C55" s="42" t="s">
+        <v>937</v>
+      </c>
+      <c r="D55" s="40" t="s">
+        <v>939</v>
       </c>
       <c r="E55" s="11" t="s">
         <v>122</v>
@@ -13155,13 +13194,13 @@
     <row r="56" spans="1:6" outlineLevel="1">
       <c r="A56" s="2"/>
       <c r="B56" s="2" t="s">
-        <v>954</v>
-      </c>
-      <c r="C56" s="39" t="s">
-        <v>925</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>926</v>
+        <v>955</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>922</v>
+      </c>
+      <c r="D56" s="40" t="s">
+        <v>923</v>
       </c>
       <c r="E56" s="11" t="s">
         <v>122</v>
@@ -13170,59 +13209,59 @@
     <row r="57" spans="1:6" outlineLevel="1">
       <c r="A57" s="2"/>
       <c r="B57" s="2" t="s">
+        <v>954</v>
+      </c>
+      <c r="C57" s="39" t="s">
+        <v>925</v>
+      </c>
+      <c r="D57" s="40" t="s">
+        <v>926</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" outlineLevel="1">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2" t="s">
         <v>953</v>
       </c>
-      <c r="C57" s="39" t="s">
+      <c r="C58" s="39" t="s">
         <v>927</v>
       </c>
-      <c r="D57" s="40" t="s">
+      <c r="D58" s="40" t="s">
         <v>928</v>
       </c>
-      <c r="E57" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" s="43" customFormat="1" outlineLevel="1">
-      <c r="A58" s="37"/>
-      <c r="B58" s="37" t="s">
+      <c r="E58" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" s="43" customFormat="1" outlineLevel="1">
+      <c r="A59" s="37"/>
+      <c r="B59" s="37" t="s">
         <v>952</v>
       </c>
-      <c r="C58" s="39" t="s">
+      <c r="C59" s="39" t="s">
         <v>929</v>
       </c>
-      <c r="D58" s="40" t="s">
+      <c r="D59" s="40" t="s">
         <v>932</v>
       </c>
-      <c r="E58" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="F58" s="49"/>
-    </row>
-    <row r="59" spans="1:6" outlineLevel="1">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2" t="s">
-        <v>951</v>
-      </c>
-      <c r="C59" s="39" t="s">
-        <v>930</v>
-      </c>
-      <c r="D59" s="40" t="s">
-        <v>933</v>
-      </c>
-      <c r="E59" s="11" t="s">
-        <v>122</v>
-      </c>
+      <c r="E59" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="F59" s="49"/>
     </row>
     <row r="60" spans="1:6" outlineLevel="1">
       <c r="A60" s="2"/>
       <c r="B60" s="2" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="C60" s="39" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="D60" s="40" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="E60" s="11" t="s">
         <v>122</v>
@@ -13231,13 +13270,13 @@
     <row r="61" spans="1:6" outlineLevel="1">
       <c r="A61" s="2"/>
       <c r="B61" s="2" t="s">
-        <v>949</v>
-      </c>
-      <c r="C61" s="42" t="s">
-        <v>966</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>967</v>
+        <v>950</v>
+      </c>
+      <c r="C61" s="39" t="s">
+        <v>931</v>
+      </c>
+      <c r="D61" s="40" t="s">
+        <v>934</v>
       </c>
       <c r="E61" s="11" t="s">
         <v>122</v>
@@ -13246,13 +13285,13 @@
     <row r="62" spans="1:6" outlineLevel="1">
       <c r="A62" s="2"/>
       <c r="B62" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C62" s="39" t="s">
-        <v>786</v>
+        <v>949</v>
+      </c>
+      <c r="C62" s="42" t="s">
+        <v>966</v>
       </c>
       <c r="D62" s="40" t="s">
-        <v>787</v>
+        <v>967</v>
       </c>
       <c r="E62" s="11" t="s">
         <v>122</v>
@@ -13261,13 +13300,13 @@
     <row r="63" spans="1:6" outlineLevel="1">
       <c r="A63" s="2"/>
       <c r="B63" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C63" s="39" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D63" s="40" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="E63" s="11" t="s">
         <v>122</v>
@@ -13276,13 +13315,13 @@
     <row r="64" spans="1:6" outlineLevel="1">
       <c r="A64" s="2"/>
       <c r="B64" s="2" t="s">
-        <v>956</v>
-      </c>
-      <c r="C64" s="42" t="s">
-        <v>964</v>
-      </c>
-      <c r="D64" s="51" t="s">
-        <v>965</v>
+        <v>73</v>
+      </c>
+      <c r="C64" s="39" t="s">
+        <v>788</v>
+      </c>
+      <c r="D64" s="40" t="s">
+        <v>789</v>
       </c>
       <c r="E64" s="11" t="s">
         <v>122</v>
@@ -13291,13 +13330,13 @@
     <row r="65" spans="1:6" outlineLevel="1">
       <c r="A65" s="2"/>
       <c r="B65" s="2" t="s">
-        <v>844</v>
+        <v>956</v>
       </c>
       <c r="C65" s="42" t="s">
-        <v>960</v>
-      </c>
-      <c r="D65" s="35" t="s">
-        <v>957</v>
+        <v>964</v>
+      </c>
+      <c r="D65" s="51" t="s">
+        <v>965</v>
       </c>
       <c r="E65" s="11" t="s">
         <v>122</v>
@@ -13306,44 +13345,44 @@
     <row r="66" spans="1:6" outlineLevel="1">
       <c r="A66" s="2"/>
       <c r="B66" s="2" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="C66" s="42" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D66" s="35" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="E66" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="F66" s="50"/>
     </row>
     <row r="67" spans="1:6" outlineLevel="1">
       <c r="A67" s="2"/>
       <c r="B67" s="2" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="C67" s="42" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="D67" s="35" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="E67" s="11" t="s">
         <v>122</v>
       </c>
+      <c r="F67" s="50"/>
     </row>
     <row r="68" spans="1:6" outlineLevel="1">
       <c r="A68" s="2"/>
       <c r="B68" s="2" t="s">
-        <v>770</v>
+        <v>842</v>
       </c>
       <c r="C68" s="42" t="s">
-        <v>963</v>
-      </c>
-      <c r="D68" s="35">
-        <v>1234</v>
+        <v>962</v>
+      </c>
+      <c r="D68" s="35" t="s">
+        <v>959</v>
       </c>
       <c r="E68" s="11" t="s">
         <v>122</v>
@@ -13352,10 +13391,14 @@
     <row r="69" spans="1:6" outlineLevel="1">
       <c r="A69" s="2"/>
       <c r="B69" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C69" s="44"/>
-      <c r="D69" s="5"/>
+        <v>770</v>
+      </c>
+      <c r="C69" s="42" t="s">
+        <v>963</v>
+      </c>
+      <c r="D69" s="35">
+        <v>1234</v>
+      </c>
       <c r="E69" s="11" t="s">
         <v>122</v>
       </c>
@@ -13363,10 +13406,10 @@
     <row r="70" spans="1:6" outlineLevel="1">
       <c r="A70" s="2"/>
       <c r="B70" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C70" s="44"/>
-      <c r="D70" s="5"/>
+      <c r="D70" s="40"/>
       <c r="E70" s="11" t="s">
         <v>122</v>
       </c>
@@ -13374,56 +13417,56 @@
     <row r="71" spans="1:6" outlineLevel="1">
       <c r="A71" s="2"/>
       <c r="B71" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C71" s="44"/>
+      <c r="D71" s="40"/>
+      <c r="E71" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" outlineLevel="1">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C71" s="44"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="43" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" s="43" customFormat="1" outlineLevel="1">
-      <c r="A72" s="37"/>
-      <c r="B72" s="37" t="s">
-        <v>80</v>
-      </c>
       <c r="C72" s="44"/>
-      <c r="D72" s="39"/>
+      <c r="D72" s="40"/>
       <c r="E72" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="F72" s="49"/>
     </row>
     <row r="73" spans="1:6" s="43" customFormat="1" outlineLevel="1">
       <c r="A73" s="37"/>
       <c r="B73" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C73" s="44"/>
+      <c r="D73" s="55"/>
+      <c r="E73" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="F73" s="49"/>
+    </row>
+    <row r="74" spans="1:6" s="43" customFormat="1" outlineLevel="1">
+      <c r="A74" s="37"/>
+      <c r="B74" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="C73" s="44"/>
-      <c r="D73" s="39"/>
-      <c r="E73" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="F73" s="49"/>
-    </row>
-    <row r="74" spans="1:6" outlineLevel="1">
-      <c r="A74" s="2"/>
-      <c r="B74" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="C74" s="44"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="11" t="s">
-        <v>122</v>
-      </c>
+      <c r="D74" s="55"/>
+      <c r="E74" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="F74" s="49"/>
     </row>
     <row r="75" spans="1:6" outlineLevel="1">
       <c r="A75" s="2"/>
       <c r="B75" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C75" s="44"/>
-      <c r="D75" s="5"/>
+      <c r="D75" s="40"/>
       <c r="E75" s="11" t="s">
         <v>122</v>
       </c>
@@ -13431,14 +13474,10 @@
     <row r="76" spans="1:6" outlineLevel="1">
       <c r="A76" s="2"/>
       <c r="B76" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C76" s="39" t="s">
-        <v>790</v>
-      </c>
-      <c r="D76" s="40" t="s">
-        <v>791</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="C76" s="44"/>
+      <c r="D76" s="40"/>
       <c r="E76" s="11" t="s">
         <v>122</v>
       </c>
@@ -13446,13 +13485,13 @@
     <row r="77" spans="1:6" outlineLevel="1">
       <c r="A77" s="2"/>
       <c r="B77" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C77" s="39" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="D77" s="40" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="E77" s="11" t="s">
         <v>122</v>
@@ -13461,10 +13500,14 @@
     <row r="78" spans="1:6" outlineLevel="1">
       <c r="A78" s="2"/>
       <c r="B78" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C78" s="44"/>
-      <c r="D78" s="5"/>
+        <v>85</v>
+      </c>
+      <c r="C78" s="39" t="s">
+        <v>792</v>
+      </c>
+      <c r="D78" s="40" t="s">
+        <v>793</v>
+      </c>
       <c r="E78" s="11" t="s">
         <v>122</v>
       </c>
@@ -13472,10 +13515,10 @@
     <row r="79" spans="1:6" outlineLevel="1">
       <c r="A79" s="2"/>
       <c r="B79" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C79" s="44"/>
-      <c r="D79" s="5"/>
+      <c r="D79" s="40"/>
       <c r="E79" s="11" t="s">
         <v>122</v>
       </c>
@@ -13483,14 +13526,10 @@
     <row r="80" spans="1:6" outlineLevel="1">
       <c r="A80" s="2"/>
       <c r="B80" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C80" s="39" t="s">
-        <v>796</v>
-      </c>
-      <c r="D80" s="40" t="s">
-        <v>795</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="C80" s="44"/>
+      <c r="D80" s="40"/>
       <c r="E80" s="11" t="s">
         <v>122</v>
       </c>
@@ -13498,10 +13537,10 @@
     <row r="81" spans="1:5" outlineLevel="1">
       <c r="A81" s="2"/>
       <c r="B81" s="2" t="s">
-        <v>845</v>
+        <v>88</v>
       </c>
       <c r="C81" s="39" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="D81" s="40" t="s">
         <v>795</v>
@@ -13513,12 +13552,14 @@
     <row r="82" spans="1:5" outlineLevel="1">
       <c r="A82" s="2"/>
       <c r="B82" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C82" s="48" t="s">
-        <v>846</v>
-      </c>
-      <c r="D82" s="5"/>
+        <v>845</v>
+      </c>
+      <c r="C82" s="39" t="s">
+        <v>794</v>
+      </c>
+      <c r="D82" s="40" t="s">
+        <v>795</v>
+      </c>
       <c r="E82" s="11" t="s">
         <v>122</v>
       </c>
@@ -13526,10 +13567,12 @@
     <row r="83" spans="1:5" outlineLevel="1">
       <c r="A83" s="2"/>
       <c r="B83" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C83" s="44"/>
-      <c r="D83" s="5"/>
+        <v>91</v>
+      </c>
+      <c r="C83" s="48" t="s">
+        <v>846</v>
+      </c>
+      <c r="D83" s="40"/>
       <c r="E83" s="11" t="s">
         <v>122</v>
       </c>
@@ -13537,10 +13580,10 @@
     <row r="84" spans="1:5" outlineLevel="1">
       <c r="A84" s="2"/>
       <c r="B84" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C84" s="44"/>
-      <c r="D84" s="5"/>
+      <c r="D84" s="40"/>
       <c r="E84" s="11" t="s">
         <v>122</v>
       </c>
@@ -13548,10 +13591,10 @@
     <row r="85" spans="1:5" outlineLevel="1">
       <c r="A85" s="2"/>
       <c r="B85" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C85" s="44"/>
-      <c r="D85" s="5"/>
+      <c r="D85" s="40"/>
       <c r="E85" s="11" t="s">
         <v>122</v>
       </c>
@@ -13559,10 +13602,10 @@
     <row r="86" spans="1:5" outlineLevel="1">
       <c r="A86" s="2"/>
       <c r="B86" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C86" s="44"/>
-      <c r="D86" s="5"/>
+      <c r="D86" s="40"/>
       <c r="E86" s="11" t="s">
         <v>122</v>
       </c>
@@ -13570,10 +13613,10 @@
     <row r="87" spans="1:5" outlineLevel="1">
       <c r="A87" s="2"/>
       <c r="B87" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C87" s="44"/>
-      <c r="D87" s="5"/>
+      <c r="D87" s="40"/>
       <c r="E87" s="11" t="s">
         <v>122</v>
       </c>
@@ -13581,10 +13624,10 @@
     <row r="88" spans="1:5" outlineLevel="1">
       <c r="A88" s="2"/>
       <c r="B88" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C88" s="44"/>
-      <c r="D88" s="5"/>
+      <c r="D88" s="40"/>
       <c r="E88" s="11" t="s">
         <v>122</v>
       </c>
@@ -13592,10 +13635,10 @@
     <row r="89" spans="1:5" outlineLevel="1">
       <c r="A89" s="2"/>
       <c r="B89" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C89" s="44"/>
-      <c r="D89" s="5"/>
+      <c r="D89" s="40"/>
       <c r="E89" s="11" t="s">
         <v>122</v>
       </c>
@@ -13603,10 +13646,10 @@
     <row r="90" spans="1:5" outlineLevel="1">
       <c r="A90" s="2"/>
       <c r="B90" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C90" s="44"/>
-      <c r="D90" s="5"/>
+      <c r="D90" s="40"/>
       <c r="E90" s="11" t="s">
         <v>122</v>
       </c>
@@ -13614,10 +13657,10 @@
     <row r="91" spans="1:5" outlineLevel="1">
       <c r="A91" s="2"/>
       <c r="B91" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C91" s="44"/>
-      <c r="D91" s="5"/>
+      <c r="D91" s="40"/>
       <c r="E91" s="11" t="s">
         <v>122</v>
       </c>
@@ -13625,10 +13668,10 @@
     <row r="92" spans="1:5" outlineLevel="1">
       <c r="A92" s="2"/>
       <c r="B92" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C92" s="44"/>
-      <c r="D92" s="5"/>
+      <c r="D92" s="40"/>
       <c r="E92" s="11" t="s">
         <v>122</v>
       </c>
@@ -13636,10 +13679,10 @@
     <row r="93" spans="1:5" outlineLevel="1">
       <c r="A93" s="2"/>
       <c r="B93" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C93" s="44"/>
-      <c r="D93" s="5"/>
+      <c r="D93" s="40"/>
       <c r="E93" s="11" t="s">
         <v>122</v>
       </c>
@@ -13647,10 +13690,10 @@
     <row r="94" spans="1:5" outlineLevel="1">
       <c r="A94" s="2"/>
       <c r="B94" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C94" s="44"/>
-      <c r="D94" s="5"/>
+      <c r="D94" s="40"/>
       <c r="E94" s="11" t="s">
         <v>122</v>
       </c>
@@ -13658,10 +13701,10 @@
     <row r="95" spans="1:5" outlineLevel="1">
       <c r="A95" s="2"/>
       <c r="B95" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C95" s="44"/>
-      <c r="D95" s="5"/>
+      <c r="D95" s="40"/>
       <c r="E95" s="11" t="s">
         <v>122</v>
       </c>
@@ -13669,10 +13712,10 @@
     <row r="96" spans="1:5" outlineLevel="1">
       <c r="A96" s="2"/>
       <c r="B96" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C96" s="44"/>
-      <c r="D96" s="5"/>
+      <c r="D96" s="40"/>
       <c r="E96" s="11" t="s">
         <v>122</v>
       </c>
@@ -13680,10 +13723,10 @@
     <row r="97" spans="1:5" outlineLevel="1">
       <c r="A97" s="2"/>
       <c r="B97" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C97" s="44"/>
-      <c r="D97" s="5"/>
+      <c r="D97" s="40"/>
       <c r="E97" s="11" t="s">
         <v>122</v>
       </c>
@@ -13691,10 +13734,10 @@
     <row r="98" spans="1:5" outlineLevel="1">
       <c r="A98" s="2"/>
       <c r="B98" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C98" s="44"/>
-      <c r="D98" s="5"/>
+      <c r="D98" s="40"/>
       <c r="E98" s="11" t="s">
         <v>122</v>
       </c>
@@ -13702,10 +13745,10 @@
     <row r="99" spans="1:5" outlineLevel="1">
       <c r="A99" s="2"/>
       <c r="B99" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C99" s="44"/>
-      <c r="D99" s="5"/>
+      <c r="D99" s="40"/>
       <c r="E99" s="11" t="s">
         <v>122</v>
       </c>
@@ -13713,10 +13756,10 @@
     <row r="100" spans="1:5" outlineLevel="1">
       <c r="A100" s="2"/>
       <c r="B100" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C100" s="44"/>
-      <c r="D100" s="5"/>
+      <c r="D100" s="40"/>
       <c r="E100" s="11" t="s">
         <v>122</v>
       </c>
@@ -13724,10 +13767,10 @@
     <row r="101" spans="1:5" outlineLevel="1">
       <c r="A101" s="2"/>
       <c r="B101" s="2" t="s">
-        <v>699</v>
+        <v>109</v>
       </c>
       <c r="C101" s="44"/>
-      <c r="D101" s="5"/>
+      <c r="D101" s="40"/>
       <c r="E101" s="11" t="s">
         <v>122</v>
       </c>
@@ -13735,10 +13778,10 @@
     <row r="102" spans="1:5" outlineLevel="1">
       <c r="A102" s="2"/>
       <c r="B102" s="2" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C102" s="44"/>
-      <c r="D102" s="5"/>
+      <c r="D102" s="40"/>
       <c r="E102" s="11" t="s">
         <v>122</v>
       </c>
@@ -13746,10 +13789,10 @@
     <row r="103" spans="1:5" outlineLevel="1">
       <c r="A103" s="2"/>
       <c r="B103" s="2" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="C103" s="44"/>
-      <c r="D103" s="5"/>
+      <c r="D103" s="40"/>
       <c r="E103" s="11" t="s">
         <v>122</v>
       </c>
@@ -13757,32 +13800,32 @@
     <row r="104" spans="1:5" outlineLevel="1">
       <c r="A104" s="2"/>
       <c r="B104" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="C104" s="44"/>
+      <c r="D104" s="40"/>
+      <c r="E104" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" outlineLevel="1">
+      <c r="A105" s="2"/>
+      <c r="B105" s="2" t="s">
         <v>700</v>
       </c>
-      <c r="C104" s="44"/>
-      <c r="D104" s="5"/>
-      <c r="E104" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
-      <c r="A105" s="20" t="s">
+      <c r="C105" s="44"/>
+      <c r="D105" s="40"/>
+      <c r="E105" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="20" t="s">
         <v>346</v>
       </c>
-      <c r="B105" s="8"/>
-      <c r="C105" s="8"/>
-      <c r="D105" s="21"/>
-      <c r="E105" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" outlineLevel="1">
-      <c r="A106" s="2"/>
-      <c r="B106" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C106" s="44"/>
-      <c r="D106" s="5"/>
+      <c r="B106" s="8"/>
+      <c r="C106" s="8"/>
+      <c r="D106" s="46"/>
       <c r="E106" s="11" t="s">
         <v>122</v>
       </c>
@@ -13790,10 +13833,10 @@
     <row r="107" spans="1:5" outlineLevel="1">
       <c r="A107" s="2"/>
       <c r="B107" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C107" s="44"/>
-      <c r="D107" s="5"/>
+      <c r="D107" s="40"/>
       <c r="E107" s="11" t="s">
         <v>122</v>
       </c>
@@ -13801,10 +13844,10 @@
     <row r="108" spans="1:5" outlineLevel="1">
       <c r="A108" s="2"/>
       <c r="B108" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C108" s="44"/>
-      <c r="D108" s="5"/>
+      <c r="D108" s="40"/>
       <c r="E108" s="11" t="s">
         <v>122</v>
       </c>
@@ -13812,10 +13855,10 @@
     <row r="109" spans="1:5" outlineLevel="1">
       <c r="A109" s="2"/>
       <c r="B109" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C109" s="44"/>
-      <c r="D109" s="5"/>
+      <c r="D109" s="40"/>
       <c r="E109" s="11" t="s">
         <v>122</v>
       </c>
@@ -13823,10 +13866,10 @@
     <row r="110" spans="1:5" outlineLevel="1">
       <c r="A110" s="2"/>
       <c r="B110" s="2" t="s">
-        <v>144</v>
+        <v>33</v>
       </c>
       <c r="C110" s="44"/>
-      <c r="D110" s="5"/>
+      <c r="D110" s="40"/>
       <c r="E110" s="11" t="s">
         <v>122</v>
       </c>
@@ -13834,34 +13877,32 @@
     <row r="111" spans="1:5" outlineLevel="1">
       <c r="A111" s="2"/>
       <c r="B111" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C111" s="44"/>
+      <c r="D111" s="40"/>
+      <c r="E111" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" outlineLevel="1">
+      <c r="A112" s="2"/>
+      <c r="B112" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C111" s="44"/>
-      <c r="D111" s="5"/>
-      <c r="E111" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
-      <c r="A112" s="20" t="s">
+      <c r="C112" s="44"/>
+      <c r="D112" s="40"/>
+      <c r="E112" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="20" t="s">
         <v>347</v>
       </c>
-      <c r="B112" s="8"/>
-      <c r="C112" s="8"/>
-      <c r="D112" s="21"/>
-      <c r="E112" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" outlineLevel="1">
-      <c r="A113" s="2"/>
-      <c r="B113" s="2" t="s">
-        <v>849</v>
-      </c>
-      <c r="C113" s="47" t="s">
-        <v>848</v>
-      </c>
-      <c r="D113" s="5"/>
+      <c r="B113" s="8"/>
+      <c r="C113" s="8"/>
+      <c r="D113" s="46"/>
       <c r="E113" s="11" t="s">
         <v>122</v>
       </c>
@@ -13869,14 +13910,12 @@
     <row r="114" spans="1:6" outlineLevel="1">
       <c r="A114" s="2"/>
       <c r="B114" s="2" t="s">
-        <v>850</v>
-      </c>
-      <c r="C114" s="39" t="s">
-        <v>822</v>
-      </c>
-      <c r="D114" s="40" t="s">
-        <v>823</v>
-      </c>
+        <v>849</v>
+      </c>
+      <c r="C114" s="47" t="s">
+        <v>848</v>
+      </c>
+      <c r="D114" s="40"/>
       <c r="E114" s="11" t="s">
         <v>122</v>
       </c>
@@ -13884,12 +13923,14 @@
     <row r="115" spans="1:6" outlineLevel="1">
       <c r="A115" s="2"/>
       <c r="B115" s="2" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C115" s="39" t="s">
-        <v>773</v>
-      </c>
-      <c r="D115" s="5"/>
+        <v>822</v>
+      </c>
+      <c r="D115" s="40" t="s">
+        <v>823</v>
+      </c>
       <c r="E115" s="11" t="s">
         <v>122</v>
       </c>
@@ -13897,70 +13938,70 @@
     <row r="116" spans="1:6" outlineLevel="1">
       <c r="A116" s="2"/>
       <c r="B116" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="C116" s="39" t="s">
+        <v>773</v>
+      </c>
+      <c r="D116" s="40"/>
+      <c r="E116" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" outlineLevel="1">
+      <c r="A117" s="2"/>
+      <c r="B117" s="2" t="s">
         <v>852</v>
       </c>
-      <c r="C116" s="39" t="s">
+      <c r="C117" s="39" t="s">
         <v>774</v>
       </c>
-      <c r="D116" s="5"/>
-      <c r="E116" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" s="43" customFormat="1" outlineLevel="1">
-      <c r="A117" s="37"/>
-      <c r="B117" s="37" t="s">
-        <v>852</v>
-      </c>
-      <c r="C117" s="39" t="s">
-        <v>775</v>
-      </c>
       <c r="D117" s="40"/>
-      <c r="E117" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="F117" s="49"/>
+      <c r="E117" s="11" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="118" spans="1:6" s="43" customFormat="1" outlineLevel="1">
       <c r="A118" s="37"/>
       <c r="B118" s="37" t="s">
+        <v>852</v>
+      </c>
+      <c r="C118" s="39" t="s">
+        <v>775</v>
+      </c>
+      <c r="D118" s="40"/>
+      <c r="E118" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="F118" s="49"/>
+    </row>
+    <row r="119" spans="1:6" s="43" customFormat="1" outlineLevel="1">
+      <c r="A119" s="37"/>
+      <c r="B119" s="37" t="s">
         <v>853</v>
       </c>
-      <c r="C118" s="39" t="s">
+      <c r="C119" s="39" t="s">
         <v>824</v>
       </c>
-      <c r="D118" s="40" t="s">
+      <c r="D119" s="40" t="s">
         <v>825</v>
       </c>
-      <c r="E118" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="F118" s="49"/>
-    </row>
-    <row r="119" spans="1:6" outlineLevel="1">
-      <c r="A119" s="2"/>
-      <c r="B119" s="2" t="s">
-        <v>853</v>
-      </c>
-      <c r="C119" s="39" t="s">
-        <v>826</v>
-      </c>
-      <c r="D119" s="40" t="s">
-        <v>827</v>
-      </c>
-      <c r="E119" s="11" t="s">
-        <v>122</v>
-      </c>
+      <c r="E119" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="F119" s="49"/>
     </row>
     <row r="120" spans="1:6" outlineLevel="1">
       <c r="A120" s="2"/>
       <c r="B120" s="2" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C120" s="39" t="s">
-        <v>776</v>
-      </c>
-      <c r="D120" s="40"/>
+        <v>826</v>
+      </c>
+      <c r="D120" s="40" t="s">
+        <v>827</v>
+      </c>
       <c r="E120" s="11" t="s">
         <v>122</v>
       </c>
@@ -13968,34 +14009,34 @@
     <row r="121" spans="1:6" outlineLevel="1">
       <c r="A121" s="2"/>
       <c r="B121" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="C121" s="39" t="s">
+        <v>776</v>
+      </c>
+      <c r="D121" s="40"/>
+      <c r="E121" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" outlineLevel="1">
+      <c r="A122" s="2"/>
+      <c r="B122" s="2" t="s">
         <v>695</v>
       </c>
-      <c r="C121" s="44"/>
-      <c r="D121" s="5"/>
-      <c r="E121" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
-      <c r="A122" s="20" t="s">
+      <c r="C122" s="44"/>
+      <c r="D122" s="40"/>
+      <c r="E122" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="20" t="s">
         <v>862</v>
       </c>
-      <c r="B122" s="8"/>
-      <c r="C122" s="8"/>
-      <c r="D122" s="21"/>
-      <c r="E122" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" outlineLevel="1">
-      <c r="A123" s="2"/>
-      <c r="B123" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C123" s="39" t="s">
-        <v>863</v>
-      </c>
-      <c r="D123" s="40"/>
+      <c r="B123" s="8"/>
+      <c r="C123" s="8"/>
+      <c r="D123" s="46"/>
       <c r="E123" s="11" t="s">
         <v>122</v>
       </c>
@@ -14003,10 +14044,12 @@
     <row r="124" spans="1:6" outlineLevel="1">
       <c r="A124" s="2"/>
       <c r="B124" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C124" s="44"/>
-      <c r="D124" s="5"/>
+        <v>110</v>
+      </c>
+      <c r="C124" s="39" t="s">
+        <v>863</v>
+      </c>
+      <c r="D124" s="40"/>
       <c r="E124" s="11" t="s">
         <v>122</v>
       </c>
@@ -14014,87 +14057,83 @@
     <row r="125" spans="1:6" outlineLevel="1">
       <c r="A125" s="2"/>
       <c r="B125" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C125" s="44"/>
-      <c r="D125" s="5"/>
+      <c r="D125" s="40"/>
       <c r="E125" s="11" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="126" spans="1:6" s="43" customFormat="1" outlineLevel="1">
+    <row r="126" spans="1:6" outlineLevel="1">
       <c r="A126" s="2"/>
       <c r="B126" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C126" s="44"/>
+      <c r="D126" s="40"/>
+      <c r="E126" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" s="43" customFormat="1" outlineLevel="1">
+      <c r="A127" s="2"/>
+      <c r="B127" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C126" s="44"/>
-      <c r="D126" s="5"/>
-      <c r="E126" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="F126" s="49"/>
-    </row>
-    <row r="127" spans="1:6" outlineLevel="1">
-      <c r="A127" s="45" t="s">
+      <c r="C127" s="44"/>
+      <c r="D127" s="40"/>
+      <c r="E127" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="F127" s="49"/>
+    </row>
+    <row r="128" spans="1:6" outlineLevel="1">
+      <c r="A128" s="45" t="s">
         <v>865</v>
       </c>
-      <c r="B127" s="41"/>
-      <c r="C127" s="41"/>
-      <c r="D127" s="46"/>
-      <c r="E127" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" outlineLevel="1">
-      <c r="A128" s="2"/>
-      <c r="B128" s="2" t="s">
+      <c r="B128" s="41"/>
+      <c r="C128" s="41"/>
+      <c r="D128" s="46"/>
+      <c r="E128" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" outlineLevel="1">
+      <c r="A129" s="2"/>
+      <c r="B129" s="2" t="s">
         <v>847</v>
       </c>
-      <c r="C128" s="39" t="s">
+      <c r="C129" s="39" t="s">
         <v>864</v>
       </c>
-      <c r="D128" s="40" t="s">
+      <c r="D129" s="40" t="s">
         <v>828</v>
       </c>
-      <c r="E128" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" s="43" customFormat="1">
-      <c r="A129" s="45" t="s">
+      <c r="E129" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" s="43" customFormat="1">
+      <c r="A130" s="45" t="s">
         <v>821</v>
       </c>
-      <c r="B129" s="41"/>
-      <c r="C129" s="41"/>
-      <c r="D129" s="46"/>
-      <c r="E129" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="F129" s="49"/>
-    </row>
-    <row r="130" spans="1:6" outlineLevel="1">
-      <c r="A130" s="2"/>
-      <c r="B130" s="2" t="s">
-        <v>821</v>
-      </c>
-      <c r="C130" s="44"/>
-      <c r="D130" s="5" t="s">
-        <v>820</v>
-      </c>
-      <c r="E130" s="11" t="s">
-        <v>122</v>
-      </c>
+      <c r="B130" s="41"/>
+      <c r="C130" s="41"/>
+      <c r="D130" s="46"/>
+      <c r="E130" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="F130" s="49"/>
     </row>
     <row r="131" spans="1:6" outlineLevel="1">
       <c r="A131" s="2"/>
       <c r="B131" s="2" t="s">
-        <v>797</v>
-      </c>
-      <c r="C131" s="4" t="s">
-        <v>804</v>
-      </c>
-      <c r="D131" s="5" t="s">
-        <v>805</v>
+        <v>821</v>
+      </c>
+      <c r="C131" s="44"/>
+      <c r="D131" s="40" t="s">
+        <v>820</v>
       </c>
       <c r="E131" s="11" t="s">
         <v>122</v>
@@ -14103,13 +14142,13 @@
     <row r="132" spans="1:6" outlineLevel="1">
       <c r="A132" s="2"/>
       <c r="B132" s="2" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>806</v>
-      </c>
-      <c r="D132" s="5" t="s">
-        <v>807</v>
+        <v>804</v>
+      </c>
+      <c r="D132" s="40" t="s">
+        <v>805</v>
       </c>
       <c r="E132" s="11" t="s">
         <v>122</v>
@@ -14118,13 +14157,13 @@
     <row r="133" spans="1:6" outlineLevel="1">
       <c r="A133" s="2"/>
       <c r="B133" s="2" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>808</v>
-      </c>
-      <c r="D133" s="5" t="s">
-        <v>809</v>
+        <v>806</v>
+      </c>
+      <c r="D133" s="40" t="s">
+        <v>807</v>
       </c>
       <c r="E133" s="11" t="s">
         <v>122</v>
@@ -14133,13 +14172,13 @@
     <row r="134" spans="1:6" outlineLevel="1">
       <c r="A134" s="2"/>
       <c r="B134" s="2" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>810</v>
-      </c>
-      <c r="D134" s="5" t="s">
-        <v>811</v>
+        <v>808</v>
+      </c>
+      <c r="D134" s="40" t="s">
+        <v>809</v>
       </c>
       <c r="E134" s="11" t="s">
         <v>122</v>
@@ -14148,13 +14187,13 @@
     <row r="135" spans="1:6" outlineLevel="1">
       <c r="A135" s="2"/>
       <c r="B135" s="2" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>812</v>
-      </c>
-      <c r="D135" s="5" t="s">
-        <v>813</v>
+        <v>810</v>
+      </c>
+      <c r="D135" s="40" t="s">
+        <v>811</v>
       </c>
       <c r="E135" s="11" t="s">
         <v>122</v>
@@ -14166,10 +14205,10 @@
         <v>801</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>814</v>
-      </c>
-      <c r="D136" s="5" t="s">
-        <v>815</v>
+        <v>812</v>
+      </c>
+      <c r="D136" s="40" t="s">
+        <v>813</v>
       </c>
       <c r="E136" s="11" t="s">
         <v>122</v>
@@ -14178,13 +14217,13 @@
     <row r="137" spans="1:6" outlineLevel="1">
       <c r="A137" s="2"/>
       <c r="B137" s="2" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>816</v>
-      </c>
-      <c r="D137" s="5" t="s">
-        <v>817</v>
+        <v>814</v>
+      </c>
+      <c r="D137" s="40" t="s">
+        <v>815</v>
       </c>
       <c r="E137" s="11" t="s">
         <v>122</v>
@@ -14193,13 +14232,13 @@
     <row r="138" spans="1:6" outlineLevel="1">
       <c r="A138" s="2"/>
       <c r="B138" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>818</v>
-      </c>
-      <c r="D138" s="5" t="s">
-        <v>819</v>
+        <v>816</v>
+      </c>
+      <c r="D138" s="40" t="s">
+        <v>817</v>
       </c>
       <c r="E138" s="11" t="s">
         <v>122</v>
@@ -14208,34 +14247,38 @@
     <row r="139" spans="1:6" outlineLevel="1">
       <c r="A139" s="2"/>
       <c r="B139" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>818</v>
+      </c>
+      <c r="D139" s="40" t="s">
+        <v>819</v>
+      </c>
+      <c r="E139" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" outlineLevel="1">
+      <c r="A140" s="2"/>
+      <c r="B140" s="2" t="s">
         <v>771</v>
       </c>
-      <c r="C139" s="4" t="s">
+      <c r="C140" s="4" t="s">
         <v>772</v>
       </c>
-      <c r="D139" s="5"/>
-      <c r="E139" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
-      <c r="A140" s="20" t="s">
+      <c r="D140" s="40"/>
+      <c r="E140" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" s="20" t="s">
         <v>359</v>
       </c>
-      <c r="B140" s="8"/>
-      <c r="C140" s="8"/>
-      <c r="D140" s="21"/>
-      <c r="E140" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" outlineLevel="1">
-      <c r="A141" s="2"/>
-      <c r="B141" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="C141" s="44"/>
-      <c r="D141" s="5"/>
+      <c r="B141" s="8"/>
+      <c r="C141" s="8"/>
+      <c r="D141" s="46"/>
       <c r="E141" s="11" t="s">
         <v>122</v>
       </c>
@@ -14243,10 +14286,10 @@
     <row r="142" spans="1:6" outlineLevel="1">
       <c r="A142" s="2"/>
       <c r="B142" s="2" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="C142" s="44"/>
-      <c r="D142" s="5"/>
+      <c r="D142" s="40"/>
       <c r="E142" s="11" t="s">
         <v>122</v>
       </c>
@@ -14254,10 +14297,10 @@
     <row r="143" spans="1:6" outlineLevel="1">
       <c r="A143" s="2"/>
       <c r="B143" s="2" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="C143" s="44"/>
-      <c r="D143" s="5"/>
+      <c r="D143" s="40"/>
       <c r="E143" s="11" t="s">
         <v>122</v>
       </c>
@@ -14265,10 +14308,10 @@
     <row r="144" spans="1:6" outlineLevel="1">
       <c r="A144" s="2"/>
       <c r="B144" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C144" s="44"/>
-      <c r="D144" s="5"/>
+      <c r="D144" s="40"/>
       <c r="E144" s="11" t="s">
         <v>122</v>
       </c>
@@ -14276,10 +14319,10 @@
     <row r="145" spans="1:5" outlineLevel="1">
       <c r="A145" s="2"/>
       <c r="B145" s="2" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C145" s="44"/>
-      <c r="D145" s="5"/>
+      <c r="D145" s="40"/>
       <c r="E145" s="11" t="s">
         <v>122</v>
       </c>
@@ -14287,10 +14330,10 @@
     <row r="146" spans="1:5" outlineLevel="1">
       <c r="A146" s="2"/>
       <c r="B146" s="2" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="C146" s="44"/>
-      <c r="D146" s="5"/>
+      <c r="D146" s="40"/>
       <c r="E146" s="11" t="s">
         <v>122</v>
       </c>
@@ -14298,10 +14341,10 @@
     <row r="147" spans="1:5" outlineLevel="1">
       <c r="A147" s="2"/>
       <c r="B147" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C147" s="44"/>
-      <c r="D147" s="5"/>
+      <c r="D147" s="40"/>
       <c r="E147" s="11" t="s">
         <v>122</v>
       </c>
@@ -14309,10 +14352,10 @@
     <row r="148" spans="1:5" outlineLevel="1">
       <c r="A148" s="2"/>
       <c r="B148" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C148" s="44"/>
-      <c r="D148" s="5"/>
+      <c r="D148" s="40"/>
       <c r="E148" s="11" t="s">
         <v>122</v>
       </c>
@@ -14320,10 +14363,10 @@
     <row r="149" spans="1:5" outlineLevel="1">
       <c r="A149" s="2"/>
       <c r="B149" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C149" s="44"/>
-      <c r="D149" s="5"/>
+      <c r="D149" s="40"/>
       <c r="E149" s="11" t="s">
         <v>122</v>
       </c>
@@ -14331,10 +14374,10 @@
     <row r="150" spans="1:5" outlineLevel="1">
       <c r="A150" s="2"/>
       <c r="B150" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C150" s="44"/>
-      <c r="D150" s="5"/>
+      <c r="D150" s="40"/>
       <c r="E150" s="11" t="s">
         <v>122</v>
       </c>
@@ -14342,32 +14385,32 @@
     <row r="151" spans="1:5" outlineLevel="1">
       <c r="A151" s="2"/>
       <c r="B151" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C151" s="44"/>
+      <c r="D151" s="40"/>
+      <c r="E151" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" outlineLevel="1">
+      <c r="A152" s="2"/>
+      <c r="B152" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="C151" s="44"/>
-      <c r="D151" s="5"/>
-      <c r="E151" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5">
-      <c r="A152" s="20" t="s">
+      <c r="C152" s="44"/>
+      <c r="D152" s="40"/>
+      <c r="E152" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="20" t="s">
         <v>358</v>
       </c>
-      <c r="B152" s="8"/>
-      <c r="C152" s="8"/>
-      <c r="D152" s="21"/>
-      <c r="E152" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" outlineLevel="1">
-      <c r="A153" s="2"/>
-      <c r="B153" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="C153" s="44"/>
-      <c r="D153" s="5"/>
+      <c r="B153" s="8"/>
+      <c r="C153" s="8"/>
+      <c r="D153" s="46"/>
       <c r="E153" s="11" t="s">
         <v>122</v>
       </c>
@@ -14375,10 +14418,10 @@
     <row r="154" spans="1:5" outlineLevel="1">
       <c r="A154" s="2"/>
       <c r="B154" s="2" t="s">
-        <v>16</v>
+        <v>351</v>
       </c>
       <c r="C154" s="44"/>
-      <c r="D154" s="5"/>
+      <c r="D154" s="40"/>
       <c r="E154" s="11" t="s">
         <v>122</v>
       </c>
@@ -14386,10 +14429,10 @@
     <row r="155" spans="1:5" outlineLevel="1">
       <c r="A155" s="2"/>
       <c r="B155" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C155" s="44"/>
-      <c r="D155" s="5"/>
+      <c r="D155" s="40"/>
       <c r="E155" s="11" t="s">
         <v>122</v>
       </c>
@@ -14397,10 +14440,10 @@
     <row r="156" spans="1:5" outlineLevel="1">
       <c r="A156" s="2"/>
       <c r="B156" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C156" s="44"/>
-      <c r="D156" s="5"/>
+      <c r="D156" s="40"/>
       <c r="E156" s="11" t="s">
         <v>122</v>
       </c>
@@ -14408,10 +14451,10 @@
     <row r="157" spans="1:5" outlineLevel="1">
       <c r="A157" s="2"/>
       <c r="B157" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C157" s="44"/>
-      <c r="D157" s="5"/>
+      <c r="D157" s="40"/>
       <c r="E157" s="11" t="s">
         <v>122</v>
       </c>
@@ -14419,10 +14462,10 @@
     <row r="158" spans="1:5" outlineLevel="1">
       <c r="A158" s="2"/>
       <c r="B158" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C158" s="44"/>
-      <c r="D158" s="5"/>
+      <c r="D158" s="40"/>
       <c r="E158" s="11" t="s">
         <v>122</v>
       </c>
@@ -14430,10 +14473,10 @@
     <row r="159" spans="1:5" outlineLevel="1">
       <c r="A159" s="2"/>
       <c r="B159" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C159" s="44"/>
-      <c r="D159" s="5"/>
+      <c r="D159" s="40"/>
       <c r="E159" s="11" t="s">
         <v>122</v>
       </c>
@@ -14441,10 +14484,10 @@
     <row r="160" spans="1:5" outlineLevel="1">
       <c r="A160" s="2"/>
       <c r="B160" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C160" s="44"/>
-      <c r="D160" s="5"/>
+      <c r="D160" s="40"/>
       <c r="E160" s="11" t="s">
         <v>122</v>
       </c>
@@ -14452,10 +14495,10 @@
     <row r="161" spans="1:5" outlineLevel="1">
       <c r="A161" s="2"/>
       <c r="B161" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C161" s="44"/>
-      <c r="D161" s="5"/>
+      <c r="D161" s="40"/>
       <c r="E161" s="11" t="s">
         <v>122</v>
       </c>
@@ -14463,10 +14506,10 @@
     <row r="162" spans="1:5" outlineLevel="1">
       <c r="A162" s="2"/>
       <c r="B162" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C162" s="44"/>
-      <c r="D162" s="5"/>
+      <c r="D162" s="40"/>
       <c r="E162" s="11" t="s">
         <v>122</v>
       </c>
@@ -14474,10 +14517,10 @@
     <row r="163" spans="1:5" outlineLevel="1">
       <c r="A163" s="2"/>
       <c r="B163" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C163" s="44"/>
-      <c r="D163" s="5"/>
+      <c r="D163" s="40"/>
       <c r="E163" s="11" t="s">
         <v>122</v>
       </c>
@@ -14485,10 +14528,10 @@
     <row r="164" spans="1:5" outlineLevel="1">
       <c r="A164" s="2"/>
       <c r="B164" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C164" s="44"/>
-      <c r="D164" s="5"/>
+      <c r="D164" s="40"/>
       <c r="E164" s="11" t="s">
         <v>122</v>
       </c>
@@ -14496,10 +14539,10 @@
     <row r="165" spans="1:5" outlineLevel="1">
       <c r="A165" s="2"/>
       <c r="B165" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C165" s="44"/>
-      <c r="D165" s="5"/>
+      <c r="D165" s="40"/>
       <c r="E165" s="11" t="s">
         <v>122</v>
       </c>
@@ -14507,10 +14550,10 @@
     <row r="166" spans="1:5" outlineLevel="1">
       <c r="A166" s="2"/>
       <c r="B166" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C166" s="44"/>
-      <c r="D166" s="5"/>
+      <c r="D166" s="40"/>
       <c r="E166" s="11" t="s">
         <v>122</v>
       </c>
@@ -14518,32 +14561,32 @@
     <row r="167" spans="1:5" outlineLevel="1">
       <c r="A167" s="2"/>
       <c r="B167" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C167" s="44"/>
+      <c r="D167" s="40"/>
+      <c r="E167" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" outlineLevel="1">
+      <c r="A168" s="2"/>
+      <c r="B168" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C167" s="44"/>
-      <c r="D167" s="5"/>
-      <c r="E167" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5">
-      <c r="A168" s="20" t="s">
+      <c r="C168" s="44"/>
+      <c r="D168" s="40"/>
+      <c r="E168" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" s="20" t="s">
         <v>483</v>
       </c>
-      <c r="B168" s="8"/>
-      <c r="C168" s="20"/>
-      <c r="D168" s="21"/>
-      <c r="E168" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" outlineLevel="1">
-      <c r="A169" s="2"/>
-      <c r="B169" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="C169" s="44"/>
-      <c r="D169" s="5"/>
+      <c r="B169" s="8"/>
+      <c r="C169" s="20"/>
+      <c r="D169" s="46"/>
       <c r="E169" s="11" t="s">
         <v>122</v>
       </c>
@@ -14551,10 +14594,10 @@
     <row r="170" spans="1:5" outlineLevel="1">
       <c r="A170" s="2"/>
       <c r="B170" s="2" t="s">
-        <v>474</v>
+        <v>351</v>
       </c>
       <c r="C170" s="44"/>
-      <c r="D170" s="5"/>
+      <c r="D170" s="40"/>
       <c r="E170" s="11" t="s">
         <v>122</v>
       </c>
@@ -14562,10 +14605,10 @@
     <row r="171" spans="1:5" outlineLevel="1">
       <c r="A171" s="2"/>
       <c r="B171" s="2" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="C171" s="44"/>
-      <c r="D171" s="5"/>
+      <c r="D171" s="40"/>
       <c r="E171" s="11" t="s">
         <v>122</v>
       </c>
@@ -14573,10 +14616,10 @@
     <row r="172" spans="1:5" outlineLevel="1">
       <c r="A172" s="2"/>
       <c r="B172" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C172" s="44"/>
-      <c r="D172" s="5"/>
+      <c r="D172" s="40"/>
       <c r="E172" s="11" t="s">
         <v>122</v>
       </c>
@@ -14584,10 +14627,10 @@
     <row r="173" spans="1:5" outlineLevel="1">
       <c r="A173" s="2"/>
       <c r="B173" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C173" s="44"/>
-      <c r="D173" s="5"/>
+      <c r="D173" s="40"/>
       <c r="E173" s="11" t="s">
         <v>122</v>
       </c>
@@ -14595,10 +14638,10 @@
     <row r="174" spans="1:5" outlineLevel="1">
       <c r="A174" s="2"/>
       <c r="B174" s="2" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="C174" s="44"/>
-      <c r="D174" s="5"/>
+      <c r="D174" s="40"/>
       <c r="E174" s="11" t="s">
         <v>122</v>
       </c>
@@ -14606,10 +14649,10 @@
     <row r="175" spans="1:5" outlineLevel="1">
       <c r="A175" s="2"/>
       <c r="B175" s="2" t="s">
-        <v>738</v>
+        <v>464</v>
       </c>
       <c r="C175" s="44"/>
-      <c r="D175" s="5"/>
+      <c r="D175" s="40"/>
       <c r="E175" s="11" t="s">
         <v>122</v>
       </c>
@@ -14617,10 +14660,10 @@
     <row r="176" spans="1:5" outlineLevel="1">
       <c r="A176" s="2"/>
       <c r="B176" s="2" t="s">
-        <v>469</v>
+        <v>738</v>
       </c>
       <c r="C176" s="44"/>
-      <c r="D176" s="5"/>
+      <c r="D176" s="40"/>
       <c r="E176" s="11" t="s">
         <v>122</v>
       </c>
@@ -14628,10 +14671,10 @@
     <row r="177" spans="1:5" outlineLevel="1">
       <c r="A177" s="2"/>
       <c r="B177" s="2" t="s">
-        <v>740</v>
+        <v>469</v>
       </c>
       <c r="C177" s="44"/>
-      <c r="D177" s="5"/>
+      <c r="D177" s="40"/>
       <c r="E177" s="11" t="s">
         <v>122</v>
       </c>
@@ -14639,10 +14682,10 @@
     <row r="178" spans="1:5" outlineLevel="1">
       <c r="A178" s="2"/>
       <c r="B178" s="2" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="C178" s="44"/>
-      <c r="D178" s="5"/>
+      <c r="D178" s="40"/>
       <c r="E178" s="11" t="s">
         <v>122</v>
       </c>
@@ -14650,10 +14693,10 @@
     <row r="179" spans="1:5" outlineLevel="1">
       <c r="A179" s="2"/>
       <c r="B179" s="2" t="s">
-        <v>730</v>
+        <v>739</v>
       </c>
       <c r="C179" s="44"/>
-      <c r="D179" s="5"/>
+      <c r="D179" s="40"/>
       <c r="E179" s="11" t="s">
         <v>122</v>
       </c>
@@ -14661,10 +14704,10 @@
     <row r="180" spans="1:5" outlineLevel="1">
       <c r="A180" s="2"/>
       <c r="B180" s="2" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="C180" s="44"/>
-      <c r="D180" s="5"/>
+      <c r="D180" s="40"/>
       <c r="E180" s="11" t="s">
         <v>122</v>
       </c>
@@ -14672,10 +14715,10 @@
     <row r="181" spans="1:5" outlineLevel="1">
       <c r="A181" s="2"/>
       <c r="B181" s="2" t="s">
-        <v>470</v>
+        <v>733</v>
       </c>
       <c r="C181" s="44"/>
-      <c r="D181" s="5"/>
+      <c r="D181" s="40"/>
       <c r="E181" s="11" t="s">
         <v>122</v>
       </c>
@@ -14683,33 +14726,32 @@
     <row r="182" spans="1:5" outlineLevel="1">
       <c r="A182" s="2"/>
       <c r="B182" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="C182" s="44"/>
+      <c r="D182" s="40"/>
+      <c r="E182" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" outlineLevel="1">
+      <c r="A183" s="2"/>
+      <c r="B183" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="C182" s="44"/>
-      <c r="D182" s="5"/>
-      <c r="E182" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5">
-      <c r="A183" s="20" t="s">
+      <c r="C183" s="44"/>
+      <c r="D183" s="40"/>
+      <c r="E183" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" s="20" t="s">
         <v>866</v>
       </c>
-      <c r="B183" s="8"/>
-      <c r="C183" s="8"/>
-      <c r="D183" s="21"/>
-      <c r="E183" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" outlineLevel="1">
-      <c r="A184" s="2"/>
-      <c r="B184" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C184" s="39" t="s">
-        <v>867</v>
-      </c>
+      <c r="B184" s="8"/>
+      <c r="C184" s="8"/>
+      <c r="D184" s="46"/>
       <c r="E184" s="11" t="s">
         <v>122</v>
       </c>
@@ -14717,10 +14759,11 @@
     <row r="185" spans="1:5" outlineLevel="1">
       <c r="A185" s="2"/>
       <c r="B185" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C185" s="44"/>
-      <c r="D185" s="5"/>
+        <v>36</v>
+      </c>
+      <c r="C185" s="39" t="s">
+        <v>867</v>
+      </c>
       <c r="E185" s="11" t="s">
         <v>122</v>
       </c>
@@ -14728,10 +14771,10 @@
     <row r="186" spans="1:5" outlineLevel="1">
       <c r="A186" s="2"/>
       <c r="B186" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C186" s="44"/>
-      <c r="D186" s="5"/>
+      <c r="D186" s="40"/>
       <c r="E186" s="11" t="s">
         <v>122</v>
       </c>
@@ -14739,10 +14782,10 @@
     <row r="187" spans="1:5" outlineLevel="1">
       <c r="A187" s="2"/>
       <c r="B187" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C187" s="44"/>
-      <c r="D187" s="5"/>
+      <c r="D187" s="40"/>
       <c r="E187" s="11" t="s">
         <v>122</v>
       </c>
@@ -14750,10 +14793,10 @@
     <row r="188" spans="1:5" outlineLevel="1">
       <c r="A188" s="2"/>
       <c r="B188" s="2" t="s">
-        <v>379</v>
+        <v>39</v>
       </c>
       <c r="C188" s="44"/>
-      <c r="D188" s="5"/>
+      <c r="D188" s="40"/>
       <c r="E188" s="11" t="s">
         <v>122</v>
       </c>
@@ -14761,10 +14804,10 @@
     <row r="189" spans="1:5" outlineLevel="1">
       <c r="A189" s="2"/>
       <c r="B189" s="2" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="C189" s="44"/>
-      <c r="D189" s="5"/>
+      <c r="D189" s="40"/>
       <c r="E189" s="11" t="s">
         <v>122</v>
       </c>
@@ -14772,10 +14815,10 @@
     <row r="190" spans="1:5" outlineLevel="1">
       <c r="A190" s="2"/>
       <c r="B190" s="2" t="s">
-        <v>40</v>
+        <v>394</v>
       </c>
       <c r="C190" s="44"/>
-      <c r="D190" s="5"/>
+      <c r="D190" s="40"/>
       <c r="E190" s="11" t="s">
         <v>122</v>
       </c>
@@ -14783,10 +14826,10 @@
     <row r="191" spans="1:5" outlineLevel="1">
       <c r="A191" s="2"/>
       <c r="B191" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C191" s="44"/>
-      <c r="D191" s="5"/>
+      <c r="D191" s="40"/>
       <c r="E191" s="11" t="s">
         <v>122</v>
       </c>
@@ -14794,10 +14837,10 @@
     <row r="192" spans="1:5" outlineLevel="1">
       <c r="A192" s="2"/>
       <c r="B192" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C192" s="44"/>
-      <c r="D192" s="5"/>
+      <c r="D192" s="40"/>
       <c r="E192" s="11" t="s">
         <v>122</v>
       </c>
@@ -14805,10 +14848,10 @@
     <row r="193" spans="1:5" outlineLevel="1">
       <c r="A193" s="2"/>
       <c r="B193" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C193" s="44"/>
-      <c r="D193" s="5"/>
+      <c r="D193" s="40"/>
       <c r="E193" s="11" t="s">
         <v>122</v>
       </c>
@@ -14816,10 +14859,10 @@
     <row r="194" spans="1:5" outlineLevel="1">
       <c r="A194" s="2"/>
       <c r="B194" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C194" s="44"/>
-      <c r="D194" s="5"/>
+      <c r="D194" s="40"/>
       <c r="E194" s="11" t="s">
         <v>122</v>
       </c>
@@ -14827,10 +14870,10 @@
     <row r="195" spans="1:5" outlineLevel="1">
       <c r="A195" s="2"/>
       <c r="B195" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C195" s="44"/>
-      <c r="D195" s="5"/>
+      <c r="D195" s="40"/>
       <c r="E195" s="11" t="s">
         <v>122</v>
       </c>
@@ -14838,10 +14881,10 @@
     <row r="196" spans="1:5" outlineLevel="1">
       <c r="A196" s="2"/>
       <c r="B196" s="2" t="s">
-        <v>138</v>
+        <v>45</v>
       </c>
       <c r="C196" s="44"/>
-      <c r="D196" s="5"/>
+      <c r="D196" s="40"/>
       <c r="E196" s="11" t="s">
         <v>122</v>
       </c>
@@ -14849,10 +14892,10 @@
     <row r="197" spans="1:5" outlineLevel="1">
       <c r="A197" s="2"/>
       <c r="B197" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C197" s="44"/>
-      <c r="D197" s="5"/>
+      <c r="D197" s="40"/>
       <c r="E197" s="11" t="s">
         <v>122</v>
       </c>
@@ -14860,31 +14903,31 @@
     <row r="198" spans="1:5" outlineLevel="1">
       <c r="A198" s="2"/>
       <c r="B198" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C198" s="44"/>
+      <c r="D198" s="40"/>
+      <c r="E198" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" outlineLevel="1">
+      <c r="A199" s="2"/>
+      <c r="B199" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="C198" s="44"/>
-      <c r="D198" s="5"/>
-      <c r="E198" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" outlineLevel="1">
-      <c r="B199" s="2" t="s">
+      <c r="C199" s="44"/>
+      <c r="D199" s="40"/>
+      <c r="E199" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" outlineLevel="1">
+      <c r="B200" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="C199" s="44"/>
-      <c r="D199" s="5"/>
-      <c r="E199" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" outlineLevel="1">
-      <c r="A200" s="2"/>
-      <c r="B200" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C200" s="44"/>
-      <c r="D200" s="5"/>
+      <c r="D200" s="40"/>
       <c r="E200" s="11" t="s">
         <v>122</v>
       </c>
@@ -14892,10 +14935,10 @@
     <row r="201" spans="1:5" outlineLevel="1">
       <c r="A201" s="2"/>
       <c r="B201" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C201" s="44"/>
-      <c r="D201" s="5"/>
+      <c r="D201" s="40"/>
       <c r="E201" s="11" t="s">
         <v>122</v>
       </c>
@@ -14903,10 +14946,10 @@
     <row r="202" spans="1:5" outlineLevel="1">
       <c r="A202" s="2"/>
       <c r="B202" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C202" s="44"/>
-      <c r="D202" s="5"/>
+      <c r="D202" s="40"/>
       <c r="E202" s="11" t="s">
         <v>122</v>
       </c>
@@ -14914,10 +14957,10 @@
     <row r="203" spans="1:5" outlineLevel="1">
       <c r="A203" s="2"/>
       <c r="B203" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C203" s="44"/>
-      <c r="D203" s="5"/>
+      <c r="D203" s="40"/>
       <c r="E203" s="11" t="s">
         <v>122</v>
       </c>
@@ -14925,10 +14968,10 @@
     <row r="204" spans="1:5" outlineLevel="1">
       <c r="A204" s="2"/>
       <c r="B204" s="2" t="s">
-        <v>147</v>
+        <v>49</v>
       </c>
       <c r="C204" s="44"/>
-      <c r="D204" s="5"/>
+      <c r="D204" s="40"/>
       <c r="E204" s="11" t="s">
         <v>122</v>
       </c>
@@ -14936,10 +14979,10 @@
     <row r="205" spans="1:5" outlineLevel="1">
       <c r="A205" s="2"/>
       <c r="B205" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C205" s="44"/>
-      <c r="D205" s="5"/>
+      <c r="D205" s="40"/>
       <c r="E205" s="11" t="s">
         <v>122</v>
       </c>
@@ -14947,10 +14990,10 @@
     <row r="206" spans="1:5" outlineLevel="1">
       <c r="A206" s="2"/>
       <c r="B206" s="2" t="s">
-        <v>50</v>
+        <v>148</v>
       </c>
       <c r="C206" s="44"/>
-      <c r="D206" s="5"/>
+      <c r="D206" s="40"/>
       <c r="E206" s="11" t="s">
         <v>122</v>
       </c>
@@ -14958,10 +15001,10 @@
     <row r="207" spans="1:5" outlineLevel="1">
       <c r="A207" s="2"/>
       <c r="B207" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C207" s="44"/>
-      <c r="D207" s="5"/>
+      <c r="D207" s="40"/>
       <c r="E207" s="11" t="s">
         <v>122</v>
       </c>
@@ -14969,10 +15012,10 @@
     <row r="208" spans="1:5" outlineLevel="1">
       <c r="A208" s="2"/>
       <c r="B208" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C208" s="44"/>
-      <c r="D208" s="5"/>
+      <c r="D208" s="40"/>
       <c r="E208" s="11" t="s">
         <v>122</v>
       </c>
@@ -14980,10 +15023,10 @@
     <row r="209" spans="1:6" outlineLevel="1">
       <c r="A209" s="2"/>
       <c r="B209" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C209" s="44"/>
-      <c r="D209" s="5"/>
+      <c r="D209" s="40"/>
       <c r="E209" s="11" t="s">
         <v>122</v>
       </c>
@@ -14991,10 +15034,10 @@
     <row r="210" spans="1:6" outlineLevel="1">
       <c r="A210" s="2"/>
       <c r="B210" s="2" t="s">
-        <v>728</v>
+        <v>53</v>
       </c>
       <c r="C210" s="44"/>
-      <c r="D210" s="5"/>
+      <c r="D210" s="40"/>
       <c r="E210" s="11" t="s">
         <v>122</v>
       </c>
@@ -15002,10 +15045,10 @@
     <row r="211" spans="1:6" outlineLevel="1">
       <c r="A211" s="2"/>
       <c r="B211" s="2" t="s">
-        <v>56</v>
+        <v>728</v>
       </c>
       <c r="C211" s="44"/>
-      <c r="D211" s="5"/>
+      <c r="D211" s="40"/>
       <c r="E211" s="11" t="s">
         <v>122</v>
       </c>
@@ -15013,10 +15056,10 @@
     <row r="212" spans="1:6" outlineLevel="1">
       <c r="A212" s="2"/>
       <c r="B212" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C212" s="44"/>
-      <c r="D212" s="5"/>
+      <c r="D212" s="40"/>
       <c r="E212" s="11" t="s">
         <v>122</v>
       </c>
@@ -15024,10 +15067,10 @@
     <row r="213" spans="1:6" outlineLevel="1">
       <c r="A213" s="2"/>
       <c r="B213" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C213" s="44"/>
-      <c r="D213" s="5"/>
+      <c r="D213" s="40"/>
       <c r="E213" s="11" t="s">
         <v>122</v>
       </c>
@@ -15035,48 +15078,46 @@
     <row r="214" spans="1:6" outlineLevel="1">
       <c r="A214" s="2"/>
       <c r="B214" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C214" s="44"/>
-      <c r="D214" s="5"/>
+      <c r="D214" s="40"/>
       <c r="E214" s="11" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="215" spans="1:6" s="43" customFormat="1" outlineLevel="1">
+    <row r="215" spans="1:6" outlineLevel="1">
       <c r="A215" s="2"/>
       <c r="B215" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C215" s="44"/>
+      <c r="D215" s="40"/>
+      <c r="E215" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" s="43" customFormat="1" outlineLevel="1">
+      <c r="A216" s="2"/>
+      <c r="B216" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C215" s="44"/>
-      <c r="D215" s="5"/>
-      <c r="E215" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="F215" s="49"/>
-    </row>
-    <row r="216" spans="1:6" outlineLevel="1">
-      <c r="A216" s="37"/>
-      <c r="B216" s="37" t="s">
+      <c r="C216" s="44"/>
+      <c r="D216" s="40"/>
+      <c r="E216" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="F216" s="49"/>
+    </row>
+    <row r="217" spans="1:6" outlineLevel="1">
+      <c r="A217" s="37"/>
+      <c r="B217" s="37" t="s">
         <v>868</v>
       </c>
-      <c r="C216" s="42" t="s">
+      <c r="C217" s="42" t="s">
         <v>870</v>
       </c>
-      <c r="D216" s="40"/>
-      <c r="E216" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" outlineLevel="1">
-      <c r="A217" s="2"/>
-      <c r="B217" s="2" t="s">
-        <v>869</v>
-      </c>
-      <c r="C217" s="42" t="s">
-        <v>871</v>
-      </c>
-      <c r="D217" s="5"/>
+      <c r="D217" s="40"/>
       <c r="E217" s="11" t="s">
         <v>122</v>
       </c>
@@ -15084,10 +15125,12 @@
     <row r="218" spans="1:6" outlineLevel="1">
       <c r="A218" s="2"/>
       <c r="B218" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C218" s="44"/>
-      <c r="D218" s="5"/>
+        <v>869</v>
+      </c>
+      <c r="C218" s="42" t="s">
+        <v>871</v>
+      </c>
+      <c r="D218" s="40"/>
       <c r="E218" s="11" t="s">
         <v>122</v>
       </c>
@@ -15095,10 +15138,10 @@
     <row r="219" spans="1:6" outlineLevel="1">
       <c r="A219" s="2"/>
       <c r="B219" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C219" s="44"/>
-      <c r="D219" s="5"/>
+      <c r="D219" s="40"/>
       <c r="E219" s="11" t="s">
         <v>122</v>
       </c>
@@ -15106,10 +15149,10 @@
     <row r="220" spans="1:6" outlineLevel="1">
       <c r="A220" s="2"/>
       <c r="B220" s="2" t="s">
-        <v>390</v>
+        <v>61</v>
       </c>
       <c r="C220" s="44"/>
-      <c r="D220" s="5"/>
+      <c r="D220" s="40"/>
       <c r="E220" s="11" t="s">
         <v>122</v>
       </c>
@@ -15117,122 +15160,118 @@
     <row r="221" spans="1:6" outlineLevel="1">
       <c r="A221" s="2"/>
       <c r="B221" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C221" s="44"/>
+      <c r="D221" s="40"/>
+      <c r="E221" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" outlineLevel="1">
+      <c r="A222" s="2"/>
+      <c r="B222" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="C221" s="44"/>
-      <c r="D221" s="5"/>
-      <c r="E221" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" s="43" customFormat="1">
-      <c r="A222" s="7"/>
-      <c r="B222" s="2" t="s">
+      <c r="C222" s="44"/>
+      <c r="D222" s="40"/>
+      <c r="E222" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" s="43" customFormat="1">
+      <c r="A223" s="7"/>
+      <c r="B223" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="C222" s="44"/>
-      <c r="D222" s="5"/>
-      <c r="E222" s="43" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" s="43" customFormat="1">
-      <c r="A223" s="37"/>
-      <c r="B223" s="37" t="s">
-        <v>890</v>
-      </c>
-      <c r="C223" s="42" t="s">
-        <v>896</v>
-      </c>
-      <c r="D223" s="40" t="s">
-        <v>894</v>
-      </c>
+      <c r="C223" s="44"/>
+      <c r="D223" s="40"/>
       <c r="E223" s="43" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="224" spans="1:6" s="43" customFormat="1" outlineLevel="1">
+    <row r="224" spans="1:6" s="43" customFormat="1">
       <c r="A224" s="37"/>
       <c r="B224" s="37" t="s">
+        <v>890</v>
+      </c>
+      <c r="C224" s="42" t="s">
+        <v>896</v>
+      </c>
+      <c r="D224" s="40" t="s">
+        <v>894</v>
+      </c>
+      <c r="E224" s="43" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" s="43" customFormat="1" outlineLevel="1">
+      <c r="A225" s="37"/>
+      <c r="B225" s="37" t="s">
         <v>891</v>
       </c>
-      <c r="C224" s="42" t="s">
+      <c r="C225" s="42" t="s">
         <v>897</v>
       </c>
-      <c r="D224" s="40" t="s">
+      <c r="D225" s="40" t="s">
         <v>895</v>
       </c>
-      <c r="E224" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="F224" s="49"/>
-    </row>
-    <row r="225" spans="1:6" s="43" customFormat="1" outlineLevel="1">
-      <c r="A225" s="7"/>
-      <c r="B225" s="37" t="s">
+      <c r="E225" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="F225" s="49"/>
+    </row>
+    <row r="226" spans="1:6" s="43" customFormat="1" outlineLevel="1">
+      <c r="A226" s="7"/>
+      <c r="B226" s="37" t="s">
         <v>903</v>
       </c>
-      <c r="C225" s="42" t="s">
+      <c r="C226" s="42" t="s">
         <v>904</v>
       </c>
-      <c r="D225" s="40" t="s">
+      <c r="D226" s="40" t="s">
         <v>905</v>
       </c>
-      <c r="E225" s="43" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" s="43" customFormat="1" outlineLevel="1">
-      <c r="A226" s="45" t="s">
+      <c r="E226" s="43" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" s="43" customFormat="1" outlineLevel="1">
+      <c r="A227" s="45" t="s">
         <v>872</v>
       </c>
-      <c r="B226" s="41"/>
-      <c r="C226" s="41"/>
-      <c r="D226" s="46"/>
-      <c r="E226" s="43" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" s="43" customFormat="1" outlineLevel="1">
-      <c r="A227" s="37"/>
-      <c r="B227" s="37" t="s">
-        <v>873</v>
-      </c>
-      <c r="C227" s="42" t="s">
-        <v>968</v>
-      </c>
-      <c r="D227" s="52" t="s">
-        <v>972</v>
-      </c>
-      <c r="E227" s="53" t="s">
-        <v>977</v>
+      <c r="B227" s="41"/>
+      <c r="C227" s="41"/>
+      <c r="D227" s="46"/>
+      <c r="E227" s="43" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="228" spans="1:6" s="43" customFormat="1" outlineLevel="1">
       <c r="A228" s="37"/>
       <c r="B228" s="37" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C228" s="42" t="s">
-        <v>969</v>
-      </c>
-      <c r="D228" s="35" t="s">
-        <v>973</v>
-      </c>
-      <c r="E228" s="43" t="s">
-        <v>122</v>
+        <v>968</v>
+      </c>
+      <c r="D228" s="52" t="s">
+        <v>972</v>
+      </c>
+      <c r="E228" s="53" t="s">
+        <v>977</v>
       </c>
     </row>
     <row r="229" spans="1:6" s="43" customFormat="1" outlineLevel="1">
       <c r="A229" s="37"/>
       <c r="B229" s="37" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C229" s="42" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="D229" s="35" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="E229" s="43" t="s">
         <v>122</v>
@@ -15241,13 +15280,13 @@
     <row r="230" spans="1:6" s="43" customFormat="1" outlineLevel="1">
       <c r="A230" s="37"/>
       <c r="B230" s="37" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C230" s="42" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="D230" s="35" t="s">
-        <v>130</v>
+        <v>971</v>
       </c>
       <c r="E230" s="43" t="s">
         <v>122</v>
@@ -15256,38 +15295,40 @@
     <row r="231" spans="1:6" s="43" customFormat="1" outlineLevel="1">
       <c r="A231" s="37"/>
       <c r="B231" s="37" t="s">
+        <v>876</v>
+      </c>
+      <c r="C231" s="42" t="s">
+        <v>974</v>
+      </c>
+      <c r="D231" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="E231" s="43" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" s="43" customFormat="1" outlineLevel="1">
+      <c r="A232" s="37"/>
+      <c r="B232" s="37" t="s">
         <v>877</v>
       </c>
-      <c r="C231" s="42" t="s">
+      <c r="C232" s="42" t="s">
         <v>975</v>
       </c>
-      <c r="D231" s="35" t="s">
+      <c r="D232" s="35" t="s">
         <v>976</v>
       </c>
-      <c r="E231" s="43" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" s="43" customFormat="1" outlineLevel="1">
-      <c r="A232" s="45" t="s">
+      <c r="E232" s="43" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" s="43" customFormat="1" outlineLevel="1">
+      <c r="A233" s="45" t="s">
         <v>878</v>
       </c>
-      <c r="B232" s="41"/>
-      <c r="C232" s="41"/>
-      <c r="D232" s="46"/>
-      <c r="E232" s="43" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" s="43" customFormat="1" outlineLevel="1">
-      <c r="A233" s="37"/>
-      <c r="B233" s="37" t="s">
-        <v>879</v>
-      </c>
-      <c r="C233" s="42" t="s">
-        <v>883</v>
-      </c>
-      <c r="D233" s="35"/>
+      <c r="B233" s="41"/>
+      <c r="C233" s="41"/>
+      <c r="D233" s="46"/>
       <c r="E233" s="43" t="s">
         <v>122</v>
       </c>
@@ -15295,10 +15336,10 @@
     <row r="234" spans="1:6" s="43" customFormat="1" outlineLevel="1">
       <c r="A234" s="37"/>
       <c r="B234" s="37" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C234" s="42" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D234" s="35"/>
       <c r="E234" s="43" t="s">
@@ -15308,82 +15349,83 @@
     <row r="235" spans="1:6" s="43" customFormat="1" outlineLevel="1">
       <c r="A235" s="37"/>
       <c r="B235" s="37" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="C235" s="42" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D235" s="35"/>
       <c r="E235" s="43" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="236" spans="1:6">
+    <row r="236" spans="1:6" s="43" customFormat="1" outlineLevel="1">
       <c r="A236" s="37"/>
       <c r="B236" s="37" t="s">
+        <v>881</v>
+      </c>
+      <c r="C236" s="42" t="s">
+        <v>885</v>
+      </c>
+      <c r="D236" s="35"/>
+      <c r="E236" s="43" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6">
+      <c r="A237" s="37"/>
+      <c r="B237" s="37" t="s">
         <v>882</v>
       </c>
-      <c r="C236" s="42" t="s">
+      <c r="C237" s="42" t="s">
         <v>887</v>
       </c>
-      <c r="D236" s="35" t="s">
+      <c r="D237" s="35" t="s">
         <v>886</v>
       </c>
-      <c r="E236" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="F236" s="43"/>
-    </row>
-    <row r="237" spans="1:6" outlineLevel="1">
-      <c r="A237" s="2"/>
-      <c r="B237" s="37" t="s">
+      <c r="E237" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="F237" s="43"/>
+    </row>
+    <row r="238" spans="1:6" outlineLevel="1">
+      <c r="A238" s="2"/>
+      <c r="B238" s="37" t="s">
         <v>893</v>
       </c>
-      <c r="C237" s="42" t="s">
+      <c r="C238" s="42" t="s">
         <v>888</v>
       </c>
-      <c r="D237" s="5" t="s">
+      <c r="D238" s="40" t="s">
         <v>889</v>
       </c>
-      <c r="E237" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="F237" s="43"/>
-    </row>
-    <row r="238" spans="1:6" s="43" customFormat="1">
-      <c r="A238" s="20" t="s">
+      <c r="E238" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="F238" s="43"/>
+    </row>
+    <row r="239" spans="1:6" s="43" customFormat="1">
+      <c r="A239" s="20" t="s">
         <v>899</v>
       </c>
-      <c r="B238" s="8"/>
-      <c r="C238" s="20"/>
-      <c r="D238" s="21"/>
-      <c r="E238" s="43" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" outlineLevel="1">
-      <c r="A239" s="37"/>
-      <c r="B239" s="37" t="s">
+      <c r="B239" s="8"/>
+      <c r="C239" s="20"/>
+      <c r="D239" s="46"/>
+      <c r="E239" s="43" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" outlineLevel="1">
+      <c r="A240" s="37"/>
+      <c r="B240" s="37" t="s">
         <v>892</v>
       </c>
-      <c r="C239" s="42" t="s">
+      <c r="C240" s="42" t="s">
         <v>898</v>
       </c>
-      <c r="D239" s="40" t="s">
+      <c r="D240" s="40" t="s">
         <v>889</v>
       </c>
-      <c r="E239" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="F239" s="43"/>
-    </row>
-    <row r="240" spans="1:6" outlineLevel="1">
-      <c r="A240" s="2"/>
-      <c r="B240" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C240" s="44"/>
-      <c r="D240" s="5"/>
       <c r="E240" s="11" t="s">
         <v>122</v>
       </c>
@@ -15392,21 +15434,22 @@
     <row r="241" spans="1:6" outlineLevel="1">
       <c r="A241" s="2"/>
       <c r="B241" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C241" s="44"/>
-      <c r="D241" s="5"/>
+      <c r="D241" s="40"/>
       <c r="E241" s="11" t="s">
         <v>122</v>
       </c>
+      <c r="F241" s="43"/>
     </row>
     <row r="242" spans="1:6" outlineLevel="1">
       <c r="A242" s="2"/>
       <c r="B242" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C242" s="44"/>
-      <c r="D242" s="5"/>
+      <c r="D242" s="40"/>
       <c r="E242" s="11" t="s">
         <v>122</v>
       </c>
@@ -15414,10 +15457,10 @@
     <row r="243" spans="1:6" outlineLevel="1">
       <c r="A243" s="2"/>
       <c r="B243" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C243" s="44"/>
-      <c r="D243" s="5"/>
+      <c r="D243" s="40"/>
       <c r="E243" s="11" t="s">
         <v>122</v>
       </c>
@@ -15425,38 +15468,34 @@
     <row r="244" spans="1:6" outlineLevel="1">
       <c r="A244" s="2"/>
       <c r="B244" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C244" s="44"/>
-      <c r="D244" s="5"/>
+      <c r="D244" s="40"/>
       <c r="E244" s="11" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="245" spans="1:6" outlineLevel="1">
       <c r="A245" s="2"/>
-      <c r="B245" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C245" s="42" t="s">
-        <v>946</v>
-      </c>
-      <c r="D245" s="5"/>
+      <c r="B245" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C245" s="44"/>
+      <c r="D245" s="40"/>
       <c r="E245" s="11" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="246" spans="1:6" outlineLevel="1">
       <c r="A246" s="2"/>
-      <c r="B246" s="2" t="s">
-        <v>724</v>
+      <c r="B246" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="C246" s="42" t="s">
-        <v>947</v>
-      </c>
-      <c r="D246" s="40" t="s">
-        <v>948</v>
-      </c>
+        <v>946</v>
+      </c>
+      <c r="D246" s="40"/>
       <c r="E246" s="11" t="s">
         <v>122</v>
       </c>
@@ -15464,98 +15503,113 @@
     <row r="247" spans="1:6" outlineLevel="1">
       <c r="A247" s="2"/>
       <c r="B247" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="C247" s="42" t="s">
+        <v>947</v>
+      </c>
+      <c r="D247" s="40" t="s">
+        <v>948</v>
+      </c>
+      <c r="E247" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" outlineLevel="1">
+      <c r="A248" s="2"/>
+      <c r="B248" s="2" t="s">
         <v>723</v>
       </c>
-      <c r="C247" s="44"/>
-      <c r="D247" s="5"/>
-      <c r="E247" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6" outlineLevel="1">
-      <c r="A248" s="8" t="s">
+      <c r="C248" s="44"/>
+      <c r="D248" s="40"/>
+      <c r="E248" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" outlineLevel="1">
+      <c r="A249" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="B248" s="8"/>
-      <c r="C248" s="20"/>
-      <c r="D248" s="21"/>
-      <c r="E248" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6" outlineLevel="1">
-      <c r="A249" s="2"/>
-      <c r="B249" s="2" t="s">
+      <c r="B249" s="8"/>
+      <c r="C249" s="20"/>
+      <c r="D249" s="46"/>
+      <c r="E249" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" outlineLevel="1">
+      <c r="A250" s="2"/>
+      <c r="B250" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="C249" s="44"/>
-      <c r="D249" s="5"/>
-      <c r="E249" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6" outlineLevel="1">
-      <c r="A250" s="8" t="s">
+      <c r="C250" s="44"/>
+      <c r="D250" s="40"/>
+      <c r="E250" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" outlineLevel="1">
+      <c r="A251" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="B250" s="8"/>
-      <c r="C250" s="20"/>
-      <c r="D250" s="21"/>
-      <c r="E250" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6" outlineLevel="1">
-      <c r="A251" s="2"/>
-      <c r="B251" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="C251" s="44"/>
-      <c r="D251" s="5"/>
+      <c r="B251" s="8"/>
+      <c r="C251" s="20"/>
+      <c r="D251" s="46"/>
       <c r="E251" s="11" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="252" spans="1:6" s="43" customFormat="1" outlineLevel="1">
+    <row r="252" spans="1:6" outlineLevel="1">
       <c r="A252" s="2"/>
       <c r="B252" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C252" s="44"/>
+      <c r="D252" s="40"/>
+      <c r="E252" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" s="43" customFormat="1" outlineLevel="1">
+      <c r="A253" s="2"/>
+      <c r="B253" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C252" s="44"/>
-      <c r="D252" s="5"/>
-      <c r="E252" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="F252" s="49"/>
-    </row>
-    <row r="253" spans="1:6" outlineLevel="1">
-      <c r="A253" s="41" t="s">
+      <c r="C253" s="44"/>
+      <c r="D253" s="40"/>
+      <c r="E253" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="F253" s="49"/>
+    </row>
+    <row r="254" spans="1:6" outlineLevel="1">
+      <c r="A254" s="41" t="s">
         <v>900</v>
       </c>
-      <c r="B253" s="41"/>
-      <c r="C253" s="45"/>
-      <c r="D253" s="46"/>
-    </row>
-    <row r="254" spans="1:6" outlineLevel="1">
-      <c r="A254" s="2"/>
-      <c r="B254" s="2" t="s">
+      <c r="B254" s="41"/>
+      <c r="C254" s="45"/>
+      <c r="D254" s="46"/>
+    </row>
+    <row r="255" spans="1:6" outlineLevel="1">
+      <c r="A255" s="2"/>
+      <c r="B255" s="2" t="s">
         <v>902</v>
       </c>
-      <c r="C254" s="4" t="str">
+      <c r="C255" s="4" t="str">
         <f>"import glob"&amp;CHAR(10)&amp;"files = glob.glob(r""C:\Python25\*.*"")"</f>
         <v>import glob
 files = glob.glob(r"C:\Python25\*.*")</v>
       </c>
-      <c r="D254" s="5" t="s">
+      <c r="D255" s="40" t="s">
         <v>901</v>
       </c>
     </row>
-    <row r="255" spans="1:6" outlineLevel="1">
-      <c r="A255" s="2"/>
-      <c r="B255" s="2" t="s">
+    <row r="256" spans="1:6" outlineLevel="1">
+      <c r="A256" s="2"/>
+      <c r="B256" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="C255" s="4" t="str">
+      <c r="C256" s="4" t="str">
         <f>"# create file list. filetype selectable"&amp;CHAR(10)&amp;"#   0:both, 1:files, 2:directorys, other:none"&amp;CHAR(10)&amp;"def create_file_list(dirpath, filetype):"&amp;CHAR(10)&amp;"    for root, dirs, files in os.walk(dirpath):"&amp;CHAR(10)&amp;"        if filetype == 0 or filetype == 2:"&amp;CHAR(10)&amp;"            yield root.replace(""\\"", ""/"")"&amp;CHAR(10)&amp;"        if filetype == 0 or filetype == 1:"&amp;CHAR(10)&amp;"            for file in files:"&amp;CHAR(10)&amp;"                yield os.path.join(root, file).replace(""\\"", ""/"")"</f>
         <v># create file list. filetype selectable
 #   0:both, 1:files, 2:directorys, other:none
@@ -15567,75 +15621,79 @@
             for file in files:
                 yield os.path.join(root, file).replace("\\", "/")</v>
       </c>
-      <c r="D255" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6" outlineLevel="1">
-      <c r="A256" s="2"/>
-      <c r="B256" s="2"/>
-      <c r="C256" s="4"/>
-      <c r="D256" s="5"/>
+      <c r="D256" s="40" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="257" spans="1:4" outlineLevel="1">
       <c r="A257" s="2"/>
-      <c r="B257" s="2"/>
-      <c r="C257" s="10"/>
-      <c r="D257" s="5"/>
+      <c r="B257" s="2" t="s">
+        <v>981</v>
+      </c>
+      <c r="C257" s="4" t="s">
+        <v>982</v>
+      </c>
+      <c r="D257" s="40"/>
     </row>
     <row r="258" spans="1:4" outlineLevel="1">
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
       <c r="C258" s="10"/>
-      <c r="D258" s="5"/>
+      <c r="D258" s="40"/>
     </row>
     <row r="259" spans="1:4" outlineLevel="1">
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
       <c r="C259" s="10"/>
-      <c r="D259" s="5"/>
+      <c r="D259" s="40"/>
     </row>
     <row r="260" spans="1:4" outlineLevel="1">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="10"/>
-      <c r="D260" s="5"/>
+      <c r="D260" s="40"/>
     </row>
     <row r="261" spans="1:4" outlineLevel="1">
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
       <c r="C261" s="10"/>
-      <c r="D261" s="5"/>
+      <c r="D261" s="40"/>
     </row>
     <row r="262" spans="1:4" outlineLevel="1">
       <c r="A262" s="2"/>
       <c r="B262" s="2"/>
       <c r="C262" s="10"/>
-      <c r="D262" s="5"/>
+      <c r="D262" s="40"/>
     </row>
     <row r="263" spans="1:4" outlineLevel="1">
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
       <c r="C263" s="10"/>
-      <c r="D263" s="5"/>
+      <c r="D263" s="40"/>
     </row>
     <row r="264" spans="1:4" outlineLevel="1">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
       <c r="C264" s="10"/>
-      <c r="D264" s="5"/>
+      <c r="D264" s="40"/>
     </row>
     <row r="265" spans="1:4" outlineLevel="1">
       <c r="A265" s="2"/>
       <c r="B265" s="2"/>
       <c r="C265" s="10"/>
-      <c r="D265" s="5"/>
-    </row>
-    <row r="267" spans="1:4">
-      <c r="A267" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="B267" s="1" t="s">
+      <c r="D265" s="40"/>
+    </row>
+    <row r="266" spans="1:4" outlineLevel="1">
+      <c r="A266" s="2"/>
+      <c r="B266" s="2"/>
+      <c r="C266" s="10"/>
+      <c r="D266" s="40"/>
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B268" s="1" t="s">
         <v>122</v>
       </c>
     </row>
@@ -15653,11 +15711,11 @@
   </sheetPr>
   <dimension ref="A1:E88"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C26" sqref="C26"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.5" outlineLevelRow="1"/>

--- a/言語チートシート.xlsx
+++ b/言語チートシート.xlsx
@@ -9,9 +9,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79CEA8CC-77A5-469D-A9F4-5D58FC633577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F96E860-4A34-42DC-BEB7-D7475FCD7956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="-120" windowWidth="26940" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-32430" yWindow="-28485" windowWidth="32475" windowHeight="45030" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vbs,vba" sheetId="43" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">bat!$A$2:$D$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">python!$A$2:$D$253</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">python!$A$2:$D$262</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'vbs,vba'!$A$2:$E$2</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -147,7 +147,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2274" uniqueCount="983">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2323" uniqueCount="1034">
   <si>
     <t>変数強制定義</t>
   </si>
@@ -4235,6 +4235,395 @@
   </si>
   <si>
     <t>if __name__ == "__main__":</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>import re</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>('123, 987', '123', '987')</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>987</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>検索設定 パターンコンパイル</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>検索パターンを使いたい場合はコンパイルする</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>re.I</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>compile()やfindall()などの関数に引数として指定する</t>
+    <rPh sb="22" eb="24">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>検索設定 大小文字区別無視</t>
+    <rPh sb="5" eb="6">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>コモジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>クベツ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ムシ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>pattern = '((\d+), (\d+))'</t>
+  </si>
+  <si>
+    <t>patobj = re.compile(pattern, re.I)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>list型を返却</t>
+    <rPh sb="4" eb="5">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘンキャク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>matchlist = patobj.findall(targetstr)</t>
+  </si>
+  <si>
+    <t>matchlist = re.findall(pattern, targetstr)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>if matchlist:</t>
+  </si>
+  <si>
+    <t>len(matchlist)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>len(matchlist[0])</t>
+  </si>
+  <si>
+    <t>matchlist[0]</t>
+  </si>
+  <si>
+    <t>matchlist[0][2]</t>
+  </si>
+  <si>
+    <t>検索実行(list) コンパイルあり時</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>検索結果(list) マッチ有無判定</t>
+    <rPh sb="14" eb="16">
+      <t>ウム</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>検索結果(list) マッチ数取得</t>
+    <rPh sb="14" eb="15">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>検索結果(list) サブマッチ数取得</t>
+    <rPh sb="16" eb="17">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>検索結果(list) マッチ文字列取得</t>
+    <rPh sb="14" eb="17">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>検索結果(list) サブマッチ文字列取得</t>
+    <rPh sb="16" eb="19">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>検索実行(obj) コンパイルあり時</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>検索結果(obj) マッチ有無判定</t>
+    <rPh sb="13" eb="15">
+      <t>ウム</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>検索結果(obj) マッチ数取得</t>
+    <rPh sb="13" eb="14">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>検索結果(obj) サブマッチ数取得</t>
+    <rPh sb="15" eb="16">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>検索結果(obj) マッチ文字列取得</t>
+    <rPh sb="13" eb="16">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>検索結果(obj) サブマッチ文字列取得</t>
+    <rPh sb="15" eb="18">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>matchobj = re.search(pattern, targetstr)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>if matchobj:</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>matchobj = patobj.search(targetstr)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>matchobj.group()</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>matchobj.group(0)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>123, 987</t>
+  </si>
+  <si>
+    <t>123, 987</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>matchobj.start(3)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>matchobj.end(3)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>matchobj.group(3)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>5 (matchobj.group(3)の開始位置を返却)</t>
+    <rPh sb="21" eb="23">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヘンキャク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>targetstr = r'123, 987, ,adb, 433, end.'</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>8 (matchobj.group(3)の終了位置を返却)</t>
+    <rPh sb="21" eb="23">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>検索結果(obj) マッチ開始位置取得</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>検索結果(obj) マッチ終了位置取得</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>repstr = re.sub(pattern, "xxx", targetstr)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>検索実行(obj) コンパイルなし時</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>検索実行(list) コンパイルなし時</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>match:最初にマッチした文字列のみ返却(先頭のみ)、search:最初にマッチした文字列のみ返却(先頭以外も)</t>
+    <rPh sb="35" eb="37">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="43" eb="46">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ヘンキャク</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>セントウ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>イガイ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -4489,7 +4878,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
@@ -4660,6 +5049,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -5008,10 +5400,10 @@
   <dimension ref="A1:F382"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C176" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="B203" sqref="B203:B204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -12411,13 +12803,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F268"/>
+  <dimension ref="A1:F277"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="C183" sqref="C183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -14088,7 +14480,7 @@
       </c>
       <c r="F127" s="49"/>
     </row>
-    <row r="128" spans="1:6" outlineLevel="1">
+    <row r="128" spans="1:6">
       <c r="A128" s="45" t="s">
         <v>865</v>
       </c>
@@ -14492,7 +14884,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="161" spans="1:5" outlineLevel="1">
+    <row r="161" spans="1:6" outlineLevel="1">
       <c r="A161" s="2"/>
       <c r="B161" s="2" t="s">
         <v>22</v>
@@ -14503,7 +14895,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="162" spans="1:5" outlineLevel="1">
+    <row r="162" spans="1:6" outlineLevel="1">
       <c r="A162" s="2"/>
       <c r="B162" s="2" t="s">
         <v>23</v>
@@ -14514,7 +14906,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="163" spans="1:5" outlineLevel="1">
+    <row r="163" spans="1:6" outlineLevel="1">
       <c r="A163" s="2"/>
       <c r="B163" s="2" t="s">
         <v>24</v>
@@ -14525,7 +14917,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="164" spans="1:5" outlineLevel="1">
+    <row r="164" spans="1:6" outlineLevel="1">
       <c r="A164" s="2"/>
       <c r="B164" s="2" t="s">
         <v>25</v>
@@ -14536,7 +14928,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="165" spans="1:5" outlineLevel="1">
+    <row r="165" spans="1:6" outlineLevel="1">
       <c r="A165" s="2"/>
       <c r="B165" s="2" t="s">
         <v>26</v>
@@ -14547,7 +14939,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="166" spans="1:5" outlineLevel="1">
+    <row r="166" spans="1:6" outlineLevel="1">
       <c r="A166" s="2"/>
       <c r="B166" s="2" t="s">
         <v>27</v>
@@ -14558,7 +14950,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="167" spans="1:5" outlineLevel="1">
+    <row r="167" spans="1:6" outlineLevel="1">
       <c r="A167" s="2"/>
       <c r="B167" s="2" t="s">
         <v>28</v>
@@ -14569,7 +14961,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="168" spans="1:5" outlineLevel="1">
+    <row r="168" spans="1:6" outlineLevel="1">
       <c r="A168" s="2"/>
       <c r="B168" s="2" t="s">
         <v>29</v>
@@ -14580,7 +14972,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:6">
       <c r="A169" s="20" t="s">
         <v>483</v>
       </c>
@@ -14591,267 +14983,340 @@
         <v>122</v>
       </c>
     </row>
-    <row r="170" spans="1:5" outlineLevel="1">
+    <row r="170" spans="1:6" outlineLevel="1">
       <c r="A170" s="2"/>
       <c r="B170" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="C170" s="44"/>
+      <c r="C170" s="42" t="s">
+        <v>983</v>
+      </c>
       <c r="D170" s="40"/>
       <c r="E170" s="11" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="171" spans="1:5" outlineLevel="1">
-      <c r="A171" s="2"/>
-      <c r="B171" s="2" t="s">
+    <row r="171" spans="1:6" s="43" customFormat="1" outlineLevel="1">
+      <c r="A171" s="37"/>
+      <c r="B171" s="37" t="s">
         <v>474</v>
       </c>
-      <c r="C171" s="44"/>
+      <c r="C171" s="54" t="s">
+        <v>1026</v>
+      </c>
       <c r="D171" s="40"/>
-      <c r="E171" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" outlineLevel="1">
-      <c r="A172" s="2"/>
-      <c r="B172" s="2" t="s">
+      <c r="F171" s="49"/>
+    </row>
+    <row r="172" spans="1:6" s="43" customFormat="1" outlineLevel="1">
+      <c r="A172" s="37"/>
+      <c r="B172" s="37" t="s">
         <v>471</v>
       </c>
-      <c r="C172" s="44"/>
+      <c r="C172" s="42" t="s">
+        <v>993</v>
+      </c>
       <c r="D172" s="40"/>
-      <c r="E172" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" outlineLevel="1">
+      <c r="F172" s="49"/>
+    </row>
+    <row r="173" spans="1:6" outlineLevel="1">
       <c r="A173" s="2"/>
       <c r="B173" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="C173" s="44"/>
-      <c r="D173" s="40"/>
+        <v>992</v>
+      </c>
+      <c r="C173" s="42" t="s">
+        <v>990</v>
+      </c>
+      <c r="D173" s="40" t="s">
+        <v>991</v>
+      </c>
       <c r="E173" s="11" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="174" spans="1:5" outlineLevel="1">
-      <c r="A174" s="2"/>
-      <c r="B174" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="C174" s="44"/>
-      <c r="D174" s="40"/>
-      <c r="E174" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" outlineLevel="1">
-      <c r="A175" s="2"/>
-      <c r="B175" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="C175" s="44"/>
+    <row r="174" spans="1:6" s="43" customFormat="1" outlineLevel="1">
+      <c r="A174" s="37"/>
+      <c r="B174" s="37" t="s">
+        <v>988</v>
+      </c>
+      <c r="C174" s="42" t="s">
+        <v>994</v>
+      </c>
+      <c r="D174" s="40" t="s">
+        <v>989</v>
+      </c>
+      <c r="F174" s="49"/>
+    </row>
+    <row r="175" spans="1:6" s="43" customFormat="1" outlineLevel="1">
+      <c r="A175" s="37"/>
+      <c r="B175" s="37" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C175" s="54" t="s">
+        <v>996</v>
+      </c>
       <c r="D175" s="40"/>
-      <c r="E175" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" outlineLevel="1">
-      <c r="A176" s="2"/>
-      <c r="B176" s="2" t="s">
-        <v>738</v>
-      </c>
-      <c r="C176" s="44"/>
-      <c r="D176" s="40"/>
-      <c r="E176" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" outlineLevel="1">
-      <c r="A177" s="2"/>
-      <c r="B177" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="C177" s="44"/>
+      <c r="E175" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="F175" s="49"/>
+    </row>
+    <row r="176" spans="1:6" s="43" customFormat="1" outlineLevel="1">
+      <c r="A176" s="37"/>
+      <c r="B176" s="37" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C176" s="54" t="s">
+        <v>997</v>
+      </c>
+      <c r="D176" s="40" t="s">
+        <v>995</v>
+      </c>
+      <c r="E176" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="F176" s="49"/>
+    </row>
+    <row r="177" spans="1:6" s="43" customFormat="1" outlineLevel="1">
+      <c r="A177" s="37"/>
+      <c r="B177" s="37" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C177" s="42" t="s">
+        <v>998</v>
+      </c>
       <c r="D177" s="40"/>
-      <c r="E177" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" outlineLevel="1">
+      <c r="E177" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="F177" s="49"/>
+    </row>
+    <row r="178" spans="1:6" outlineLevel="1">
       <c r="A178" s="2"/>
       <c r="B178" s="2" t="s">
-        <v>740</v>
-      </c>
-      <c r="C178" s="44"/>
-      <c r="D178" s="40"/>
+        <v>1005</v>
+      </c>
+      <c r="C178" s="42" t="s">
+        <v>999</v>
+      </c>
+      <c r="D178" s="40" t="s">
+        <v>984</v>
+      </c>
       <c r="E178" s="11" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="179" spans="1:5" outlineLevel="1">
+    <row r="179" spans="1:6" outlineLevel="1">
       <c r="A179" s="2"/>
       <c r="B179" s="2" t="s">
-        <v>739</v>
-      </c>
-      <c r="C179" s="44"/>
-      <c r="D179" s="40"/>
+        <v>1006</v>
+      </c>
+      <c r="C179" s="42" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D179" s="40" t="s">
+        <v>985</v>
+      </c>
       <c r="E179" s="11" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="180" spans="1:5" outlineLevel="1">
+    <row r="180" spans="1:6" outlineLevel="1">
       <c r="A180" s="2"/>
       <c r="B180" s="2" t="s">
-        <v>730</v>
-      </c>
-      <c r="C180" s="44"/>
-      <c r="D180" s="40"/>
+        <v>1007</v>
+      </c>
+      <c r="C180" s="42" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D180" s="40" t="s">
+        <v>986</v>
+      </c>
       <c r="E180" s="11" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="181" spans="1:5" outlineLevel="1">
+    <row r="181" spans="1:6" outlineLevel="1">
       <c r="A181" s="2"/>
       <c r="B181" s="2" t="s">
-        <v>733</v>
-      </c>
-      <c r="C181" s="44"/>
-      <c r="D181" s="40"/>
+        <v>1008</v>
+      </c>
+      <c r="C181" s="42" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D181" s="40" t="s">
+        <v>987</v>
+      </c>
       <c r="E181" s="11" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="182" spans="1:5" outlineLevel="1">
-      <c r="A182" s="2"/>
-      <c r="B182" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="C182" s="44"/>
-      <c r="D182" s="40"/>
-      <c r="E182" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" outlineLevel="1">
-      <c r="A183" s="2"/>
-      <c r="B183" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="C183" s="44"/>
+    <row r="182" spans="1:6" s="43" customFormat="1" outlineLevel="1">
+      <c r="A182" s="37"/>
+      <c r="B182" s="37" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C182" s="54" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D182" s="40" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E182" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="F182" s="49"/>
+    </row>
+    <row r="183" spans="1:6" s="43" customFormat="1" outlineLevel="1">
+      <c r="A183" s="37"/>
+      <c r="B183" s="37" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C183" s="54" t="s">
+        <v>1015</v>
+      </c>
       <c r="D183" s="40"/>
-      <c r="E183" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5">
-      <c r="A184" s="20" t="s">
-        <v>866</v>
-      </c>
-      <c r="B184" s="8"/>
-      <c r="C184" s="8"/>
-      <c r="D184" s="46"/>
-      <c r="E184" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" outlineLevel="1">
-      <c r="A185" s="2"/>
-      <c r="B185" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C185" s="39" t="s">
-        <v>867</v>
-      </c>
-      <c r="E185" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" outlineLevel="1">
-      <c r="A186" s="2"/>
-      <c r="B186" s="2" t="s">
-        <v>37</v>
+      <c r="E183" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="F183" s="49"/>
+    </row>
+    <row r="184" spans="1:6" s="43" customFormat="1" outlineLevel="1">
+      <c r="A184" s="37"/>
+      <c r="B184" s="37" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C184" s="54" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D184" s="40"/>
+      <c r="E184" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="F184" s="49"/>
+    </row>
+    <row r="185" spans="1:6" s="43" customFormat="1" outlineLevel="1">
+      <c r="A185" s="37"/>
+      <c r="B185" s="37" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C185" s="44"/>
+      <c r="D185" s="57"/>
+      <c r="E185" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="F185" s="49"/>
+    </row>
+    <row r="186" spans="1:6" s="43" customFormat="1" outlineLevel="1">
+      <c r="A186" s="37"/>
+      <c r="B186" s="37" t="s">
+        <v>1012</v>
       </c>
       <c r="C186" s="44"/>
-      <c r="D186" s="40"/>
-      <c r="E186" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" outlineLevel="1">
-      <c r="A187" s="2"/>
-      <c r="B187" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C187" s="44"/>
-      <c r="D187" s="40"/>
-      <c r="E187" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" outlineLevel="1">
-      <c r="A188" s="2"/>
-      <c r="B188" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C188" s="44"/>
-      <c r="D188" s="40"/>
-      <c r="E188" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" outlineLevel="1">
-      <c r="A189" s="2"/>
-      <c r="B189" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="C189" s="44"/>
-      <c r="D189" s="40"/>
-      <c r="E189" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" outlineLevel="1">
+      <c r="D186" s="57"/>
+      <c r="E186" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="F186" s="49"/>
+    </row>
+    <row r="187" spans="1:6" s="43" customFormat="1" outlineLevel="1">
+      <c r="A187" s="37"/>
+      <c r="B187" s="37" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C187" s="42" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D187" s="40" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E187" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="F187" s="49"/>
+    </row>
+    <row r="188" spans="1:6" s="43" customFormat="1" outlineLevel="1">
+      <c r="A188" s="37"/>
+      <c r="B188" s="37" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C188" s="42" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D188" s="40" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E188" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="F188" s="49"/>
+    </row>
+    <row r="189" spans="1:6" s="43" customFormat="1" outlineLevel="1">
+      <c r="A189" s="37"/>
+      <c r="B189" s="37" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C189" s="42" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D189" s="40" t="s">
+        <v>987</v>
+      </c>
+      <c r="E189" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="F189" s="49"/>
+    </row>
+    <row r="190" spans="1:6" outlineLevel="1">
       <c r="A190" s="2"/>
       <c r="B190" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="C190" s="44"/>
-      <c r="D190" s="40"/>
+        <v>1028</v>
+      </c>
+      <c r="C190" s="42" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D190" s="40" t="s">
+        <v>1025</v>
+      </c>
       <c r="E190" s="11" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="191" spans="1:5" outlineLevel="1">
-      <c r="A191" s="2"/>
-      <c r="B191" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C191" s="44"/>
-      <c r="D191" s="40"/>
-      <c r="E191" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" outlineLevel="1">
+    <row r="191" spans="1:6" s="43" customFormat="1" outlineLevel="1">
+      <c r="A191" s="37"/>
+      <c r="B191" s="37" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C191" s="42" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D191" s="40" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E191" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="F191" s="49"/>
+    </row>
+    <row r="192" spans="1:6" outlineLevel="1">
       <c r="A192" s="2"/>
       <c r="B192" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C192" s="44"/>
+        <v>470</v>
+      </c>
+      <c r="C192" s="42" t="s">
+        <v>1030</v>
+      </c>
       <c r="D192" s="40"/>
       <c r="E192" s="11" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="193" spans="1:5" outlineLevel="1">
-      <c r="A193" s="2"/>
-      <c r="B193" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C193" s="44"/>
-      <c r="D193" s="40"/>
+    <row r="193" spans="1:5">
+      <c r="A193" s="20" t="s">
+        <v>866</v>
+      </c>
+      <c r="B193" s="8"/>
+      <c r="C193" s="8"/>
+      <c r="D193" s="46"/>
       <c r="E193" s="11" t="s">
         <v>122</v>
       </c>
@@ -14859,10 +15324,11 @@
     <row r="194" spans="1:5" outlineLevel="1">
       <c r="A194" s="2"/>
       <c r="B194" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C194" s="44"/>
-      <c r="D194" s="40"/>
+        <v>36</v>
+      </c>
+      <c r="C194" s="39" t="s">
+        <v>867</v>
+      </c>
       <c r="E194" s="11" t="s">
         <v>122</v>
       </c>
@@ -14870,7 +15336,7 @@
     <row r="195" spans="1:5" outlineLevel="1">
       <c r="A195" s="2"/>
       <c r="B195" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C195" s="44"/>
       <c r="D195" s="40"/>
@@ -14881,7 +15347,7 @@
     <row r="196" spans="1:5" outlineLevel="1">
       <c r="A196" s="2"/>
       <c r="B196" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C196" s="44"/>
       <c r="D196" s="40"/>
@@ -14892,7 +15358,7 @@
     <row r="197" spans="1:5" outlineLevel="1">
       <c r="A197" s="2"/>
       <c r="B197" s="2" t="s">
-        <v>138</v>
+        <v>39</v>
       </c>
       <c r="C197" s="44"/>
       <c r="D197" s="40"/>
@@ -14903,7 +15369,7 @@
     <row r="198" spans="1:5" outlineLevel="1">
       <c r="A198" s="2"/>
       <c r="B198" s="2" t="s">
-        <v>139</v>
+        <v>379</v>
       </c>
       <c r="C198" s="44"/>
       <c r="D198" s="40"/>
@@ -14914,7 +15380,7 @@
     <row r="199" spans="1:5" outlineLevel="1">
       <c r="A199" s="2"/>
       <c r="B199" s="2" t="s">
-        <v>351</v>
+        <v>394</v>
       </c>
       <c r="C199" s="44"/>
       <c r="D199" s="40"/>
@@ -14923,8 +15389,9 @@
       </c>
     </row>
     <row r="200" spans="1:5" outlineLevel="1">
+      <c r="A200" s="2"/>
       <c r="B200" s="2" t="s">
-        <v>393</v>
+        <v>40</v>
       </c>
       <c r="C200" s="44"/>
       <c r="D200" s="40"/>
@@ -14935,7 +15402,7 @@
     <row r="201" spans="1:5" outlineLevel="1">
       <c r="A201" s="2"/>
       <c r="B201" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C201" s="44"/>
       <c r="D201" s="40"/>
@@ -14946,7 +15413,7 @@
     <row r="202" spans="1:5" outlineLevel="1">
       <c r="A202" s="2"/>
       <c r="B202" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C202" s="44"/>
       <c r="D202" s="40"/>
@@ -14957,7 +15424,7 @@
     <row r="203" spans="1:5" outlineLevel="1">
       <c r="A203" s="2"/>
       <c r="B203" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C203" s="44"/>
       <c r="D203" s="40"/>
@@ -14968,7 +15435,7 @@
     <row r="204" spans="1:5" outlineLevel="1">
       <c r="A204" s="2"/>
       <c r="B204" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C204" s="44"/>
       <c r="D204" s="40"/>
@@ -14979,7 +15446,7 @@
     <row r="205" spans="1:5" outlineLevel="1">
       <c r="A205" s="2"/>
       <c r="B205" s="2" t="s">
-        <v>147</v>
+        <v>45</v>
       </c>
       <c r="C205" s="44"/>
       <c r="D205" s="40"/>
@@ -14990,7 +15457,7 @@
     <row r="206" spans="1:5" outlineLevel="1">
       <c r="A206" s="2"/>
       <c r="B206" s="2" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="C206" s="44"/>
       <c r="D206" s="40"/>
@@ -15001,7 +15468,7 @@
     <row r="207" spans="1:5" outlineLevel="1">
       <c r="A207" s="2"/>
       <c r="B207" s="2" t="s">
-        <v>50</v>
+        <v>139</v>
       </c>
       <c r="C207" s="44"/>
       <c r="D207" s="40"/>
@@ -15012,7 +15479,7 @@
     <row r="208" spans="1:5" outlineLevel="1">
       <c r="A208" s="2"/>
       <c r="B208" s="2" t="s">
-        <v>51</v>
+        <v>351</v>
       </c>
       <c r="C208" s="44"/>
       <c r="D208" s="40"/>
@@ -15020,10 +15487,9 @@
         <v>122</v>
       </c>
     </row>
-    <row r="209" spans="1:6" outlineLevel="1">
-      <c r="A209" s="2"/>
+    <row r="209" spans="1:5" outlineLevel="1">
       <c r="B209" s="2" t="s">
-        <v>52</v>
+        <v>393</v>
       </c>
       <c r="C209" s="44"/>
       <c r="D209" s="40"/>
@@ -15031,10 +15497,10 @@
         <v>122</v>
       </c>
     </row>
-    <row r="210" spans="1:6" outlineLevel="1">
+    <row r="210" spans="1:5" outlineLevel="1">
       <c r="A210" s="2"/>
       <c r="B210" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C210" s="44"/>
       <c r="D210" s="40"/>
@@ -15042,10 +15508,10 @@
         <v>122</v>
       </c>
     </row>
-    <row r="211" spans="1:6" outlineLevel="1">
+    <row r="211" spans="1:5" outlineLevel="1">
       <c r="A211" s="2"/>
       <c r="B211" s="2" t="s">
-        <v>728</v>
+        <v>47</v>
       </c>
       <c r="C211" s="44"/>
       <c r="D211" s="40"/>
@@ -15053,10 +15519,10 @@
         <v>122</v>
       </c>
     </row>
-    <row r="212" spans="1:6" outlineLevel="1">
+    <row r="212" spans="1:5" outlineLevel="1">
       <c r="A212" s="2"/>
       <c r="B212" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C212" s="44"/>
       <c r="D212" s="40"/>
@@ -15064,10 +15530,10 @@
         <v>122</v>
       </c>
     </row>
-    <row r="213" spans="1:6" outlineLevel="1">
+    <row r="213" spans="1:5" outlineLevel="1">
       <c r="A213" s="2"/>
       <c r="B213" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C213" s="44"/>
       <c r="D213" s="40"/>
@@ -15075,10 +15541,10 @@
         <v>122</v>
       </c>
     </row>
-    <row r="214" spans="1:6" outlineLevel="1">
+    <row r="214" spans="1:5" outlineLevel="1">
       <c r="A214" s="2"/>
       <c r="B214" s="2" t="s">
-        <v>55</v>
+        <v>147</v>
       </c>
       <c r="C214" s="44"/>
       <c r="D214" s="40"/>
@@ -15086,10 +15552,10 @@
         <v>122</v>
       </c>
     </row>
-    <row r="215" spans="1:6" outlineLevel="1">
+    <row r="215" spans="1:5" outlineLevel="1">
       <c r="A215" s="2"/>
       <c r="B215" s="2" t="s">
-        <v>57</v>
+        <v>148</v>
       </c>
       <c r="C215" s="44"/>
       <c r="D215" s="40"/>
@@ -15097,48 +15563,43 @@
         <v>122</v>
       </c>
     </row>
-    <row r="216" spans="1:6" s="43" customFormat="1" outlineLevel="1">
+    <row r="216" spans="1:5" outlineLevel="1">
       <c r="A216" s="2"/>
       <c r="B216" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C216" s="44"/>
       <c r="D216" s="40"/>
-      <c r="E216" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="F216" s="49"/>
-    </row>
-    <row r="217" spans="1:6" outlineLevel="1">
-      <c r="A217" s="37"/>
-      <c r="B217" s="37" t="s">
-        <v>868</v>
-      </c>
-      <c r="C217" s="42" t="s">
-        <v>870</v>
-      </c>
+      <c r="E216" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" outlineLevel="1">
+      <c r="A217" s="2"/>
+      <c r="B217" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C217" s="44"/>
       <c r="D217" s="40"/>
       <c r="E217" s="11" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="218" spans="1:6" outlineLevel="1">
+    <row r="218" spans="1:5" outlineLevel="1">
       <c r="A218" s="2"/>
       <c r="B218" s="2" t="s">
-        <v>869</v>
-      </c>
-      <c r="C218" s="42" t="s">
-        <v>871</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="C218" s="44"/>
       <c r="D218" s="40"/>
       <c r="E218" s="11" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="219" spans="1:6" outlineLevel="1">
+    <row r="219" spans="1:5" outlineLevel="1">
       <c r="A219" s="2"/>
       <c r="B219" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C219" s="44"/>
       <c r="D219" s="40"/>
@@ -15146,10 +15607,10 @@
         <v>122</v>
       </c>
     </row>
-    <row r="220" spans="1:6" outlineLevel="1">
+    <row r="220" spans="1:5" outlineLevel="1">
       <c r="A220" s="2"/>
       <c r="B220" s="2" t="s">
-        <v>61</v>
+        <v>728</v>
       </c>
       <c r="C220" s="44"/>
       <c r="D220" s="40"/>
@@ -15157,10 +15618,10 @@
         <v>122</v>
       </c>
     </row>
-    <row r="221" spans="1:6" outlineLevel="1">
+    <row r="221" spans="1:5" outlineLevel="1">
       <c r="A221" s="2"/>
       <c r="B221" s="2" t="s">
-        <v>390</v>
+        <v>56</v>
       </c>
       <c r="C221" s="44"/>
       <c r="D221" s="40"/>
@@ -15168,10 +15629,10 @@
         <v>122</v>
       </c>
     </row>
-    <row r="222" spans="1:6" outlineLevel="1">
+    <row r="222" spans="1:5" outlineLevel="1">
       <c r="A222" s="2"/>
       <c r="B222" s="2" t="s">
-        <v>391</v>
+        <v>54</v>
       </c>
       <c r="C222" s="44"/>
       <c r="D222" s="40"/>
@@ -15179,156 +15640,132 @@
         <v>122</v>
       </c>
     </row>
-    <row r="223" spans="1:6" s="43" customFormat="1">
-      <c r="A223" s="7"/>
+    <row r="223" spans="1:5" outlineLevel="1">
+      <c r="A223" s="2"/>
       <c r="B223" s="2" t="s">
-        <v>341</v>
+        <v>55</v>
       </c>
       <c r="C223" s="44"/>
       <c r="D223" s="40"/>
-      <c r="E223" s="43" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" s="43" customFormat="1">
-      <c r="A224" s="37"/>
-      <c r="B224" s="37" t="s">
+      <c r="E223" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" outlineLevel="1">
+      <c r="A224" s="2"/>
+      <c r="B224" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C224" s="44"/>
+      <c r="D224" s="40"/>
+      <c r="E224" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" s="43" customFormat="1" outlineLevel="1">
+      <c r="A225" s="2"/>
+      <c r="B225" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C225" s="44"/>
+      <c r="D225" s="40"/>
+      <c r="E225" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="F225" s="49"/>
+    </row>
+    <row r="226" spans="1:6" outlineLevel="1">
+      <c r="A226" s="37"/>
+      <c r="B226" s="37" t="s">
+        <v>868</v>
+      </c>
+      <c r="C226" s="42" t="s">
+        <v>870</v>
+      </c>
+      <c r="D226" s="40"/>
+      <c r="E226" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" outlineLevel="1">
+      <c r="A227" s="2"/>
+      <c r="B227" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="C227" s="42" t="s">
+        <v>871</v>
+      </c>
+      <c r="D227" s="40"/>
+      <c r="E227" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" outlineLevel="1">
+      <c r="A228" s="2"/>
+      <c r="B228" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C228" s="44"/>
+      <c r="D228" s="40"/>
+      <c r="E228" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" outlineLevel="1">
+      <c r="A229" s="2"/>
+      <c r="B229" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C229" s="44"/>
+      <c r="D229" s="40"/>
+      <c r="E229" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" outlineLevel="1">
+      <c r="A230" s="2"/>
+      <c r="B230" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C230" s="44"/>
+      <c r="D230" s="40"/>
+      <c r="E230" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" outlineLevel="1">
+      <c r="A231" s="2"/>
+      <c r="B231" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="C231" s="44"/>
+      <c r="D231" s="40"/>
+      <c r="E231" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" s="43" customFormat="1" outlineLevel="1">
+      <c r="A232" s="7"/>
+      <c r="B232" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C232" s="44"/>
+      <c r="D232" s="40"/>
+      <c r="E232" s="43" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" s="43" customFormat="1" outlineLevel="1">
+      <c r="A233" s="37"/>
+      <c r="B233" s="37" t="s">
         <v>890</v>
       </c>
-      <c r="C224" s="42" t="s">
+      <c r="C233" s="42" t="s">
         <v>896</v>
       </c>
-      <c r="D224" s="40" t="s">
+      <c r="D233" s="40" t="s">
         <v>894</v>
       </c>
-      <c r="E224" s="43" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" s="43" customFormat="1" outlineLevel="1">
-      <c r="A225" s="37"/>
-      <c r="B225" s="37" t="s">
-        <v>891</v>
-      </c>
-      <c r="C225" s="42" t="s">
-        <v>897</v>
-      </c>
-      <c r="D225" s="40" t="s">
-        <v>895</v>
-      </c>
-      <c r="E225" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="F225" s="49"/>
-    </row>
-    <row r="226" spans="1:6" s="43" customFormat="1" outlineLevel="1">
-      <c r="A226" s="7"/>
-      <c r="B226" s="37" t="s">
-        <v>903</v>
-      </c>
-      <c r="C226" s="42" t="s">
-        <v>904</v>
-      </c>
-      <c r="D226" s="40" t="s">
-        <v>905</v>
-      </c>
-      <c r="E226" s="43" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" s="43" customFormat="1" outlineLevel="1">
-      <c r="A227" s="45" t="s">
-        <v>872</v>
-      </c>
-      <c r="B227" s="41"/>
-      <c r="C227" s="41"/>
-      <c r="D227" s="46"/>
-      <c r="E227" s="43" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" s="43" customFormat="1" outlineLevel="1">
-      <c r="A228" s="37"/>
-      <c r="B228" s="37" t="s">
-        <v>873</v>
-      </c>
-      <c r="C228" s="42" t="s">
-        <v>968</v>
-      </c>
-      <c r="D228" s="52" t="s">
-        <v>972</v>
-      </c>
-      <c r="E228" s="53" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" s="43" customFormat="1" outlineLevel="1">
-      <c r="A229" s="37"/>
-      <c r="B229" s="37" t="s">
-        <v>874</v>
-      </c>
-      <c r="C229" s="42" t="s">
-        <v>969</v>
-      </c>
-      <c r="D229" s="35" t="s">
-        <v>973</v>
-      </c>
-      <c r="E229" s="43" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" s="43" customFormat="1" outlineLevel="1">
-      <c r="A230" s="37"/>
-      <c r="B230" s="37" t="s">
-        <v>875</v>
-      </c>
-      <c r="C230" s="42" t="s">
-        <v>970</v>
-      </c>
-      <c r="D230" s="35" t="s">
-        <v>971</v>
-      </c>
-      <c r="E230" s="43" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" s="43" customFormat="1" outlineLevel="1">
-      <c r="A231" s="37"/>
-      <c r="B231" s="37" t="s">
-        <v>876</v>
-      </c>
-      <c r="C231" s="42" t="s">
-        <v>974</v>
-      </c>
-      <c r="D231" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="E231" s="43" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" s="43" customFormat="1" outlineLevel="1">
-      <c r="A232" s="37"/>
-      <c r="B232" s="37" t="s">
-        <v>877</v>
-      </c>
-      <c r="C232" s="42" t="s">
-        <v>975</v>
-      </c>
-      <c r="D232" s="35" t="s">
-        <v>976</v>
-      </c>
-      <c r="E232" s="43" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" s="43" customFormat="1" outlineLevel="1">
-      <c r="A233" s="45" t="s">
-        <v>878</v>
-      </c>
-      <c r="B233" s="41"/>
-      <c r="C233" s="41"/>
-      <c r="D233" s="46"/>
       <c r="E233" s="43" t="s">
         <v>122</v>
       </c>
@@ -15336,225 +15773,248 @@
     <row r="234" spans="1:6" s="43" customFormat="1" outlineLevel="1">
       <c r="A234" s="37"/>
       <c r="B234" s="37" t="s">
-        <v>879</v>
+        <v>891</v>
       </c>
       <c r="C234" s="42" t="s">
-        <v>883</v>
-      </c>
-      <c r="D234" s="35"/>
+        <v>897</v>
+      </c>
+      <c r="D234" s="40" t="s">
+        <v>895</v>
+      </c>
       <c r="E234" s="43" t="s">
         <v>122</v>
       </c>
+      <c r="F234" s="49"/>
     </row>
     <row r="235" spans="1:6" s="43" customFormat="1" outlineLevel="1">
-      <c r="A235" s="37"/>
+      <c r="A235" s="7"/>
       <c r="B235" s="37" t="s">
-        <v>880</v>
+        <v>903</v>
       </c>
       <c r="C235" s="42" t="s">
-        <v>884</v>
-      </c>
-      <c r="D235" s="35"/>
+        <v>904</v>
+      </c>
+      <c r="D235" s="40" t="s">
+        <v>905</v>
+      </c>
       <c r="E235" s="43" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="236" spans="1:6" s="43" customFormat="1" outlineLevel="1">
-      <c r="A236" s="37"/>
-      <c r="B236" s="37" t="s">
-        <v>881</v>
-      </c>
-      <c r="C236" s="42" t="s">
-        <v>885</v>
-      </c>
-      <c r="D236" s="35"/>
+    <row r="236" spans="1:6" s="43" customFormat="1">
+      <c r="A236" s="45" t="s">
+        <v>872</v>
+      </c>
+      <c r="B236" s="41"/>
+      <c r="C236" s="41"/>
+      <c r="D236" s="46"/>
       <c r="E236" s="43" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="237" spans="1:6">
+    <row r="237" spans="1:6" s="43" customFormat="1" outlineLevel="1">
       <c r="A237" s="37"/>
       <c r="B237" s="37" t="s">
-        <v>882</v>
+        <v>873</v>
       </c>
       <c r="C237" s="42" t="s">
-        <v>887</v>
-      </c>
-      <c r="D237" s="35" t="s">
-        <v>886</v>
-      </c>
-      <c r="E237" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="F237" s="43"/>
-    </row>
-    <row r="238" spans="1:6" outlineLevel="1">
-      <c r="A238" s="2"/>
+        <v>968</v>
+      </c>
+      <c r="D237" s="52" t="s">
+        <v>972</v>
+      </c>
+      <c r="E237" s="53" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" s="43" customFormat="1" outlineLevel="1">
+      <c r="A238" s="37"/>
       <c r="B238" s="37" t="s">
-        <v>893</v>
+        <v>874</v>
       </c>
       <c r="C238" s="42" t="s">
-        <v>888</v>
-      </c>
-      <c r="D238" s="40" t="s">
-        <v>889</v>
-      </c>
-      <c r="E238" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="F238" s="43"/>
-    </row>
-    <row r="239" spans="1:6" s="43" customFormat="1">
-      <c r="A239" s="20" t="s">
-        <v>899</v>
-      </c>
-      <c r="B239" s="8"/>
-      <c r="C239" s="20"/>
-      <c r="D239" s="46"/>
+        <v>969</v>
+      </c>
+      <c r="D238" s="35" t="s">
+        <v>973</v>
+      </c>
+      <c r="E238" s="43" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" s="43" customFormat="1" outlineLevel="1">
+      <c r="A239" s="37"/>
+      <c r="B239" s="37" t="s">
+        <v>875</v>
+      </c>
+      <c r="C239" s="42" t="s">
+        <v>970</v>
+      </c>
+      <c r="D239" s="35" t="s">
+        <v>971</v>
+      </c>
       <c r="E239" s="43" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="240" spans="1:6" outlineLevel="1">
+    <row r="240" spans="1:6" s="43" customFormat="1" outlineLevel="1">
       <c r="A240" s="37"/>
       <c r="B240" s="37" t="s">
-        <v>892</v>
+        <v>876</v>
       </c>
       <c r="C240" s="42" t="s">
-        <v>898</v>
-      </c>
-      <c r="D240" s="40" t="s">
-        <v>889</v>
-      </c>
-      <c r="E240" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="F240" s="43"/>
-    </row>
-    <row r="241" spans="1:6" outlineLevel="1">
-      <c r="A241" s="2"/>
-      <c r="B241" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C241" s="44"/>
-      <c r="D241" s="40"/>
-      <c r="E241" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="F241" s="43"/>
-    </row>
-    <row r="242" spans="1:6" outlineLevel="1">
-      <c r="A242" s="2"/>
-      <c r="B242" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C242" s="44"/>
-      <c r="D242" s="40"/>
-      <c r="E242" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6" outlineLevel="1">
-      <c r="A243" s="2"/>
-      <c r="B243" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C243" s="44"/>
-      <c r="D243" s="40"/>
-      <c r="E243" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6" outlineLevel="1">
-      <c r="A244" s="2"/>
-      <c r="B244" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C244" s="44"/>
-      <c r="D244" s="40"/>
-      <c r="E244" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6" outlineLevel="1">
-      <c r="A245" s="2"/>
-      <c r="B245" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C245" s="44"/>
-      <c r="D245" s="40"/>
-      <c r="E245" s="11" t="s">
+        <v>974</v>
+      </c>
+      <c r="D240" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="E240" s="43" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" s="43" customFormat="1" outlineLevel="1">
+      <c r="A241" s="37"/>
+      <c r="B241" s="37" t="s">
+        <v>877</v>
+      </c>
+      <c r="C241" s="42" t="s">
+        <v>975</v>
+      </c>
+      <c r="D241" s="35" t="s">
+        <v>976</v>
+      </c>
+      <c r="E241" s="43" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" s="43" customFormat="1">
+      <c r="A242" s="45" t="s">
+        <v>878</v>
+      </c>
+      <c r="B242" s="41"/>
+      <c r="C242" s="41"/>
+      <c r="D242" s="46"/>
+      <c r="E242" s="43" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" s="43" customFormat="1" outlineLevel="1">
+      <c r="A243" s="37"/>
+      <c r="B243" s="37" t="s">
+        <v>879</v>
+      </c>
+      <c r="C243" s="42" t="s">
+        <v>883</v>
+      </c>
+      <c r="D243" s="35"/>
+      <c r="E243" s="43" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" s="43" customFormat="1" outlineLevel="1">
+      <c r="A244" s="37"/>
+      <c r="B244" s="37" t="s">
+        <v>880</v>
+      </c>
+      <c r="C244" s="42" t="s">
+        <v>884</v>
+      </c>
+      <c r="D244" s="35"/>
+      <c r="E244" s="43" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" s="43" customFormat="1" outlineLevel="1">
+      <c r="A245" s="37"/>
+      <c r="B245" s="37" t="s">
+        <v>881</v>
+      </c>
+      <c r="C245" s="42" t="s">
+        <v>885</v>
+      </c>
+      <c r="D245" s="35"/>
+      <c r="E245" s="43" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="246" spans="1:6" outlineLevel="1">
-      <c r="A246" s="2"/>
-      <c r="B246" s="3" t="s">
-        <v>13</v>
+      <c r="A246" s="37"/>
+      <c r="B246" s="37" t="s">
+        <v>882</v>
       </c>
       <c r="C246" s="42" t="s">
-        <v>946</v>
-      </c>
-      <c r="D246" s="40"/>
+        <v>887</v>
+      </c>
+      <c r="D246" s="35" t="s">
+        <v>886</v>
+      </c>
       <c r="E246" s="11" t="s">
         <v>122</v>
       </c>
+      <c r="F246" s="43"/>
     </row>
     <row r="247" spans="1:6" outlineLevel="1">
       <c r="A247" s="2"/>
-      <c r="B247" s="2" t="s">
-        <v>724</v>
+      <c r="B247" s="37" t="s">
+        <v>893</v>
       </c>
       <c r="C247" s="42" t="s">
-        <v>947</v>
+        <v>888</v>
       </c>
       <c r="D247" s="40" t="s">
-        <v>948</v>
+        <v>889</v>
       </c>
       <c r="E247" s="11" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="248" spans="1:6" outlineLevel="1">
-      <c r="A248" s="2"/>
-      <c r="B248" s="2" t="s">
-        <v>723</v>
-      </c>
-      <c r="C248" s="44"/>
-      <c r="D248" s="40"/>
-      <c r="E248" s="11" t="s">
+      <c r="F247" s="43"/>
+    </row>
+    <row r="248" spans="1:6" s="43" customFormat="1">
+      <c r="A248" s="20" t="s">
+        <v>899</v>
+      </c>
+      <c r="B248" s="8"/>
+      <c r="C248" s="20"/>
+      <c r="D248" s="46"/>
+      <c r="E248" s="43" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="249" spans="1:6" outlineLevel="1">
-      <c r="A249" s="8" t="s">
-        <v>395</v>
-      </c>
-      <c r="B249" s="8"/>
-      <c r="C249" s="20"/>
-      <c r="D249" s="46"/>
+      <c r="A249" s="37"/>
+      <c r="B249" s="37" t="s">
+        <v>892</v>
+      </c>
+      <c r="C249" s="42" t="s">
+        <v>898</v>
+      </c>
+      <c r="D249" s="40" t="s">
+        <v>889</v>
+      </c>
       <c r="E249" s="11" t="s">
         <v>122</v>
       </c>
+      <c r="F249" s="43"/>
     </row>
     <row r="250" spans="1:6" outlineLevel="1">
       <c r="A250" s="2"/>
       <c r="B250" s="2" t="s">
-        <v>389</v>
+        <v>116</v>
       </c>
       <c r="C250" s="44"/>
       <c r="D250" s="40"/>
       <c r="E250" s="11" t="s">
         <v>122</v>
       </c>
+      <c r="F250" s="43"/>
     </row>
     <row r="251" spans="1:6" outlineLevel="1">
-      <c r="A251" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="B251" s="8"/>
-      <c r="C251" s="20"/>
-      <c r="D251" s="46"/>
+      <c r="A251" s="2"/>
+      <c r="B251" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C251" s="44"/>
+      <c r="D251" s="40"/>
       <c r="E251" s="11" t="s">
         <v>122</v>
       </c>
@@ -15562,7 +16022,7 @@
     <row r="252" spans="1:6" outlineLevel="1">
       <c r="A252" s="2"/>
       <c r="B252" s="2" t="s">
-        <v>252</v>
+        <v>118</v>
       </c>
       <c r="C252" s="44"/>
       <c r="D252" s="40"/>
@@ -15570,46 +16030,151 @@
         <v>122</v>
       </c>
     </row>
-    <row r="253" spans="1:6" s="43" customFormat="1" outlineLevel="1">
+    <row r="253" spans="1:6" outlineLevel="1">
       <c r="A253" s="2"/>
       <c r="B253" s="2" t="s">
-        <v>253</v>
+        <v>119</v>
       </c>
       <c r="C253" s="44"/>
       <c r="D253" s="40"/>
-      <c r="E253" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="F253" s="49"/>
+      <c r="E253" s="11" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="254" spans="1:6" outlineLevel="1">
-      <c r="A254" s="41" t="s">
-        <v>900</v>
-      </c>
-      <c r="B254" s="41"/>
-      <c r="C254" s="45"/>
-      <c r="D254" s="46"/>
+      <c r="A254" s="2"/>
+      <c r="B254" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C254" s="44"/>
+      <c r="D254" s="40"/>
+      <c r="E254" s="11" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="255" spans="1:6" outlineLevel="1">
       <c r="A255" s="2"/>
-      <c r="B255" s="2" t="s">
+      <c r="B255" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C255" s="42" t="s">
+        <v>946</v>
+      </c>
+      <c r="D255" s="40"/>
+      <c r="E255" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" outlineLevel="1">
+      <c r="A256" s="2"/>
+      <c r="B256" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="C256" s="42" t="s">
+        <v>947</v>
+      </c>
+      <c r="D256" s="40" t="s">
+        <v>948</v>
+      </c>
+      <c r="E256" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" outlineLevel="1">
+      <c r="A257" s="2"/>
+      <c r="B257" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="C257" s="44"/>
+      <c r="D257" s="40"/>
+      <c r="E257" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6">
+      <c r="A258" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="B258" s="8"/>
+      <c r="C258" s="20"/>
+      <c r="D258" s="46"/>
+      <c r="E258" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" outlineLevel="1">
+      <c r="A259" s="2"/>
+      <c r="B259" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C259" s="44"/>
+      <c r="D259" s="40"/>
+      <c r="E259" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6">
+      <c r="A260" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="B260" s="8"/>
+      <c r="C260" s="20"/>
+      <c r="D260" s="46"/>
+      <c r="E260" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" outlineLevel="1">
+      <c r="A261" s="2"/>
+      <c r="B261" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C261" s="44"/>
+      <c r="D261" s="40"/>
+      <c r="E261" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" s="43" customFormat="1" outlineLevel="1">
+      <c r="A262" s="2"/>
+      <c r="B262" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C262" s="44"/>
+      <c r="D262" s="40"/>
+      <c r="E262" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="F262" s="49"/>
+    </row>
+    <row r="263" spans="1:6">
+      <c r="A263" s="41" t="s">
+        <v>900</v>
+      </c>
+      <c r="B263" s="41"/>
+      <c r="C263" s="45"/>
+      <c r="D263" s="46"/>
+    </row>
+    <row r="264" spans="1:6" outlineLevel="1">
+      <c r="A264" s="2"/>
+      <c r="B264" s="2" t="s">
         <v>902</v>
       </c>
-      <c r="C255" s="4" t="str">
+      <c r="C264" s="4" t="str">
         <f>"import glob"&amp;CHAR(10)&amp;"files = glob.glob(r""C:\Python25\*.*"")"</f>
         <v>import glob
 files = glob.glob(r"C:\Python25\*.*")</v>
       </c>
-      <c r="D255" s="40" t="s">
+      <c r="D264" s="40" t="s">
         <v>901</v>
       </c>
     </row>
-    <row r="256" spans="1:6" outlineLevel="1">
-      <c r="A256" s="2"/>
-      <c r="B256" s="2" t="s">
+    <row r="265" spans="1:6" outlineLevel="1">
+      <c r="A265" s="2"/>
+      <c r="B265" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="C256" s="4" t="str">
+      <c r="C265" s="4" t="str">
         <f>"# create file list. filetype selectable"&amp;CHAR(10)&amp;"#   0:both, 1:files, 2:directorys, other:none"&amp;CHAR(10)&amp;"def create_file_list(dirpath, filetype):"&amp;CHAR(10)&amp;"    for root, dirs, files in os.walk(dirpath):"&amp;CHAR(10)&amp;"        if filetype == 0 or filetype == 2:"&amp;CHAR(10)&amp;"            yield root.replace(""\\"", ""/"")"&amp;CHAR(10)&amp;"        if filetype == 0 or filetype == 1:"&amp;CHAR(10)&amp;"            for file in files:"&amp;CHAR(10)&amp;"                yield os.path.join(root, file).replace(""\\"", ""/"")"</f>
         <v># create file list. filetype selectable
 #   0:both, 1:files, 2:directorys, other:none
@@ -15621,79 +16186,79 @@
             for file in files:
                 yield os.path.join(root, file).replace("\\", "/")</v>
       </c>
-      <c r="D256" s="40" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" outlineLevel="1">
-      <c r="A257" s="2"/>
-      <c r="B257" s="2" t="s">
+      <c r="D265" s="40" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" outlineLevel="1">
+      <c r="A266" s="2"/>
+      <c r="B266" s="2" t="s">
         <v>981</v>
       </c>
-      <c r="C257" s="4" t="s">
+      <c r="C266" s="4" t="s">
         <v>982</v>
       </c>
-      <c r="D257" s="40"/>
-    </row>
-    <row r="258" spans="1:4" outlineLevel="1">
-      <c r="A258" s="2"/>
-      <c r="B258" s="2"/>
-      <c r="C258" s="10"/>
-      <c r="D258" s="40"/>
-    </row>
-    <row r="259" spans="1:4" outlineLevel="1">
-      <c r="A259" s="2"/>
-      <c r="B259" s="2"/>
-      <c r="C259" s="10"/>
-      <c r="D259" s="40"/>
-    </row>
-    <row r="260" spans="1:4" outlineLevel="1">
-      <c r="A260" s="2"/>
-      <c r="B260" s="2"/>
-      <c r="C260" s="10"/>
-      <c r="D260" s="40"/>
-    </row>
-    <row r="261" spans="1:4" outlineLevel="1">
-      <c r="A261" s="2"/>
-      <c r="B261" s="2"/>
-      <c r="C261" s="10"/>
-      <c r="D261" s="40"/>
-    </row>
-    <row r="262" spans="1:4" outlineLevel="1">
-      <c r="A262" s="2"/>
-      <c r="B262" s="2"/>
-      <c r="C262" s="10"/>
-      <c r="D262" s="40"/>
-    </row>
-    <row r="263" spans="1:4" outlineLevel="1">
-      <c r="A263" s="2"/>
-      <c r="B263" s="2"/>
-      <c r="C263" s="10"/>
-      <c r="D263" s="40"/>
-    </row>
-    <row r="264" spans="1:4" outlineLevel="1">
-      <c r="A264" s="2"/>
-      <c r="B264" s="2"/>
-      <c r="C264" s="10"/>
-      <c r="D264" s="40"/>
-    </row>
-    <row r="265" spans="1:4" outlineLevel="1">
-      <c r="A265" s="2"/>
-      <c r="B265" s="2"/>
-      <c r="C265" s="10"/>
-      <c r="D265" s="40"/>
-    </row>
-    <row r="266" spans="1:4" outlineLevel="1">
-      <c r="A266" s="2"/>
-      <c r="B266" s="2"/>
-      <c r="C266" s="10"/>
       <c r="D266" s="40"/>
     </row>
-    <row r="268" spans="1:4">
-      <c r="A268" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="B268" s="1" t="s">
+    <row r="267" spans="1:6" outlineLevel="1">
+      <c r="A267" s="2"/>
+      <c r="B267" s="2"/>
+      <c r="C267" s="10"/>
+      <c r="D267" s="40"/>
+    </row>
+    <row r="268" spans="1:6" outlineLevel="1">
+      <c r="A268" s="2"/>
+      <c r="B268" s="2"/>
+      <c r="C268" s="10"/>
+      <c r="D268" s="40"/>
+    </row>
+    <row r="269" spans="1:6" outlineLevel="1">
+      <c r="A269" s="2"/>
+      <c r="B269" s="2"/>
+      <c r="C269" s="10"/>
+      <c r="D269" s="40"/>
+    </row>
+    <row r="270" spans="1:6" outlineLevel="1">
+      <c r="A270" s="2"/>
+      <c r="B270" s="2"/>
+      <c r="C270" s="10"/>
+      <c r="D270" s="40"/>
+    </row>
+    <row r="271" spans="1:6" outlineLevel="1">
+      <c r="A271" s="2"/>
+      <c r="B271" s="2"/>
+      <c r="C271" s="10"/>
+      <c r="D271" s="40"/>
+    </row>
+    <row r="272" spans="1:6" outlineLevel="1">
+      <c r="A272" s="2"/>
+      <c r="B272" s="2"/>
+      <c r="C272" s="10"/>
+      <c r="D272" s="40"/>
+    </row>
+    <row r="273" spans="1:4" outlineLevel="1">
+      <c r="A273" s="2"/>
+      <c r="B273" s="2"/>
+      <c r="C273" s="10"/>
+      <c r="D273" s="40"/>
+    </row>
+    <row r="274" spans="1:4" outlineLevel="1">
+      <c r="A274" s="2"/>
+      <c r="B274" s="2"/>
+      <c r="C274" s="10"/>
+      <c r="D274" s="40"/>
+    </row>
+    <row r="275" spans="1:4" outlineLevel="1">
+      <c r="A275" s="2"/>
+      <c r="B275" s="2"/>
+      <c r="C275" s="10"/>
+      <c r="D275" s="40"/>
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B277" s="1" t="s">
         <v>122</v>
       </c>
     </row>
@@ -15711,7 +16276,7 @@
   </sheetPr>
   <dimension ref="A1:E88"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/言語チートシート.xlsx
+++ b/言語チートシート.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9,9 +9,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F96E860-4A34-42DC-BEB7-D7475FCD7956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8722CFF7-48DF-409E-9C7F-636C15E83FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32430" yWindow="-28485" windowWidth="32475" windowHeight="45030" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1980" yWindow="-120" windowWidth="26940" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vbs,vba" sheetId="43" r:id="rId1"/>
@@ -147,7 +147,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2323" uniqueCount="1034">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2327" uniqueCount="1035">
   <si>
     <t>変数強制定義</t>
   </si>
@@ -4623,6 +4623,16 @@
     </rPh>
     <rPh sb="53" eb="55">
       <t>イガイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>シート名変更</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -5397,13 +5407,13 @@
   <sheetPr codeName="Sheet1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F382"/>
+  <dimension ref="A1:F383"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C176" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B203" sqref="B203:B204"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -11001,36 +11011,36 @@
         <v>122</v>
       </c>
     </row>
-    <row r="283" spans="1:6" outlineLevel="1">
-      <c r="A283" s="2"/>
-      <c r="B283" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C283" s="22" t="s">
+    <row r="283" spans="1:6" s="43" customFormat="1" outlineLevel="1">
+      <c r="A283" s="37"/>
+      <c r="B283" s="37" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C283" s="47" t="s">
         <v>398</v>
       </c>
-      <c r="D283" s="4" t="str">
-        <f>"Application.ScreenUpdating = True"</f>
-        <v>Application.ScreenUpdating = True</v>
-      </c>
-      <c r="E283" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F283" s="11" t="s">
+      <c r="D283" s="39" t="str">
+        <f>".Sheets(旧シート名).Name = 新シート名"</f>
+        <v>.Sheets(旧シート名).Name = 新シート名</v>
+      </c>
+      <c r="E283" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="F283" s="43" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="284" spans="1:6" outlineLevel="1">
       <c r="A284" s="2"/>
       <c r="B284" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C284" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D284" s="4" t="str">
-        <f>"Application.ScreenUpdating = False"</f>
-        <v>Application.ScreenUpdating = False</v>
+        <f>"Application.ScreenUpdating = True"</f>
+        <v>Application.ScreenUpdating = True</v>
       </c>
       <c r="E284" s="5" t="s">
         <v>122</v>
@@ -11042,14 +11052,14 @@
     <row r="285" spans="1:6" outlineLevel="1">
       <c r="A285" s="2"/>
       <c r="B285" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C285" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D285" s="4" t="str">
-        <f>"Application.Calculation = xlCalculationAutomatic"</f>
-        <v>Application.Calculation = xlCalculationAutomatic</v>
+        <f>"Application.ScreenUpdating = False"</f>
+        <v>Application.ScreenUpdating = False</v>
       </c>
       <c r="E285" s="5" t="s">
         <v>122</v>
@@ -11061,14 +11071,14 @@
     <row r="286" spans="1:6" outlineLevel="1">
       <c r="A286" s="2"/>
       <c r="B286" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C286" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D286" s="4" t="str">
-        <f>"Application.Calculation = xlCalculationManual"</f>
-        <v>Application.Calculation = xlCalculationManual</v>
+        <f>"Application.Calculation = xlCalculationAutomatic"</f>
+        <v>Application.Calculation = xlCalculationAutomatic</v>
       </c>
       <c r="E286" s="5" t="s">
         <v>122</v>
@@ -11080,14 +11090,14 @@
     <row r="287" spans="1:6" outlineLevel="1">
       <c r="A287" s="2"/>
       <c r="B287" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C287" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D287" s="4" t="str">
-        <f>"Application.Calculate"</f>
-        <v>Application.Calculate</v>
+        <f>"Application.Calculation = xlCalculationManual"</f>
+        <v>Application.Calculation = xlCalculationManual</v>
       </c>
       <c r="E287" s="5" t="s">
         <v>122</v>
@@ -11099,14 +11109,14 @@
     <row r="288" spans="1:6" outlineLevel="1">
       <c r="A288" s="2"/>
       <c r="B288" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C288" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D288" s="4" t="str">
-        <f>"Application.CalculateFull"</f>
-        <v>Application.CalculateFull</v>
+        <f>"Application.Calculate"</f>
+        <v>Application.Calculate</v>
       </c>
       <c r="E288" s="5" t="s">
         <v>122</v>
@@ -11118,16 +11128,17 @@
     <row r="289" spans="1:6" outlineLevel="1">
       <c r="A289" s="2"/>
       <c r="B289" s="2" t="s">
-        <v>497</v>
+        <v>165</v>
       </c>
       <c r="C289" s="22" t="s">
         <v>398</v>
       </c>
-      <c r="D289" s="4" t="s">
-        <v>498</v>
+      <c r="D289" s="4" t="str">
+        <f>"Application.CalculateFull"</f>
+        <v>Application.CalculateFull</v>
       </c>
       <c r="E289" s="5" t="s">
-        <v>499</v>
+        <v>122</v>
       </c>
       <c r="F289" s="11" t="s">
         <v>122</v>
@@ -11136,48 +11147,47 @@
     <row r="290" spans="1:6" outlineLevel="1">
       <c r="A290" s="2"/>
       <c r="B290" s="2" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C290" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D290" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="E290" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="F290" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" outlineLevel="1">
+      <c r="A291" s="2"/>
+      <c r="B291" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="C291" s="22" t="s">
+        <v>398</v>
+      </c>
+      <c r="D291" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="E290" s="5" t="s">
+      <c r="E291" s="5" t="s">
         <v>496</v>
       </c>
-      <c r="F290" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="291" spans="1:6">
-      <c r="A291" s="20" t="s">
+      <c r="F291" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6">
+      <c r="A292" s="20" t="s">
         <v>401</v>
       </c>
-      <c r="B291" s="8"/>
-      <c r="C291" s="8"/>
-      <c r="D291" s="8"/>
-      <c r="E291" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="F291" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="292" spans="1:6" outlineLevel="1">
-      <c r="A292" s="2"/>
-      <c r="B292" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="C292" s="22" t="s">
-        <v>398</v>
-      </c>
-      <c r="D292" s="4" t="str">
-        <f>"Application.DisplayAlerts = False"</f>
-        <v>Application.DisplayAlerts = False</v>
-      </c>
-      <c r="E292" s="5" t="s">
+      <c r="B292" s="8"/>
+      <c r="C292" s="8"/>
+      <c r="D292" s="8"/>
+      <c r="E292" s="21" t="s">
         <v>122</v>
       </c>
       <c r="F292" s="11" t="s">
@@ -11187,14 +11197,14 @@
     <row r="293" spans="1:6" outlineLevel="1">
       <c r="A293" s="2"/>
       <c r="B293" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C293" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D293" s="4" t="str">
-        <f>"Application.DisplayAlerts = True"</f>
-        <v>Application.DisplayAlerts = True</v>
+        <f>"Application.DisplayAlerts = False"</f>
+        <v>Application.DisplayAlerts = False</v>
       </c>
       <c r="E293" s="5" t="s">
         <v>122</v>
@@ -11206,14 +11216,14 @@
     <row r="294" spans="1:6" outlineLevel="1">
       <c r="A294" s="2"/>
       <c r="B294" s="2" t="s">
-        <v>166</v>
+        <v>257</v>
       </c>
       <c r="C294" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D294" s="4" t="str">
-        <f>".Rows(2).Select"</f>
-        <v>.Rows(2).Select</v>
+        <f>"Application.DisplayAlerts = True"</f>
+        <v>Application.DisplayAlerts = True</v>
       </c>
       <c r="E294" s="5" t="s">
         <v>122</v>
@@ -11225,14 +11235,14 @@
     <row r="295" spans="1:6" outlineLevel="1">
       <c r="A295" s="2"/>
       <c r="B295" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C295" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D295" s="4" t="str">
-        <f>".Columns(2).Select"</f>
-        <v>.Columns(2).Select</v>
+        <f>".Rows(2).Select"</f>
+        <v>.Rows(2).Select</v>
       </c>
       <c r="E295" s="5" t="s">
         <v>122</v>
@@ -11244,14 +11254,14 @@
     <row r="296" spans="1:6" outlineLevel="1">
       <c r="A296" s="2"/>
       <c r="B296" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C296" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D296" s="4" t="str">
-        <f>".Cells(1,1).Select"</f>
-        <v>.Cells(1,1).Select</v>
+        <f>".Columns(2).Select"</f>
+        <v>.Columns(2).Select</v>
       </c>
       <c r="E296" s="5" t="s">
         <v>122</v>
@@ -11263,14 +11273,14 @@
     <row r="297" spans="1:6" outlineLevel="1">
       <c r="A297" s="2"/>
       <c r="B297" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C297" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D297" s="4" t="str">
-        <f>".Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).Select"</f>
-        <v>.Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).Select</v>
+        <f>".Cells(1,1).Select"</f>
+        <v>.Cells(1,1).Select</v>
       </c>
       <c r="E297" s="5" t="s">
         <v>122</v>
@@ -11282,14 +11292,14 @@
     <row r="298" spans="1:6" outlineLevel="1">
       <c r="A298" s="2"/>
       <c r="B298" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C298" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D298" s="4" t="str">
-        <f>".Cells.Find(""りんご"", LookAt:=xlWhole).Row"</f>
-        <v>.Cells.Find("りんご", LookAt:=xlWhole).Row</v>
+        <f>".Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).Select"</f>
+        <v>.Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).Select</v>
       </c>
       <c r="E298" s="5" t="s">
         <v>122</v>
@@ -11307,8 +11317,8 @@
         <v>398</v>
       </c>
       <c r="D299" s="4" t="str">
-        <f>".Cells.Find(""りんご"", LookAt:=xlWhole).Column"</f>
-        <v>.Cells.Find("りんご", LookAt:=xlWhole).Column</v>
+        <f>".Cells.Find(""りんご"", LookAt:=xlWhole).Row"</f>
+        <v>.Cells.Find("りんご", LookAt:=xlWhole).Row</v>
       </c>
       <c r="E299" s="5" t="s">
         <v>122</v>
@@ -11320,17 +11330,17 @@
     <row r="300" spans="1:6" outlineLevel="1">
       <c r="A300" s="2"/>
       <c r="B300" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C300" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D300" s="4" t="str">
-        <f>".Cells(X, Y).Value"</f>
-        <v>.Cells(X, Y).Value</v>
+        <f>".Cells.Find(""りんご"", LookAt:=xlWhole).Column"</f>
+        <v>.Cells.Find("りんご", LookAt:=xlWhole).Column</v>
       </c>
       <c r="E300" s="5" t="s">
-        <v>301</v>
+        <v>122</v>
       </c>
       <c r="F300" s="11" t="s">
         <v>122</v>
@@ -11339,17 +11349,17 @@
     <row r="301" spans="1:6" outlineLevel="1">
       <c r="A301" s="2"/>
       <c r="B301" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C301" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D301" s="4" t="str">
-        <f>".Cells(1, 1).Top"</f>
-        <v>.Cells(1, 1).Top</v>
+        <f>".Cells(X, Y).Value"</f>
+        <v>.Cells(X, Y).Value</v>
       </c>
       <c r="E301" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F301" s="11" t="s">
         <v>122</v>
@@ -11358,17 +11368,17 @@
     <row r="302" spans="1:6" outlineLevel="1">
       <c r="A302" s="2"/>
       <c r="B302" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C302" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D302" s="4" t="str">
-        <f>".Cells(1, 1).Left"</f>
-        <v>.Cells(1, 1).Left</v>
+        <f>".Cells(1, 1).Top"</f>
+        <v>.Cells(1, 1).Top</v>
       </c>
       <c r="E302" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F302" s="11" t="s">
         <v>122</v>
@@ -11377,17 +11387,17 @@
     <row r="303" spans="1:6" outlineLevel="1">
       <c r="A303" s="2"/>
       <c r="B303" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C303" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D303" s="4" t="str">
-        <f>".Cells(1, 1).EntireRow.Delete Shift:=xlShiftUp"</f>
-        <v>.Cells(1, 1).EntireRow.Delete Shift:=xlShiftUp</v>
+        <f>".Cells(1, 1).Left"</f>
+        <v>.Cells(1, 1).Left</v>
       </c>
       <c r="E303" s="5" t="s">
-        <v>122</v>
+        <v>303</v>
       </c>
       <c r="F303" s="11" t="s">
         <v>122</v>
@@ -11396,35 +11406,35 @@
     <row r="304" spans="1:6" outlineLevel="1">
       <c r="A304" s="2"/>
       <c r="B304" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C304" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D304" s="4" t="str">
+        <f>".Cells(1, 1).EntireRow.Delete Shift:=xlShiftUp"</f>
+        <v>.Cells(1, 1).EntireRow.Delete Shift:=xlShiftUp</v>
+      </c>
+      <c r="E304" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F304" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" outlineLevel="1">
+      <c r="A305" s="2"/>
+      <c r="B305" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C305" s="22" t="s">
+        <v>398</v>
+      </c>
+      <c r="D305" s="4" t="str">
         <f>"Application.CutCopyMode = False"&amp;CHAR(10)&amp;".Range(""2:4"").Insert"</f>
         <v>Application.CutCopyMode = False
 .Range("2:4").Insert</v>
       </c>
-      <c r="E304" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F304" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="305" spans="1:6" outlineLevel="1">
-      <c r="A305" s="2"/>
-      <c r="B305" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C305" s="22" t="s">
-        <v>398</v>
-      </c>
-      <c r="D305" s="4" t="str">
-        <f>".Cells(行, 列).Font.Strikethrough"</f>
-        <v>.Cells(行, 列).Font.Strikethrough</v>
-      </c>
       <c r="E305" s="5" t="s">
         <v>122</v>
       </c>
@@ -11435,35 +11445,35 @@
     <row r="306" spans="1:6" outlineLevel="1">
       <c r="A306" s="2"/>
       <c r="B306" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C306" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D306" s="4" t="str">
+        <f>".Cells(行, 列).Font.Strikethrough"</f>
+        <v>.Cells(行, 列).Font.Strikethrough</v>
+      </c>
+      <c r="E306" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F306" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" outlineLevel="1">
+      <c r="A307" s="2"/>
+      <c r="B307" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C307" s="22" t="s">
+        <v>398</v>
+      </c>
+      <c r="D307" s="4" t="str">
         <f>"wTrgtBook.Sheets(シート名).Activate"&amp;CHAR(10)&amp;"ActiveWindow.DisplayGridlines = False"</f>
         <v>wTrgtBook.Sheets(シート名).Activate
 ActiveWindow.DisplayGridlines = False</v>
       </c>
-      <c r="E306" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F306" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="307" spans="1:6" outlineLevel="1">
-      <c r="A307" s="2"/>
-      <c r="B307" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C307" s="22" t="s">
-        <v>398</v>
-      </c>
-      <c r="D307" s="4" t="str">
-        <f>".Range(""A1"").EntireRow.Hidden"</f>
-        <v>.Range("A1").EntireRow.Hidden</v>
-      </c>
       <c r="E307" s="5" t="s">
         <v>122</v>
       </c>
@@ -11474,14 +11484,14 @@
     <row r="308" spans="1:6" outlineLevel="1">
       <c r="A308" s="2"/>
       <c r="B308" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C308" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D308" s="4" t="str">
-        <f>".Range(""A1"").EntireColumn.Hidden"</f>
-        <v>.Range("A1").EntireColumn.Hidden</v>
+        <f>".Range(""A1"").EntireRow.Hidden"</f>
+        <v>.Range("A1").EntireRow.Hidden</v>
       </c>
       <c r="E308" s="5" t="s">
         <v>122</v>
@@ -11493,12 +11503,31 @@
     <row r="309" spans="1:6" outlineLevel="1">
       <c r="A309" s="2"/>
       <c r="B309" s="2" t="s">
-        <v>336</v>
+        <v>179</v>
       </c>
       <c r="C309" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D309" s="4" t="str">
+        <f>".Range(""A1"").EntireColumn.Hidden"</f>
+        <v>.Range("A1").EntireColumn.Hidden</v>
+      </c>
+      <c r="E309" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F309" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" outlineLevel="1">
+      <c r="A310" s="2"/>
+      <c r="B310" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C310" s="22" t="s">
+        <v>398</v>
+      </c>
+      <c r="D310" s="4" t="str">
         <f>"If .Cells(1, 1).EntireRow.Hidden Or .Cells(1, 1).EntireColumn.Hidden Then
     '非表示セル
 Else
@@ -11512,25 +11541,6 @@
 End If
 </v>
       </c>
-      <c r="E309" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F309" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="310" spans="1:6" outlineLevel="1">
-      <c r="A310" s="2"/>
-      <c r="B310" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C310" s="22" t="s">
-        <v>398</v>
-      </c>
-      <c r="D310" s="4" t="str">
-        <f>"文字列変数 = .Range(""A1"").Font.Name"</f>
-        <v>文字列変数 = .Range("A1").Font.Name</v>
-      </c>
       <c r="E310" s="5" t="s">
         <v>122</v>
       </c>
@@ -11541,14 +11551,14 @@
     <row r="311" spans="1:6" outlineLevel="1">
       <c r="A311" s="2"/>
       <c r="B311" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C311" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D311" s="4" t="str">
-        <f>".Range(""A1"").Font.Size = 14"</f>
-        <v>.Range("A1").Font.Size = 14</v>
+        <f>"文字列変数 = .Range(""A1"").Font.Name"</f>
+        <v>文字列変数 = .Range("A1").Font.Name</v>
       </c>
       <c r="E311" s="5" t="s">
         <v>122</v>
@@ -11560,14 +11570,14 @@
     <row r="312" spans="1:6" outlineLevel="1">
       <c r="A312" s="2"/>
       <c r="B312" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C312" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D312" s="4" t="str">
-        <f>".Range(""A1"").Font.Color = RGB(0, 255, 0)"</f>
-        <v>.Range("A1").Font.Color = RGB(0, 255, 0)</v>
+        <f>".Range(""A1"").Font.Size = 14"</f>
+        <v>.Range("A1").Font.Size = 14</v>
       </c>
       <c r="E312" s="5" t="s">
         <v>122</v>
@@ -11579,14 +11589,14 @@
     <row r="313" spans="1:6" outlineLevel="1">
       <c r="A313" s="2"/>
       <c r="B313" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C313" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D313" s="4" t="str">
-        <f>".Range(""A1"").Font.Bold = True"</f>
-        <v>.Range("A1").Font.Bold = True</v>
+        <f>".Range(""A1"").Font.Color = RGB(0, 255, 0)"</f>
+        <v>.Range("A1").Font.Color = RGB(0, 255, 0)</v>
       </c>
       <c r="E313" s="5" t="s">
         <v>122</v>
@@ -11598,14 +11608,14 @@
     <row r="314" spans="1:6" outlineLevel="1">
       <c r="A314" s="2"/>
       <c r="B314" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C314" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D314" s="4" t="str">
-        <f>".Range(""A1"").Font.Underline = True"</f>
-        <v>.Range("A1").Font.Underline = True</v>
+        <f>".Range(""A1"").Font.Bold = True"</f>
+        <v>.Range("A1").Font.Bold = True</v>
       </c>
       <c r="E314" s="5" t="s">
         <v>122</v>
@@ -11617,14 +11627,14 @@
     <row r="315" spans="1:6" outlineLevel="1">
       <c r="A315" s="2"/>
       <c r="B315" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C315" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D315" s="4" t="str">
-        <f>".Range(""A1"").Interior.Color = RGB(255, 255, 0)"</f>
-        <v>.Range("A1").Interior.Color = RGB(255, 255, 0)</v>
+        <f>".Range(""A1"").Font.Underline = True"</f>
+        <v>.Range("A1").Font.Underline = True</v>
       </c>
       <c r="E315" s="5" t="s">
         <v>122</v>
@@ -11636,14 +11646,14 @@
     <row r="316" spans="1:6" outlineLevel="1">
       <c r="A316" s="2"/>
       <c r="B316" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C316" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D316" s="4" t="str">
-        <f>".Range(""A1:C3"").Borders.LineStyle = xlContinuous"</f>
-        <v>.Range("A1:C3").Borders.LineStyle = xlContinuous</v>
+        <f>".Range(""A1"").Interior.Color = RGB(255, 255, 0)"</f>
+        <v>.Range("A1").Interior.Color = RGB(255, 255, 0)</v>
       </c>
       <c r="E316" s="5" t="s">
         <v>122</v>
@@ -11655,14 +11665,14 @@
     <row r="317" spans="1:6" outlineLevel="1">
       <c r="A317" s="2"/>
       <c r="B317" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C317" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D317" s="4" t="str">
-        <f>".Range(""A1:C3"").MergeCells = True"</f>
-        <v>.Range("A1:C3").MergeCells = True</v>
+        <f>".Range(""A1:C3"").Borders.LineStyle = xlContinuous"</f>
+        <v>.Range("A1:C3").Borders.LineStyle = xlContinuous</v>
       </c>
       <c r="E317" s="5" t="s">
         <v>122</v>
@@ -11674,17 +11684,17 @@
     <row r="318" spans="1:6" outlineLevel="1">
       <c r="A318" s="2"/>
       <c r="B318" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C318" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D318" s="4" t="str">
-        <f>".Range(""A1:C3"").HorizontalAlignment = xlGeneral"</f>
-        <v>.Range("A1:C3").HorizontalAlignment = xlGeneral</v>
+        <f>".Range(""A1:C3"").MergeCells = True"</f>
+        <v>.Range("A1:C3").MergeCells = True</v>
       </c>
       <c r="E318" s="5" t="s">
-        <v>259</v>
+        <v>122</v>
       </c>
       <c r="F318" s="11" t="s">
         <v>122</v>
@@ -11693,17 +11703,17 @@
     <row r="319" spans="1:6" outlineLevel="1">
       <c r="A319" s="2"/>
       <c r="B319" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C319" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D319" s="4" t="str">
-        <f>".Range(""A1:C3"").VerticalAlignment = xlCenter"</f>
-        <v>.Range("A1:C3").VerticalAlignment = xlCenter</v>
+        <f>".Range(""A1:C3"").HorizontalAlignment = xlGeneral"</f>
+        <v>.Range("A1:C3").HorizontalAlignment = xlGeneral</v>
       </c>
       <c r="E319" s="5" t="s">
-        <v>190</v>
+        <v>259</v>
       </c>
       <c r="F319" s="11" t="s">
         <v>122</v>
@@ -11712,17 +11722,17 @@
     <row r="320" spans="1:6" outlineLevel="1">
       <c r="A320" s="2"/>
       <c r="B320" s="2" t="s">
-        <v>711</v>
+        <v>189</v>
       </c>
       <c r="C320" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D320" s="4" t="str">
-        <f>".Cells(1, 列).End(xlDown).Row"</f>
-        <v>.Cells(1, 列).End(xlDown).Row</v>
+        <f>".Range(""A1:C3"").VerticalAlignment = xlCenter"</f>
+        <v>.Range("A1:C3").VerticalAlignment = xlCenter</v>
       </c>
       <c r="E320" s="5" t="s">
-        <v>122</v>
+        <v>190</v>
       </c>
       <c r="F320" s="11" t="s">
         <v>122</v>
@@ -11731,14 +11741,14 @@
     <row r="321" spans="1:6" outlineLevel="1">
       <c r="A321" s="2"/>
       <c r="B321" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C321" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D321" s="4" t="str">
-        <f>".Cells(行, 1).End(xlToRight).Column"</f>
-        <v>.Cells(行, 1).End(xlToRight).Column</v>
+        <f>".Cells(1, 列).End(xlDown).Row"</f>
+        <v>.Cells(1, 列).End(xlDown).Row</v>
       </c>
       <c r="E321" s="5" t="s">
         <v>122</v>
@@ -11750,14 +11760,14 @@
     <row r="322" spans="1:6" outlineLevel="1">
       <c r="A322" s="2"/>
       <c r="B322" s="2" t="s">
-        <v>191</v>
+        <v>712</v>
       </c>
       <c r="C322" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D322" s="4" t="str">
-        <f>".Cells(.Rows.Count, 列).End(xlUp).Row"</f>
-        <v>.Cells(.Rows.Count, 列).End(xlUp).Row</v>
+        <f>".Cells(行, 1).End(xlToRight).Column"</f>
+        <v>.Cells(行, 1).End(xlToRight).Column</v>
       </c>
       <c r="E322" s="5" t="s">
         <v>122</v>
@@ -11769,14 +11779,14 @@
     <row r="323" spans="1:6" outlineLevel="1">
       <c r="A323" s="2"/>
       <c r="B323" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C323" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D323" s="4" t="str">
-        <f>".Cells(行, .Columns.Count).End(xlToLeft).Column"</f>
-        <v>.Cells(行, .Columns.Count).End(xlToLeft).Column</v>
+        <f>".Cells(.Rows.Count, 列).End(xlUp).Row"</f>
+        <v>.Cells(.Rows.Count, 列).End(xlUp).Row</v>
       </c>
       <c r="E323" s="5" t="s">
         <v>122</v>
@@ -11788,14 +11798,14 @@
     <row r="324" spans="1:6" outlineLevel="1">
       <c r="A324" s="2"/>
       <c r="B324" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C324" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D324" s="4" t="str">
-        <f>".Sheets(シート名).UsedRange.Rows.Count + 1"</f>
-        <v>.Sheets(シート名).UsedRange.Rows.Count + 1</v>
+        <f>".Cells(行, .Columns.Count).End(xlToLeft).Column"</f>
+        <v>.Cells(行, .Columns.Count).End(xlToLeft).Column</v>
       </c>
       <c r="E324" s="5" t="s">
         <v>122</v>
@@ -11807,14 +11817,14 @@
     <row r="325" spans="1:6" outlineLevel="1">
       <c r="A325" s="2"/>
       <c r="B325" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C325" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D325" s="4" t="str">
-        <f>".Sheets(シート名).UsedRange.Columns.Count + 1"</f>
-        <v>.Sheets(シート名).UsedRange.Columns.Count + 1</v>
+        <f>".Sheets(シート名).UsedRange.Rows.Count + 1"</f>
+        <v>.Sheets(シート名).UsedRange.Rows.Count + 1</v>
       </c>
       <c r="E325" s="5" t="s">
         <v>122</v>
@@ -11826,14 +11836,14 @@
     <row r="326" spans="1:6" outlineLevel="1">
       <c r="A326" s="2"/>
       <c r="B326" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C326" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D326" s="4" t="str">
-        <f>"Selection(1).Row"</f>
-        <v>Selection(1).Row</v>
+        <f>".Sheets(シート名).UsedRange.Columns.Count + 1"</f>
+        <v>.Sheets(シート名).UsedRange.Columns.Count + 1</v>
       </c>
       <c r="E326" s="5" t="s">
         <v>122</v>
@@ -11845,14 +11855,14 @@
     <row r="327" spans="1:6" outlineLevel="1">
       <c r="A327" s="2"/>
       <c r="B327" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C327" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D327" s="4" t="str">
-        <f>"Selection(Selection.Count).Row"</f>
-        <v>Selection(Selection.Count).Row</v>
+        <f>"Selection(1).Row"</f>
+        <v>Selection(1).Row</v>
       </c>
       <c r="E327" s="5" t="s">
         <v>122</v>
@@ -11864,14 +11874,14 @@
     <row r="328" spans="1:6" outlineLevel="1">
       <c r="A328" s="2"/>
       <c r="B328" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C328" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D328" s="4" t="str">
-        <f>"Selection(1).Column"</f>
-        <v>Selection(1).Column</v>
+        <f>"Selection(Selection.Count).Row"</f>
+        <v>Selection(Selection.Count).Row</v>
       </c>
       <c r="E328" s="5" t="s">
         <v>122</v>
@@ -11883,14 +11893,14 @@
     <row r="329" spans="1:6" outlineLevel="1">
       <c r="A329" s="2"/>
       <c r="B329" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C329" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D329" s="4" t="str">
-        <f>"Selection(Selection.Count).Column"</f>
-        <v>Selection(Selection.Count).Column</v>
+        <f>"Selection(1).Column"</f>
+        <v>Selection(1).Column</v>
       </c>
       <c r="E329" s="5" t="s">
         <v>122</v>
@@ -11902,16 +11912,17 @@
     <row r="330" spans="1:6" outlineLevel="1">
       <c r="A330" s="2"/>
       <c r="B330" s="2" t="s">
-        <v>325</v>
+        <v>198</v>
       </c>
       <c r="C330" s="22" t="s">
         <v>398</v>
       </c>
-      <c r="D330" s="4" t="s">
-        <v>323</v>
+      <c r="D330" s="4" t="str">
+        <f>"Selection(Selection.Count).Column"</f>
+        <v>Selection(Selection.Count).Column</v>
       </c>
       <c r="E330" s="5" t="s">
-        <v>331</v>
+        <v>122</v>
       </c>
       <c r="F330" s="11" t="s">
         <v>122</v>
@@ -11920,16 +11931,16 @@
     <row r="331" spans="1:6" outlineLevel="1">
       <c r="A331" s="2"/>
       <c r="B331" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C331" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D331" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E331" s="5" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="F331" s="11" t="s">
         <v>122</v>
@@ -11938,16 +11949,16 @@
     <row r="332" spans="1:6" outlineLevel="1">
       <c r="A332" s="2"/>
       <c r="B332" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C332" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D332" s="4" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E332" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F332" s="11" t="s">
         <v>122</v>
@@ -11956,17 +11967,16 @@
     <row r="333" spans="1:6" outlineLevel="1">
       <c r="A333" s="2"/>
       <c r="B333" s="2" t="s">
-        <v>199</v>
+        <v>327</v>
       </c>
       <c r="C333" s="22" t="s">
         <v>398</v>
       </c>
-      <c r="D333" s="4" t="str">
-        <f>".Range(.Cells(1, 1), .Cells(6, 3))"</f>
-        <v>.Range(.Cells(1, 1), .Cells(6, 3))</v>
+      <c r="D333" s="4" t="s">
+        <v>328</v>
       </c>
       <c r="E333" s="5" t="s">
-        <v>122</v>
+        <v>330</v>
       </c>
       <c r="F333" s="11" t="s">
         <v>122</v>
@@ -11975,14 +11985,14 @@
     <row r="334" spans="1:6" outlineLevel="1">
       <c r="A334" s="2"/>
       <c r="B334" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C334" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D334" s="4" t="str">
-        <f>".Range(""A1:B9"").Copy Destination:=ThisWorkBook.Sheets(シート名２).Range(""B1"")"</f>
-        <v>.Range("A1:B9").Copy Destination:=ThisWorkBook.Sheets(シート名２).Range("B1")</v>
+        <f>".Range(.Cells(1, 1), .Cells(6, 3))"</f>
+        <v>.Range(.Cells(1, 1), .Cells(6, 3))</v>
       </c>
       <c r="E334" s="5" t="s">
         <v>122</v>
@@ -11994,14 +12004,14 @@
     <row r="335" spans="1:6" outlineLevel="1">
       <c r="A335" s="2"/>
       <c r="B335" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C335" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D335" s="4" t="str">
-        <f>".Range(.Cells(1, 1), .Cells(.Rows.Count, 2)).Sort Key1:=.Cells(1, 2) ,order1:=xlAscending"</f>
-        <v>.Range(.Cells(1, 1), .Cells(.Rows.Count, 2)).Sort Key1:=.Cells(1, 2) ,order1:=xlAscending</v>
+        <f>".Range(""A1:B9"").Copy Destination:=ThisWorkBook.Sheets(シート名２).Range(""B1"")"</f>
+        <v>.Range("A1:B9").Copy Destination:=ThisWorkBook.Sheets(シート名２).Range("B1")</v>
       </c>
       <c r="E335" s="5" t="s">
         <v>122</v>
@@ -12013,14 +12023,14 @@
     <row r="336" spans="1:6" outlineLevel="1">
       <c r="A336" s="2"/>
       <c r="B336" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C336" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D336" s="4" t="str">
-        <f>".Range(""A1:A2"").ClearContents"</f>
-        <v>.Range("A1:A2").ClearContents</v>
+        <f>".Range(.Cells(1, 1), .Cells(.Rows.Count, 2)).Sort Key1:=.Cells(1, 2) ,order1:=xlAscending"</f>
+        <v>.Range(.Cells(1, 1), .Cells(.Rows.Count, 2)).Sort Key1:=.Cells(1, 2) ,order1:=xlAscending</v>
       </c>
       <c r="E336" s="5" t="s">
         <v>122</v>
@@ -12032,14 +12042,14 @@
     <row r="337" spans="1:6" outlineLevel="1">
       <c r="A337" s="2"/>
       <c r="B337" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C337" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D337" s="4" t="str">
-        <f>".Range(""A1:A2"").ClearFormats"</f>
-        <v>.Range("A1:A2").ClearFormats</v>
+        <f>".Range(""A1:A2"").ClearContents"</f>
+        <v>.Range("A1:A2").ClearContents</v>
       </c>
       <c r="E337" s="5" t="s">
         <v>122</v>
@@ -12051,17 +12061,17 @@
     <row r="338" spans="1:6" outlineLevel="1">
       <c r="A338" s="2"/>
       <c r="B338" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C338" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D338" s="4" t="str">
-        <f>".Range(""A1:A2"").PasteSpecial (xlPasteFormats)"</f>
-        <v>.Range("A1:A2").PasteSpecial (xlPasteFormats)</v>
+        <f>".Range(""A1:A2"").ClearFormats"</f>
+        <v>.Range("A1:A2").ClearFormats</v>
       </c>
       <c r="E338" s="5" t="s">
-        <v>190</v>
+        <v>122</v>
       </c>
       <c r="F338" s="11" t="s">
         <v>122</v>
@@ -12070,17 +12080,17 @@
     <row r="339" spans="1:6" outlineLevel="1">
       <c r="A339" s="2"/>
       <c r="B339" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C339" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D339" s="4" t="str">
-        <f>".Range(""A1:CV100"").SpecialCells(xlCellTypeBlanks).Select"</f>
-        <v>.Range("A1:CV100").SpecialCells(xlCellTypeBlanks).Select</v>
+        <f>".Range(""A1:A2"").PasteSpecial (xlPasteFormats)"</f>
+        <v>.Range("A1:A2").PasteSpecial (xlPasteFormats)</v>
       </c>
       <c r="E339" s="5" t="s">
-        <v>122</v>
+        <v>190</v>
       </c>
       <c r="F339" s="11" t="s">
         <v>122</v>
@@ -12089,17 +12099,17 @@
     <row r="340" spans="1:6" outlineLevel="1">
       <c r="A340" s="2"/>
       <c r="B340" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C340" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D340" s="4" t="str">
-        <f>".Range(""A1"").ColumnWidth = 5"</f>
-        <v>.Range("A1").ColumnWidth = 5</v>
+        <f>".Range(""A1:CV100"").SpecialCells(xlCellTypeBlanks).Select"</f>
+        <v>.Range("A1:CV100").SpecialCells(xlCellTypeBlanks).Select</v>
       </c>
       <c r="E340" s="5" t="s">
-        <v>304</v>
+        <v>122</v>
       </c>
       <c r="F340" s="11" t="s">
         <v>122</v>
@@ -12108,17 +12118,17 @@
     <row r="341" spans="1:6" outlineLevel="1">
       <c r="A341" s="2"/>
       <c r="B341" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C341" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D341" s="4" t="str">
-        <f>".Range(.Cells(4, 2), .Cells(9, 2)).Columns.AutoFit"</f>
-        <v>.Range(.Cells(4, 2), .Cells(9, 2)).Columns.AutoFit</v>
+        <f>".Range(""A1"").ColumnWidth = 5"</f>
+        <v>.Range("A1").ColumnWidth = 5</v>
       </c>
       <c r="E341" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F341" s="11" t="s">
         <v>122</v>
@@ -12127,14 +12137,14 @@
     <row r="342" spans="1:6" outlineLevel="1">
       <c r="A342" s="2"/>
       <c r="B342" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C342" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D342" s="4" t="str">
-        <f>".Sheets(シート名).UsedRange.Columns.AutoFit"</f>
-        <v>.Sheets(シート名).UsedRange.Columns.AutoFit</v>
+        <f>".Range(.Cells(4, 2), .Cells(9, 2)).Columns.AutoFit"</f>
+        <v>.Range(.Cells(4, 2), .Cells(9, 2)).Columns.AutoFit</v>
       </c>
       <c r="E342" s="5" t="s">
         <v>305</v>
@@ -12146,17 +12156,17 @@
     <row r="343" spans="1:6" outlineLevel="1">
       <c r="A343" s="2"/>
       <c r="B343" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C343" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D343" s="4" t="str">
-        <f>"Application.CutCopyMode = False"</f>
-        <v>Application.CutCopyMode = False</v>
+        <f>".Sheets(シート名).UsedRange.Columns.AutoFit"</f>
+        <v>.Sheets(シート名).UsedRange.Columns.AutoFit</v>
       </c>
       <c r="E343" s="5" t="s">
-        <v>122</v>
+        <v>305</v>
       </c>
       <c r="F343" s="11" t="s">
         <v>122</v>
@@ -12165,17 +12175,17 @@
     <row r="344" spans="1:6" outlineLevel="1">
       <c r="A344" s="2"/>
       <c r="B344" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C344" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D344" s="4" t="str">
-        <f>".Range( .Rows( lStrtRow ), .Rows( lLastRow ) ).Group"</f>
-        <v>.Range( .Rows( lStrtRow ), .Rows( lLastRow ) ).Group</v>
+        <f>"Application.CutCopyMode = False"</f>
+        <v>Application.CutCopyMode = False</v>
       </c>
       <c r="E344" s="5" t="s">
-        <v>306</v>
+        <v>122</v>
       </c>
       <c r="F344" s="11" t="s">
         <v>122</v>
@@ -12190,8 +12200,8 @@
         <v>398</v>
       </c>
       <c r="D345" s="4" t="str">
-        <f>".Range( .Columns( lStrtRow ), .Columns( lLastRow ) ).Group"</f>
-        <v>.Range( .Columns( lStrtRow ), .Columns( lLastRow ) ).Group</v>
+        <f>".Range( .Rows( lStrtRow ), .Rows( lLastRow ) ).Group"</f>
+        <v>.Range( .Rows( lStrtRow ), .Rows( lLastRow ) ).Group</v>
       </c>
       <c r="E345" s="5" t="s">
         <v>306</v>
@@ -12203,17 +12213,17 @@
     <row r="346" spans="1:6" outlineLevel="1">
       <c r="A346" s="2"/>
       <c r="B346" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C346" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D346" s="4" t="str">
-        <f>".Sheets(シート名).Outline.SummaryRow = ( xlBelow \| xlAbove )"</f>
-        <v>.Sheets(シート名).Outline.SummaryRow = ( xlBelow \| xlAbove )</v>
+        <f>".Range( .Columns( lStrtRow ), .Columns( lLastRow ) ).Group"</f>
+        <v>.Range( .Columns( lStrtRow ), .Columns( lLastRow ) ).Group</v>
       </c>
       <c r="E346" s="5" t="s">
-        <v>122</v>
+        <v>306</v>
       </c>
       <c r="F346" s="11" t="s">
         <v>122</v>
@@ -12222,14 +12232,14 @@
     <row r="347" spans="1:6" outlineLevel="1">
       <c r="A347" s="2"/>
       <c r="B347" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C347" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D347" s="4" t="str">
-        <f>".Sheets(シート名).Outline.SummaryColumn = ( xlRight \| xlLeft )"</f>
-        <v>.Sheets(シート名).Outline.SummaryColumn = ( xlRight \| xlLeft )</v>
+        <f>".Sheets(シート名).Outline.SummaryRow = ( xlBelow \| xlAbove )"</f>
+        <v>.Sheets(シート名).Outline.SummaryRow = ( xlBelow \| xlAbove )</v>
       </c>
       <c r="E347" s="5" t="s">
         <v>122</v>
@@ -12241,14 +12251,14 @@
     <row r="348" spans="1:6" outlineLevel="1">
       <c r="A348" s="2"/>
       <c r="B348" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C348" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D348" s="4" t="str">
-        <f>".Sheets(シート名).Outline.AutomaticStyles = ( True \| False )"</f>
-        <v>.Sheets(シート名).Outline.AutomaticStyles = ( True \| False )</v>
+        <f>".Sheets(シート名).Outline.SummaryColumn = ( xlRight \| xlLeft )"</f>
+        <v>.Sheets(シート名).Outline.SummaryColumn = ( xlRight \| xlLeft )</v>
       </c>
       <c r="E348" s="5" t="s">
         <v>122</v>
@@ -12260,14 +12270,14 @@
     <row r="349" spans="1:6" outlineLevel="1">
       <c r="A349" s="2"/>
       <c r="B349" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C349" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D349" s="4" t="str">
-        <f>".Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).AutoFilter"</f>
-        <v>.Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).AutoFilter</v>
+        <f>".Sheets(シート名).Outline.AutomaticStyles = ( True \| False )"</f>
+        <v>.Sheets(シート名).Outline.AutomaticStyles = ( True \| False )</v>
       </c>
       <c r="E349" s="5" t="s">
         <v>122</v>
@@ -12279,15 +12289,14 @@
     <row r="350" spans="1:6" outlineLevel="1">
       <c r="A350" s="2"/>
       <c r="B350" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C350" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D350" s="4" t="str">
-        <f>".Rows(行).Select"&amp;CHAR(10)&amp;"ActiveWindow.FreezePanes = True"</f>
-        <v>.Rows(行).Select
-ActiveWindow.FreezePanes = True</v>
+        <f>".Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).AutoFilter"</f>
+        <v>.Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).AutoFilter</v>
       </c>
       <c r="E350" s="5" t="s">
         <v>122</v>
@@ -12305,49 +12314,50 @@
         <v>398</v>
       </c>
       <c r="D351" s="4" t="str">
+        <f>".Rows(行).Select"&amp;CHAR(10)&amp;"ActiveWindow.FreezePanes = True"</f>
+        <v>.Rows(行).Select
+ActiveWindow.FreezePanes = True</v>
+      </c>
+      <c r="E351" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F351" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" outlineLevel="1">
+      <c r="A352" s="2"/>
+      <c r="B352" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C352" s="22" t="s">
+        <v>398</v>
+      </c>
+      <c r="D352" s="4" t="str">
         <f>".Columns(列).Select"&amp;CHAR(10)&amp;"ActiveWindow.FreezePanes = True"</f>
         <v>.Columns(列).Select
 ActiveWindow.FreezePanes = True</v>
       </c>
-      <c r="E351" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F351" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="352" spans="1:6" outlineLevel="1">
-      <c r="A352" s="2"/>
-      <c r="B352" s="2" t="s">
+      <c r="E352" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F352" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" outlineLevel="1">
+      <c r="A353" s="2"/>
+      <c r="B353" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C352" s="22" t="s">
+      <c r="C353" s="22" t="s">
         <v>398</v>
       </c>
-      <c r="D352" s="4" t="str">
+      <c r="D353" s="4" t="str">
         <f>".Cells(行,列).Select"&amp;CHAR(10)&amp;"ActiveWindow.FreezePanes = True"</f>
         <v>.Cells(行,列).Select
 ActiveWindow.FreezePanes = True</v>
       </c>
-      <c r="E352" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F352" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="353" spans="1:6" outlineLevel="1">
-      <c r="A353" s="2"/>
-      <c r="B353" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="C353" s="22" t="s">
-        <v>398</v>
-      </c>
-      <c r="D353" s="4" t="str">
-        <f>"ActiveWindow.FreezePanes = False"</f>
-        <v>ActiveWindow.FreezePanes = False</v>
-      </c>
       <c r="E353" s="5" t="s">
         <v>122</v>
       </c>
@@ -12358,14 +12368,14 @@
     <row r="354" spans="1:6" outlineLevel="1">
       <c r="A354" s="2"/>
       <c r="B354" s="2" t="s">
-        <v>247</v>
+        <v>217</v>
       </c>
       <c r="C354" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D354" s="4" t="str">
-        <f>"Application.WorksheetFunction.VLookup(.Range(""C1""), .Range(""A1:B7""), 2, False)"</f>
-        <v>Application.WorksheetFunction.VLookup(.Range("C1"), .Range("A1:B7"), 2, False)</v>
+        <f>"ActiveWindow.FreezePanes = False"</f>
+        <v>ActiveWindow.FreezePanes = False</v>
       </c>
       <c r="E354" s="5" t="s">
         <v>122</v>
@@ -12377,17 +12387,17 @@
     <row r="355" spans="1:6" outlineLevel="1">
       <c r="A355" s="2"/>
       <c r="B355" s="2" t="s">
-        <v>121</v>
+        <v>247</v>
       </c>
       <c r="C355" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D355" s="4" t="str">
-        <f>"CreateObject(""WScript.Network"").UserName"</f>
-        <v>CreateObject("WScript.Network").UserName</v>
+        <f>"Application.WorksheetFunction.VLookup(.Range(""C1""), .Range(""A1:B7""), 2, False)"</f>
+        <v>Application.WorksheetFunction.VLookup(.Range("C1"), .Range("A1:B7"), 2, False)</v>
       </c>
       <c r="E355" s="5" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F355" s="11" t="s">
         <v>122</v>
@@ -12396,17 +12406,17 @@
     <row r="356" spans="1:6" outlineLevel="1">
       <c r="A356" s="2"/>
       <c r="B356" s="2" t="s">
-        <v>338</v>
+        <v>121</v>
       </c>
       <c r="C356" s="22" t="s">
         <v>398</v>
       </c>
-      <c r="D356" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="E356" s="6" t="str">
-        <f>HYPERLINK("https://msdn.microsoft.com/ja-jp/library/office/ff197461.aspx","sShtcutKey＝Shift:+,Ctrl:^,Alt:%,...")</f>
-        <v>sShtcutKey＝Shift:+,Ctrl:^,Alt:%,...</v>
+      <c r="D356" s="4" t="str">
+        <f>"CreateObject(""WScript.Network"").UserName"</f>
+        <v>CreateObject("WScript.Network").UserName</v>
+      </c>
+      <c r="E356" s="5" t="s">
+        <v>128</v>
       </c>
       <c r="F356" s="11" t="s">
         <v>122</v>
@@ -12415,15 +12425,18 @@
     <row r="357" spans="1:6" outlineLevel="1">
       <c r="A357" s="2"/>
       <c r="B357" s="2" t="s">
-        <v>662</v>
+        <v>338</v>
       </c>
       <c r="C357" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D357" s="4" t="s">
-        <v>660</v>
-      </c>
-      <c r="E357" s="5"/>
+        <v>337</v>
+      </c>
+      <c r="E357" s="6" t="str">
+        <f>HYPERLINK("https://msdn.microsoft.com/ja-jp/library/office/ff197461.aspx","sShtcutKey＝Shift:+,Ctrl:^,Alt:%,...")</f>
+        <v>sShtcutKey＝Shift:+,Ctrl:^,Alt:%,...</v>
+      </c>
       <c r="F357" s="11" t="s">
         <v>122</v>
       </c>
@@ -12431,13 +12444,13 @@
     <row r="358" spans="1:6" outlineLevel="1">
       <c r="A358" s="2"/>
       <c r="B358" s="2" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C358" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D358" s="4" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="E358" s="5"/>
       <c r="F358" s="11" t="s">
@@ -12447,12 +12460,28 @@
     <row r="359" spans="1:6" outlineLevel="1">
       <c r="A359" s="2"/>
       <c r="B359" s="2" t="s">
-        <v>716</v>
+        <v>661</v>
       </c>
       <c r="C359" s="22" t="s">
         <v>398</v>
       </c>
-      <c r="D359" s="10" t="str">
+      <c r="D359" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="E359" s="5"/>
+      <c r="F359" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" outlineLevel="1">
+      <c r="A360" s="2"/>
+      <c r="B360" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="C360" s="22" t="s">
+        <v>398</v>
+      </c>
+      <c r="D360" s="10" t="str">
         <f>"Dim objBtn As Object
 Set objBtn = ActiveSheet.Shapes(Application.Caller)
 Dim lClm As Long
@@ -12468,26 +12497,8 @@
 lRow = objBtn.TopLeftCell.Row
 </v>
       </c>
-      <c r="E359" s="5" t="s">
+      <c r="E360" s="5" t="s">
         <v>717</v>
-      </c>
-      <c r="F359" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="360" spans="1:6" outlineLevel="1">
-      <c r="A360" s="2"/>
-      <c r="B360" s="2" t="s">
-        <v>743</v>
-      </c>
-      <c r="C360" s="22" t="s">
-        <v>398</v>
-      </c>
-      <c r="D360" s="10" t="s">
-        <v>744</v>
-      </c>
-      <c r="E360" s="5" t="s">
-        <v>122</v>
       </c>
       <c r="F360" s="11" t="s">
         <v>122</v>
@@ -12496,13 +12507,13 @@
     <row r="361" spans="1:6" outlineLevel="1">
       <c r="A361" s="2"/>
       <c r="B361" s="2" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="C361" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D361" s="10" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="E361" s="5" t="s">
         <v>122</v>
@@ -12514,13 +12525,13 @@
     <row r="362" spans="1:6" outlineLevel="1">
       <c r="A362" s="2"/>
       <c r="B362" s="2" t="s">
-        <v>741</v>
+        <v>747</v>
       </c>
       <c r="C362" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D362" s="10" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="E362" s="5" t="s">
         <v>122</v>
@@ -12532,44 +12543,62 @@
     <row r="363" spans="1:6" outlineLevel="1">
       <c r="A363" s="2"/>
       <c r="B363" s="2" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C363" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D363" s="10" t="s">
+        <v>746</v>
+      </c>
+      <c r="E363" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F363" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" outlineLevel="1">
+      <c r="A364" s="2"/>
+      <c r="B364" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="C364" s="22" t="s">
+        <v>398</v>
+      </c>
+      <c r="D364" s="10" t="s">
         <v>745</v>
       </c>
-      <c r="E363" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F363" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="364" spans="1:6">
-      <c r="A364" s="20" t="s">
+      <c r="E364" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F364" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6">
+      <c r="A365" s="20" t="s">
         <v>465</v>
       </c>
-      <c r="B364" s="8"/>
-      <c r="C364" s="8"/>
-      <c r="D364" s="8"/>
-      <c r="E364" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="F364" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="365" spans="1:6" outlineLevel="1">
-      <c r="A365" s="2"/>
-      <c r="B365" s="2" t="s">
+      <c r="B365" s="8"/>
+      <c r="C365" s="8"/>
+      <c r="D365" s="8"/>
+      <c r="E365" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F365" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" outlineLevel="1">
+      <c r="A366" s="2"/>
+      <c r="B366" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="C365" s="22" t="s">
+      <c r="C366" s="22" t="s">
         <v>398</v>
       </c>
-      <c r="D365" s="2" t="str">
+      <c r="D366" s="2" t="str">
         <f>"Dim bIsSheetExist As Boolean
 bIsSheetExist = False
 For Each wSheet In ThisWorkbook.Worksheets
@@ -12589,19 +12618,19 @@
     End If
 Next wSheet</v>
       </c>
-      <c r="E365" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="366" spans="1:6" outlineLevel="1">
-      <c r="A366" s="2"/>
-      <c r="B366" s="2" t="s">
+      <c r="E366" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" outlineLevel="1">
+      <c r="A367" s="2"/>
+      <c r="B367" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="C366" s="22" t="s">
+      <c r="C367" s="22" t="s">
         <v>398</v>
       </c>
-      <c r="D366" s="2" t="str">
+      <c r="D367" s="2" t="str">
         <f>"Dim rFindResult As Range
 Dim sFindKeyword As String
 Dim shTrgtSht As Worksheet
@@ -12615,19 +12644,19 @@
 sFindKeyword = "test"
 Set rFindResult = shTrgtSht.Cells.Find(sFindKeyword, LookAt:=xlWhole)</v>
       </c>
-      <c r="E366" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="367" spans="1:6" outlineLevel="1">
-      <c r="A367" s="2"/>
-      <c r="B367" s="2" t="s">
+      <c r="E367" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" outlineLevel="1">
+      <c r="A368" s="2"/>
+      <c r="B368" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="C367" s="22" t="s">
+      <c r="C368" s="22" t="s">
         <v>398</v>
       </c>
-      <c r="D367" s="2" t="str">
+      <c r="D368" s="2" t="str">
         <f>"If rFindResult Is Nothing Then
     MsgBox _
         ""セルが見つからなかったため、処理を中断します。"" &amp; vbNewLine &amp; _
@@ -12645,15 +12674,6 @@
     End
 End If</v>
       </c>
-      <c r="E367" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="368" spans="1:6" outlineLevel="1">
-      <c r="A368" s="2"/>
-      <c r="B368" s="2"/>
-      <c r="C368" s="10"/>
-      <c r="D368" s="10"/>
       <c r="E368" s="5" t="s">
         <v>122</v>
       </c>
@@ -12766,20 +12786,29 @@
         <v>122</v>
       </c>
     </row>
-    <row r="382" spans="1:5">
-      <c r="A382" s="7" t="s">
+    <row r="381" spans="1:5" outlineLevel="1">
+      <c r="A381" s="2"/>
+      <c r="B381" s="2"/>
+      <c r="C381" s="10"/>
+      <c r="D381" s="10"/>
+      <c r="E381" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5">
+      <c r="A383" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="B382" s="1" t="s">
+      <c r="B383" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="C382" s="1" t="s">
+      <c r="C383" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="D382" s="1" t="s">
+      <c r="D383" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="E382" s="1" t="s">
+      <c r="E383" s="1" t="s">
         <v>418</v>
       </c>
     </row>
@@ -12800,16 +12829,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06485A82-9CB1-4C26-8D56-717B45F0CC72}">
-  <sheetPr>
+  <sheetPr codeName="Sheet3">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:F277"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C86" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C139" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C183" sqref="C183"/>
+      <selection pane="bottomRight" activeCell="C184" sqref="C184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.5" outlineLevelRow="1"/>

--- a/言語チートシート.xlsx
+++ b/言語チートシート.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9,7 +9,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8722CFF7-48DF-409E-9C7F-636C15E83FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F1F0A83-DDE9-4622-99B3-9683E148B043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1980" yWindow="-120" windowWidth="26940" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,22 +72,23 @@
         </r>
       </text>
     </comment>
-    <comment ref="B106" authorId="0" shapeId="0" xr:uid="{2F2293EE-203B-4A8D-8D36-7A148CEE3BB1}">
+    <comment ref="B105" authorId="0" shapeId="0" xr:uid="{A6EB4E4A-17E6-4C84-9674-1289129858FD}">
       <text>
         <r>
           <rPr>
-            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="MS P ゴシック"/>
             <family val="3"/>
             <charset val="128"/>
           </rPr>
-          <t>簡略版=文字コード(ShiftJis)、改行コード(CRLF)固定</t>
+          <t xml:space="preserve">簡略版=文字コード(ShiftJis)、改行コード(CRLF)固定
+詳細版=文字コードや改行コードを指定できる
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="C107" authorId="0" shapeId="0" xr:uid="{A28ED36A-D87E-4F2B-9BC4-F256870A96AA}">
+    <comment ref="C106" authorId="0" shapeId="0" xr:uid="{A28ED36A-D87E-4F2B-9BC4-F256870A96AA}">
       <text>
         <r>
           <rPr>
@@ -99,21 +100,6 @@
             <charset val="128"/>
           </rPr>
           <t>&lt;arg2&gt;1:Read,2:Write,8:AddWrite、&lt;arg3&gt;新しいファイルを作成するかどうか</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B112" authorId="0" shapeId="0" xr:uid="{A70339C8-21D4-47A8-B6EE-452435752767}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>詳細版=文字コードや改行コードを指定できる</t>
         </r>
       </text>
     </comment>
@@ -147,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2327" uniqueCount="1035">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2322" uniqueCount="1033">
   <si>
     <t>変数強制定義</t>
   </si>
@@ -1625,10 +1611,6 @@
   </si>
   <si>
     <t>Close #1</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Open ファイル名 For [Input|Output|Append] As #1</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -2811,13 +2793,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>ＴＸＴ(簡略版) 定義</t>
-    <rPh sb="9" eb="11">
-      <t>テイギ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>ＴＸＴ(簡略版) オープン</t>
   </si>
   <si>
@@ -4641,7 +4616,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -4713,6 +4688,13 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="MS P ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
@@ -5407,7 +5389,7 @@
   <sheetPr codeName="Sheet1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F383"/>
+  <dimension ref="A1:F382"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -5496,10 +5478,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="11" t="s">
@@ -5512,10 +5494,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="11" t="s">
@@ -5528,10 +5510,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="11" t="s">
@@ -5544,10 +5526,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="11" t="s">
@@ -5564,10 +5546,10 @@
         <v>Dim 配列変数名(最終要素番号)</v>
       </c>
       <c r="D9" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>414</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>415</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>122</v>
@@ -5585,7 +5567,7 @@
         <v>340</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>122</v>
@@ -5597,7 +5579,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D11" s="4" t="str">
         <f>"Const NUM As Integer = 1"</f>
@@ -5629,7 +5611,7 @@
 End Type</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>122</v>
@@ -5654,7 +5636,7 @@
 End Enum</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>122</v>
@@ -6030,7 +6012,7 @@
     <row r="29" spans="1:6" outlineLevel="1">
       <c r="A29" s="2"/>
       <c r="B29" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C29" s="4" t="str">
         <f>"sStr = InputBox(""数値を入力してください。"")
@@ -6285,16 +6267,16 @@
     <row r="40" spans="1:6" outlineLevel="1">
       <c r="A40" s="2"/>
       <c r="B40" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>724</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>726</v>
       </c>
       <c r="D40" s="22" t="s">
         <v>398</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="F40" s="11" t="s">
         <v>122</v>
@@ -6303,10 +6285,10 @@
     <row r="41" spans="1:6" outlineLevel="1">
       <c r="A41" s="2"/>
       <c r="B41" s="2" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="D41" s="22" t="s">
         <v>398</v>
@@ -6366,7 +6348,7 @@
         <v>InStr("abcabc", "bc")</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F44" s="11" t="s">
         <v>122</v>
@@ -6386,7 +6368,7 @@
         <v>InStrRev("abcabc", "bc")</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F45" s="11" t="s">
         <v>122</v>
@@ -6553,13 +6535,13 @@
         <v>334</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>317</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F54" s="11" t="s">
         <v>122</v>
@@ -6599,7 +6581,7 @@
         <v>IsNumeric( sStr )</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F56" s="11" t="s">
         <v>122</v>
@@ -6619,7 +6601,7 @@
         <v>Chr(ASCIIコード)</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F57" s="11" t="s">
         <v>122</v>
@@ -6829,7 +6811,7 @@
         <v>VarType("Test")</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F67" s="11" t="s">
         <v>122</v>
@@ -6865,7 +6847,7 @@
         <v>CLng("&amp;H" &amp; "FA")</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>122</v>
@@ -6984,7 +6966,7 @@
         <v>vbNewLine</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E75" s="5" t="s">
         <v>136</v>
@@ -7356,16 +7338,16 @@
     <row r="94" spans="1:6" outlineLevel="1">
       <c r="A94" s="2"/>
       <c r="B94" s="2" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="F94" s="11" t="s">
         <v>122</v>
@@ -7374,16 +7356,16 @@
     <row r="95" spans="1:6" outlineLevel="1">
       <c r="A95" s="2"/>
       <c r="B95" s="2" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C95" s="10" t="s">
+        <v>701</v>
+      </c>
+      <c r="D95" s="4" t="s">
         <v>703</v>
       </c>
-      <c r="D95" s="4" t="s">
-        <v>705</v>
-      </c>
       <c r="E95" s="5" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="F95" s="11" t="s">
         <v>122</v>
@@ -7392,16 +7374,16 @@
     <row r="96" spans="1:6" outlineLevel="1">
       <c r="A96" s="2"/>
       <c r="B96" s="2" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D96" s="34" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="F96" s="11" t="s">
         <v>122</v>
@@ -7410,13 +7392,13 @@
     <row r="97" spans="1:6" outlineLevel="1">
       <c r="A97" s="2"/>
       <c r="B97" s="2" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="D97" s="33" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E97" s="5"/>
       <c r="F97" s="11" t="s">
@@ -7443,7 +7425,7 @@
         <v>30</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D99" s="4" t="str">
         <f>"On Error Resume Next"</f>
@@ -7571,14 +7553,29 @@
     <row r="106" spans="1:6" outlineLevel="1">
       <c r="A106" s="2"/>
       <c r="B106" s="2" t="s">
-        <v>678</v>
-      </c>
-      <c r="C106" s="4" t="str">
-        <f>"Dim objTxtFile"</f>
-        <v>Dim objTxtFile</v>
-      </c>
-      <c r="D106" s="22" t="s">
-        <v>398</v>
+        <v>677</v>
+      </c>
+      <c r="C106" s="42" t="str">
+        <f>"Dim sTrgtFilePath
+sTrgtFilePath = ""c:\codes\test\a.txt""
+Dim objFSO
+Set objFSO = CreateObject(""Scripting.FileSystemObject"")
+Dim objTxtFile
+Set objTxtFile = objFSO.OpenTextFile(sTrgtFilePath, 1, True)"</f>
+        <v>Dim sTrgtFilePath
+sTrgtFilePath = "c:\codes\test\a.txt"
+Dim objFSO
+Set objFSO = CreateObject("Scripting.FileSystemObject")
+Dim objTxtFile
+Set objTxtFile = objFSO.OpenTextFile(sTrgtFilePath, 1, True)</v>
+      </c>
+      <c r="D106" s="4" t="str">
+        <f>"Dim sTrgtFilePath As String
+sTrgtFilePath = ""c:\codes\test\a.txt""
+Open sTrgtFilePath For [Input|Output|Append] As #1"</f>
+        <v>Dim sTrgtFilePath As String
+sTrgtFilePath = "c:\codes\test\a.txt"
+Open sTrgtFilePath For [Input|Output|Append] As #1</v>
       </c>
       <c r="E106" s="5" t="s">
         <v>122</v>
@@ -7592,12 +7589,23 @@
       <c r="B107" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="C107" s="4" t="str">
-        <f>"Set objTxtFile = objFSO.OpenTextFile(""c:\codes\test\a.txt"", 1, True)"</f>
-        <v>Set objTxtFile = objFSO.OpenTextFile("c:\codes\test\a.txt", 1, True)</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>403</v>
+      <c r="C107" s="42" t="str">
+        <f>"Do Until objTxtFile.AtEndOfStream
+    MsgBox objTxtFile.ReadLine
+Loop"</f>
+        <v>Do Until objTxtFile.AtEndOfStream
+    MsgBox objTxtFile.ReadLine
+Loop</v>
+      </c>
+      <c r="D107" s="4" t="str">
+        <f>"Dim sLine As String
+Do Until EOF(1)
+    Line Input #1, sLine
+Loop"</f>
+        <v>Dim sLine As String
+Do Until EOF(1)
+    Line Input #1, sLine
+Loop</v>
       </c>
       <c r="E107" s="5" t="s">
         <v>122</v>
@@ -7611,14 +7619,41 @@
       <c r="B108" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="C108" s="4" t="str">
-        <f>"objTxtFile.Close"</f>
-        <v>objTxtFile.Close</v>
-      </c>
-      <c r="D108" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="E108" s="5"/>
+      <c r="C108" s="42" t="str">
+        <f>"Dim vFile
+vFile = Split(objTxtFile.ReadAll, vbNewLine)
+Dim vLine
+For Each vLine In vFile
+    MsgBox vLine
+Next"</f>
+        <v>Dim vFile
+vFile = Split(objTxtFile.ReadAll, vbNewLine)
+Dim vLine
+For Each vLine In vFile
+    MsgBox vLine
+Next</v>
+      </c>
+      <c r="D108" s="4" t="str">
+        <f>"Dim objFSO As Object
+Set objFSO = CreateObject(""Scripting.FileSystemObject"")
+Dim vFile As Variant
+vFile = Split(objFSO.GetFile(sTrgtFilePath).OpenAsTextStream.ReadAll, vbNewLine)
+Dim vLine As Variant
+For Each vLine In vFile
+    Debug.Print vLine
+Next"</f>
+        <v>Dim objFSO As Object
+Set objFSO = CreateObject("Scripting.FileSystemObject")
+Dim vFile As Variant
+vFile = Split(objFSO.GetFile(sTrgtFilePath).OpenAsTextStream.ReadAll, vbNewLine)
+Dim vLine As Variant
+For Each vLine In vFile
+    Debug.Print vLine
+Next</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>288</v>
+      </c>
       <c r="F108" s="11" t="s">
         <v>122</v>
       </c>
@@ -7628,17 +7663,15 @@
       <c r="B109" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="C109" s="4" t="str">
-        <f>"Do Until objTxtFile.AtEndOfStream"&amp;CHAR(10)&amp;"strLine = objTxtFile.ReadLine"&amp;CHAR(10)&amp;"Loop"</f>
-        <v>Do Until objTxtFile.AtEndOfStream
-strLine = objTxtFile.ReadLine
-Loop</v>
+      <c r="C109" s="42" t="str">
+        <f>"objTxtFile.WriteLine strLine"</f>
+        <v>objTxtFile.WriteLine strLine</v>
       </c>
       <c r="D109" s="4" t="str">
-        <f>"Do Until EOF(1)"&amp;CHAR(10)&amp;"    Line Input #1, 文字列変数"&amp;CHAR(10)&amp;"Loop"</f>
-        <v>Do Until EOF(1)
-    Line Input #1, 文字列変数
-Loop</v>
+        <f>"Dim sLine As String
+Print #1, sLine"</f>
+        <v>Dim sLine As String
+Print #1, sLine</v>
       </c>
       <c r="E109" s="5" t="s">
         <v>122</v>
@@ -7650,19 +7683,16 @@
     <row r="110" spans="1:6" outlineLevel="1">
       <c r="A110" s="2"/>
       <c r="B110" s="2" t="s">
-        <v>682</v>
-      </c>
-      <c r="C110" s="4" t="str">
-        <f>"sTextAll = objTxtFile.ReadAll"</f>
-        <v>sTextAll = objTxtFile.ReadAll</v>
-      </c>
-      <c r="D110" s="4" t="str">
-        <f>"sTestFile = objFSO.GetFile(ファイルパス).OpenAsTextStream.ReadAll"</f>
-        <v>sTestFile = objFSO.GetFile(ファイルパス).OpenAsTextStream.ReadAll</v>
-      </c>
-      <c r="E110" s="5" t="s">
-        <v>288</v>
-      </c>
+        <v>678</v>
+      </c>
+      <c r="C110" s="42" t="str">
+        <f>"objTxtFile.Close"</f>
+        <v>objTxtFile.Close</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="E110" s="5"/>
       <c r="F110" s="11" t="s">
         <v>122</v>
       </c>
@@ -7670,42 +7700,40 @@
     <row r="111" spans="1:6" outlineLevel="1">
       <c r="A111" s="2"/>
       <c r="B111" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="C111" s="4" t="str">
-        <f>"objTxtFile.WriteLine strLine"</f>
-        <v>objTxtFile.WriteLine strLine</v>
-      </c>
-      <c r="D111" s="4" t="str">
-        <f>"Print #1, 文字列変数"</f>
-        <v>Print #1, 文字列変数</v>
-      </c>
-      <c r="E111" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F111" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" outlineLevel="1">
-      <c r="A112" s="2"/>
-      <c r="B112" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="C112" s="10" t="str">
+        <v>682</v>
+      </c>
+      <c r="C111" s="10" t="str">
         <f>"Dim adoStrm
 Set adoStrm = CreateObject(""ADODB.Stream"")"</f>
         <v>Dim adoStrm
 Set adoStrm = CreateObject("ADODB.Stream")</v>
       </c>
-      <c r="D112" s="4" t="str">
+      <c r="D111" s="4" t="str">
         <f>"Dim adoStrm As Object
 Set adoStrm = CreateObject(""ADODB.Stream"")"</f>
         <v>Dim adoStrm As Object
 Set adoStrm = CreateObject("ADODB.Stream")</v>
       </c>
+      <c r="E111" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="F111" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" outlineLevel="1">
+      <c r="A112" s="2"/>
+      <c r="B112" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>669</v>
+      </c>
+      <c r="D112" s="10" t="s">
+        <v>669</v>
+      </c>
       <c r="E112" s="5" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="F112" s="11" t="s">
         <v>122</v>
@@ -7714,16 +7742,16 @@
     <row r="113" spans="1:6" outlineLevel="1">
       <c r="A113" s="2"/>
       <c r="B113" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="F113" s="11" t="s">
         <v>122</v>
@@ -7732,16 +7760,16 @@
     <row r="114" spans="1:6" outlineLevel="1">
       <c r="A114" s="2"/>
       <c r="B114" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="F114" s="11" t="s">
         <v>122</v>
@@ -7750,39 +7778,39 @@
     <row r="115" spans="1:6" outlineLevel="1">
       <c r="A115" s="2"/>
       <c r="B115" s="2" t="s">
-        <v>687</v>
-      </c>
-      <c r="C115" s="10" t="s">
-        <v>674</v>
-      </c>
-      <c r="D115" s="10" t="s">
-        <v>674</v>
-      </c>
-      <c r="E115" s="5" t="s">
-        <v>675</v>
-      </c>
-      <c r="F115" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" outlineLevel="1">
-      <c r="A116" s="2"/>
-      <c r="B116" s="2" t="s">
-        <v>688</v>
-      </c>
-      <c r="C116" s="10" t="str">
+        <v>686</v>
+      </c>
+      <c r="C115" s="10" t="str">
         <f>"adoStrm.Open
 adoStrm.LoadFromFile sTrgtFilePath"</f>
         <v>adoStrm.Open
 adoStrm.LoadFromFile sTrgtFilePath</v>
       </c>
-      <c r="D116" s="10" t="str">
+      <c r="D115" s="10" t="str">
         <f>"adoStrm.Open
 adoStrm.LoadFromFile sTrgtFilePath"</f>
         <v>adoStrm.Open
 adoStrm.LoadFromFile sTrgtFilePath</v>
       </c>
-      <c r="E116" s="5"/>
+      <c r="E115" s="5"/>
+      <c r="F115" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" outlineLevel="1">
+      <c r="A116" s="2"/>
+      <c r="B116" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="C116" s="10" t="s">
+        <v>675</v>
+      </c>
+      <c r="D116" s="10" t="s">
+        <v>675</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>665</v>
+      </c>
       <c r="F116" s="11" t="s">
         <v>122</v>
       </c>
@@ -7790,27 +7818,9 @@
     <row r="117" spans="1:6" outlineLevel="1">
       <c r="A117" s="2"/>
       <c r="B117" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="C117" s="10" t="s">
-        <v>676</v>
-      </c>
-      <c r="D117" s="10" t="s">
-        <v>676</v>
-      </c>
-      <c r="E117" s="5" t="s">
-        <v>666</v>
-      </c>
-      <c r="F117" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" outlineLevel="1">
-      <c r="A118" s="2"/>
-      <c r="B118" s="2" t="s">
-        <v>690</v>
-      </c>
-      <c r="C118" s="10" t="str">
+        <v>688</v>
+      </c>
+      <c r="C117" s="10" t="str">
         <f>"Do Until adoStrm.EOS
     MsgBox adoStrm.ReadText(-2)
 Loop"</f>
@@ -7818,7 +7828,7 @@
     MsgBox adoStrm.ReadText(-2)
 Loop</v>
       </c>
-      <c r="D118" s="4" t="str">
+      <c r="D117" s="4" t="str">
         <f>"Do Until adoStrm.EOS
     Debug.Print adoStrm.ReadText(-2)
 Loop"</f>
@@ -7826,19 +7836,19 @@
     Debug.Print adoStrm.ReadText(-2)
 Loop</v>
       </c>
-      <c r="E118" s="5" t="s">
-        <v>667</v>
-      </c>
-      <c r="F118" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" outlineLevel="1">
-      <c r="A119" s="2"/>
-      <c r="B119" s="2" t="s">
-        <v>691</v>
-      </c>
-      <c r="C119" s="10" t="str">
+      <c r="E117" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="F117" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" outlineLevel="1">
+      <c r="A118" s="2"/>
+      <c r="B118" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="C118" s="10" t="str">
         <f>"Dim vFile
 Dim vLine
 vFile = Split(adoStrm.ReadText(-1), vbLf)
@@ -7852,7 +7862,7 @@
     MsgBox vLine
 Next</v>
       </c>
-      <c r="D119" s="4" t="str">
+      <c r="D118" s="4" t="str">
         <f>"Dim vFile As Variant
 Dim vLine As Variant
 vFile = Split(adoStrm.ReadText(-1), vbLf)
@@ -7866,8 +7876,26 @@
     Debug.Print vLine
 Next</v>
       </c>
+      <c r="E118" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="F118" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" outlineLevel="1">
+      <c r="A119" s="2"/>
+      <c r="B119" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="C119" s="31" t="s">
+        <v>667</v>
+      </c>
+      <c r="D119" s="31" t="s">
+        <v>667</v>
+      </c>
       <c r="E119" s="5" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="F119" s="11" t="s">
         <v>122</v>
@@ -7876,7 +7904,7 @@
     <row r="120" spans="1:6" outlineLevel="1">
       <c r="A120" s="2"/>
       <c r="B120" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C120" s="31" t="s">
         <v>668</v>
@@ -7885,7 +7913,7 @@
         <v>668</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>665</v>
+        <v>676</v>
       </c>
       <c r="F120" s="11" t="s">
         <v>122</v>
@@ -7894,16 +7922,16 @@
     <row r="121" spans="1:6" outlineLevel="1">
       <c r="A121" s="2"/>
       <c r="B121" s="2" t="s">
-        <v>693</v>
-      </c>
-      <c r="C121" s="31" t="s">
-        <v>669</v>
-      </c>
-      <c r="D121" s="31" t="s">
-        <v>669</v>
+        <v>692</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>663</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>677</v>
+        <v>665</v>
       </c>
       <c r="F121" s="11" t="s">
         <v>122</v>
@@ -7912,50 +7940,52 @@
     <row r="122" spans="1:6" outlineLevel="1">
       <c r="A122" s="2"/>
       <c r="B122" s="2" t="s">
-        <v>694</v>
-      </c>
-      <c r="C122" s="4" t="s">
-        <v>664</v>
-      </c>
-      <c r="D122" s="4" t="s">
-        <v>664</v>
-      </c>
-      <c r="E122" s="5" t="s">
-        <v>666</v>
-      </c>
-      <c r="F122" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" outlineLevel="1">
-      <c r="A123" s="2"/>
-      <c r="B123" s="2" t="s">
-        <v>695</v>
-      </c>
-      <c r="C123" s="22" t="s">
+        <v>693</v>
+      </c>
+      <c r="C122" s="22" t="s">
         <v>398</v>
       </c>
-      <c r="D123" s="4" t="str">
+      <c r="D122" s="4" t="str">
         <f>"Set wTargetBook = Workbooks.Open(sTargetBookName)"&amp;CHAR(10)&amp;"wTargetBook.Close SaveChanges:=True"</f>
         <v>Set wTargetBook = Workbooks.Open(sTargetBookName)
 wTargetBook.Close SaveChanges:=True</v>
       </c>
-      <c r="E123" s="5" t="s">
+      <c r="E122" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F122" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="20" t="s">
+        <v>348</v>
+      </c>
+      <c r="B123" s="8"/>
+      <c r="C123" s="8"/>
+      <c r="D123" s="8"/>
+      <c r="E123" s="21" t="s">
         <v>122</v>
       </c>
       <c r="F123" s="11" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
-      <c r="A124" s="20" t="s">
-        <v>348</v>
-      </c>
-      <c r="B124" s="8"/>
-      <c r="C124" s="8"/>
-      <c r="D124" s="8"/>
-      <c r="E124" s="21" t="s">
-        <v>122</v>
+    <row r="124" spans="1:6" outlineLevel="1">
+      <c r="A124" s="2"/>
+      <c r="B124" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C124" s="4" t="str">
+        <f>"Now()"</f>
+        <v>Now()</v>
+      </c>
+      <c r="D124" s="4" t="str">
+        <f>"Now"</f>
+        <v>Now</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>295</v>
       </c>
       <c r="F124" s="11" t="s">
         <v>122</v>
@@ -7964,18 +7994,18 @@
     <row r="125" spans="1:6" outlineLevel="1">
       <c r="A125" s="2"/>
       <c r="B125" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C125" s="4" t="str">
-        <f>"Now()"</f>
-        <v>Now()</v>
+        <f>"Date()"</f>
+        <v>Date()</v>
       </c>
       <c r="D125" s="4" t="str">
-        <f>"Now"</f>
-        <v>Now</v>
+        <f>"Date"</f>
+        <v>Date</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F125" s="11" t="s">
         <v>122</v>
@@ -7984,18 +8014,18 @@
     <row r="126" spans="1:6" outlineLevel="1">
       <c r="A126" s="2"/>
       <c r="B126" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C126" s="4" t="str">
-        <f>"Date()"</f>
-        <v>Date()</v>
+        <f>"Timer()"</f>
+        <v>Timer()</v>
       </c>
       <c r="D126" s="4" t="str">
-        <f>"Date"</f>
-        <v>Date</v>
+        <f>"Timer"</f>
+        <v>Timer</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F126" s="11" t="s">
         <v>122</v>
@@ -8004,29 +8034,9 @@
     <row r="127" spans="1:6" outlineLevel="1">
       <c r="A127" s="2"/>
       <c r="B127" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C127" s="4" t="str">
-        <f>"Timer()"</f>
-        <v>Timer()</v>
-      </c>
-      <c r="D127" s="4" t="str">
-        <f>"Timer"</f>
-        <v>Timer</v>
-      </c>
-      <c r="E127" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="F127" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" outlineLevel="1">
-      <c r="A128" s="2"/>
-      <c r="B128" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C128" s="4" t="str">
         <f>"If DateDiff(""s"", sCmpBaseTime, sModDate ) &gt; 0 Then"&amp;CHAR(10)&amp;CHAR(9)&amp;"'sModDate が新しい"&amp;CHAR(10)&amp;"ElseIf DateDiff(""s"", sCmpBaseTime, sModDate ) &lt; 0 Then"&amp;CHAR(10)&amp;CHAR(9)&amp;"'sModDate が古い"&amp;CHAR(10)&amp;"Else"&amp;CHAR(10)&amp;CHAR(9)&amp;"'sModDate = sCmpBaseTime"&amp;CHAR(10)&amp;"End If"</f>
         <v>If DateDiff("s", sCmpBaseTime, sModDate ) &gt; 0 Then
 	'sModDate が新しい
@@ -8036,7 +8046,7 @@
 	'sModDate = sCmpBaseTime
 End If</v>
       </c>
-      <c r="D128" s="4" t="str">
+      <c r="D127" s="4" t="str">
         <f>"If DateDiff(""s"", sCmpBaseTime, sModDate ) &gt; 0 Then"&amp;CHAR(10)&amp;CHAR(9)&amp;"sModDate が新しい"&amp;CHAR(10)&amp;"ElseIf DateDiff(""s"", sCmpBaseTime, sModDate ) &lt; 0 Then"&amp;CHAR(10)&amp;CHAR(9)&amp;"sModDate が古い"&amp;CHAR(10)&amp;"Else"&amp;CHAR(10)&amp;CHAR(9)&amp;"sModDate = sCmpBaseTime"&amp;CHAR(10)&amp;"End If"</f>
         <v>If DateDiff("s", sCmpBaseTime, sModDate ) &gt; 0 Then
 	sModDate が新しい
@@ -8046,65 +8056,83 @@
 	sModDate = sCmpBaseTime
 End If</v>
       </c>
-      <c r="E128" s="5" t="s">
+      <c r="E127" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="F128" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" outlineLevel="1">
-      <c r="A129" s="2"/>
-      <c r="B129" s="2" t="s">
+      <c r="F127" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" outlineLevel="1">
+      <c r="A128" s="2"/>
+      <c r="B128" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C129" s="4" t="str">
+      <c r="C128" s="4" t="str">
         <f>"WScript.sleep(3000)"</f>
         <v>WScript.sleep(3000)</v>
       </c>
-      <c r="D129" s="4" t="str">
+      <c r="D128" s="4" t="str">
         <f>"Public Declare Sub Sleep Lib ""kernel32"" (ByVal dwMilliseconds As Long)"&amp;CHAR(10)&amp;"Sleep 1000"</f>
         <v>Public Declare Sub Sleep Lib "kernel32" (ByVal dwMilliseconds As Long)
 Sleep 1000</v>
       </c>
-      <c r="E129" s="5" t="s">
+      <c r="E128" s="5" t="s">
         <v>299</v>
       </c>
+      <c r="F128" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" s="20" t="s">
+        <v>359</v>
+      </c>
+      <c r="B129" s="8"/>
+      <c r="C129" s="8"/>
+      <c r="D129" s="8"/>
+      <c r="E129" s="21" t="s">
+        <v>122</v>
+      </c>
       <c r="F129" s="11" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
-      <c r="A130" s="20" t="s">
-        <v>359</v>
-      </c>
-      <c r="B130" s="8"/>
-      <c r="C130" s="8"/>
-      <c r="D130" s="8"/>
-      <c r="E130" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="F130" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" outlineLevel="1">
-      <c r="A131" s="2"/>
-      <c r="B131" s="2" t="s">
+    <row r="130" spans="1:6" outlineLevel="1">
+      <c r="A130" s="2"/>
+      <c r="B130" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="C131" s="4" t="str">
+      <c r="C130" s="4" t="str">
         <f>"Dim cTrgtPaths
 Set cTrgtPaths = CreateObject(""System.Collections.ArrayList"")"</f>
         <v>Dim cTrgtPaths
 Set cTrgtPaths = CreateObject("System.Collections.ArrayList")</v>
       </c>
-      <c r="D131" s="4" t="str">
+      <c r="D130" s="4" t="str">
         <f>"Dim cTrgtPaths As Variant
 Set cTrgtPaths = CreateObject(""System.Collections.ArrayList"")"</f>
         <v>Dim cTrgtPaths As Variant
 Set cTrgtPaths = CreateObject("System.Collections.ArrayList")</v>
       </c>
+      <c r="E130" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F130" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" outlineLevel="1">
+      <c r="A131" s="2"/>
+      <c r="B131" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>431</v>
+      </c>
       <c r="E131" s="5" t="s">
         <v>122</v>
       </c>
@@ -8115,7 +8143,7 @@
     <row r="132" spans="1:6" outlineLevel="1">
       <c r="A132" s="2"/>
       <c r="B132" s="2" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="C132" s="4" t="s">
         <v>432</v>
@@ -8133,7 +8161,7 @@
     <row r="133" spans="1:6" outlineLevel="1">
       <c r="A133" s="2"/>
       <c r="B133" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C133" s="4" t="s">
         <v>433</v>
@@ -8142,7 +8170,7 @@
         <v>433</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F133" s="11" t="s">
         <v>122</v>
@@ -8151,27 +8179,9 @@
     <row r="134" spans="1:6" outlineLevel="1">
       <c r="A134" s="2"/>
       <c r="B134" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="C134" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="D134" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="E134" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="F134" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" outlineLevel="1">
-      <c r="A135" s="2"/>
-      <c r="B135" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="C135" s="4" t="str">
+      <c r="C134" s="4" t="str">
         <f>"Dim vTrgtPath
 For Each vTrgtPath In cTrgtPaths
     MsgBox vTrgtPath
@@ -8181,7 +8191,7 @@
     MsgBox vTrgtPath
 Next</v>
       </c>
-      <c r="D135" s="4" t="str">
+      <c r="D134" s="4" t="str">
         <f>"Dim vTrgtPath As Variant
 For Each vTrgtPath In cTrgtPaths
     MsgBox vTrgtPath
@@ -8191,8 +8201,26 @@
     MsgBox vTrgtPath
 Next</v>
       </c>
+      <c r="E134" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F134" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" outlineLevel="1">
+      <c r="A135" s="2"/>
+      <c r="B135" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>434</v>
+      </c>
       <c r="E135" s="5" t="s">
-        <v>122</v>
+        <v>269</v>
       </c>
       <c r="F135" s="11" t="s">
         <v>122</v>
@@ -8201,7 +8229,7 @@
     <row r="136" spans="1:6" outlineLevel="1">
       <c r="A136" s="2"/>
       <c r="B136" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C136" s="4" t="s">
         <v>435</v>
@@ -8210,7 +8238,7 @@
         <v>435</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F136" s="11" t="s">
         <v>122</v>
@@ -8219,16 +8247,16 @@
     <row r="137" spans="1:6" outlineLevel="1">
       <c r="A137" s="2"/>
       <c r="B137" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="C137" s="4" t="s">
-        <v>436</v>
+        <v>363</v>
+      </c>
+      <c r="C137" s="22" t="s">
+        <v>398</v>
       </c>
       <c r="D137" s="4" t="s">
         <v>436</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>270</v>
+        <v>439</v>
       </c>
       <c r="F137" s="11" t="s">
         <v>122</v>
@@ -8237,16 +8265,16 @@
     <row r="138" spans="1:6" outlineLevel="1">
       <c r="A138" s="2"/>
       <c r="B138" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="C138" s="22" t="s">
-        <v>398</v>
+        <v>364</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>437</v>
       </c>
       <c r="D138" s="4" t="s">
         <v>437</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>440</v>
+        <v>122</v>
       </c>
       <c r="F138" s="11" t="s">
         <v>122</v>
@@ -8255,96 +8283,96 @@
     <row r="139" spans="1:6" outlineLevel="1">
       <c r="A139" s="2"/>
       <c r="B139" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="C139" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="D139" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="E139" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F139" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" outlineLevel="1">
-      <c r="A140" s="2"/>
-      <c r="B140" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="C140" s="4" t="str">
+      <c r="C139" s="4" t="str">
         <f>"Dim avTrgtPaths
 avTrgtPaths = cTrgtPaths.ToArray()"</f>
         <v>Dim avTrgtPaths
 avTrgtPaths = cTrgtPaths.ToArray()</v>
       </c>
-      <c r="D140" s="4" t="str">
+      <c r="D139" s="4" t="str">
         <f>"Dim avTrgtPaths As Variant
 avTrgtPaths = cTrgtPaths.ToArray()"</f>
         <v>Dim avTrgtPaths As Variant
 avTrgtPaths = cTrgtPaths.ToArray()</v>
       </c>
+      <c r="E139" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="F139" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" outlineLevel="1">
+      <c r="A140" s="2"/>
+      <c r="B140" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>438</v>
+      </c>
       <c r="E140" s="5" t="s">
-        <v>271</v>
+        <v>122</v>
       </c>
       <c r="F140" s="11" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="141" spans="1:6" outlineLevel="1">
-      <c r="A141" s="2"/>
-      <c r="B141" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="C141" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="D141" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="E141" s="5" t="s">
+    <row r="141" spans="1:6">
+      <c r="A141" s="20" t="s">
+        <v>358</v>
+      </c>
+      <c r="B141" s="8"/>
+      <c r="C141" s="8"/>
+      <c r="D141" s="8"/>
+      <c r="E141" s="21" t="s">
         <v>122</v>
       </c>
       <c r="F141" s="11" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
-      <c r="A142" s="20" t="s">
-        <v>358</v>
-      </c>
-      <c r="B142" s="8"/>
-      <c r="C142" s="8"/>
-      <c r="D142" s="8"/>
-      <c r="E142" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="F142" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" outlineLevel="1">
-      <c r="A143" s="2"/>
-      <c r="B143" s="2" t="s">
+    <row r="142" spans="1:6" outlineLevel="1">
+      <c r="A142" s="2"/>
+      <c r="B142" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="C143" s="4" t="str">
+      <c r="C142" s="4" t="str">
         <f>"Dim oPriceOfFruit
 Set oPriceOfFruit = CreateObject(""Scripting.Dictionary"")"</f>
         <v>Dim oPriceOfFruit
 Set oPriceOfFruit = CreateObject("Scripting.Dictionary")</v>
       </c>
-      <c r="D143" s="4" t="str">
+      <c r="D142" s="4" t="str">
         <f>"Dim oPriceOfFruit As Object
 Set oPriceOfFruit = CreateObject(""Scripting.Dictionary"")"</f>
         <v>Dim oPriceOfFruit As Object
 Set oPriceOfFruit = CreateObject("Scripting.Dictionary")</v>
       </c>
+      <c r="E142" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="F142" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" outlineLevel="1">
+      <c r="A143" s="2"/>
+      <c r="B143" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>345</v>
+      </c>
       <c r="E143" s="5" t="s">
-        <v>256</v>
+        <v>122</v>
       </c>
       <c r="F143" s="11" t="s">
         <v>122</v>
@@ -8353,13 +8381,13 @@
     <row r="144" spans="1:6" outlineLevel="1">
       <c r="A144" s="2"/>
       <c r="B144" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>345</v>
+        <v>440</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>345</v>
+        <v>440</v>
       </c>
       <c r="E144" s="5" t="s">
         <v>122</v>
@@ -8371,27 +8399,9 @@
     <row r="145" spans="1:6" outlineLevel="1">
       <c r="A145" s="2"/>
       <c r="B145" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C145" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="D145" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="E145" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F145" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" outlineLevel="1">
-      <c r="A146" s="2"/>
-      <c r="B146" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C146" s="4" t="str">
+      <c r="C145" s="4" t="str">
         <f>"For Each vKey In oPriceOfFruit
     MsgBox vKey
 Next"</f>
@@ -8399,7 +8409,7 @@
     MsgBox vKey
 Next</v>
       </c>
-      <c r="D146" s="4" t="str">
+      <c r="D145" s="4" t="str">
         <f>"For Each vKey In oPriceOfFruit
     Debug.print vKey
 Next"</f>
@@ -8407,8 +8417,26 @@
     Debug.print vKey
 Next</v>
       </c>
+      <c r="E145" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="F145" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" outlineLevel="1">
+      <c r="A146" s="2"/>
+      <c r="B146" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>441</v>
+      </c>
       <c r="E146" s="5" t="s">
-        <v>272</v>
+        <v>122</v>
       </c>
       <c r="F146" s="11" t="s">
         <v>122</v>
@@ -8417,7 +8445,7 @@
     <row r="147" spans="1:6" outlineLevel="1">
       <c r="A147" s="2"/>
       <c r="B147" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C147" s="4" t="s">
         <v>442</v>
@@ -8426,7 +8454,7 @@
         <v>442</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>122</v>
+        <v>273</v>
       </c>
       <c r="F147" s="11" t="s">
         <v>122</v>
@@ -8435,7 +8463,7 @@
     <row r="148" spans="1:6" outlineLevel="1">
       <c r="A148" s="2"/>
       <c r="B148" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C148" s="4" t="s">
         <v>443</v>
@@ -8453,7 +8481,7 @@
     <row r="149" spans="1:6" outlineLevel="1">
       <c r="A149" s="2"/>
       <c r="B149" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C149" s="4" t="s">
         <v>444</v>
@@ -8462,7 +8490,7 @@
         <v>444</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>273</v>
+        <v>122</v>
       </c>
       <c r="F149" s="11" t="s">
         <v>122</v>
@@ -8471,7 +8499,7 @@
     <row r="150" spans="1:6" outlineLevel="1">
       <c r="A150" s="2"/>
       <c r="B150" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C150" s="4" t="s">
         <v>445</v>
@@ -8489,7 +8517,7 @@
     <row r="151" spans="1:6" outlineLevel="1">
       <c r="A151" s="2"/>
       <c r="B151" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C151" s="4" t="s">
         <v>446</v>
@@ -8507,7 +8535,7 @@
     <row r="152" spans="1:6" outlineLevel="1">
       <c r="A152" s="2"/>
       <c r="B152" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C152" s="4" t="s">
         <v>447</v>
@@ -8516,7 +8544,7 @@
         <v>447</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>122</v>
+        <v>274</v>
       </c>
       <c r="F152" s="11" t="s">
         <v>122</v>
@@ -8525,7 +8553,7 @@
     <row r="153" spans="1:6" outlineLevel="1">
       <c r="A153" s="2"/>
       <c r="B153" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C153" s="4" t="s">
         <v>448</v>
@@ -8534,7 +8562,7 @@
         <v>448</v>
       </c>
       <c r="E153" s="5" t="s">
-        <v>274</v>
+        <v>122</v>
       </c>
       <c r="F153" s="11" t="s">
         <v>122</v>
@@ -8543,7 +8571,7 @@
     <row r="154" spans="1:6" outlineLevel="1">
       <c r="A154" s="2"/>
       <c r="B154" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C154" s="4" t="s">
         <v>449</v>
@@ -8552,7 +8580,7 @@
         <v>449</v>
       </c>
       <c r="E154" s="5" t="s">
-        <v>122</v>
+        <v>275</v>
       </c>
       <c r="F154" s="11" t="s">
         <v>122</v>
@@ -8561,7 +8589,7 @@
     <row r="155" spans="1:6" outlineLevel="1">
       <c r="A155" s="2"/>
       <c r="B155" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C155" s="4" t="s">
         <v>450</v>
@@ -8579,7 +8607,7 @@
     <row r="156" spans="1:6" outlineLevel="1">
       <c r="A156" s="2"/>
       <c r="B156" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C156" s="4" t="s">
         <v>451</v>
@@ -8588,62 +8616,63 @@
         <v>451</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F156" s="11" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="157" spans="1:6" outlineLevel="1">
-      <c r="A157" s="2"/>
-      <c r="B157" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C157" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="D157" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="E157" s="5" t="s">
-        <v>276</v>
+    <row r="157" spans="1:6">
+      <c r="A157" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="B157" s="8"/>
+      <c r="C157" s="8"/>
+      <c r="D157" s="8"/>
+      <c r="E157" s="21" t="s">
+        <v>122</v>
       </c>
       <c r="F157" s="11" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="158" spans="1:6">
-      <c r="A158" s="20" t="s">
-        <v>350</v>
-      </c>
-      <c r="B158" s="8"/>
-      <c r="C158" s="8"/>
-      <c r="D158" s="8"/>
-      <c r="E158" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="F158" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" outlineLevel="1">
-      <c r="A159" s="2"/>
-      <c r="B159" s="2" t="s">
+    <row r="158" spans="1:6" outlineLevel="1">
+      <c r="A158" s="2"/>
+      <c r="B158" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="C159" s="4" t="str">
+      <c r="C158" s="4" t="str">
         <f>"Dim objWshShell"&amp;CHAR(10)&amp;"Set objWshShell = WScript.CreateObject(""WScript.Shell"")"</f>
         <v>Dim objWshShell
 Set objWshShell = WScript.CreateObject("WScript.Shell")</v>
       </c>
-      <c r="D159" s="4" t="str">
+      <c r="D158" s="4" t="str">
         <f>"Dim objWshShell
 Set objWshShell = CreateObject(""WScript.Shell"")"</f>
         <v>Dim objWshShell
 Set objWshShell = CreateObject("WScript.Shell")</v>
       </c>
+      <c r="E158" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F158" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" outlineLevel="1">
+      <c r="A159" s="2"/>
+      <c r="B159" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C159" s="4" t="str">
+        <f>"objWshShell.Exec(""C:\test.bat"")"</f>
+        <v>objWshShell.Exec("C:\test.bat")</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>452</v>
+      </c>
       <c r="E159" s="5" t="s">
-        <v>122</v>
+        <v>278</v>
       </c>
       <c r="F159" s="11" t="s">
         <v>122</v>
@@ -8652,17 +8681,17 @@
     <row r="160" spans="1:6" outlineLevel="1">
       <c r="A160" s="2"/>
       <c r="B160" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C160" s="4" t="str">
-        <f>"objWshShell.Exec(""C:\test.bat"")"</f>
-        <v>objWshShell.Exec("C:\test.bat")</v>
+        <f>"objWshShell.Run ""C:\test.bat"", 0, True"</f>
+        <v>objWshShell.Run "C:\test.bat", 0, True</v>
       </c>
       <c r="D160" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="E160" s="5" t="s">
-        <v>278</v>
+      <c r="E160" s="9" t="s">
+        <v>409</v>
       </c>
       <c r="F160" s="11" t="s">
         <v>122</v>
@@ -8671,17 +8700,14 @@
     <row r="161" spans="1:6" outlineLevel="1">
       <c r="A161" s="2"/>
       <c r="B161" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C161" s="4" t="str">
-        <f>"objWshShell.Run ""C:\test.bat"", 0, True"</f>
-        <v>objWshShell.Run "C:\test.bat", 0, True</v>
+        <f>"objWshShell.Run ""cmd /c echo.&gt; """"C:\test.txt"""""", 0, True"</f>
+        <v>objWshShell.Run "cmd /c echo.&gt; ""C:\test.txt""", 0, True</v>
       </c>
       <c r="D161" s="4" t="s">
         <v>454</v>
-      </c>
-      <c r="E161" s="9" t="s">
-        <v>410</v>
       </c>
       <c r="F161" s="11" t="s">
         <v>122</v>
@@ -8690,14 +8716,17 @@
     <row r="162" spans="1:6" outlineLevel="1">
       <c r="A162" s="2"/>
       <c r="B162" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C162" s="4" t="str">
-        <f>"objWshShell.Run ""cmd /c echo.&gt; """"C:\test.txt"""""", 0, True"</f>
-        <v>objWshShell.Run "cmd /c echo.&gt; ""C:\test.txt""", 0, True</v>
+        <f>"objWshShell.RegRead(""HKCU\WshTest\Test1"")"</f>
+        <v>objWshShell.RegRead("HKCU\WshTest\Test1")</v>
       </c>
       <c r="D162" s="4" t="s">
         <v>455</v>
+      </c>
+      <c r="E162" s="5" t="s">
+        <v>122</v>
       </c>
       <c r="F162" s="11" t="s">
         <v>122</v>
@@ -8706,17 +8735,17 @@
     <row r="163" spans="1:6" outlineLevel="1">
       <c r="A163" s="2"/>
       <c r="B163" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C163" s="4" t="str">
-        <f>"objWshShell.RegRead(""HKCU\WshTest\Test1"")"</f>
-        <v>objWshShell.RegRead("HKCU\WshTest\Test1")</v>
+        <f>"objWshShell.RegWrite(""HKCU\WshTest\Test1"", ""test"", ""REG\_SZ"")"</f>
+        <v>objWshShell.RegWrite("HKCU\WshTest\Test1", "test", "REG\_SZ")</v>
       </c>
       <c r="D163" s="4" t="s">
         <v>456</v>
       </c>
       <c r="E163" s="5" t="s">
-        <v>122</v>
+        <v>279</v>
       </c>
       <c r="F163" s="11" t="s">
         <v>122</v>
@@ -8725,17 +8754,17 @@
     <row r="164" spans="1:6" outlineLevel="1">
       <c r="A164" s="2"/>
       <c r="B164" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C164" s="4" t="str">
-        <f>"objWshShell.RegWrite(""HKCU\WshTest\Test1"", ""test"", ""REG\_SZ"")"</f>
-        <v>objWshShell.RegWrite("HKCU\WshTest\Test1", "test", "REG\_SZ")</v>
+        <f>"objWshShell.Environment(""User"").Item(""MYPATH\_CODES"")"</f>
+        <v>objWshShell.Environment("User").Item("MYPATH\_CODES")</v>
       </c>
       <c r="D164" s="4" t="s">
         <v>457</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>279</v>
+        <v>410</v>
       </c>
       <c r="F164" s="11" t="s">
         <v>122</v>
@@ -8744,18 +8773,16 @@
     <row r="165" spans="1:6" outlineLevel="1">
       <c r="A165" s="2"/>
       <c r="B165" s="2" t="s">
-        <v>39</v>
+        <v>379</v>
       </c>
       <c r="C165" s="4" t="str">
-        <f>"objWshShell.Environment(""User"").Item(""MYPATH\_CODES"")"</f>
-        <v>objWshShell.Environment("User").Item("MYPATH\_CODES")</v>
-      </c>
-      <c r="D165" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="E165" s="5" t="s">
-        <v>411</v>
-      </c>
+        <f>"objWshShell.Environment(""User"").Remove(""MYPATH\_CODES"")"</f>
+        <v>objWshShell.Environment("User").Remove("MYPATH\_CODES")</v>
+      </c>
+      <c r="D165" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="E165" s="5"/>
       <c r="F165" s="11" t="s">
         <v>122</v>
       </c>
@@ -8763,16 +8790,18 @@
     <row r="166" spans="1:6" outlineLevel="1">
       <c r="A166" s="2"/>
       <c r="B166" s="2" t="s">
-        <v>379</v>
+        <v>394</v>
       </c>
       <c r="C166" s="4" t="str">
-        <f>"objWshShell.Environment(""User"").Remove(""MYPATH\_CODES"")"</f>
-        <v>objWshShell.Environment("User").Remove("MYPATH\_CODES")</v>
-      </c>
-      <c r="D166" s="12" t="s">
-        <v>418</v>
-      </c>
-      <c r="E166" s="5"/>
+        <f>"objWshShell.SpecialFolders(""Desktop"")"</f>
+        <v>objWshShell.SpecialFolders("Desktop")</v>
+      </c>
+      <c r="D166" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="E166" s="5" t="s">
+        <v>146</v>
+      </c>
       <c r="F166" s="11" t="s">
         <v>122</v>
       </c>
@@ -8780,35 +8809,16 @@
     <row r="167" spans="1:6" outlineLevel="1">
       <c r="A167" s="2"/>
       <c r="B167" s="2" t="s">
-        <v>394</v>
+        <v>40</v>
       </c>
       <c r="C167" s="4" t="str">
-        <f>"objWshShell.SpecialFolders(""Desktop"")"</f>
-        <v>objWshShell.SpecialFolders("Desktop")</v>
-      </c>
-      <c r="D167" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="E167" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="F167" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" outlineLevel="1">
-      <c r="A168" s="2"/>
-      <c r="B168" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C168" s="4" t="str">
         <f>"With objWshShell.CreateShortcut( ""c:\test\src.txt.lnk"" )"&amp;CHAR(10)&amp;".TargetPath = ""c:\test\dst.txt"""&amp;CHAR(10)&amp;".Save"&amp;CHAR(10)&amp;"End With"</f>
         <v>With objWshShell.CreateShortcut( "c:\test\src.txt.lnk" )
 .TargetPath = "c:\test\dst.txt"
 .Save
 End With</v>
       </c>
-      <c r="D168" s="4" t="str">
+      <c r="D167" s="4" t="str">
         <f>"With objWshShell.CreateShortcut( ""c:\test\src.txt.lnk"" )
     .TargetPath = ""c:\test\dst.txt""
     .Save
@@ -8818,8 +8828,27 @@
     .Save
 End With</v>
       </c>
+      <c r="E167" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F167" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" outlineLevel="1">
+      <c r="A168" s="2"/>
+      <c r="B168" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C168" s="4" t="str">
+        <f>"objWshShell.CreateShortcut( ""c:\test\src.txt.lnk"" ).TargetPath"</f>
+        <v>objWshShell.CreateShortcut( "c:\test\src.txt.lnk" ).TargetPath</v>
+      </c>
+      <c r="D168" s="4" t="s">
+        <v>459</v>
+      </c>
       <c r="E168" s="5" t="s">
-        <v>122</v>
+        <v>280</v>
       </c>
       <c r="F168" s="11" t="s">
         <v>122</v>
@@ -8828,35 +8857,16 @@
     <row r="169" spans="1:6" outlineLevel="1">
       <c r="A169" s="2"/>
       <c r="B169" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C169" s="4" t="str">
-        <f>"objWshShell.CreateShortcut( ""c:\test\src.txt.lnk"" ).TargetPath"</f>
-        <v>objWshShell.CreateShortcut( "c:\test\src.txt.lnk" ).TargetPath</v>
-      </c>
-      <c r="D169" s="4" t="s">
-        <v>460</v>
-      </c>
-      <c r="E169" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="F169" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" outlineLevel="1">
-      <c r="A170" s="2"/>
-      <c r="B170" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C170" s="4" t="str">
         <f>"With objWshShell.CreateShortcut( ""c:\test\src.txt.lnk"" )"&amp;CHAR(10)&amp;".TargetPath = ""c:\test\dst2.txt"""&amp;CHAR(10)&amp;".Save"&amp;CHAR(10)&amp;"End With"</f>
         <v>With objWshShell.CreateShortcut( "c:\test\src.txt.lnk" )
 .TargetPath = "c:\test\dst2.txt"
 .Save
 End With</v>
       </c>
-      <c r="D170" s="4" t="str">
+      <c r="D169" s="4" t="str">
         <f>"With objWshShell.CreateShortcut( ""c:\test\src.txt.lnk"" )
     .TargetPath = ""c:\test\dst2.txt""
     .Save
@@ -8866,47 +8876,64 @@
     .Save
 End With</v>
       </c>
-      <c r="E170" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F170" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" outlineLevel="1">
-      <c r="A171" s="2"/>
-      <c r="B171" s="2" t="s">
+      <c r="E169" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F169" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" outlineLevel="1">
+      <c r="A170" s="2"/>
+      <c r="B170" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C171" s="4" t="str">
+      <c r="C170" s="4" t="str">
         <f>"With objWshShell.CreateShortcut( ""c:\test\src.txt.lnk"" )"&amp;CHAR(10)&amp;".Description = ""テストコメント"""&amp;CHAR(10)&amp;".Save"&amp;CHAR(10)&amp;"End With"</f>
         <v>With objWshShell.CreateShortcut( "c:\test\src.txt.lnk" )
 .Description = "テストコメント"
 .Save
 End With</v>
       </c>
-      <c r="D171" s="12" t="s">
-        <v>418</v>
-      </c>
-      <c r="E171" s="5"/>
-      <c r="F171" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" outlineLevel="1">
-      <c r="A172" s="2"/>
-      <c r="B172" s="2" t="s">
+      <c r="D170" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="E170" s="5"/>
+      <c r="F170" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" outlineLevel="1">
+      <c r="A171" s="2"/>
+      <c r="B171" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C172" s="4" t="str">
+      <c r="C171" s="4" t="str">
         <f>"With objWshShell.CreateShortcut( ""c:\test\src.txt.lnk"" )"&amp;CHAR(10)&amp;".Arguments = "" /b"""&amp;CHAR(10)&amp;".Save"&amp;CHAR(10)&amp;"End With"</f>
         <v>With objWshShell.CreateShortcut( "c:\test\src.txt.lnk" )
 .Arguments = " /b"
 .Save
 End With</v>
       </c>
+      <c r="D171" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="E171" s="5"/>
+      <c r="F171" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" outlineLevel="1">
+      <c r="A172" s="2"/>
+      <c r="B172" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C172" s="4" t="str">
+        <f>"objWshShell.Popup ""メッセージ"", lSecond, ""タイトル"", vbInformation"</f>
+        <v>objWshShell.Popup "メッセージ", lSecond, "タイトル", vbInformation</v>
+      </c>
       <c r="D172" s="12" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E172" s="5"/>
       <c r="F172" s="11" t="s">
@@ -8916,14 +8943,14 @@
     <row r="173" spans="1:6" outlineLevel="1">
       <c r="A173" s="2"/>
       <c r="B173" s="2" t="s">
-        <v>45</v>
+        <v>138</v>
       </c>
       <c r="C173" s="4" t="str">
-        <f>"objWshShell.Popup ""メッセージ"", lSecond, ""タイトル"", vbInformation"</f>
-        <v>objWshShell.Popup "メッセージ", lSecond, "タイトル", vbInformation</v>
-      </c>
-      <c r="D173" s="12" t="s">
-        <v>418</v>
+        <f>C262</f>
+        <v>objWshShell.Exec( "clip" ).StdIn.Write( "テキスト" )</v>
+      </c>
+      <c r="D173" s="23" t="s">
+        <v>398</v>
       </c>
       <c r="E173" s="5"/>
       <c r="F173" s="11" t="s">
@@ -8933,11 +8960,11 @@
     <row r="174" spans="1:6" outlineLevel="1">
       <c r="A174" s="2"/>
       <c r="B174" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C174" s="4" t="str">
         <f>C263</f>
-        <v>objWshShell.Exec( "clip" ).StdIn.Write( "テキスト" )</v>
+        <v>CreateObject("htmlfile").ParentWindow.Clipboarddata.GetData("text")</v>
       </c>
       <c r="D174" s="23" t="s">
         <v>398</v>
@@ -8947,72 +8974,75 @@
         <v>122</v>
       </c>
     </row>
-    <row r="175" spans="1:6" outlineLevel="1">
-      <c r="A175" s="2"/>
-      <c r="B175" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C175" s="4" t="str">
-        <f>C264</f>
-        <v>CreateObject("htmlfile").ParentWindow.Clipboarddata.GetData("text")</v>
-      </c>
-      <c r="D175" s="23" t="s">
-        <v>398</v>
-      </c>
-      <c r="E175" s="5"/>
+    <row r="175" spans="1:6">
+      <c r="A175" s="20" t="s">
+        <v>370</v>
+      </c>
+      <c r="B175" s="8"/>
+      <c r="C175" s="8"/>
+      <c r="D175" s="8"/>
+      <c r="E175" s="21" t="s">
+        <v>122</v>
+      </c>
       <c r="F175" s="11" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="176" spans="1:6">
-      <c r="A176" s="20" t="s">
-        <v>370</v>
-      </c>
-      <c r="B176" s="8"/>
-      <c r="C176" s="8"/>
-      <c r="D176" s="8"/>
-      <c r="E176" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="F176" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" outlineLevel="1">
-      <c r="A177" s="2"/>
-      <c r="B177" s="2" t="s">
+    <row r="176" spans="1:6" outlineLevel="1">
+      <c r="A176" s="2"/>
+      <c r="B176" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="C177" s="4" t="str">
+      <c r="C176" s="4" t="str">
         <f>"Dim objFSO"&amp;CHAR(10)&amp;"Set objFSO = CreateObject(""Scripting.FileSystemObject"")"</f>
         <v>Dim objFSO
 Set objFSO = CreateObject("Scripting.FileSystemObject")</v>
       </c>
-      <c r="D177" s="4" t="str">
+      <c r="D176" s="4" t="str">
         <f>"Dim objFSO As Object"&amp;CHAR(10)&amp;"Set objFSO = CreateObject(""Scripting.FileSystemObject"")"</f>
         <v>Dim objFSO As Object
 Set objFSO = CreateObject("Scripting.FileSystemObject")</v>
       </c>
-      <c r="E177" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F177" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" outlineLevel="1">
-      <c r="B178" s="2" t="s">
+      <c r="E176" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F176" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" outlineLevel="1">
+      <c r="B177" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="C178" s="23" t="s">
+      <c r="C177" s="23" t="s">
         <v>398</v>
       </c>
-      <c r="D178" s="4" t="str">
+      <c r="D177" s="4" t="str">
         <f>"objFSO.CopyFile ThisWorkbook.FullName, ""c:\temp\test.xlsm"""</f>
         <v>objFSO.CopyFile ThisWorkbook.FullName, "c:\temp\test.xlsm"</v>
       </c>
+      <c r="E177" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F177" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" outlineLevel="1">
+      <c r="A178" s="2"/>
+      <c r="B178" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C178" s="4" t="str">
+        <f>"objFSO.CopyFile ""C:\codes\a.txt"", ""C:\codes\test\"""</f>
+        <v>objFSO.CopyFile "C:\codes\a.txt", "C:\codes\test\"</v>
+      </c>
+      <c r="D178" s="4" t="str">
+        <f>"objFSO.CopyFile ""C:\codes\a.txt"", ""C:\codes\test\"""</f>
+        <v>objFSO.CopyFile "C:\codes\a.txt", "C:\codes\test\"</v>
+      </c>
       <c r="E178" s="5" t="s">
-        <v>122</v>
+        <v>281</v>
       </c>
       <c r="F178" s="11" t="s">
         <v>122</v>
@@ -9021,18 +9051,18 @@
     <row r="179" spans="1:6" outlineLevel="1">
       <c r="A179" s="2"/>
       <c r="B179" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C179" s="4" t="str">
-        <f>"objFSO.CopyFile ""C:\codes\a.txt"", ""C:\codes\test\"""</f>
-        <v>objFSO.CopyFile "C:\codes\a.txt", "C:\codes\test\"</v>
+        <f>"objFSO.CopyFile ""C:\codes\a.txt"", ""C:\codes\test\a.txt"""</f>
+        <v>objFSO.CopyFile "C:\codes\a.txt", "C:\codes\test\a.txt"</v>
       </c>
       <c r="D179" s="4" t="str">
-        <f>"objFSO.CopyFile ""C:\codes\a.txt"", ""C:\codes\test\"""</f>
-        <v>objFSO.CopyFile "C:\codes\a.txt", "C:\codes\test\"</v>
+        <f>"objFSO.CopyFile ""C:\codes\a.txt"", ""C:\codes\test\a.txt"""</f>
+        <v>objFSO.CopyFile "C:\codes\a.txt", "C:\codes\test\a.txt"</v>
       </c>
       <c r="E179" s="5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F179" s="11" t="s">
         <v>122</v>
@@ -9041,18 +9071,18 @@
     <row r="180" spans="1:6" outlineLevel="1">
       <c r="A180" s="2"/>
       <c r="B180" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C180" s="4" t="str">
-        <f>"objFSO.CopyFile ""C:\codes\a.txt"", ""C:\codes\test\a.txt"""</f>
-        <v>objFSO.CopyFile "C:\codes\a.txt", "C:\codes\test\a.txt"</v>
+        <f>"objFSO.DeleteFile ""c:\test"", True"</f>
+        <v>objFSO.DeleteFile "c:\test", True</v>
       </c>
       <c r="D180" s="4" t="str">
-        <f>"objFSO.CopyFile ""C:\codes\a.txt"", ""C:\codes\test\a.txt"""</f>
-        <v>objFSO.CopyFile "C:\codes\a.txt", "C:\codes\test\a.txt"</v>
+        <f>"objFSO.DeleteFile ""c:\test"", True"</f>
+        <v>objFSO.DeleteFile "c:\test", True</v>
       </c>
       <c r="E180" s="5" t="s">
-        <v>282</v>
+        <v>122</v>
       </c>
       <c r="F180" s="11" t="s">
         <v>122</v>
@@ -9061,15 +9091,15 @@
     <row r="181" spans="1:6" outlineLevel="1">
       <c r="A181" s="2"/>
       <c r="B181" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C181" s="4" t="str">
-        <f>"objFSO.DeleteFile ""c:\test"", True"</f>
-        <v>objFSO.DeleteFile "c:\test", True</v>
+        <f>"objFSO.MoveFile ""C:\codes\src.txt"", ""C:\codes\dst.txt"""</f>
+        <v>objFSO.MoveFile "C:\codes\src.txt", "C:\codes\dst.txt"</v>
       </c>
       <c r="D181" s="4" t="str">
-        <f>"objFSO.DeleteFile ""c:\test"", True"</f>
-        <v>objFSO.DeleteFile "c:\test", True</v>
+        <f>"objFSO.MoveFile ""C:\codes\src.txt"", ""C:\codes\dst.txt"""</f>
+        <v>objFSO.MoveFile "C:\codes\src.txt", "C:\codes\dst.txt"</v>
       </c>
       <c r="E181" s="5" t="s">
         <v>122</v>
@@ -9081,18 +9111,18 @@
     <row r="182" spans="1:6" outlineLevel="1">
       <c r="A182" s="2"/>
       <c r="B182" s="2" t="s">
-        <v>49</v>
+        <v>147</v>
       </c>
       <c r="C182" s="4" t="str">
-        <f>"objFSO.MoveFile ""C:\codes\src.txt"", ""C:\codes\dst.txt"""</f>
-        <v>objFSO.MoveFile "C:\codes\src.txt", "C:\codes\dst.txt"</v>
+        <f>"objFSO.FileExists(""c:\codes\a.txt"") 'True"</f>
+        <v>objFSO.FileExists("c:\codes\a.txt") 'True</v>
       </c>
       <c r="D182" s="4" t="str">
-        <f>"objFSO.MoveFile ""C:\codes\src.txt"", ""C:\codes\dst.txt"""</f>
-        <v>objFSO.MoveFile "C:\codes\src.txt", "C:\codes\dst.txt"</v>
+        <f>"objFSO.FileExists(""c:\codes\a.txt"")"</f>
+        <v>objFSO.FileExists("c:\codes\a.txt")</v>
       </c>
       <c r="E182" s="5" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="F182" s="11" t="s">
         <v>122</v>
@@ -9101,32 +9131,12 @@
     <row r="183" spans="1:6" outlineLevel="1">
       <c r="A183" s="2"/>
       <c r="B183" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C183" s="4" t="str">
-        <f>"objFSO.FileExists(""c:\codes\a.txt"") 'True"</f>
-        <v>objFSO.FileExists("c:\codes\a.txt") 'True</v>
+        <v>148</v>
+      </c>
+      <c r="C183" s="22" t="s">
+        <v>398</v>
       </c>
       <c r="D183" s="4" t="str">
-        <f>"objFSO.FileExists(""c:\codes\a.txt"")"</f>
-        <v>objFSO.FileExists("c:\codes\a.txt")</v>
-      </c>
-      <c r="E183" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="F183" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" outlineLevel="1">
-      <c r="A184" s="2"/>
-      <c r="B184" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C184" s="22" t="s">
-        <v>398</v>
-      </c>
-      <c r="D184" s="4" t="str">
         <f>"If Dir(""C:\Book1.xlsx"") &lt;&gt; """" Then"&amp;CHAR(10)&amp;CHAR(9)&amp;"存在"&amp;CHAR(10)&amp;"Else"&amp;CHAR(10)&amp;CHAR(9)&amp;"非存在"&amp;CHAR(10)&amp;"End If"</f>
         <v>If Dir("C:\Book1.xlsx") &lt;&gt; "" Then
 	存在
@@ -9134,8 +9144,28 @@
 	非存在
 End If</v>
       </c>
-      <c r="E184" s="5" t="s">
-        <v>122</v>
+      <c r="E183" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F183" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" outlineLevel="1">
+      <c r="A184" s="2"/>
+      <c r="B184" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C184" s="4" t="str">
+        <f>"objFSO.GetFile( ""C:\codes\a.txt"" ).Attributes"</f>
+        <v>objFSO.GetFile( "C:\codes\a.txt" ).Attributes</v>
+      </c>
+      <c r="D184" s="4" t="str">
+        <f>"objFSO.GetFile( ""C:\codes\a.txt"" ).Attributes"</f>
+        <v>objFSO.GetFile( "C:\codes\a.txt" ).Attributes</v>
+      </c>
+      <c r="E184" s="9" t="s">
+        <v>137</v>
       </c>
       <c r="F184" s="11" t="s">
         <v>122</v>
@@ -9144,18 +9174,18 @@
     <row r="185" spans="1:6" outlineLevel="1">
       <c r="A185" s="2"/>
       <c r="B185" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C185" s="4" t="str">
-        <f>"objFSO.GetFile( ""C:\codes\a.txt"" ).Attributes"</f>
-        <v>objFSO.GetFile( "C:\codes\a.txt" ).Attributes</v>
+        <f>"objFSO.GetFile( ""C:\codes\a.txt"" ).Attributes = 2"</f>
+        <v>objFSO.GetFile( "C:\codes\a.txt" ).Attributes = 2</v>
       </c>
       <c r="D185" s="4" t="str">
-        <f>"objFSO.GetFile( ""C:\codes\a.txt"" ).Attributes"</f>
-        <v>objFSO.GetFile( "C:\codes\a.txt" ).Attributes</v>
-      </c>
-      <c r="E185" s="9" t="s">
-        <v>137</v>
+        <f>"objFSO.GetFile( ""C:\codes\a.txt"" ).Attributes = 2"</f>
+        <v>objFSO.GetFile( "C:\codes\a.txt" ).Attributes = 2</v>
+      </c>
+      <c r="E185" s="5" t="s">
+        <v>122</v>
       </c>
       <c r="F185" s="11" t="s">
         <v>122</v>
@@ -9164,18 +9194,18 @@
     <row r="186" spans="1:6" outlineLevel="1">
       <c r="A186" s="2"/>
       <c r="B186" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C186" s="4" t="str">
-        <f>"objFSO.GetFile( ""C:\codes\a.txt"" ).Attributes = 2"</f>
-        <v>objFSO.GetFile( "C:\codes\a.txt" ).Attributes = 2</v>
+        <f>"objFSO.GetAbsolutePathName( ""C:\codes\a.txt"" )"</f>
+        <v>objFSO.GetAbsolutePathName( "C:\codes\a.txt" )</v>
       </c>
       <c r="D186" s="4" t="str">
-        <f>"objFSO.GetFile( ""C:\codes\a.txt"" ).Attributes = 2"</f>
-        <v>objFSO.GetFile( "C:\codes\a.txt" ).Attributes = 2</v>
+        <f>"objFSO.GetAbsolutePathName( ""C:\codes\a.txt"" )"</f>
+        <v>objFSO.GetAbsolutePathName( "C:\codes\a.txt" )</v>
       </c>
       <c r="E186" s="5" t="s">
-        <v>122</v>
+        <v>264</v>
       </c>
       <c r="F186" s="11" t="s">
         <v>122</v>
@@ -9184,18 +9214,18 @@
     <row r="187" spans="1:6" outlineLevel="1">
       <c r="A187" s="2"/>
       <c r="B187" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C187" s="4" t="str">
-        <f>"objFSO.GetAbsolutePathName( ""C:\codes\a.txt"" )"</f>
-        <v>objFSO.GetAbsolutePathName( "C:\codes\a.txt" )</v>
+        <f>"objFSO.GetDriveName( ""C:\codes\a.txt"" )"</f>
+        <v>objFSO.GetDriveName( "C:\codes\a.txt" )</v>
       </c>
       <c r="D187" s="4" t="str">
-        <f>"objFSO.GetAbsolutePathName( ""C:\codes\a.txt"" )"</f>
-        <v>objFSO.GetAbsolutePathName( "C:\codes\a.txt" )</v>
+        <f>"objFSO.GetDriveName( ""C:\codes\a.txt"" )"</f>
+        <v>objFSO.GetDriveName( "C:\codes\a.txt" )</v>
       </c>
       <c r="E187" s="5" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F187" s="11" t="s">
         <v>122</v>
@@ -9204,18 +9234,18 @@
     <row r="188" spans="1:6" outlineLevel="1">
       <c r="A188" s="2"/>
       <c r="B188" s="2" t="s">
-        <v>53</v>
+        <v>726</v>
       </c>
       <c r="C188" s="4" t="str">
-        <f>"objFSO.GetDriveName( ""C:\codes\a.txt"" )"</f>
-        <v>objFSO.GetDriveName( "C:\codes\a.txt" )</v>
+        <f>"objFSO.GetFileName( ""C:\codes\a.txt"" )"</f>
+        <v>objFSO.GetFileName( "C:\codes\a.txt" )</v>
       </c>
       <c r="D188" s="4" t="str">
-        <f>"objFSO.GetDriveName( ""C:\codes\a.txt"" )"</f>
-        <v>objFSO.GetDriveName( "C:\codes\a.txt" )</v>
+        <f>"objFSO.GetFileName( ""C:\codes\a.txt"" )"</f>
+        <v>objFSO.GetFileName( "C:\codes\a.txt" )</v>
       </c>
       <c r="E188" s="5" t="s">
-        <v>265</v>
+        <v>727</v>
       </c>
       <c r="F188" s="11" t="s">
         <v>122</v>
@@ -9224,18 +9254,18 @@
     <row r="189" spans="1:6" outlineLevel="1">
       <c r="A189" s="2"/>
       <c r="B189" s="2" t="s">
-        <v>728</v>
+        <v>56</v>
       </c>
       <c r="C189" s="4" t="str">
-        <f>"objFSO.GetFileName( ""C:\codes\a.txt"" )"</f>
-        <v>objFSO.GetFileName( "C:\codes\a.txt" )</v>
+        <f>"objFSO.GetParentFolderName( ""C:\codes\a.txt"" )"</f>
+        <v>objFSO.GetParentFolderName( "C:\codes\a.txt" )</v>
       </c>
       <c r="D189" s="4" t="str">
-        <f>"objFSO.GetFileName( ""C:\codes\a.txt"" )"</f>
-        <v>objFSO.GetFileName( "C:\codes\a.txt" )</v>
+        <f>"objFSO.GetParentFolderName( ""C:\codes\a.txt"" )"</f>
+        <v>objFSO.GetParentFolderName( "C:\codes\a.txt" )</v>
       </c>
       <c r="E189" s="5" t="s">
-        <v>729</v>
+        <v>268</v>
       </c>
       <c r="F189" s="11" t="s">
         <v>122</v>
@@ -9244,18 +9274,18 @@
     <row r="190" spans="1:6" outlineLevel="1">
       <c r="A190" s="2"/>
       <c r="B190" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C190" s="4" t="str">
-        <f>"objFSO.GetParentFolderName( ""C:\codes\a.txt"" )"</f>
-        <v>objFSO.GetParentFolderName( "C:\codes\a.txt" )</v>
+        <f>"objFSO.GetBaseName( ""C:\codes\a.txt"" )"</f>
+        <v>objFSO.GetBaseName( "C:\codes\a.txt" )</v>
       </c>
       <c r="D190" s="4" t="str">
-        <f>"objFSO.GetParentFolderName( ""C:\codes\a.txt"" )"</f>
-        <v>objFSO.GetParentFolderName( "C:\codes\a.txt" )</v>
+        <f>"objFSO.GetBaseName( ""C:\codes\a.txt"" )"</f>
+        <v>objFSO.GetBaseName( "C:\codes\a.txt" )</v>
       </c>
       <c r="E190" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F190" s="11" t="s">
         <v>122</v>
@@ -9264,18 +9294,18 @@
     <row r="191" spans="1:6" outlineLevel="1">
       <c r="A191" s="2"/>
       <c r="B191" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C191" s="4" t="str">
-        <f>"objFSO.GetBaseName( ""C:\codes\a.txt"" )"</f>
-        <v>objFSO.GetBaseName( "C:\codes\a.txt" )</v>
+        <f>"objFSO.GetExtensionName( ""C:\codes\a.txt"" )"</f>
+        <v>objFSO.GetExtensionName( "C:\codes\a.txt" )</v>
       </c>
       <c r="D191" s="4" t="str">
-        <f>"objFSO.GetBaseName( ""C:\codes\a.txt"" )"</f>
-        <v>objFSO.GetBaseName( "C:\codes\a.txt" )</v>
+        <f>"objFSO.GetExtensionName( ""C:\codes\a.txt"" )"</f>
+        <v>objFSO.GetExtensionName( "C:\codes\a.txt" )</v>
       </c>
       <c r="E191" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F191" s="11" t="s">
         <v>122</v>
@@ -9284,18 +9314,18 @@
     <row r="192" spans="1:6" outlineLevel="1">
       <c r="A192" s="2"/>
       <c r="B192" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C192" s="4" t="str">
-        <f>"objFSO.GetExtensionName( ""C:\codes\a.txt"" )"</f>
-        <v>objFSO.GetExtensionName( "C:\codes\a.txt" )</v>
+        <f>"objFSO.CopyFolder ""C:\codes\src"", ""C:\codes\dst"", True"</f>
+        <v>objFSO.CopyFolder "C:\codes\src", "C:\codes\dst", True</v>
       </c>
       <c r="D192" s="4" t="str">
-        <f>"objFSO.GetExtensionName( ""C:\codes\a.txt"" )"</f>
-        <v>objFSO.GetExtensionName( "C:\codes\a.txt" )</v>
+        <f>"objFSO.CopyFolder ""C:\codes\src"", ""C:\codes\dst"", True"</f>
+        <v>objFSO.CopyFolder "C:\codes\src", "C:\codes\dst", True</v>
       </c>
       <c r="E192" s="5" t="s">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="F192" s="11" t="s">
         <v>122</v>
@@ -9304,18 +9334,18 @@
     <row r="193" spans="1:6" outlineLevel="1">
       <c r="A193" s="2"/>
       <c r="B193" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C193" s="4" t="str">
-        <f>"objFSO.CopyFolder ""C:\codes\src"", ""C:\codes\dst"", True"</f>
-        <v>objFSO.CopyFolder "C:\codes\src", "C:\codes\dst", True</v>
+        <f>"objFSO.DeleteFolder ""C:\codes\test"", True"</f>
+        <v>objFSO.DeleteFolder "C:\codes\test", True</v>
       </c>
       <c r="D193" s="4" t="str">
-        <f>"objFSO.CopyFolder ""C:\codes\src"", ""C:\codes\dst"", True"</f>
-        <v>objFSO.CopyFolder "C:\codes\src", "C:\codes\dst", True</v>
+        <f>"objFSO.DeleteFolder ""C:\codes\test"", True"</f>
+        <v>objFSO.DeleteFolder "C:\codes\test", True</v>
       </c>
       <c r="E193" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F193" s="11" t="s">
         <v>122</v>
@@ -9324,18 +9354,18 @@
     <row r="194" spans="1:6" outlineLevel="1">
       <c r="A194" s="2"/>
       <c r="B194" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C194" s="4" t="str">
-        <f>"objFSO.DeleteFolder ""C:\codes\test"", True"</f>
-        <v>objFSO.DeleteFolder "C:\codes\test", True</v>
+        <f>"objFSO.CreateFolder( ""C:\codes\test"" )"</f>
+        <v>objFSO.CreateFolder( "C:\codes\test" )</v>
       </c>
       <c r="D194" s="4" t="str">
-        <f>"objFSO.DeleteFolder ""C:\codes\test"", True"</f>
-        <v>objFSO.DeleteFolder "C:\codes\test", True</v>
+        <f>"objFSO.CreateFolder( ""C:\codes\test"" )"</f>
+        <v>objFSO.CreateFolder( "C:\codes\test" )</v>
       </c>
       <c r="E194" s="5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F194" s="11" t="s">
         <v>122</v>
@@ -9344,18 +9374,18 @@
     <row r="195" spans="1:6" outlineLevel="1">
       <c r="A195" s="2"/>
       <c r="B195" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C195" s="4" t="str">
-        <f>"objFSO.CreateFolder( ""C:\codes\test"" )"</f>
-        <v>objFSO.CreateFolder( "C:\codes\test" )</v>
+        <f>"objFSO.MoveFolder ""C:\codes\src"", ""C:\codes\dst"""</f>
+        <v>objFSO.MoveFolder "C:\codes\src", "C:\codes\dst"</v>
       </c>
       <c r="D195" s="4" t="str">
-        <f>"objFSO.CreateFolder( ""C:\codes\test"" )"</f>
-        <v>objFSO.CreateFolder( "C:\codes\test" )</v>
+        <f>"objFSO.MoveFolder ""C:\codes\src"", ""C:\codes\dst"""</f>
+        <v>objFSO.MoveFolder "C:\codes\src", "C:\codes\dst"</v>
       </c>
       <c r="E195" s="5" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F195" s="11" t="s">
         <v>122</v>
@@ -9364,18 +9394,17 @@
     <row r="196" spans="1:6" outlineLevel="1">
       <c r="A196" s="2"/>
       <c r="B196" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C196" s="4" t="str">
-        <f>"objFSO.MoveFolder ""C:\codes\src"", ""C:\codes\dst"""</f>
-        <v>objFSO.MoveFolder "C:\codes\src", "C:\codes\dst"</v>
+        <v>61</v>
+      </c>
+      <c r="C196" s="4" t="s">
+        <v>392</v>
       </c>
       <c r="D196" s="4" t="str">
-        <f>"objFSO.MoveFolder ""C:\codes\src"", ""C:\codes\dst"""</f>
-        <v>objFSO.MoveFolder "C:\codes\src", "C:\codes\dst"</v>
+        <f>"objFSO.GetFolder( ""C:\codes"" ).Attributes"</f>
+        <v>objFSO.GetFolder( "C:\codes" ).Attributes</v>
       </c>
       <c r="E196" s="5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F196" s="11" t="s">
         <v>122</v>
@@ -9384,17 +9413,18 @@
     <row r="197" spans="1:6" outlineLevel="1">
       <c r="A197" s="2"/>
       <c r="B197" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C197" s="4" t="s">
-        <v>392</v>
+        <v>390</v>
+      </c>
+      <c r="C197" s="4" t="str">
+        <f>"objFSO.FolderExists( ""C:\codes"" )"</f>
+        <v>objFSO.FolderExists( "C:\codes" )</v>
       </c>
       <c r="D197" s="4" t="str">
-        <f>"objFSO.GetFolder( ""C:\codes"" ).Attributes"</f>
-        <v>objFSO.GetFolder( "C:\codes" ).Attributes</v>
-      </c>
-      <c r="E197" s="5" t="s">
-        <v>287</v>
+        <f>"objFSO.FolderExists( ""C:\codes"" )"</f>
+        <v>objFSO.FolderExists( "C:\codes" )</v>
+      </c>
+      <c r="E197" s="5" t="b">
+        <v>1</v>
       </c>
       <c r="F197" s="11" t="s">
         <v>122</v>
@@ -9403,128 +9433,108 @@
     <row r="198" spans="1:6" outlineLevel="1">
       <c r="A198" s="2"/>
       <c r="B198" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C198" s="4" t="str">
-        <f>"objFSO.FolderExists( ""C:\codes"" )"</f>
-        <v>objFSO.FolderExists( "C:\codes" )</v>
-      </c>
-      <c r="D198" s="4" t="str">
-        <f>"objFSO.FolderExists( ""C:\codes"" )"</f>
-        <v>objFSO.FolderExists( "C:\codes" )</v>
-      </c>
-      <c r="E198" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F198" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" outlineLevel="1">
-      <c r="A199" s="2"/>
-      <c r="B199" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="C199" s="4" t="str">
         <f>"objFSO.GetParentFolderName( ""C:\codes\src"" )"</f>
         <v>objFSO.GetParentFolderName( "C:\codes\src" )</v>
       </c>
-      <c r="D199" s="4" t="str">
+      <c r="D198" s="4" t="str">
         <f>"objFSO.GetParentFolderName( ""C:\codes\src"" )"</f>
         <v>objFSO.GetParentFolderName( "C:\codes\src" )</v>
       </c>
+      <c r="E198" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="F198" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" outlineLevel="1">
+      <c r="B199" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C199" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="D199" s="4" t="s">
+        <v>342</v>
+      </c>
       <c r="E199" s="5" t="s">
-        <v>268</v>
+        <v>343</v>
       </c>
       <c r="F199" s="11" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="200" spans="1:6" outlineLevel="1">
-      <c r="B200" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="C200" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="D200" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="E200" s="5" t="s">
-        <v>343</v>
+    <row r="200" spans="1:6">
+      <c r="A200" s="20" t="s">
+        <v>482</v>
+      </c>
+      <c r="B200" s="8"/>
+      <c r="C200" s="8"/>
+      <c r="D200" s="8"/>
+      <c r="E200" s="21" t="s">
+        <v>122</v>
       </c>
       <c r="F200" s="11" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="201" spans="1:6">
-      <c r="A201" s="20" t="s">
-        <v>483</v>
-      </c>
-      <c r="B201" s="8"/>
-      <c r="C201" s="8"/>
-      <c r="D201" s="8"/>
-      <c r="E201" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="F201" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" outlineLevel="1">
-      <c r="A202" s="2"/>
-      <c r="B202" s="2" t="s">
+    <row r="201" spans="1:6" outlineLevel="1">
+      <c r="A201" s="2"/>
+      <c r="B201" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="C202" s="26" t="str">
+      <c r="C201" s="26" t="str">
         <f>"Dim oRegExp
 Set oRegExp = CreateObject(""VBScript.RegExp"")"</f>
         <v>Dim oRegExp
 Set oRegExp = CreateObject("VBScript.RegExp")</v>
       </c>
-      <c r="D202" s="10" t="str">
+      <c r="D201" s="10" t="str">
         <f>"Dim oRegExp As Object
 Set oRegExp = CreateObject(""VBScript.RegExp"")"</f>
         <v>Dim oRegExp As Object
 Set oRegExp = CreateObject("VBScript.RegExp")</v>
       </c>
-      <c r="E202" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F202" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" outlineLevel="1">
-      <c r="A203" s="2"/>
-      <c r="B203" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="C203" s="26" t="str">
+      <c r="E201" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F201" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" outlineLevel="1">
+      <c r="A202" s="2"/>
+      <c r="B202" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C202" s="26" t="str">
         <f>"Dim sTargetStr
 sTargetStr = ""TestFunc(int bbb) TestFunc01(char aaa) TestFunc02(int bbb)"""</f>
         <v>Dim sTargetStr
 sTargetStr = "TestFunc(int bbb) TestFunc01(char aaa) TestFunc02(int bbb)"</v>
       </c>
-      <c r="D203" s="10" t="str">
+      <c r="D202" s="10" t="str">
         <f>"Dim sTargetStr As String
 sTargetStr = ""TestFunc(int bbb) TestFunc01(char aaa) TestFunc02(int bbb)"""</f>
         <v>Dim sTargetStr As String
 sTargetStr = "TestFunc(int bbb) TestFunc01(char aaa) TestFunc02(int bbb)"</v>
       </c>
-      <c r="E203" s="5" t="s">
-        <v>487</v>
-      </c>
-      <c r="F203" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" outlineLevel="1">
-      <c r="A204" s="2"/>
-      <c r="B204" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="C204" s="26" t="str">
+      <c r="E202" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="F202" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" outlineLevel="1">
+      <c r="A203" s="2"/>
+      <c r="B203" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="C203" s="26" t="str">
         <f>"Dim sSearchPattern
 sSearchPattern = ""(\w+)\((\w+) (\w+)\)""
 oRegExp.Pattern = sSearchPattern"</f>
@@ -9532,7 +9542,7 @@
 sSearchPattern = "(\w+)\((\w+) (\w+)\)"
 oRegExp.Pattern = sSearchPattern</v>
       </c>
-      <c r="D204" s="10" t="str">
+      <c r="D203" s="10" t="str">
         <f>"Dim sSearchPattern As String
 sSearchPattern = ""(\w+)\((\w+) (\w+)\)""
 oRegExp.Pattern = sSearchPattern"</f>
@@ -9540,8 +9550,26 @@
 sSearchPattern = "(\w+)\((\w+) (\w+)\)"
 oRegExp.Pattern = sSearchPattern</v>
       </c>
+      <c r="E203" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="F203" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" outlineLevel="1">
+      <c r="A204" s="2"/>
+      <c r="B204" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="C204" s="27" t="s">
+        <v>487</v>
+      </c>
+      <c r="D204" s="10" t="s">
+        <v>465</v>
+      </c>
       <c r="E204" s="5" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="F204" s="11" t="s">
         <v>122</v>
@@ -9552,14 +9580,14 @@
       <c r="B205" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="C205" s="27" t="s">
+      <c r="C205" s="26" t="s">
         <v>488</v>
       </c>
       <c r="D205" s="10" t="s">
         <v>466</v>
       </c>
       <c r="E205" s="5" t="s">
-        <v>482</v>
+        <v>122</v>
       </c>
       <c r="F205" s="11" t="s">
         <v>122</v>
@@ -9568,40 +9596,40 @@
     <row r="206" spans="1:6" outlineLevel="1">
       <c r="A206" s="2"/>
       <c r="B206" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="C206" s="26" t="s">
-        <v>489</v>
-      </c>
-      <c r="D206" s="10" t="s">
-        <v>467</v>
-      </c>
-      <c r="E206" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F206" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" outlineLevel="1">
-      <c r="A207" s="2"/>
-      <c r="B207" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="C207" s="26" t="str">
+        <v>463</v>
+      </c>
+      <c r="C206" s="26" t="str">
         <f>"Dim oMatchResult
 Set oMatchResult = oRegExp.Execute(sTargetStr)"</f>
         <v>Dim oMatchResult
 Set oMatchResult = oRegExp.Execute(sTargetStr)</v>
       </c>
-      <c r="D207" s="10" t="str">
+      <c r="D206" s="10" t="str">
         <f>"Dim oMatchResult As Object
 Set oMatchResult = oRegExp.Execute(sTargetStr)"</f>
         <v>Dim oMatchResult As Object
 Set oMatchResult = oRegExp.Execute(sTargetStr)</v>
       </c>
+      <c r="E206" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F206" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" outlineLevel="1">
+      <c r="A207" s="2"/>
+      <c r="B207" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="C207" s="26" t="s">
+        <v>489</v>
+      </c>
+      <c r="D207" s="10" t="s">
+        <v>467</v>
+      </c>
       <c r="E207" s="5" t="s">
-        <v>122</v>
+        <v>474</v>
       </c>
       <c r="F207" s="11" t="s">
         <v>122</v>
@@ -9610,16 +9638,16 @@
     <row r="208" spans="1:6" outlineLevel="1">
       <c r="A208" s="2"/>
       <c r="B208" s="2" t="s">
-        <v>738</v>
+        <v>468</v>
       </c>
       <c r="C208" s="26" t="s">
         <v>490</v>
       </c>
       <c r="D208" s="10" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="E208" s="5" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="F208" s="11" t="s">
         <v>122</v>
@@ -9628,7 +9656,7 @@
     <row r="209" spans="1:6" outlineLevel="1">
       <c r="A209" s="2"/>
       <c r="B209" s="2" t="s">
-        <v>469</v>
+        <v>738</v>
       </c>
       <c r="C209" s="26" t="s">
         <v>491</v>
@@ -9646,7 +9674,7 @@
     <row r="210" spans="1:6" outlineLevel="1">
       <c r="A210" s="2"/>
       <c r="B210" s="2" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="C210" s="26" t="s">
         <v>492</v>
@@ -9664,16 +9692,16 @@
     <row r="211" spans="1:6" outlineLevel="1">
       <c r="A211" s="2"/>
       <c r="B211" s="2" t="s">
-        <v>739</v>
+        <v>728</v>
       </c>
       <c r="C211" s="26" t="s">
-        <v>493</v>
+        <v>730</v>
       </c>
       <c r="D211" s="10" t="s">
-        <v>478</v>
-      </c>
-      <c r="E211" s="5" t="s">
-        <v>481</v>
+        <v>729</v>
+      </c>
+      <c r="E211" s="35" t="s">
+        <v>734</v>
       </c>
       <c r="F211" s="11" t="s">
         <v>122</v>
@@ -9682,16 +9710,16 @@
     <row r="212" spans="1:6" outlineLevel="1">
       <c r="A212" s="2"/>
       <c r="B212" s="2" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C212" s="26" t="s">
         <v>732</v>
       </c>
       <c r="D212" s="10" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="E212" s="35" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="F212" s="11" t="s">
         <v>122</v>
@@ -9700,77 +9728,76 @@
     <row r="213" spans="1:6" outlineLevel="1">
       <c r="A213" s="2"/>
       <c r="B213" s="2" t="s">
-        <v>733</v>
-      </c>
-      <c r="C213" s="26" t="s">
-        <v>734</v>
-      </c>
-      <c r="D213" s="10" t="s">
-        <v>735</v>
-      </c>
-      <c r="E213" s="35" t="s">
-        <v>737</v>
-      </c>
-      <c r="F213" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" outlineLevel="1">
-      <c r="A214" s="2"/>
-      <c r="B214" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="C214" s="26" t="str">
+        <v>469</v>
+      </c>
+      <c r="C213" s="26" t="str">
         <f>"Dim sReplacePattern
 sReplacePattern = ""型名:$2"""</f>
         <v>Dim sReplacePattern
 sReplacePattern = "型名:$2"</v>
       </c>
-      <c r="D214" s="10" t="str">
+      <c r="D213" s="10" t="str">
         <f>"Dim sReplacePattern As String
 sReplacePattern = ""型名:$2"""</f>
         <v>Dim sReplacePattern As String
 sReplacePattern = "型名:$2"</v>
       </c>
-      <c r="E214" s="5"/>
-      <c r="F214" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" outlineLevel="1">
-      <c r="A215" s="2"/>
-      <c r="B215" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="C215" s="26" t="str">
+      <c r="E213" s="5"/>
+      <c r="F213" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" outlineLevel="1">
+      <c r="A214" s="2"/>
+      <c r="B214" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="C214" s="26" t="str">
         <f>"Dim sReplaceResult
 oRegExp.Replace(sTargetStr, sReplacePattern)"</f>
         <v>Dim sReplaceResult
 oRegExp.Replace(sTargetStr, sReplacePattern)</v>
       </c>
-      <c r="D215" s="10" t="str">
+      <c r="D214" s="10" t="str">
         <f>"Dim sReplaceResult As String
 sReplaceResult = oRegExp.Replace(sTargetStr, sReplacePattern)"</f>
         <v>Dim sReplaceResult As String
 sReplaceResult = oRegExp.Replace(sTargetStr, sReplacePattern)</v>
       </c>
-      <c r="E215" s="5" t="s">
-        <v>485</v>
+      <c r="E214" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="F214" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
+      <c r="A215" s="20" t="s">
+        <v>399</v>
+      </c>
+      <c r="B215" s="8"/>
+      <c r="C215" s="8"/>
+      <c r="D215" s="8"/>
+      <c r="E215" s="21" t="s">
+        <v>122</v>
       </c>
       <c r="F215" s="11" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="216" spans="1:6">
-      <c r="A216" s="20" t="s">
-        <v>399</v>
-      </c>
-      <c r="B216" s="8"/>
-      <c r="C216" s="8"/>
-      <c r="D216" s="8"/>
-      <c r="E216" s="21" t="s">
-        <v>122</v>
-      </c>
+    <row r="216" spans="1:6" outlineLevel="1">
+      <c r="A216" s="2"/>
+      <c r="B216" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C216" s="4" t="str">
+        <f>"WScript.ScriptFullName"</f>
+        <v>WScript.ScriptFullName</v>
+      </c>
+      <c r="D216" s="25" t="s">
+        <v>420</v>
+      </c>
+      <c r="E216" s="5"/>
       <c r="F216" s="11" t="s">
         <v>122</v>
       </c>
@@ -9778,14 +9805,14 @@
     <row r="217" spans="1:6" outlineLevel="1">
       <c r="A217" s="2"/>
       <c r="B217" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C217" s="4" t="str">
-        <f>"WScript.ScriptFullName"</f>
-        <v>WScript.ScriptFullName</v>
+        <f>"WScript.ScriptName"</f>
+        <v>WScript.ScriptName</v>
       </c>
       <c r="D217" s="25" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="E217" s="5"/>
       <c r="F217" s="11" t="s">
@@ -9795,14 +9822,14 @@
     <row r="218" spans="1:6" outlineLevel="1">
       <c r="A218" s="2"/>
       <c r="B218" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C218" s="4" t="str">
-        <f>"WScript.ScriptName"</f>
-        <v>WScript.ScriptName</v>
-      </c>
-      <c r="D218" s="25" t="s">
-        <v>419</v>
+        <f>"Mid( WScript.ScriptName, 1, InStrRev( WScript.ScriptName, ""."" ) - 1 )"</f>
+        <v>Mid( WScript.ScriptName, 1, InStrRev( WScript.ScriptName, "." ) - 1 )</v>
+      </c>
+      <c r="D218" s="22" t="s">
+        <v>398</v>
       </c>
       <c r="E218" s="5"/>
       <c r="F218" s="11" t="s">
@@ -9812,11 +9839,11 @@
     <row r="219" spans="1:6" outlineLevel="1">
       <c r="A219" s="2"/>
       <c r="B219" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C219" s="4" t="str">
-        <f>"Mid( WScript.ScriptName, 1, InStrRev( WScript.ScriptName, ""."" ) - 1 )"</f>
-        <v>Mid( WScript.ScriptName, 1, InStrRev( WScript.ScriptName, "." ) - 1 )</v>
+        <f>"objFSO.GetBaseName( WScript.ScriptName )"</f>
+        <v>objFSO.GetBaseName( WScript.ScriptName )</v>
       </c>
       <c r="D219" s="22" t="s">
         <v>398</v>
@@ -9829,14 +9856,14 @@
     <row r="220" spans="1:6" outlineLevel="1">
       <c r="A220" s="2"/>
       <c r="B220" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C220" s="4" t="str">
-        <f>"objFSO.GetBaseName( WScript.ScriptName )"</f>
-        <v>objFSO.GetBaseName( WScript.ScriptName )</v>
-      </c>
-      <c r="D220" s="22" t="s">
-        <v>398</v>
+        <f>"Replace( WScript.ScriptFullName, ""\"" &amp; WScript.ScriptName, """" )"</f>
+        <v>Replace( WScript.ScriptFullName, "\" &amp; WScript.ScriptName, "" )</v>
+      </c>
+      <c r="D220" s="10" t="s">
+        <v>419</v>
       </c>
       <c r="E220" s="5"/>
       <c r="F220" s="11" t="s">
@@ -9846,45 +9873,48 @@
     <row r="221" spans="1:6" outlineLevel="1">
       <c r="A221" s="2"/>
       <c r="B221" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C221" s="4" t="str">
-        <f>"Replace( WScript.ScriptFullName, ""\"" &amp; WScript.ScriptName, """" )"</f>
-        <v>Replace( WScript.ScriptFullName, "\" &amp; WScript.ScriptName, "" )</v>
-      </c>
-      <c r="D221" s="10" t="s">
-        <v>420</v>
+        <f>"objFSO.GetParentFolderName( WScript.ScriptFullName )"</f>
+        <v>objFSO.GetParentFolderName( WScript.ScriptFullName )</v>
+      </c>
+      <c r="D221" s="22" t="s">
+        <v>398</v>
       </c>
       <c r="E221" s="5"/>
       <c r="F221" s="11" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="222" spans="1:6" outlineLevel="1">
-      <c r="A222" s="2"/>
-      <c r="B222" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C222" s="4" t="str">
-        <f>"objFSO.GetParentFolderName( WScript.ScriptFullName )"</f>
-        <v>objFSO.GetParentFolderName( WScript.ScriptFullName )</v>
-      </c>
-      <c r="D222" s="22" t="s">
+    <row r="222" spans="1:6">
+      <c r="A222" s="20" t="s">
+        <v>400</v>
+      </c>
+      <c r="B222" s="8"/>
+      <c r="C222" s="8"/>
+      <c r="D222" s="8"/>
+      <c r="E222" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="F222" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" outlineLevel="1">
+      <c r="A223" s="2"/>
+      <c r="B223" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C223" s="22" t="s">
         <v>398</v>
       </c>
-      <c r="E222" s="5"/>
-      <c r="F222" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6">
-      <c r="A223" s="20" t="s">
-        <v>400</v>
-      </c>
-      <c r="B223" s="8"/>
-      <c r="C223" s="8"/>
-      <c r="D223" s="8"/>
-      <c r="E223" s="21" t="s">
+      <c r="D223" s="4" t="str">
+        <f>"Dim oChartObj As ChartObject"&amp;CHAR(10)&amp;"Set oChartObj = ThisWorkbook.Sheets(シート名).ChartObjects(1)"</f>
+        <v>Dim oChartObj As ChartObject
+Set oChartObj = ThisWorkbook.Sheets(シート名).ChartObjects(1)</v>
+      </c>
+      <c r="E223" s="5" t="s">
         <v>122</v>
       </c>
       <c r="F223" s="11" t="s">
@@ -9894,18 +9924,17 @@
     <row r="224" spans="1:6" outlineLevel="1">
       <c r="A224" s="2"/>
       <c r="B224" s="2" t="s">
-        <v>351</v>
+        <v>218</v>
       </c>
       <c r="C224" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D224" s="4" t="str">
-        <f>"Dim oChartObj As ChartObject"&amp;CHAR(10)&amp;"Set oChartObj = ThisWorkbook.Sheets(シート名).ChartObjects(1)"</f>
-        <v>Dim oChartObj As ChartObject
-Set oChartObj = ThisWorkbook.Sheets(シート名).ChartObjects(1)</v>
+        <f>"Set oChartObj = .Sheets(シート名).ChartObjects.Add( XPOS, YPOS, WIDTH, HEIGHT )"</f>
+        <v>Set oChartObj = .Sheets(シート名).ChartObjects.Add( XPOS, YPOS, WIDTH, HEIGHT )</v>
       </c>
       <c r="E224" s="5" t="s">
-        <v>122</v>
+        <v>307</v>
       </c>
       <c r="F224" s="11" t="s">
         <v>122</v>
@@ -9914,17 +9943,17 @@
     <row r="225" spans="1:6" outlineLevel="1">
       <c r="A225" s="2"/>
       <c r="B225" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C225" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D225" s="4" t="str">
-        <f>"Set oChartObj = .Sheets(シート名).ChartObjects.Add( XPOS, YPOS, WIDTH, HEIGHT )"</f>
-        <v>Set oChartObj = .Sheets(シート名).ChartObjects.Add( XPOS, YPOS, WIDTH, HEIGHT )</v>
+        <f>"oChartObj.Delete"</f>
+        <v>oChartObj.Delete</v>
       </c>
       <c r="E225" s="5" t="s">
-        <v>307</v>
+        <v>122</v>
       </c>
       <c r="F225" s="11" t="s">
         <v>122</v>
@@ -9933,14 +9962,14 @@
     <row r="226" spans="1:6" outlineLevel="1">
       <c r="A226" s="2"/>
       <c r="B226" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C226" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D226" s="4" t="str">
-        <f>"oChartObj.Delete"</f>
-        <v>oChartObj.Delete</v>
+        <f>"oChartObj.Chart.ChartArea.Copy"</f>
+        <v>oChartObj.Chart.ChartArea.Copy</v>
       </c>
       <c r="E226" s="5" t="s">
         <v>122</v>
@@ -9952,14 +9981,14 @@
     <row r="227" spans="1:6" outlineLevel="1">
       <c r="A227" s="2"/>
       <c r="B227" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C227" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D227" s="4" t="str">
-        <f>"oChartObj.Chart.ChartArea.Copy"</f>
-        <v>oChartObj.Chart.ChartArea.Copy</v>
+        <f>"oChartObj.Top = 10"</f>
+        <v>oChartObj.Top = 10</v>
       </c>
       <c r="E227" s="5" t="s">
         <v>122</v>
@@ -9971,14 +10000,14 @@
     <row r="228" spans="1:6" outlineLevel="1">
       <c r="A228" s="2"/>
       <c r="B228" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C228" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D228" s="4" t="str">
-        <f>"oChartObj.Top = 10"</f>
-        <v>oChartObj.Top = 10</v>
+        <f>"oChartObj.Left = 20"</f>
+        <v>oChartObj.Left = 20</v>
       </c>
       <c r="E228" s="5" t="s">
         <v>122</v>
@@ -9990,14 +10019,14 @@
     <row r="229" spans="1:6" outlineLevel="1">
       <c r="A229" s="2"/>
       <c r="B229" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C229" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D229" s="4" t="str">
-        <f>"oChartObj.Left = 20"</f>
-        <v>oChartObj.Left = 20</v>
+        <f>"oChartObj.Width = 200"</f>
+        <v>oChartObj.Width = 200</v>
       </c>
       <c r="E229" s="5" t="s">
         <v>122</v>
@@ -10009,14 +10038,14 @@
     <row r="230" spans="1:6" outlineLevel="1">
       <c r="A230" s="2"/>
       <c r="B230" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C230" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D230" s="4" t="str">
-        <f>"oChartObj.Width = 200"</f>
-        <v>oChartObj.Width = 200</v>
+        <f>"oChartObj.Height = 300"</f>
+        <v>oChartObj.Height = 300</v>
       </c>
       <c r="E230" s="5" t="s">
         <v>122</v>
@@ -10028,17 +10057,17 @@
     <row r="231" spans="1:6" outlineLevel="1">
       <c r="A231" s="2"/>
       <c r="B231" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C231" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D231" s="4" t="str">
-        <f>"oChartObj.Height = 300"</f>
-        <v>oChartObj.Height = 300</v>
+        <f>"oChartObj.Chart.ChartType = xlXYScatterLines"</f>
+        <v>oChartObj.Chart.ChartType = xlXYScatterLines</v>
       </c>
       <c r="E231" s="5" t="s">
-        <v>122</v>
+        <v>308</v>
       </c>
       <c r="F231" s="11" t="s">
         <v>122</v>
@@ -10047,17 +10076,17 @@
     <row r="232" spans="1:6" outlineLevel="1">
       <c r="A232" s="2"/>
       <c r="B232" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C232" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D232" s="4" t="str">
-        <f>"oChartObj.Chart.ChartType = xlXYScatterLines"</f>
-        <v>oChartObj.Chart.ChartType = xlXYScatterLines</v>
+        <f>"oChartObj.Chart.SetSourceData Source:=Union(rXAxsRng, rDataRng)"</f>
+        <v>oChartObj.Chart.SetSourceData Source:=Union(rXAxsRng, rDataRng)</v>
       </c>
       <c r="E232" s="5" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F232" s="11" t="s">
         <v>122</v>
@@ -10066,17 +10095,17 @@
     <row r="233" spans="1:6" outlineLevel="1">
       <c r="A233" s="2"/>
       <c r="B233" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C233" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D233" s="4" t="str">
-        <f>"oChartObj.Chart.SetSourceData Source:=Union(rXAxsRng, rDataRng)"</f>
-        <v>oChartObj.Chart.SetSourceData Source:=Union(rXAxsRng, rDataRng)</v>
+        <f>"oChartObj.Chart.Axes(xlCategory).HasTitle = True"</f>
+        <v>oChartObj.Chart.Axes(xlCategory).HasTitle = True</v>
       </c>
       <c r="E233" s="5" t="s">
-        <v>309</v>
+        <v>122</v>
       </c>
       <c r="F233" s="11" t="s">
         <v>122</v>
@@ -10085,14 +10114,14 @@
     <row r="234" spans="1:6" outlineLevel="1">
       <c r="A234" s="2"/>
       <c r="B234" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C234" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D234" s="4" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).HasTitle = True"</f>
-        <v>oChartObj.Chart.Axes(xlCategory).HasTitle = True</v>
+        <f>"oChartObj.Chart.Axes(xlCategory).AxisTitle.Text = ""Test Axis X"""</f>
+        <v>oChartObj.Chart.Axes(xlCategory).AxisTitle.Text = "Test Axis X"</v>
       </c>
       <c r="E234" s="5" t="s">
         <v>122</v>
@@ -10104,14 +10133,14 @@
     <row r="235" spans="1:6" outlineLevel="1">
       <c r="A235" s="2"/>
       <c r="B235" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C235" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D235" s="4" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).AxisTitle.Text = ""Test Axis X"""</f>
-        <v>oChartObj.Chart.Axes(xlCategory).AxisTitle.Text = "Test Axis X"</v>
+        <f>"oChartObj.Chart.Axes(xlCategory).HasMajorGridlines = True"</f>
+        <v>oChartObj.Chart.Axes(xlCategory).HasMajorGridlines = True</v>
       </c>
       <c r="E235" s="5" t="s">
         <v>122</v>
@@ -10123,14 +10152,14 @@
     <row r="236" spans="1:6" outlineLevel="1">
       <c r="A236" s="2"/>
       <c r="B236" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C236" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D236" s="4" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).HasMajorGridlines = True"</f>
-        <v>oChartObj.Chart.Axes(xlCategory).HasMajorGridlines = True</v>
+        <f>"oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.Color = RGB(217, 217, 217)"</f>
+        <v>oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.Color = RGB(217, 217, 217)</v>
       </c>
       <c r="E236" s="5" t="s">
         <v>122</v>
@@ -10142,14 +10171,14 @@
     <row r="237" spans="1:6" outlineLevel="1">
       <c r="A237" s="2"/>
       <c r="B237" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C237" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D237" s="4" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.Color = RGB(217, 217, 217)"</f>
-        <v>oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.Color = RGB(217, 217, 217)</v>
+        <f>"oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.Weight = 2"</f>
+        <v>oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.Weight = 2</v>
       </c>
       <c r="E237" s="5" t="s">
         <v>122</v>
@@ -10161,14 +10190,14 @@
     <row r="238" spans="1:6" outlineLevel="1">
       <c r="A238" s="2"/>
       <c r="B238" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C238" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D238" s="4" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.Weight = 2"</f>
-        <v>oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.Weight = 2</v>
+        <f>"oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.LineStyle = (xlContinuous\|xlDot\|xlDouble\|xlLineStyleNone\|...)"</f>
+        <v>oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.LineStyle = (xlContinuous\|xlDot\|xlDouble\|xlLineStyleNone\|...)</v>
       </c>
       <c r="E238" s="5" t="s">
         <v>122</v>
@@ -10180,14 +10209,13 @@
     <row r="239" spans="1:6" outlineLevel="1">
       <c r="A239" s="2"/>
       <c r="B239" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C239" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="C239" s="24" t="s">
         <v>398</v>
       </c>
-      <c r="D239" s="4" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.LineStyle = (xlContinuous\|xlDot\|xlDouble\|xlLineStyleNone\|...)"</f>
-        <v>oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.LineStyle = (xlContinuous\|xlDot\|xlDouble\|xlLineStyleNone\|...)</v>
+      <c r="D239" s="5" t="s">
+        <v>260</v>
       </c>
       <c r="E239" s="5" t="s">
         <v>122</v>
@@ -10199,13 +10227,14 @@
     <row r="240" spans="1:6" outlineLevel="1">
       <c r="A240" s="2"/>
       <c r="B240" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C240" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="C240" s="22" t="s">
         <v>398</v>
       </c>
-      <c r="D240" s="5" t="s">
-        <v>260</v>
+      <c r="D240" s="4" t="str">
+        <f>"oChartObj.Chart.Axes(xlCategory).MinimumScaleIsAuto = False"</f>
+        <v>oChartObj.Chart.Axes(xlCategory).MinimumScaleIsAuto = False</v>
       </c>
       <c r="E240" s="5" t="s">
         <v>122</v>
@@ -10217,14 +10246,14 @@
     <row r="241" spans="1:6" outlineLevel="1">
       <c r="A241" s="2"/>
       <c r="B241" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C241" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D241" s="4" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).MinimumScaleIsAuto = False"</f>
-        <v>oChartObj.Chart.Axes(xlCategory).MinimumScaleIsAuto = False</v>
+        <f>"oChartObj.Chart.Axes(xlCategory).MaximumScaleIsAuto = False"</f>
+        <v>oChartObj.Chart.Axes(xlCategory).MaximumScaleIsAuto = False</v>
       </c>
       <c r="E241" s="5" t="s">
         <v>122</v>
@@ -10236,14 +10265,14 @@
     <row r="242" spans="1:6" outlineLevel="1">
       <c r="A242" s="2"/>
       <c r="B242" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C242" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D242" s="4" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).MaximumScaleIsAuto = False"</f>
-        <v>oChartObj.Chart.Axes(xlCategory).MaximumScaleIsAuto = False</v>
+        <f>"oChartObj.Chart.Axes(xlCategory).MinimumScale = 0"</f>
+        <v>oChartObj.Chart.Axes(xlCategory).MinimumScale = 0</v>
       </c>
       <c r="E242" s="5" t="s">
         <v>122</v>
@@ -10255,14 +10284,14 @@
     <row r="243" spans="1:6" outlineLevel="1">
       <c r="A243" s="2"/>
       <c r="B243" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C243" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D243" s="4" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).MinimumScale = 0"</f>
-        <v>oChartObj.Chart.Axes(xlCategory).MinimumScale = 0</v>
+        <f>"oChartObj.Chart.Axes(xlCategory).MaximumScale = 100"</f>
+        <v>oChartObj.Chart.Axes(xlCategory).MaximumScale = 100</v>
       </c>
       <c r="E243" s="5" t="s">
         <v>122</v>
@@ -10274,14 +10303,14 @@
     <row r="244" spans="1:6" outlineLevel="1">
       <c r="A244" s="2"/>
       <c r="B244" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C244" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D244" s="4" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).MaximumScale = 100"</f>
-        <v>oChartObj.Chart.Axes(xlCategory).MaximumScale = 100</v>
+        <f>"oChartObj.Chart.Axes(xlCategory).Crosses = (xlMinimum\|xlMaximum\|xlAutomatic)"</f>
+        <v>oChartObj.Chart.Axes(xlCategory).Crosses = (xlMinimum\|xlMaximum\|xlAutomatic)</v>
       </c>
       <c r="E244" s="5" t="s">
         <v>122</v>
@@ -10293,14 +10322,13 @@
     <row r="245" spans="1:6" outlineLevel="1">
       <c r="A245" s="2"/>
       <c r="B245" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C245" s="22" t="s">
         <v>398</v>
       </c>
-      <c r="D245" s="4" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).Crosses = (xlMinimum\|xlMaximum\|xlAutomatic)"</f>
-        <v>oChartObj.Chart.Axes(xlCategory).Crosses = (xlMinimum\|xlMaximum\|xlAutomatic)</v>
+      <c r="D245" s="4" t="s">
+        <v>261</v>
       </c>
       <c r="E245" s="5" t="s">
         <v>122</v>
@@ -10312,13 +10340,14 @@
     <row r="246" spans="1:6" outlineLevel="1">
       <c r="A246" s="2"/>
       <c r="B246" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C246" s="22" t="s">
         <v>398</v>
       </c>
-      <c r="D246" s="4" t="s">
-        <v>261</v>
+      <c r="D246" s="4" t="str">
+        <f>"oChartObj.Chart.HasTitle = True"</f>
+        <v>oChartObj.Chart.HasTitle = True</v>
       </c>
       <c r="E246" s="5" t="s">
         <v>122</v>
@@ -10330,14 +10359,14 @@
     <row r="247" spans="1:6" outlineLevel="1">
       <c r="A247" s="2"/>
       <c r="B247" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C247" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D247" s="4" t="str">
-        <f>"oChartObj.Chart.HasTitle = True"</f>
-        <v>oChartObj.Chart.HasTitle = True</v>
+        <f>"oChartObj.Chart.ChartTitle.Text = ""Test Title"""</f>
+        <v>oChartObj.Chart.ChartTitle.Text = "Test Title"</v>
       </c>
       <c r="E247" s="5" t="s">
         <v>122</v>
@@ -10349,17 +10378,17 @@
     <row r="248" spans="1:6" outlineLevel="1">
       <c r="A248" s="2"/>
       <c r="B248" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C248" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D248" s="4" t="str">
-        <f>"oChartObj.Chart.ChartTitle.Text = ""Test Title"""</f>
-        <v>oChartObj.Chart.ChartTitle.Text = "Test Title"</v>
+        <f>"oChartObj.Chart.ChartTitle.IncludeInLayout = False"</f>
+        <v>oChartObj.Chart.ChartTitle.IncludeInLayout = False</v>
       </c>
       <c r="E248" s="5" t="s">
-        <v>122</v>
+        <v>310</v>
       </c>
       <c r="F248" s="11" t="s">
         <v>122</v>
@@ -10368,17 +10397,17 @@
     <row r="249" spans="1:6" outlineLevel="1">
       <c r="A249" s="2"/>
       <c r="B249" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C249" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D249" s="4" t="str">
-        <f>"oChartObj.Chart.ChartTitle.IncludeInLayout = False"</f>
-        <v>oChartObj.Chart.ChartTitle.IncludeInLayout = False</v>
+        <f>"oChartObj.Chart.HasLegend = True"</f>
+        <v>oChartObj.Chart.HasLegend = True</v>
       </c>
       <c r="E249" s="5" t="s">
-        <v>310</v>
+        <v>122</v>
       </c>
       <c r="F249" s="11" t="s">
         <v>122</v>
@@ -10387,17 +10416,17 @@
     <row r="250" spans="1:6" outlineLevel="1">
       <c r="A250" s="2"/>
       <c r="B250" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C250" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D250" s="4" t="str">
-        <f>"oChartObj.Chart.HasLegend = True"</f>
-        <v>oChartObj.Chart.HasLegend = True</v>
+        <f>"oChartObj.Chart.Legend.Position = xlLegendPositionTop"</f>
+        <v>oChartObj.Chart.Legend.Position = xlLegendPositionTop</v>
       </c>
       <c r="E250" s="5" t="s">
-        <v>122</v>
+        <v>263</v>
       </c>
       <c r="F250" s="11" t="s">
         <v>122</v>
@@ -10406,17 +10435,17 @@
     <row r="251" spans="1:6" outlineLevel="1">
       <c r="A251" s="2"/>
       <c r="B251" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C251" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D251" s="4" t="str">
-        <f>"oChartObj.Chart.Legend.Position = xlLegendPositionTop"</f>
-        <v>oChartObj.Chart.Legend.Position = xlLegendPositionTop</v>
+        <f>"oChartObj.Chart.Legend.IncludeInLayout = False"</f>
+        <v>oChartObj.Chart.Legend.IncludeInLayout = False</v>
       </c>
       <c r="E251" s="5" t="s">
-        <v>263</v>
+        <v>310</v>
       </c>
       <c r="F251" s="11" t="s">
         <v>122</v>
@@ -10425,35 +10454,30 @@
     <row r="252" spans="1:6" outlineLevel="1">
       <c r="A252" s="2"/>
       <c r="B252" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C252" s="22" t="s">
         <v>398</v>
       </c>
-      <c r="D252" s="4" t="str">
-        <f>"oChartObj.Chart.Legend.IncludeInLayout = False"</f>
-        <v>oChartObj.Chart.Legend.IncludeInLayout = False</v>
-      </c>
-      <c r="E252" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="F252" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6" outlineLevel="1">
-      <c r="A253" s="2"/>
-      <c r="B253" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="C253" s="22" t="s">
-        <v>398</v>
-      </c>
-      <c r="D253" s="10" t="str">
+      <c r="D252" s="10" t="str">
         <f>".Sheets(シート名).PasteSpecial Format:=""図 (JPEG)"", Link:=False, DisplayAsIcon:=False"</f>
         <v>.Sheets(シート名).PasteSpecial Format:="図 (JPEG)", Link:=False, DisplayAsIcon:=False</v>
       </c>
-      <c r="E253" s="5" t="s">
+      <c r="E252" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F252" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" outlineLevel="1">
+      <c r="A253" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B253" s="8"/>
+      <c r="C253" s="8"/>
+      <c r="D253" s="8"/>
+      <c r="E253" s="21" t="s">
         <v>122</v>
       </c>
       <c r="F253" s="11" t="s">
@@ -10461,13 +10485,19 @@
       </c>
     </row>
     <row r="254" spans="1:6" outlineLevel="1">
-      <c r="A254" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="B254" s="8"/>
-      <c r="C254" s="8"/>
-      <c r="D254" s="8"/>
-      <c r="E254" s="21" t="s">
+      <c r="A254" s="2"/>
+      <c r="B254" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C254" s="22" t="s">
+        <v>398</v>
+      </c>
+      <c r="D254" s="4" t="str">
+        <f>"Dim goPrgrsBar As New ProgressBar"&amp;CHAR(10)&amp;"goPrgrsBar.Show vbModeless"</f>
+        <v>Dim goPrgrsBar As New ProgressBar
+goPrgrsBar.Show vbModeless</v>
+      </c>
+      <c r="E254" s="5" t="s">
         <v>122</v>
       </c>
       <c r="F254" s="11" t="s">
@@ -10477,38 +10507,32 @@
     <row r="255" spans="1:6" outlineLevel="1">
       <c r="A255" s="2"/>
       <c r="B255" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C255" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D255" s="4" t="str">
-        <f>"Dim goPrgrsBar As New ProgressBar"&amp;CHAR(10)&amp;"goPrgrsBar.Show vbModeless"</f>
-        <v>Dim goPrgrsBar As New ProgressBar
-goPrgrsBar.Show vbModeless</v>
-      </c>
-      <c r="E255" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F255" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6" outlineLevel="1">
-      <c r="A256" s="2"/>
-      <c r="B256" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="C256" s="22" t="s">
-        <v>398</v>
-      </c>
-      <c r="D256" s="4" t="str">
         <f>"goPrgrsBar.Hide"&amp;CHAR(10)&amp;"Unload goPrgrsBar"&amp;CHAR(10)&amp;"Set goPrgrsBar = Nothing"</f>
         <v>goPrgrsBar.Hide
 Unload goPrgrsBar
 Set goPrgrsBar = Nothing</v>
       </c>
-      <c r="E256" s="5" t="s">
+      <c r="E255" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F255" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" outlineLevel="1">
+      <c r="A256" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="B256" s="8"/>
+      <c r="C256" s="8"/>
+      <c r="D256" s="8"/>
+      <c r="E256" s="21" t="s">
         <v>122</v>
       </c>
       <c r="F256" s="11" t="s">
@@ -10516,14 +10540,19 @@
       </c>
     </row>
     <row r="257" spans="1:6" outlineLevel="1">
-      <c r="A257" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="B257" s="8"/>
-      <c r="C257" s="8"/>
-      <c r="D257" s="8"/>
-      <c r="E257" s="21" t="s">
-        <v>122</v>
+      <c r="A257" s="2"/>
+      <c r="B257" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C257" s="22" t="s">
+        <v>398</v>
+      </c>
+      <c r="D257" s="4" t="str">
+        <f>"lChk = ThisWorkbook.Sheets(シート名).CheckBoxes(1).Value"</f>
+        <v>lChk = ThisWorkbook.Sheets(シート名).CheckBoxes(1).Value</v>
+      </c>
+      <c r="E257" s="5" t="s">
+        <v>311</v>
       </c>
       <c r="F257" s="11" t="s">
         <v>122</v>
@@ -10532,50 +10561,49 @@
     <row r="258" spans="1:6" outlineLevel="1">
       <c r="A258" s="2"/>
       <c r="B258" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C258" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D258" s="4" t="str">
-        <f>"lChk = ThisWorkbook.Sheets(シート名).CheckBoxes(1).Value"</f>
-        <v>lChk = ThisWorkbook.Sheets(シート名).CheckBoxes(1).Value</v>
-      </c>
-      <c r="E258" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="F258" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6" outlineLevel="1">
-      <c r="A259" s="2"/>
-      <c r="B259" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C259" s="22" t="s">
-        <v>398</v>
-      </c>
-      <c r="D259" s="4" t="str">
         <f>"Private Sub xxx\_KeyUp(ByVal KeyCode As MSForms.ReturnInteger, ByVal Shift As Integer)"&amp;CHAR(10)&amp;"End Sub"</f>
         <v>Private Sub xxx\_KeyUp(ByVal KeyCode As MSForms.ReturnInteger, ByVal Shift As Integer)
 End Sub</v>
       </c>
-      <c r="E259" s="5" t="s">
+      <c r="E258" s="5" t="s">
         <v>262</v>
       </c>
+      <c r="F258" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" outlineLevel="1">
+      <c r="A259" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="B259" s="8"/>
+      <c r="C259" s="8"/>
+      <c r="D259" s="8"/>
+      <c r="E259" s="21" t="s">
+        <v>122</v>
+      </c>
       <c r="F259" s="11" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="260" spans="1:6" outlineLevel="1">
-      <c r="A260" s="8" t="s">
-        <v>395</v>
-      </c>
-      <c r="B260" s="8"/>
-      <c r="C260" s="8"/>
-      <c r="D260" s="8"/>
-      <c r="E260" s="21" t="s">
+      <c r="A260" s="2"/>
+      <c r="B260" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C260" s="22" t="s">
+        <v>398</v>
+      </c>
+      <c r="D260" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="E260" s="5" t="s">
         <v>122</v>
       </c>
       <c r="F260" s="11" t="s">
@@ -10583,17 +10611,13 @@
       </c>
     </row>
     <row r="261" spans="1:6" outlineLevel="1">
-      <c r="A261" s="2"/>
-      <c r="B261" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="C261" s="22" t="s">
-        <v>398</v>
-      </c>
-      <c r="D261" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="E261" s="5" t="s">
+      <c r="A261" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="B261" s="8"/>
+      <c r="C261" s="8"/>
+      <c r="D261" s="8"/>
+      <c r="E261" s="21" t="s">
         <v>122</v>
       </c>
       <c r="F261" s="11" t="s">
@@ -10601,59 +10625,59 @@
       </c>
     </row>
     <row r="262" spans="1:6" outlineLevel="1">
-      <c r="A262" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="B262" s="8"/>
-      <c r="C262" s="8"/>
-      <c r="D262" s="8"/>
-      <c r="E262" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="F262" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6" outlineLevel="1">
-      <c r="A263" s="2"/>
-      <c r="B263" s="2" t="s">
+      <c r="A262" s="2"/>
+      <c r="B262" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C263" s="4" t="str">
+      <c r="C262" s="4" t="str">
         <f>"objWshShell.Exec( ""clip"" ).StdIn.Write( ""テキスト"" )"</f>
         <v>objWshShell.Exec( "clip" ).StdIn.Write( "テキスト" )</v>
       </c>
-      <c r="D263" s="4" t="str">
+      <c r="D262" s="4" t="str">
         <f>"With CreateObject(""new:{1C3B4210-F441-11CE-B9EA-00AA006B1A69}"")"&amp;CHAR(10)&amp;CHAR(9)&amp;".GetFromClipboard"&amp;CHAR(10)&amp;CHAR(9)&amp;"sText = .GetText"&amp;CHAR(10)&amp;"End With"</f>
         <v>With CreateObject("new:{1C3B4210-F441-11CE-B9EA-00AA006B1A69}")
 	.GetFromClipboard
 	sText = .GetText
 End With</v>
       </c>
-      <c r="E263" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F263" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6" outlineLevel="1">
-      <c r="A264" s="2"/>
-      <c r="B264" s="2" t="s">
+      <c r="E262" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F262" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" outlineLevel="1">
+      <c r="A263" s="2"/>
+      <c r="B263" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C264" s="4" t="str">
+      <c r="C263" s="4" t="str">
         <f>"CreateObject(""htmlfile"").ParentWindow.Clipboarddata.GetData(""text"")"</f>
         <v>CreateObject("htmlfile").ParentWindow.Clipboarddata.GetData("text")</v>
       </c>
-      <c r="D264" s="4" t="str">
+      <c r="D263" s="4" t="str">
         <f>"With CreateObject(""new:{1C3B4210-F441-11CE-B9EA-00AA006B1A69}"")"&amp;CHAR(10)&amp;CHAR(9)&amp;".SetText sText"&amp;CHAR(10)&amp;CHAR(9)&amp;".PutInClipboard"&amp;CHAR(10)&amp;"End With"</f>
         <v>With CreateObject("new:{1C3B4210-F441-11CE-B9EA-00AA006B1A69}")
 	.SetText sText
 	.PutInClipboard
 End With</v>
       </c>
-      <c r="E264" s="5" t="s">
+      <c r="E263" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F263" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" outlineLevel="1">
+      <c r="A264" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="B264" s="8"/>
+      <c r="C264" s="8"/>
+      <c r="D264" s="8"/>
+      <c r="E264" s="21" t="s">
         <v>122</v>
       </c>
       <c r="F264" s="11" t="s">
@@ -10661,33 +10685,39 @@
       </c>
     </row>
     <row r="265" spans="1:6" outlineLevel="1">
-      <c r="A265" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="B265" s="8"/>
-      <c r="C265" s="8"/>
-      <c r="D265" s="8"/>
-      <c r="E265" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="F265" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6" outlineLevel="1">
-      <c r="A266" s="2"/>
-      <c r="B266" s="2" t="s">
+      <c r="A265" s="2"/>
+      <c r="B265" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="C266" s="22" t="s">
+      <c r="C265" s="22" t="s">
         <v>398</v>
       </c>
-      <c r="D266" s="4" t="str">
+      <c r="D265" s="4" t="str">
         <f>"Dim wWord As Object" &amp; CHAR(10) &amp; "Set wWord = CreateObject(""Word.Application"")" &amp; CHAR(10) &amp; "wWord.Visible = False"</f>
         <v>Dim wWord As Object
 Set wWord = CreateObject("Word.Application")
 wWord.Visible = False</v>
       </c>
+      <c r="E265" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F265" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" outlineLevel="1">
+      <c r="A266" s="2"/>
+      <c r="B266" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C266" s="22" t="s">
+        <v>398</v>
+      </c>
+      <c r="D266" s="4" t="str">
+        <f>"dDoc.Close" &amp; CHAR(10) &amp; "Set dDoc = Nothing"</f>
+        <v>dDoc.Close
+Set dDoc = Nothing</v>
+      </c>
       <c r="E266" s="5" t="s">
         <v>122</v>
       </c>
@@ -10698,37 +10728,37 @@
     <row r="267" spans="1:6" outlineLevel="1">
       <c r="A267" s="2"/>
       <c r="B267" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C267" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D267" s="4" t="str">
-        <f>"dDoc.Close" &amp; CHAR(10) &amp; "Set dDoc = Nothing"</f>
-        <v>dDoc.Close
-Set dDoc = Nothing</v>
-      </c>
-      <c r="E267" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F267" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6" outlineLevel="1">
-      <c r="A268" s="2"/>
-      <c r="B268" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="C268" s="22" t="s">
-        <v>398</v>
-      </c>
-      <c r="D268" s="4" t="str">
         <f>"wWord.Visible = False" &amp; CHAR(10) &amp; "wWord.Quit" &amp; CHAR(10) &amp; "Set wWord = Nothing"</f>
         <v>wWord.Visible = False
 wWord.Quit
 Set wWord = Nothing</v>
       </c>
+      <c r="E267" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F267" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" outlineLevel="1">
+      <c r="A268" s="2"/>
+      <c r="B268" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C268" s="22" t="s">
+        <v>398</v>
+      </c>
+      <c r="D268" s="4" t="str">
+        <f>"Dim dDoc As Object" &amp; CHAR(10) &amp; "Set dDoc = wWord.Documents.Open(""sFilePath"")"</f>
+        <v>Dim dDoc As Object
+Set dDoc = wWord.Documents.Open("sFilePath")</v>
+      </c>
       <c r="E268" s="5" t="s">
         <v>122</v>
       </c>
@@ -10739,39 +10769,33 @@
     <row r="269" spans="1:6" outlineLevel="1">
       <c r="A269" s="2"/>
       <c r="B269" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C269" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D269" s="4" t="str">
-        <f>"Dim dDoc As Object" &amp; CHAR(10) &amp; "Set dDoc = wWord.Documents.Open(""sFilePath"")"</f>
-        <v>Dim dDoc As Object
-Set dDoc = wWord.Documents.Open("sFilePath")</v>
-      </c>
-      <c r="E269" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F269" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="270" spans="1:6" outlineLevel="1">
-      <c r="A270" s="2"/>
-      <c r="B270" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="C270" s="22" t="s">
-        <v>398</v>
-      </c>
-      <c r="D270" s="4" t="str">
         <f>"Dim sParagraph As Object" &amp; CHAR(10) &amp; "For Each sParagraph In dDoc.Paragraphs" &amp; CHAR(10) &amp; CHAR(9) &amp; "'～処理～" &amp; CHAR(10) &amp; "Next sParagraph"</f>
         <v>Dim sParagraph As Object
 For Each sParagraph In dDoc.Paragraphs
 	'～処理～
 Next sParagraph</v>
       </c>
-      <c r="E270" s="5" t="s">
+      <c r="E269" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F269" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" outlineLevel="1">
+      <c r="A270" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="B270" s="8"/>
+      <c r="C270" s="8"/>
+      <c r="D270" s="8"/>
+      <c r="E270" s="21" t="s">
         <v>122</v>
       </c>
       <c r="F270" s="11" t="s">
@@ -10779,49 +10803,35 @@
       </c>
     </row>
     <row r="271" spans="1:6" outlineLevel="1">
-      <c r="A271" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="B271" s="8"/>
-      <c r="C271" s="8"/>
-      <c r="D271" s="8"/>
-      <c r="E271" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="F271" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6" outlineLevel="1">
-      <c r="A272" s="2"/>
-      <c r="B272" s="2" t="s">
+      <c r="A271" s="2"/>
+      <c r="B271" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C272" s="22" t="s">
+      <c r="C271" s="22" t="s">
         <v>398</v>
       </c>
-      <c r="D272" s="4" t="str">
+      <c r="D271" s="4" t="str">
         <f>"Dim wTrgtBook As Workbook"&amp;CHAR(10)&amp;"Application.SheetsInNewWorkbook = 1"&amp;CHAR(10)&amp;"Set wTrgtBook = Workbooks.Add"</f>
         <v>Dim wTrgtBook As Workbook
 Application.SheetsInNewWorkbook = 1
 Set wTrgtBook = Workbooks.Add</v>
       </c>
-      <c r="E272" s="5" t="s">
+      <c r="E271" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="F272" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="273" spans="1:6" outlineLevel="1">
-      <c r="A273" s="2"/>
-      <c r="B273" s="2" t="s">
+      <c r="F271" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" outlineLevel="1">
+      <c r="A272" s="2"/>
+      <c r="B272" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C273" s="22" t="s">
+      <c r="C272" s="22" t="s">
         <v>398</v>
       </c>
-      <c r="D273" s="4" t="str">
+      <c r="D272" s="4" t="str">
         <f>"If wCsvBook.Name &lt;&gt; Dir(""C:\Book1.xlsx"") Then"&amp;CHAR(10)&amp;CHAR(9)&amp;"処理"&amp;CHAR(10)&amp;"Else"&amp;CHAR(10)&amp;CHAR(9)&amp;"エラー"&amp;CHAR(10)&amp;"End If"</f>
         <v>If wCsvBook.Name &lt;&gt; Dir("C:\Book1.xlsx") Then
 	処理
@@ -10829,6 +10839,26 @@
 	エラー
 End If</v>
       </c>
+      <c r="E272" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F272" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" outlineLevel="1">
+      <c r="A273" s="2"/>
+      <c r="B273" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C273" s="22" t="s">
+        <v>398</v>
+      </c>
+      <c r="D273" s="4" t="str">
+        <f>"Dim bAddBook As Workbook"&amp;CHAR(10)&amp;"Set bAddBook = Workbooks.Add"</f>
+        <v>Dim bAddBook As Workbook
+Set bAddBook = Workbooks.Add</v>
+      </c>
       <c r="E273" s="5" t="s">
         <v>122</v>
       </c>
@@ -10839,15 +10869,14 @@
     <row r="274" spans="1:6" outlineLevel="1">
       <c r="A274" s="2"/>
       <c r="B274" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C274" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D274" s="4" t="str">
-        <f>"Dim bAddBook As Workbook"&amp;CHAR(10)&amp;"Set bAddBook = Workbooks.Add"</f>
-        <v>Dim bAddBook As Workbook
-Set bAddBook = Workbooks.Add</v>
+        <f>"ThisWorkbook.Sheets(シート名).Copy: Set wTrgtBook = ActiveWorkbook"</f>
+        <v>ThisWorkbook.Sheets(シート名).Copy: Set wTrgtBook = ActiveWorkbook</v>
       </c>
       <c r="E274" s="5" t="s">
         <v>122</v>
@@ -10859,14 +10888,14 @@
     <row r="275" spans="1:6" outlineLevel="1">
       <c r="A275" s="2"/>
       <c r="B275" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C275" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D275" s="4" t="str">
-        <f>"ThisWorkbook.Sheets(シート名).Copy: Set wTrgtBook = ActiveWorkbook"</f>
-        <v>ThisWorkbook.Sheets(シート名).Copy: Set wTrgtBook = ActiveWorkbook</v>
+        <f>"wTrgtBook.SaveAs Filename:=sFilePath"</f>
+        <v>wTrgtBook.SaveAs Filename:=sFilePath</v>
       </c>
       <c r="E275" s="5" t="s">
         <v>122</v>
@@ -10878,14 +10907,14 @@
     <row r="276" spans="1:6" outlineLevel="1">
       <c r="A276" s="2"/>
       <c r="B276" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C276" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D276" s="4" t="str">
-        <f>"wTrgtBook.SaveAs Filename:=sFilePath"</f>
-        <v>wTrgtBook.SaveAs Filename:=sFilePath</v>
+        <f>".Sheets.Count"</f>
+        <v>.Sheets.Count</v>
       </c>
       <c r="E276" s="5" t="s">
         <v>122</v>
@@ -10897,14 +10926,15 @@
     <row r="277" spans="1:6" outlineLevel="1">
       <c r="A277" s="2"/>
       <c r="B277" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C277" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D277" s="4" t="str">
-        <f>".Sheets.Count"</f>
-        <v>.Sheets.Count</v>
+        <f>"Dim shAddSht As Worksheet"&amp;CHAR(10)&amp;"Set shAddSht = ThisWorkbook.Sheets.Add"</f>
+        <v>Dim shAddSht As Worksheet
+Set shAddSht = ThisWorkbook.Sheets.Add</v>
       </c>
       <c r="E277" s="5" t="s">
         <v>122</v>
@@ -10916,15 +10946,14 @@
     <row r="278" spans="1:6" outlineLevel="1">
       <c r="A278" s="2"/>
       <c r="B278" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C278" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D278" s="4" t="str">
-        <f>"Dim shAddSht As Worksheet"&amp;CHAR(10)&amp;"Set shAddSht = ThisWorkbook.Sheets.Add"</f>
-        <v>Dim shAddSht As Worksheet
-Set shAddSht = ThisWorkbook.Sheets.Add</v>
+        <f>"ThisWorkbook.Sheets(シート名).Move After:=ThisWorkbook.Sheets( ThisWorkbook.Sheets.Count )"</f>
+        <v>ThisWorkbook.Sheets(シート名).Move After:=ThisWorkbook.Sheets( ThisWorkbook.Sheets.Count )</v>
       </c>
       <c r="E278" s="5" t="s">
         <v>122</v>
@@ -10936,36 +10965,36 @@
     <row r="279" spans="1:6" outlineLevel="1">
       <c r="A279" s="2"/>
       <c r="B279" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C279" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D279" s="4" t="str">
-        <f>"ThisWorkbook.Sheets(シート名).Move After:=ThisWorkbook.Sheets( ThisWorkbook.Sheets.Count )"</f>
-        <v>ThisWorkbook.Sheets(シート名).Move After:=ThisWorkbook.Sheets( ThisWorkbook.Sheets.Count )</v>
-      </c>
-      <c r="E279" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F279" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="280" spans="1:6" outlineLevel="1">
-      <c r="A280" s="2"/>
-      <c r="B280" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C280" s="22" t="s">
-        <v>398</v>
-      </c>
-      <c r="D280" s="4" t="str">
         <f>"Application.DisplayAlerts = False"&amp;CHAR(10)&amp;".Sheets(シート名).Delete"&amp;CHAR(10)&amp;"Application.DisplayAlerts = True"</f>
         <v>Application.DisplayAlerts = False
 .Sheets(シート名).Delete
 Application.DisplayAlerts = True</v>
       </c>
+      <c r="E279" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F279" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" outlineLevel="1">
+      <c r="A280" s="2"/>
+      <c r="B280" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C280" s="22" t="s">
+        <v>398</v>
+      </c>
+      <c r="D280" s="4" t="str">
+        <f>".Sheets(シート名).Visible = (True\|False)"</f>
+        <v>.Sheets(シート名).Visible = (True\|False)</v>
+      </c>
       <c r="E280" s="5" t="s">
         <v>122</v>
       </c>
@@ -10976,71 +11005,71 @@
     <row r="281" spans="1:6" outlineLevel="1">
       <c r="A281" s="2"/>
       <c r="B281" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C281" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D281" s="4" t="str">
-        <f>".Sheets(シート名).Visible = (True\|False)"</f>
-        <v>.Sheets(シート名).Visible = (True\|False)</v>
-      </c>
-      <c r="E281" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F281" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="282" spans="1:6" outlineLevel="1">
-      <c r="A282" s="2"/>
-      <c r="B282" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C282" s="22" t="s">
-        <v>398</v>
-      </c>
-      <c r="D282" s="4" t="str">
         <f>".Sheets(シート名).Move Before:=Sheets(1)"</f>
         <v>.Sheets(シート名).Move Before:=Sheets(1)</v>
       </c>
-      <c r="E282" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F282" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="283" spans="1:6" s="43" customFormat="1" outlineLevel="1">
-      <c r="A283" s="37"/>
-      <c r="B283" s="37" t="s">
-        <v>1034</v>
-      </c>
-      <c r="C283" s="47" t="s">
+      <c r="E281" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F281" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" s="43" customFormat="1" outlineLevel="1">
+      <c r="A282" s="37"/>
+      <c r="B282" s="37" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C282" s="47" t="s">
         <v>398</v>
       </c>
-      <c r="D283" s="39" t="str">
+      <c r="D282" s="39" t="str">
         <f>".Sheets(旧シート名).Name = 新シート名"</f>
         <v>.Sheets(旧シート名).Name = 新シート名</v>
       </c>
-      <c r="E283" s="40" t="s">
-        <v>122</v>
-      </c>
-      <c r="F283" s="43" t="s">
+      <c r="E282" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="F282" s="43" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" outlineLevel="1">
+      <c r="A283" s="2"/>
+      <c r="B283" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C283" s="22" t="s">
+        <v>398</v>
+      </c>
+      <c r="D283" s="4" t="str">
+        <f>"Application.ScreenUpdating = True"</f>
+        <v>Application.ScreenUpdating = True</v>
+      </c>
+      <c r="E283" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F283" s="11" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="284" spans="1:6" outlineLevel="1">
       <c r="A284" s="2"/>
       <c r="B284" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C284" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D284" s="4" t="str">
-        <f>"Application.ScreenUpdating = True"</f>
-        <v>Application.ScreenUpdating = True</v>
+        <f>"Application.ScreenUpdating = False"</f>
+        <v>Application.ScreenUpdating = False</v>
       </c>
       <c r="E284" s="5" t="s">
         <v>122</v>
@@ -11052,14 +11081,14 @@
     <row r="285" spans="1:6" outlineLevel="1">
       <c r="A285" s="2"/>
       <c r="B285" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C285" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D285" s="4" t="str">
-        <f>"Application.ScreenUpdating = False"</f>
-        <v>Application.ScreenUpdating = False</v>
+        <f>"Application.Calculation = xlCalculationAutomatic"</f>
+        <v>Application.Calculation = xlCalculationAutomatic</v>
       </c>
       <c r="E285" s="5" t="s">
         <v>122</v>
@@ -11071,14 +11100,14 @@
     <row r="286" spans="1:6" outlineLevel="1">
       <c r="A286" s="2"/>
       <c r="B286" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C286" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D286" s="4" t="str">
-        <f>"Application.Calculation = xlCalculationAutomatic"</f>
-        <v>Application.Calculation = xlCalculationAutomatic</v>
+        <f>"Application.Calculation = xlCalculationManual"</f>
+        <v>Application.Calculation = xlCalculationManual</v>
       </c>
       <c r="E286" s="5" t="s">
         <v>122</v>
@@ -11090,14 +11119,14 @@
     <row r="287" spans="1:6" outlineLevel="1">
       <c r="A287" s="2"/>
       <c r="B287" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C287" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D287" s="4" t="str">
-        <f>"Application.Calculation = xlCalculationManual"</f>
-        <v>Application.Calculation = xlCalculationManual</v>
+        <f>"Application.Calculate"</f>
+        <v>Application.Calculate</v>
       </c>
       <c r="E287" s="5" t="s">
         <v>122</v>
@@ -11109,14 +11138,14 @@
     <row r="288" spans="1:6" outlineLevel="1">
       <c r="A288" s="2"/>
       <c r="B288" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C288" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D288" s="4" t="str">
-        <f>"Application.Calculate"</f>
-        <v>Application.Calculate</v>
+        <f>"Application.CalculateFull"</f>
+        <v>Application.CalculateFull</v>
       </c>
       <c r="E288" s="5" t="s">
         <v>122</v>
@@ -11128,17 +11157,16 @@
     <row r="289" spans="1:6" outlineLevel="1">
       <c r="A289" s="2"/>
       <c r="B289" s="2" t="s">
-        <v>165</v>
+        <v>496</v>
       </c>
       <c r="C289" s="22" t="s">
         <v>398</v>
       </c>
-      <c r="D289" s="4" t="str">
-        <f>"Application.CalculateFull"</f>
-        <v>Application.CalculateFull</v>
+      <c r="D289" s="4" t="s">
+        <v>497</v>
       </c>
       <c r="E289" s="5" t="s">
-        <v>122</v>
+        <v>498</v>
       </c>
       <c r="F289" s="11" t="s">
         <v>122</v>
@@ -11147,47 +11175,48 @@
     <row r="290" spans="1:6" outlineLevel="1">
       <c r="A290" s="2"/>
       <c r="B290" s="2" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C290" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D290" s="4" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="E290" s="5" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="F290" s="11" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="291" spans="1:6" outlineLevel="1">
-      <c r="A291" s="2"/>
-      <c r="B291" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="C291" s="22" t="s">
+    <row r="291" spans="1:6">
+      <c r="A291" s="20" t="s">
+        <v>401</v>
+      </c>
+      <c r="B291" s="8"/>
+      <c r="C291" s="8"/>
+      <c r="D291" s="8"/>
+      <c r="E291" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="F291" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" outlineLevel="1">
+      <c r="A292" s="2"/>
+      <c r="B292" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C292" s="22" t="s">
         <v>398</v>
       </c>
-      <c r="D291" s="4" t="s">
-        <v>494</v>
-      </c>
-      <c r="E291" s="5" t="s">
-        <v>496</v>
-      </c>
-      <c r="F291" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="292" spans="1:6">
-      <c r="A292" s="20" t="s">
-        <v>401</v>
-      </c>
-      <c r="B292" s="8"/>
-      <c r="C292" s="8"/>
-      <c r="D292" s="8"/>
-      <c r="E292" s="21" t="s">
+      <c r="D292" s="4" t="str">
+        <f>"Application.DisplayAlerts = False"</f>
+        <v>Application.DisplayAlerts = False</v>
+      </c>
+      <c r="E292" s="5" t="s">
         <v>122</v>
       </c>
       <c r="F292" s="11" t="s">
@@ -11197,14 +11226,14 @@
     <row r="293" spans="1:6" outlineLevel="1">
       <c r="A293" s="2"/>
       <c r="B293" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C293" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D293" s="4" t="str">
-        <f>"Application.DisplayAlerts = False"</f>
-        <v>Application.DisplayAlerts = False</v>
+        <f>"Application.DisplayAlerts = True"</f>
+        <v>Application.DisplayAlerts = True</v>
       </c>
       <c r="E293" s="5" t="s">
         <v>122</v>
@@ -11216,14 +11245,14 @@
     <row r="294" spans="1:6" outlineLevel="1">
       <c r="A294" s="2"/>
       <c r="B294" s="2" t="s">
-        <v>257</v>
+        <v>166</v>
       </c>
       <c r="C294" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D294" s="4" t="str">
-        <f>"Application.DisplayAlerts = True"</f>
-        <v>Application.DisplayAlerts = True</v>
+        <f>".Rows(2).Select"</f>
+        <v>.Rows(2).Select</v>
       </c>
       <c r="E294" s="5" t="s">
         <v>122</v>
@@ -11235,14 +11264,14 @@
     <row r="295" spans="1:6" outlineLevel="1">
       <c r="A295" s="2"/>
       <c r="B295" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C295" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D295" s="4" t="str">
-        <f>".Rows(2).Select"</f>
-        <v>.Rows(2).Select</v>
+        <f>".Columns(2).Select"</f>
+        <v>.Columns(2).Select</v>
       </c>
       <c r="E295" s="5" t="s">
         <v>122</v>
@@ -11254,14 +11283,14 @@
     <row r="296" spans="1:6" outlineLevel="1">
       <c r="A296" s="2"/>
       <c r="B296" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C296" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D296" s="4" t="str">
-        <f>".Columns(2).Select"</f>
-        <v>.Columns(2).Select</v>
+        <f>".Cells(1,1).Select"</f>
+        <v>.Cells(1,1).Select</v>
       </c>
       <c r="E296" s="5" t="s">
         <v>122</v>
@@ -11273,14 +11302,14 @@
     <row r="297" spans="1:6" outlineLevel="1">
       <c r="A297" s="2"/>
       <c r="B297" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C297" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D297" s="4" t="str">
-        <f>".Cells(1,1).Select"</f>
-        <v>.Cells(1,1).Select</v>
+        <f>".Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).Select"</f>
+        <v>.Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).Select</v>
       </c>
       <c r="E297" s="5" t="s">
         <v>122</v>
@@ -11292,14 +11321,14 @@
     <row r="298" spans="1:6" outlineLevel="1">
       <c r="A298" s="2"/>
       <c r="B298" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C298" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D298" s="4" t="str">
-        <f>".Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).Select"</f>
-        <v>.Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).Select</v>
+        <f>".Cells.Find(""りんご"", LookAt:=xlWhole).Row"</f>
+        <v>.Cells.Find("りんご", LookAt:=xlWhole).Row</v>
       </c>
       <c r="E298" s="5" t="s">
         <v>122</v>
@@ -11317,8 +11346,8 @@
         <v>398</v>
       </c>
       <c r="D299" s="4" t="str">
-        <f>".Cells.Find(""りんご"", LookAt:=xlWhole).Row"</f>
-        <v>.Cells.Find("りんご", LookAt:=xlWhole).Row</v>
+        <f>".Cells.Find(""りんご"", LookAt:=xlWhole).Column"</f>
+        <v>.Cells.Find("りんご", LookAt:=xlWhole).Column</v>
       </c>
       <c r="E299" s="5" t="s">
         <v>122</v>
@@ -11330,17 +11359,17 @@
     <row r="300" spans="1:6" outlineLevel="1">
       <c r="A300" s="2"/>
       <c r="B300" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C300" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D300" s="4" t="str">
-        <f>".Cells.Find(""りんご"", LookAt:=xlWhole).Column"</f>
-        <v>.Cells.Find("りんご", LookAt:=xlWhole).Column</v>
+        <f>".Cells(X, Y).Value"</f>
+        <v>.Cells(X, Y).Value</v>
       </c>
       <c r="E300" s="5" t="s">
-        <v>122</v>
+        <v>301</v>
       </c>
       <c r="F300" s="11" t="s">
         <v>122</v>
@@ -11349,17 +11378,17 @@
     <row r="301" spans="1:6" outlineLevel="1">
       <c r="A301" s="2"/>
       <c r="B301" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C301" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D301" s="4" t="str">
-        <f>".Cells(X, Y).Value"</f>
-        <v>.Cells(X, Y).Value</v>
+        <f>".Cells(1, 1).Top"</f>
+        <v>.Cells(1, 1).Top</v>
       </c>
       <c r="E301" s="5" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F301" s="11" t="s">
         <v>122</v>
@@ -11368,17 +11397,17 @@
     <row r="302" spans="1:6" outlineLevel="1">
       <c r="A302" s="2"/>
       <c r="B302" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C302" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D302" s="4" t="str">
-        <f>".Cells(1, 1).Top"</f>
-        <v>.Cells(1, 1).Top</v>
+        <f>".Cells(1, 1).Left"</f>
+        <v>.Cells(1, 1).Left</v>
       </c>
       <c r="E302" s="5" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F302" s="11" t="s">
         <v>122</v>
@@ -11387,17 +11416,17 @@
     <row r="303" spans="1:6" outlineLevel="1">
       <c r="A303" s="2"/>
       <c r="B303" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C303" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D303" s="4" t="str">
-        <f>".Cells(1, 1).Left"</f>
-        <v>.Cells(1, 1).Left</v>
+        <f>".Cells(1, 1).EntireRow.Delete Shift:=xlShiftUp"</f>
+        <v>.Cells(1, 1).EntireRow.Delete Shift:=xlShiftUp</v>
       </c>
       <c r="E303" s="5" t="s">
-        <v>303</v>
+        <v>122</v>
       </c>
       <c r="F303" s="11" t="s">
         <v>122</v>
@@ -11406,14 +11435,15 @@
     <row r="304" spans="1:6" outlineLevel="1">
       <c r="A304" s="2"/>
       <c r="B304" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C304" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D304" s="4" t="str">
-        <f>".Cells(1, 1).EntireRow.Delete Shift:=xlShiftUp"</f>
-        <v>.Cells(1, 1).EntireRow.Delete Shift:=xlShiftUp</v>
+        <f>"Application.CutCopyMode = False"&amp;CHAR(10)&amp;".Range(""2:4"").Insert"</f>
+        <v>Application.CutCopyMode = False
+.Range("2:4").Insert</v>
       </c>
       <c r="E304" s="5" t="s">
         <v>122</v>
@@ -11425,15 +11455,14 @@
     <row r="305" spans="1:6" outlineLevel="1">
       <c r="A305" s="2"/>
       <c r="B305" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C305" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D305" s="4" t="str">
-        <f>"Application.CutCopyMode = False"&amp;CHAR(10)&amp;".Range(""2:4"").Insert"</f>
-        <v>Application.CutCopyMode = False
-.Range("2:4").Insert</v>
+        <f>".Cells(行, 列).Font.Strikethrough"</f>
+        <v>.Cells(行, 列).Font.Strikethrough</v>
       </c>
       <c r="E305" s="5" t="s">
         <v>122</v>
@@ -11445,14 +11474,15 @@
     <row r="306" spans="1:6" outlineLevel="1">
       <c r="A306" s="2"/>
       <c r="B306" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C306" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D306" s="4" t="str">
-        <f>".Cells(行, 列).Font.Strikethrough"</f>
-        <v>.Cells(行, 列).Font.Strikethrough</v>
+        <f>"wTrgtBook.Sheets(シート名).Activate"&amp;CHAR(10)&amp;"ActiveWindow.DisplayGridlines = False"</f>
+        <v>wTrgtBook.Sheets(シート名).Activate
+ActiveWindow.DisplayGridlines = False</v>
       </c>
       <c r="E306" s="5" t="s">
         <v>122</v>
@@ -11464,15 +11494,14 @@
     <row r="307" spans="1:6" outlineLevel="1">
       <c r="A307" s="2"/>
       <c r="B307" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C307" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D307" s="4" t="str">
-        <f>"wTrgtBook.Sheets(シート名).Activate"&amp;CHAR(10)&amp;"ActiveWindow.DisplayGridlines = False"</f>
-        <v>wTrgtBook.Sheets(シート名).Activate
-ActiveWindow.DisplayGridlines = False</v>
+        <f>".Range(""A1"").EntireRow.Hidden"</f>
+        <v>.Range("A1").EntireRow.Hidden</v>
       </c>
       <c r="E307" s="5" t="s">
         <v>122</v>
@@ -11484,14 +11513,14 @@
     <row r="308" spans="1:6" outlineLevel="1">
       <c r="A308" s="2"/>
       <c r="B308" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C308" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D308" s="4" t="str">
-        <f>".Range(""A1"").EntireRow.Hidden"</f>
-        <v>.Range("A1").EntireRow.Hidden</v>
+        <f>".Range(""A1"").EntireColumn.Hidden"</f>
+        <v>.Range("A1").EntireColumn.Hidden</v>
       </c>
       <c r="E308" s="5" t="s">
         <v>122</v>
@@ -11503,31 +11532,12 @@
     <row r="309" spans="1:6" outlineLevel="1">
       <c r="A309" s="2"/>
       <c r="B309" s="2" t="s">
-        <v>179</v>
+        <v>336</v>
       </c>
       <c r="C309" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D309" s="4" t="str">
-        <f>".Range(""A1"").EntireColumn.Hidden"</f>
-        <v>.Range("A1").EntireColumn.Hidden</v>
-      </c>
-      <c r="E309" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F309" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="310" spans="1:6" outlineLevel="1">
-      <c r="A310" s="2"/>
-      <c r="B310" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="C310" s="22" t="s">
-        <v>398</v>
-      </c>
-      <c r="D310" s="4" t="str">
         <f>"If .Cells(1, 1).EntireRow.Hidden Or .Cells(1, 1).EntireColumn.Hidden Then
     '非表示セル
 Else
@@ -11541,6 +11551,25 @@
 End If
 </v>
       </c>
+      <c r="E309" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F309" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" outlineLevel="1">
+      <c r="A310" s="2"/>
+      <c r="B310" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C310" s="22" t="s">
+        <v>398</v>
+      </c>
+      <c r="D310" s="4" t="str">
+        <f>"文字列変数 = .Range(""A1"").Font.Name"</f>
+        <v>文字列変数 = .Range("A1").Font.Name</v>
+      </c>
       <c r="E310" s="5" t="s">
         <v>122</v>
       </c>
@@ -11551,14 +11580,14 @@
     <row r="311" spans="1:6" outlineLevel="1">
       <c r="A311" s="2"/>
       <c r="B311" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C311" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D311" s="4" t="str">
-        <f>"文字列変数 = .Range(""A1"").Font.Name"</f>
-        <v>文字列変数 = .Range("A1").Font.Name</v>
+        <f>".Range(""A1"").Font.Size = 14"</f>
+        <v>.Range("A1").Font.Size = 14</v>
       </c>
       <c r="E311" s="5" t="s">
         <v>122</v>
@@ -11570,14 +11599,14 @@
     <row r="312" spans="1:6" outlineLevel="1">
       <c r="A312" s="2"/>
       <c r="B312" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C312" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D312" s="4" t="str">
-        <f>".Range(""A1"").Font.Size = 14"</f>
-        <v>.Range("A1").Font.Size = 14</v>
+        <f>".Range(""A1"").Font.Color = RGB(0, 255, 0)"</f>
+        <v>.Range("A1").Font.Color = RGB(0, 255, 0)</v>
       </c>
       <c r="E312" s="5" t="s">
         <v>122</v>
@@ -11589,14 +11618,14 @@
     <row r="313" spans="1:6" outlineLevel="1">
       <c r="A313" s="2"/>
       <c r="B313" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C313" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D313" s="4" t="str">
-        <f>".Range(""A1"").Font.Color = RGB(0, 255, 0)"</f>
-        <v>.Range("A1").Font.Color = RGB(0, 255, 0)</v>
+        <f>".Range(""A1"").Font.Bold = True"</f>
+        <v>.Range("A1").Font.Bold = True</v>
       </c>
       <c r="E313" s="5" t="s">
         <v>122</v>
@@ -11608,14 +11637,14 @@
     <row r="314" spans="1:6" outlineLevel="1">
       <c r="A314" s="2"/>
       <c r="B314" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C314" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D314" s="4" t="str">
-        <f>".Range(""A1"").Font.Bold = True"</f>
-        <v>.Range("A1").Font.Bold = True</v>
+        <f>".Range(""A1"").Font.Underline = True"</f>
+        <v>.Range("A1").Font.Underline = True</v>
       </c>
       <c r="E314" s="5" t="s">
         <v>122</v>
@@ -11627,14 +11656,14 @@
     <row r="315" spans="1:6" outlineLevel="1">
       <c r="A315" s="2"/>
       <c r="B315" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C315" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D315" s="4" t="str">
-        <f>".Range(""A1"").Font.Underline = True"</f>
-        <v>.Range("A1").Font.Underline = True</v>
+        <f>".Range(""A1"").Interior.Color = RGB(255, 255, 0)"</f>
+        <v>.Range("A1").Interior.Color = RGB(255, 255, 0)</v>
       </c>
       <c r="E315" s="5" t="s">
         <v>122</v>
@@ -11646,14 +11675,14 @@
     <row r="316" spans="1:6" outlineLevel="1">
       <c r="A316" s="2"/>
       <c r="B316" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C316" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D316" s="4" t="str">
-        <f>".Range(""A1"").Interior.Color = RGB(255, 255, 0)"</f>
-        <v>.Range("A1").Interior.Color = RGB(255, 255, 0)</v>
+        <f>".Range(""A1:C3"").Borders.LineStyle = xlContinuous"</f>
+        <v>.Range("A1:C3").Borders.LineStyle = xlContinuous</v>
       </c>
       <c r="E316" s="5" t="s">
         <v>122</v>
@@ -11665,14 +11694,14 @@
     <row r="317" spans="1:6" outlineLevel="1">
       <c r="A317" s="2"/>
       <c r="B317" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C317" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D317" s="4" t="str">
-        <f>".Range(""A1:C3"").Borders.LineStyle = xlContinuous"</f>
-        <v>.Range("A1:C3").Borders.LineStyle = xlContinuous</v>
+        <f>".Range(""A1:C3"").MergeCells = True"</f>
+        <v>.Range("A1:C3").MergeCells = True</v>
       </c>
       <c r="E317" s="5" t="s">
         <v>122</v>
@@ -11684,17 +11713,17 @@
     <row r="318" spans="1:6" outlineLevel="1">
       <c r="A318" s="2"/>
       <c r="B318" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C318" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D318" s="4" t="str">
-        <f>".Range(""A1:C3"").MergeCells = True"</f>
-        <v>.Range("A1:C3").MergeCells = True</v>
+        <f>".Range(""A1:C3"").HorizontalAlignment = xlGeneral"</f>
+        <v>.Range("A1:C3").HorizontalAlignment = xlGeneral</v>
       </c>
       <c r="E318" s="5" t="s">
-        <v>122</v>
+        <v>259</v>
       </c>
       <c r="F318" s="11" t="s">
         <v>122</v>
@@ -11703,17 +11732,17 @@
     <row r="319" spans="1:6" outlineLevel="1">
       <c r="A319" s="2"/>
       <c r="B319" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C319" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D319" s="4" t="str">
-        <f>".Range(""A1:C3"").HorizontalAlignment = xlGeneral"</f>
-        <v>.Range("A1:C3").HorizontalAlignment = xlGeneral</v>
+        <f>".Range(""A1:C3"").VerticalAlignment = xlCenter"</f>
+        <v>.Range("A1:C3").VerticalAlignment = xlCenter</v>
       </c>
       <c r="E319" s="5" t="s">
-        <v>259</v>
+        <v>190</v>
       </c>
       <c r="F319" s="11" t="s">
         <v>122</v>
@@ -11722,17 +11751,17 @@
     <row r="320" spans="1:6" outlineLevel="1">
       <c r="A320" s="2"/>
       <c r="B320" s="2" t="s">
-        <v>189</v>
+        <v>709</v>
       </c>
       <c r="C320" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D320" s="4" t="str">
-        <f>".Range(""A1:C3"").VerticalAlignment = xlCenter"</f>
-        <v>.Range("A1:C3").VerticalAlignment = xlCenter</v>
+        <f>".Cells(1, 列).End(xlDown).Row"</f>
+        <v>.Cells(1, 列).End(xlDown).Row</v>
       </c>
       <c r="E320" s="5" t="s">
-        <v>190</v>
+        <v>122</v>
       </c>
       <c r="F320" s="11" t="s">
         <v>122</v>
@@ -11741,14 +11770,14 @@
     <row r="321" spans="1:6" outlineLevel="1">
       <c r="A321" s="2"/>
       <c r="B321" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C321" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D321" s="4" t="str">
-        <f>".Cells(1, 列).End(xlDown).Row"</f>
-        <v>.Cells(1, 列).End(xlDown).Row</v>
+        <f>".Cells(行, 1).End(xlToRight).Column"</f>
+        <v>.Cells(行, 1).End(xlToRight).Column</v>
       </c>
       <c r="E321" s="5" t="s">
         <v>122</v>
@@ -11760,14 +11789,14 @@
     <row r="322" spans="1:6" outlineLevel="1">
       <c r="A322" s="2"/>
       <c r="B322" s="2" t="s">
-        <v>712</v>
+        <v>191</v>
       </c>
       <c r="C322" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D322" s="4" t="str">
-        <f>".Cells(行, 1).End(xlToRight).Column"</f>
-        <v>.Cells(行, 1).End(xlToRight).Column</v>
+        <f>".Cells(.Rows.Count, 列).End(xlUp).Row"</f>
+        <v>.Cells(.Rows.Count, 列).End(xlUp).Row</v>
       </c>
       <c r="E322" s="5" t="s">
         <v>122</v>
@@ -11779,14 +11808,14 @@
     <row r="323" spans="1:6" outlineLevel="1">
       <c r="A323" s="2"/>
       <c r="B323" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C323" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D323" s="4" t="str">
-        <f>".Cells(.Rows.Count, 列).End(xlUp).Row"</f>
-        <v>.Cells(.Rows.Count, 列).End(xlUp).Row</v>
+        <f>".Cells(行, .Columns.Count).End(xlToLeft).Column"</f>
+        <v>.Cells(行, .Columns.Count).End(xlToLeft).Column</v>
       </c>
       <c r="E323" s="5" t="s">
         <v>122</v>
@@ -11798,14 +11827,14 @@
     <row r="324" spans="1:6" outlineLevel="1">
       <c r="A324" s="2"/>
       <c r="B324" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C324" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D324" s="4" t="str">
-        <f>".Cells(行, .Columns.Count).End(xlToLeft).Column"</f>
-        <v>.Cells(行, .Columns.Count).End(xlToLeft).Column</v>
+        <f>".Sheets(シート名).UsedRange.Rows.Count + 1"</f>
+        <v>.Sheets(シート名).UsedRange.Rows.Count + 1</v>
       </c>
       <c r="E324" s="5" t="s">
         <v>122</v>
@@ -11817,14 +11846,14 @@
     <row r="325" spans="1:6" outlineLevel="1">
       <c r="A325" s="2"/>
       <c r="B325" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C325" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D325" s="4" t="str">
-        <f>".Sheets(シート名).UsedRange.Rows.Count + 1"</f>
-        <v>.Sheets(シート名).UsedRange.Rows.Count + 1</v>
+        <f>".Sheets(シート名).UsedRange.Columns.Count + 1"</f>
+        <v>.Sheets(シート名).UsedRange.Columns.Count + 1</v>
       </c>
       <c r="E325" s="5" t="s">
         <v>122</v>
@@ -11836,14 +11865,14 @@
     <row r="326" spans="1:6" outlineLevel="1">
       <c r="A326" s="2"/>
       <c r="B326" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C326" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D326" s="4" t="str">
-        <f>".Sheets(シート名).UsedRange.Columns.Count + 1"</f>
-        <v>.Sheets(シート名).UsedRange.Columns.Count + 1</v>
+        <f>"Selection(1).Row"</f>
+        <v>Selection(1).Row</v>
       </c>
       <c r="E326" s="5" t="s">
         <v>122</v>
@@ -11855,14 +11884,14 @@
     <row r="327" spans="1:6" outlineLevel="1">
       <c r="A327" s="2"/>
       <c r="B327" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C327" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D327" s="4" t="str">
-        <f>"Selection(1).Row"</f>
-        <v>Selection(1).Row</v>
+        <f>"Selection(Selection.Count).Row"</f>
+        <v>Selection(Selection.Count).Row</v>
       </c>
       <c r="E327" s="5" t="s">
         <v>122</v>
@@ -11874,14 +11903,14 @@
     <row r="328" spans="1:6" outlineLevel="1">
       <c r="A328" s="2"/>
       <c r="B328" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C328" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D328" s="4" t="str">
-        <f>"Selection(Selection.Count).Row"</f>
-        <v>Selection(Selection.Count).Row</v>
+        <f>"Selection(1).Column"</f>
+        <v>Selection(1).Column</v>
       </c>
       <c r="E328" s="5" t="s">
         <v>122</v>
@@ -11893,14 +11922,14 @@
     <row r="329" spans="1:6" outlineLevel="1">
       <c r="A329" s="2"/>
       <c r="B329" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C329" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D329" s="4" t="str">
-        <f>"Selection(1).Column"</f>
-        <v>Selection(1).Column</v>
+        <f>"Selection(Selection.Count).Column"</f>
+        <v>Selection(Selection.Count).Column</v>
       </c>
       <c r="E329" s="5" t="s">
         <v>122</v>
@@ -11912,17 +11941,16 @@
     <row r="330" spans="1:6" outlineLevel="1">
       <c r="A330" s="2"/>
       <c r="B330" s="2" t="s">
-        <v>198</v>
+        <v>325</v>
       </c>
       <c r="C330" s="22" t="s">
         <v>398</v>
       </c>
-      <c r="D330" s="4" t="str">
-        <f>"Selection(Selection.Count).Column"</f>
-        <v>Selection(Selection.Count).Column</v>
+      <c r="D330" s="4" t="s">
+        <v>323</v>
       </c>
       <c r="E330" s="5" t="s">
-        <v>122</v>
+        <v>331</v>
       </c>
       <c r="F330" s="11" t="s">
         <v>122</v>
@@ -11931,16 +11959,16 @@
     <row r="331" spans="1:6" outlineLevel="1">
       <c r="A331" s="2"/>
       <c r="B331" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C331" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D331" s="4" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E331" s="5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F331" s="11" t="s">
         <v>122</v>
@@ -11949,16 +11977,16 @@
     <row r="332" spans="1:6" outlineLevel="1">
       <c r="A332" s="2"/>
       <c r="B332" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C332" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D332" s="4" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="E332" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F332" s="11" t="s">
         <v>122</v>
@@ -11967,16 +11995,17 @@
     <row r="333" spans="1:6" outlineLevel="1">
       <c r="A333" s="2"/>
       <c r="B333" s="2" t="s">
-        <v>327</v>
+        <v>199</v>
       </c>
       <c r="C333" s="22" t="s">
         <v>398</v>
       </c>
-      <c r="D333" s="4" t="s">
-        <v>328</v>
+      <c r="D333" s="4" t="str">
+        <f>".Range(.Cells(1, 1), .Cells(6, 3))"</f>
+        <v>.Range(.Cells(1, 1), .Cells(6, 3))</v>
       </c>
       <c r="E333" s="5" t="s">
-        <v>330</v>
+        <v>122</v>
       </c>
       <c r="F333" s="11" t="s">
         <v>122</v>
@@ -11985,14 +12014,14 @@
     <row r="334" spans="1:6" outlineLevel="1">
       <c r="A334" s="2"/>
       <c r="B334" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C334" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D334" s="4" t="str">
-        <f>".Range(.Cells(1, 1), .Cells(6, 3))"</f>
-        <v>.Range(.Cells(1, 1), .Cells(6, 3))</v>
+        <f>".Range(""A1:B9"").Copy Destination:=ThisWorkBook.Sheets(シート名２).Range(""B1"")"</f>
+        <v>.Range("A1:B9").Copy Destination:=ThisWorkBook.Sheets(シート名２).Range("B1")</v>
       </c>
       <c r="E334" s="5" t="s">
         <v>122</v>
@@ -12004,14 +12033,14 @@
     <row r="335" spans="1:6" outlineLevel="1">
       <c r="A335" s="2"/>
       <c r="B335" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C335" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D335" s="4" t="str">
-        <f>".Range(""A1:B9"").Copy Destination:=ThisWorkBook.Sheets(シート名２).Range(""B1"")"</f>
-        <v>.Range("A1:B9").Copy Destination:=ThisWorkBook.Sheets(シート名２).Range("B1")</v>
+        <f>".Range(.Cells(1, 1), .Cells(.Rows.Count, 2)).Sort Key1:=.Cells(1, 2) ,order1:=xlAscending"</f>
+        <v>.Range(.Cells(1, 1), .Cells(.Rows.Count, 2)).Sort Key1:=.Cells(1, 2) ,order1:=xlAscending</v>
       </c>
       <c r="E335" s="5" t="s">
         <v>122</v>
@@ -12023,14 +12052,14 @@
     <row r="336" spans="1:6" outlineLevel="1">
       <c r="A336" s="2"/>
       <c r="B336" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C336" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D336" s="4" t="str">
-        <f>".Range(.Cells(1, 1), .Cells(.Rows.Count, 2)).Sort Key1:=.Cells(1, 2) ,order1:=xlAscending"</f>
-        <v>.Range(.Cells(1, 1), .Cells(.Rows.Count, 2)).Sort Key1:=.Cells(1, 2) ,order1:=xlAscending</v>
+        <f>".Range(""A1:A2"").ClearContents"</f>
+        <v>.Range("A1:A2").ClearContents</v>
       </c>
       <c r="E336" s="5" t="s">
         <v>122</v>
@@ -12042,14 +12071,14 @@
     <row r="337" spans="1:6" outlineLevel="1">
       <c r="A337" s="2"/>
       <c r="B337" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C337" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D337" s="4" t="str">
-        <f>".Range(""A1:A2"").ClearContents"</f>
-        <v>.Range("A1:A2").ClearContents</v>
+        <f>".Range(""A1:A2"").ClearFormats"</f>
+        <v>.Range("A1:A2").ClearFormats</v>
       </c>
       <c r="E337" s="5" t="s">
         <v>122</v>
@@ -12061,17 +12090,17 @@
     <row r="338" spans="1:6" outlineLevel="1">
       <c r="A338" s="2"/>
       <c r="B338" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C338" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D338" s="4" t="str">
-        <f>".Range(""A1:A2"").ClearFormats"</f>
-        <v>.Range("A1:A2").ClearFormats</v>
+        <f>".Range(""A1:A2"").PasteSpecial (xlPasteFormats)"</f>
+        <v>.Range("A1:A2").PasteSpecial (xlPasteFormats)</v>
       </c>
       <c r="E338" s="5" t="s">
-        <v>122</v>
+        <v>190</v>
       </c>
       <c r="F338" s="11" t="s">
         <v>122</v>
@@ -12080,17 +12109,17 @@
     <row r="339" spans="1:6" outlineLevel="1">
       <c r="A339" s="2"/>
       <c r="B339" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C339" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D339" s="4" t="str">
-        <f>".Range(""A1:A2"").PasteSpecial (xlPasteFormats)"</f>
-        <v>.Range("A1:A2").PasteSpecial (xlPasteFormats)</v>
+        <f>".Range(""A1:CV100"").SpecialCells(xlCellTypeBlanks).Select"</f>
+        <v>.Range("A1:CV100").SpecialCells(xlCellTypeBlanks).Select</v>
       </c>
       <c r="E339" s="5" t="s">
-        <v>190</v>
+        <v>122</v>
       </c>
       <c r="F339" s="11" t="s">
         <v>122</v>
@@ -12099,17 +12128,17 @@
     <row r="340" spans="1:6" outlineLevel="1">
       <c r="A340" s="2"/>
       <c r="B340" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C340" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D340" s="4" t="str">
-        <f>".Range(""A1:CV100"").SpecialCells(xlCellTypeBlanks).Select"</f>
-        <v>.Range("A1:CV100").SpecialCells(xlCellTypeBlanks).Select</v>
+        <f>".Range(""A1"").ColumnWidth = 5"</f>
+        <v>.Range("A1").ColumnWidth = 5</v>
       </c>
       <c r="E340" s="5" t="s">
-        <v>122</v>
+        <v>304</v>
       </c>
       <c r="F340" s="11" t="s">
         <v>122</v>
@@ -12118,17 +12147,17 @@
     <row r="341" spans="1:6" outlineLevel="1">
       <c r="A341" s="2"/>
       <c r="B341" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C341" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D341" s="4" t="str">
-        <f>".Range(""A1"").ColumnWidth = 5"</f>
-        <v>.Range("A1").ColumnWidth = 5</v>
+        <f>".Range(.Cells(4, 2), .Cells(9, 2)).Columns.AutoFit"</f>
+        <v>.Range(.Cells(4, 2), .Cells(9, 2)).Columns.AutoFit</v>
       </c>
       <c r="E341" s="5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F341" s="11" t="s">
         <v>122</v>
@@ -12137,14 +12166,14 @@
     <row r="342" spans="1:6" outlineLevel="1">
       <c r="A342" s="2"/>
       <c r="B342" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C342" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D342" s="4" t="str">
-        <f>".Range(.Cells(4, 2), .Cells(9, 2)).Columns.AutoFit"</f>
-        <v>.Range(.Cells(4, 2), .Cells(9, 2)).Columns.AutoFit</v>
+        <f>".Sheets(シート名).UsedRange.Columns.AutoFit"</f>
+        <v>.Sheets(シート名).UsedRange.Columns.AutoFit</v>
       </c>
       <c r="E342" s="5" t="s">
         <v>305</v>
@@ -12156,17 +12185,17 @@
     <row r="343" spans="1:6" outlineLevel="1">
       <c r="A343" s="2"/>
       <c r="B343" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C343" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D343" s="4" t="str">
-        <f>".Sheets(シート名).UsedRange.Columns.AutoFit"</f>
-        <v>.Sheets(シート名).UsedRange.Columns.AutoFit</v>
+        <f>"Application.CutCopyMode = False"</f>
+        <v>Application.CutCopyMode = False</v>
       </c>
       <c r="E343" s="5" t="s">
-        <v>305</v>
+        <v>122</v>
       </c>
       <c r="F343" s="11" t="s">
         <v>122</v>
@@ -12175,17 +12204,17 @@
     <row r="344" spans="1:6" outlineLevel="1">
       <c r="A344" s="2"/>
       <c r="B344" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C344" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D344" s="4" t="str">
-        <f>"Application.CutCopyMode = False"</f>
-        <v>Application.CutCopyMode = False</v>
+        <f>".Range( .Rows( lStrtRow ), .Rows( lLastRow ) ).Group"</f>
+        <v>.Range( .Rows( lStrtRow ), .Rows( lLastRow ) ).Group</v>
       </c>
       <c r="E344" s="5" t="s">
-        <v>122</v>
+        <v>306</v>
       </c>
       <c r="F344" s="11" t="s">
         <v>122</v>
@@ -12200,8 +12229,8 @@
         <v>398</v>
       </c>
       <c r="D345" s="4" t="str">
-        <f>".Range( .Rows( lStrtRow ), .Rows( lLastRow ) ).Group"</f>
-        <v>.Range( .Rows( lStrtRow ), .Rows( lLastRow ) ).Group</v>
+        <f>".Range( .Columns( lStrtRow ), .Columns( lLastRow ) ).Group"</f>
+        <v>.Range( .Columns( lStrtRow ), .Columns( lLastRow ) ).Group</v>
       </c>
       <c r="E345" s="5" t="s">
         <v>306</v>
@@ -12213,17 +12242,17 @@
     <row r="346" spans="1:6" outlineLevel="1">
       <c r="A346" s="2"/>
       <c r="B346" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C346" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D346" s="4" t="str">
-        <f>".Range( .Columns( lStrtRow ), .Columns( lLastRow ) ).Group"</f>
-        <v>.Range( .Columns( lStrtRow ), .Columns( lLastRow ) ).Group</v>
+        <f>".Sheets(シート名).Outline.SummaryRow = ( xlBelow \| xlAbove )"</f>
+        <v>.Sheets(シート名).Outline.SummaryRow = ( xlBelow \| xlAbove )</v>
       </c>
       <c r="E346" s="5" t="s">
-        <v>306</v>
+        <v>122</v>
       </c>
       <c r="F346" s="11" t="s">
         <v>122</v>
@@ -12232,14 +12261,14 @@
     <row r="347" spans="1:6" outlineLevel="1">
       <c r="A347" s="2"/>
       <c r="B347" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C347" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D347" s="4" t="str">
-        <f>".Sheets(シート名).Outline.SummaryRow = ( xlBelow \| xlAbove )"</f>
-        <v>.Sheets(シート名).Outline.SummaryRow = ( xlBelow \| xlAbove )</v>
+        <f>".Sheets(シート名).Outline.SummaryColumn = ( xlRight \| xlLeft )"</f>
+        <v>.Sheets(シート名).Outline.SummaryColumn = ( xlRight \| xlLeft )</v>
       </c>
       <c r="E347" s="5" t="s">
         <v>122</v>
@@ -12251,14 +12280,14 @@
     <row r="348" spans="1:6" outlineLevel="1">
       <c r="A348" s="2"/>
       <c r="B348" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C348" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D348" s="4" t="str">
-        <f>".Sheets(シート名).Outline.SummaryColumn = ( xlRight \| xlLeft )"</f>
-        <v>.Sheets(シート名).Outline.SummaryColumn = ( xlRight \| xlLeft )</v>
+        <f>".Sheets(シート名).Outline.AutomaticStyles = ( True \| False )"</f>
+        <v>.Sheets(シート名).Outline.AutomaticStyles = ( True \| False )</v>
       </c>
       <c r="E348" s="5" t="s">
         <v>122</v>
@@ -12270,14 +12299,14 @@
     <row r="349" spans="1:6" outlineLevel="1">
       <c r="A349" s="2"/>
       <c r="B349" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C349" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D349" s="4" t="str">
-        <f>".Sheets(シート名).Outline.AutomaticStyles = ( True \| False )"</f>
-        <v>.Sheets(シート名).Outline.AutomaticStyles = ( True \| False )</v>
+        <f>".Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).AutoFilter"</f>
+        <v>.Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).AutoFilter</v>
       </c>
       <c r="E349" s="5" t="s">
         <v>122</v>
@@ -12289,14 +12318,15 @@
     <row r="350" spans="1:6" outlineLevel="1">
       <c r="A350" s="2"/>
       <c r="B350" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C350" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D350" s="4" t="str">
-        <f>".Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).AutoFilter"</f>
-        <v>.Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).AutoFilter</v>
+        <f>".Rows(行).Select"&amp;CHAR(10)&amp;"ActiveWindow.FreezePanes = True"</f>
+        <v>.Rows(行).Select
+ActiveWindow.FreezePanes = True</v>
       </c>
       <c r="E350" s="5" t="s">
         <v>122</v>
@@ -12314,8 +12344,8 @@
         <v>398</v>
       </c>
       <c r="D351" s="4" t="str">
-        <f>".Rows(行).Select"&amp;CHAR(10)&amp;"ActiveWindow.FreezePanes = True"</f>
-        <v>.Rows(行).Select
+        <f>".Columns(列).Select"&amp;CHAR(10)&amp;"ActiveWindow.FreezePanes = True"</f>
+        <v>.Columns(列).Select
 ActiveWindow.FreezePanes = True</v>
       </c>
       <c r="E351" s="5" t="s">
@@ -12328,14 +12358,14 @@
     <row r="352" spans="1:6" outlineLevel="1">
       <c r="A352" s="2"/>
       <c r="B352" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C352" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D352" s="4" t="str">
-        <f>".Columns(列).Select"&amp;CHAR(10)&amp;"ActiveWindow.FreezePanes = True"</f>
-        <v>.Columns(列).Select
+        <f>".Cells(行,列).Select"&amp;CHAR(10)&amp;"ActiveWindow.FreezePanes = True"</f>
+        <v>.Cells(行,列).Select
 ActiveWindow.FreezePanes = True</v>
       </c>
       <c r="E352" s="5" t="s">
@@ -12348,15 +12378,14 @@
     <row r="353" spans="1:6" outlineLevel="1">
       <c r="A353" s="2"/>
       <c r="B353" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C353" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D353" s="4" t="str">
-        <f>".Cells(行,列).Select"&amp;CHAR(10)&amp;"ActiveWindow.FreezePanes = True"</f>
-        <v>.Cells(行,列).Select
-ActiveWindow.FreezePanes = True</v>
+        <f>"ActiveWindow.FreezePanes = False"</f>
+        <v>ActiveWindow.FreezePanes = False</v>
       </c>
       <c r="E353" s="5" t="s">
         <v>122</v>
@@ -12368,14 +12397,14 @@
     <row r="354" spans="1:6" outlineLevel="1">
       <c r="A354" s="2"/>
       <c r="B354" s="2" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="C354" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D354" s="4" t="str">
-        <f>"ActiveWindow.FreezePanes = False"</f>
-        <v>ActiveWindow.FreezePanes = False</v>
+        <f>"Application.WorksheetFunction.VLookup(.Range(""C1""), .Range(""A1:B7""), 2, False)"</f>
+        <v>Application.WorksheetFunction.VLookup(.Range("C1"), .Range("A1:B7"), 2, False)</v>
       </c>
       <c r="E354" s="5" t="s">
         <v>122</v>
@@ -12387,17 +12416,17 @@
     <row r="355" spans="1:6" outlineLevel="1">
       <c r="A355" s="2"/>
       <c r="B355" s="2" t="s">
-        <v>247</v>
+        <v>121</v>
       </c>
       <c r="C355" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D355" s="4" t="str">
-        <f>"Application.WorksheetFunction.VLookup(.Range(""C1""), .Range(""A1:B7""), 2, False)"</f>
-        <v>Application.WorksheetFunction.VLookup(.Range("C1"), .Range("A1:B7"), 2, False)</v>
+        <f>"CreateObject(""WScript.Network"").UserName"</f>
+        <v>CreateObject("WScript.Network").UserName</v>
       </c>
       <c r="E355" s="5" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="F355" s="11" t="s">
         <v>122</v>
@@ -12406,17 +12435,17 @@
     <row r="356" spans="1:6" outlineLevel="1">
       <c r="A356" s="2"/>
       <c r="B356" s="2" t="s">
-        <v>121</v>
+        <v>338</v>
       </c>
       <c r="C356" s="22" t="s">
         <v>398</v>
       </c>
-      <c r="D356" s="4" t="str">
-        <f>"CreateObject(""WScript.Network"").UserName"</f>
-        <v>CreateObject("WScript.Network").UserName</v>
-      </c>
-      <c r="E356" s="5" t="s">
-        <v>128</v>
+      <c r="D356" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="E356" s="6" t="str">
+        <f>HYPERLINK("https://msdn.microsoft.com/ja-jp/library/office/ff197461.aspx","sShtcutKey＝Shift:+,Ctrl:^,Alt:%,...")</f>
+        <v>sShtcutKey＝Shift:+,Ctrl:^,Alt:%,...</v>
       </c>
       <c r="F356" s="11" t="s">
         <v>122</v>
@@ -12425,18 +12454,15 @@
     <row r="357" spans="1:6" outlineLevel="1">
       <c r="A357" s="2"/>
       <c r="B357" s="2" t="s">
-        <v>338</v>
+        <v>661</v>
       </c>
       <c r="C357" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D357" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="E357" s="6" t="str">
-        <f>HYPERLINK("https://msdn.microsoft.com/ja-jp/library/office/ff197461.aspx","sShtcutKey＝Shift:+,Ctrl:^,Alt:%,...")</f>
-        <v>sShtcutKey＝Shift:+,Ctrl:^,Alt:%,...</v>
-      </c>
+        <v>659</v>
+      </c>
+      <c r="E357" s="5"/>
       <c r="F357" s="11" t="s">
         <v>122</v>
       </c>
@@ -12444,13 +12470,13 @@
     <row r="358" spans="1:6" outlineLevel="1">
       <c r="A358" s="2"/>
       <c r="B358" s="2" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C358" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D358" s="4" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="E358" s="5"/>
       <c r="F358" s="11" t="s">
@@ -12460,28 +12486,12 @@
     <row r="359" spans="1:6" outlineLevel="1">
       <c r="A359" s="2"/>
       <c r="B359" s="2" t="s">
-        <v>661</v>
+        <v>714</v>
       </c>
       <c r="C359" s="22" t="s">
         <v>398</v>
       </c>
-      <c r="D359" s="4" t="s">
-        <v>663</v>
-      </c>
-      <c r="E359" s="5"/>
-      <c r="F359" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="360" spans="1:6" outlineLevel="1">
-      <c r="A360" s="2"/>
-      <c r="B360" s="2" t="s">
-        <v>716</v>
-      </c>
-      <c r="C360" s="22" t="s">
-        <v>398</v>
-      </c>
-      <c r="D360" s="10" t="str">
+      <c r="D359" s="10" t="str">
         <f>"Dim objBtn As Object
 Set objBtn = ActiveSheet.Shapes(Application.Caller)
 Dim lClm As Long
@@ -12497,8 +12507,26 @@
 lRow = objBtn.TopLeftCell.Row
 </v>
       </c>
+      <c r="E359" s="5" t="s">
+        <v>715</v>
+      </c>
+      <c r="F359" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" outlineLevel="1">
+      <c r="A360" s="2"/>
+      <c r="B360" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="C360" s="22" t="s">
+        <v>398</v>
+      </c>
+      <c r="D360" s="10" t="s">
+        <v>742</v>
+      </c>
       <c r="E360" s="5" t="s">
-        <v>717</v>
+        <v>122</v>
       </c>
       <c r="F360" s="11" t="s">
         <v>122</v>
@@ -12507,13 +12535,13 @@
     <row r="361" spans="1:6" outlineLevel="1">
       <c r="A361" s="2"/>
       <c r="B361" s="2" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="C361" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D361" s="10" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="E361" s="5" t="s">
         <v>122</v>
@@ -12525,13 +12553,13 @@
     <row r="362" spans="1:6" outlineLevel="1">
       <c r="A362" s="2"/>
       <c r="B362" s="2" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="C362" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D362" s="10" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="E362" s="5" t="s">
         <v>122</v>
@@ -12543,13 +12571,13 @@
     <row r="363" spans="1:6" outlineLevel="1">
       <c r="A363" s="2"/>
       <c r="B363" s="2" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C363" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D363" s="10" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="E363" s="5" t="s">
         <v>122</v>
@@ -12558,47 +12586,29 @@
         <v>122</v>
       </c>
     </row>
-    <row r="364" spans="1:6" outlineLevel="1">
-      <c r="A364" s="2"/>
-      <c r="B364" s="2" t="s">
-        <v>742</v>
-      </c>
-      <c r="C364" s="22" t="s">
+    <row r="364" spans="1:6">
+      <c r="A364" s="20" t="s">
+        <v>464</v>
+      </c>
+      <c r="B364" s="8"/>
+      <c r="C364" s="8"/>
+      <c r="D364" s="8"/>
+      <c r="E364" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F364" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" outlineLevel="1">
+      <c r="A365" s="2"/>
+      <c r="B365" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="C365" s="22" t="s">
         <v>398</v>
       </c>
-      <c r="D364" s="10" t="s">
-        <v>745</v>
-      </c>
-      <c r="E364" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F364" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="365" spans="1:6">
-      <c r="A365" s="20" t="s">
-        <v>465</v>
-      </c>
-      <c r="B365" s="8"/>
-      <c r="C365" s="8"/>
-      <c r="D365" s="8"/>
-      <c r="E365" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="F365" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="366" spans="1:6" outlineLevel="1">
-      <c r="A366" s="2"/>
-      <c r="B366" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="C366" s="22" t="s">
-        <v>398</v>
-      </c>
-      <c r="D366" s="2" t="str">
+      <c r="D365" s="2" t="str">
         <f>"Dim bIsSheetExist As Boolean
 bIsSheetExist = False
 For Each wSheet In ThisWorkbook.Worksheets
@@ -12618,19 +12628,19 @@
     End If
 Next wSheet</v>
       </c>
-      <c r="E366" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="367" spans="1:6" outlineLevel="1">
-      <c r="A367" s="2"/>
-      <c r="B367" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="C367" s="22" t="s">
+      <c r="E365" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" outlineLevel="1">
+      <c r="A366" s="2"/>
+      <c r="B366" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="C366" s="22" t="s">
         <v>398</v>
       </c>
-      <c r="D367" s="2" t="str">
+      <c r="D366" s="2" t="str">
         <f>"Dim rFindResult As Range
 Dim sFindKeyword As String
 Dim shTrgtSht As Worksheet
@@ -12644,19 +12654,19 @@
 sFindKeyword = "test"
 Set rFindResult = shTrgtSht.Cells.Find(sFindKeyword, LookAt:=xlWhole)</v>
       </c>
-      <c r="E367" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="368" spans="1:6" outlineLevel="1">
-      <c r="A368" s="2"/>
-      <c r="B368" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="C368" s="22" t="s">
+      <c r="E366" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" outlineLevel="1">
+      <c r="A367" s="2"/>
+      <c r="B367" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="C367" s="22" t="s">
         <v>398</v>
       </c>
-      <c r="D368" s="2" t="str">
+      <c r="D367" s="2" t="str">
         <f>"If rFindResult Is Nothing Then
     MsgBox _
         ""セルが見つからなかったため、処理を中断します。"" &amp; vbNewLine &amp; _
@@ -12674,6 +12684,15 @@
     End
 End If</v>
       </c>
+      <c r="E367" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" outlineLevel="1">
+      <c r="A368" s="2"/>
+      <c r="B368" s="2"/>
+      <c r="C368" s="10"/>
+      <c r="D368" s="10"/>
       <c r="E368" s="5" t="s">
         <v>122</v>
       </c>
@@ -12786,30 +12805,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="381" spans="1:5" outlineLevel="1">
-      <c r="A381" s="2"/>
-      <c r="B381" s="2"/>
-      <c r="C381" s="10"/>
-      <c r="D381" s="10"/>
-      <c r="E381" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="383" spans="1:5">
-      <c r="A383" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="B383" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="C383" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="D383" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="E383" s="1" t="s">
-        <v>418</v>
+    <row r="382" spans="1:5">
+      <c r="A382" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="B382" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C382" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="D382" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="E382" s="1" t="s">
+        <v>417</v>
       </c>
     </row>
   </sheetData>
@@ -12818,8 +12828,8 @@
   <hyperlinks>
     <hyperlink ref="E30" r:id="rId1" display="32 (※)値の意味は [【ファイル・フォルダ情報取得】](https://github.com/draemonash2/codes/blob/master/vbs/lib/FileSystem.vbs) 参照" xr:uid="{51FF9B99-DDF0-482F-A859-99967CEF1640}"/>
     <hyperlink ref="E67" r:id="rId2" xr:uid="{1379D4F3-77ED-4F19-AE19-501879C3D708}"/>
-    <hyperlink ref="E161" r:id="rId3" xr:uid="{E05C5702-9A7D-43B3-950C-6EA66C521D18}"/>
-    <hyperlink ref="E185" r:id="rId4" display="32 (※)値の意味は [【ファイル・フォルダ情報取得】](https://github.com/draemonash2/codes/blob/master/vbs/lib/FileSystem.vbs) 参照" xr:uid="{647131FE-1804-4878-A961-C3C030D11B35}"/>
+    <hyperlink ref="E160" r:id="rId3" xr:uid="{E05C5702-9A7D-43B3-950C-6EA66C521D18}"/>
+    <hyperlink ref="E184" r:id="rId4" display="32 (※)値の意味は [【ファイル・フォルダ情報取得】](https://github.com/draemonash2/codes/blob/master/vbs/lib/FileSystem.vbs) 参照" xr:uid="{647131FE-1804-4878-A961-C3C030D11B35}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="47" orientation="portrait" r:id="rId5"/>
@@ -12905,7 +12915,7 @@
     <row r="5" spans="1:5" outlineLevel="1">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="C5" s="47" t="s">
         <v>398</v>
@@ -12924,7 +12934,7 @@
         <v>398</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>122</v>
@@ -12952,7 +12962,7 @@
         <v>398</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>122</v>
@@ -12967,7 +12977,7 @@
         <v>398</v>
       </c>
       <c r="D9" s="55" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>122</v>
@@ -12997,7 +13007,7 @@
 	return value</v>
       </c>
       <c r="D11" s="40" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>122</v>
@@ -13009,7 +13019,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="D12" s="40"/>
       <c r="E12" s="11" t="s">
@@ -13022,7 +13032,7 @@
         <v>15</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="D13" s="40"/>
       <c r="E13" s="11" t="s">
@@ -13075,13 +13085,13 @@
     <row r="17" spans="1:6" s="43" customFormat="1" outlineLevel="1">
       <c r="A17" s="37"/>
       <c r="B17" s="38" t="s">
+        <v>976</v>
+      </c>
+      <c r="C17" s="54" t="s">
+        <v>977</v>
+      </c>
+      <c r="D17" s="40" t="s">
         <v>978</v>
-      </c>
-      <c r="C17" s="54" t="s">
-        <v>979</v>
-      </c>
-      <c r="D17" s="40" t="s">
-        <v>980</v>
       </c>
       <c r="E17" s="43" t="s">
         <v>122</v>
@@ -13094,10 +13104,10 @@
         <v>374</v>
       </c>
       <c r="C18" s="39" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="D18" s="40" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>122</v>
@@ -13109,10 +13119,10 @@
         <v>375</v>
       </c>
       <c r="C19" s="39" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="D19" s="40" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>122</v>
@@ -13124,7 +13134,7 @@
         <v>376</v>
       </c>
       <c r="C20" s="39" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D20" s="40"/>
       <c r="E20" s="11" t="s">
@@ -13160,10 +13170,10 @@
     <row r="23" spans="1:6" s="43" customFormat="1" outlineLevel="1">
       <c r="A23" s="37"/>
       <c r="B23" s="38" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="C23" s="39" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="D23" s="40"/>
       <c r="E23" s="43" t="s">
@@ -13177,7 +13187,7 @@
         <v>11</v>
       </c>
       <c r="C24" s="39" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="D24" s="40"/>
       <c r="E24" s="11" t="s">
@@ -13187,13 +13197,13 @@
     <row r="25" spans="1:6" outlineLevel="1">
       <c r="A25" s="2"/>
       <c r="B25" s="38" t="s">
+        <v>938</v>
+      </c>
+      <c r="C25" s="39" t="s">
+        <v>941</v>
+      </c>
+      <c r="D25" s="40" t="s">
         <v>940</v>
-      </c>
-      <c r="C25" s="39" t="s">
-        <v>943</v>
-      </c>
-      <c r="D25" s="40" t="s">
-        <v>942</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>122</v>
@@ -13202,13 +13212,13 @@
     <row r="26" spans="1:6" outlineLevel="1">
       <c r="A26" s="2"/>
       <c r="B26" s="38" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="C26" s="39" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="D26" s="40" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>122</v>
@@ -13217,10 +13227,10 @@
     <row r="27" spans="1:6" outlineLevel="1">
       <c r="A27" s="2"/>
       <c r="B27" s="38" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C27" s="42" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="D27" s="40"/>
       <c r="E27" s="11" t="s">
@@ -13230,13 +13240,13 @@
     <row r="28" spans="1:6" outlineLevel="1">
       <c r="A28" s="2"/>
       <c r="B28" s="38" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C28" s="42" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="D28" s="40" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="E28" s="11" t="s">
         <v>122</v>
@@ -13245,10 +13255,10 @@
     <row r="29" spans="1:6" outlineLevel="1">
       <c r="A29" s="2"/>
       <c r="B29" s="2" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C29" s="39" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="D29" s="40"/>
       <c r="E29" s="11" t="s">
@@ -13302,13 +13312,13 @@
     <row r="34" spans="1:6" s="43" customFormat="1" outlineLevel="1">
       <c r="A34" s="37"/>
       <c r="B34" s="37" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="C34" s="39" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="D34" s="40" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="E34" s="43" t="s">
         <v>122</v>
@@ -13318,10 +13328,10 @@
     <row r="35" spans="1:6" s="43" customFormat="1" outlineLevel="1">
       <c r="A35" s="37"/>
       <c r="B35" s="37" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C35" s="39" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="D35" s="40"/>
       <c r="E35" s="43" t="s">
@@ -13332,10 +13342,10 @@
     <row r="36" spans="1:6" s="43" customFormat="1" outlineLevel="1">
       <c r="A36" s="37"/>
       <c r="B36" s="37" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C36" s="39" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="D36" s="40"/>
       <c r="E36" s="43" t="s">
@@ -13346,10 +13356,10 @@
     <row r="37" spans="1:6" s="43" customFormat="1" outlineLevel="1">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="D37" s="40"/>
       <c r="E37" s="43" t="s">
@@ -13360,10 +13370,10 @@
     <row r="38" spans="1:6" outlineLevel="1">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D38" s="40"/>
       <c r="E38" s="11" t="s">
@@ -13373,10 +13383,10 @@
     <row r="39" spans="1:6" outlineLevel="1">
       <c r="A39" s="2"/>
       <c r="B39" s="2" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="D39" s="40"/>
       <c r="E39" s="11" t="s">
@@ -13386,10 +13396,10 @@
     <row r="40" spans="1:6" outlineLevel="1">
       <c r="A40" s="2"/>
       <c r="B40" s="3" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="D40" s="40"/>
       <c r="E40" s="11" t="s">
@@ -13399,10 +13409,10 @@
     <row r="41" spans="1:6" outlineLevel="1">
       <c r="A41" s="2"/>
       <c r="B41" s="3" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="C41" s="36" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="D41" s="40"/>
       <c r="E41" s="11" t="s">
@@ -13412,10 +13422,10 @@
     <row r="42" spans="1:6" outlineLevel="1">
       <c r="A42" s="2"/>
       <c r="B42" s="2" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="D42" s="40"/>
       <c r="E42" s="11" t="s">
@@ -13425,10 +13435,10 @@
     <row r="43" spans="1:6" outlineLevel="1">
       <c r="A43" s="2"/>
       <c r="B43" s="2" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C43" s="36" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="D43" s="40"/>
       <c r="E43" s="11" t="s">
@@ -13438,10 +13448,10 @@
     <row r="44" spans="1:6" outlineLevel="1">
       <c r="A44" s="2"/>
       <c r="B44" s="2" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="D44" s="40"/>
       <c r="E44" s="11" t="s">
@@ -13451,10 +13461,10 @@
     <row r="45" spans="1:6" outlineLevel="1">
       <c r="A45" s="2"/>
       <c r="B45" s="2" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="D45" s="40"/>
       <c r="E45" s="11" t="s">
@@ -13475,13 +13485,13 @@
     <row r="47" spans="1:6" s="43" customFormat="1" outlineLevel="1">
       <c r="A47" s="2"/>
       <c r="B47" s="37" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="D47" s="40" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="E47" s="43" t="s">
         <v>122</v>
@@ -13491,7 +13501,7 @@
     <row r="48" spans="1:6" outlineLevel="1">
       <c r="A48" s="2"/>
       <c r="B48" s="2" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="C48" s="42" t="str">
         <f>""""""""&amp;CHAR(10)&amp;"test_1"&amp;CHAR(10)&amp;"test_2"&amp;CHAR(10)&amp;""""""""</f>
@@ -13501,7 +13511,7 @@
 """</v>
       </c>
       <c r="D48" s="40" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="E48" s="11" t="s">
         <v>122</v>
@@ -13510,13 +13520,13 @@
     <row r="49" spans="1:6" outlineLevel="1">
       <c r="A49" s="2"/>
       <c r="B49" s="2" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="D49" s="40" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="E49" s="11" t="s">
         <v>122</v>
@@ -13525,13 +13535,13 @@
     <row r="50" spans="1:6" outlineLevel="1">
       <c r="A50" s="2"/>
       <c r="B50" s="2" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D50" s="40" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="E50" s="11" t="s">
         <v>122</v>
@@ -13540,13 +13550,13 @@
     <row r="51" spans="1:6" outlineLevel="1">
       <c r="A51" s="2"/>
       <c r="B51" s="2" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="D51" s="40" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="E51" s="11" t="s">
         <v>122</v>
@@ -13555,13 +13565,13 @@
     <row r="52" spans="1:6" outlineLevel="1">
       <c r="A52" s="2"/>
       <c r="B52" s="2" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="C52" s="42" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="D52" s="40" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="E52" s="11" t="s">
         <v>122</v>
@@ -13570,10 +13580,10 @@
     <row r="53" spans="1:6" outlineLevel="1">
       <c r="A53" s="2"/>
       <c r="B53" s="2" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D53" s="40" t="s">
         <v>130</v>
@@ -13588,10 +13598,10 @@
         <v>65</v>
       </c>
       <c r="C54" s="42" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="D54" s="40" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E54" s="11" t="s">
         <v>122</v>
@@ -13603,10 +13613,10 @@
         <v>66</v>
       </c>
       <c r="C55" s="42" t="s">
+        <v>935</v>
+      </c>
+      <c r="D55" s="40" t="s">
         <v>937</v>
-      </c>
-      <c r="D55" s="40" t="s">
-        <v>939</v>
       </c>
       <c r="E55" s="11" t="s">
         <v>122</v>
@@ -13615,13 +13625,13 @@
     <row r="56" spans="1:6" outlineLevel="1">
       <c r="A56" s="2"/>
       <c r="B56" s="2" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="D56" s="40" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="E56" s="11" t="s">
         <v>122</v>
@@ -13630,13 +13640,13 @@
     <row r="57" spans="1:6" outlineLevel="1">
       <c r="A57" s="2"/>
       <c r="B57" s="2" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C57" s="39" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="D57" s="40" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="E57" s="11" t="s">
         <v>122</v>
@@ -13645,13 +13655,13 @@
     <row r="58" spans="1:6" outlineLevel="1">
       <c r="A58" s="2"/>
       <c r="B58" s="2" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="C58" s="39" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="D58" s="40" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="E58" s="11" t="s">
         <v>122</v>
@@ -13660,13 +13670,13 @@
     <row r="59" spans="1:6" s="43" customFormat="1" outlineLevel="1">
       <c r="A59" s="37"/>
       <c r="B59" s="37" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="C59" s="39" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="D59" s="40" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="E59" s="43" t="s">
         <v>122</v>
@@ -13676,13 +13686,13 @@
     <row r="60" spans="1:6" outlineLevel="1">
       <c r="A60" s="2"/>
       <c r="B60" s="2" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="C60" s="39" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="D60" s="40" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E60" s="11" t="s">
         <v>122</v>
@@ -13691,13 +13701,13 @@
     <row r="61" spans="1:6" outlineLevel="1">
       <c r="A61" s="2"/>
       <c r="B61" s="2" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="C61" s="39" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="D61" s="40" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="E61" s="11" t="s">
         <v>122</v>
@@ -13706,13 +13716,13 @@
     <row r="62" spans="1:6" outlineLevel="1">
       <c r="A62" s="2"/>
       <c r="B62" s="2" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="C62" s="42" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="D62" s="40" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="E62" s="11" t="s">
         <v>122</v>
@@ -13724,10 +13734,10 @@
         <v>71</v>
       </c>
       <c r="C63" s="39" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="D63" s="40" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="E63" s="11" t="s">
         <v>122</v>
@@ -13739,10 +13749,10 @@
         <v>73</v>
       </c>
       <c r="C64" s="39" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D64" s="40" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="E64" s="11" t="s">
         <v>122</v>
@@ -13751,13 +13761,13 @@
     <row r="65" spans="1:6" outlineLevel="1">
       <c r="A65" s="2"/>
       <c r="B65" s="2" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="C65" s="42" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="D65" s="51" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="E65" s="11" t="s">
         <v>122</v>
@@ -13766,13 +13776,13 @@
     <row r="66" spans="1:6" outlineLevel="1">
       <c r="A66" s="2"/>
       <c r="B66" s="2" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C66" s="42" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="D66" s="35" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="E66" s="11" t="s">
         <v>122</v>
@@ -13781,13 +13791,13 @@
     <row r="67" spans="1:6" outlineLevel="1">
       <c r="A67" s="2"/>
       <c r="B67" s="2" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="C67" s="42" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="D67" s="35" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="E67" s="11" t="s">
         <v>122</v>
@@ -13797,13 +13807,13 @@
     <row r="68" spans="1:6" outlineLevel="1">
       <c r="A68" s="2"/>
       <c r="B68" s="2" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="C68" s="42" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D68" s="35" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="E68" s="11" t="s">
         <v>122</v>
@@ -13812,10 +13822,10 @@
     <row r="69" spans="1:6" outlineLevel="1">
       <c r="A69" s="2"/>
       <c r="B69" s="2" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C69" s="42" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="D69" s="35">
         <v>1234</v>
@@ -13909,10 +13919,10 @@
         <v>84</v>
       </c>
       <c r="C77" s="39" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="D77" s="40" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="E77" s="11" t="s">
         <v>122</v>
@@ -13924,10 +13934,10 @@
         <v>85</v>
       </c>
       <c r="C78" s="39" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="D78" s="40" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="E78" s="11" t="s">
         <v>122</v>
@@ -13961,10 +13971,10 @@
         <v>88</v>
       </c>
       <c r="C81" s="39" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="D81" s="40" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="E81" s="11" t="s">
         <v>122</v>
@@ -13973,13 +13983,13 @@
     <row r="82" spans="1:5" outlineLevel="1">
       <c r="A82" s="2"/>
       <c r="B82" s="2" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="C82" s="39" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="D82" s="40" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="E82" s="11" t="s">
         <v>122</v>
@@ -13991,7 +14001,7 @@
         <v>91</v>
       </c>
       <c r="C83" s="48" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="D83" s="40"/>
       <c r="E83" s="11" t="s">
@@ -14199,7 +14209,7 @@
     <row r="102" spans="1:5" outlineLevel="1">
       <c r="A102" s="2"/>
       <c r="B102" s="2" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C102" s="44"/>
       <c r="D102" s="40"/>
@@ -14210,7 +14220,7 @@
     <row r="103" spans="1:5" outlineLevel="1">
       <c r="A103" s="2"/>
       <c r="B103" s="2" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C103" s="44"/>
       <c r="D103" s="40"/>
@@ -14221,7 +14231,7 @@
     <row r="104" spans="1:5" outlineLevel="1">
       <c r="A104" s="2"/>
       <c r="B104" s="2" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C104" s="44"/>
       <c r="D104" s="40"/>
@@ -14232,7 +14242,7 @@
     <row r="105" spans="1:5" outlineLevel="1">
       <c r="A105" s="2"/>
       <c r="B105" s="2" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C105" s="44"/>
       <c r="D105" s="40"/>
@@ -14331,10 +14341,10 @@
     <row r="114" spans="1:6" outlineLevel="1">
       <c r="A114" s="2"/>
       <c r="B114" s="2" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="C114" s="47" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="D114" s="40"/>
       <c r="E114" s="11" t="s">
@@ -14344,13 +14354,13 @@
     <row r="115" spans="1:6" outlineLevel="1">
       <c r="A115" s="2"/>
       <c r="B115" s="2" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="C115" s="39" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="D115" s="40" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="E115" s="11" t="s">
         <v>122</v>
@@ -14359,10 +14369,10 @@
     <row r="116" spans="1:6" outlineLevel="1">
       <c r="A116" s="2"/>
       <c r="B116" s="2" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="C116" s="39" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="D116" s="40"/>
       <c r="E116" s="11" t="s">
@@ -14372,10 +14382,10 @@
     <row r="117" spans="1:6" outlineLevel="1">
       <c r="A117" s="2"/>
       <c r="B117" s="2" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="C117" s="39" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="D117" s="40"/>
       <c r="E117" s="11" t="s">
@@ -14385,10 +14395,10 @@
     <row r="118" spans="1:6" s="43" customFormat="1" outlineLevel="1">
       <c r="A118" s="37"/>
       <c r="B118" s="37" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="C118" s="39" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="D118" s="40"/>
       <c r="E118" s="43" t="s">
@@ -14399,13 +14409,13 @@
     <row r="119" spans="1:6" s="43" customFormat="1" outlineLevel="1">
       <c r="A119" s="37"/>
       <c r="B119" s="37" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="C119" s="39" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="D119" s="40" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="E119" s="43" t="s">
         <v>122</v>
@@ -14415,13 +14425,13 @@
     <row r="120" spans="1:6" outlineLevel="1">
       <c r="A120" s="2"/>
       <c r="B120" s="2" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="C120" s="39" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="D120" s="40" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="E120" s="11" t="s">
         <v>122</v>
@@ -14430,10 +14440,10 @@
     <row r="121" spans="1:6" outlineLevel="1">
       <c r="A121" s="2"/>
       <c r="B121" s="2" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="C121" s="39" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="D121" s="40"/>
       <c r="E121" s="11" t="s">
@@ -14443,7 +14453,7 @@
     <row r="122" spans="1:6" outlineLevel="1">
       <c r="A122" s="2"/>
       <c r="B122" s="2" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C122" s="44"/>
       <c r="D122" s="40"/>
@@ -14453,7 +14463,7 @@
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="20" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
@@ -14468,7 +14478,7 @@
         <v>110</v>
       </c>
       <c r="C124" s="39" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D124" s="40"/>
       <c r="E124" s="11" t="s">
@@ -14511,7 +14521,7 @@
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="45" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="B128" s="41"/>
       <c r="C128" s="41"/>
@@ -14523,13 +14533,13 @@
     <row r="129" spans="1:6" outlineLevel="1">
       <c r="A129" s="2"/>
       <c r="B129" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="C129" s="39" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="D129" s="40" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="E129" s="11" t="s">
         <v>122</v>
@@ -14537,7 +14547,7 @@
     </row>
     <row r="130" spans="1:6" s="43" customFormat="1">
       <c r="A130" s="45" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B130" s="41"/>
       <c r="C130" s="41"/>
@@ -14550,11 +14560,11 @@
     <row r="131" spans="1:6" outlineLevel="1">
       <c r="A131" s="2"/>
       <c r="B131" s="2" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="C131" s="44"/>
       <c r="D131" s="40" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="E131" s="11" t="s">
         <v>122</v>
@@ -14563,13 +14573,13 @@
     <row r="132" spans="1:6" outlineLevel="1">
       <c r="A132" s="2"/>
       <c r="B132" s="2" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="D132" s="40" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E132" s="11" t="s">
         <v>122</v>
@@ -14578,13 +14588,13 @@
     <row r="133" spans="1:6" outlineLevel="1">
       <c r="A133" s="2"/>
       <c r="B133" s="2" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D133" s="40" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E133" s="11" t="s">
         <v>122</v>
@@ -14593,13 +14603,13 @@
     <row r="134" spans="1:6" outlineLevel="1">
       <c r="A134" s="2"/>
       <c r="B134" s="2" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="D134" s="40" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E134" s="11" t="s">
         <v>122</v>
@@ -14608,13 +14618,13 @@
     <row r="135" spans="1:6" outlineLevel="1">
       <c r="A135" s="2"/>
       <c r="B135" s="2" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D135" s="40" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="E135" s="11" t="s">
         <v>122</v>
@@ -14623,13 +14633,13 @@
     <row r="136" spans="1:6" outlineLevel="1">
       <c r="A136" s="2"/>
       <c r="B136" s="2" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="D136" s="40" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="E136" s="11" t="s">
         <v>122</v>
@@ -14638,13 +14648,13 @@
     <row r="137" spans="1:6" outlineLevel="1">
       <c r="A137" s="2"/>
       <c r="B137" s="2" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="D137" s="40" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E137" s="11" t="s">
         <v>122</v>
@@ -14653,13 +14663,13 @@
     <row r="138" spans="1:6" outlineLevel="1">
       <c r="A138" s="2"/>
       <c r="B138" s="2" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="D138" s="40" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="E138" s="11" t="s">
         <v>122</v>
@@ -14668,13 +14678,13 @@
     <row r="139" spans="1:6" outlineLevel="1">
       <c r="A139" s="2"/>
       <c r="B139" s="2" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="D139" s="40" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="E139" s="11" t="s">
         <v>122</v>
@@ -14683,10 +14693,10 @@
     <row r="140" spans="1:6" outlineLevel="1">
       <c r="A140" s="2"/>
       <c r="B140" s="2" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="D140" s="40"/>
       <c r="E140" s="11" t="s">
@@ -15003,7 +15013,7 @@
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="20" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B169" s="8"/>
       <c r="C169" s="20"/>
@@ -15018,7 +15028,7 @@
         <v>351</v>
       </c>
       <c r="C170" s="42" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="D170" s="40"/>
       <c r="E170" s="11" t="s">
@@ -15028,10 +15038,10 @@
     <row r="171" spans="1:6" s="43" customFormat="1" outlineLevel="1">
       <c r="A171" s="37"/>
       <c r="B171" s="37" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C171" s="54" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="D171" s="40"/>
       <c r="F171" s="49"/>
@@ -15039,10 +15049,10 @@
     <row r="172" spans="1:6" s="43" customFormat="1" outlineLevel="1">
       <c r="A172" s="37"/>
       <c r="B172" s="37" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C172" s="42" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="D172" s="40"/>
       <c r="F172" s="49"/>
@@ -15050,13 +15060,13 @@
     <row r="173" spans="1:6" outlineLevel="1">
       <c r="A173" s="2"/>
       <c r="B173" s="2" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="C173" s="42" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="D173" s="40" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="E173" s="11" t="s">
         <v>122</v>
@@ -15065,23 +15075,23 @@
     <row r="174" spans="1:6" s="43" customFormat="1" outlineLevel="1">
       <c r="A174" s="37"/>
       <c r="B174" s="37" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="C174" s="42" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="D174" s="40" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="F174" s="49"/>
     </row>
     <row r="175" spans="1:6" s="43" customFormat="1" outlineLevel="1">
       <c r="A175" s="37"/>
       <c r="B175" s="37" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C175" s="54" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="D175" s="40"/>
       <c r="E175" s="43" t="s">
@@ -15092,13 +15102,13 @@
     <row r="176" spans="1:6" s="43" customFormat="1" outlineLevel="1">
       <c r="A176" s="37"/>
       <c r="B176" s="37" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="C176" s="54" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="D176" s="40" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="E176" s="43" t="s">
         <v>122</v>
@@ -15108,10 +15118,10 @@
     <row r="177" spans="1:6" s="43" customFormat="1" outlineLevel="1">
       <c r="A177" s="37"/>
       <c r="B177" s="37" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C177" s="42" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D177" s="40"/>
       <c r="E177" s="43" t="s">
@@ -15122,13 +15132,13 @@
     <row r="178" spans="1:6" outlineLevel="1">
       <c r="A178" s="2"/>
       <c r="B178" s="2" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C178" s="42" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="D178" s="40" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="E178" s="11" t="s">
         <v>122</v>
@@ -15137,13 +15147,13 @@
     <row r="179" spans="1:6" outlineLevel="1">
       <c r="A179" s="2"/>
       <c r="B179" s="2" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="C179" s="42" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="D179" s="40" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="E179" s="11" t="s">
         <v>122</v>
@@ -15152,13 +15162,13 @@
     <row r="180" spans="1:6" outlineLevel="1">
       <c r="A180" s="2"/>
       <c r="B180" s="2" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="C180" s="42" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="D180" s="40" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="E180" s="11" t="s">
         <v>122</v>
@@ -15167,13 +15177,13 @@
     <row r="181" spans="1:6" outlineLevel="1">
       <c r="A181" s="2"/>
       <c r="B181" s="2" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="C181" s="42" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="D181" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="E181" s="11" t="s">
         <v>122</v>
@@ -15182,13 +15192,13 @@
     <row r="182" spans="1:6" s="43" customFormat="1" outlineLevel="1">
       <c r="A182" s="37"/>
       <c r="B182" s="37" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="C182" s="54" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="D182" s="40" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="E182" s="43" t="s">
         <v>122</v>
@@ -15198,10 +15208,10 @@
     <row r="183" spans="1:6" s="43" customFormat="1" outlineLevel="1">
       <c r="A183" s="37"/>
       <c r="B183" s="37" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="C183" s="54" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="D183" s="40"/>
       <c r="E183" s="43" t="s">
@@ -15212,10 +15222,10 @@
     <row r="184" spans="1:6" s="43" customFormat="1" outlineLevel="1">
       <c r="A184" s="37"/>
       <c r="B184" s="37" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="C184" s="54" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="D184" s="40"/>
       <c r="E184" s="43" t="s">
@@ -15226,7 +15236,7 @@
     <row r="185" spans="1:6" s="43" customFormat="1" outlineLevel="1">
       <c r="A185" s="37"/>
       <c r="B185" s="37" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="C185" s="44"/>
       <c r="D185" s="57"/>
@@ -15238,7 +15248,7 @@
     <row r="186" spans="1:6" s="43" customFormat="1" outlineLevel="1">
       <c r="A186" s="37"/>
       <c r="B186" s="37" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="C186" s="44"/>
       <c r="D186" s="57"/>
@@ -15250,13 +15260,13 @@
     <row r="187" spans="1:6" s="43" customFormat="1" outlineLevel="1">
       <c r="A187" s="37"/>
       <c r="B187" s="37" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="C187" s="42" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="D187" s="40" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="E187" s="43" t="s">
         <v>122</v>
@@ -15266,13 +15276,13 @@
     <row r="188" spans="1:6" s="43" customFormat="1" outlineLevel="1">
       <c r="A188" s="37"/>
       <c r="B188" s="37" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="C188" s="42" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="D188" s="40" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="E188" s="43" t="s">
         <v>122</v>
@@ -15282,13 +15292,13 @@
     <row r="189" spans="1:6" s="43" customFormat="1" outlineLevel="1">
       <c r="A189" s="37"/>
       <c r="B189" s="37" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="C189" s="42" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="D189" s="40" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="E189" s="43" t="s">
         <v>122</v>
@@ -15298,13 +15308,13 @@
     <row r="190" spans="1:6" outlineLevel="1">
       <c r="A190" s="2"/>
       <c r="B190" s="2" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="C190" s="42" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="D190" s="40" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="E190" s="11" t="s">
         <v>122</v>
@@ -15313,13 +15323,13 @@
     <row r="191" spans="1:6" s="43" customFormat="1" outlineLevel="1">
       <c r="A191" s="37"/>
       <c r="B191" s="37" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="C191" s="42" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="D191" s="40" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="E191" s="43" t="s">
         <v>122</v>
@@ -15329,10 +15339,10 @@
     <row r="192" spans="1:6" outlineLevel="1">
       <c r="A192" s="2"/>
       <c r="B192" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C192" s="42" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="D192" s="40"/>
       <c r="E192" s="11" t="s">
@@ -15341,7 +15351,7 @@
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="20" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="B193" s="8"/>
       <c r="C193" s="8"/>
@@ -15356,7 +15366,7 @@
         <v>36</v>
       </c>
       <c r="C194" s="39" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E194" s="11" t="s">
         <v>122</v>
@@ -15639,7 +15649,7 @@
     <row r="220" spans="1:5" outlineLevel="1">
       <c r="A220" s="2"/>
       <c r="B220" s="2" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C220" s="44"/>
       <c r="D220" s="40"/>
@@ -15706,10 +15716,10 @@
     <row r="226" spans="1:6" outlineLevel="1">
       <c r="A226" s="37"/>
       <c r="B226" s="37" t="s">
+        <v>866</v>
+      </c>
+      <c r="C226" s="42" t="s">
         <v>868</v>
-      </c>
-      <c r="C226" s="42" t="s">
-        <v>870</v>
       </c>
       <c r="D226" s="40"/>
       <c r="E226" s="11" t="s">
@@ -15719,10 +15729,10 @@
     <row r="227" spans="1:6" outlineLevel="1">
       <c r="A227" s="2"/>
       <c r="B227" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="C227" s="42" t="s">
         <v>869</v>
-      </c>
-      <c r="C227" s="42" t="s">
-        <v>871</v>
       </c>
       <c r="D227" s="40"/>
       <c r="E227" s="11" t="s">
@@ -15787,13 +15797,13 @@
     <row r="233" spans="1:6" s="43" customFormat="1" outlineLevel="1">
       <c r="A233" s="37"/>
       <c r="B233" s="37" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="C233" s="42" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D233" s="40" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="E233" s="43" t="s">
         <v>122</v>
@@ -15802,13 +15812,13 @@
     <row r="234" spans="1:6" s="43" customFormat="1" outlineLevel="1">
       <c r="A234" s="37"/>
       <c r="B234" s="37" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C234" s="42" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="D234" s="40" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="E234" s="43" t="s">
         <v>122</v>
@@ -15818,13 +15828,13 @@
     <row r="235" spans="1:6" s="43" customFormat="1" outlineLevel="1">
       <c r="A235" s="7"/>
       <c r="B235" s="37" t="s">
+        <v>901</v>
+      </c>
+      <c r="C235" s="42" t="s">
+        <v>902</v>
+      </c>
+      <c r="D235" s="40" t="s">
         <v>903</v>
-      </c>
-      <c r="C235" s="42" t="s">
-        <v>904</v>
-      </c>
-      <c r="D235" s="40" t="s">
-        <v>905</v>
       </c>
       <c r="E235" s="43" t="s">
         <v>122</v>
@@ -15832,7 +15842,7 @@
     </row>
     <row r="236" spans="1:6" s="43" customFormat="1">
       <c r="A236" s="45" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B236" s="41"/>
       <c r="C236" s="41"/>
@@ -15844,28 +15854,28 @@
     <row r="237" spans="1:6" s="43" customFormat="1" outlineLevel="1">
       <c r="A237" s="37"/>
       <c r="B237" s="37" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="C237" s="42" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="D237" s="52" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="E237" s="53" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="238" spans="1:6" s="43" customFormat="1" outlineLevel="1">
       <c r="A238" s="37"/>
       <c r="B238" s="37" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="C238" s="42" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="D238" s="35" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="E238" s="43" t="s">
         <v>122</v>
@@ -15874,13 +15884,13 @@
     <row r="239" spans="1:6" s="43" customFormat="1" outlineLevel="1">
       <c r="A239" s="37"/>
       <c r="B239" s="37" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="C239" s="42" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="D239" s="35" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="E239" s="43" t="s">
         <v>122</v>
@@ -15889,10 +15899,10 @@
     <row r="240" spans="1:6" s="43" customFormat="1" outlineLevel="1">
       <c r="A240" s="37"/>
       <c r="B240" s="37" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="C240" s="42" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="D240" s="35" t="s">
         <v>130</v>
@@ -15904,13 +15914,13 @@
     <row r="241" spans="1:6" s="43" customFormat="1" outlineLevel="1">
       <c r="A241" s="37"/>
       <c r="B241" s="37" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="C241" s="42" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="D241" s="35" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="E241" s="43" t="s">
         <v>122</v>
@@ -15918,7 +15928,7 @@
     </row>
     <row r="242" spans="1:6" s="43" customFormat="1">
       <c r="A242" s="45" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="B242" s="41"/>
       <c r="C242" s="41"/>
@@ -15930,10 +15940,10 @@
     <row r="243" spans="1:6" s="43" customFormat="1" outlineLevel="1">
       <c r="A243" s="37"/>
       <c r="B243" s="37" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="C243" s="42" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D243" s="35"/>
       <c r="E243" s="43" t="s">
@@ -15943,10 +15953,10 @@
     <row r="244" spans="1:6" s="43" customFormat="1" outlineLevel="1">
       <c r="A244" s="37"/>
       <c r="B244" s="37" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="C244" s="42" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="D244" s="35"/>
       <c r="E244" s="43" t="s">
@@ -15956,10 +15966,10 @@
     <row r="245" spans="1:6" s="43" customFormat="1" outlineLevel="1">
       <c r="A245" s="37"/>
       <c r="B245" s="37" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="C245" s="42" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="D245" s="35"/>
       <c r="E245" s="43" t="s">
@@ -15969,13 +15979,13 @@
     <row r="246" spans="1:6" outlineLevel="1">
       <c r="A246" s="37"/>
       <c r="B246" s="37" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="C246" s="42" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="D246" s="35" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="E246" s="11" t="s">
         <v>122</v>
@@ -15985,13 +15995,13 @@
     <row r="247" spans="1:6" outlineLevel="1">
       <c r="A247" s="2"/>
       <c r="B247" s="37" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="C247" s="42" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="D247" s="40" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="E247" s="11" t="s">
         <v>122</v>
@@ -16000,7 +16010,7 @@
     </row>
     <row r="248" spans="1:6" s="43" customFormat="1">
       <c r="A248" s="20" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="B248" s="8"/>
       <c r="C248" s="20"/>
@@ -16012,13 +16022,13 @@
     <row r="249" spans="1:6" outlineLevel="1">
       <c r="A249" s="37"/>
       <c r="B249" s="37" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="C249" s="42" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="D249" s="40" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="E249" s="11" t="s">
         <v>122</v>
@@ -16087,7 +16097,7 @@
         <v>13</v>
       </c>
       <c r="C255" s="42" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="D255" s="40"/>
       <c r="E255" s="11" t="s">
@@ -16097,13 +16107,13 @@
     <row r="256" spans="1:6" outlineLevel="1">
       <c r="A256" s="2"/>
       <c r="B256" s="2" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C256" s="42" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="D256" s="40" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="E256" s="11" t="s">
         <v>122</v>
@@ -16112,7 +16122,7 @@
     <row r="257" spans="1:6" outlineLevel="1">
       <c r="A257" s="2"/>
       <c r="B257" s="2" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C257" s="44"/>
       <c r="D257" s="40"/>
@@ -16178,7 +16188,7 @@
     </row>
     <row r="263" spans="1:6">
       <c r="A263" s="41" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="B263" s="41"/>
       <c r="C263" s="45"/>
@@ -16187,7 +16197,7 @@
     <row r="264" spans="1:6" outlineLevel="1">
       <c r="A264" s="2"/>
       <c r="B264" s="2" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="C264" s="4" t="str">
         <f>"import glob"&amp;CHAR(10)&amp;"files = glob.glob(r""C:\Python25\*.*"")"</f>
@@ -16195,13 +16205,13 @@
 files = glob.glob(r"C:\Python25\*.*")</v>
       </c>
       <c r="D264" s="40" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="265" spans="1:6" outlineLevel="1">
       <c r="A265" s="2"/>
       <c r="B265" s="2" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="C265" s="4" t="str">
         <f>"# create file list. filetype selectable"&amp;CHAR(10)&amp;"#   0:both, 1:files, 2:directorys, other:none"&amp;CHAR(10)&amp;"def create_file_list(dirpath, filetype):"&amp;CHAR(10)&amp;"    for root, dirs, files in os.walk(dirpath):"&amp;CHAR(10)&amp;"        if filetype == 0 or filetype == 2:"&amp;CHAR(10)&amp;"            yield root.replace(""\\"", ""/"")"&amp;CHAR(10)&amp;"        if filetype == 0 or filetype == 1:"&amp;CHAR(10)&amp;"            for file in files:"&amp;CHAR(10)&amp;"                yield os.path.join(root, file).replace(""\\"", ""/"")"</f>
@@ -16222,10 +16232,10 @@
     <row r="266" spans="1:6" outlineLevel="1">
       <c r="A266" s="2"/>
       <c r="B266" s="2" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="D266" s="40"/>
     </row>
@@ -16347,7 +16357,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="20" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -16361,13 +16371,13 @@
     <row r="4" spans="1:5" outlineLevel="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="5" spans="1:5" outlineLevel="1">
@@ -16376,7 +16386,7 @@
         <v>142</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>122</v>
@@ -16385,10 +16395,10 @@
     <row r="6" spans="1:5" outlineLevel="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>122</v>
@@ -16397,10 +16407,10 @@
     <row r="7" spans="1:5" outlineLevel="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>122</v>
@@ -16409,22 +16419,22 @@
     <row r="8" spans="1:5" outlineLevel="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="9" spans="1:5" outlineLevel="1">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>122</v>
@@ -16433,73 +16443,73 @@
     <row r="10" spans="1:5" ht="94.5" outlineLevel="1">
       <c r="A10" s="2"/>
       <c r="B10" s="32" t="s">
+        <v>649</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>650</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="30" t="s">
         <v>651</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="11" spans="1:5" outlineLevel="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="12" spans="1:5" outlineLevel="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>640</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>641</v>
-      </c>
       <c r="D12" s="5" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="13" spans="1:5" outlineLevel="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>642</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>643</v>
-      </c>
       <c r="D13" s="5" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="14" spans="1:5" outlineLevel="1">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>644</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="D14" s="5" t="s">
         <v>645</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="81" outlineLevel="1">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>647</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="D15" s="30" t="s">
         <v>648</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="16" spans="1:5" outlineLevel="1">
@@ -16508,7 +16518,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>122</v>
@@ -16517,10 +16527,10 @@
     <row r="17" spans="1:5" outlineLevel="1">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>122</v>
@@ -16529,10 +16539,10 @@
     <row r="18" spans="1:5" outlineLevel="1">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>122</v>
@@ -16541,10 +16551,10 @@
     <row r="19" spans="1:5" outlineLevel="1">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>122</v>
@@ -16553,10 +16563,10 @@
     <row r="20" spans="1:5" outlineLevel="1">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>122</v>
@@ -16565,10 +16575,10 @@
     <row r="21" spans="1:5" outlineLevel="1">
       <c r="A21" s="2"/>
       <c r="B21" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>122</v>
@@ -16577,10 +16587,10 @@
     <row r="22" spans="1:5" outlineLevel="1">
       <c r="A22" s="2"/>
       <c r="B22" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>122</v>
@@ -16589,10 +16599,10 @@
     <row r="23" spans="1:5" outlineLevel="1">
       <c r="A23" s="2"/>
       <c r="B23" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>122</v>
@@ -16604,7 +16614,7 @@
         <v>13</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>122</v>
@@ -16613,10 +16623,10 @@
     <row r="25" spans="1:5" outlineLevel="1">
       <c r="A25" s="2"/>
       <c r="B25" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>122</v>
@@ -16625,10 +16635,10 @@
     <row r="26" spans="1:5" outlineLevel="1">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>122</v>
@@ -16637,10 +16647,10 @@
     <row r="27" spans="1:5" outlineLevel="1">
       <c r="A27" s="2"/>
       <c r="B27" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>122</v>
@@ -16649,10 +16659,10 @@
     <row r="28" spans="1:5" outlineLevel="1">
       <c r="A28" s="2"/>
       <c r="B28" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>122</v>
@@ -16661,10 +16671,10 @@
     <row r="29" spans="1:5" outlineLevel="1">
       <c r="A29" s="2"/>
       <c r="B29" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>122</v>
@@ -16673,30 +16683,30 @@
     <row r="30" spans="1:5" outlineLevel="1">
       <c r="A30" s="2"/>
       <c r="B30" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>655</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>656</v>
-      </c>
       <c r="D30" s="5" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="31" spans="1:5" outlineLevel="1">
       <c r="A31" s="2"/>
       <c r="B31" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="20" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -16710,88 +16720,88 @@
     <row r="33" spans="1:5" outlineLevel="1">
       <c r="A33" s="2"/>
       <c r="B33" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D33" s="5"/>
     </row>
     <row r="34" spans="1:5" outlineLevel="1">
       <c r="A34" s="2"/>
       <c r="B34" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D34" s="5"/>
     </row>
     <row r="35" spans="1:5" outlineLevel="1">
       <c r="A35" s="2"/>
       <c r="B35" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D35" s="5"/>
     </row>
     <row r="36" spans="1:5" outlineLevel="1">
       <c r="A36" s="2"/>
       <c r="B36" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D36" s="5"/>
     </row>
     <row r="37" spans="1:5" outlineLevel="1">
       <c r="A37" s="2"/>
       <c r="B37" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D37" s="5"/>
     </row>
     <row r="38" spans="1:5" outlineLevel="1">
       <c r="A38" s="2"/>
       <c r="B38" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D38" s="5"/>
     </row>
     <row r="39" spans="1:5" outlineLevel="1">
       <c r="A39" s="2"/>
       <c r="B39" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D39" s="5"/>
     </row>
     <row r="40" spans="1:5" outlineLevel="1">
       <c r="A40" s="2"/>
       <c r="B40" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="20" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -16805,46 +16815,46 @@
     <row r="42" spans="1:5" outlineLevel="1">
       <c r="A42" s="2"/>
       <c r="B42" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="D42" s="5" t="s">
         <v>583</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="43" spans="1:5" outlineLevel="1">
       <c r="A43" s="2"/>
       <c r="B43" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="44" spans="1:5" outlineLevel="1">
       <c r="A44" s="2"/>
       <c r="B44" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="45" spans="1:5" outlineLevel="1">
       <c r="A45" s="2"/>
       <c r="B45" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>265</v>
@@ -16853,67 +16863,67 @@
     <row r="46" spans="1:5" outlineLevel="1">
       <c r="A46" s="2"/>
       <c r="B46" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="D46" s="5" t="s">
         <v>592</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="47" spans="1:5" outlineLevel="1">
       <c r="A47" s="2"/>
       <c r="B47" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="D47" s="5" t="s">
         <v>595</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="48" spans="1:5" outlineLevel="1">
       <c r="A48" s="2"/>
       <c r="B48" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="D48" s="5" t="s">
         <v>598</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="49" spans="1:5" outlineLevel="1">
       <c r="A49" s="2"/>
       <c r="B49" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="D49" s="5" t="s">
         <v>601</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="50" spans="1:5" outlineLevel="1">
       <c r="A50" s="2"/>
       <c r="B50" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="D50" s="5" t="s">
         <v>604</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>603</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="27" outlineLevel="1">
       <c r="A51" s="2"/>
       <c r="B51" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C51" s="31" t="str">
         <f>"set CUR_DIR_PATH=%~dp0
@@ -16928,49 +16938,49 @@
     <row r="52" spans="1:5" outlineLevel="1">
       <c r="A52" s="2"/>
       <c r="B52" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="D52" s="5" t="s">
         <v>607</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="53" spans="1:5" outlineLevel="1">
       <c r="A53" s="2"/>
       <c r="B53" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="D53" s="5" t="s">
         <v>610</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="54" spans="1:5" outlineLevel="1">
       <c r="A54" s="2"/>
       <c r="B54" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="D54" s="5" t="s">
         <v>613</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="55" spans="1:5" outlineLevel="1">
       <c r="A55" s="2"/>
       <c r="B55" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="D55" s="5" t="s">
         <v>616</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -16992,19 +17002,19 @@
         <v>48</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D57" s="30" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="58" spans="1:5" outlineLevel="1">
       <c r="A58" s="2"/>
       <c r="B58" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>122</v>
@@ -17013,10 +17023,10 @@
     <row r="59" spans="1:5" outlineLevel="1">
       <c r="A59" s="2"/>
       <c r="B59" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>122</v>
@@ -17025,13 +17035,13 @@
     <row r="60" spans="1:5" outlineLevel="1">
       <c r="A60" s="2"/>
       <c r="B60" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D60" s="30" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="61" spans="1:5" outlineLevel="1">
@@ -17040,7 +17050,7 @@
         <v>59</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>122</v>
@@ -17052,22 +17062,22 @@
         <v>58</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D62" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="63" spans="1:5" outlineLevel="1">
       <c r="A63" s="2"/>
       <c r="B63" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D63" s="30" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="135" outlineLevel="1">
@@ -17076,103 +17086,103 @@
         <v>57</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D64" s="30" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="94.5" outlineLevel="1">
       <c r="A65" s="2"/>
       <c r="B65" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D65" s="30" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="66" spans="1:4" outlineLevel="1">
       <c r="A66" s="2"/>
       <c r="B66" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="67" spans="1:4" outlineLevel="1">
       <c r="A67" s="2"/>
       <c r="B67" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="68" spans="1:4" outlineLevel="1">
       <c r="A68" s="2"/>
       <c r="B68" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D68" s="30" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="69" spans="1:4" outlineLevel="1">
       <c r="A69" s="2"/>
       <c r="B69" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D69" s="30" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="70" spans="1:4" outlineLevel="1">
       <c r="A70" s="2"/>
       <c r="B70" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D70" s="30" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="27" outlineLevel="1">
       <c r="A71" s="2"/>
       <c r="B71" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>570</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="D71" s="30" t="s">
         <v>571</v>
-      </c>
-      <c r="D71" s="30" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="72" spans="1:4" outlineLevel="1">
       <c r="A72" s="2"/>
       <c r="B72" s="2" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="D72" s="5" t="s">
         <v>122</v>
@@ -17181,10 +17191,10 @@
     <row r="73" spans="1:4" outlineLevel="1">
       <c r="A73" s="2"/>
       <c r="B73" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D73" s="5" t="s">
         <v>122</v>
@@ -17193,22 +17203,22 @@
     <row r="74" spans="1:4" outlineLevel="1">
       <c r="A74" s="2"/>
       <c r="B74" s="2" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="75" spans="1:4" outlineLevel="1">
       <c r="A75" s="2"/>
       <c r="B75" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D75" s="5" t="s">
         <v>122</v>
@@ -17217,10 +17227,10 @@
     <row r="76" spans="1:4" outlineLevel="1">
       <c r="A76" s="2"/>
       <c r="B76" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D76" s="5" t="s">
         <v>122</v>
@@ -17229,10 +17239,10 @@
     <row r="77" spans="1:4" outlineLevel="1">
       <c r="A77" s="2"/>
       <c r="B77" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D77" s="5" t="s">
         <v>122</v>
@@ -17241,10 +17251,10 @@
     <row r="78" spans="1:4" outlineLevel="1">
       <c r="A78" s="2"/>
       <c r="B78" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D78" s="5" t="s">
         <v>122</v>

--- a/言語チートシート.xlsx
+++ b/言語チートシート.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9,7 +9,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F1F0A83-DDE9-4622-99B3-9683E148B043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D894C067-663F-40B5-A644-ADD67A9061F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1980" yWindow="-120" windowWidth="26940" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,6 +24,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'vbs,vba'!$A$2:$E$2</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -103,6 +104,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="C180" authorId="0" shapeId="0" xr:uid="{66D0EFB3-2E83-496A-88E5-BAE1F7C0BDA6}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Trueを指定すると読み取り専用ファイルも削除されます。</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -133,7 +148,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2322" uniqueCount="1033">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2325" uniqueCount="1037">
   <si>
     <t>変数強制定義</t>
   </si>
@@ -4609,6 +4624,31 @@
     <rPh sb="4" eb="6">
       <t>ヘンコウ</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&lt;arg2&gt; True:読み取り専用ファイル削除</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ファイル 拡張子取得</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ファイル/フォルダ 削除(ゴミ箱移動)</t>
+    <rPh sb="10" eb="12">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>バコ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>★</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -5389,13 +5429,13 @@
   <sheetPr codeName="Sheet1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F382"/>
+  <dimension ref="A1:F383"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C174" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="B200" sqref="B200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -8946,7 +8986,7 @@
         <v>138</v>
       </c>
       <c r="C173" s="4" t="str">
-        <f>C262</f>
+        <f>C263</f>
         <v>objWshShell.Exec( "clip" ).StdIn.Write( "テキスト" )</v>
       </c>
       <c r="D173" s="23" t="s">
@@ -8963,7 +9003,7 @@
         <v>139</v>
       </c>
       <c r="C174" s="4" t="str">
-        <f>C263</f>
+        <f>C264</f>
         <v>CreateObject("htmlfile").ParentWindow.Clipboarddata.GetData("text")</v>
       </c>
       <c r="D174" s="23" t="s">
@@ -9033,11 +9073,11 @@
       <c r="B178" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C178" s="4" t="str">
+      <c r="C178" s="42" t="str">
         <f>"objFSO.CopyFile ""C:\codes\a.txt"", ""C:\codes\test\"""</f>
         <v>objFSO.CopyFile "C:\codes\a.txt", "C:\codes\test\"</v>
       </c>
-      <c r="D178" s="4" t="str">
+      <c r="D178" s="42" t="str">
         <f>"objFSO.CopyFile ""C:\codes\a.txt"", ""C:\codes\test\"""</f>
         <v>objFSO.CopyFile "C:\codes\a.txt", "C:\codes\test\"</v>
       </c>
@@ -9053,11 +9093,11 @@
       <c r="B179" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C179" s="4" t="str">
+      <c r="C179" s="42" t="str">
         <f>"objFSO.CopyFile ""C:\codes\a.txt"", ""C:\codes\test\a.txt"""</f>
         <v>objFSO.CopyFile "C:\codes\a.txt", "C:\codes\test\a.txt"</v>
       </c>
-      <c r="D179" s="4" t="str">
+      <c r="D179" s="42" t="str">
         <f>"objFSO.CopyFile ""C:\codes\a.txt"", ""C:\codes\test\a.txt"""</f>
         <v>objFSO.CopyFile "C:\codes\a.txt", "C:\codes\test\a.txt"</v>
       </c>
@@ -9073,16 +9113,16 @@
       <c r="B180" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C180" s="4" t="str">
+      <c r="C180" s="42" t="str">
         <f>"objFSO.DeleteFile ""c:\test"", True"</f>
         <v>objFSO.DeleteFile "c:\test", True</v>
       </c>
-      <c r="D180" s="4" t="str">
+      <c r="D180" s="42" t="str">
         <f>"objFSO.DeleteFile ""c:\test"", True"</f>
         <v>objFSO.DeleteFile "c:\test", True</v>
       </c>
       <c r="E180" s="5" t="s">
-        <v>122</v>
+        <v>1033</v>
       </c>
       <c r="F180" s="11" t="s">
         <v>122</v>
@@ -9093,11 +9133,11 @@
       <c r="B181" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C181" s="4" t="str">
+      <c r="C181" s="42" t="str">
         <f>"objFSO.MoveFile ""C:\codes\src.txt"", ""C:\codes\dst.txt"""</f>
         <v>objFSO.MoveFile "C:\codes\src.txt", "C:\codes\dst.txt"</v>
       </c>
-      <c r="D181" s="4" t="str">
+      <c r="D181" s="42" t="str">
         <f>"objFSO.MoveFile ""C:\codes\src.txt"", ""C:\codes\dst.txt"""</f>
         <v>objFSO.MoveFile "C:\codes\src.txt", "C:\codes\dst.txt"</v>
       </c>
@@ -9294,7 +9334,7 @@
     <row r="191" spans="1:6" outlineLevel="1">
       <c r="A191" s="2"/>
       <c r="B191" s="2" t="s">
-        <v>55</v>
+        <v>1034</v>
       </c>
       <c r="C191" s="4" t="str">
         <f>"objFSO.GetExtensionName( ""C:\codes\a.txt"" )"</f>
@@ -9316,11 +9356,11 @@
       <c r="B192" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C192" s="4" t="str">
+      <c r="C192" s="42" t="str">
         <f>"objFSO.CopyFolder ""C:\codes\src"", ""C:\codes\dst"", True"</f>
         <v>objFSO.CopyFolder "C:\codes\src", "C:\codes\dst", True</v>
       </c>
-      <c r="D192" s="4" t="str">
+      <c r="D192" s="42" t="str">
         <f>"objFSO.CopyFolder ""C:\codes\src"", ""C:\codes\dst"", True"</f>
         <v>objFSO.CopyFolder "C:\codes\src", "C:\codes\dst", True</v>
       </c>
@@ -9336,11 +9376,11 @@
       <c r="B193" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C193" s="4" t="str">
+      <c r="C193" s="42" t="str">
         <f>"objFSO.DeleteFolder ""C:\codes\test"", True"</f>
         <v>objFSO.DeleteFolder "C:\codes\test", True</v>
       </c>
-      <c r="D193" s="4" t="str">
+      <c r="D193" s="42" t="str">
         <f>"objFSO.DeleteFolder ""C:\codes\test"", True"</f>
         <v>objFSO.DeleteFolder "C:\codes\test", True</v>
       </c>
@@ -9376,11 +9416,11 @@
       <c r="B195" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C195" s="4" t="str">
+      <c r="C195" s="42" t="str">
         <f>"objFSO.MoveFolder ""C:\codes\src"", ""C:\codes\dst"""</f>
         <v>objFSO.MoveFolder "C:\codes\src", "C:\codes\dst"</v>
       </c>
-      <c r="D195" s="4" t="str">
+      <c r="D195" s="42" t="str">
         <f>"objFSO.MoveFolder ""C:\codes\src"", ""C:\codes\dst"""</f>
         <v>objFSO.MoveFolder "C:\codes\src", "C:\codes\dst"</v>
       </c>
@@ -9467,74 +9507,103 @@
         <v>122</v>
       </c>
     </row>
-    <row r="200" spans="1:6">
-      <c r="A200" s="20" t="s">
+    <row r="200" spans="1:6" s="43" customFormat="1" outlineLevel="1">
+      <c r="A200" s="7"/>
+      <c r="B200" s="37" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C200" s="39" t="str">
+        <f>"CreateObject(""Shell.Application"").Namespace(10).movehere sTrgtPath
+Dim objFSO
+Set objFSO = CreateObject(""Scripting.FileSystemObject"")"&amp;"
+Do While objFSO.FileExists(sTrgtPath) Or objFSO.FolderExists(sTrgtPath)
+    '削除処理は非同期で進行するため、削除中にスクリプトが終了すると削除処理は中断される。
+    '削除対象が削除されるまで待機する。
+Loop"</f>
+        <v>CreateObject("Shell.Application").Namespace(10).movehere sTrgtPath
+Dim objFSO
+Set objFSO = CreateObject("Scripting.FileSystemObject")
+Do While objFSO.FileExists(sTrgtPath) Or objFSO.FolderExists(sTrgtPath)
+    '削除処理は非同期で進行するため、削除中にスクリプトが終了すると削除処理は中断される。
+    '削除対象が削除されるまで待機する。
+Loop</v>
+      </c>
+      <c r="D200" s="44" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E200" s="40"/>
+      <c r="F200" s="43" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201" s="20" t="s">
         <v>482</v>
       </c>
-      <c r="B200" s="8"/>
-      <c r="C200" s="8"/>
-      <c r="D200" s="8"/>
-      <c r="E200" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="F200" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" outlineLevel="1">
-      <c r="A201" s="2"/>
-      <c r="B201" s="2" t="s">
+      <c r="B201" s="8"/>
+      <c r="C201" s="8"/>
+      <c r="D201" s="8"/>
+      <c r="E201" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="F201" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" outlineLevel="1">
+      <c r="A202" s="2"/>
+      <c r="B202" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="C201" s="26" t="str">
+      <c r="C202" s="26" t="str">
         <f>"Dim oRegExp
 Set oRegExp = CreateObject(""VBScript.RegExp"")"</f>
         <v>Dim oRegExp
 Set oRegExp = CreateObject("VBScript.RegExp")</v>
       </c>
-      <c r="D201" s="10" t="str">
+      <c r="D202" s="10" t="str">
         <f>"Dim oRegExp As Object
 Set oRegExp = CreateObject(""VBScript.RegExp"")"</f>
         <v>Dim oRegExp As Object
 Set oRegExp = CreateObject("VBScript.RegExp")</v>
       </c>
-      <c r="E201" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F201" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" outlineLevel="1">
-      <c r="A202" s="2"/>
-      <c r="B202" s="2" t="s">
+      <c r="E202" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F202" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" outlineLevel="1">
+      <c r="A203" s="2"/>
+      <c r="B203" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="C202" s="26" t="str">
+      <c r="C203" s="26" t="str">
         <f>"Dim sTargetStr
 sTargetStr = ""TestFunc(int bbb) TestFunc01(char aaa) TestFunc02(int bbb)"""</f>
         <v>Dim sTargetStr
 sTargetStr = "TestFunc(int bbb) TestFunc01(char aaa) TestFunc02(int bbb)"</v>
       </c>
-      <c r="D202" s="10" t="str">
+      <c r="D203" s="10" t="str">
         <f>"Dim sTargetStr As String
 sTargetStr = ""TestFunc(int bbb) TestFunc01(char aaa) TestFunc02(int bbb)"""</f>
         <v>Dim sTargetStr As String
 sTargetStr = "TestFunc(int bbb) TestFunc01(char aaa) TestFunc02(int bbb)"</v>
       </c>
-      <c r="E202" s="5" t="s">
+      <c r="E203" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="F202" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" outlineLevel="1">
-      <c r="A203" s="2"/>
-      <c r="B203" s="2" t="s">
+      <c r="F203" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" outlineLevel="1">
+      <c r="A204" s="2"/>
+      <c r="B204" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="C203" s="26" t="str">
+      <c r="C204" s="26" t="str">
         <f>"Dim sSearchPattern
 sSearchPattern = ""(\w+)\((\w+) (\w+)\)""
 oRegExp.Pattern = sSearchPattern"</f>
@@ -9542,7 +9611,7 @@
 sSearchPattern = "(\w+)\((\w+) (\w+)\)"
 oRegExp.Pattern = sSearchPattern</v>
       </c>
-      <c r="D203" s="10" t="str">
+      <c r="D204" s="10" t="str">
         <f>"Dim sSearchPattern As String
 sSearchPattern = ""(\w+)\((\w+) (\w+)\)""
 oRegExp.Pattern = sSearchPattern"</f>
@@ -9550,26 +9619,8 @@
 sSearchPattern = "(\w+)\((\w+) (\w+)\)"
 oRegExp.Pattern = sSearchPattern</v>
       </c>
-      <c r="E203" s="5" t="s">
+      <c r="E204" s="5" t="s">
         <v>486</v>
-      </c>
-      <c r="F203" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" outlineLevel="1">
-      <c r="A204" s="2"/>
-      <c r="B204" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="C204" s="27" t="s">
-        <v>487</v>
-      </c>
-      <c r="D204" s="10" t="s">
-        <v>465</v>
-      </c>
-      <c r="E204" s="5" t="s">
-        <v>481</v>
       </c>
       <c r="F204" s="11" t="s">
         <v>122</v>
@@ -9578,16 +9629,16 @@
     <row r="205" spans="1:6" outlineLevel="1">
       <c r="A205" s="2"/>
       <c r="B205" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="C205" s="26" t="s">
-        <v>488</v>
+        <v>471</v>
+      </c>
+      <c r="C205" s="27" t="s">
+        <v>487</v>
       </c>
       <c r="D205" s="10" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E205" s="5" t="s">
-        <v>122</v>
+        <v>481</v>
       </c>
       <c r="F205" s="11" t="s">
         <v>122</v>
@@ -9596,40 +9647,40 @@
     <row r="206" spans="1:6" outlineLevel="1">
       <c r="A206" s="2"/>
       <c r="B206" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="C206" s="26" t="s">
+        <v>488</v>
+      </c>
+      <c r="D206" s="10" t="s">
+        <v>466</v>
+      </c>
+      <c r="E206" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F206" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" outlineLevel="1">
+      <c r="A207" s="2"/>
+      <c r="B207" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="C206" s="26" t="str">
+      <c r="C207" s="26" t="str">
         <f>"Dim oMatchResult
 Set oMatchResult = oRegExp.Execute(sTargetStr)"</f>
         <v>Dim oMatchResult
 Set oMatchResult = oRegExp.Execute(sTargetStr)</v>
       </c>
-      <c r="D206" s="10" t="str">
+      <c r="D207" s="10" t="str">
         <f>"Dim oMatchResult As Object
 Set oMatchResult = oRegExp.Execute(sTargetStr)"</f>
         <v>Dim oMatchResult As Object
 Set oMatchResult = oRegExp.Execute(sTargetStr)</v>
       </c>
-      <c r="E206" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F206" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" outlineLevel="1">
-      <c r="A207" s="2"/>
-      <c r="B207" s="2" t="s">
-        <v>736</v>
-      </c>
-      <c r="C207" s="26" t="s">
-        <v>489</v>
-      </c>
-      <c r="D207" s="10" t="s">
-        <v>467</v>
-      </c>
       <c r="E207" s="5" t="s">
-        <v>474</v>
+        <v>122</v>
       </c>
       <c r="F207" s="11" t="s">
         <v>122</v>
@@ -9638,16 +9689,16 @@
     <row r="208" spans="1:6" outlineLevel="1">
       <c r="A208" s="2"/>
       <c r="B208" s="2" t="s">
-        <v>468</v>
+        <v>736</v>
       </c>
       <c r="C208" s="26" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D208" s="10" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="E208" s="5" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="F208" s="11" t="s">
         <v>122</v>
@@ -9656,16 +9707,16 @@
     <row r="209" spans="1:6" outlineLevel="1">
       <c r="A209" s="2"/>
       <c r="B209" s="2" t="s">
-        <v>738</v>
+        <v>468</v>
       </c>
       <c r="C209" s="26" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D209" s="10" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E209" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F209" s="11" t="s">
         <v>122</v>
@@ -9674,16 +9725,16 @@
     <row r="210" spans="1:6" outlineLevel="1">
       <c r="A210" s="2"/>
       <c r="B210" s="2" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="C210" s="26" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D210" s="10" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E210" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F210" s="11" t="s">
         <v>122</v>
@@ -9692,16 +9743,16 @@
     <row r="211" spans="1:6" outlineLevel="1">
       <c r="A211" s="2"/>
       <c r="B211" s="2" t="s">
-        <v>728</v>
+        <v>737</v>
       </c>
       <c r="C211" s="26" t="s">
-        <v>730</v>
+        <v>492</v>
       </c>
       <c r="D211" s="10" t="s">
-        <v>729</v>
-      </c>
-      <c r="E211" s="35" t="s">
-        <v>734</v>
+        <v>477</v>
+      </c>
+      <c r="E211" s="5" t="s">
+        <v>480</v>
       </c>
       <c r="F211" s="11" t="s">
         <v>122</v>
@@ -9710,16 +9761,16 @@
     <row r="212" spans="1:6" outlineLevel="1">
       <c r="A212" s="2"/>
       <c r="B212" s="2" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="C212" s="26" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="D212" s="10" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="E212" s="35" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="F212" s="11" t="s">
         <v>122</v>
@@ -9728,76 +9779,77 @@
     <row r="213" spans="1:6" outlineLevel="1">
       <c r="A213" s="2"/>
       <c r="B213" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="C213" s="26" t="s">
+        <v>732</v>
+      </c>
+      <c r="D213" s="10" t="s">
+        <v>733</v>
+      </c>
+      <c r="E213" s="35" t="s">
+        <v>735</v>
+      </c>
+      <c r="F213" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" outlineLevel="1">
+      <c r="A214" s="2"/>
+      <c r="B214" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="C213" s="26" t="str">
+      <c r="C214" s="26" t="str">
         <f>"Dim sReplacePattern
 sReplacePattern = ""型名:$2"""</f>
         <v>Dim sReplacePattern
 sReplacePattern = "型名:$2"</v>
       </c>
-      <c r="D213" s="10" t="str">
+      <c r="D214" s="10" t="str">
         <f>"Dim sReplacePattern As String
 sReplacePattern = ""型名:$2"""</f>
         <v>Dim sReplacePattern As String
 sReplacePattern = "型名:$2"</v>
       </c>
-      <c r="E213" s="5"/>
-      <c r="F213" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" outlineLevel="1">
-      <c r="A214" s="2"/>
-      <c r="B214" s="2" t="s">
+      <c r="E214" s="5"/>
+      <c r="F214" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" outlineLevel="1">
+      <c r="A215" s="2"/>
+      <c r="B215" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="C214" s="26" t="str">
+      <c r="C215" s="26" t="str">
         <f>"Dim sReplaceResult
 oRegExp.Replace(sTargetStr, sReplacePattern)"</f>
         <v>Dim sReplaceResult
 oRegExp.Replace(sTargetStr, sReplacePattern)</v>
       </c>
-      <c r="D214" s="10" t="str">
+      <c r="D215" s="10" t="str">
         <f>"Dim sReplaceResult As String
 sReplaceResult = oRegExp.Replace(sTargetStr, sReplacePattern)"</f>
         <v>Dim sReplaceResult As String
 sReplaceResult = oRegExp.Replace(sTargetStr, sReplacePattern)</v>
       </c>
-      <c r="E214" s="5" t="s">
+      <c r="E215" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="F214" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6">
-      <c r="A215" s="20" t="s">
+      <c r="F215" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216" s="20" t="s">
         <v>399</v>
       </c>
-      <c r="B215" s="8"/>
-      <c r="C215" s="8"/>
-      <c r="D215" s="8"/>
-      <c r="E215" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="F215" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" outlineLevel="1">
-      <c r="A216" s="2"/>
-      <c r="B216" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C216" s="4" t="str">
-        <f>"WScript.ScriptFullName"</f>
-        <v>WScript.ScriptFullName</v>
-      </c>
-      <c r="D216" s="25" t="s">
-        <v>420</v>
-      </c>
-      <c r="E216" s="5"/>
+      <c r="B216" s="8"/>
+      <c r="C216" s="8"/>
+      <c r="D216" s="8"/>
+      <c r="E216" s="21" t="s">
+        <v>122</v>
+      </c>
       <c r="F216" s="11" t="s">
         <v>122</v>
       </c>
@@ -9805,14 +9857,14 @@
     <row r="217" spans="1:6" outlineLevel="1">
       <c r="A217" s="2"/>
       <c r="B217" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C217" s="4" t="str">
-        <f>"WScript.ScriptName"</f>
-        <v>WScript.ScriptName</v>
+        <f>"WScript.ScriptFullName"</f>
+        <v>WScript.ScriptFullName</v>
       </c>
       <c r="D217" s="25" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="E217" s="5"/>
       <c r="F217" s="11" t="s">
@@ -9822,14 +9874,14 @@
     <row r="218" spans="1:6" outlineLevel="1">
       <c r="A218" s="2"/>
       <c r="B218" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C218" s="4" t="str">
-        <f>"Mid( WScript.ScriptName, 1, InStrRev( WScript.ScriptName, ""."" ) - 1 )"</f>
-        <v>Mid( WScript.ScriptName, 1, InStrRev( WScript.ScriptName, "." ) - 1 )</v>
-      </c>
-      <c r="D218" s="22" t="s">
-        <v>398</v>
+        <f>"WScript.ScriptName"</f>
+        <v>WScript.ScriptName</v>
+      </c>
+      <c r="D218" s="25" t="s">
+        <v>418</v>
       </c>
       <c r="E218" s="5"/>
       <c r="F218" s="11" t="s">
@@ -9839,11 +9891,11 @@
     <row r="219" spans="1:6" outlineLevel="1">
       <c r="A219" s="2"/>
       <c r="B219" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C219" s="4" t="str">
-        <f>"objFSO.GetBaseName( WScript.ScriptName )"</f>
-        <v>objFSO.GetBaseName( WScript.ScriptName )</v>
+        <f>"Mid( WScript.ScriptName, 1, InStrRev( WScript.ScriptName, ""."" ) - 1 )"</f>
+        <v>Mid( WScript.ScriptName, 1, InStrRev( WScript.ScriptName, "." ) - 1 )</v>
       </c>
       <c r="D219" s="22" t="s">
         <v>398</v>
@@ -9856,14 +9908,14 @@
     <row r="220" spans="1:6" outlineLevel="1">
       <c r="A220" s="2"/>
       <c r="B220" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C220" s="4" t="str">
-        <f>"Replace( WScript.ScriptFullName, ""\"" &amp; WScript.ScriptName, """" )"</f>
-        <v>Replace( WScript.ScriptFullName, "\" &amp; WScript.ScriptName, "" )</v>
-      </c>
-      <c r="D220" s="10" t="s">
-        <v>419</v>
+        <f>"objFSO.GetBaseName( WScript.ScriptName )"</f>
+        <v>objFSO.GetBaseName( WScript.ScriptName )</v>
+      </c>
+      <c r="D220" s="22" t="s">
+        <v>398</v>
       </c>
       <c r="E220" s="5"/>
       <c r="F220" s="11" t="s">
@@ -9873,68 +9925,66 @@
     <row r="221" spans="1:6" outlineLevel="1">
       <c r="A221" s="2"/>
       <c r="B221" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C221" s="4" t="str">
+        <f>"Replace( WScript.ScriptFullName, ""\"" &amp; WScript.ScriptName, """" )"</f>
+        <v>Replace( WScript.ScriptFullName, "\" &amp; WScript.ScriptName, "" )</v>
+      </c>
+      <c r="D221" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="E221" s="5"/>
+      <c r="F221" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" outlineLevel="1">
+      <c r="A222" s="2"/>
+      <c r="B222" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C221" s="4" t="str">
+      <c r="C222" s="4" t="str">
         <f>"objFSO.GetParentFolderName( WScript.ScriptFullName )"</f>
         <v>objFSO.GetParentFolderName( WScript.ScriptFullName )</v>
       </c>
-      <c r="D221" s="22" t="s">
+      <c r="D222" s="22" t="s">
         <v>398</v>
       </c>
-      <c r="E221" s="5"/>
-      <c r="F221" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6">
-      <c r="A222" s="20" t="s">
+      <c r="E222" s="5"/>
+      <c r="F222" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
+      <c r="A223" s="20" t="s">
         <v>400</v>
       </c>
-      <c r="B222" s="8"/>
-      <c r="C222" s="8"/>
-      <c r="D222" s="8"/>
-      <c r="E222" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="F222" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" outlineLevel="1">
-      <c r="A223" s="2"/>
-      <c r="B223" s="2" t="s">
+      <c r="B223" s="8"/>
+      <c r="C223" s="8"/>
+      <c r="D223" s="8"/>
+      <c r="E223" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="F223" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" outlineLevel="1">
+      <c r="A224" s="2"/>
+      <c r="B224" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="C223" s="22" t="s">
+      <c r="C224" s="22" t="s">
         <v>398</v>
       </c>
-      <c r="D223" s="4" t="str">
+      <c r="D224" s="4" t="str">
         <f>"Dim oChartObj As ChartObject"&amp;CHAR(10)&amp;"Set oChartObj = ThisWorkbook.Sheets(シート名).ChartObjects(1)"</f>
         <v>Dim oChartObj As ChartObject
 Set oChartObj = ThisWorkbook.Sheets(シート名).ChartObjects(1)</v>
       </c>
-      <c r="E223" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F223" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" outlineLevel="1">
-      <c r="A224" s="2"/>
-      <c r="B224" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C224" s="22" t="s">
-        <v>398</v>
-      </c>
-      <c r="D224" s="4" t="str">
-        <f>"Set oChartObj = .Sheets(シート名).ChartObjects.Add( XPOS, YPOS, WIDTH, HEIGHT )"</f>
-        <v>Set oChartObj = .Sheets(シート名).ChartObjects.Add( XPOS, YPOS, WIDTH, HEIGHT )</v>
-      </c>
       <c r="E224" s="5" t="s">
-        <v>307</v>
+        <v>122</v>
       </c>
       <c r="F224" s="11" t="s">
         <v>122</v>
@@ -9943,17 +9993,17 @@
     <row r="225" spans="1:6" outlineLevel="1">
       <c r="A225" s="2"/>
       <c r="B225" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C225" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D225" s="4" t="str">
-        <f>"oChartObj.Delete"</f>
-        <v>oChartObj.Delete</v>
+        <f>"Set oChartObj = .Sheets(シート名).ChartObjects.Add( XPOS, YPOS, WIDTH, HEIGHT )"</f>
+        <v>Set oChartObj = .Sheets(シート名).ChartObjects.Add( XPOS, YPOS, WIDTH, HEIGHT )</v>
       </c>
       <c r="E225" s="5" t="s">
-        <v>122</v>
+        <v>307</v>
       </c>
       <c r="F225" s="11" t="s">
         <v>122</v>
@@ -9962,14 +10012,14 @@
     <row r="226" spans="1:6" outlineLevel="1">
       <c r="A226" s="2"/>
       <c r="B226" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C226" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D226" s="4" t="str">
-        <f>"oChartObj.Chart.ChartArea.Copy"</f>
-        <v>oChartObj.Chart.ChartArea.Copy</v>
+        <f>"oChartObj.Delete"</f>
+        <v>oChartObj.Delete</v>
       </c>
       <c r="E226" s="5" t="s">
         <v>122</v>
@@ -9981,14 +10031,14 @@
     <row r="227" spans="1:6" outlineLevel="1">
       <c r="A227" s="2"/>
       <c r="B227" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C227" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D227" s="4" t="str">
-        <f>"oChartObj.Top = 10"</f>
-        <v>oChartObj.Top = 10</v>
+        <f>"oChartObj.Chart.ChartArea.Copy"</f>
+        <v>oChartObj.Chart.ChartArea.Copy</v>
       </c>
       <c r="E227" s="5" t="s">
         <v>122</v>
@@ -10000,14 +10050,14 @@
     <row r="228" spans="1:6" outlineLevel="1">
       <c r="A228" s="2"/>
       <c r="B228" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C228" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D228" s="4" t="str">
-        <f>"oChartObj.Left = 20"</f>
-        <v>oChartObj.Left = 20</v>
+        <f>"oChartObj.Top = 10"</f>
+        <v>oChartObj.Top = 10</v>
       </c>
       <c r="E228" s="5" t="s">
         <v>122</v>
@@ -10019,14 +10069,14 @@
     <row r="229" spans="1:6" outlineLevel="1">
       <c r="A229" s="2"/>
       <c r="B229" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C229" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D229" s="4" t="str">
-        <f>"oChartObj.Width = 200"</f>
-        <v>oChartObj.Width = 200</v>
+        <f>"oChartObj.Left = 20"</f>
+        <v>oChartObj.Left = 20</v>
       </c>
       <c r="E229" s="5" t="s">
         <v>122</v>
@@ -10038,14 +10088,14 @@
     <row r="230" spans="1:6" outlineLevel="1">
       <c r="A230" s="2"/>
       <c r="B230" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C230" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D230" s="4" t="str">
-        <f>"oChartObj.Height = 300"</f>
-        <v>oChartObj.Height = 300</v>
+        <f>"oChartObj.Width = 200"</f>
+        <v>oChartObj.Width = 200</v>
       </c>
       <c r="E230" s="5" t="s">
         <v>122</v>
@@ -10057,17 +10107,17 @@
     <row r="231" spans="1:6" outlineLevel="1">
       <c r="A231" s="2"/>
       <c r="B231" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C231" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D231" s="4" t="str">
-        <f>"oChartObj.Chart.ChartType = xlXYScatterLines"</f>
-        <v>oChartObj.Chart.ChartType = xlXYScatterLines</v>
+        <f>"oChartObj.Height = 300"</f>
+        <v>oChartObj.Height = 300</v>
       </c>
       <c r="E231" s="5" t="s">
-        <v>308</v>
+        <v>122</v>
       </c>
       <c r="F231" s="11" t="s">
         <v>122</v>
@@ -10076,17 +10126,17 @@
     <row r="232" spans="1:6" outlineLevel="1">
       <c r="A232" s="2"/>
       <c r="B232" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C232" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D232" s="4" t="str">
-        <f>"oChartObj.Chart.SetSourceData Source:=Union(rXAxsRng, rDataRng)"</f>
-        <v>oChartObj.Chart.SetSourceData Source:=Union(rXAxsRng, rDataRng)</v>
+        <f>"oChartObj.Chart.ChartType = xlXYScatterLines"</f>
+        <v>oChartObj.Chart.ChartType = xlXYScatterLines</v>
       </c>
       <c r="E232" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F232" s="11" t="s">
         <v>122</v>
@@ -10095,17 +10145,17 @@
     <row r="233" spans="1:6" outlineLevel="1">
       <c r="A233" s="2"/>
       <c r="B233" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C233" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D233" s="4" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).HasTitle = True"</f>
-        <v>oChartObj.Chart.Axes(xlCategory).HasTitle = True</v>
+        <f>"oChartObj.Chart.SetSourceData Source:=Union(rXAxsRng, rDataRng)"</f>
+        <v>oChartObj.Chart.SetSourceData Source:=Union(rXAxsRng, rDataRng)</v>
       </c>
       <c r="E233" s="5" t="s">
-        <v>122</v>
+        <v>309</v>
       </c>
       <c r="F233" s="11" t="s">
         <v>122</v>
@@ -10114,14 +10164,14 @@
     <row r="234" spans="1:6" outlineLevel="1">
       <c r="A234" s="2"/>
       <c r="B234" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C234" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D234" s="4" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).AxisTitle.Text = ""Test Axis X"""</f>
-        <v>oChartObj.Chart.Axes(xlCategory).AxisTitle.Text = "Test Axis X"</v>
+        <f>"oChartObj.Chart.Axes(xlCategory).HasTitle = True"</f>
+        <v>oChartObj.Chart.Axes(xlCategory).HasTitle = True</v>
       </c>
       <c r="E234" s="5" t="s">
         <v>122</v>
@@ -10133,14 +10183,14 @@
     <row r="235" spans="1:6" outlineLevel="1">
       <c r="A235" s="2"/>
       <c r="B235" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C235" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D235" s="4" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).HasMajorGridlines = True"</f>
-        <v>oChartObj.Chart.Axes(xlCategory).HasMajorGridlines = True</v>
+        <f>"oChartObj.Chart.Axes(xlCategory).AxisTitle.Text = ""Test Axis X"""</f>
+        <v>oChartObj.Chart.Axes(xlCategory).AxisTitle.Text = "Test Axis X"</v>
       </c>
       <c r="E235" s="5" t="s">
         <v>122</v>
@@ -10152,14 +10202,14 @@
     <row r="236" spans="1:6" outlineLevel="1">
       <c r="A236" s="2"/>
       <c r="B236" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C236" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D236" s="4" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.Color = RGB(217, 217, 217)"</f>
-        <v>oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.Color = RGB(217, 217, 217)</v>
+        <f>"oChartObj.Chart.Axes(xlCategory).HasMajorGridlines = True"</f>
+        <v>oChartObj.Chart.Axes(xlCategory).HasMajorGridlines = True</v>
       </c>
       <c r="E236" s="5" t="s">
         <v>122</v>
@@ -10171,14 +10221,14 @@
     <row r="237" spans="1:6" outlineLevel="1">
       <c r="A237" s="2"/>
       <c r="B237" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C237" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D237" s="4" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.Weight = 2"</f>
-        <v>oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.Weight = 2</v>
+        <f>"oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.Color = RGB(217, 217, 217)"</f>
+        <v>oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.Color = RGB(217, 217, 217)</v>
       </c>
       <c r="E237" s="5" t="s">
         <v>122</v>
@@ -10190,14 +10240,14 @@
     <row r="238" spans="1:6" outlineLevel="1">
       <c r="A238" s="2"/>
       <c r="B238" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C238" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D238" s="4" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.LineStyle = (xlContinuous\|xlDot\|xlDouble\|xlLineStyleNone\|...)"</f>
-        <v>oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.LineStyle = (xlContinuous\|xlDot\|xlDouble\|xlLineStyleNone\|...)</v>
+        <f>"oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.Weight = 2"</f>
+        <v>oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.Weight = 2</v>
       </c>
       <c r="E238" s="5" t="s">
         <v>122</v>
@@ -10209,13 +10259,14 @@
     <row r="239" spans="1:6" outlineLevel="1">
       <c r="A239" s="2"/>
       <c r="B239" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C239" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="C239" s="22" t="s">
         <v>398</v>
       </c>
-      <c r="D239" s="5" t="s">
-        <v>260</v>
+      <c r="D239" s="4" t="str">
+        <f>"oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.LineStyle = (xlContinuous\|xlDot\|xlDouble\|xlLineStyleNone\|...)"</f>
+        <v>oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.LineStyle = (xlContinuous\|xlDot\|xlDouble\|xlLineStyleNone\|...)</v>
       </c>
       <c r="E239" s="5" t="s">
         <v>122</v>
@@ -10227,14 +10278,13 @@
     <row r="240" spans="1:6" outlineLevel="1">
       <c r="A240" s="2"/>
       <c r="B240" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C240" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="C240" s="24" t="s">
         <v>398</v>
       </c>
-      <c r="D240" s="4" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).MinimumScaleIsAuto = False"</f>
-        <v>oChartObj.Chart.Axes(xlCategory).MinimumScaleIsAuto = False</v>
+      <c r="D240" s="5" t="s">
+        <v>260</v>
       </c>
       <c r="E240" s="5" t="s">
         <v>122</v>
@@ -10246,14 +10296,14 @@
     <row r="241" spans="1:6" outlineLevel="1">
       <c r="A241" s="2"/>
       <c r="B241" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C241" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D241" s="4" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).MaximumScaleIsAuto = False"</f>
-        <v>oChartObj.Chart.Axes(xlCategory).MaximumScaleIsAuto = False</v>
+        <f>"oChartObj.Chart.Axes(xlCategory).MinimumScaleIsAuto = False"</f>
+        <v>oChartObj.Chart.Axes(xlCategory).MinimumScaleIsAuto = False</v>
       </c>
       <c r="E241" s="5" t="s">
         <v>122</v>
@@ -10265,14 +10315,14 @@
     <row r="242" spans="1:6" outlineLevel="1">
       <c r="A242" s="2"/>
       <c r="B242" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C242" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D242" s="4" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).MinimumScale = 0"</f>
-        <v>oChartObj.Chart.Axes(xlCategory).MinimumScale = 0</v>
+        <f>"oChartObj.Chart.Axes(xlCategory).MaximumScaleIsAuto = False"</f>
+        <v>oChartObj.Chart.Axes(xlCategory).MaximumScaleIsAuto = False</v>
       </c>
       <c r="E242" s="5" t="s">
         <v>122</v>
@@ -10284,14 +10334,14 @@
     <row r="243" spans="1:6" outlineLevel="1">
       <c r="A243" s="2"/>
       <c r="B243" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C243" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D243" s="4" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).MaximumScale = 100"</f>
-        <v>oChartObj.Chart.Axes(xlCategory).MaximumScale = 100</v>
+        <f>"oChartObj.Chart.Axes(xlCategory).MinimumScale = 0"</f>
+        <v>oChartObj.Chart.Axes(xlCategory).MinimumScale = 0</v>
       </c>
       <c r="E243" s="5" t="s">
         <v>122</v>
@@ -10303,14 +10353,14 @@
     <row r="244" spans="1:6" outlineLevel="1">
       <c r="A244" s="2"/>
       <c r="B244" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C244" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D244" s="4" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).Crosses = (xlMinimum\|xlMaximum\|xlAutomatic)"</f>
-        <v>oChartObj.Chart.Axes(xlCategory).Crosses = (xlMinimum\|xlMaximum\|xlAutomatic)</v>
+        <f>"oChartObj.Chart.Axes(xlCategory).MaximumScale = 100"</f>
+        <v>oChartObj.Chart.Axes(xlCategory).MaximumScale = 100</v>
       </c>
       <c r="E244" s="5" t="s">
         <v>122</v>
@@ -10322,13 +10372,14 @@
     <row r="245" spans="1:6" outlineLevel="1">
       <c r="A245" s="2"/>
       <c r="B245" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C245" s="22" t="s">
         <v>398</v>
       </c>
-      <c r="D245" s="4" t="s">
-        <v>261</v>
+      <c r="D245" s="4" t="str">
+        <f>"oChartObj.Chart.Axes(xlCategory).Crosses = (xlMinimum\|xlMaximum\|xlAutomatic)"</f>
+        <v>oChartObj.Chart.Axes(xlCategory).Crosses = (xlMinimum\|xlMaximum\|xlAutomatic)</v>
       </c>
       <c r="E245" s="5" t="s">
         <v>122</v>
@@ -10340,14 +10391,13 @@
     <row r="246" spans="1:6" outlineLevel="1">
       <c r="A246" s="2"/>
       <c r="B246" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C246" s="22" t="s">
         <v>398</v>
       </c>
-      <c r="D246" s="4" t="str">
-        <f>"oChartObj.Chart.HasTitle = True"</f>
-        <v>oChartObj.Chart.HasTitle = True</v>
+      <c r="D246" s="4" t="s">
+        <v>261</v>
       </c>
       <c r="E246" s="5" t="s">
         <v>122</v>
@@ -10359,14 +10409,14 @@
     <row r="247" spans="1:6" outlineLevel="1">
       <c r="A247" s="2"/>
       <c r="B247" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C247" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D247" s="4" t="str">
-        <f>"oChartObj.Chart.ChartTitle.Text = ""Test Title"""</f>
-        <v>oChartObj.Chart.ChartTitle.Text = "Test Title"</v>
+        <f>"oChartObj.Chart.HasTitle = True"</f>
+        <v>oChartObj.Chart.HasTitle = True</v>
       </c>
       <c r="E247" s="5" t="s">
         <v>122</v>
@@ -10378,17 +10428,17 @@
     <row r="248" spans="1:6" outlineLevel="1">
       <c r="A248" s="2"/>
       <c r="B248" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C248" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D248" s="4" t="str">
-        <f>"oChartObj.Chart.ChartTitle.IncludeInLayout = False"</f>
-        <v>oChartObj.Chart.ChartTitle.IncludeInLayout = False</v>
+        <f>"oChartObj.Chart.ChartTitle.Text = ""Test Title"""</f>
+        <v>oChartObj.Chart.ChartTitle.Text = "Test Title"</v>
       </c>
       <c r="E248" s="5" t="s">
-        <v>310</v>
+        <v>122</v>
       </c>
       <c r="F248" s="11" t="s">
         <v>122</v>
@@ -10397,17 +10447,17 @@
     <row r="249" spans="1:6" outlineLevel="1">
       <c r="A249" s="2"/>
       <c r="B249" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C249" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D249" s="4" t="str">
-        <f>"oChartObj.Chart.HasLegend = True"</f>
-        <v>oChartObj.Chart.HasLegend = True</v>
+        <f>"oChartObj.Chart.ChartTitle.IncludeInLayout = False"</f>
+        <v>oChartObj.Chart.ChartTitle.IncludeInLayout = False</v>
       </c>
       <c r="E249" s="5" t="s">
-        <v>122</v>
+        <v>310</v>
       </c>
       <c r="F249" s="11" t="s">
         <v>122</v>
@@ -10416,17 +10466,17 @@
     <row r="250" spans="1:6" outlineLevel="1">
       <c r="A250" s="2"/>
       <c r="B250" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C250" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D250" s="4" t="str">
-        <f>"oChartObj.Chart.Legend.Position = xlLegendPositionTop"</f>
-        <v>oChartObj.Chart.Legend.Position = xlLegendPositionTop</v>
+        <f>"oChartObj.Chart.HasLegend = True"</f>
+        <v>oChartObj.Chart.HasLegend = True</v>
       </c>
       <c r="E250" s="5" t="s">
-        <v>263</v>
+        <v>122</v>
       </c>
       <c r="F250" s="11" t="s">
         <v>122</v>
@@ -10435,17 +10485,17 @@
     <row r="251" spans="1:6" outlineLevel="1">
       <c r="A251" s="2"/>
       <c r="B251" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C251" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D251" s="4" t="str">
-        <f>"oChartObj.Chart.Legend.IncludeInLayout = False"</f>
-        <v>oChartObj.Chart.Legend.IncludeInLayout = False</v>
+        <f>"oChartObj.Chart.Legend.Position = xlLegendPositionTop"</f>
+        <v>oChartObj.Chart.Legend.Position = xlLegendPositionTop</v>
       </c>
       <c r="E251" s="5" t="s">
-        <v>310</v>
+        <v>263</v>
       </c>
       <c r="F251" s="11" t="s">
         <v>122</v>
@@ -10454,105 +10504,105 @@
     <row r="252" spans="1:6" outlineLevel="1">
       <c r="A252" s="2"/>
       <c r="B252" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C252" s="22" t="s">
         <v>398</v>
       </c>
-      <c r="D252" s="10" t="str">
+      <c r="D252" s="4" t="str">
+        <f>"oChartObj.Chart.Legend.IncludeInLayout = False"</f>
+        <v>oChartObj.Chart.Legend.IncludeInLayout = False</v>
+      </c>
+      <c r="E252" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="F252" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" outlineLevel="1">
+      <c r="A253" s="2"/>
+      <c r="B253" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C253" s="22" t="s">
+        <v>398</v>
+      </c>
+      <c r="D253" s="10" t="str">
         <f>".Sheets(シート名).PasteSpecial Format:=""図 (JPEG)"", Link:=False, DisplayAsIcon:=False"</f>
         <v>.Sheets(シート名).PasteSpecial Format:="図 (JPEG)", Link:=False, DisplayAsIcon:=False</v>
       </c>
-      <c r="E252" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F252" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6" outlineLevel="1">
-      <c r="A253" s="8" t="s">
+      <c r="E253" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F253" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" outlineLevel="1">
+      <c r="A254" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="B253" s="8"/>
-      <c r="C253" s="8"/>
-      <c r="D253" s="8"/>
-      <c r="E253" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="F253" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6" outlineLevel="1">
-      <c r="A254" s="2"/>
-      <c r="B254" s="2" t="s">
+      <c r="B254" s="8"/>
+      <c r="C254" s="8"/>
+      <c r="D254" s="8"/>
+      <c r="E254" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="F254" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" outlineLevel="1">
+      <c r="A255" s="2"/>
+      <c r="B255" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="C254" s="22" t="s">
+      <c r="C255" s="22" t="s">
         <v>398</v>
       </c>
-      <c r="D254" s="4" t="str">
+      <c r="D255" s="4" t="str">
         <f>"Dim goPrgrsBar As New ProgressBar"&amp;CHAR(10)&amp;"goPrgrsBar.Show vbModeless"</f>
         <v>Dim goPrgrsBar As New ProgressBar
 goPrgrsBar.Show vbModeless</v>
       </c>
-      <c r="E254" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F254" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6" outlineLevel="1">
-      <c r="A255" s="2"/>
-      <c r="B255" s="2" t="s">
+      <c r="E255" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F255" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" outlineLevel="1">
+      <c r="A256" s="2"/>
+      <c r="B256" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="C255" s="22" t="s">
+      <c r="C256" s="22" t="s">
         <v>398</v>
       </c>
-      <c r="D255" s="4" t="str">
+      <c r="D256" s="4" t="str">
         <f>"goPrgrsBar.Hide"&amp;CHAR(10)&amp;"Unload goPrgrsBar"&amp;CHAR(10)&amp;"Set goPrgrsBar = Nothing"</f>
         <v>goPrgrsBar.Hide
 Unload goPrgrsBar
 Set goPrgrsBar = Nothing</v>
       </c>
-      <c r="E255" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F255" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6" outlineLevel="1">
-      <c r="A256" s="8" t="s">
+      <c r="E256" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F256" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" outlineLevel="1">
+      <c r="A257" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="B256" s="8"/>
-      <c r="C256" s="8"/>
-      <c r="D256" s="8"/>
-      <c r="E256" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="F256" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6" outlineLevel="1">
-      <c r="A257" s="2"/>
-      <c r="B257" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="C257" s="22" t="s">
-        <v>398</v>
-      </c>
-      <c r="D257" s="4" t="str">
-        <f>"lChk = ThisWorkbook.Sheets(シート名).CheckBoxes(1).Value"</f>
-        <v>lChk = ThisWorkbook.Sheets(シート名).CheckBoxes(1).Value</v>
-      </c>
-      <c r="E257" s="5" t="s">
-        <v>311</v>
+      <c r="B257" s="8"/>
+      <c r="C257" s="8"/>
+      <c r="D257" s="8"/>
+      <c r="E257" s="21" t="s">
+        <v>122</v>
       </c>
       <c r="F257" s="11" t="s">
         <v>122</v>
@@ -10561,277 +10611,296 @@
     <row r="258" spans="1:6" outlineLevel="1">
       <c r="A258" s="2"/>
       <c r="B258" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C258" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D258" s="4" t="str">
+        <f>"lChk = ThisWorkbook.Sheets(シート名).CheckBoxes(1).Value"</f>
+        <v>lChk = ThisWorkbook.Sheets(シート名).CheckBoxes(1).Value</v>
+      </c>
+      <c r="E258" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="F258" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" outlineLevel="1">
+      <c r="A259" s="2"/>
+      <c r="B259" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C259" s="22" t="s">
+        <v>398</v>
+      </c>
+      <c r="D259" s="4" t="str">
         <f>"Private Sub xxx\_KeyUp(ByVal KeyCode As MSForms.ReturnInteger, ByVal Shift As Integer)"&amp;CHAR(10)&amp;"End Sub"</f>
         <v>Private Sub xxx\_KeyUp(ByVal KeyCode As MSForms.ReturnInteger, ByVal Shift As Integer)
 End Sub</v>
       </c>
-      <c r="E258" s="5" t="s">
+      <c r="E259" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="F258" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6" outlineLevel="1">
-      <c r="A259" s="8" t="s">
+      <c r="F259" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" outlineLevel="1">
+      <c r="A260" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="B259" s="8"/>
-      <c r="C259" s="8"/>
-      <c r="D259" s="8"/>
-      <c r="E259" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="F259" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6" outlineLevel="1">
-      <c r="A260" s="2"/>
-      <c r="B260" s="2" t="s">
+      <c r="B260" s="8"/>
+      <c r="C260" s="8"/>
+      <c r="D260" s="8"/>
+      <c r="E260" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="F260" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" outlineLevel="1">
+      <c r="A261" s="2"/>
+      <c r="B261" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="C260" s="22" t="s">
+      <c r="C261" s="22" t="s">
         <v>398</v>
       </c>
-      <c r="D260" s="4" t="s">
+      <c r="D261" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="E260" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F260" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6" outlineLevel="1">
-      <c r="A261" s="8" t="s">
+      <c r="E261" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F261" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" outlineLevel="1">
+      <c r="A262" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="B261" s="8"/>
-      <c r="C261" s="8"/>
-      <c r="D261" s="8"/>
-      <c r="E261" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="F261" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6" outlineLevel="1">
-      <c r="A262" s="2"/>
-      <c r="B262" s="2" t="s">
+      <c r="B262" s="8"/>
+      <c r="C262" s="8"/>
+      <c r="D262" s="8"/>
+      <c r="E262" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="F262" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" outlineLevel="1">
+      <c r="A263" s="2"/>
+      <c r="B263" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C262" s="4" t="str">
+      <c r="C263" s="4" t="str">
         <f>"objWshShell.Exec( ""clip"" ).StdIn.Write( ""テキスト"" )"</f>
         <v>objWshShell.Exec( "clip" ).StdIn.Write( "テキスト" )</v>
       </c>
-      <c r="D262" s="4" t="str">
+      <c r="D263" s="4" t="str">
         <f>"With CreateObject(""new:{1C3B4210-F441-11CE-B9EA-00AA006B1A69}"")"&amp;CHAR(10)&amp;CHAR(9)&amp;".GetFromClipboard"&amp;CHAR(10)&amp;CHAR(9)&amp;"sText = .GetText"&amp;CHAR(10)&amp;"End With"</f>
         <v>With CreateObject("new:{1C3B4210-F441-11CE-B9EA-00AA006B1A69}")
 	.GetFromClipboard
 	sText = .GetText
 End With</v>
       </c>
-      <c r="E262" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F262" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6" outlineLevel="1">
-      <c r="A263" s="2"/>
-      <c r="B263" s="2" t="s">
+      <c r="E263" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F263" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" outlineLevel="1">
+      <c r="A264" s="2"/>
+      <c r="B264" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C263" s="4" t="str">
+      <c r="C264" s="4" t="str">
         <f>"CreateObject(""htmlfile"").ParentWindow.Clipboarddata.GetData(""text"")"</f>
         <v>CreateObject("htmlfile").ParentWindow.Clipboarddata.GetData("text")</v>
       </c>
-      <c r="D263" s="4" t="str">
+      <c r="D264" s="4" t="str">
         <f>"With CreateObject(""new:{1C3B4210-F441-11CE-B9EA-00AA006B1A69}"")"&amp;CHAR(10)&amp;CHAR(9)&amp;".SetText sText"&amp;CHAR(10)&amp;CHAR(9)&amp;".PutInClipboard"&amp;CHAR(10)&amp;"End With"</f>
         <v>With CreateObject("new:{1C3B4210-F441-11CE-B9EA-00AA006B1A69}")
 	.SetText sText
 	.PutInClipboard
 End With</v>
       </c>
-      <c r="E263" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F263" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6" outlineLevel="1">
-      <c r="A264" s="8" t="s">
+      <c r="E264" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F264" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" outlineLevel="1">
+      <c r="A265" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="B264" s="8"/>
-      <c r="C264" s="8"/>
-      <c r="D264" s="8"/>
-      <c r="E264" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="F264" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6" outlineLevel="1">
-      <c r="A265" s="2"/>
-      <c r="B265" s="2" t="s">
+      <c r="B265" s="8"/>
+      <c r="C265" s="8"/>
+      <c r="D265" s="8"/>
+      <c r="E265" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="F265" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" outlineLevel="1">
+      <c r="A266" s="2"/>
+      <c r="B266" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="C265" s="22" t="s">
+      <c r="C266" s="22" t="s">
         <v>398</v>
       </c>
-      <c r="D265" s="4" t="str">
+      <c r="D266" s="4" t="str">
         <f>"Dim wWord As Object" &amp; CHAR(10) &amp; "Set wWord = CreateObject(""Word.Application"")" &amp; CHAR(10) &amp; "wWord.Visible = False"</f>
         <v>Dim wWord As Object
 Set wWord = CreateObject("Word.Application")
 wWord.Visible = False</v>
       </c>
-      <c r="E265" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F265" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6" outlineLevel="1">
-      <c r="A266" s="2"/>
-      <c r="B266" s="2" t="s">
+      <c r="E266" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F266" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" outlineLevel="1">
+      <c r="A267" s="2"/>
+      <c r="B267" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="C266" s="22" t="s">
+      <c r="C267" s="22" t="s">
         <v>398</v>
       </c>
-      <c r="D266" s="4" t="str">
+      <c r="D267" s="4" t="str">
         <f>"dDoc.Close" &amp; CHAR(10) &amp; "Set dDoc = Nothing"</f>
         <v>dDoc.Close
 Set dDoc = Nothing</v>
       </c>
-      <c r="E266" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F266" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6" outlineLevel="1">
-      <c r="A267" s="2"/>
-      <c r="B267" s="2" t="s">
+      <c r="E267" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F267" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" outlineLevel="1">
+      <c r="A268" s="2"/>
+      <c r="B268" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="C267" s="22" t="s">
+      <c r="C268" s="22" t="s">
         <v>398</v>
       </c>
-      <c r="D267" s="4" t="str">
+      <c r="D268" s="4" t="str">
         <f>"wWord.Visible = False" &amp; CHAR(10) &amp; "wWord.Quit" &amp; CHAR(10) &amp; "Set wWord = Nothing"</f>
         <v>wWord.Visible = False
 wWord.Quit
 Set wWord = Nothing</v>
       </c>
-      <c r="E267" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F267" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6" outlineLevel="1">
-      <c r="A268" s="2"/>
-      <c r="B268" s="2" t="s">
+      <c r="E268" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F268" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" outlineLevel="1">
+      <c r="A269" s="2"/>
+      <c r="B269" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="C268" s="22" t="s">
+      <c r="C269" s="22" t="s">
         <v>398</v>
       </c>
-      <c r="D268" s="4" t="str">
+      <c r="D269" s="4" t="str">
         <f>"Dim dDoc As Object" &amp; CHAR(10) &amp; "Set dDoc = wWord.Documents.Open(""sFilePath"")"</f>
         <v>Dim dDoc As Object
 Set dDoc = wWord.Documents.Open("sFilePath")</v>
       </c>
-      <c r="E268" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F268" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6" outlineLevel="1">
-      <c r="A269" s="2"/>
-      <c r="B269" s="2" t="s">
+      <c r="E269" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F269" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" outlineLevel="1">
+      <c r="A270" s="2"/>
+      <c r="B270" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="C269" s="22" t="s">
+      <c r="C270" s="22" t="s">
         <v>398</v>
       </c>
-      <c r="D269" s="4" t="str">
+      <c r="D270" s="4" t="str">
         <f>"Dim sParagraph As Object" &amp; CHAR(10) &amp; "For Each sParagraph In dDoc.Paragraphs" &amp; CHAR(10) &amp; CHAR(9) &amp; "'～処理～" &amp; CHAR(10) &amp; "Next sParagraph"</f>
         <v>Dim sParagraph As Object
 For Each sParagraph In dDoc.Paragraphs
 	'～処理～
 Next sParagraph</v>
       </c>
-      <c r="E269" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F269" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="270" spans="1:6" outlineLevel="1">
-      <c r="A270" s="8" t="s">
+      <c r="E270" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F270" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" outlineLevel="1">
+      <c r="A271" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="B270" s="8"/>
-      <c r="C270" s="8"/>
-      <c r="D270" s="8"/>
-      <c r="E270" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="F270" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="271" spans="1:6" outlineLevel="1">
-      <c r="A271" s="2"/>
-      <c r="B271" s="2" t="s">
+      <c r="B271" s="8"/>
+      <c r="C271" s="8"/>
+      <c r="D271" s="8"/>
+      <c r="E271" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="F271" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" outlineLevel="1">
+      <c r="A272" s="2"/>
+      <c r="B272" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C271" s="22" t="s">
+      <c r="C272" s="22" t="s">
         <v>398</v>
       </c>
-      <c r="D271" s="4" t="str">
+      <c r="D272" s="4" t="str">
         <f>"Dim wTrgtBook As Workbook"&amp;CHAR(10)&amp;"Application.SheetsInNewWorkbook = 1"&amp;CHAR(10)&amp;"Set wTrgtBook = Workbooks.Add"</f>
         <v>Dim wTrgtBook As Workbook
 Application.SheetsInNewWorkbook = 1
 Set wTrgtBook = Workbooks.Add</v>
       </c>
-      <c r="E271" s="5" t="s">
+      <c r="E272" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="F271" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6" outlineLevel="1">
-      <c r="A272" s="2"/>
-      <c r="B272" s="2" t="s">
+      <c r="F272" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" outlineLevel="1">
+      <c r="A273" s="2"/>
+      <c r="B273" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C272" s="22" t="s">
+      <c r="C273" s="22" t="s">
         <v>398</v>
       </c>
-      <c r="D272" s="4" t="str">
+      <c r="D273" s="4" t="str">
         <f>"If wCsvBook.Name &lt;&gt; Dir(""C:\Book1.xlsx"") Then"&amp;CHAR(10)&amp;CHAR(9)&amp;"処理"&amp;CHAR(10)&amp;"Else"&amp;CHAR(10)&amp;CHAR(9)&amp;"エラー"&amp;CHAR(10)&amp;"End If"</f>
         <v>If wCsvBook.Name &lt;&gt; Dir("C:\Book1.xlsx") Then
 	処理
@@ -10839,45 +10908,26 @@
 	エラー
 End If</v>
       </c>
-      <c r="E272" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F272" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="273" spans="1:6" outlineLevel="1">
-      <c r="A273" s="2"/>
-      <c r="B273" s="2" t="s">
+      <c r="E273" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F273" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" outlineLevel="1">
+      <c r="A274" s="2"/>
+      <c r="B274" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C273" s="22" t="s">
+      <c r="C274" s="22" t="s">
         <v>398</v>
       </c>
-      <c r="D273" s="4" t="str">
+      <c r="D274" s="4" t="str">
         <f>"Dim bAddBook As Workbook"&amp;CHAR(10)&amp;"Set bAddBook = Workbooks.Add"</f>
         <v>Dim bAddBook As Workbook
 Set bAddBook = Workbooks.Add</v>
       </c>
-      <c r="E273" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F273" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="274" spans="1:6" outlineLevel="1">
-      <c r="A274" s="2"/>
-      <c r="B274" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C274" s="22" t="s">
-        <v>398</v>
-      </c>
-      <c r="D274" s="4" t="str">
-        <f>"ThisWorkbook.Sheets(シート名).Copy: Set wTrgtBook = ActiveWorkbook"</f>
-        <v>ThisWorkbook.Sheets(シート名).Copy: Set wTrgtBook = ActiveWorkbook</v>
-      </c>
       <c r="E274" s="5" t="s">
         <v>122</v>
       </c>
@@ -10888,14 +10938,14 @@
     <row r="275" spans="1:6" outlineLevel="1">
       <c r="A275" s="2"/>
       <c r="B275" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C275" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D275" s="4" t="str">
-        <f>"wTrgtBook.SaveAs Filename:=sFilePath"</f>
-        <v>wTrgtBook.SaveAs Filename:=sFilePath</v>
+        <f>"ThisWorkbook.Sheets(シート名).Copy: Set wTrgtBook = ActiveWorkbook"</f>
+        <v>ThisWorkbook.Sheets(シート名).Copy: Set wTrgtBook = ActiveWorkbook</v>
       </c>
       <c r="E275" s="5" t="s">
         <v>122</v>
@@ -10907,14 +10957,14 @@
     <row r="276" spans="1:6" outlineLevel="1">
       <c r="A276" s="2"/>
       <c r="B276" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C276" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D276" s="4" t="str">
-        <f>".Sheets.Count"</f>
-        <v>.Sheets.Count</v>
+        <f>"wTrgtBook.SaveAs Filename:=sFilePath"</f>
+        <v>wTrgtBook.SaveAs Filename:=sFilePath</v>
       </c>
       <c r="E276" s="5" t="s">
         <v>122</v>
@@ -10926,35 +10976,35 @@
     <row r="277" spans="1:6" outlineLevel="1">
       <c r="A277" s="2"/>
       <c r="B277" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C277" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D277" s="4" t="str">
+        <f>".Sheets.Count"</f>
+        <v>.Sheets.Count</v>
+      </c>
+      <c r="E277" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F277" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" outlineLevel="1">
+      <c r="A278" s="2"/>
+      <c r="B278" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C278" s="22" t="s">
+        <v>398</v>
+      </c>
+      <c r="D278" s="4" t="str">
         <f>"Dim shAddSht As Worksheet"&amp;CHAR(10)&amp;"Set shAddSht = ThisWorkbook.Sheets.Add"</f>
         <v>Dim shAddSht As Worksheet
 Set shAddSht = ThisWorkbook.Sheets.Add</v>
       </c>
-      <c r="E277" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F277" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="278" spans="1:6" outlineLevel="1">
-      <c r="A278" s="2"/>
-      <c r="B278" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C278" s="22" t="s">
-        <v>398</v>
-      </c>
-      <c r="D278" s="4" t="str">
-        <f>"ThisWorkbook.Sheets(シート名).Move After:=ThisWorkbook.Sheets( ThisWorkbook.Sheets.Count )"</f>
-        <v>ThisWorkbook.Sheets(シート名).Move After:=ThisWorkbook.Sheets( ThisWorkbook.Sheets.Count )</v>
-      </c>
       <c r="E278" s="5" t="s">
         <v>122</v>
       </c>
@@ -10965,36 +11015,36 @@
     <row r="279" spans="1:6" outlineLevel="1">
       <c r="A279" s="2"/>
       <c r="B279" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C279" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D279" s="4" t="str">
+        <f>"ThisWorkbook.Sheets(シート名).Move After:=ThisWorkbook.Sheets( ThisWorkbook.Sheets.Count )"</f>
+        <v>ThisWorkbook.Sheets(シート名).Move After:=ThisWorkbook.Sheets( ThisWorkbook.Sheets.Count )</v>
+      </c>
+      <c r="E279" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F279" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" outlineLevel="1">
+      <c r="A280" s="2"/>
+      <c r="B280" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C280" s="22" t="s">
+        <v>398</v>
+      </c>
+      <c r="D280" s="4" t="str">
         <f>"Application.DisplayAlerts = False"&amp;CHAR(10)&amp;".Sheets(シート名).Delete"&amp;CHAR(10)&amp;"Application.DisplayAlerts = True"</f>
         <v>Application.DisplayAlerts = False
 .Sheets(シート名).Delete
 Application.DisplayAlerts = True</v>
       </c>
-      <c r="E279" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F279" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="280" spans="1:6" outlineLevel="1">
-      <c r="A280" s="2"/>
-      <c r="B280" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C280" s="22" t="s">
-        <v>398</v>
-      </c>
-      <c r="D280" s="4" t="str">
-        <f>".Sheets(シート名).Visible = (True\|False)"</f>
-        <v>.Sheets(シート名).Visible = (True\|False)</v>
-      </c>
       <c r="E280" s="5" t="s">
         <v>122</v>
       </c>
@@ -11005,71 +11055,71 @@
     <row r="281" spans="1:6" outlineLevel="1">
       <c r="A281" s="2"/>
       <c r="B281" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C281" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D281" s="4" t="str">
+        <f>".Sheets(シート名).Visible = (True\|False)"</f>
+        <v>.Sheets(シート名).Visible = (True\|False)</v>
+      </c>
+      <c r="E281" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F281" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" outlineLevel="1">
+      <c r="A282" s="2"/>
+      <c r="B282" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C282" s="22" t="s">
+        <v>398</v>
+      </c>
+      <c r="D282" s="4" t="str">
         <f>".Sheets(シート名).Move Before:=Sheets(1)"</f>
         <v>.Sheets(シート名).Move Before:=Sheets(1)</v>
       </c>
-      <c r="E281" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F281" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="282" spans="1:6" s="43" customFormat="1" outlineLevel="1">
-      <c r="A282" s="37"/>
-      <c r="B282" s="37" t="s">
+      <c r="E282" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F282" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" s="43" customFormat="1" outlineLevel="1">
+      <c r="A283" s="37"/>
+      <c r="B283" s="37" t="s">
         <v>1032</v>
       </c>
-      <c r="C282" s="47" t="s">
+      <c r="C283" s="47" t="s">
         <v>398</v>
       </c>
-      <c r="D282" s="39" t="str">
+      <c r="D283" s="39" t="str">
         <f>".Sheets(旧シート名).Name = 新シート名"</f>
         <v>.Sheets(旧シート名).Name = 新シート名</v>
       </c>
-      <c r="E282" s="40" t="s">
-        <v>122</v>
-      </c>
-      <c r="F282" s="43" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="283" spans="1:6" outlineLevel="1">
-      <c r="A283" s="2"/>
-      <c r="B283" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C283" s="22" t="s">
-        <v>398</v>
-      </c>
-      <c r="D283" s="4" t="str">
-        <f>"Application.ScreenUpdating = True"</f>
-        <v>Application.ScreenUpdating = True</v>
-      </c>
-      <c r="E283" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F283" s="11" t="s">
+      <c r="E283" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="F283" s="43" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="284" spans="1:6" outlineLevel="1">
       <c r="A284" s="2"/>
       <c r="B284" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C284" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D284" s="4" t="str">
-        <f>"Application.ScreenUpdating = False"</f>
-        <v>Application.ScreenUpdating = False</v>
+        <f>"Application.ScreenUpdating = True"</f>
+        <v>Application.ScreenUpdating = True</v>
       </c>
       <c r="E284" s="5" t="s">
         <v>122</v>
@@ -11081,14 +11131,14 @@
     <row r="285" spans="1:6" outlineLevel="1">
       <c r="A285" s="2"/>
       <c r="B285" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C285" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D285" s="4" t="str">
-        <f>"Application.Calculation = xlCalculationAutomatic"</f>
-        <v>Application.Calculation = xlCalculationAutomatic</v>
+        <f>"Application.ScreenUpdating = False"</f>
+        <v>Application.ScreenUpdating = False</v>
       </c>
       <c r="E285" s="5" t="s">
         <v>122</v>
@@ -11100,14 +11150,14 @@
     <row r="286" spans="1:6" outlineLevel="1">
       <c r="A286" s="2"/>
       <c r="B286" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C286" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D286" s="4" t="str">
-        <f>"Application.Calculation = xlCalculationManual"</f>
-        <v>Application.Calculation = xlCalculationManual</v>
+        <f>"Application.Calculation = xlCalculationAutomatic"</f>
+        <v>Application.Calculation = xlCalculationAutomatic</v>
       </c>
       <c r="E286" s="5" t="s">
         <v>122</v>
@@ -11119,14 +11169,14 @@
     <row r="287" spans="1:6" outlineLevel="1">
       <c r="A287" s="2"/>
       <c r="B287" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C287" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D287" s="4" t="str">
-        <f>"Application.Calculate"</f>
-        <v>Application.Calculate</v>
+        <f>"Application.Calculation = xlCalculationManual"</f>
+        <v>Application.Calculation = xlCalculationManual</v>
       </c>
       <c r="E287" s="5" t="s">
         <v>122</v>
@@ -11138,14 +11188,14 @@
     <row r="288" spans="1:6" outlineLevel="1">
       <c r="A288" s="2"/>
       <c r="B288" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C288" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D288" s="4" t="str">
-        <f>"Application.CalculateFull"</f>
-        <v>Application.CalculateFull</v>
+        <f>"Application.Calculate"</f>
+        <v>Application.Calculate</v>
       </c>
       <c r="E288" s="5" t="s">
         <v>122</v>
@@ -11157,16 +11207,17 @@
     <row r="289" spans="1:6" outlineLevel="1">
       <c r="A289" s="2"/>
       <c r="B289" s="2" t="s">
-        <v>496</v>
+        <v>165</v>
       </c>
       <c r="C289" s="22" t="s">
         <v>398</v>
       </c>
-      <c r="D289" s="4" t="s">
-        <v>497</v>
+      <c r="D289" s="4" t="str">
+        <f>"Application.CalculateFull"</f>
+        <v>Application.CalculateFull</v>
       </c>
       <c r="E289" s="5" t="s">
-        <v>498</v>
+        <v>122</v>
       </c>
       <c r="F289" s="11" t="s">
         <v>122</v>
@@ -11175,48 +11226,47 @@
     <row r="290" spans="1:6" outlineLevel="1">
       <c r="A290" s="2"/>
       <c r="B290" s="2" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="C290" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D290" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="E290" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="F290" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" outlineLevel="1">
+      <c r="A291" s="2"/>
+      <c r="B291" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="C291" s="22" t="s">
+        <v>398</v>
+      </c>
+      <c r="D291" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="E290" s="5" t="s">
+      <c r="E291" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="F290" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="291" spans="1:6">
-      <c r="A291" s="20" t="s">
+      <c r="F291" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6">
+      <c r="A292" s="20" t="s">
         <v>401</v>
       </c>
-      <c r="B291" s="8"/>
-      <c r="C291" s="8"/>
-      <c r="D291" s="8"/>
-      <c r="E291" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="F291" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="292" spans="1:6" outlineLevel="1">
-      <c r="A292" s="2"/>
-      <c r="B292" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="C292" s="22" t="s">
-        <v>398</v>
-      </c>
-      <c r="D292" s="4" t="str">
-        <f>"Application.DisplayAlerts = False"</f>
-        <v>Application.DisplayAlerts = False</v>
-      </c>
-      <c r="E292" s="5" t="s">
+      <c r="B292" s="8"/>
+      <c r="C292" s="8"/>
+      <c r="D292" s="8"/>
+      <c r="E292" s="21" t="s">
         <v>122</v>
       </c>
       <c r="F292" s="11" t="s">
@@ -11226,14 +11276,14 @@
     <row r="293" spans="1:6" outlineLevel="1">
       <c r="A293" s="2"/>
       <c r="B293" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C293" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D293" s="4" t="str">
-        <f>"Application.DisplayAlerts = True"</f>
-        <v>Application.DisplayAlerts = True</v>
+        <f>"Application.DisplayAlerts = False"</f>
+        <v>Application.DisplayAlerts = False</v>
       </c>
       <c r="E293" s="5" t="s">
         <v>122</v>
@@ -11245,14 +11295,14 @@
     <row r="294" spans="1:6" outlineLevel="1">
       <c r="A294" s="2"/>
       <c r="B294" s="2" t="s">
-        <v>166</v>
+        <v>257</v>
       </c>
       <c r="C294" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D294" s="4" t="str">
-        <f>".Rows(2).Select"</f>
-        <v>.Rows(2).Select</v>
+        <f>"Application.DisplayAlerts = True"</f>
+        <v>Application.DisplayAlerts = True</v>
       </c>
       <c r="E294" s="5" t="s">
         <v>122</v>
@@ -11264,14 +11314,14 @@
     <row r="295" spans="1:6" outlineLevel="1">
       <c r="A295" s="2"/>
       <c r="B295" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C295" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D295" s="4" t="str">
-        <f>".Columns(2).Select"</f>
-        <v>.Columns(2).Select</v>
+        <f>".Rows(2).Select"</f>
+        <v>.Rows(2).Select</v>
       </c>
       <c r="E295" s="5" t="s">
         <v>122</v>
@@ -11283,14 +11333,14 @@
     <row r="296" spans="1:6" outlineLevel="1">
       <c r="A296" s="2"/>
       <c r="B296" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C296" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D296" s="4" t="str">
-        <f>".Cells(1,1).Select"</f>
-        <v>.Cells(1,1).Select</v>
+        <f>".Columns(2).Select"</f>
+        <v>.Columns(2).Select</v>
       </c>
       <c r="E296" s="5" t="s">
         <v>122</v>
@@ -11302,14 +11352,14 @@
     <row r="297" spans="1:6" outlineLevel="1">
       <c r="A297" s="2"/>
       <c r="B297" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C297" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D297" s="4" t="str">
-        <f>".Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).Select"</f>
-        <v>.Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).Select</v>
+        <f>".Cells(1,1).Select"</f>
+        <v>.Cells(1,1).Select</v>
       </c>
       <c r="E297" s="5" t="s">
         <v>122</v>
@@ -11321,14 +11371,14 @@
     <row r="298" spans="1:6" outlineLevel="1">
       <c r="A298" s="2"/>
       <c r="B298" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C298" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D298" s="4" t="str">
-        <f>".Cells.Find(""りんご"", LookAt:=xlWhole).Row"</f>
-        <v>.Cells.Find("りんご", LookAt:=xlWhole).Row</v>
+        <f>".Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).Select"</f>
+        <v>.Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).Select</v>
       </c>
       <c r="E298" s="5" t="s">
         <v>122</v>
@@ -11346,8 +11396,8 @@
         <v>398</v>
       </c>
       <c r="D299" s="4" t="str">
-        <f>".Cells.Find(""りんご"", LookAt:=xlWhole).Column"</f>
-        <v>.Cells.Find("りんご", LookAt:=xlWhole).Column</v>
+        <f>".Cells.Find(""りんご"", LookAt:=xlWhole).Row"</f>
+        <v>.Cells.Find("りんご", LookAt:=xlWhole).Row</v>
       </c>
       <c r="E299" s="5" t="s">
         <v>122</v>
@@ -11359,17 +11409,17 @@
     <row r="300" spans="1:6" outlineLevel="1">
       <c r="A300" s="2"/>
       <c r="B300" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C300" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D300" s="4" t="str">
-        <f>".Cells(X, Y).Value"</f>
-        <v>.Cells(X, Y).Value</v>
+        <f>".Cells.Find(""りんご"", LookAt:=xlWhole).Column"</f>
+        <v>.Cells.Find("りんご", LookAt:=xlWhole).Column</v>
       </c>
       <c r="E300" s="5" t="s">
-        <v>301</v>
+        <v>122</v>
       </c>
       <c r="F300" s="11" t="s">
         <v>122</v>
@@ -11378,17 +11428,17 @@
     <row r="301" spans="1:6" outlineLevel="1">
       <c r="A301" s="2"/>
       <c r="B301" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C301" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D301" s="4" t="str">
-        <f>".Cells(1, 1).Top"</f>
-        <v>.Cells(1, 1).Top</v>
+        <f>".Cells(X, Y).Value"</f>
+        <v>.Cells(X, Y).Value</v>
       </c>
       <c r="E301" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F301" s="11" t="s">
         <v>122</v>
@@ -11397,17 +11447,17 @@
     <row r="302" spans="1:6" outlineLevel="1">
       <c r="A302" s="2"/>
       <c r="B302" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C302" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D302" s="4" t="str">
-        <f>".Cells(1, 1).Left"</f>
-        <v>.Cells(1, 1).Left</v>
+        <f>".Cells(1, 1).Top"</f>
+        <v>.Cells(1, 1).Top</v>
       </c>
       <c r="E302" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F302" s="11" t="s">
         <v>122</v>
@@ -11416,17 +11466,17 @@
     <row r="303" spans="1:6" outlineLevel="1">
       <c r="A303" s="2"/>
       <c r="B303" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C303" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D303" s="4" t="str">
-        <f>".Cells(1, 1).EntireRow.Delete Shift:=xlShiftUp"</f>
-        <v>.Cells(1, 1).EntireRow.Delete Shift:=xlShiftUp</v>
+        <f>".Cells(1, 1).Left"</f>
+        <v>.Cells(1, 1).Left</v>
       </c>
       <c r="E303" s="5" t="s">
-        <v>122</v>
+        <v>303</v>
       </c>
       <c r="F303" s="11" t="s">
         <v>122</v>
@@ -11435,35 +11485,35 @@
     <row r="304" spans="1:6" outlineLevel="1">
       <c r="A304" s="2"/>
       <c r="B304" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C304" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D304" s="4" t="str">
+        <f>".Cells(1, 1).EntireRow.Delete Shift:=xlShiftUp"</f>
+        <v>.Cells(1, 1).EntireRow.Delete Shift:=xlShiftUp</v>
+      </c>
+      <c r="E304" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F304" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" outlineLevel="1">
+      <c r="A305" s="2"/>
+      <c r="B305" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C305" s="22" t="s">
+        <v>398</v>
+      </c>
+      <c r="D305" s="4" t="str">
         <f>"Application.CutCopyMode = False"&amp;CHAR(10)&amp;".Range(""2:4"").Insert"</f>
         <v>Application.CutCopyMode = False
 .Range("2:4").Insert</v>
       </c>
-      <c r="E304" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F304" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="305" spans="1:6" outlineLevel="1">
-      <c r="A305" s="2"/>
-      <c r="B305" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C305" s="22" t="s">
-        <v>398</v>
-      </c>
-      <c r="D305" s="4" t="str">
-        <f>".Cells(行, 列).Font.Strikethrough"</f>
-        <v>.Cells(行, 列).Font.Strikethrough</v>
-      </c>
       <c r="E305" s="5" t="s">
         <v>122</v>
       </c>
@@ -11474,35 +11524,35 @@
     <row r="306" spans="1:6" outlineLevel="1">
       <c r="A306" s="2"/>
       <c r="B306" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C306" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D306" s="4" t="str">
+        <f>".Cells(行, 列).Font.Strikethrough"</f>
+        <v>.Cells(行, 列).Font.Strikethrough</v>
+      </c>
+      <c r="E306" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F306" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" outlineLevel="1">
+      <c r="A307" s="2"/>
+      <c r="B307" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C307" s="22" t="s">
+        <v>398</v>
+      </c>
+      <c r="D307" s="4" t="str">
         <f>"wTrgtBook.Sheets(シート名).Activate"&amp;CHAR(10)&amp;"ActiveWindow.DisplayGridlines = False"</f>
         <v>wTrgtBook.Sheets(シート名).Activate
 ActiveWindow.DisplayGridlines = False</v>
       </c>
-      <c r="E306" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F306" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="307" spans="1:6" outlineLevel="1">
-      <c r="A307" s="2"/>
-      <c r="B307" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C307" s="22" t="s">
-        <v>398</v>
-      </c>
-      <c r="D307" s="4" t="str">
-        <f>".Range(""A1"").EntireRow.Hidden"</f>
-        <v>.Range("A1").EntireRow.Hidden</v>
-      </c>
       <c r="E307" s="5" t="s">
         <v>122</v>
       </c>
@@ -11513,14 +11563,14 @@
     <row r="308" spans="1:6" outlineLevel="1">
       <c r="A308" s="2"/>
       <c r="B308" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C308" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D308" s="4" t="str">
-        <f>".Range(""A1"").EntireColumn.Hidden"</f>
-        <v>.Range("A1").EntireColumn.Hidden</v>
+        <f>".Range(""A1"").EntireRow.Hidden"</f>
+        <v>.Range("A1").EntireRow.Hidden</v>
       </c>
       <c r="E308" s="5" t="s">
         <v>122</v>
@@ -11532,12 +11582,31 @@
     <row r="309" spans="1:6" outlineLevel="1">
       <c r="A309" s="2"/>
       <c r="B309" s="2" t="s">
-        <v>336</v>
+        <v>179</v>
       </c>
       <c r="C309" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D309" s="4" t="str">
+        <f>".Range(""A1"").EntireColumn.Hidden"</f>
+        <v>.Range("A1").EntireColumn.Hidden</v>
+      </c>
+      <c r="E309" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F309" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" outlineLevel="1">
+      <c r="A310" s="2"/>
+      <c r="B310" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C310" s="22" t="s">
+        <v>398</v>
+      </c>
+      <c r="D310" s="4" t="str">
         <f>"If .Cells(1, 1).EntireRow.Hidden Or .Cells(1, 1).EntireColumn.Hidden Then
     '非表示セル
 Else
@@ -11551,25 +11620,6 @@
 End If
 </v>
       </c>
-      <c r="E309" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F309" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="310" spans="1:6" outlineLevel="1">
-      <c r="A310" s="2"/>
-      <c r="B310" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C310" s="22" t="s">
-        <v>398</v>
-      </c>
-      <c r="D310" s="4" t="str">
-        <f>"文字列変数 = .Range(""A1"").Font.Name"</f>
-        <v>文字列変数 = .Range("A1").Font.Name</v>
-      </c>
       <c r="E310" s="5" t="s">
         <v>122</v>
       </c>
@@ -11580,14 +11630,14 @@
     <row r="311" spans="1:6" outlineLevel="1">
       <c r="A311" s="2"/>
       <c r="B311" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C311" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D311" s="4" t="str">
-        <f>".Range(""A1"").Font.Size = 14"</f>
-        <v>.Range("A1").Font.Size = 14</v>
+        <f>"文字列変数 = .Range(""A1"").Font.Name"</f>
+        <v>文字列変数 = .Range("A1").Font.Name</v>
       </c>
       <c r="E311" s="5" t="s">
         <v>122</v>
@@ -11599,14 +11649,14 @@
     <row r="312" spans="1:6" outlineLevel="1">
       <c r="A312" s="2"/>
       <c r="B312" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C312" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D312" s="4" t="str">
-        <f>".Range(""A1"").Font.Color = RGB(0, 255, 0)"</f>
-        <v>.Range("A1").Font.Color = RGB(0, 255, 0)</v>
+        <f>".Range(""A1"").Font.Size = 14"</f>
+        <v>.Range("A1").Font.Size = 14</v>
       </c>
       <c r="E312" s="5" t="s">
         <v>122</v>
@@ -11618,14 +11668,14 @@
     <row r="313" spans="1:6" outlineLevel="1">
       <c r="A313" s="2"/>
       <c r="B313" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C313" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D313" s="4" t="str">
-        <f>".Range(""A1"").Font.Bold = True"</f>
-        <v>.Range("A1").Font.Bold = True</v>
+        <f>".Range(""A1"").Font.Color = RGB(0, 255, 0)"</f>
+        <v>.Range("A1").Font.Color = RGB(0, 255, 0)</v>
       </c>
       <c r="E313" s="5" t="s">
         <v>122</v>
@@ -11637,14 +11687,14 @@
     <row r="314" spans="1:6" outlineLevel="1">
       <c r="A314" s="2"/>
       <c r="B314" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C314" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D314" s="4" t="str">
-        <f>".Range(""A1"").Font.Underline = True"</f>
-        <v>.Range("A1").Font.Underline = True</v>
+        <f>".Range(""A1"").Font.Bold = True"</f>
+        <v>.Range("A1").Font.Bold = True</v>
       </c>
       <c r="E314" s="5" t="s">
         <v>122</v>
@@ -11656,14 +11706,14 @@
     <row r="315" spans="1:6" outlineLevel="1">
       <c r="A315" s="2"/>
       <c r="B315" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C315" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D315" s="4" t="str">
-        <f>".Range(""A1"").Interior.Color = RGB(255, 255, 0)"</f>
-        <v>.Range("A1").Interior.Color = RGB(255, 255, 0)</v>
+        <f>".Range(""A1"").Font.Underline = True"</f>
+        <v>.Range("A1").Font.Underline = True</v>
       </c>
       <c r="E315" s="5" t="s">
         <v>122</v>
@@ -11675,14 +11725,14 @@
     <row r="316" spans="1:6" outlineLevel="1">
       <c r="A316" s="2"/>
       <c r="B316" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C316" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D316" s="4" t="str">
-        <f>".Range(""A1:C3"").Borders.LineStyle = xlContinuous"</f>
-        <v>.Range("A1:C3").Borders.LineStyle = xlContinuous</v>
+        <f>".Range(""A1"").Interior.Color = RGB(255, 255, 0)"</f>
+        <v>.Range("A1").Interior.Color = RGB(255, 255, 0)</v>
       </c>
       <c r="E316" s="5" t="s">
         <v>122</v>
@@ -11694,14 +11744,14 @@
     <row r="317" spans="1:6" outlineLevel="1">
       <c r="A317" s="2"/>
       <c r="B317" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C317" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D317" s="4" t="str">
-        <f>".Range(""A1:C3"").MergeCells = True"</f>
-        <v>.Range("A1:C3").MergeCells = True</v>
+        <f>".Range(""A1:C3"").Borders.LineStyle = xlContinuous"</f>
+        <v>.Range("A1:C3").Borders.LineStyle = xlContinuous</v>
       </c>
       <c r="E317" s="5" t="s">
         <v>122</v>
@@ -11713,17 +11763,17 @@
     <row r="318" spans="1:6" outlineLevel="1">
       <c r="A318" s="2"/>
       <c r="B318" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C318" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D318" s="4" t="str">
-        <f>".Range(""A1:C3"").HorizontalAlignment = xlGeneral"</f>
-        <v>.Range("A1:C3").HorizontalAlignment = xlGeneral</v>
+        <f>".Range(""A1:C3"").MergeCells = True"</f>
+        <v>.Range("A1:C3").MergeCells = True</v>
       </c>
       <c r="E318" s="5" t="s">
-        <v>259</v>
+        <v>122</v>
       </c>
       <c r="F318" s="11" t="s">
         <v>122</v>
@@ -11732,17 +11782,17 @@
     <row r="319" spans="1:6" outlineLevel="1">
       <c r="A319" s="2"/>
       <c r="B319" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C319" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D319" s="4" t="str">
-        <f>".Range(""A1:C3"").VerticalAlignment = xlCenter"</f>
-        <v>.Range("A1:C3").VerticalAlignment = xlCenter</v>
+        <f>".Range(""A1:C3"").HorizontalAlignment = xlGeneral"</f>
+        <v>.Range("A1:C3").HorizontalAlignment = xlGeneral</v>
       </c>
       <c r="E319" s="5" t="s">
-        <v>190</v>
+        <v>259</v>
       </c>
       <c r="F319" s="11" t="s">
         <v>122</v>
@@ -11751,17 +11801,17 @@
     <row r="320" spans="1:6" outlineLevel="1">
       <c r="A320" s="2"/>
       <c r="B320" s="2" t="s">
-        <v>709</v>
+        <v>189</v>
       </c>
       <c r="C320" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D320" s="4" t="str">
-        <f>".Cells(1, 列).End(xlDown).Row"</f>
-        <v>.Cells(1, 列).End(xlDown).Row</v>
+        <f>".Range(""A1:C3"").VerticalAlignment = xlCenter"</f>
+        <v>.Range("A1:C3").VerticalAlignment = xlCenter</v>
       </c>
       <c r="E320" s="5" t="s">
-        <v>122</v>
+        <v>190</v>
       </c>
       <c r="F320" s="11" t="s">
         <v>122</v>
@@ -11770,14 +11820,14 @@
     <row r="321" spans="1:6" outlineLevel="1">
       <c r="A321" s="2"/>
       <c r="B321" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C321" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D321" s="4" t="str">
-        <f>".Cells(行, 1).End(xlToRight).Column"</f>
-        <v>.Cells(行, 1).End(xlToRight).Column</v>
+        <f>".Cells(1, 列).End(xlDown).Row"</f>
+        <v>.Cells(1, 列).End(xlDown).Row</v>
       </c>
       <c r="E321" s="5" t="s">
         <v>122</v>
@@ -11789,14 +11839,14 @@
     <row r="322" spans="1:6" outlineLevel="1">
       <c r="A322" s="2"/>
       <c r="B322" s="2" t="s">
-        <v>191</v>
+        <v>710</v>
       </c>
       <c r="C322" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D322" s="4" t="str">
-        <f>".Cells(.Rows.Count, 列).End(xlUp).Row"</f>
-        <v>.Cells(.Rows.Count, 列).End(xlUp).Row</v>
+        <f>".Cells(行, 1).End(xlToRight).Column"</f>
+        <v>.Cells(行, 1).End(xlToRight).Column</v>
       </c>
       <c r="E322" s="5" t="s">
         <v>122</v>
@@ -11808,14 +11858,14 @@
     <row r="323" spans="1:6" outlineLevel="1">
       <c r="A323" s="2"/>
       <c r="B323" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C323" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D323" s="4" t="str">
-        <f>".Cells(行, .Columns.Count).End(xlToLeft).Column"</f>
-        <v>.Cells(行, .Columns.Count).End(xlToLeft).Column</v>
+        <f>".Cells(.Rows.Count, 列).End(xlUp).Row"</f>
+        <v>.Cells(.Rows.Count, 列).End(xlUp).Row</v>
       </c>
       <c r="E323" s="5" t="s">
         <v>122</v>
@@ -11827,14 +11877,14 @@
     <row r="324" spans="1:6" outlineLevel="1">
       <c r="A324" s="2"/>
       <c r="B324" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C324" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D324" s="4" t="str">
-        <f>".Sheets(シート名).UsedRange.Rows.Count + 1"</f>
-        <v>.Sheets(シート名).UsedRange.Rows.Count + 1</v>
+        <f>".Cells(行, .Columns.Count).End(xlToLeft).Column"</f>
+        <v>.Cells(行, .Columns.Count).End(xlToLeft).Column</v>
       </c>
       <c r="E324" s="5" t="s">
         <v>122</v>
@@ -11846,14 +11896,14 @@
     <row r="325" spans="1:6" outlineLevel="1">
       <c r="A325" s="2"/>
       <c r="B325" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C325" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D325" s="4" t="str">
-        <f>".Sheets(シート名).UsedRange.Columns.Count + 1"</f>
-        <v>.Sheets(シート名).UsedRange.Columns.Count + 1</v>
+        <f>".Sheets(シート名).UsedRange.Rows.Count + 1"</f>
+        <v>.Sheets(シート名).UsedRange.Rows.Count + 1</v>
       </c>
       <c r="E325" s="5" t="s">
         <v>122</v>
@@ -11865,14 +11915,14 @@
     <row r="326" spans="1:6" outlineLevel="1">
       <c r="A326" s="2"/>
       <c r="B326" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C326" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D326" s="4" t="str">
-        <f>"Selection(1).Row"</f>
-        <v>Selection(1).Row</v>
+        <f>".Sheets(シート名).UsedRange.Columns.Count + 1"</f>
+        <v>.Sheets(シート名).UsedRange.Columns.Count + 1</v>
       </c>
       <c r="E326" s="5" t="s">
         <v>122</v>
@@ -11884,14 +11934,14 @@
     <row r="327" spans="1:6" outlineLevel="1">
       <c r="A327" s="2"/>
       <c r="B327" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C327" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D327" s="4" t="str">
-        <f>"Selection(Selection.Count).Row"</f>
-        <v>Selection(Selection.Count).Row</v>
+        <f>"Selection(1).Row"</f>
+        <v>Selection(1).Row</v>
       </c>
       <c r="E327" s="5" t="s">
         <v>122</v>
@@ -11903,14 +11953,14 @@
     <row r="328" spans="1:6" outlineLevel="1">
       <c r="A328" s="2"/>
       <c r="B328" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C328" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D328" s="4" t="str">
-        <f>"Selection(1).Column"</f>
-        <v>Selection(1).Column</v>
+        <f>"Selection(Selection.Count).Row"</f>
+        <v>Selection(Selection.Count).Row</v>
       </c>
       <c r="E328" s="5" t="s">
         <v>122</v>
@@ -11922,14 +11972,14 @@
     <row r="329" spans="1:6" outlineLevel="1">
       <c r="A329" s="2"/>
       <c r="B329" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C329" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D329" s="4" t="str">
-        <f>"Selection(Selection.Count).Column"</f>
-        <v>Selection(Selection.Count).Column</v>
+        <f>"Selection(1).Column"</f>
+        <v>Selection(1).Column</v>
       </c>
       <c r="E329" s="5" t="s">
         <v>122</v>
@@ -11941,16 +11991,17 @@
     <row r="330" spans="1:6" outlineLevel="1">
       <c r="A330" s="2"/>
       <c r="B330" s="2" t="s">
-        <v>325</v>
+        <v>198</v>
       </c>
       <c r="C330" s="22" t="s">
         <v>398</v>
       </c>
-      <c r="D330" s="4" t="s">
-        <v>323</v>
+      <c r="D330" s="4" t="str">
+        <f>"Selection(Selection.Count).Column"</f>
+        <v>Selection(Selection.Count).Column</v>
       </c>
       <c r="E330" s="5" t="s">
-        <v>331</v>
+        <v>122</v>
       </c>
       <c r="F330" s="11" t="s">
         <v>122</v>
@@ -11959,16 +12010,16 @@
     <row r="331" spans="1:6" outlineLevel="1">
       <c r="A331" s="2"/>
       <c r="B331" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C331" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D331" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E331" s="5" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="F331" s="11" t="s">
         <v>122</v>
@@ -11977,16 +12028,16 @@
     <row r="332" spans="1:6" outlineLevel="1">
       <c r="A332" s="2"/>
       <c r="B332" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C332" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D332" s="4" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E332" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F332" s="11" t="s">
         <v>122</v>
@@ -11995,17 +12046,16 @@
     <row r="333" spans="1:6" outlineLevel="1">
       <c r="A333" s="2"/>
       <c r="B333" s="2" t="s">
-        <v>199</v>
+        <v>327</v>
       </c>
       <c r="C333" s="22" t="s">
         <v>398</v>
       </c>
-      <c r="D333" s="4" t="str">
-        <f>".Range(.Cells(1, 1), .Cells(6, 3))"</f>
-        <v>.Range(.Cells(1, 1), .Cells(6, 3))</v>
+      <c r="D333" s="4" t="s">
+        <v>328</v>
       </c>
       <c r="E333" s="5" t="s">
-        <v>122</v>
+        <v>330</v>
       </c>
       <c r="F333" s="11" t="s">
         <v>122</v>
@@ -12014,14 +12064,14 @@
     <row r="334" spans="1:6" outlineLevel="1">
       <c r="A334" s="2"/>
       <c r="B334" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C334" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D334" s="4" t="str">
-        <f>".Range(""A1:B9"").Copy Destination:=ThisWorkBook.Sheets(シート名２).Range(""B1"")"</f>
-        <v>.Range("A1:B9").Copy Destination:=ThisWorkBook.Sheets(シート名２).Range("B1")</v>
+        <f>".Range(.Cells(1, 1), .Cells(6, 3))"</f>
+        <v>.Range(.Cells(1, 1), .Cells(6, 3))</v>
       </c>
       <c r="E334" s="5" t="s">
         <v>122</v>
@@ -12033,14 +12083,14 @@
     <row r="335" spans="1:6" outlineLevel="1">
       <c r="A335" s="2"/>
       <c r="B335" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C335" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D335" s="4" t="str">
-        <f>".Range(.Cells(1, 1), .Cells(.Rows.Count, 2)).Sort Key1:=.Cells(1, 2) ,order1:=xlAscending"</f>
-        <v>.Range(.Cells(1, 1), .Cells(.Rows.Count, 2)).Sort Key1:=.Cells(1, 2) ,order1:=xlAscending</v>
+        <f>".Range(""A1:B9"").Copy Destination:=ThisWorkBook.Sheets(シート名２).Range(""B1"")"</f>
+        <v>.Range("A1:B9").Copy Destination:=ThisWorkBook.Sheets(シート名２).Range("B1")</v>
       </c>
       <c r="E335" s="5" t="s">
         <v>122</v>
@@ -12052,14 +12102,14 @@
     <row r="336" spans="1:6" outlineLevel="1">
       <c r="A336" s="2"/>
       <c r="B336" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C336" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D336" s="4" t="str">
-        <f>".Range(""A1:A2"").ClearContents"</f>
-        <v>.Range("A1:A2").ClearContents</v>
+        <f>".Range(.Cells(1, 1), .Cells(.Rows.Count, 2)).Sort Key1:=.Cells(1, 2) ,order1:=xlAscending"</f>
+        <v>.Range(.Cells(1, 1), .Cells(.Rows.Count, 2)).Sort Key1:=.Cells(1, 2) ,order1:=xlAscending</v>
       </c>
       <c r="E336" s="5" t="s">
         <v>122</v>
@@ -12071,14 +12121,14 @@
     <row r="337" spans="1:6" outlineLevel="1">
       <c r="A337" s="2"/>
       <c r="B337" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C337" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D337" s="4" t="str">
-        <f>".Range(""A1:A2"").ClearFormats"</f>
-        <v>.Range("A1:A2").ClearFormats</v>
+        <f>".Range(""A1:A2"").ClearContents"</f>
+        <v>.Range("A1:A2").ClearContents</v>
       </c>
       <c r="E337" s="5" t="s">
         <v>122</v>
@@ -12090,17 +12140,17 @@
     <row r="338" spans="1:6" outlineLevel="1">
       <c r="A338" s="2"/>
       <c r="B338" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C338" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D338" s="4" t="str">
-        <f>".Range(""A1:A2"").PasteSpecial (xlPasteFormats)"</f>
-        <v>.Range("A1:A2").PasteSpecial (xlPasteFormats)</v>
+        <f>".Range(""A1:A2"").ClearFormats"</f>
+        <v>.Range("A1:A2").ClearFormats</v>
       </c>
       <c r="E338" s="5" t="s">
-        <v>190</v>
+        <v>122</v>
       </c>
       <c r="F338" s="11" t="s">
         <v>122</v>
@@ -12109,17 +12159,17 @@
     <row r="339" spans="1:6" outlineLevel="1">
       <c r="A339" s="2"/>
       <c r="B339" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C339" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D339" s="4" t="str">
-        <f>".Range(""A1:CV100"").SpecialCells(xlCellTypeBlanks).Select"</f>
-        <v>.Range("A1:CV100").SpecialCells(xlCellTypeBlanks).Select</v>
+        <f>".Range(""A1:A2"").PasteSpecial (xlPasteFormats)"</f>
+        <v>.Range("A1:A2").PasteSpecial (xlPasteFormats)</v>
       </c>
       <c r="E339" s="5" t="s">
-        <v>122</v>
+        <v>190</v>
       </c>
       <c r="F339" s="11" t="s">
         <v>122</v>
@@ -12128,17 +12178,17 @@
     <row r="340" spans="1:6" outlineLevel="1">
       <c r="A340" s="2"/>
       <c r="B340" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C340" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D340" s="4" t="str">
-        <f>".Range(""A1"").ColumnWidth = 5"</f>
-        <v>.Range("A1").ColumnWidth = 5</v>
+        <f>".Range(""A1:CV100"").SpecialCells(xlCellTypeBlanks).Select"</f>
+        <v>.Range("A1:CV100").SpecialCells(xlCellTypeBlanks).Select</v>
       </c>
       <c r="E340" s="5" t="s">
-        <v>304</v>
+        <v>122</v>
       </c>
       <c r="F340" s="11" t="s">
         <v>122</v>
@@ -12147,17 +12197,17 @@
     <row r="341" spans="1:6" outlineLevel="1">
       <c r="A341" s="2"/>
       <c r="B341" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C341" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D341" s="4" t="str">
-        <f>".Range(.Cells(4, 2), .Cells(9, 2)).Columns.AutoFit"</f>
-        <v>.Range(.Cells(4, 2), .Cells(9, 2)).Columns.AutoFit</v>
+        <f>".Range(""A1"").ColumnWidth = 5"</f>
+        <v>.Range("A1").ColumnWidth = 5</v>
       </c>
       <c r="E341" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F341" s="11" t="s">
         <v>122</v>
@@ -12166,14 +12216,14 @@
     <row r="342" spans="1:6" outlineLevel="1">
       <c r="A342" s="2"/>
       <c r="B342" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C342" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D342" s="4" t="str">
-        <f>".Sheets(シート名).UsedRange.Columns.AutoFit"</f>
-        <v>.Sheets(シート名).UsedRange.Columns.AutoFit</v>
+        <f>".Range(.Cells(4, 2), .Cells(9, 2)).Columns.AutoFit"</f>
+        <v>.Range(.Cells(4, 2), .Cells(9, 2)).Columns.AutoFit</v>
       </c>
       <c r="E342" s="5" t="s">
         <v>305</v>
@@ -12185,17 +12235,17 @@
     <row r="343" spans="1:6" outlineLevel="1">
       <c r="A343" s="2"/>
       <c r="B343" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C343" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D343" s="4" t="str">
-        <f>"Application.CutCopyMode = False"</f>
-        <v>Application.CutCopyMode = False</v>
+        <f>".Sheets(シート名).UsedRange.Columns.AutoFit"</f>
+        <v>.Sheets(シート名).UsedRange.Columns.AutoFit</v>
       </c>
       <c r="E343" s="5" t="s">
-        <v>122</v>
+        <v>305</v>
       </c>
       <c r="F343" s="11" t="s">
         <v>122</v>
@@ -12204,17 +12254,17 @@
     <row r="344" spans="1:6" outlineLevel="1">
       <c r="A344" s="2"/>
       <c r="B344" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C344" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D344" s="4" t="str">
-        <f>".Range( .Rows( lStrtRow ), .Rows( lLastRow ) ).Group"</f>
-        <v>.Range( .Rows( lStrtRow ), .Rows( lLastRow ) ).Group</v>
+        <f>"Application.CutCopyMode = False"</f>
+        <v>Application.CutCopyMode = False</v>
       </c>
       <c r="E344" s="5" t="s">
-        <v>306</v>
+        <v>122</v>
       </c>
       <c r="F344" s="11" t="s">
         <v>122</v>
@@ -12229,8 +12279,8 @@
         <v>398</v>
       </c>
       <c r="D345" s="4" t="str">
-        <f>".Range( .Columns( lStrtRow ), .Columns( lLastRow ) ).Group"</f>
-        <v>.Range( .Columns( lStrtRow ), .Columns( lLastRow ) ).Group</v>
+        <f>".Range( .Rows( lStrtRow ), .Rows( lLastRow ) ).Group"</f>
+        <v>.Range( .Rows( lStrtRow ), .Rows( lLastRow ) ).Group</v>
       </c>
       <c r="E345" s="5" t="s">
         <v>306</v>
@@ -12242,17 +12292,17 @@
     <row r="346" spans="1:6" outlineLevel="1">
       <c r="A346" s="2"/>
       <c r="B346" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C346" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D346" s="4" t="str">
-        <f>".Sheets(シート名).Outline.SummaryRow = ( xlBelow \| xlAbove )"</f>
-        <v>.Sheets(シート名).Outline.SummaryRow = ( xlBelow \| xlAbove )</v>
+        <f>".Range( .Columns( lStrtRow ), .Columns( lLastRow ) ).Group"</f>
+        <v>.Range( .Columns( lStrtRow ), .Columns( lLastRow ) ).Group</v>
       </c>
       <c r="E346" s="5" t="s">
-        <v>122</v>
+        <v>306</v>
       </c>
       <c r="F346" s="11" t="s">
         <v>122</v>
@@ -12261,14 +12311,14 @@
     <row r="347" spans="1:6" outlineLevel="1">
       <c r="A347" s="2"/>
       <c r="B347" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C347" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D347" s="4" t="str">
-        <f>".Sheets(シート名).Outline.SummaryColumn = ( xlRight \| xlLeft )"</f>
-        <v>.Sheets(シート名).Outline.SummaryColumn = ( xlRight \| xlLeft )</v>
+        <f>".Sheets(シート名).Outline.SummaryRow = ( xlBelow \| xlAbove )"</f>
+        <v>.Sheets(シート名).Outline.SummaryRow = ( xlBelow \| xlAbove )</v>
       </c>
       <c r="E347" s="5" t="s">
         <v>122</v>
@@ -12280,14 +12330,14 @@
     <row r="348" spans="1:6" outlineLevel="1">
       <c r="A348" s="2"/>
       <c r="B348" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C348" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D348" s="4" t="str">
-        <f>".Sheets(シート名).Outline.AutomaticStyles = ( True \| False )"</f>
-        <v>.Sheets(シート名).Outline.AutomaticStyles = ( True \| False )</v>
+        <f>".Sheets(シート名).Outline.SummaryColumn = ( xlRight \| xlLeft )"</f>
+        <v>.Sheets(シート名).Outline.SummaryColumn = ( xlRight \| xlLeft )</v>
       </c>
       <c r="E348" s="5" t="s">
         <v>122</v>
@@ -12299,14 +12349,14 @@
     <row r="349" spans="1:6" outlineLevel="1">
       <c r="A349" s="2"/>
       <c r="B349" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C349" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D349" s="4" t="str">
-        <f>".Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).AutoFilter"</f>
-        <v>.Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).AutoFilter</v>
+        <f>".Sheets(シート名).Outline.AutomaticStyles = ( True \| False )"</f>
+        <v>.Sheets(シート名).Outline.AutomaticStyles = ( True \| False )</v>
       </c>
       <c r="E349" s="5" t="s">
         <v>122</v>
@@ -12318,15 +12368,14 @@
     <row r="350" spans="1:6" outlineLevel="1">
       <c r="A350" s="2"/>
       <c r="B350" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C350" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D350" s="4" t="str">
-        <f>".Rows(行).Select"&amp;CHAR(10)&amp;"ActiveWindow.FreezePanes = True"</f>
-        <v>.Rows(行).Select
-ActiveWindow.FreezePanes = True</v>
+        <f>".Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).AutoFilter"</f>
+        <v>.Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).AutoFilter</v>
       </c>
       <c r="E350" s="5" t="s">
         <v>122</v>
@@ -12344,49 +12393,50 @@
         <v>398</v>
       </c>
       <c r="D351" s="4" t="str">
+        <f>".Rows(行).Select"&amp;CHAR(10)&amp;"ActiveWindow.FreezePanes = True"</f>
+        <v>.Rows(行).Select
+ActiveWindow.FreezePanes = True</v>
+      </c>
+      <c r="E351" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F351" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" outlineLevel="1">
+      <c r="A352" s="2"/>
+      <c r="B352" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C352" s="22" t="s">
+        <v>398</v>
+      </c>
+      <c r="D352" s="4" t="str">
         <f>".Columns(列).Select"&amp;CHAR(10)&amp;"ActiveWindow.FreezePanes = True"</f>
         <v>.Columns(列).Select
 ActiveWindow.FreezePanes = True</v>
       </c>
-      <c r="E351" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F351" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="352" spans="1:6" outlineLevel="1">
-      <c r="A352" s="2"/>
-      <c r="B352" s="2" t="s">
+      <c r="E352" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F352" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" outlineLevel="1">
+      <c r="A353" s="2"/>
+      <c r="B353" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C352" s="22" t="s">
+      <c r="C353" s="22" t="s">
         <v>398</v>
       </c>
-      <c r="D352" s="4" t="str">
+      <c r="D353" s="4" t="str">
         <f>".Cells(行,列).Select"&amp;CHAR(10)&amp;"ActiveWindow.FreezePanes = True"</f>
         <v>.Cells(行,列).Select
 ActiveWindow.FreezePanes = True</v>
       </c>
-      <c r="E352" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F352" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="353" spans="1:6" outlineLevel="1">
-      <c r="A353" s="2"/>
-      <c r="B353" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="C353" s="22" t="s">
-        <v>398</v>
-      </c>
-      <c r="D353" s="4" t="str">
-        <f>"ActiveWindow.FreezePanes = False"</f>
-        <v>ActiveWindow.FreezePanes = False</v>
-      </c>
       <c r="E353" s="5" t="s">
         <v>122</v>
       </c>
@@ -12397,14 +12447,14 @@
     <row r="354" spans="1:6" outlineLevel="1">
       <c r="A354" s="2"/>
       <c r="B354" s="2" t="s">
-        <v>247</v>
+        <v>217</v>
       </c>
       <c r="C354" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D354" s="4" t="str">
-        <f>"Application.WorksheetFunction.VLookup(.Range(""C1""), .Range(""A1:B7""), 2, False)"</f>
-        <v>Application.WorksheetFunction.VLookup(.Range("C1"), .Range("A1:B7"), 2, False)</v>
+        <f>"ActiveWindow.FreezePanes = False"</f>
+        <v>ActiveWindow.FreezePanes = False</v>
       </c>
       <c r="E354" s="5" t="s">
         <v>122</v>
@@ -12416,17 +12466,17 @@
     <row r="355" spans="1:6" outlineLevel="1">
       <c r="A355" s="2"/>
       <c r="B355" s="2" t="s">
-        <v>121</v>
+        <v>247</v>
       </c>
       <c r="C355" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D355" s="4" t="str">
-        <f>"CreateObject(""WScript.Network"").UserName"</f>
-        <v>CreateObject("WScript.Network").UserName</v>
+        <f>"Application.WorksheetFunction.VLookup(.Range(""C1""), .Range(""A1:B7""), 2, False)"</f>
+        <v>Application.WorksheetFunction.VLookup(.Range("C1"), .Range("A1:B7"), 2, False)</v>
       </c>
       <c r="E355" s="5" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F355" s="11" t="s">
         <v>122</v>
@@ -12435,17 +12485,17 @@
     <row r="356" spans="1:6" outlineLevel="1">
       <c r="A356" s="2"/>
       <c r="B356" s="2" t="s">
-        <v>338</v>
+        <v>121</v>
       </c>
       <c r="C356" s="22" t="s">
         <v>398</v>
       </c>
-      <c r="D356" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="E356" s="6" t="str">
-        <f>HYPERLINK("https://msdn.microsoft.com/ja-jp/library/office/ff197461.aspx","sShtcutKey＝Shift:+,Ctrl:^,Alt:%,...")</f>
-        <v>sShtcutKey＝Shift:+,Ctrl:^,Alt:%,...</v>
+      <c r="D356" s="4" t="str">
+        <f>"CreateObject(""WScript.Network"").UserName"</f>
+        <v>CreateObject("WScript.Network").UserName</v>
+      </c>
+      <c r="E356" s="5" t="s">
+        <v>128</v>
       </c>
       <c r="F356" s="11" t="s">
         <v>122</v>
@@ -12454,15 +12504,18 @@
     <row r="357" spans="1:6" outlineLevel="1">
       <c r="A357" s="2"/>
       <c r="B357" s="2" t="s">
-        <v>661</v>
+        <v>338</v>
       </c>
       <c r="C357" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D357" s="4" t="s">
-        <v>659</v>
-      </c>
-      <c r="E357" s="5"/>
+        <v>337</v>
+      </c>
+      <c r="E357" s="6" t="str">
+        <f>HYPERLINK("https://msdn.microsoft.com/ja-jp/library/office/ff197461.aspx","sShtcutKey＝Shift:+,Ctrl:^,Alt:%,...")</f>
+        <v>sShtcutKey＝Shift:+,Ctrl:^,Alt:%,...</v>
+      </c>
       <c r="F357" s="11" t="s">
         <v>122</v>
       </c>
@@ -12470,13 +12523,13 @@
     <row r="358" spans="1:6" outlineLevel="1">
       <c r="A358" s="2"/>
       <c r="B358" s="2" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C358" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D358" s="4" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="E358" s="5"/>
       <c r="F358" s="11" t="s">
@@ -12486,12 +12539,28 @@
     <row r="359" spans="1:6" outlineLevel="1">
       <c r="A359" s="2"/>
       <c r="B359" s="2" t="s">
-        <v>714</v>
+        <v>660</v>
       </c>
       <c r="C359" s="22" t="s">
         <v>398</v>
       </c>
-      <c r="D359" s="10" t="str">
+      <c r="D359" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="E359" s="5"/>
+      <c r="F359" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" outlineLevel="1">
+      <c r="A360" s="2"/>
+      <c r="B360" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="C360" s="22" t="s">
+        <v>398</v>
+      </c>
+      <c r="D360" s="10" t="str">
         <f>"Dim objBtn As Object
 Set objBtn = ActiveSheet.Shapes(Application.Caller)
 Dim lClm As Long
@@ -12507,26 +12576,8 @@
 lRow = objBtn.TopLeftCell.Row
 </v>
       </c>
-      <c r="E359" s="5" t="s">
+      <c r="E360" s="5" t="s">
         <v>715</v>
-      </c>
-      <c r="F359" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="360" spans="1:6" outlineLevel="1">
-      <c r="A360" s="2"/>
-      <c r="B360" s="2" t="s">
-        <v>741</v>
-      </c>
-      <c r="C360" s="22" t="s">
-        <v>398</v>
-      </c>
-      <c r="D360" s="10" t="s">
-        <v>742</v>
-      </c>
-      <c r="E360" s="5" t="s">
-        <v>122</v>
       </c>
       <c r="F360" s="11" t="s">
         <v>122</v>
@@ -12535,13 +12586,13 @@
     <row r="361" spans="1:6" outlineLevel="1">
       <c r="A361" s="2"/>
       <c r="B361" s="2" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="C361" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D361" s="10" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="E361" s="5" t="s">
         <v>122</v>
@@ -12553,13 +12604,13 @@
     <row r="362" spans="1:6" outlineLevel="1">
       <c r="A362" s="2"/>
       <c r="B362" s="2" t="s">
-        <v>739</v>
+        <v>745</v>
       </c>
       <c r="C362" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D362" s="10" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="E362" s="5" t="s">
         <v>122</v>
@@ -12571,44 +12622,62 @@
     <row r="363" spans="1:6" outlineLevel="1">
       <c r="A363" s="2"/>
       <c r="B363" s="2" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C363" s="22" t="s">
         <v>398</v>
       </c>
       <c r="D363" s="10" t="s">
+        <v>744</v>
+      </c>
+      <c r="E363" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F363" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" outlineLevel="1">
+      <c r="A364" s="2"/>
+      <c r="B364" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="C364" s="22" t="s">
+        <v>398</v>
+      </c>
+      <c r="D364" s="10" t="s">
         <v>743</v>
       </c>
-      <c r="E363" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F363" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="364" spans="1:6">
-      <c r="A364" s="20" t="s">
+      <c r="E364" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F364" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6">
+      <c r="A365" s="20" t="s">
         <v>464</v>
       </c>
-      <c r="B364" s="8"/>
-      <c r="C364" s="8"/>
-      <c r="D364" s="8"/>
-      <c r="E364" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="F364" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="365" spans="1:6" outlineLevel="1">
-      <c r="A365" s="2"/>
-      <c r="B365" s="2" t="s">
+      <c r="B365" s="8"/>
+      <c r="C365" s="8"/>
+      <c r="D365" s="8"/>
+      <c r="E365" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F365" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" outlineLevel="1">
+      <c r="A366" s="2"/>
+      <c r="B366" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="C365" s="22" t="s">
+      <c r="C366" s="22" t="s">
         <v>398</v>
       </c>
-      <c r="D365" s="2" t="str">
+      <c r="D366" s="2" t="str">
         <f>"Dim bIsSheetExist As Boolean
 bIsSheetExist = False
 For Each wSheet In ThisWorkbook.Worksheets
@@ -12628,19 +12697,19 @@
     End If
 Next wSheet</v>
       </c>
-      <c r="E365" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="366" spans="1:6" outlineLevel="1">
-      <c r="A366" s="2"/>
-      <c r="B366" s="2" t="s">
+      <c r="E366" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" outlineLevel="1">
+      <c r="A367" s="2"/>
+      <c r="B367" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="C366" s="22" t="s">
+      <c r="C367" s="22" t="s">
         <v>398</v>
       </c>
-      <c r="D366" s="2" t="str">
+      <c r="D367" s="2" t="str">
         <f>"Dim rFindResult As Range
 Dim sFindKeyword As String
 Dim shTrgtSht As Worksheet
@@ -12654,19 +12723,19 @@
 sFindKeyword = "test"
 Set rFindResult = shTrgtSht.Cells.Find(sFindKeyword, LookAt:=xlWhole)</v>
       </c>
-      <c r="E366" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="367" spans="1:6" outlineLevel="1">
-      <c r="A367" s="2"/>
-      <c r="B367" s="2" t="s">
+      <c r="E367" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" outlineLevel="1">
+      <c r="A368" s="2"/>
+      <c r="B368" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="C367" s="22" t="s">
+      <c r="C368" s="22" t="s">
         <v>398</v>
       </c>
-      <c r="D367" s="2" t="str">
+      <c r="D368" s="2" t="str">
         <f>"If rFindResult Is Nothing Then
     MsgBox _
         ""セルが見つからなかったため、処理を中断します。"" &amp; vbNewLine &amp; _
@@ -12684,15 +12753,6 @@
     End
 End If</v>
       </c>
-      <c r="E367" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="368" spans="1:6" outlineLevel="1">
-      <c r="A368" s="2"/>
-      <c r="B368" s="2"/>
-      <c r="C368" s="10"/>
-      <c r="D368" s="10"/>
       <c r="E368" s="5" t="s">
         <v>122</v>
       </c>
@@ -12805,20 +12865,29 @@
         <v>122</v>
       </c>
     </row>
-    <row r="382" spans="1:5">
-      <c r="A382" s="7" t="s">
+    <row r="381" spans="1:5" outlineLevel="1">
+      <c r="A381" s="2"/>
+      <c r="B381" s="2"/>
+      <c r="C381" s="10"/>
+      <c r="D381" s="10"/>
+      <c r="E381" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5">
+      <c r="A383" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="B382" s="1" t="s">
+      <c r="B383" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="C382" s="1" t="s">
+      <c r="C383" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="D382" s="1" t="s">
+      <c r="D383" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="E382" s="1" t="s">
+      <c r="E383" s="1" t="s">
         <v>417</v>
       </c>
     </row>

--- a/言語チートシート.xlsx
+++ b/言語チートシート.xlsx
@@ -9,9 +9,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D23025B-BCC4-4122-B0EE-38081167C7E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33DDF133-AA31-4F65-8DE9-6EC2B28C978E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2025" yWindow="-120" windowWidth="26895" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2145" yWindow="0" windowWidth="26655" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vbs,vba" sheetId="43" r:id="rId1"/>
@@ -11285,20 +11285,34 @@
         <v>1035</v>
       </c>
       <c r="C201" s="39" t="str">
-        <f>"CreateObject(""Shell.Application"").Namespace(10).movehere sTrgtPath
-Dim objFSO
-Set objFSO = CreateObject(""Scripting.FileSystemObject"")"&amp;"
-Do While objFSO.FileExists(sTrgtPath) Or objFSO.FolderExists(sTrgtPath)
-    '削除処理は非同期で進行するため、削除中にスクリプトが終了すると削除処理は中断される。
-    '削除対象が削除されるまで待機する。
-Loop"</f>
-        <v>CreateObject("Shell.Application").Namespace(10).movehere sTrgtPath
-Dim objFSO
-Set objFSO = CreateObject("Scripting.FileSystemObject")
-Do While objFSO.FileExists(sTrgtPath) Or objFSO.FolderExists(sTrgtPath)
-    '削除処理は非同期で進行するため、削除中にスクリプトが終了すると削除処理は中断される。
-    '削除対象が削除されるまで待機する。
-Loop</v>
+        <f>"Call MoveToTrushBox(objFSO, sTrgtPath)
+Private Function MoveToTrushBox(ByRef objFSO, ByVal sTrgtPath)
+    If objFSO.FileExists(sTrgtPath) Then" &amp; "
+        CreateObject(""Shell.Application"").Namespace(10).movehere sTrgtPath
+        Do While objFSO.FileExists(sTrgtPath) Or objFSO.FolderExists(sTrgtPath)
+            '削除処理は非同期で進行するため、削除中にスクリプトが終了すると削除処理は中断される。" &amp; "
+            '削除対象が削除されるまで待機する。
+            WScript.sleep(100)
+        Loop" &amp; "
+        MoveToTrushBox = True
+    Else
+        MoveToTrushBox = False
+    End If
+End Function"</f>
+        <v>Call MoveToTrushBox(objFSO, sTrgtPath)
+Private Function MoveToTrushBox(ByRef objFSO, ByVal sTrgtPath)
+    If objFSO.FileExists(sTrgtPath) Then
+        CreateObject("Shell.Application").Namespace(10).movehere sTrgtPath
+        Do While objFSO.FileExists(sTrgtPath) Or objFSO.FolderExists(sTrgtPath)
+            '削除処理は非同期で進行するため、削除中にスクリプトが終了すると削除処理は中断される。
+            '削除対象が削除されるまで待機する。
+            WScript.sleep(100)
+        Loop
+        MoveToTrushBox = True
+    Else
+        MoveToTrushBox = False
+    End If
+End Function</v>
       </c>
       <c r="D201" s="44" t="s">
         <v>1036</v>

--- a/言語チートシート.xlsx
+++ b/言語チートシート.xlsx
@@ -9,9 +9,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33DDF133-AA31-4F65-8DE9-6EC2B28C978E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C55B8FE-3370-44F3-B300-667212B4FCA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2145" yWindow="0" windowWidth="26655" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2025" yWindow="-120" windowWidth="26895" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vbs,vba" sheetId="43" r:id="rId1"/>
@@ -152,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2342" uniqueCount="1048">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2341" uniqueCount="1047">
   <si>
     <t>変数強制定義</t>
   </si>
@@ -4649,10 +4649,6 @@
     <rPh sb="16" eb="18">
       <t>イドウ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>★</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -8839,7 +8835,7 @@
 adoStrm.LoadFromFile sTrgtFilePath</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="F115" s="11" t="s">
         <v>122</v>
@@ -9044,7 +9040,7 @@
     <row r="122" spans="1:8" s="43" customFormat="1" outlineLevel="1">
       <c r="A122" s="37"/>
       <c r="B122" s="61" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="C122" s="39" t="str">
         <f>"Call SaveNoBomFile(adoStrm, sTrgtFilePath)
@@ -9111,7 +9107,7 @@
 End Function</v>
       </c>
       <c r="E122" s="62" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="F122" s="43" t="s">
         <v>122</v>
@@ -11314,8 +11310,59 @@
     End If
 End Function</v>
       </c>
-      <c r="D201" s="44" t="s">
-        <v>1036</v>
+      <c r="D201" s="42" t="str">
+        <f>"Type SHFILEOPSTRUCT: hwnd As LongPtr: wFunc As Long: pFrom As String: pTo As String: fFlags As Integer: fAnyOperationsAborted As Long: hNameMappings As LongPtr: lpszProgressTitle As String: End Type" &amp; "
+Declare PtrSafe Function SHFileOperation Lib ""shell32.dll"" Alias ""SHFileOperationA"" (lpFileOp As SHFILEOPSTRUCT) As Long" &amp; "
+Private Sub Test()
+    Dim sTrgtPath As String" &amp; "
+    sTrgtPath = ""C:\Users\draem\OneDrive\デスクトップ\test.txt""
+    Call MoveToTrushBox(sTrgtPath)
+End Sub" &amp; "
+Private Function MoveToTrushBox( _
+    ByVal sTrgtPath As String _" &amp; "
+) As Boolean
+    Const FO_DELETE = &amp;H3
+    Const FOF_ALLOWUNDO = &amp;H40
+    Const FOF_NOCONFIRMATION = &amp;H10" &amp; "
+    Dim strFileOpe As SHFILEOPSTRUCT
+    Dim lRet As Long
+    strFileOpe.hwnd = Application.hwnd
+    strFileOpe.wFunc = FO_DELETE" &amp; "
+    strFileOpe.pFrom = sTrgtPath
+    strFileOpe.fFlags = FOF_ALLOWUNDO + FOF_NOCONFIRMATION
+    lRet = SHFileOperation(strFileOpe) 'ゴミ箱へ
+    If lRet &lt;&gt; 0 Then" &amp; "
+        MoveToTrushBox = False
+    Else
+        MoveToTrushBox = True
+    End If
+End Function"</f>
+        <v>Type SHFILEOPSTRUCT: hwnd As LongPtr: wFunc As Long: pFrom As String: pTo As String: fFlags As Integer: fAnyOperationsAborted As Long: hNameMappings As LongPtr: lpszProgressTitle As String: End Type
+Declare PtrSafe Function SHFileOperation Lib "shell32.dll" Alias "SHFileOperationA" (lpFileOp As SHFILEOPSTRUCT) As Long
+Private Sub Test()
+    Dim sTrgtPath As String
+    sTrgtPath = "C:\Users\draem\OneDrive\デスクトップ\test.txt"
+    Call MoveToTrushBox(sTrgtPath)
+End Sub
+Private Function MoveToTrushBox( _
+    ByVal sTrgtPath As String _
+) As Boolean
+    Const FO_DELETE = &amp;H3
+    Const FOF_ALLOWUNDO = &amp;H40
+    Const FOF_NOCONFIRMATION = &amp;H10
+    Dim strFileOpe As SHFILEOPSTRUCT
+    Dim lRet As Long
+    strFileOpe.hwnd = Application.hwnd
+    strFileOpe.wFunc = FO_DELETE
+    strFileOpe.pFrom = sTrgtPath
+    strFileOpe.fFlags = FOF_ALLOWUNDO + FOF_NOCONFIRMATION
+    lRet = SHFileOperation(strFileOpe) 'ゴミ箱へ
+    If lRet &lt;&gt; 0 Then
+        MoveToTrushBox = False
+    Else
+        MoveToTrushBox = True
+    End If
+End Function</v>
       </c>
       <c r="E201" s="40"/>
       <c r="F201" s="43" t="s">
@@ -23502,7 +23549,7 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="57" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B1" s="57"/>
       <c r="C1" s="57"/>
@@ -23512,7 +23559,7 @@
       <c r="G1" s="57"/>
       <c r="H1" s="57"/>
       <c r="J1" s="57" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="K1" s="57"/>
       <c r="L1" s="57"/>
@@ -23521,34 +23568,34 @@
     </row>
     <row r="2" spans="1:14" s="58" customFormat="1">
       <c r="A2" s="58" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B2" s="58" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D2" s="58" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E2" s="58" t="s">
+        <v>1039</v>
+      </c>
+      <c r="J2" s="58" t="s">
+        <v>1042</v>
+      </c>
+      <c r="K2" s="58" t="s">
         <v>1043</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="L2" s="58" t="s">
+        <v>1036</v>
+      </c>
+      <c r="M2" s="58" t="s">
         <v>1037</v>
       </c>
-      <c r="C2" s="58" t="s">
-        <v>1038</v>
-      </c>
-      <c r="D2" s="58" t="s">
-        <v>1039</v>
-      </c>
-      <c r="E2" s="58" t="s">
-        <v>1040</v>
-      </c>
-      <c r="J2" s="58" t="s">
-        <v>1043</v>
-      </c>
-      <c r="K2" s="58" t="s">
+      <c r="N2" s="58" t="s">
         <v>1044</v>
-      </c>
-      <c r="L2" s="58" t="s">
-        <v>1037</v>
-      </c>
-      <c r="M2" s="58" t="s">
-        <v>1038</v>
-      </c>
-      <c r="N2" s="58" t="s">
-        <v>1045</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="3" customHeight="1"/>

--- a/言語チートシート.xlsx
+++ b/言語チートシート.xlsx
@@ -9,9 +9,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC447897-A27C-4198-A4DB-186840233BDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76431C62-2DFB-427E-8396-17F274B23EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2025" yWindow="-120" windowWidth="26895" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2025" yWindow="-120" windowWidth="26895" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vbs,vba" sheetId="43" r:id="rId1"/>
@@ -4696,10 +4696,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>ｋｋｋｋ</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>os.path.dirname( "/home/aaa/bbb/c.txt" )</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -5048,6 +5044,9 @@
   <si>
     <t>×</t>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>objFSO.GetFileName( "C:\codes\a.txt" )</t>
   </si>
 </sst>
 </file>
@@ -5325,7 +5324,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
@@ -5475,6 +5474,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -5914,11 +5916,11 @@
   </sheetPr>
   <dimension ref="A1:H383"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C95" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C113" sqref="C113"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -11327,8 +11329,8 @@
       <c r="B189" s="2" t="s">
         <v>726</v>
       </c>
-      <c r="C189" s="4" t="s">
-        <v>1020</v>
+      <c r="C189" s="50" t="s">
+        <v>1083</v>
       </c>
       <c r="D189" s="4" t="str">
         <f>"objFSO.GetFileName( ""C:\codes\a.txt"" )"</f>
@@ -11657,34 +11659,32 @@
       <c r="B201" s="2" t="s">
         <v>1008</v>
       </c>
-      <c r="C201" s="4" t="str">
-        <f>"Call MoveToTrushBox(objFSO, sTrgtPath)
-Private Function MoveToTrushBox(ByRef objFSO, ByVal sTrgtPath)
-    If objFSO.FileExists(sTrgtPath) Then" &amp; "
-        CreateObject(""Shell.Application"").Namespace(10).movehere sTrgtPath
-        Do While objFSO.FileExists(sTrgtPath) Or objFSO.FolderExists(sTrgtPath)
-            '削除処理は非同期で進行するため、削除中にスクリプトが終了すると削除処理は中断される。" &amp; "
-            '削除対象が削除されるまで待機する。
-            WScript.sleep(100)
-        Loop" &amp; "
-        MoveToTrushBox = True
-    Else
-        MoveToTrushBox = False
-    End If
+      <c r="C201" s="50" t="str">
+        <f>"Call MoveToTrushBox(sTrgtPath)
+Public Function MoveToTrushBox( _
+    ByVal sTrgtPath _
+)
+    Dim objFSO" &amp; "
+    Set objFSO = CreateObject(""Scripting.FileSystemObject"")
+    CreateObject(""Shell.Application"").Namespace(10).movehere sTrgtPath
+    Do While objFSO.FileExists(sTrgtPath) Or objFSO.FolderExists(sTrgtPath)"&amp;"
+        '削除処理は非同期で進行するため、削除中にスクリプトが終了すると削除処理は中断される。
+        '削除対象が削除されるまで待機する。
+        WScript.sleep(100)
+    Loop
 End Function"</f>
-        <v>Call MoveToTrushBox(objFSO, sTrgtPath)
-Private Function MoveToTrushBox(ByRef objFSO, ByVal sTrgtPath)
-    If objFSO.FileExists(sTrgtPath) Then
-        CreateObject("Shell.Application").Namespace(10).movehere sTrgtPath
-        Do While objFSO.FileExists(sTrgtPath) Or objFSO.FolderExists(sTrgtPath)
-            '削除処理は非同期で進行するため、削除中にスクリプトが終了すると削除処理は中断される。
-            '削除対象が削除されるまで待機する。
-            WScript.sleep(100)
-        Loop
-        MoveToTrushBox = True
-    Else
-        MoveToTrushBox = False
-    End If
+        <v>Call MoveToTrushBox(sTrgtPath)
+Public Function MoveToTrushBox( _
+    ByVal sTrgtPath _
+)
+    Dim objFSO
+    Set objFSO = CreateObject("Scripting.FileSystemObject")
+    CreateObject("Shell.Application").Namespace(10).movehere sTrgtPath
+    Do While objFSO.FileExists(sTrgtPath) Or objFSO.FolderExists(sTrgtPath)
+        '削除処理は非同期で進行するため、削除中にスクリプトが終了すると削除処理は中断される。
+        '削除対象が削除されるまで待機する。
+        WScript.sleep(100)
+    Loop
 End Function</v>
       </c>
       <c r="D201" s="4" t="str">
@@ -16579,11 +16579,11 @@
   </sheetPr>
   <dimension ref="A1:I260"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C147" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B155" sqref="B155"/>
+      <selection pane="bottomRight" activeCell="B170" sqref="B170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -16603,7 +16603,7 @@
       <c r="B1" s="10"/>
       <c r="C1" s="15"/>
       <c r="D1" s="41" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="E1" s="41"/>
       <c r="F1" s="15"/>
@@ -16620,10 +16620,10 @@
         <v>125</v>
       </c>
       <c r="D2" s="42" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E2" s="42" t="s">
         <v>1052</v>
-      </c>
-      <c r="E2" s="42" t="s">
-        <v>1053</v>
       </c>
       <c r="F2" s="16" t="s">
         <v>126</v>
@@ -21019,10 +21019,10 @@
       </c>
       <c r="C195" s="9"/>
       <c r="D195" s="46" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="E195" s="46" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="F195" s="5"/>
       <c r="G195" s="1" t="s">
@@ -21044,10 +21044,10 @@
       </c>
       <c r="C196" s="9"/>
       <c r="D196" s="46" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="E196" s="46" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="F196" s="5"/>
       <c r="G196" s="1" t="s">
@@ -21065,10 +21065,10 @@
     <row r="197" spans="1:9" outlineLevel="1">
       <c r="A197" s="2"/>
       <c r="B197" s="2" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="D197" s="46"/>
       <c r="E197" s="46"/>
@@ -21088,15 +21088,15 @@
     <row r="198" spans="1:9" outlineLevel="1">
       <c r="A198" s="2"/>
       <c r="B198" s="2" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="D198" s="46"/>
       <c r="E198" s="46"/>
       <c r="F198" s="5" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="G198" s="1" t="s">
         <v>122</v>
@@ -21116,7 +21116,7 @@
         <v>379</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="D199" s="46"/>
       <c r="E199" s="46"/>
@@ -21140,10 +21140,10 @@
       </c>
       <c r="C200" s="9"/>
       <c r="D200" s="46" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="E200" s="46" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="F200" s="5"/>
       <c r="G200" s="1" t="s">
@@ -21165,10 +21165,10 @@
       </c>
       <c r="C201" s="9"/>
       <c r="D201" s="46" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="E201" s="46" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="F201" s="5"/>
       <c r="G201" s="1" t="s">
@@ -21190,10 +21190,10 @@
       </c>
       <c r="C202" s="9"/>
       <c r="D202" s="46" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="E202" s="46" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="F202" s="5"/>
       <c r="G202" s="1" t="s">
@@ -21215,10 +21215,10 @@
       </c>
       <c r="C203" s="9"/>
       <c r="D203" s="46" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="E203" s="46" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="F203" s="5"/>
       <c r="G203" s="1" t="s">
@@ -21240,10 +21240,10 @@
       </c>
       <c r="C204" s="9"/>
       <c r="D204" s="46" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="E204" s="46" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="F204" s="5"/>
       <c r="G204" s="1" t="s">
@@ -21261,16 +21261,16 @@
     <row r="205" spans="1:9" outlineLevel="1">
       <c r="A205" s="2"/>
       <c r="B205" s="2" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C205" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D205" s="45" t="s">
         <v>1077</v>
       </c>
-      <c r="D205" s="45" t="s">
-        <v>1078</v>
-      </c>
       <c r="E205" s="45" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="F205" s="5"/>
       <c r="I205" s="1" t="str">
@@ -21281,16 +21281,16 @@
     <row r="206" spans="1:9" outlineLevel="1">
       <c r="A206" s="2"/>
       <c r="B206" s="2" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="D206" s="45" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="E206" s="45" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="F206" s="5"/>
       <c r="I206" s="1"/>
@@ -21302,10 +21302,10 @@
       </c>
       <c r="C207" s="9"/>
       <c r="D207" s="46" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="E207" s="46" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="F207" s="5"/>
       <c r="G207" s="1" t="s">
@@ -21327,10 +21327,10 @@
       </c>
       <c r="C208" s="9"/>
       <c r="D208" s="46" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E208" s="46" t="s">
         <v>1054</v>
-      </c>
-      <c r="E208" s="46" t="s">
-        <v>1055</v>
       </c>
       <c r="F208" s="5"/>
       <c r="G208" s="1" t="s">
@@ -21352,10 +21352,10 @@
       </c>
       <c r="C209" s="9"/>
       <c r="D209" s="46" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E209" s="46" t="s">
         <v>1054</v>
-      </c>
-      <c r="E209" s="46" t="s">
-        <v>1055</v>
       </c>
       <c r="F209" s="5"/>
       <c r="G209" s="1" t="s">
@@ -21373,10 +21373,10 @@
     <row r="210" spans="1:9" outlineLevel="1">
       <c r="A210" s="2"/>
       <c r="B210" s="2" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D210" s="45"/>
       <c r="E210" s="45"/>
@@ -21396,7 +21396,7 @@
     <row r="211" spans="1:9" outlineLevel="1">
       <c r="A211" s="2"/>
       <c r="B211" s="2" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="C211" s="4" t="s">
         <v>870</v>
@@ -21419,7 +21419,7 @@
     <row r="212" spans="1:9" outlineLevel="1">
       <c r="A212" s="2"/>
       <c r="B212" s="2" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="C212" s="4" t="s">
         <v>870</v>
@@ -21445,7 +21445,7 @@
         <v>48</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="D213" s="45"/>
       <c r="E213" s="45"/>
@@ -21468,7 +21468,7 @@
         <v>49</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="D214" s="45"/>
       <c r="E214" s="45"/>
@@ -21488,10 +21488,10 @@
     <row r="215" spans="1:9" outlineLevel="1">
       <c r="A215" s="2"/>
       <c r="B215" s="2" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="D215" s="45"/>
       <c r="E215" s="45"/>
@@ -21517,10 +21517,10 @@
       </c>
       <c r="C216" s="9"/>
       <c r="D216" s="45" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E216" s="45" t="s">
         <v>1054</v>
-      </c>
-      <c r="E216" s="45" t="s">
-        <v>1055</v>
       </c>
       <c r="F216" s="5"/>
       <c r="G216" s="1" t="s">
@@ -21546,7 +21546,7 @@
       <c r="D217" s="45"/>
       <c r="E217" s="45"/>
       <c r="F217" s="33" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="G217" s="1" t="s">
         <v>122</v>
@@ -21566,12 +21566,12 @@
         <v>56</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="D218" s="45"/>
       <c r="E218" s="45"/>
       <c r="F218" s="33" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="G218" s="1" t="s">
         <v>122</v>
@@ -21591,12 +21591,12 @@
         <v>54</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D219" s="45"/>
       <c r="E219" s="45"/>
       <c r="F219" s="5" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="G219" s="1" t="s">
         <v>122</v>
@@ -21616,12 +21616,12 @@
         <v>55</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="D220" s="45"/>
       <c r="E220" s="45"/>
       <c r="F220" s="5" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="G220" s="1" t="s">
         <v>122</v>
@@ -21638,7 +21638,7 @@
     <row r="221" spans="1:9" outlineLevel="1">
       <c r="A221" s="2"/>
       <c r="B221" s="2" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C221" s="4" t="s">
         <v>871</v>
@@ -21661,10 +21661,10 @@
     <row r="222" spans="1:9" outlineLevel="1">
       <c r="A222" s="2"/>
       <c r="B222" s="2" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C222" s="4" t="s">
         <v>1039</v>
-      </c>
-      <c r="C222" s="4" t="s">
-        <v>1040</v>
       </c>
       <c r="D222" s="45"/>
       <c r="E222" s="45"/>
@@ -21684,7 +21684,7 @@
     <row r="223" spans="1:9" outlineLevel="1">
       <c r="A223" s="2"/>
       <c r="B223" s="2" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="C223" s="4" t="s">
         <v>872</v>
@@ -21756,7 +21756,7 @@
         <v>60</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="D226" s="45"/>
       <c r="E226" s="45"/>
@@ -21800,7 +21800,7 @@
         <v>390</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="D228" s="45"/>
       <c r="E228" s="45"/>
@@ -21825,7 +21825,7 @@
         <v>391</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="D229" s="45"/>
       <c r="E229" s="45"/>
@@ -21847,13 +21847,13 @@
         <v>341</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="D230" s="45" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="E230" s="45" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="F230" s="5"/>
       <c r="G230" s="1" t="s">
@@ -21870,16 +21870,16 @@
     </row>
     <row r="231" spans="1:9" outlineLevel="1">
       <c r="B231" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C231" s="4" t="s">
         <v>1034</v>
       </c>
-      <c r="C231" s="4" t="s">
-        <v>1035</v>
-      </c>
       <c r="D231" s="45" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="E231" s="45" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="F231" s="5"/>
       <c r="G231" s="1" t="s">
@@ -21896,19 +21896,19 @@
     </row>
     <row r="232" spans="1:9" outlineLevel="1">
       <c r="B232" s="2" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C232" s="4" t="s">
         <v>1056</v>
       </c>
-      <c r="C232" s="4" t="s">
+      <c r="D232" s="45" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E232" s="45" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F232" s="5" t="s">
         <v>1057</v>
-      </c>
-      <c r="D232" s="45" t="s">
-        <v>1055</v>
-      </c>
-      <c r="E232" s="45" t="s">
-        <v>1054</v>
-      </c>
-      <c r="F232" s="5" t="s">
-        <v>1058</v>
       </c>
       <c r="G232" s="1" t="s">
         <v>122</v>
@@ -21925,7 +21925,7 @@
     <row r="233" spans="1:9" outlineLevel="1">
       <c r="A233" s="2"/>
       <c r="B233" s="2" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="C233" s="9"/>
       <c r="D233" s="46"/>
@@ -21946,7 +21946,7 @@
     <row r="234" spans="1:9" outlineLevel="1">
       <c r="A234" s="2"/>
       <c r="B234" s="2" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C234" s="9"/>
       <c r="D234" s="46"/>
@@ -22041,7 +22041,7 @@
     <row r="238" spans="1:9" outlineLevel="1">
       <c r="A238" s="2"/>
       <c r="B238" s="2" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C238" s="4" t="s">
         <v>873</v>
@@ -22049,7 +22049,7 @@
       <c r="D238" s="45"/>
       <c r="E238" s="45"/>
       <c r="F238" s="5" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="G238" s="1" t="s">
         <v>122</v>
@@ -22066,7 +22066,7 @@
     <row r="239" spans="1:9" outlineLevel="1">
       <c r="A239" s="2"/>
       <c r="B239" s="2" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C239" s="4" t="s">
         <v>880</v>
@@ -22074,7 +22074,7 @@
       <c r="D239" s="45"/>
       <c r="E239" s="45"/>
       <c r="F239" s="5" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="G239" s="1" t="s">
         <v>122</v>
@@ -22094,7 +22094,7 @@
         <v>117</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="D240" s="45"/>
       <c r="E240" s="45"/>
@@ -22114,10 +22114,10 @@
     <row r="241" spans="1:9" outlineLevel="1">
       <c r="A241" s="2"/>
       <c r="B241" s="2" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="D241" s="45"/>
       <c r="E241" s="45"/>
@@ -22163,12 +22163,12 @@
         <v>722</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="D243" s="45"/>
       <c r="E243" s="45"/>
       <c r="F243" s="5" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="G243" s="1" t="s">
         <v>122</v>
@@ -22188,12 +22188,12 @@
         <v>721</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="D244" s="45"/>
       <c r="E244" s="45"/>
       <c r="F244" s="5" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G244" s="1" t="s">
         <v>122</v>
@@ -22361,15 +22361,15 @@
     <row r="252" spans="1:9" outlineLevel="1">
       <c r="A252" s="2"/>
       <c r="B252" s="2" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C252" s="4" t="s">
         <v>1022</v>
-      </c>
-      <c r="C252" s="4" t="s">
-        <v>1023</v>
       </c>
       <c r="D252" s="45"/>
       <c r="E252" s="45"/>
       <c r="F252" s="5" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="H252" s="1">
         <f t="shared" ca="1" si="6"/>
@@ -22399,7 +22399,7 @@
     <row r="254" spans="1:9" outlineLevel="1">
       <c r="A254" s="2"/>
       <c r="B254" s="2" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C254" s="9"/>
       <c r="D254" s="46"/>
